--- a/계획표(일과,자산).xlsx
+++ b/계획표(일과,자산).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F3A799-A63C-5D47-8849-6EED1532428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D8C96-330F-3142-8832-499BB05E51B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1. Vision, Bucket List'!$A$1:$H$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'3. 일간 목표&amp;실천'!$A$1:$PP$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3. 일간 목표&amp;실천'!$A$1:$RX$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">마음가짐!$A$1:$A$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'3. 일간 목표&amp;실천'!$A:$C</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="441">
   <si>
     <t>에어비엔비 호스팅 가이드</t>
   </si>
@@ -2231,10 +2231,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>적당한 일 : 4시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>여행의 자유</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2255,10 +2251,6 @@
   - 수영/액티비티(보드, 써핑, 다이빙, 스노쿨링 등) 
   - 캠핑 
   - 낚시/해루질</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주기적 봉사활동</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2720,10 +2712,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>~7월 30일까지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>~8월 15일까지</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2818,7 +2806,35 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>순자산 20억</t>
+    <t>운동</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁, 씻기</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐드</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매공부, 임장, 책읽기</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>I never give up</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~8월 7일까지</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상되고 기대되는 일 : 4시간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2832,9 +2848,18 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">평면/단면 이해 
-1. 물류동선의 이해 
-2. 각 실별 용도 이해와 레이아웃 짜기 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">1. 물류동선의 이해 </t>
     </r>
     <r>
       <rPr>
@@ -2844,7 +2869,9 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">3. 유틸리티 기계 이해 </t>
+      <t xml:space="preserve">
+2. 각 실별 용도 이해와 레이아웃 짜기 
+3. 유틸리티 기계 이해 </t>
     </r>
     <r>
       <rPr>
@@ -2858,29 +2885,17 @@
       <t xml:space="preserve">
 4. 유틸리티 계통 이해 
 5. 전기 이해 
-6. 생산장비에 따른 건설 스케줄
+6. 생산장비에 따른 건설 스케줄 
 7. 건축자재의 이해 </t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>운동</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁, 씻기</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐드</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매공부, 임장, 책읽기</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>I never give up</t>
+    <t>순자산 30억</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2895,7 +2910,7 @@
     <numFmt numFmtId="179" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3222,6 +3237,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="27">
@@ -4705,9 +4728,45 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4717,39 +4776,180 @@
     <xf numFmtId="0" fontId="14" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4762,185 +4962,8 @@
     <xf numFmtId="0" fontId="14" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5192,7 +5215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s12905"/>
+                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s12925"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5559,8 +5582,8 @@
   </sheetPr>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5754,8 +5777,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5782,11 +5805,11 @@
       </c>
       <c r="D1" s="246"/>
       <c r="E1" s="245" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F1" s="246"/>
       <c r="G1" s="209" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I1" s="209" t="s">
         <v>19</v>
@@ -5794,18 +5817,18 @@
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="B2" s="210" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="246" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E2" s="247"/>
       <c r="F2" s="252" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H2" s="251" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J2" s="210" t="s">
         <v>43</v>
@@ -5813,16 +5836,16 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="B3" s="210" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C3" s="247"/>
       <c r="D3" s="246"/>
       <c r="E3" s="247"/>
       <c r="F3" s="253" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H3" s="211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J3" s="210" t="s">
         <v>306</v>
@@ -5830,31 +5853,31 @@
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="B4" s="210" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C4" s="247"/>
       <c r="D4" s="246"/>
       <c r="E4" s="247"/>
       <c r="F4" s="253" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G4" s="211"/>
       <c r="H4" s="211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="B5" s="210" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="247"/>
       <c r="D5" s="246"/>
       <c r="E5" s="247"/>
       <c r="F5" s="246" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H5" s="210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I5" s="209" t="s">
         <v>11</v>
@@ -5862,16 +5885,16 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="B6" s="210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C6" s="247"/>
       <c r="D6" s="246"/>
       <c r="E6" s="247"/>
       <c r="F6" s="246" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H6" s="210" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="J6" s="210" t="s">
         <v>128</v>
@@ -5879,16 +5902,16 @@
     </row>
     <row r="7" spans="1:10" ht="144">
       <c r="B7" s="244" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="247"/>
       <c r="D7" s="246"/>
       <c r="E7" s="247"/>
-      <c r="F7" s="333" t="s">
-        <v>434</v>
+      <c r="F7" s="258" t="s">
+        <v>438</v>
       </c>
       <c r="H7" s="210" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J7" s="210" t="s">
         <v>125</v>
@@ -5896,18 +5919,18 @@
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1">
       <c r="B8" s="244" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="C8" s="247"/>
       <c r="D8" s="246" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E8" s="247"/>
       <c r="F8" s="246" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H8" s="210" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J8" s="210" t="s">
         <v>2</v>
@@ -5919,10 +5942,10 @@
       <c r="D9" s="246"/>
       <c r="E9" s="247"/>
       <c r="F9" s="246" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H9" s="210" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J9" s="210" t="s">
         <v>47</v>
@@ -5934,23 +5957,23 @@
       <c r="D10" s="246"/>
       <c r="E10" s="247"/>
       <c r="F10" s="246" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H10" s="210" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="C11" s="247"/>
       <c r="D11" s="246" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E11" s="247"/>
       <c r="F11" s="246" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I11" s="209" t="s">
         <v>122</v>
@@ -5962,7 +5985,7 @@
       <c r="E12" s="247"/>
       <c r="F12" s="246"/>
       <c r="H12" s="210" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J12" s="210" t="s">
         <v>59</v>
@@ -5971,14 +5994,14 @@
     <row r="13" spans="1:10" ht="27" customHeight="1">
       <c r="C13" s="247"/>
       <c r="D13" s="246" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E13" s="247"/>
       <c r="F13" s="246" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H13" s="210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J13" s="210" t="s">
         <v>307</v>
@@ -5990,7 +6013,7 @@
       <c r="E14" s="247"/>
       <c r="F14" s="246"/>
       <c r="H14" s="210" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1">
@@ -6000,7 +6023,7 @@
       <c r="E15" s="247"/>
       <c r="F15" s="246"/>
       <c r="H15" s="210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I15" s="209" t="s">
         <v>62</v>
@@ -6012,7 +6035,7 @@
       <c r="E16" s="247"/>
       <c r="F16" s="246"/>
       <c r="H16" s="210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J16" s="210" t="s">
         <v>107</v>
@@ -6024,7 +6047,7 @@
       <c r="E17" s="247"/>
       <c r="F17" s="246"/>
       <c r="H17" s="210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="27" customHeight="1">
@@ -6033,7 +6056,7 @@
       <c r="E18" s="247"/>
       <c r="F18" s="246"/>
       <c r="H18" s="210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="27" customHeight="1">
@@ -6042,13 +6065,13 @@
       <c r="E19" s="247"/>
       <c r="F19" s="246"/>
       <c r="H19" s="210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="27" customHeight="1">
       <c r="C20" s="247"/>
       <c r="D20" s="246" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E20" s="247"/>
       <c r="F20" s="246"/>
@@ -6067,7 +6090,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6113,7 +6136,7 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="243" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D3" s="236" t="s">
         <v>334</v>
@@ -6127,7 +6150,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C4" s="242" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D4" s="237"/>
     </row>
@@ -6139,7 +6162,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D5" s="238"/>
     </row>
@@ -6151,7 +6174,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C6" s="243" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D6" s="236" t="s">
         <v>334</v>
@@ -6165,7 +6188,7 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C7" s="243" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D7" s="236" t="s">
         <v>334</v>
@@ -6179,7 +6202,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C8" s="243" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D8" s="236" t="s">
         <v>334</v>
@@ -6193,7 +6216,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C9" s="243" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D9" s="236" t="s">
         <v>334</v>
@@ -6207,7 +6230,7 @@
         <v>0.9375</v>
       </c>
       <c r="C10" s="243" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D10" s="236" t="s">
         <v>334</v>
@@ -6217,9 +6240,9 @@
       <c r="A11" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="258"/>
+      <c r="B11" s="262"/>
       <c r="C11" s="243" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D11" s="236"/>
     </row>
@@ -6236,11 +6259,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:QM61"/>
+  <dimension ref="A1:SC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="OR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PL10" sqref="PL10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="OV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="PS12" sqref="PS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -6283,749 +6306,782 @@
     <col min="215" max="215" width="4.5" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:455" ht="21" customHeight="1">
-      <c r="A1" s="312" t="s">
+    <row r="1" spans="1:497" ht="21" customHeight="1">
+      <c r="A1" s="283" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="312" t="s">
+      <c r="B1" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="312" t="s">
+      <c r="C1" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="317" t="s">
+      <c r="D1" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="317"/>
-      <c r="R1" s="317"/>
-      <c r="S1" s="317"/>
-      <c r="T1" s="317"/>
-      <c r="U1" s="317"/>
-      <c r="V1" s="317"/>
-      <c r="W1" s="317"/>
-      <c r="X1" s="317"/>
-      <c r="Y1" s="317"/>
-      <c r="Z1" s="317"/>
-      <c r="AA1" s="317"/>
-      <c r="AB1" s="317"/>
-      <c r="AC1" s="317"/>
-      <c r="AD1" s="317"/>
-      <c r="AE1" s="317"/>
-      <c r="AF1" s="317"/>
-      <c r="AG1" s="317"/>
-      <c r="AH1" s="317"/>
-      <c r="AI1" s="317" t="s">
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="288"/>
+      <c r="S1" s="288"/>
+      <c r="T1" s="288"/>
+      <c r="U1" s="288"/>
+      <c r="V1" s="288"/>
+      <c r="W1" s="288"/>
+      <c r="X1" s="288"/>
+      <c r="Y1" s="288"/>
+      <c r="Z1" s="288"/>
+      <c r="AA1" s="288"/>
+      <c r="AB1" s="288"/>
+      <c r="AC1" s="288"/>
+      <c r="AD1" s="288"/>
+      <c r="AE1" s="288"/>
+      <c r="AF1" s="288"/>
+      <c r="AG1" s="288"/>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="317"/>
-      <c r="AK1" s="317"/>
-      <c r="AL1" s="317"/>
-      <c r="AM1" s="317"/>
-      <c r="AN1" s="317"/>
-      <c r="AO1" s="317"/>
-      <c r="AP1" s="317"/>
-      <c r="AQ1" s="317"/>
-      <c r="AR1" s="317"/>
-      <c r="AS1" s="317"/>
-      <c r="AT1" s="317"/>
-      <c r="AU1" s="317"/>
-      <c r="AV1" s="317"/>
-      <c r="AW1" s="317"/>
-      <c r="AX1" s="317"/>
-      <c r="AY1" s="317"/>
-      <c r="AZ1" s="317"/>
-      <c r="BA1" s="317"/>
-      <c r="BB1" s="317"/>
-      <c r="BC1" s="317"/>
-      <c r="BD1" s="317"/>
-      <c r="BE1" s="317"/>
-      <c r="BF1" s="317"/>
-      <c r="BG1" s="317"/>
-      <c r="BH1" s="317"/>
-      <c r="BI1" s="317"/>
-      <c r="BJ1" s="317"/>
-      <c r="BK1" s="317"/>
-      <c r="BL1" s="317"/>
-      <c r="BM1" s="317"/>
-      <c r="BN1" s="317" t="s">
+      <c r="AJ1" s="288"/>
+      <c r="AK1" s="288"/>
+      <c r="AL1" s="288"/>
+      <c r="AM1" s="288"/>
+      <c r="AN1" s="288"/>
+      <c r="AO1" s="288"/>
+      <c r="AP1" s="288"/>
+      <c r="AQ1" s="288"/>
+      <c r="AR1" s="288"/>
+      <c r="AS1" s="288"/>
+      <c r="AT1" s="288"/>
+      <c r="AU1" s="288"/>
+      <c r="AV1" s="288"/>
+      <c r="AW1" s="288"/>
+      <c r="AX1" s="288"/>
+      <c r="AY1" s="288"/>
+      <c r="AZ1" s="288"/>
+      <c r="BA1" s="288"/>
+      <c r="BB1" s="288"/>
+      <c r="BC1" s="288"/>
+      <c r="BD1" s="288"/>
+      <c r="BE1" s="288"/>
+      <c r="BF1" s="288"/>
+      <c r="BG1" s="288"/>
+      <c r="BH1" s="288"/>
+      <c r="BI1" s="288"/>
+      <c r="BJ1" s="288"/>
+      <c r="BK1" s="288"/>
+      <c r="BL1" s="288"/>
+      <c r="BM1" s="288"/>
+      <c r="BN1" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="317"/>
-      <c r="BP1" s="317"/>
-      <c r="BQ1" s="317"/>
-      <c r="BR1" s="317"/>
-      <c r="BS1" s="317"/>
-      <c r="BT1" s="317"/>
-      <c r="BU1" s="317"/>
-      <c r="BV1" s="317"/>
-      <c r="BW1" s="317"/>
-      <c r="BX1" s="317"/>
-      <c r="BY1" s="317"/>
-      <c r="BZ1" s="317"/>
-      <c r="CA1" s="317"/>
-      <c r="CB1" s="317"/>
-      <c r="CC1" s="317"/>
-      <c r="CD1" s="317"/>
-      <c r="CE1" s="317"/>
-      <c r="CF1" s="317"/>
-      <c r="CG1" s="317"/>
-      <c r="CH1" s="317"/>
-      <c r="CI1" s="317"/>
-      <c r="CJ1" s="317"/>
-      <c r="CK1" s="317"/>
-      <c r="CL1" s="317"/>
-      <c r="CM1" s="317"/>
-      <c r="CN1" s="317"/>
-      <c r="CO1" s="317"/>
-      <c r="CP1" s="317"/>
-      <c r="CQ1" s="317"/>
-      <c r="CR1" s="317"/>
-      <c r="CS1" s="317" t="s">
+      <c r="BO1" s="288"/>
+      <c r="BP1" s="288"/>
+      <c r="BQ1" s="288"/>
+      <c r="BR1" s="288"/>
+      <c r="BS1" s="288"/>
+      <c r="BT1" s="288"/>
+      <c r="BU1" s="288"/>
+      <c r="BV1" s="288"/>
+      <c r="BW1" s="288"/>
+      <c r="BX1" s="288"/>
+      <c r="BY1" s="288"/>
+      <c r="BZ1" s="288"/>
+      <c r="CA1" s="288"/>
+      <c r="CB1" s="288"/>
+      <c r="CC1" s="288"/>
+      <c r="CD1" s="288"/>
+      <c r="CE1" s="288"/>
+      <c r="CF1" s="288"/>
+      <c r="CG1" s="288"/>
+      <c r="CH1" s="288"/>
+      <c r="CI1" s="288"/>
+      <c r="CJ1" s="288"/>
+      <c r="CK1" s="288"/>
+      <c r="CL1" s="288"/>
+      <c r="CM1" s="288"/>
+      <c r="CN1" s="288"/>
+      <c r="CO1" s="288"/>
+      <c r="CP1" s="288"/>
+      <c r="CQ1" s="288"/>
+      <c r="CR1" s="288"/>
+      <c r="CS1" s="288" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="317"/>
-      <c r="CU1" s="317"/>
-      <c r="CV1" s="317"/>
-      <c r="CW1" s="317"/>
-      <c r="CX1" s="317"/>
-      <c r="CY1" s="317"/>
-      <c r="CZ1" s="317"/>
-      <c r="DA1" s="317"/>
-      <c r="DB1" s="317"/>
-      <c r="DC1" s="317"/>
-      <c r="DD1" s="317"/>
-      <c r="DE1" s="317"/>
-      <c r="DF1" s="317"/>
-      <c r="DG1" s="317"/>
-      <c r="DH1" s="317"/>
-      <c r="DI1" s="317"/>
-      <c r="DJ1" s="317"/>
-      <c r="DK1" s="317"/>
-      <c r="DL1" s="317"/>
-      <c r="DM1" s="317"/>
-      <c r="DN1" s="317"/>
-      <c r="DO1" s="317"/>
-      <c r="DP1" s="317"/>
-      <c r="DQ1" s="317"/>
-      <c r="DR1" s="317"/>
-      <c r="DS1" s="317"/>
-      <c r="DT1" s="317"/>
-      <c r="DU1" s="317"/>
-      <c r="DV1" s="317"/>
-      <c r="DW1" s="318"/>
-      <c r="DX1" s="299" t="s">
+      <c r="CT1" s="288"/>
+      <c r="CU1" s="288"/>
+      <c r="CV1" s="288"/>
+      <c r="CW1" s="288"/>
+      <c r="CX1" s="288"/>
+      <c r="CY1" s="288"/>
+      <c r="CZ1" s="288"/>
+      <c r="DA1" s="288"/>
+      <c r="DB1" s="288"/>
+      <c r="DC1" s="288"/>
+      <c r="DD1" s="288"/>
+      <c r="DE1" s="288"/>
+      <c r="DF1" s="288"/>
+      <c r="DG1" s="288"/>
+      <c r="DH1" s="288"/>
+      <c r="DI1" s="288"/>
+      <c r="DJ1" s="288"/>
+      <c r="DK1" s="288"/>
+      <c r="DL1" s="288"/>
+      <c r="DM1" s="288"/>
+      <c r="DN1" s="288"/>
+      <c r="DO1" s="288"/>
+      <c r="DP1" s="288"/>
+      <c r="DQ1" s="288"/>
+      <c r="DR1" s="288"/>
+      <c r="DS1" s="288"/>
+      <c r="DT1" s="288"/>
+      <c r="DU1" s="288"/>
+      <c r="DV1" s="288"/>
+      <c r="DW1" s="295"/>
+      <c r="DX1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="DY1" s="293"/>
-      <c r="DZ1" s="293"/>
-      <c r="EA1" s="293"/>
-      <c r="EB1" s="293"/>
-      <c r="EC1" s="293"/>
-      <c r="ED1" s="293"/>
-      <c r="EE1" s="293"/>
-      <c r="EF1" s="293"/>
-      <c r="EG1" s="293"/>
-      <c r="EH1" s="293"/>
-      <c r="EI1" s="293"/>
-      <c r="EJ1" s="293"/>
-      <c r="EK1" s="293"/>
-      <c r="EL1" s="293"/>
-      <c r="EM1" s="293"/>
-      <c r="EN1" s="293"/>
-      <c r="EO1" s="293"/>
-      <c r="EP1" s="293"/>
-      <c r="EQ1" s="293"/>
-      <c r="ER1" s="293"/>
-      <c r="ES1" s="293"/>
-      <c r="ET1" s="293"/>
-      <c r="EU1" s="293"/>
-      <c r="EV1" s="293"/>
-      <c r="EW1" s="293"/>
-      <c r="EX1" s="293"/>
-      <c r="EY1" s="293"/>
-      <c r="EZ1" s="293"/>
-      <c r="FA1" s="293"/>
-      <c r="FB1" s="294"/>
-      <c r="FC1" s="299" t="s">
+      <c r="DY1" s="298"/>
+      <c r="DZ1" s="298"/>
+      <c r="EA1" s="298"/>
+      <c r="EB1" s="298"/>
+      <c r="EC1" s="298"/>
+      <c r="ED1" s="298"/>
+      <c r="EE1" s="298"/>
+      <c r="EF1" s="298"/>
+      <c r="EG1" s="298"/>
+      <c r="EH1" s="298"/>
+      <c r="EI1" s="298"/>
+      <c r="EJ1" s="298"/>
+      <c r="EK1" s="298"/>
+      <c r="EL1" s="298"/>
+      <c r="EM1" s="298"/>
+      <c r="EN1" s="298"/>
+      <c r="EO1" s="298"/>
+      <c r="EP1" s="298"/>
+      <c r="EQ1" s="298"/>
+      <c r="ER1" s="298"/>
+      <c r="ES1" s="298"/>
+      <c r="ET1" s="298"/>
+      <c r="EU1" s="298"/>
+      <c r="EV1" s="298"/>
+      <c r="EW1" s="298"/>
+      <c r="EX1" s="298"/>
+      <c r="EY1" s="298"/>
+      <c r="EZ1" s="298"/>
+      <c r="FA1" s="298"/>
+      <c r="FB1" s="299"/>
+      <c r="FC1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="FD1" s="293"/>
-      <c r="FE1" s="293"/>
-      <c r="FF1" s="293"/>
-      <c r="FG1" s="293"/>
-      <c r="FH1" s="293"/>
-      <c r="FI1" s="293"/>
-      <c r="FJ1" s="293"/>
-      <c r="FK1" s="293"/>
-      <c r="FL1" s="293"/>
-      <c r="FM1" s="293"/>
-      <c r="FN1" s="293"/>
-      <c r="FO1" s="293"/>
-      <c r="FP1" s="293"/>
-      <c r="FQ1" s="293"/>
-      <c r="FR1" s="293"/>
-      <c r="FS1" s="293"/>
-      <c r="FT1" s="293"/>
-      <c r="FU1" s="293"/>
-      <c r="FV1" s="293"/>
-      <c r="FW1" s="293"/>
-      <c r="FX1" s="293"/>
-      <c r="FY1" s="293"/>
-      <c r="FZ1" s="293"/>
-      <c r="GA1" s="293"/>
-      <c r="GB1" s="293"/>
-      <c r="GC1" s="293"/>
-      <c r="GD1" s="293"/>
-      <c r="GE1" s="293"/>
-      <c r="GF1" s="293"/>
-      <c r="GG1" s="294"/>
-      <c r="GH1" s="299" t="s">
+      <c r="FD1" s="298"/>
+      <c r="FE1" s="298"/>
+      <c r="FF1" s="298"/>
+      <c r="FG1" s="298"/>
+      <c r="FH1" s="298"/>
+      <c r="FI1" s="298"/>
+      <c r="FJ1" s="298"/>
+      <c r="FK1" s="298"/>
+      <c r="FL1" s="298"/>
+      <c r="FM1" s="298"/>
+      <c r="FN1" s="298"/>
+      <c r="FO1" s="298"/>
+      <c r="FP1" s="298"/>
+      <c r="FQ1" s="298"/>
+      <c r="FR1" s="298"/>
+      <c r="FS1" s="298"/>
+      <c r="FT1" s="298"/>
+      <c r="FU1" s="298"/>
+      <c r="FV1" s="298"/>
+      <c r="FW1" s="298"/>
+      <c r="FX1" s="298"/>
+      <c r="FY1" s="298"/>
+      <c r="FZ1" s="298"/>
+      <c r="GA1" s="298"/>
+      <c r="GB1" s="298"/>
+      <c r="GC1" s="298"/>
+      <c r="GD1" s="298"/>
+      <c r="GE1" s="298"/>
+      <c r="GF1" s="298"/>
+      <c r="GG1" s="299"/>
+      <c r="GH1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="GI1" s="293"/>
-      <c r="GJ1" s="293"/>
-      <c r="GK1" s="293"/>
-      <c r="GL1" s="293"/>
-      <c r="GM1" s="293"/>
-      <c r="GN1" s="293"/>
-      <c r="GO1" s="293"/>
-      <c r="GP1" s="293"/>
-      <c r="GQ1" s="293"/>
-      <c r="GR1" s="293"/>
-      <c r="GS1" s="293"/>
-      <c r="GT1" s="293"/>
-      <c r="GU1" s="293"/>
-      <c r="GV1" s="293"/>
-      <c r="GW1" s="293"/>
-      <c r="GX1" s="293"/>
-      <c r="GY1" s="293"/>
-      <c r="GZ1" s="293"/>
-      <c r="HA1" s="293"/>
-      <c r="HB1" s="293"/>
-      <c r="HC1" s="293"/>
-      <c r="HD1" s="293"/>
-      <c r="HE1" s="293"/>
-      <c r="HF1" s="293"/>
-      <c r="HG1" s="293"/>
-      <c r="HH1" s="293"/>
-      <c r="HI1" s="293"/>
-      <c r="HJ1" s="293"/>
-      <c r="HK1" s="293"/>
-      <c r="HL1" s="294"/>
-      <c r="HM1" s="292" t="s">
+      <c r="GI1" s="298"/>
+      <c r="GJ1" s="298"/>
+      <c r="GK1" s="298"/>
+      <c r="GL1" s="298"/>
+      <c r="GM1" s="298"/>
+      <c r="GN1" s="298"/>
+      <c r="GO1" s="298"/>
+      <c r="GP1" s="298"/>
+      <c r="GQ1" s="298"/>
+      <c r="GR1" s="298"/>
+      <c r="GS1" s="298"/>
+      <c r="GT1" s="298"/>
+      <c r="GU1" s="298"/>
+      <c r="GV1" s="298"/>
+      <c r="GW1" s="298"/>
+      <c r="GX1" s="298"/>
+      <c r="GY1" s="298"/>
+      <c r="GZ1" s="298"/>
+      <c r="HA1" s="298"/>
+      <c r="HB1" s="298"/>
+      <c r="HC1" s="298"/>
+      <c r="HD1" s="298"/>
+      <c r="HE1" s="298"/>
+      <c r="HF1" s="298"/>
+      <c r="HG1" s="298"/>
+      <c r="HH1" s="298"/>
+      <c r="HI1" s="298"/>
+      <c r="HJ1" s="298"/>
+      <c r="HK1" s="298"/>
+      <c r="HL1" s="299"/>
+      <c r="HM1" s="320" t="s">
         <v>241</v>
       </c>
-      <c r="HN1" s="293"/>
-      <c r="HO1" s="293"/>
-      <c r="HP1" s="293"/>
-      <c r="HQ1" s="293"/>
-      <c r="HR1" s="293"/>
-      <c r="HS1" s="293"/>
-      <c r="HT1" s="293"/>
-      <c r="HU1" s="293"/>
-      <c r="HV1" s="293"/>
-      <c r="HW1" s="293"/>
-      <c r="HX1" s="293"/>
-      <c r="HY1" s="293"/>
-      <c r="HZ1" s="293"/>
-      <c r="IA1" s="293"/>
-      <c r="IB1" s="293"/>
-      <c r="IC1" s="293"/>
-      <c r="ID1" s="293"/>
-      <c r="IE1" s="293"/>
-      <c r="IF1" s="293"/>
-      <c r="IG1" s="293"/>
-      <c r="IH1" s="293"/>
-      <c r="II1" s="293"/>
-      <c r="IJ1" s="293"/>
-      <c r="IK1" s="293"/>
-      <c r="IL1" s="293"/>
-      <c r="IM1" s="293"/>
-      <c r="IN1" s="293"/>
-      <c r="IO1" s="293"/>
-      <c r="IP1" s="293"/>
-      <c r="IQ1" s="294"/>
+      <c r="HN1" s="298"/>
+      <c r="HO1" s="298"/>
+      <c r="HP1" s="298"/>
+      <c r="HQ1" s="298"/>
+      <c r="HR1" s="298"/>
+      <c r="HS1" s="298"/>
+      <c r="HT1" s="298"/>
+      <c r="HU1" s="298"/>
+      <c r="HV1" s="298"/>
+      <c r="HW1" s="298"/>
+      <c r="HX1" s="298"/>
+      <c r="HY1" s="298"/>
+      <c r="HZ1" s="298"/>
+      <c r="IA1" s="298"/>
+      <c r="IB1" s="298"/>
+      <c r="IC1" s="298"/>
+      <c r="ID1" s="298"/>
+      <c r="IE1" s="298"/>
+      <c r="IF1" s="298"/>
+      <c r="IG1" s="298"/>
+      <c r="IH1" s="298"/>
+      <c r="II1" s="298"/>
+      <c r="IJ1" s="298"/>
+      <c r="IK1" s="298"/>
+      <c r="IL1" s="298"/>
+      <c r="IM1" s="298"/>
+      <c r="IN1" s="298"/>
+      <c r="IO1" s="298"/>
+      <c r="IP1" s="298"/>
+      <c r="IQ1" s="299"/>
     </row>
-    <row r="2" spans="1:455" ht="21" customHeight="1">
-      <c r="A2" s="312"/>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
+    <row r="2" spans="1:497" ht="21" customHeight="1">
+      <c r="A2" s="283"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
       <c r="D2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="E2" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
-      <c r="R2" s="312"/>
-      <c r="S2" s="312"/>
-      <c r="T2" s="312"/>
-      <c r="U2" s="312"/>
-      <c r="V2" s="312"/>
-      <c r="W2" s="312"/>
-      <c r="X2" s="312"/>
-      <c r="Y2" s="312"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="312"/>
-      <c r="AB2" s="312"/>
-      <c r="AC2" s="312"/>
-      <c r="AD2" s="312"/>
-      <c r="AE2" s="312"/>
-      <c r="AF2" s="312"/>
-      <c r="AG2" s="312"/>
-      <c r="AH2" s="312"/>
-      <c r="AI2" s="312" t="s">
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="283"/>
+      <c r="X2" s="283"/>
+      <c r="Y2" s="283"/>
+      <c r="Z2" s="283"/>
+      <c r="AA2" s="283"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
+      <c r="AF2" s="283"/>
+      <c r="AG2" s="283"/>
+      <c r="AH2" s="283"/>
+      <c r="AI2" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="312"/>
-      <c r="AK2" s="312"/>
-      <c r="AL2" s="312"/>
-      <c r="AM2" s="312"/>
-      <c r="AN2" s="312"/>
-      <c r="AO2" s="312"/>
-      <c r="AP2" s="312"/>
-      <c r="AQ2" s="312"/>
-      <c r="AR2" s="312"/>
-      <c r="AS2" s="312"/>
-      <c r="AT2" s="312"/>
-      <c r="AU2" s="312"/>
-      <c r="AV2" s="312"/>
-      <c r="AW2" s="312"/>
-      <c r="AX2" s="312"/>
-      <c r="AY2" s="312"/>
-      <c r="AZ2" s="312"/>
-      <c r="BA2" s="312"/>
-      <c r="BB2" s="312"/>
-      <c r="BC2" s="312"/>
-      <c r="BD2" s="312"/>
-      <c r="BE2" s="312"/>
-      <c r="BF2" s="312"/>
-      <c r="BG2" s="312"/>
-      <c r="BH2" s="312"/>
-      <c r="BI2" s="312"/>
-      <c r="BJ2" s="312"/>
-      <c r="BK2" s="312"/>
-      <c r="BL2" s="312"/>
-      <c r="BM2" s="312"/>
-      <c r="BN2" s="312" t="s">
+      <c r="AJ2" s="283"/>
+      <c r="AK2" s="283"/>
+      <c r="AL2" s="283"/>
+      <c r="AM2" s="283"/>
+      <c r="AN2" s="283"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
+      <c r="AR2" s="283"/>
+      <c r="AS2" s="283"/>
+      <c r="AT2" s="283"/>
+      <c r="AU2" s="283"/>
+      <c r="AV2" s="283"/>
+      <c r="AW2" s="283"/>
+      <c r="AX2" s="283"/>
+      <c r="AY2" s="283"/>
+      <c r="AZ2" s="283"/>
+      <c r="BA2" s="283"/>
+      <c r="BB2" s="283"/>
+      <c r="BC2" s="283"/>
+      <c r="BD2" s="283"/>
+      <c r="BE2" s="283"/>
+      <c r="BF2" s="283"/>
+      <c r="BG2" s="283"/>
+      <c r="BH2" s="283"/>
+      <c r="BI2" s="283"/>
+      <c r="BJ2" s="283"/>
+      <c r="BK2" s="283"/>
+      <c r="BL2" s="283"/>
+      <c r="BM2" s="283"/>
+      <c r="BN2" s="283" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" s="312"/>
-      <c r="BP2" s="312"/>
-      <c r="BQ2" s="312"/>
-      <c r="BR2" s="312"/>
-      <c r="BS2" s="312"/>
-      <c r="BT2" s="312"/>
-      <c r="BU2" s="312"/>
-      <c r="BV2" s="312"/>
-      <c r="BW2" s="312"/>
-      <c r="BX2" s="312"/>
-      <c r="BY2" s="312"/>
-      <c r="BZ2" s="312"/>
-      <c r="CA2" s="312"/>
-      <c r="CB2" s="312"/>
-      <c r="CC2" s="312"/>
-      <c r="CD2" s="312"/>
-      <c r="CE2" s="312"/>
-      <c r="CF2" s="312"/>
-      <c r="CG2" s="312"/>
-      <c r="CH2" s="312"/>
-      <c r="CI2" s="312"/>
-      <c r="CJ2" s="312"/>
-      <c r="CK2" s="312"/>
-      <c r="CL2" s="312"/>
-      <c r="CM2" s="312"/>
-      <c r="CN2" s="312"/>
-      <c r="CO2" s="312"/>
-      <c r="CP2" s="312"/>
-      <c r="CQ2" s="312"/>
-      <c r="CR2" s="312"/>
-      <c r="CS2" s="312" t="s">
+      <c r="BO2" s="283"/>
+      <c r="BP2" s="283"/>
+      <c r="BQ2" s="283"/>
+      <c r="BR2" s="283"/>
+      <c r="BS2" s="283"/>
+      <c r="BT2" s="283"/>
+      <c r="BU2" s="283"/>
+      <c r="BV2" s="283"/>
+      <c r="BW2" s="283"/>
+      <c r="BX2" s="283"/>
+      <c r="BY2" s="283"/>
+      <c r="BZ2" s="283"/>
+      <c r="CA2" s="283"/>
+      <c r="CB2" s="283"/>
+      <c r="CC2" s="283"/>
+      <c r="CD2" s="283"/>
+      <c r="CE2" s="283"/>
+      <c r="CF2" s="283"/>
+      <c r="CG2" s="283"/>
+      <c r="CH2" s="283"/>
+      <c r="CI2" s="283"/>
+      <c r="CJ2" s="283"/>
+      <c r="CK2" s="283"/>
+      <c r="CL2" s="283"/>
+      <c r="CM2" s="283"/>
+      <c r="CN2" s="283"/>
+      <c r="CO2" s="283"/>
+      <c r="CP2" s="283"/>
+      <c r="CQ2" s="283"/>
+      <c r="CR2" s="283"/>
+      <c r="CS2" s="283" t="s">
         <v>118</v>
       </c>
-      <c r="CT2" s="312"/>
-      <c r="CU2" s="312"/>
-      <c r="CV2" s="312"/>
-      <c r="CW2" s="312"/>
-      <c r="CX2" s="312"/>
-      <c r="CY2" s="312"/>
-      <c r="CZ2" s="312"/>
-      <c r="DA2" s="312"/>
-      <c r="DB2" s="312"/>
-      <c r="DC2" s="312"/>
-      <c r="DD2" s="312"/>
-      <c r="DE2" s="312"/>
-      <c r="DF2" s="312"/>
-      <c r="DG2" s="312"/>
-      <c r="DH2" s="312"/>
-      <c r="DI2" s="312"/>
-      <c r="DJ2" s="312"/>
-      <c r="DK2" s="312"/>
-      <c r="DL2" s="312"/>
-      <c r="DM2" s="312"/>
-      <c r="DN2" s="312"/>
-      <c r="DO2" s="312"/>
-      <c r="DP2" s="312"/>
-      <c r="DQ2" s="312"/>
-      <c r="DR2" s="312"/>
-      <c r="DS2" s="312"/>
-      <c r="DT2" s="312"/>
-      <c r="DU2" s="312"/>
-      <c r="DV2" s="312"/>
-      <c r="DW2" s="319"/>
-      <c r="DX2" s="299" t="s">
+      <c r="CT2" s="283"/>
+      <c r="CU2" s="283"/>
+      <c r="CV2" s="283"/>
+      <c r="CW2" s="283"/>
+      <c r="CX2" s="283"/>
+      <c r="CY2" s="283"/>
+      <c r="CZ2" s="283"/>
+      <c r="DA2" s="283"/>
+      <c r="DB2" s="283"/>
+      <c r="DC2" s="283"/>
+      <c r="DD2" s="283"/>
+      <c r="DE2" s="283"/>
+      <c r="DF2" s="283"/>
+      <c r="DG2" s="283"/>
+      <c r="DH2" s="283"/>
+      <c r="DI2" s="283"/>
+      <c r="DJ2" s="283"/>
+      <c r="DK2" s="283"/>
+      <c r="DL2" s="283"/>
+      <c r="DM2" s="283"/>
+      <c r="DN2" s="283"/>
+      <c r="DO2" s="283"/>
+      <c r="DP2" s="283"/>
+      <c r="DQ2" s="283"/>
+      <c r="DR2" s="283"/>
+      <c r="DS2" s="283"/>
+      <c r="DT2" s="283"/>
+      <c r="DU2" s="283"/>
+      <c r="DV2" s="283"/>
+      <c r="DW2" s="296"/>
+      <c r="DX2" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="293"/>
-      <c r="DZ2" s="293"/>
-      <c r="EA2" s="293"/>
-      <c r="EB2" s="293"/>
-      <c r="EC2" s="293"/>
-      <c r="ED2" s="293"/>
-      <c r="EE2" s="293"/>
-      <c r="EF2" s="293"/>
-      <c r="EG2" s="293"/>
-      <c r="EH2" s="293"/>
-      <c r="EI2" s="293"/>
-      <c r="EJ2" s="293"/>
-      <c r="EK2" s="293"/>
-      <c r="EL2" s="293"/>
-      <c r="EM2" s="293"/>
-      <c r="EN2" s="293"/>
-      <c r="EO2" s="293"/>
-      <c r="EP2" s="293"/>
-      <c r="EQ2" s="293"/>
-      <c r="ER2" s="293"/>
-      <c r="ES2" s="293"/>
-      <c r="ET2" s="293"/>
-      <c r="EU2" s="293"/>
-      <c r="EV2" s="293"/>
-      <c r="EW2" s="293"/>
-      <c r="EX2" s="293"/>
-      <c r="EY2" s="293"/>
-      <c r="EZ2" s="293"/>
-      <c r="FA2" s="293"/>
-      <c r="FB2" s="294"/>
-      <c r="FC2" s="300" t="s">
+      <c r="DY2" s="298"/>
+      <c r="DZ2" s="298"/>
+      <c r="EA2" s="298"/>
+      <c r="EB2" s="298"/>
+      <c r="EC2" s="298"/>
+      <c r="ED2" s="298"/>
+      <c r="EE2" s="298"/>
+      <c r="EF2" s="298"/>
+      <c r="EG2" s="298"/>
+      <c r="EH2" s="298"/>
+      <c r="EI2" s="298"/>
+      <c r="EJ2" s="298"/>
+      <c r="EK2" s="298"/>
+      <c r="EL2" s="298"/>
+      <c r="EM2" s="298"/>
+      <c r="EN2" s="298"/>
+      <c r="EO2" s="298"/>
+      <c r="EP2" s="298"/>
+      <c r="EQ2" s="298"/>
+      <c r="ER2" s="298"/>
+      <c r="ES2" s="298"/>
+      <c r="ET2" s="298"/>
+      <c r="EU2" s="298"/>
+      <c r="EV2" s="298"/>
+      <c r="EW2" s="298"/>
+      <c r="EX2" s="298"/>
+      <c r="EY2" s="298"/>
+      <c r="EZ2" s="298"/>
+      <c r="FA2" s="298"/>
+      <c r="FB2" s="299"/>
+      <c r="FC2" s="306" t="s">
         <v>132</v>
       </c>
-      <c r="FD2" s="293"/>
-      <c r="FE2" s="293"/>
-      <c r="FF2" s="293"/>
-      <c r="FG2" s="293"/>
-      <c r="FH2" s="293"/>
-      <c r="FI2" s="293"/>
-      <c r="FJ2" s="293"/>
-      <c r="FK2" s="293"/>
-      <c r="FL2" s="293"/>
-      <c r="FM2" s="293"/>
-      <c r="FN2" s="293"/>
-      <c r="FO2" s="293"/>
-      <c r="FP2" s="293"/>
-      <c r="FQ2" s="293"/>
-      <c r="FR2" s="293"/>
-      <c r="FS2" s="293"/>
-      <c r="FT2" s="293"/>
-      <c r="FU2" s="293"/>
-      <c r="FV2" s="293"/>
-      <c r="FW2" s="293"/>
-      <c r="FX2" s="293"/>
-      <c r="FY2" s="293"/>
-      <c r="FZ2" s="293"/>
-      <c r="GA2" s="293"/>
-      <c r="GB2" s="293"/>
-      <c r="GC2" s="293"/>
-      <c r="GD2" s="293"/>
-      <c r="GE2" s="293"/>
-      <c r="GF2" s="293"/>
-      <c r="GG2" s="294"/>
-      <c r="GH2" s="300" t="s">
+      <c r="FD2" s="298"/>
+      <c r="FE2" s="298"/>
+      <c r="FF2" s="298"/>
+      <c r="FG2" s="298"/>
+      <c r="FH2" s="298"/>
+      <c r="FI2" s="298"/>
+      <c r="FJ2" s="298"/>
+      <c r="FK2" s="298"/>
+      <c r="FL2" s="298"/>
+      <c r="FM2" s="298"/>
+      <c r="FN2" s="298"/>
+      <c r="FO2" s="298"/>
+      <c r="FP2" s="298"/>
+      <c r="FQ2" s="298"/>
+      <c r="FR2" s="298"/>
+      <c r="FS2" s="298"/>
+      <c r="FT2" s="298"/>
+      <c r="FU2" s="298"/>
+      <c r="FV2" s="298"/>
+      <c r="FW2" s="298"/>
+      <c r="FX2" s="298"/>
+      <c r="FY2" s="298"/>
+      <c r="FZ2" s="298"/>
+      <c r="GA2" s="298"/>
+      <c r="GB2" s="298"/>
+      <c r="GC2" s="298"/>
+      <c r="GD2" s="298"/>
+      <c r="GE2" s="298"/>
+      <c r="GF2" s="298"/>
+      <c r="GG2" s="299"/>
+      <c r="GH2" s="306" t="s">
         <v>143</v>
       </c>
-      <c r="GI2" s="293"/>
-      <c r="GJ2" s="293"/>
-      <c r="GK2" s="293"/>
-      <c r="GL2" s="293"/>
-      <c r="GM2" s="293"/>
-      <c r="GN2" s="293"/>
-      <c r="GO2" s="293"/>
-      <c r="GP2" s="293"/>
-      <c r="GQ2" s="293"/>
-      <c r="GR2" s="293"/>
-      <c r="GS2" s="293"/>
-      <c r="GT2" s="293"/>
-      <c r="GU2" s="293"/>
-      <c r="GV2" s="293"/>
-      <c r="GW2" s="293"/>
-      <c r="GX2" s="293"/>
-      <c r="GY2" s="293"/>
-      <c r="GZ2" s="293"/>
-      <c r="HA2" s="293"/>
-      <c r="HB2" s="293"/>
-      <c r="HC2" s="293"/>
-      <c r="HD2" s="293"/>
-      <c r="HE2" s="293"/>
-      <c r="HF2" s="293"/>
-      <c r="HG2" s="293"/>
-      <c r="HH2" s="293"/>
-      <c r="HI2" s="293"/>
-      <c r="HJ2" s="293"/>
-      <c r="HK2" s="293"/>
-      <c r="HL2" s="294"/>
-      <c r="HM2" s="292" t="s">
+      <c r="GI2" s="298"/>
+      <c r="GJ2" s="298"/>
+      <c r="GK2" s="298"/>
+      <c r="GL2" s="298"/>
+      <c r="GM2" s="298"/>
+      <c r="GN2" s="298"/>
+      <c r="GO2" s="298"/>
+      <c r="GP2" s="298"/>
+      <c r="GQ2" s="298"/>
+      <c r="GR2" s="298"/>
+      <c r="GS2" s="298"/>
+      <c r="GT2" s="298"/>
+      <c r="GU2" s="298"/>
+      <c r="GV2" s="298"/>
+      <c r="GW2" s="298"/>
+      <c r="GX2" s="298"/>
+      <c r="GY2" s="298"/>
+      <c r="GZ2" s="298"/>
+      <c r="HA2" s="298"/>
+      <c r="HB2" s="298"/>
+      <c r="HC2" s="298"/>
+      <c r="HD2" s="298"/>
+      <c r="HE2" s="298"/>
+      <c r="HF2" s="298"/>
+      <c r="HG2" s="298"/>
+      <c r="HH2" s="298"/>
+      <c r="HI2" s="298"/>
+      <c r="HJ2" s="298"/>
+      <c r="HK2" s="298"/>
+      <c r="HL2" s="299"/>
+      <c r="HM2" s="320" t="s">
         <v>242</v>
       </c>
-      <c r="HN2" s="293"/>
-      <c r="HO2" s="293"/>
-      <c r="HP2" s="293"/>
-      <c r="HQ2" s="293"/>
-      <c r="HR2" s="293"/>
-      <c r="HS2" s="293"/>
-      <c r="HT2" s="293"/>
-      <c r="HU2" s="293"/>
-      <c r="HV2" s="293"/>
-      <c r="HW2" s="293"/>
-      <c r="HX2" s="293"/>
-      <c r="HY2" s="293"/>
-      <c r="HZ2" s="293"/>
-      <c r="IA2" s="293"/>
-      <c r="IB2" s="293"/>
-      <c r="IC2" s="293"/>
-      <c r="ID2" s="293"/>
-      <c r="IE2" s="293"/>
-      <c r="IF2" s="293"/>
-      <c r="IG2" s="293"/>
-      <c r="IH2" s="293"/>
-      <c r="II2" s="293"/>
-      <c r="IJ2" s="293"/>
-      <c r="IK2" s="293"/>
-      <c r="IL2" s="293"/>
-      <c r="IM2" s="293"/>
-      <c r="IN2" s="293"/>
-      <c r="IO2" s="293"/>
-      <c r="IP2" s="293"/>
-      <c r="IQ2" s="294"/>
-      <c r="IR2" s="281" t="s">
+      <c r="HN2" s="298"/>
+      <c r="HO2" s="298"/>
+      <c r="HP2" s="298"/>
+      <c r="HQ2" s="298"/>
+      <c r="HR2" s="298"/>
+      <c r="HS2" s="298"/>
+      <c r="HT2" s="298"/>
+      <c r="HU2" s="298"/>
+      <c r="HV2" s="298"/>
+      <c r="HW2" s="298"/>
+      <c r="HX2" s="298"/>
+      <c r="HY2" s="298"/>
+      <c r="HZ2" s="298"/>
+      <c r="IA2" s="298"/>
+      <c r="IB2" s="298"/>
+      <c r="IC2" s="298"/>
+      <c r="ID2" s="298"/>
+      <c r="IE2" s="298"/>
+      <c r="IF2" s="298"/>
+      <c r="IG2" s="298"/>
+      <c r="IH2" s="298"/>
+      <c r="II2" s="298"/>
+      <c r="IJ2" s="298"/>
+      <c r="IK2" s="298"/>
+      <c r="IL2" s="298"/>
+      <c r="IM2" s="298"/>
+      <c r="IN2" s="298"/>
+      <c r="IO2" s="298"/>
+      <c r="IP2" s="298"/>
+      <c r="IQ2" s="299"/>
+      <c r="IR2" s="312" t="s">
         <v>275</v>
       </c>
-      <c r="IS2" s="282"/>
-      <c r="IT2" s="282"/>
-      <c r="IU2" s="282"/>
-      <c r="IV2" s="282"/>
-      <c r="IW2" s="282"/>
-      <c r="IX2" s="282"/>
-      <c r="IY2" s="282"/>
-      <c r="IZ2" s="282"/>
-      <c r="JA2" s="282"/>
-      <c r="JB2" s="282"/>
-      <c r="JC2" s="282"/>
-      <c r="JD2" s="282"/>
-      <c r="JE2" s="282"/>
-      <c r="JF2" s="282"/>
-      <c r="JG2" s="282"/>
-      <c r="JH2" s="282"/>
-      <c r="JI2" s="282"/>
-      <c r="JJ2" s="282"/>
-      <c r="JK2" s="282"/>
-      <c r="JL2" s="282"/>
-      <c r="JM2" s="282"/>
-      <c r="JN2" s="282"/>
-      <c r="JO2" s="282"/>
-      <c r="JP2" s="282"/>
-      <c r="JQ2" s="282"/>
-      <c r="JR2" s="282"/>
-      <c r="JS2" s="282"/>
-      <c r="JT2" s="283" t="s">
+      <c r="IS2" s="313"/>
+      <c r="IT2" s="313"/>
+      <c r="IU2" s="313"/>
+      <c r="IV2" s="313"/>
+      <c r="IW2" s="313"/>
+      <c r="IX2" s="313"/>
+      <c r="IY2" s="313"/>
+      <c r="IZ2" s="313"/>
+      <c r="JA2" s="313"/>
+      <c r="JB2" s="313"/>
+      <c r="JC2" s="313"/>
+      <c r="JD2" s="313"/>
+      <c r="JE2" s="313"/>
+      <c r="JF2" s="313"/>
+      <c r="JG2" s="313"/>
+      <c r="JH2" s="313"/>
+      <c r="JI2" s="313"/>
+      <c r="JJ2" s="313"/>
+      <c r="JK2" s="313"/>
+      <c r="JL2" s="313"/>
+      <c r="JM2" s="313"/>
+      <c r="JN2" s="313"/>
+      <c r="JO2" s="313"/>
+      <c r="JP2" s="313"/>
+      <c r="JQ2" s="313"/>
+      <c r="JR2" s="313"/>
+      <c r="JS2" s="313"/>
+      <c r="JT2" s="314" t="s">
         <v>283</v>
       </c>
-      <c r="JU2" s="284"/>
-      <c r="JV2" s="284"/>
-      <c r="JW2" s="284"/>
-      <c r="JX2" s="284"/>
-      <c r="JY2" s="284"/>
-      <c r="JZ2" s="284"/>
-      <c r="KA2" s="284"/>
-      <c r="KB2" s="284"/>
-      <c r="KC2" s="284"/>
-      <c r="KD2" s="284"/>
-      <c r="KE2" s="284"/>
-      <c r="KF2" s="284"/>
-      <c r="KG2" s="284"/>
-      <c r="KH2" s="284"/>
-      <c r="KI2" s="284"/>
-      <c r="KJ2" s="284"/>
-      <c r="KK2" s="284"/>
-      <c r="KL2" s="284"/>
-      <c r="KM2" s="284"/>
-      <c r="KN2" s="284"/>
-      <c r="KO2" s="284"/>
-      <c r="KP2" s="284"/>
-      <c r="KQ2" s="284"/>
-      <c r="KR2" s="284"/>
-      <c r="KS2" s="284"/>
-      <c r="KT2" s="284"/>
-      <c r="KU2" s="284"/>
-      <c r="KV2" s="284"/>
-      <c r="KW2" s="284"/>
-      <c r="KX2" s="285"/>
-      <c r="KY2" s="262" t="s">
+      <c r="JU2" s="315"/>
+      <c r="JV2" s="315"/>
+      <c r="JW2" s="315"/>
+      <c r="JX2" s="315"/>
+      <c r="JY2" s="315"/>
+      <c r="JZ2" s="315"/>
+      <c r="KA2" s="315"/>
+      <c r="KB2" s="315"/>
+      <c r="KC2" s="315"/>
+      <c r="KD2" s="315"/>
+      <c r="KE2" s="315"/>
+      <c r="KF2" s="315"/>
+      <c r="KG2" s="315"/>
+      <c r="KH2" s="315"/>
+      <c r="KI2" s="315"/>
+      <c r="KJ2" s="315"/>
+      <c r="KK2" s="315"/>
+      <c r="KL2" s="315"/>
+      <c r="KM2" s="315"/>
+      <c r="KN2" s="315"/>
+      <c r="KO2" s="315"/>
+      <c r="KP2" s="315"/>
+      <c r="KQ2" s="315"/>
+      <c r="KR2" s="315"/>
+      <c r="KS2" s="315"/>
+      <c r="KT2" s="315"/>
+      <c r="KU2" s="315"/>
+      <c r="KV2" s="315"/>
+      <c r="KW2" s="315"/>
+      <c r="KX2" s="316"/>
+      <c r="KY2" s="322" t="s">
         <v>325</v>
       </c>
-      <c r="KZ2" s="263"/>
-      <c r="LA2" s="263"/>
-      <c r="LB2" s="263"/>
-      <c r="LC2" s="263"/>
-      <c r="LD2" s="263"/>
-      <c r="LE2" s="263"/>
-      <c r="LF2" s="263"/>
-      <c r="LG2" s="263"/>
-      <c r="LH2" s="263"/>
-      <c r="LI2" s="263"/>
-      <c r="LJ2" s="263"/>
-      <c r="LK2" s="263"/>
-      <c r="LL2" s="263"/>
-      <c r="LM2" s="263"/>
-      <c r="LN2" s="263"/>
-      <c r="LO2" s="263"/>
-      <c r="LP2" s="263"/>
-      <c r="LQ2" s="263"/>
-      <c r="LR2" s="263"/>
-      <c r="LS2" s="263"/>
-      <c r="LT2" s="263"/>
-      <c r="LU2" s="263"/>
-      <c r="LV2" s="263"/>
-      <c r="LW2" s="263"/>
-      <c r="LX2" s="263"/>
-      <c r="LY2" s="263"/>
-      <c r="LZ2" s="263"/>
-      <c r="MA2" s="263"/>
-      <c r="MB2" s="296"/>
-      <c r="MC2" s="262" t="s">
+      <c r="KZ2" s="323"/>
+      <c r="LA2" s="323"/>
+      <c r="LB2" s="323"/>
+      <c r="LC2" s="323"/>
+      <c r="LD2" s="323"/>
+      <c r="LE2" s="323"/>
+      <c r="LF2" s="323"/>
+      <c r="LG2" s="323"/>
+      <c r="LH2" s="323"/>
+      <c r="LI2" s="323"/>
+      <c r="LJ2" s="323"/>
+      <c r="LK2" s="323"/>
+      <c r="LL2" s="323"/>
+      <c r="LM2" s="323"/>
+      <c r="LN2" s="323"/>
+      <c r="LO2" s="323"/>
+      <c r="LP2" s="323"/>
+      <c r="LQ2" s="323"/>
+      <c r="LR2" s="323"/>
+      <c r="LS2" s="323"/>
+      <c r="LT2" s="323"/>
+      <c r="LU2" s="323"/>
+      <c r="LV2" s="323"/>
+      <c r="LW2" s="323"/>
+      <c r="LX2" s="323"/>
+      <c r="LY2" s="323"/>
+      <c r="LZ2" s="323"/>
+      <c r="MA2" s="323"/>
+      <c r="MB2" s="324"/>
+      <c r="MC2" s="322" t="s">
         <v>332</v>
       </c>
-      <c r="MD2" s="263"/>
-      <c r="ME2" s="263"/>
-      <c r="MF2" s="263"/>
-      <c r="MG2" s="263"/>
-      <c r="MH2" s="263"/>
-      <c r="MI2" s="263"/>
-      <c r="MJ2" s="263"/>
-      <c r="MK2" s="263"/>
-      <c r="ML2" s="263"/>
-      <c r="MM2" s="263"/>
-      <c r="MN2" s="263"/>
-      <c r="MO2" s="263"/>
-      <c r="MP2" s="263"/>
-      <c r="MQ2" s="263"/>
-      <c r="MR2" s="263"/>
-      <c r="MS2" s="263"/>
-      <c r="MT2" s="263"/>
-      <c r="MU2" s="263"/>
-      <c r="MV2" s="263"/>
-      <c r="MW2" s="263"/>
-      <c r="MX2" s="263"/>
-      <c r="MY2" s="263"/>
-      <c r="MZ2" s="263"/>
-      <c r="NA2" s="263"/>
-      <c r="NB2" s="263"/>
-      <c r="NC2" s="263"/>
-      <c r="ND2" s="263"/>
-      <c r="NE2" s="297"/>
-      <c r="NF2" s="297"/>
-      <c r="NG2" s="298"/>
-      <c r="NH2" s="262" t="s">
+      <c r="MD2" s="323"/>
+      <c r="ME2" s="323"/>
+      <c r="MF2" s="323"/>
+      <c r="MG2" s="323"/>
+      <c r="MH2" s="323"/>
+      <c r="MI2" s="323"/>
+      <c r="MJ2" s="323"/>
+      <c r="MK2" s="323"/>
+      <c r="ML2" s="323"/>
+      <c r="MM2" s="323"/>
+      <c r="MN2" s="323"/>
+      <c r="MO2" s="323"/>
+      <c r="MP2" s="323"/>
+      <c r="MQ2" s="323"/>
+      <c r="MR2" s="323"/>
+      <c r="MS2" s="323"/>
+      <c r="MT2" s="323"/>
+      <c r="MU2" s="323"/>
+      <c r="MV2" s="323"/>
+      <c r="MW2" s="323"/>
+      <c r="MX2" s="323"/>
+      <c r="MY2" s="323"/>
+      <c r="MZ2" s="323"/>
+      <c r="NA2" s="323"/>
+      <c r="NB2" s="323"/>
+      <c r="NC2" s="323"/>
+      <c r="ND2" s="323"/>
+      <c r="NE2" s="326"/>
+      <c r="NF2" s="326"/>
+      <c r="NG2" s="327"/>
+      <c r="NH2" s="322" t="s">
         <v>349</v>
       </c>
-      <c r="NI2" s="263"/>
-      <c r="NJ2" s="263"/>
-      <c r="NK2" s="263"/>
-      <c r="NL2" s="263"/>
-      <c r="NM2" s="263"/>
-      <c r="NN2" s="263"/>
-      <c r="NO2" s="263"/>
-      <c r="NP2" s="263"/>
-      <c r="NQ2" s="263"/>
-      <c r="NR2" s="263"/>
-      <c r="NS2" s="263"/>
-      <c r="NT2" s="263"/>
-      <c r="NU2" s="263"/>
-      <c r="NV2" s="263"/>
-      <c r="NW2" s="263"/>
-      <c r="NX2" s="263"/>
-      <c r="NY2" s="263"/>
-      <c r="NZ2" s="263"/>
-      <c r="OA2" s="263"/>
-      <c r="OB2" s="263"/>
-      <c r="OC2" s="263"/>
-      <c r="OD2" s="263"/>
-      <c r="OE2" s="263"/>
-      <c r="OF2" s="263"/>
-      <c r="OG2" s="263"/>
-      <c r="OH2" s="263"/>
-      <c r="OI2" s="263"/>
-      <c r="OJ2" s="263"/>
-      <c r="OK2" s="263"/>
-      <c r="OL2" s="273" t="s">
-        <v>378</v>
-      </c>
-      <c r="OM2" s="274"/>
-      <c r="ON2" s="274"/>
-      <c r="OO2" s="274"/>
-      <c r="OP2" s="274"/>
-      <c r="OQ2" s="274"/>
-      <c r="OR2" s="274"/>
-      <c r="OS2" s="274"/>
-      <c r="OT2" s="274"/>
-      <c r="OU2" s="274"/>
-      <c r="OV2" s="274"/>
-      <c r="OW2" s="274"/>
-      <c r="OX2" s="274"/>
-      <c r="OY2" s="274"/>
-      <c r="OZ2" s="274"/>
-      <c r="PA2" s="274"/>
-      <c r="PB2" s="274"/>
-      <c r="PC2" s="274"/>
-      <c r="PD2" s="274"/>
-      <c r="PE2" s="274"/>
-      <c r="PF2" s="274"/>
-      <c r="PG2" s="274"/>
-      <c r="PH2" s="274"/>
-      <c r="PI2" s="274"/>
-      <c r="PJ2" s="274"/>
-      <c r="PK2" s="274"/>
-      <c r="PL2" s="274"/>
-      <c r="PM2" s="274"/>
-      <c r="PN2" s="274"/>
-      <c r="PO2" s="274"/>
-      <c r="PP2" s="274"/>
+      <c r="NI2" s="323"/>
+      <c r="NJ2" s="323"/>
+      <c r="NK2" s="323"/>
+      <c r="NL2" s="323"/>
+      <c r="NM2" s="323"/>
+      <c r="NN2" s="323"/>
+      <c r="NO2" s="323"/>
+      <c r="NP2" s="323"/>
+      <c r="NQ2" s="323"/>
+      <c r="NR2" s="323"/>
+      <c r="NS2" s="323"/>
+      <c r="NT2" s="323"/>
+      <c r="NU2" s="323"/>
+      <c r="NV2" s="323"/>
+      <c r="NW2" s="323"/>
+      <c r="NX2" s="323"/>
+      <c r="NY2" s="323"/>
+      <c r="NZ2" s="323"/>
+      <c r="OA2" s="323"/>
+      <c r="OB2" s="323"/>
+      <c r="OC2" s="323"/>
+      <c r="OD2" s="323"/>
+      <c r="OE2" s="323"/>
+      <c r="OF2" s="323"/>
+      <c r="OG2" s="323"/>
+      <c r="OH2" s="323"/>
+      <c r="OI2" s="323"/>
+      <c r="OJ2" s="323"/>
+      <c r="OK2" s="323"/>
+      <c r="OL2" s="332" t="s">
+        <v>376</v>
+      </c>
+      <c r="OM2" s="333"/>
+      <c r="ON2" s="333"/>
+      <c r="OO2" s="333"/>
+      <c r="OP2" s="333"/>
+      <c r="OQ2" s="333"/>
+      <c r="OR2" s="333"/>
+      <c r="OS2" s="333"/>
+      <c r="OT2" s="333"/>
+      <c r="OU2" s="333"/>
+      <c r="OV2" s="333"/>
+      <c r="OW2" s="333"/>
+      <c r="OX2" s="333"/>
+      <c r="OY2" s="333"/>
+      <c r="OZ2" s="333"/>
+      <c r="PA2" s="333"/>
+      <c r="PB2" s="333"/>
+      <c r="PC2" s="333"/>
+      <c r="PD2" s="333"/>
+      <c r="PE2" s="333"/>
+      <c r="PF2" s="333"/>
+      <c r="PG2" s="333"/>
+      <c r="PH2" s="333"/>
+      <c r="PI2" s="333"/>
+      <c r="PJ2" s="333"/>
+      <c r="PK2" s="333"/>
+      <c r="PL2" s="333"/>
+      <c r="PM2" s="333"/>
+      <c r="PN2" s="333"/>
+      <c r="PO2" s="333"/>
+      <c r="PP2" s="333"/>
+      <c r="PQ2" s="332" t="s">
+        <v>440</v>
+      </c>
+      <c r="PR2" s="333"/>
+      <c r="PS2" s="333"/>
+      <c r="PT2" s="333"/>
+      <c r="PU2" s="333"/>
+      <c r="PV2" s="333"/>
+      <c r="PW2" s="333"/>
+      <c r="PX2" s="333"/>
+      <c r="PY2" s="333"/>
+      <c r="PZ2" s="333"/>
+      <c r="QA2" s="333"/>
+      <c r="QB2" s="333"/>
+      <c r="QC2" s="333"/>
+      <c r="QD2" s="333"/>
+      <c r="QE2" s="333"/>
+      <c r="QF2" s="333"/>
+      <c r="QG2" s="333"/>
+      <c r="QH2" s="333"/>
+      <c r="QI2" s="333"/>
+      <c r="QJ2" s="333"/>
+      <c r="QK2" s="333"/>
+      <c r="QL2" s="333"/>
+      <c r="QM2" s="333"/>
+      <c r="QN2" s="333"/>
+      <c r="QO2" s="333"/>
+      <c r="QP2" s="333"/>
+      <c r="QQ2" s="333"/>
+      <c r="QR2" s="333"/>
+      <c r="QS2" s="333"/>
+      <c r="QT2" s="333"/>
+      <c r="QU2" s="333"/>
     </row>
-    <row r="3" spans="1:455" ht="21" customHeight="1">
-      <c r="A3" s="312"/>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
+    <row r="3" spans="1:497" ht="21" customHeight="1">
+      <c r="A3" s="283"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
       <c r="D3" s="77">
         <v>31</v>
       </c>
@@ -8339,12 +8395,104 @@
       <c r="PZ3" s="235">
         <v>10</v>
       </c>
-      <c r="QA3" s="235"/>
-      <c r="QB3" s="235"/>
-      <c r="QC3" s="234"/>
-      <c r="QD3" s="234"/>
+      <c r="QA3" s="235">
+        <v>11</v>
+      </c>
+      <c r="QB3" s="235">
+        <v>12</v>
+      </c>
+      <c r="QC3" s="234">
+        <v>13</v>
+      </c>
+      <c r="QD3" s="234">
+        <v>14</v>
+      </c>
+      <c r="QE3" s="235">
+        <v>15</v>
+      </c>
+      <c r="QF3" s="235">
+        <v>16</v>
+      </c>
+      <c r="QG3" s="235">
+        <v>17</v>
+      </c>
+      <c r="QH3" s="235">
+        <v>18</v>
+      </c>
+      <c r="QI3" s="235">
+        <v>19</v>
+      </c>
+      <c r="QJ3" s="234">
+        <v>20</v>
+      </c>
+      <c r="QK3" s="234">
+        <v>21</v>
+      </c>
+      <c r="QL3" s="235">
+        <v>22</v>
+      </c>
+      <c r="QM3" s="235">
+        <v>23</v>
+      </c>
+      <c r="QN3" s="235">
+        <v>24</v>
+      </c>
+      <c r="QO3" s="235">
+        <v>25</v>
+      </c>
+      <c r="QP3" s="235">
+        <v>26</v>
+      </c>
+      <c r="QQ3" s="234">
+        <v>27</v>
+      </c>
+      <c r="QR3" s="234">
+        <v>28</v>
+      </c>
+      <c r="QS3" s="235">
+        <v>29</v>
+      </c>
+      <c r="QT3" s="235">
+        <v>30</v>
+      </c>
+      <c r="QU3" s="235">
+        <v>31</v>
+      </c>
+      <c r="QV3" s="235">
+        <v>1</v>
+      </c>
+      <c r="QW3" s="235">
+        <v>2</v>
+      </c>
+      <c r="QX3" s="234">
+        <v>3</v>
+      </c>
+      <c r="QY3" s="234">
+        <v>4</v>
+      </c>
+      <c r="QZ3" s="235">
+        <v>5</v>
+      </c>
+      <c r="RA3" s="235">
+        <v>6</v>
+      </c>
+      <c r="RB3" s="235">
+        <v>7</v>
+      </c>
+      <c r="RC3" s="235">
+        <v>8</v>
+      </c>
+      <c r="RD3" s="235">
+        <v>9</v>
+      </c>
+      <c r="RE3" s="234">
+        <v>10</v>
+      </c>
+      <c r="RF3" s="234">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:455" ht="43.5" customHeight="1">
+    <row r="4" spans="1:497" ht="43.5" customHeight="1">
       <c r="A4" s="148" t="s">
         <v>243</v>
       </c>
@@ -9218,11 +9366,17 @@
       <c r="PK4" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL4" s="125"/>
-      <c r="PM4" s="125"/>
-      <c r="PN4" s="125"/>
-      <c r="PO4" s="125"/>
-      <c r="PP4" s="125"/>
+      <c r="PL4" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM4" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN4" s="156"/>
+      <c r="PO4" s="156"/>
+      <c r="PP4" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ4" s="125"/>
       <c r="PR4" s="125"/>
       <c r="PS4" s="125"/>
@@ -9237,8 +9391,36 @@
       <c r="QB4" s="125"/>
       <c r="QC4" s="125"/>
       <c r="QD4" s="125"/>
+      <c r="QE4" s="125"/>
+      <c r="QF4" s="125"/>
+      <c r="QG4" s="125"/>
+      <c r="QH4" s="125"/>
+      <c r="QI4" s="125"/>
+      <c r="QJ4" s="125"/>
+      <c r="QK4" s="125"/>
+      <c r="QL4" s="125"/>
+      <c r="QM4" s="125"/>
+      <c r="QN4" s="125"/>
+      <c r="QO4" s="125"/>
+      <c r="QP4" s="125"/>
+      <c r="QQ4" s="125"/>
+      <c r="QR4" s="125"/>
+      <c r="QS4" s="125"/>
+      <c r="QT4" s="125"/>
+      <c r="QU4" s="125"/>
+      <c r="QV4" s="125"/>
+      <c r="QW4" s="125"/>
+      <c r="QX4" s="125"/>
+      <c r="QY4" s="125"/>
+      <c r="QZ4" s="125"/>
+      <c r="RA4" s="125"/>
+      <c r="RB4" s="125"/>
+      <c r="RC4" s="125"/>
+      <c r="RD4" s="125"/>
+      <c r="RE4" s="125"/>
+      <c r="RF4" s="125"/>
     </row>
-    <row r="5" spans="1:455" ht="43.5" customHeight="1">
+    <row r="5" spans="1:497" ht="43.5" customHeight="1">
       <c r="A5" s="229" t="s">
         <v>154</v>
       </c>
@@ -9248,533 +9430,575 @@
       <c r="C5" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="316"/>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="316"/>
-      <c r="N5" s="316"/>
-      <c r="O5" s="316"/>
-      <c r="P5" s="316"/>
-      <c r="Q5" s="316"/>
-      <c r="R5" s="316"/>
-      <c r="S5" s="316"/>
-      <c r="T5" s="316"/>
-      <c r="U5" s="316"/>
-      <c r="V5" s="316"/>
-      <c r="W5" s="316"/>
-      <c r="X5" s="316"/>
-      <c r="Y5" s="316"/>
-      <c r="Z5" s="316"/>
-      <c r="AA5" s="316"/>
-      <c r="AB5" s="316"/>
-      <c r="AC5" s="316"/>
-      <c r="AD5" s="316"/>
-      <c r="AE5" s="316"/>
-      <c r="AF5" s="316"/>
-      <c r="AG5" s="316"/>
-      <c r="AH5" s="316"/>
-      <c r="AI5" s="316"/>
-      <c r="AJ5" s="316"/>
-      <c r="AK5" s="316"/>
-      <c r="AL5" s="316"/>
-      <c r="AM5" s="316"/>
-      <c r="AN5" s="316"/>
-      <c r="AO5" s="316"/>
-      <c r="AP5" s="316"/>
-      <c r="AQ5" s="316"/>
-      <c r="AR5" s="316"/>
-      <c r="AS5" s="316"/>
-      <c r="AT5" s="316"/>
-      <c r="AU5" s="316"/>
-      <c r="AV5" s="316"/>
-      <c r="AW5" s="316"/>
-      <c r="AX5" s="316"/>
-      <c r="AY5" s="316"/>
-      <c r="AZ5" s="316"/>
-      <c r="BA5" s="316"/>
-      <c r="BB5" s="316"/>
-      <c r="BC5" s="316"/>
-      <c r="BD5" s="316"/>
-      <c r="BE5" s="316"/>
-      <c r="BF5" s="316"/>
-      <c r="BG5" s="316"/>
-      <c r="BH5" s="316"/>
-      <c r="BI5" s="316"/>
-      <c r="BJ5" s="316"/>
-      <c r="BK5" s="316"/>
-      <c r="BL5" s="316"/>
-      <c r="BM5" s="316"/>
-      <c r="BN5" s="316"/>
-      <c r="BO5" s="316"/>
-      <c r="BP5" s="316"/>
-      <c r="BQ5" s="316"/>
-      <c r="BR5" s="316"/>
-      <c r="BS5" s="316"/>
-      <c r="BT5" s="316"/>
-      <c r="BU5" s="316"/>
-      <c r="BV5" s="316"/>
-      <c r="BW5" s="316"/>
-      <c r="BX5" s="316"/>
-      <c r="BY5" s="316"/>
-      <c r="BZ5" s="316"/>
-      <c r="CA5" s="316"/>
-      <c r="CB5" s="316"/>
-      <c r="CC5" s="316"/>
-      <c r="CD5" s="316"/>
-      <c r="CE5" s="316"/>
-      <c r="CF5" s="316"/>
-      <c r="CG5" s="316"/>
-      <c r="CH5" s="316"/>
-      <c r="CI5" s="316"/>
-      <c r="CJ5" s="316"/>
-      <c r="CK5" s="316"/>
-      <c r="CL5" s="316"/>
-      <c r="CM5" s="316"/>
-      <c r="CN5" s="316"/>
-      <c r="CO5" s="316"/>
-      <c r="CP5" s="316"/>
-      <c r="CQ5" s="316"/>
-      <c r="CR5" s="316"/>
-      <c r="CS5" s="316"/>
-      <c r="CT5" s="316"/>
-      <c r="CU5" s="316"/>
-      <c r="CV5" s="316"/>
-      <c r="CW5" s="316"/>
-      <c r="CX5" s="316"/>
-      <c r="CY5" s="316"/>
-      <c r="CZ5" s="316"/>
-      <c r="DA5" s="316"/>
-      <c r="DB5" s="316"/>
-      <c r="DC5" s="316"/>
-      <c r="DD5" s="316"/>
-      <c r="DE5" s="316"/>
-      <c r="DF5" s="316"/>
-      <c r="DG5" s="316"/>
-      <c r="DH5" s="316"/>
-      <c r="DI5" s="316"/>
-      <c r="DJ5" s="316"/>
-      <c r="DK5" s="316"/>
-      <c r="DL5" s="316"/>
-      <c r="DM5" s="316"/>
-      <c r="DN5" s="316"/>
-      <c r="DO5" s="309"/>
-      <c r="DP5" s="310"/>
-      <c r="DQ5" s="310"/>
-      <c r="DR5" s="310"/>
-      <c r="DS5" s="310"/>
-      <c r="DT5" s="310"/>
-      <c r="DU5" s="311"/>
-      <c r="DV5" s="309"/>
-      <c r="DW5" s="310"/>
-      <c r="DX5" s="310"/>
-      <c r="DY5" s="310"/>
-      <c r="DZ5" s="310"/>
-      <c r="EA5" s="310"/>
-      <c r="EB5" s="311"/>
-      <c r="EC5" s="309"/>
-      <c r="ED5" s="310"/>
-      <c r="EE5" s="310"/>
-      <c r="EF5" s="310"/>
-      <c r="EG5" s="310"/>
-      <c r="EH5" s="310"/>
-      <c r="EI5" s="311"/>
-      <c r="EJ5" s="309"/>
-      <c r="EK5" s="310"/>
-      <c r="EL5" s="310"/>
-      <c r="EM5" s="310"/>
-      <c r="EN5" s="310"/>
-      <c r="EO5" s="310"/>
-      <c r="EP5" s="311"/>
-      <c r="EQ5" s="309"/>
-      <c r="ER5" s="310"/>
-      <c r="ES5" s="310"/>
-      <c r="ET5" s="310"/>
-      <c r="EU5" s="310"/>
-      <c r="EV5" s="310"/>
-      <c r="EW5" s="311"/>
-      <c r="EX5" s="309"/>
-      <c r="EY5" s="310"/>
-      <c r="EZ5" s="310"/>
-      <c r="FA5" s="310"/>
-      <c r="FB5" s="310"/>
-      <c r="FC5" s="310"/>
-      <c r="FD5" s="311"/>
-      <c r="FE5" s="309"/>
-      <c r="FF5" s="310"/>
-      <c r="FG5" s="310"/>
-      <c r="FH5" s="310"/>
-      <c r="FI5" s="310"/>
-      <c r="FJ5" s="310"/>
-      <c r="FK5" s="311"/>
-      <c r="FL5" s="309"/>
-      <c r="FM5" s="310"/>
-      <c r="FN5" s="310"/>
-      <c r="FO5" s="310"/>
-      <c r="FP5" s="310"/>
-      <c r="FQ5" s="310"/>
-      <c r="FR5" s="311"/>
-      <c r="FS5" s="309"/>
-      <c r="FT5" s="310"/>
-      <c r="FU5" s="310"/>
-      <c r="FV5" s="310"/>
-      <c r="FW5" s="310"/>
-      <c r="FX5" s="310"/>
-      <c r="FY5" s="311"/>
-      <c r="FZ5" s="309"/>
-      <c r="GA5" s="310"/>
-      <c r="GB5" s="310"/>
-      <c r="GC5" s="310"/>
-      <c r="GD5" s="310"/>
-      <c r="GE5" s="310"/>
-      <c r="GF5" s="311"/>
-      <c r="GG5" s="259" t="s">
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="286"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="286"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="286"/>
+      <c r="Q5" s="286"/>
+      <c r="R5" s="286"/>
+      <c r="S5" s="286"/>
+      <c r="T5" s="286"/>
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="286"/>
+      <c r="Y5" s="286"/>
+      <c r="Z5" s="286"/>
+      <c r="AA5" s="286"/>
+      <c r="AB5" s="286"/>
+      <c r="AC5" s="286"/>
+      <c r="AD5" s="286"/>
+      <c r="AE5" s="286"/>
+      <c r="AF5" s="286"/>
+      <c r="AG5" s="286"/>
+      <c r="AH5" s="286"/>
+      <c r="AI5" s="286"/>
+      <c r="AJ5" s="286"/>
+      <c r="AK5" s="286"/>
+      <c r="AL5" s="286"/>
+      <c r="AM5" s="286"/>
+      <c r="AN5" s="286"/>
+      <c r="AO5" s="286"/>
+      <c r="AP5" s="286"/>
+      <c r="AQ5" s="286"/>
+      <c r="AR5" s="286"/>
+      <c r="AS5" s="286"/>
+      <c r="AT5" s="286"/>
+      <c r="AU5" s="286"/>
+      <c r="AV5" s="286"/>
+      <c r="AW5" s="286"/>
+      <c r="AX5" s="286"/>
+      <c r="AY5" s="286"/>
+      <c r="AZ5" s="286"/>
+      <c r="BA5" s="286"/>
+      <c r="BB5" s="286"/>
+      <c r="BC5" s="286"/>
+      <c r="BD5" s="286"/>
+      <c r="BE5" s="286"/>
+      <c r="BF5" s="286"/>
+      <c r="BG5" s="286"/>
+      <c r="BH5" s="286"/>
+      <c r="BI5" s="286"/>
+      <c r="BJ5" s="286"/>
+      <c r="BK5" s="286"/>
+      <c r="BL5" s="286"/>
+      <c r="BM5" s="286"/>
+      <c r="BN5" s="286"/>
+      <c r="BO5" s="286"/>
+      <c r="BP5" s="286"/>
+      <c r="BQ5" s="286"/>
+      <c r="BR5" s="286"/>
+      <c r="BS5" s="286"/>
+      <c r="BT5" s="286"/>
+      <c r="BU5" s="286"/>
+      <c r="BV5" s="286"/>
+      <c r="BW5" s="286"/>
+      <c r="BX5" s="286"/>
+      <c r="BY5" s="286"/>
+      <c r="BZ5" s="286"/>
+      <c r="CA5" s="286"/>
+      <c r="CB5" s="286"/>
+      <c r="CC5" s="286"/>
+      <c r="CD5" s="286"/>
+      <c r="CE5" s="286"/>
+      <c r="CF5" s="286"/>
+      <c r="CG5" s="286"/>
+      <c r="CH5" s="286"/>
+      <c r="CI5" s="286"/>
+      <c r="CJ5" s="286"/>
+      <c r="CK5" s="286"/>
+      <c r="CL5" s="286"/>
+      <c r="CM5" s="286"/>
+      <c r="CN5" s="286"/>
+      <c r="CO5" s="286"/>
+      <c r="CP5" s="286"/>
+      <c r="CQ5" s="286"/>
+      <c r="CR5" s="286"/>
+      <c r="CS5" s="286"/>
+      <c r="CT5" s="286"/>
+      <c r="CU5" s="286"/>
+      <c r="CV5" s="286"/>
+      <c r="CW5" s="286"/>
+      <c r="CX5" s="286"/>
+      <c r="CY5" s="286"/>
+      <c r="CZ5" s="286"/>
+      <c r="DA5" s="286"/>
+      <c r="DB5" s="286"/>
+      <c r="DC5" s="286"/>
+      <c r="DD5" s="286"/>
+      <c r="DE5" s="286"/>
+      <c r="DF5" s="286"/>
+      <c r="DG5" s="286"/>
+      <c r="DH5" s="286"/>
+      <c r="DI5" s="286"/>
+      <c r="DJ5" s="286"/>
+      <c r="DK5" s="286"/>
+      <c r="DL5" s="286"/>
+      <c r="DM5" s="286"/>
+      <c r="DN5" s="286"/>
+      <c r="DO5" s="279"/>
+      <c r="DP5" s="280"/>
+      <c r="DQ5" s="280"/>
+      <c r="DR5" s="280"/>
+      <c r="DS5" s="280"/>
+      <c r="DT5" s="280"/>
+      <c r="DU5" s="281"/>
+      <c r="DV5" s="279"/>
+      <c r="DW5" s="280"/>
+      <c r="DX5" s="280"/>
+      <c r="DY5" s="280"/>
+      <c r="DZ5" s="280"/>
+      <c r="EA5" s="280"/>
+      <c r="EB5" s="281"/>
+      <c r="EC5" s="279"/>
+      <c r="ED5" s="280"/>
+      <c r="EE5" s="280"/>
+      <c r="EF5" s="280"/>
+      <c r="EG5" s="280"/>
+      <c r="EH5" s="280"/>
+      <c r="EI5" s="281"/>
+      <c r="EJ5" s="279"/>
+      <c r="EK5" s="280"/>
+      <c r="EL5" s="280"/>
+      <c r="EM5" s="280"/>
+      <c r="EN5" s="280"/>
+      <c r="EO5" s="280"/>
+      <c r="EP5" s="281"/>
+      <c r="EQ5" s="279"/>
+      <c r="ER5" s="280"/>
+      <c r="ES5" s="280"/>
+      <c r="ET5" s="280"/>
+      <c r="EU5" s="280"/>
+      <c r="EV5" s="280"/>
+      <c r="EW5" s="281"/>
+      <c r="EX5" s="279"/>
+      <c r="EY5" s="280"/>
+      <c r="EZ5" s="280"/>
+      <c r="FA5" s="280"/>
+      <c r="FB5" s="280"/>
+      <c r="FC5" s="280"/>
+      <c r="FD5" s="281"/>
+      <c r="FE5" s="279"/>
+      <c r="FF5" s="280"/>
+      <c r="FG5" s="280"/>
+      <c r="FH5" s="280"/>
+      <c r="FI5" s="280"/>
+      <c r="FJ5" s="280"/>
+      <c r="FK5" s="281"/>
+      <c r="FL5" s="279"/>
+      <c r="FM5" s="280"/>
+      <c r="FN5" s="280"/>
+      <c r="FO5" s="280"/>
+      <c r="FP5" s="280"/>
+      <c r="FQ5" s="280"/>
+      <c r="FR5" s="281"/>
+      <c r="FS5" s="279"/>
+      <c r="FT5" s="280"/>
+      <c r="FU5" s="280"/>
+      <c r="FV5" s="280"/>
+      <c r="FW5" s="280"/>
+      <c r="FX5" s="280"/>
+      <c r="FY5" s="281"/>
+      <c r="FZ5" s="279"/>
+      <c r="GA5" s="280"/>
+      <c r="GB5" s="280"/>
+      <c r="GC5" s="280"/>
+      <c r="GD5" s="280"/>
+      <c r="GE5" s="280"/>
+      <c r="GF5" s="281"/>
+      <c r="GG5" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="GH5" s="260"/>
-      <c r="GI5" s="260"/>
-      <c r="GJ5" s="260"/>
-      <c r="GK5" s="260"/>
-      <c r="GL5" s="260"/>
-      <c r="GM5" s="261"/>
-      <c r="GN5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="GO5" s="260"/>
-      <c r="GP5" s="260"/>
-      <c r="GQ5" s="260"/>
-      <c r="GR5" s="260"/>
-      <c r="GS5" s="260"/>
-      <c r="GT5" s="261"/>
-      <c r="GU5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="GV5" s="260"/>
-      <c r="GW5" s="260"/>
-      <c r="GX5" s="260"/>
-      <c r="GY5" s="260"/>
-      <c r="GZ5" s="260"/>
-      <c r="HA5" s="261"/>
-      <c r="HB5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="HC5" s="260"/>
-      <c r="HD5" s="260"/>
-      <c r="HE5" s="260"/>
-      <c r="HF5" s="260"/>
-      <c r="HG5" s="260"/>
-      <c r="HH5" s="261"/>
-      <c r="HI5" s="278" t="s">
-        <v>188</v>
-      </c>
-      <c r="HJ5" s="279"/>
-      <c r="HK5" s="279"/>
-      <c r="HL5" s="279"/>
-      <c r="HM5" s="279"/>
-      <c r="HN5" s="279"/>
-      <c r="HO5" s="279"/>
-      <c r="HP5" s="279"/>
-      <c r="HQ5" s="280"/>
-      <c r="HR5" s="259" t="s">
+      <c r="GH5" s="272"/>
+      <c r="GI5" s="272"/>
+      <c r="GJ5" s="272"/>
+      <c r="GK5" s="272"/>
+      <c r="GL5" s="272"/>
+      <c r="GM5" s="273"/>
+      <c r="GN5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="GO5" s="272"/>
+      <c r="GP5" s="272"/>
+      <c r="GQ5" s="272"/>
+      <c r="GR5" s="272"/>
+      <c r="GS5" s="272"/>
+      <c r="GT5" s="273"/>
+      <c r="GU5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="GV5" s="272"/>
+      <c r="GW5" s="272"/>
+      <c r="GX5" s="272"/>
+      <c r="GY5" s="272"/>
+      <c r="GZ5" s="272"/>
+      <c r="HA5" s="273"/>
+      <c r="HB5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="HC5" s="272"/>
+      <c r="HD5" s="272"/>
+      <c r="HE5" s="272"/>
+      <c r="HF5" s="272"/>
+      <c r="HG5" s="272"/>
+      <c r="HH5" s="273"/>
+      <c r="HI5" s="329" t="s">
+        <v>188</v>
+      </c>
+      <c r="HJ5" s="330"/>
+      <c r="HK5" s="330"/>
+      <c r="HL5" s="330"/>
+      <c r="HM5" s="330"/>
+      <c r="HN5" s="330"/>
+      <c r="HO5" s="330"/>
+      <c r="HP5" s="330"/>
+      <c r="HQ5" s="331"/>
+      <c r="HR5" s="271" t="s">
         <v>273</v>
       </c>
-      <c r="HS5" s="260"/>
-      <c r="HT5" s="260"/>
-      <c r="HU5" s="260"/>
-      <c r="HV5" s="260"/>
-      <c r="HW5" s="260"/>
-      <c r="HX5" s="261"/>
-      <c r="HY5" s="259" t="s">
+      <c r="HS5" s="272"/>
+      <c r="HT5" s="272"/>
+      <c r="HU5" s="272"/>
+      <c r="HV5" s="272"/>
+      <c r="HW5" s="272"/>
+      <c r="HX5" s="273"/>
+      <c r="HY5" s="271" t="s">
         <v>273</v>
       </c>
-      <c r="HZ5" s="260"/>
-      <c r="IA5" s="260"/>
-      <c r="IB5" s="260"/>
-      <c r="IC5" s="260"/>
-      <c r="ID5" s="260"/>
-      <c r="IE5" s="261"/>
-      <c r="IF5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="IG5" s="260"/>
-      <c r="IH5" s="260"/>
-      <c r="II5" s="260"/>
-      <c r="IJ5" s="260"/>
-      <c r="IK5" s="260"/>
-      <c r="IL5" s="261"/>
-      <c r="IM5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="IN5" s="260"/>
-      <c r="IO5" s="260"/>
-      <c r="IP5" s="260"/>
-      <c r="IQ5" s="260"/>
-      <c r="IR5" s="260"/>
-      <c r="IS5" s="261"/>
-      <c r="IT5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="IU5" s="260"/>
-      <c r="IV5" s="260"/>
-      <c r="IW5" s="260"/>
-      <c r="IX5" s="260"/>
-      <c r="IY5" s="260"/>
-      <c r="IZ5" s="261"/>
-      <c r="JA5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="JB5" s="260"/>
-      <c r="JC5" s="260"/>
-      <c r="JD5" s="260"/>
-      <c r="JE5" s="260"/>
-      <c r="JF5" s="260"/>
-      <c r="JG5" s="261"/>
-      <c r="JH5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="JI5" s="260"/>
-      <c r="JJ5" s="260"/>
-      <c r="JK5" s="260"/>
-      <c r="JL5" s="260"/>
-      <c r="JM5" s="260"/>
-      <c r="JN5" s="261"/>
-      <c r="JO5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="JP5" s="260"/>
-      <c r="JQ5" s="260"/>
-      <c r="JR5" s="260"/>
-      <c r="JS5" s="260"/>
-      <c r="JT5" s="260"/>
-      <c r="JU5" s="261"/>
-      <c r="JV5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="JW5" s="260"/>
-      <c r="JX5" s="260"/>
-      <c r="JY5" s="260"/>
-      <c r="JZ5" s="260"/>
-      <c r="KA5" s="260"/>
-      <c r="KB5" s="261"/>
-      <c r="KC5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="KD5" s="260"/>
-      <c r="KE5" s="260"/>
-      <c r="KF5" s="260"/>
-      <c r="KG5" s="260"/>
-      <c r="KH5" s="260"/>
-      <c r="KI5" s="261"/>
-      <c r="KJ5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="KK5" s="260"/>
-      <c r="KL5" s="260"/>
-      <c r="KM5" s="260"/>
-      <c r="KN5" s="260"/>
-      <c r="KO5" s="260"/>
-      <c r="KP5" s="261"/>
-      <c r="KQ5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="KR5" s="260"/>
-      <c r="KS5" s="260"/>
-      <c r="KT5" s="260"/>
-      <c r="KU5" s="260"/>
-      <c r="KV5" s="260"/>
-      <c r="KW5" s="261"/>
-      <c r="KX5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="KY5" s="260"/>
-      <c r="KZ5" s="260"/>
-      <c r="LA5" s="260"/>
-      <c r="LB5" s="260"/>
-      <c r="LC5" s="260"/>
-      <c r="LD5" s="261"/>
-      <c r="LE5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="LF5" s="260"/>
-      <c r="LG5" s="260"/>
-      <c r="LH5" s="260"/>
-      <c r="LI5" s="260"/>
-      <c r="LJ5" s="260"/>
-      <c r="LK5" s="261"/>
-      <c r="LL5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="LM5" s="260"/>
-      <c r="LN5" s="260"/>
-      <c r="LO5" s="260"/>
-      <c r="LP5" s="260"/>
-      <c r="LQ5" s="260"/>
-      <c r="LR5" s="261"/>
-      <c r="LS5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="LT5" s="260"/>
-      <c r="LU5" s="260"/>
-      <c r="LV5" s="260"/>
-      <c r="LW5" s="260"/>
-      <c r="LX5" s="260"/>
-      <c r="LY5" s="261"/>
-      <c r="LZ5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="MA5" s="260"/>
-      <c r="MB5" s="260"/>
-      <c r="MC5" s="260"/>
-      <c r="MD5" s="260"/>
-      <c r="ME5" s="260"/>
-      <c r="MF5" s="261"/>
-      <c r="MG5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="MH5" s="260"/>
-      <c r="MI5" s="260"/>
-      <c r="MJ5" s="260"/>
-      <c r="MK5" s="260"/>
-      <c r="ML5" s="260"/>
-      <c r="MM5" s="261"/>
-      <c r="MN5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="MO5" s="260"/>
-      <c r="MP5" s="260"/>
-      <c r="MQ5" s="260"/>
-      <c r="MR5" s="260"/>
-      <c r="MS5" s="260"/>
-      <c r="MT5" s="261"/>
-      <c r="MU5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="MV5" s="260"/>
-      <c r="MW5" s="260"/>
-      <c r="MX5" s="260"/>
-      <c r="MY5" s="260"/>
-      <c r="MZ5" s="260"/>
-      <c r="NA5" s="261"/>
-      <c r="NB5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="NC5" s="260"/>
-      <c r="ND5" s="260"/>
-      <c r="NE5" s="260"/>
-      <c r="NF5" s="260"/>
-      <c r="NG5" s="260"/>
-      <c r="NH5" s="261"/>
-      <c r="NI5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="NJ5" s="260"/>
-      <c r="NK5" s="260"/>
-      <c r="NL5" s="260"/>
-      <c r="NM5" s="260"/>
-      <c r="NN5" s="260"/>
-      <c r="NO5" s="261"/>
-      <c r="NP5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="NQ5" s="260"/>
-      <c r="NR5" s="260"/>
-      <c r="NS5" s="260"/>
-      <c r="NT5" s="260"/>
-      <c r="NU5" s="260"/>
-      <c r="NV5" s="261"/>
-      <c r="NW5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="NX5" s="260"/>
-      <c r="NY5" s="260"/>
-      <c r="NZ5" s="260"/>
-      <c r="OA5" s="260"/>
-      <c r="OB5" s="260"/>
-      <c r="OC5" s="261"/>
-      <c r="OD5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="OE5" s="260"/>
-      <c r="OF5" s="260"/>
-      <c r="OG5" s="260"/>
-      <c r="OH5" s="260"/>
-      <c r="OI5" s="260"/>
-      <c r="OJ5" s="261"/>
-      <c r="OK5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="OL5" s="260"/>
-      <c r="OM5" s="260"/>
-      <c r="ON5" s="260"/>
-      <c r="OO5" s="260"/>
-      <c r="OP5" s="260"/>
-      <c r="OQ5" s="261"/>
-      <c r="OR5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="OS5" s="260"/>
-      <c r="OT5" s="260"/>
-      <c r="OU5" s="260"/>
-      <c r="OV5" s="260"/>
-      <c r="OW5" s="260"/>
-      <c r="OX5" s="261"/>
-      <c r="OY5" s="275" t="s">
-        <v>188</v>
-      </c>
-      <c r="OZ5" s="276"/>
-      <c r="PA5" s="276"/>
-      <c r="PB5" s="276"/>
-      <c r="PC5" s="276"/>
-      <c r="PD5" s="276"/>
-      <c r="PE5" s="259" t="s">
-        <v>188</v>
-      </c>
-      <c r="PF5" s="260"/>
-      <c r="PG5" s="260"/>
-      <c r="PH5" s="260"/>
-      <c r="PI5" s="260"/>
-      <c r="PJ5" s="260"/>
-      <c r="PK5" s="261"/>
-      <c r="PL5" s="259"/>
-      <c r="PM5" s="260"/>
-      <c r="PN5" s="260"/>
-      <c r="PO5" s="260"/>
-      <c r="PP5" s="260"/>
-      <c r="PQ5" s="260"/>
-      <c r="PR5" s="261"/>
-      <c r="PS5" s="259"/>
-      <c r="PT5" s="260"/>
-      <c r="PU5" s="260"/>
-      <c r="PV5" s="260"/>
-      <c r="PW5" s="260"/>
-      <c r="PX5" s="260"/>
-      <c r="PY5" s="261"/>
-      <c r="PZ5" s="259"/>
-      <c r="QA5" s="260"/>
-      <c r="QB5" s="260"/>
-      <c r="QC5" s="260"/>
-      <c r="QD5" s="260"/>
-      <c r="QE5" s="260"/>
-      <c r="QF5" s="261"/>
-      <c r="QG5" s="259"/>
-      <c r="QH5" s="260"/>
-      <c r="QI5" s="260"/>
-      <c r="QJ5" s="260"/>
-      <c r="QK5" s="260"/>
-      <c r="QL5" s="260"/>
-      <c r="QM5" s="261"/>
+      <c r="HZ5" s="272"/>
+      <c r="IA5" s="272"/>
+      <c r="IB5" s="272"/>
+      <c r="IC5" s="272"/>
+      <c r="ID5" s="272"/>
+      <c r="IE5" s="273"/>
+      <c r="IF5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="IG5" s="272"/>
+      <c r="IH5" s="272"/>
+      <c r="II5" s="272"/>
+      <c r="IJ5" s="272"/>
+      <c r="IK5" s="272"/>
+      <c r="IL5" s="273"/>
+      <c r="IM5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="IN5" s="272"/>
+      <c r="IO5" s="272"/>
+      <c r="IP5" s="272"/>
+      <c r="IQ5" s="272"/>
+      <c r="IR5" s="272"/>
+      <c r="IS5" s="273"/>
+      <c r="IT5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="IU5" s="272"/>
+      <c r="IV5" s="272"/>
+      <c r="IW5" s="272"/>
+      <c r="IX5" s="272"/>
+      <c r="IY5" s="272"/>
+      <c r="IZ5" s="273"/>
+      <c r="JA5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="JB5" s="272"/>
+      <c r="JC5" s="272"/>
+      <c r="JD5" s="272"/>
+      <c r="JE5" s="272"/>
+      <c r="JF5" s="272"/>
+      <c r="JG5" s="273"/>
+      <c r="JH5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="JI5" s="272"/>
+      <c r="JJ5" s="272"/>
+      <c r="JK5" s="272"/>
+      <c r="JL5" s="272"/>
+      <c r="JM5" s="272"/>
+      <c r="JN5" s="273"/>
+      <c r="JO5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="JP5" s="272"/>
+      <c r="JQ5" s="272"/>
+      <c r="JR5" s="272"/>
+      <c r="JS5" s="272"/>
+      <c r="JT5" s="272"/>
+      <c r="JU5" s="273"/>
+      <c r="JV5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="JW5" s="272"/>
+      <c r="JX5" s="272"/>
+      <c r="JY5" s="272"/>
+      <c r="JZ5" s="272"/>
+      <c r="KA5" s="272"/>
+      <c r="KB5" s="273"/>
+      <c r="KC5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="KD5" s="272"/>
+      <c r="KE5" s="272"/>
+      <c r="KF5" s="272"/>
+      <c r="KG5" s="272"/>
+      <c r="KH5" s="272"/>
+      <c r="KI5" s="273"/>
+      <c r="KJ5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="KK5" s="272"/>
+      <c r="KL5" s="272"/>
+      <c r="KM5" s="272"/>
+      <c r="KN5" s="272"/>
+      <c r="KO5" s="272"/>
+      <c r="KP5" s="273"/>
+      <c r="KQ5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="KR5" s="272"/>
+      <c r="KS5" s="272"/>
+      <c r="KT5" s="272"/>
+      <c r="KU5" s="272"/>
+      <c r="KV5" s="272"/>
+      <c r="KW5" s="273"/>
+      <c r="KX5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="KY5" s="272"/>
+      <c r="KZ5" s="272"/>
+      <c r="LA5" s="272"/>
+      <c r="LB5" s="272"/>
+      <c r="LC5" s="272"/>
+      <c r="LD5" s="273"/>
+      <c r="LE5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="LF5" s="272"/>
+      <c r="LG5" s="272"/>
+      <c r="LH5" s="272"/>
+      <c r="LI5" s="272"/>
+      <c r="LJ5" s="272"/>
+      <c r="LK5" s="273"/>
+      <c r="LL5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="LM5" s="272"/>
+      <c r="LN5" s="272"/>
+      <c r="LO5" s="272"/>
+      <c r="LP5" s="272"/>
+      <c r="LQ5" s="272"/>
+      <c r="LR5" s="273"/>
+      <c r="LS5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="LT5" s="272"/>
+      <c r="LU5" s="272"/>
+      <c r="LV5" s="272"/>
+      <c r="LW5" s="272"/>
+      <c r="LX5" s="272"/>
+      <c r="LY5" s="273"/>
+      <c r="LZ5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="MA5" s="272"/>
+      <c r="MB5" s="272"/>
+      <c r="MC5" s="272"/>
+      <c r="MD5" s="272"/>
+      <c r="ME5" s="272"/>
+      <c r="MF5" s="273"/>
+      <c r="MG5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="MH5" s="272"/>
+      <c r="MI5" s="272"/>
+      <c r="MJ5" s="272"/>
+      <c r="MK5" s="272"/>
+      <c r="ML5" s="272"/>
+      <c r="MM5" s="273"/>
+      <c r="MN5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="MO5" s="272"/>
+      <c r="MP5" s="272"/>
+      <c r="MQ5" s="272"/>
+      <c r="MR5" s="272"/>
+      <c r="MS5" s="272"/>
+      <c r="MT5" s="273"/>
+      <c r="MU5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="MV5" s="272"/>
+      <c r="MW5" s="272"/>
+      <c r="MX5" s="272"/>
+      <c r="MY5" s="272"/>
+      <c r="MZ5" s="272"/>
+      <c r="NA5" s="273"/>
+      <c r="NB5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="NC5" s="272"/>
+      <c r="ND5" s="272"/>
+      <c r="NE5" s="272"/>
+      <c r="NF5" s="272"/>
+      <c r="NG5" s="272"/>
+      <c r="NH5" s="273"/>
+      <c r="NI5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="NJ5" s="272"/>
+      <c r="NK5" s="272"/>
+      <c r="NL5" s="272"/>
+      <c r="NM5" s="272"/>
+      <c r="NN5" s="272"/>
+      <c r="NO5" s="273"/>
+      <c r="NP5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="NQ5" s="272"/>
+      <c r="NR5" s="272"/>
+      <c r="NS5" s="272"/>
+      <c r="NT5" s="272"/>
+      <c r="NU5" s="272"/>
+      <c r="NV5" s="273"/>
+      <c r="NW5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="NX5" s="272"/>
+      <c r="NY5" s="272"/>
+      <c r="NZ5" s="272"/>
+      <c r="OA5" s="272"/>
+      <c r="OB5" s="272"/>
+      <c r="OC5" s="273"/>
+      <c r="OD5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="OE5" s="272"/>
+      <c r="OF5" s="272"/>
+      <c r="OG5" s="272"/>
+      <c r="OH5" s="272"/>
+      <c r="OI5" s="272"/>
+      <c r="OJ5" s="273"/>
+      <c r="OK5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="OL5" s="272"/>
+      <c r="OM5" s="272"/>
+      <c r="ON5" s="272"/>
+      <c r="OO5" s="272"/>
+      <c r="OP5" s="272"/>
+      <c r="OQ5" s="273"/>
+      <c r="OR5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="OS5" s="272"/>
+      <c r="OT5" s="272"/>
+      <c r="OU5" s="272"/>
+      <c r="OV5" s="272"/>
+      <c r="OW5" s="272"/>
+      <c r="OX5" s="273"/>
+      <c r="OY5" s="334" t="s">
+        <v>188</v>
+      </c>
+      <c r="OZ5" s="335"/>
+      <c r="PA5" s="335"/>
+      <c r="PB5" s="335"/>
+      <c r="PC5" s="335"/>
+      <c r="PD5" s="335"/>
+      <c r="PE5" s="271" t="s">
+        <v>188</v>
+      </c>
+      <c r="PF5" s="272"/>
+      <c r="PG5" s="272"/>
+      <c r="PH5" s="272"/>
+      <c r="PI5" s="272"/>
+      <c r="PJ5" s="272"/>
+      <c r="PK5" s="273"/>
+      <c r="PL5" s="271"/>
+      <c r="PM5" s="272"/>
+      <c r="PN5" s="272"/>
+      <c r="PO5" s="272"/>
+      <c r="PP5" s="272"/>
+      <c r="PQ5" s="272"/>
+      <c r="PR5" s="273"/>
+      <c r="PS5" s="271"/>
+      <c r="PT5" s="272"/>
+      <c r="PU5" s="272"/>
+      <c r="PV5" s="272"/>
+      <c r="PW5" s="272"/>
+      <c r="PX5" s="272"/>
+      <c r="PY5" s="273"/>
+      <c r="PZ5" s="271"/>
+      <c r="QA5" s="272"/>
+      <c r="QB5" s="272"/>
+      <c r="QC5" s="272"/>
+      <c r="QD5" s="272"/>
+      <c r="QE5" s="272"/>
+      <c r="QF5" s="273"/>
+      <c r="QG5" s="271"/>
+      <c r="QH5" s="272"/>
+      <c r="QI5" s="272"/>
+      <c r="QJ5" s="272"/>
+      <c r="QK5" s="272"/>
+      <c r="QL5" s="272"/>
+      <c r="QM5" s="273"/>
+      <c r="QN5" s="271"/>
+      <c r="QO5" s="272"/>
+      <c r="QP5" s="272"/>
+      <c r="QQ5" s="272"/>
+      <c r="QR5" s="272"/>
+      <c r="QS5" s="272"/>
+      <c r="QT5" s="273"/>
+      <c r="QU5" s="271"/>
+      <c r="QV5" s="272"/>
+      <c r="QW5" s="272"/>
+      <c r="QX5" s="272"/>
+      <c r="QY5" s="272"/>
+      <c r="QZ5" s="272"/>
+      <c r="RA5" s="273"/>
+      <c r="RB5" s="271"/>
+      <c r="RC5" s="272"/>
+      <c r="RD5" s="272"/>
+      <c r="RE5" s="272"/>
+      <c r="RF5" s="272"/>
+      <c r="RG5" s="272"/>
+      <c r="RH5" s="273"/>
+      <c r="RI5" s="271"/>
+      <c r="RJ5" s="272"/>
+      <c r="RK5" s="272"/>
+      <c r="RL5" s="272"/>
+      <c r="RM5" s="272"/>
+      <c r="RN5" s="272"/>
+      <c r="RO5" s="273"/>
+      <c r="RP5" s="271"/>
+      <c r="RQ5" s="272"/>
+      <c r="RR5" s="272"/>
+      <c r="RS5" s="272"/>
+      <c r="RT5" s="272"/>
+      <c r="RU5" s="272"/>
+      <c r="RV5" s="273"/>
+      <c r="RW5" s="271"/>
+      <c r="RX5" s="272"/>
+      <c r="RY5" s="272"/>
+      <c r="RZ5" s="272"/>
+      <c r="SA5" s="272"/>
+      <c r="SB5" s="272"/>
+      <c r="SC5" s="273"/>
     </row>
-    <row r="6" spans="1:455" ht="43.5" customHeight="1">
+    <row r="6" spans="1:497" ht="43.5" customHeight="1">
       <c r="A6" s="148" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>138</v>
@@ -10335,11 +10559,19 @@
       <c r="PK6" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL6" s="226"/>
-      <c r="PM6" s="226"/>
-      <c r="PN6" s="226"/>
-      <c r="PO6" s="226"/>
-      <c r="PP6" s="226"/>
+      <c r="PL6" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM6" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN6" s="156"/>
+      <c r="PO6" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP6" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ6" s="226"/>
       <c r="PR6" s="226"/>
       <c r="PS6" s="226"/>
@@ -10354,14 +10586,41 @@
       <c r="QB6" s="226"/>
       <c r="QC6" s="226"/>
       <c r="QD6" s="226"/>
-      <c r="QE6" s="226"/>
+      <c r="QE6" s="125"/>
+      <c r="QF6" s="125"/>
+      <c r="QG6" s="125"/>
+      <c r="QH6" s="125"/>
+      <c r="QI6" s="125"/>
+      <c r="QJ6" s="125"/>
+      <c r="QK6" s="125"/>
+      <c r="QL6" s="125"/>
+      <c r="QM6" s="125"/>
+      <c r="QN6" s="125"/>
+      <c r="QO6" s="125"/>
+      <c r="QP6" s="125"/>
+      <c r="QQ6" s="125"/>
+      <c r="QR6" s="125"/>
+      <c r="QS6" s="125"/>
+      <c r="QT6" s="125"/>
+      <c r="QU6" s="125"/>
+      <c r="QV6" s="125"/>
+      <c r="QW6" s="125"/>
+      <c r="QX6" s="125"/>
+      <c r="QY6" s="125"/>
+      <c r="QZ6" s="125"/>
+      <c r="RA6" s="125"/>
+      <c r="RB6" s="125"/>
+      <c r="RC6" s="125"/>
+      <c r="RD6" s="125"/>
+      <c r="RE6" s="125"/>
+      <c r="RF6" s="125"/>
     </row>
-    <row r="7" spans="1:455" ht="43.5" customHeight="1">
+    <row r="7" spans="1:497" ht="43.5" customHeight="1">
       <c r="A7" s="148" t="s">
         <v>153</v>
       </c>
       <c r="B7" s="250" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>138</v>
@@ -10952,11 +11211,19 @@
       <c r="PK7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL7" s="226"/>
-      <c r="PM7" s="226"/>
-      <c r="PN7" s="226"/>
-      <c r="PO7" s="226"/>
-      <c r="PP7" s="226"/>
+      <c r="PL7" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM7" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN7" s="156"/>
+      <c r="PO7" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP7" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ7" s="226"/>
       <c r="PR7" s="226"/>
       <c r="PS7" s="226"/>
@@ -10971,9 +11238,36 @@
       <c r="QB7" s="226"/>
       <c r="QC7" s="226"/>
       <c r="QD7" s="226"/>
-      <c r="QE7" s="226"/>
+      <c r="QE7" s="125"/>
+      <c r="QF7" s="125"/>
+      <c r="QG7" s="125"/>
+      <c r="QH7" s="125"/>
+      <c r="QI7" s="125"/>
+      <c r="QJ7" s="125"/>
+      <c r="QK7" s="125"/>
+      <c r="QL7" s="125"/>
+      <c r="QM7" s="125"/>
+      <c r="QN7" s="125"/>
+      <c r="QO7" s="125"/>
+      <c r="QP7" s="125"/>
+      <c r="QQ7" s="125"/>
+      <c r="QR7" s="125"/>
+      <c r="QS7" s="125"/>
+      <c r="QT7" s="125"/>
+      <c r="QU7" s="125"/>
+      <c r="QV7" s="125"/>
+      <c r="QW7" s="125"/>
+      <c r="QX7" s="125"/>
+      <c r="QY7" s="125"/>
+      <c r="QZ7" s="125"/>
+      <c r="RA7" s="125"/>
+      <c r="RB7" s="125"/>
+      <c r="RC7" s="125"/>
+      <c r="RD7" s="125"/>
+      <c r="RE7" s="125"/>
+      <c r="RF7" s="125"/>
     </row>
-    <row r="8" spans="1:455" ht="43.5" customHeight="1">
+    <row r="8" spans="1:497" ht="43.5" customHeight="1">
       <c r="A8" s="148" t="s">
         <v>153</v>
       </c>
@@ -11783,11 +12077,19 @@
       <c r="PK8" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL8" s="226"/>
-      <c r="PM8" s="226"/>
-      <c r="PN8" s="226"/>
-      <c r="PO8" s="226"/>
-      <c r="PP8" s="226"/>
+      <c r="PL8" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM8" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN8" s="156"/>
+      <c r="PO8" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP8" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ8" s="226"/>
       <c r="PR8" s="226"/>
       <c r="PS8" s="226"/>
@@ -11802,9 +12104,36 @@
       <c r="QB8" s="226"/>
       <c r="QC8" s="226"/>
       <c r="QD8" s="226"/>
-      <c r="QE8" s="226"/>
+      <c r="QE8" s="125"/>
+      <c r="QF8" s="125"/>
+      <c r="QG8" s="125"/>
+      <c r="QH8" s="125"/>
+      <c r="QI8" s="125"/>
+      <c r="QJ8" s="125"/>
+      <c r="QK8" s="125"/>
+      <c r="QL8" s="125"/>
+      <c r="QM8" s="125"/>
+      <c r="QN8" s="125"/>
+      <c r="QO8" s="125"/>
+      <c r="QP8" s="125"/>
+      <c r="QQ8" s="125"/>
+      <c r="QR8" s="125"/>
+      <c r="QS8" s="125"/>
+      <c r="QT8" s="125"/>
+      <c r="QU8" s="125"/>
+      <c r="QV8" s="125"/>
+      <c r="QW8" s="125"/>
+      <c r="QX8" s="125"/>
+      <c r="QY8" s="125"/>
+      <c r="QZ8" s="125"/>
+      <c r="RA8" s="125"/>
+      <c r="RB8" s="125"/>
+      <c r="RC8" s="125"/>
+      <c r="RD8" s="125"/>
+      <c r="RE8" s="125"/>
+      <c r="RF8" s="125"/>
     </row>
-    <row r="9" spans="1:455" ht="43.5" customHeight="1">
+    <row r="9" spans="1:497" ht="43.5" customHeight="1">
       <c r="A9" s="148" t="s">
         <v>153</v>
       </c>
@@ -12536,11 +12865,19 @@
       <c r="PK9" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL9" s="226"/>
-      <c r="PM9" s="226"/>
-      <c r="PN9" s="226"/>
-      <c r="PO9" s="226"/>
-      <c r="PP9" s="226"/>
+      <c r="PL9" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM9" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN9" s="156"/>
+      <c r="PO9" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP9" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ9" s="226"/>
       <c r="PR9" s="226"/>
       <c r="PS9" s="226"/>
@@ -12555,14 +12892,41 @@
       <c r="QB9" s="226"/>
       <c r="QC9" s="226"/>
       <c r="QD9" s="226"/>
-      <c r="QE9" s="226"/>
+      <c r="QE9" s="125"/>
+      <c r="QF9" s="125"/>
+      <c r="QG9" s="125"/>
+      <c r="QH9" s="125"/>
+      <c r="QI9" s="125"/>
+      <c r="QJ9" s="125"/>
+      <c r="QK9" s="125"/>
+      <c r="QL9" s="125"/>
+      <c r="QM9" s="125"/>
+      <c r="QN9" s="125"/>
+      <c r="QO9" s="125"/>
+      <c r="QP9" s="125"/>
+      <c r="QQ9" s="125"/>
+      <c r="QR9" s="125"/>
+      <c r="QS9" s="125"/>
+      <c r="QT9" s="125"/>
+      <c r="QU9" s="125"/>
+      <c r="QV9" s="125"/>
+      <c r="QW9" s="125"/>
+      <c r="QX9" s="125"/>
+      <c r="QY9" s="125"/>
+      <c r="QZ9" s="125"/>
+      <c r="RA9" s="125"/>
+      <c r="RB9" s="125"/>
+      <c r="RC9" s="125"/>
+      <c r="RD9" s="125"/>
+      <c r="RE9" s="125"/>
+      <c r="RF9" s="125"/>
     </row>
-    <row r="10" spans="1:455" ht="43.5" customHeight="1">
+    <row r="10" spans="1:497" ht="43.5" customHeight="1">
       <c r="A10" s="148" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="230" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>138</v>
@@ -13111,11 +13475,19 @@
       <c r="PK10" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL10" s="226"/>
-      <c r="PM10" s="226"/>
-      <c r="PN10" s="226"/>
-      <c r="PO10" s="226"/>
-      <c r="PP10" s="226"/>
+      <c r="PL10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN10" s="156"/>
+      <c r="PO10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP10" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ10" s="226"/>
       <c r="PR10" s="226"/>
       <c r="PS10" s="226"/>
@@ -13130,9 +13502,36 @@
       <c r="QB10" s="226"/>
       <c r="QC10" s="226"/>
       <c r="QD10" s="226"/>
-      <c r="QE10" s="226"/>
+      <c r="QE10" s="125"/>
+      <c r="QF10" s="125"/>
+      <c r="QG10" s="125"/>
+      <c r="QH10" s="125"/>
+      <c r="QI10" s="125"/>
+      <c r="QJ10" s="125"/>
+      <c r="QK10" s="125"/>
+      <c r="QL10" s="125"/>
+      <c r="QM10" s="125"/>
+      <c r="QN10" s="125"/>
+      <c r="QO10" s="125"/>
+      <c r="QP10" s="125"/>
+      <c r="QQ10" s="125"/>
+      <c r="QR10" s="125"/>
+      <c r="QS10" s="125"/>
+      <c r="QT10" s="125"/>
+      <c r="QU10" s="125"/>
+      <c r="QV10" s="125"/>
+      <c r="QW10" s="125"/>
+      <c r="QX10" s="125"/>
+      <c r="QY10" s="125"/>
+      <c r="QZ10" s="125"/>
+      <c r="RA10" s="125"/>
+      <c r="RB10" s="125"/>
+      <c r="RC10" s="125"/>
+      <c r="RD10" s="125"/>
+      <c r="RE10" s="125"/>
+      <c r="RF10" s="125"/>
     </row>
-    <row r="11" spans="1:455" ht="43.5" customHeight="1">
+    <row r="11" spans="1:497" ht="43.5" customHeight="1">
       <c r="A11" s="231" t="s">
         <v>113</v>
       </c>
@@ -13549,11 +13948,19 @@
       <c r="PK11" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL11" s="226"/>
-      <c r="PM11" s="226"/>
-      <c r="PN11" s="226"/>
-      <c r="PO11" s="226"/>
-      <c r="PP11" s="226"/>
+      <c r="PL11" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM11" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN11" s="156"/>
+      <c r="PO11" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP11" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ11" s="226"/>
       <c r="PR11" s="226"/>
       <c r="PS11" s="226"/>
@@ -13568,14 +13975,41 @@
       <c r="QB11" s="226"/>
       <c r="QC11" s="226"/>
       <c r="QD11" s="226"/>
-      <c r="QE11" s="226"/>
+      <c r="QE11" s="125"/>
+      <c r="QF11" s="125"/>
+      <c r="QG11" s="125"/>
+      <c r="QH11" s="125"/>
+      <c r="QI11" s="125"/>
+      <c r="QJ11" s="125"/>
+      <c r="QK11" s="125"/>
+      <c r="QL11" s="125"/>
+      <c r="QM11" s="125"/>
+      <c r="QN11" s="125"/>
+      <c r="QO11" s="125"/>
+      <c r="QP11" s="125"/>
+      <c r="QQ11" s="125"/>
+      <c r="QR11" s="125"/>
+      <c r="QS11" s="125"/>
+      <c r="QT11" s="125"/>
+      <c r="QU11" s="125"/>
+      <c r="QV11" s="125"/>
+      <c r="QW11" s="125"/>
+      <c r="QX11" s="125"/>
+      <c r="QY11" s="125"/>
+      <c r="QZ11" s="125"/>
+      <c r="RA11" s="125"/>
+      <c r="RB11" s="125"/>
+      <c r="RC11" s="125"/>
+      <c r="RD11" s="125"/>
+      <c r="RE11" s="125"/>
+      <c r="RF11" s="125"/>
     </row>
-    <row r="12" spans="1:455" ht="43.5" customHeight="1">
+    <row r="12" spans="1:497" ht="43.5" customHeight="1">
       <c r="A12" s="148" t="s">
         <v>153</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>138</v>
@@ -13769,9 +14203,9 @@
       <c r="GH12" s="99"/>
       <c r="GI12" s="99"/>
       <c r="GJ12" s="99"/>
-      <c r="GK12" s="334"/>
+      <c r="GK12" s="259"/>
       <c r="GL12" s="126"/>
-      <c r="GM12" s="335"/>
+      <c r="GM12" s="260"/>
       <c r="GN12" s="10"/>
       <c r="GO12" s="10"/>
       <c r="GP12" s="10"/>
@@ -13944,15 +14378,23 @@
       <c r="PG12" s="125"/>
       <c r="PH12" s="125"/>
       <c r="PI12" s="125"/>
-      <c r="PJ12" s="336"/>
+      <c r="PJ12" s="261"/>
       <c r="PK12" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL12" s="226"/>
-      <c r="PM12" s="226"/>
-      <c r="PN12" s="226"/>
-      <c r="PO12" s="226"/>
-      <c r="PP12" s="226"/>
+      <c r="PL12" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM12" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN12" s="156"/>
+      <c r="PO12" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP12" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PQ12" s="226"/>
       <c r="PR12" s="226"/>
       <c r="PS12" s="226"/>
@@ -13967,9 +14409,36 @@
       <c r="QB12" s="226"/>
       <c r="QC12" s="226"/>
       <c r="QD12" s="226"/>
-      <c r="QE12" s="226"/>
+      <c r="QE12" s="125"/>
+      <c r="QF12" s="125"/>
+      <c r="QG12" s="125"/>
+      <c r="QH12" s="125"/>
+      <c r="QI12" s="125"/>
+      <c r="QJ12" s="125"/>
+      <c r="QK12" s="125"/>
+      <c r="QL12" s="125"/>
+      <c r="QM12" s="125"/>
+      <c r="QN12" s="125"/>
+      <c r="QO12" s="125"/>
+      <c r="QP12" s="125"/>
+      <c r="QQ12" s="125"/>
+      <c r="QR12" s="125"/>
+      <c r="QS12" s="125"/>
+      <c r="QT12" s="125"/>
+      <c r="QU12" s="125"/>
+      <c r="QV12" s="125"/>
+      <c r="QW12" s="125"/>
+      <c r="QX12" s="125"/>
+      <c r="QY12" s="125"/>
+      <c r="QZ12" s="125"/>
+      <c r="RA12" s="125"/>
+      <c r="RB12" s="125"/>
+      <c r="RC12" s="125"/>
+      <c r="RD12" s="125"/>
+      <c r="RE12" s="125"/>
+      <c r="RF12" s="125"/>
     </row>
-    <row r="13" spans="1:455" ht="43.5" customHeight="1">
+    <row r="13" spans="1:497" ht="43.5" customHeight="1">
       <c r="A13" s="143" t="s">
         <v>41</v>
       </c>
@@ -14667,11 +15136,17 @@
       <c r="PK13" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL13" s="226"/>
-      <c r="PM13" s="226"/>
-      <c r="PN13" s="226"/>
-      <c r="PO13" s="226"/>
-      <c r="PP13" s="226"/>
+      <c r="PL13" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM13" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN13" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PO13" s="156"/>
+      <c r="PP13" s="156"/>
       <c r="PQ13" s="226"/>
       <c r="PR13" s="226"/>
       <c r="PS13" s="226"/>
@@ -14686,9 +15161,36 @@
       <c r="QB13" s="226"/>
       <c r="QC13" s="226"/>
       <c r="QD13" s="226"/>
-      <c r="QE13" s="226"/>
+      <c r="QE13" s="125"/>
+      <c r="QF13" s="125"/>
+      <c r="QG13" s="125"/>
+      <c r="QH13" s="125"/>
+      <c r="QI13" s="125"/>
+      <c r="QJ13" s="125"/>
+      <c r="QK13" s="125"/>
+      <c r="QL13" s="125"/>
+      <c r="QM13" s="125"/>
+      <c r="QN13" s="125"/>
+      <c r="QO13" s="125"/>
+      <c r="QP13" s="125"/>
+      <c r="QQ13" s="125"/>
+      <c r="QR13" s="125"/>
+      <c r="QS13" s="125"/>
+      <c r="QT13" s="125"/>
+      <c r="QU13" s="125"/>
+      <c r="QV13" s="125"/>
+      <c r="QW13" s="125"/>
+      <c r="QX13" s="125"/>
+      <c r="QY13" s="125"/>
+      <c r="QZ13" s="125"/>
+      <c r="RA13" s="125"/>
+      <c r="RB13" s="125"/>
+      <c r="RC13" s="125"/>
+      <c r="RD13" s="125"/>
+      <c r="RE13" s="125"/>
+      <c r="RF13" s="125"/>
     </row>
-    <row r="14" spans="1:455" ht="43.5" customHeight="1">
+    <row r="14" spans="1:497" ht="43.5" customHeight="1">
       <c r="A14" s="227" t="s">
         <v>41</v>
       </c>
@@ -15468,11 +15970,17 @@
       <c r="PK14" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PL14" s="125"/>
-      <c r="PM14" s="125"/>
-      <c r="PN14" s="125"/>
-      <c r="PO14" s="125"/>
-      <c r="PP14" s="125"/>
+      <c r="PL14" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM14" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PN14" s="156"/>
+      <c r="PO14" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PP14" s="156"/>
       <c r="PQ14" s="125"/>
       <c r="PR14" s="125"/>
       <c r="PS14" s="125"/>
@@ -15487,8 +15995,36 @@
       <c r="QB14" s="125"/>
       <c r="QC14" s="125"/>
       <c r="QD14" s="125"/>
+      <c r="QE14" s="125"/>
+      <c r="QF14" s="125"/>
+      <c r="QG14" s="125"/>
+      <c r="QH14" s="125"/>
+      <c r="QI14" s="125"/>
+      <c r="QJ14" s="125"/>
+      <c r="QK14" s="125"/>
+      <c r="QL14" s="125"/>
+      <c r="QM14" s="125"/>
+      <c r="QN14" s="125"/>
+      <c r="QO14" s="125"/>
+      <c r="QP14" s="125"/>
+      <c r="QQ14" s="125"/>
+      <c r="QR14" s="125"/>
+      <c r="QS14" s="125"/>
+      <c r="QT14" s="125"/>
+      <c r="QU14" s="125"/>
+      <c r="QV14" s="125"/>
+      <c r="QW14" s="125"/>
+      <c r="QX14" s="125"/>
+      <c r="QY14" s="125"/>
+      <c r="QZ14" s="125"/>
+      <c r="RA14" s="125"/>
+      <c r="RB14" s="125"/>
+      <c r="RC14" s="125"/>
+      <c r="RD14" s="125"/>
+      <c r="RE14" s="125"/>
+      <c r="RF14" s="125"/>
     </row>
-    <row r="15" spans="1:455" ht="43.5" customHeight="1">
+    <row r="15" spans="1:497" ht="43.5" customHeight="1">
       <c r="A15" s="227" t="s">
         <v>41</v>
       </c>
@@ -15498,544 +16034,586 @@
       <c r="C15" s="229" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="326" t="s">
+      <c r="D15" s="284" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="326"/>
-      <c r="F15" s="326"/>
-      <c r="G15" s="326"/>
-      <c r="H15" s="326"/>
-      <c r="I15" s="326"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="326" t="s">
+      <c r="E15" s="284"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="284"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="326"/>
-      <c r="M15" s="326"/>
-      <c r="N15" s="326"/>
-      <c r="O15" s="326"/>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="326" t="s">
+      <c r="L15" s="284"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="284"/>
+      <c r="O15" s="284"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="284"/>
+      <c r="R15" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="325" t="s">
+      <c r="S15" s="284"/>
+      <c r="T15" s="284"/>
+      <c r="U15" s="284"/>
+      <c r="V15" s="284"/>
+      <c r="W15" s="284"/>
+      <c r="X15" s="284"/>
+      <c r="Y15" s="285" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
-      <c r="AC15" s="326"/>
-      <c r="AD15" s="326"/>
-      <c r="AE15" s="326"/>
-      <c r="AF15" s="325" t="s">
+      <c r="Z15" s="284"/>
+      <c r="AA15" s="284"/>
+      <c r="AB15" s="284"/>
+      <c r="AC15" s="284"/>
+      <c r="AD15" s="284"/>
+      <c r="AE15" s="284"/>
+      <c r="AF15" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="AG15" s="326"/>
-      <c r="AH15" s="326"/>
-      <c r="AI15" s="326"/>
-      <c r="AJ15" s="326"/>
-      <c r="AK15" s="326"/>
-      <c r="AL15" s="326"/>
-      <c r="AM15" s="325" t="s">
+      <c r="AG15" s="284"/>
+      <c r="AH15" s="284"/>
+      <c r="AI15" s="284"/>
+      <c r="AJ15" s="284"/>
+      <c r="AK15" s="284"/>
+      <c r="AL15" s="284"/>
+      <c r="AM15" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="AN15" s="326"/>
-      <c r="AO15" s="326"/>
-      <c r="AP15" s="326"/>
-      <c r="AQ15" s="326"/>
-      <c r="AR15" s="326"/>
-      <c r="AS15" s="326"/>
-      <c r="AT15" s="325" t="s">
+      <c r="AN15" s="284"/>
+      <c r="AO15" s="284"/>
+      <c r="AP15" s="284"/>
+      <c r="AQ15" s="284"/>
+      <c r="AR15" s="284"/>
+      <c r="AS15" s="284"/>
+      <c r="AT15" s="285" t="s">
         <v>52</v>
       </c>
-      <c r="AU15" s="326"/>
-      <c r="AV15" s="326"/>
-      <c r="AW15" s="326"/>
-      <c r="AX15" s="326"/>
-      <c r="AY15" s="326"/>
-      <c r="AZ15" s="326"/>
-      <c r="BA15" s="325" t="s">
+      <c r="AU15" s="284"/>
+      <c r="AV15" s="284"/>
+      <c r="AW15" s="284"/>
+      <c r="AX15" s="284"/>
+      <c r="AY15" s="284"/>
+      <c r="AZ15" s="284"/>
+      <c r="BA15" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="BB15" s="326"/>
-      <c r="BC15" s="326"/>
-      <c r="BD15" s="326"/>
-      <c r="BE15" s="326"/>
-      <c r="BF15" s="326"/>
-      <c r="BG15" s="326"/>
-      <c r="BH15" s="325" t="s">
+      <c r="BB15" s="284"/>
+      <c r="BC15" s="284"/>
+      <c r="BD15" s="284"/>
+      <c r="BE15" s="284"/>
+      <c r="BF15" s="284"/>
+      <c r="BG15" s="284"/>
+      <c r="BH15" s="285" t="s">
         <v>93</v>
       </c>
-      <c r="BI15" s="326"/>
-      <c r="BJ15" s="326"/>
-      <c r="BK15" s="326"/>
-      <c r="BL15" s="326"/>
-      <c r="BM15" s="326"/>
-      <c r="BN15" s="326"/>
-      <c r="BO15" s="325" t="s">
+      <c r="BI15" s="284"/>
+      <c r="BJ15" s="284"/>
+      <c r="BK15" s="284"/>
+      <c r="BL15" s="284"/>
+      <c r="BM15" s="284"/>
+      <c r="BN15" s="284"/>
+      <c r="BO15" s="285" t="s">
         <v>73</v>
       </c>
-      <c r="BP15" s="326"/>
-      <c r="BQ15" s="326"/>
-      <c r="BR15" s="326"/>
-      <c r="BS15" s="326"/>
-      <c r="BT15" s="326"/>
-      <c r="BU15" s="326"/>
-      <c r="BV15" s="325" t="s">
+      <c r="BP15" s="284"/>
+      <c r="BQ15" s="284"/>
+      <c r="BR15" s="284"/>
+      <c r="BS15" s="284"/>
+      <c r="BT15" s="284"/>
+      <c r="BU15" s="284"/>
+      <c r="BV15" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="BW15" s="326"/>
-      <c r="BX15" s="326"/>
-      <c r="BY15" s="326"/>
-      <c r="BZ15" s="326"/>
-      <c r="CA15" s="326"/>
-      <c r="CB15" s="326"/>
-      <c r="CC15" s="325" t="s">
+      <c r="BW15" s="284"/>
+      <c r="BX15" s="284"/>
+      <c r="BY15" s="284"/>
+      <c r="BZ15" s="284"/>
+      <c r="CA15" s="284"/>
+      <c r="CB15" s="284"/>
+      <c r="CC15" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="CD15" s="326"/>
-      <c r="CE15" s="326"/>
-      <c r="CF15" s="326"/>
-      <c r="CG15" s="326"/>
-      <c r="CH15" s="326"/>
-      <c r="CI15" s="326"/>
-      <c r="CJ15" s="325" t="s">
+      <c r="CD15" s="284"/>
+      <c r="CE15" s="284"/>
+      <c r="CF15" s="284"/>
+      <c r="CG15" s="284"/>
+      <c r="CH15" s="284"/>
+      <c r="CI15" s="284"/>
+      <c r="CJ15" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="CK15" s="326"/>
-      <c r="CL15" s="326"/>
-      <c r="CM15" s="326"/>
-      <c r="CN15" s="326"/>
-      <c r="CO15" s="326"/>
-      <c r="CP15" s="326"/>
-      <c r="CQ15" s="325" t="s">
+      <c r="CK15" s="284"/>
+      <c r="CL15" s="284"/>
+      <c r="CM15" s="284"/>
+      <c r="CN15" s="284"/>
+      <c r="CO15" s="284"/>
+      <c r="CP15" s="284"/>
+      <c r="CQ15" s="285" t="s">
         <v>80</v>
       </c>
-      <c r="CR15" s="326"/>
-      <c r="CS15" s="326"/>
-      <c r="CT15" s="326"/>
-      <c r="CU15" s="326"/>
-      <c r="CV15" s="326"/>
-      <c r="CW15" s="326"/>
-      <c r="CX15" s="325" t="s">
+      <c r="CR15" s="284"/>
+      <c r="CS15" s="284"/>
+      <c r="CT15" s="284"/>
+      <c r="CU15" s="284"/>
+      <c r="CV15" s="284"/>
+      <c r="CW15" s="284"/>
+      <c r="CX15" s="285" t="s">
         <v>124</v>
       </c>
-      <c r="CY15" s="326"/>
-      <c r="CZ15" s="326"/>
-      <c r="DA15" s="326"/>
-      <c r="DB15" s="326"/>
-      <c r="DC15" s="326"/>
-      <c r="DD15" s="326"/>
-      <c r="DE15" s="325" t="s">
+      <c r="CY15" s="284"/>
+      <c r="CZ15" s="284"/>
+      <c r="DA15" s="284"/>
+      <c r="DB15" s="284"/>
+      <c r="DC15" s="284"/>
+      <c r="DD15" s="284"/>
+      <c r="DE15" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="DF15" s="326"/>
-      <c r="DG15" s="326"/>
-      <c r="DH15" s="326"/>
-      <c r="DI15" s="326"/>
-      <c r="DJ15" s="326"/>
-      <c r="DK15" s="326"/>
-      <c r="DL15" s="325" t="s">
+      <c r="DF15" s="284"/>
+      <c r="DG15" s="284"/>
+      <c r="DH15" s="284"/>
+      <c r="DI15" s="284"/>
+      <c r="DJ15" s="284"/>
+      <c r="DK15" s="284"/>
+      <c r="DL15" s="285" t="s">
         <v>130</v>
       </c>
-      <c r="DM15" s="326"/>
-      <c r="DN15" s="326"/>
-      <c r="DO15" s="326"/>
-      <c r="DP15" s="326"/>
-      <c r="DQ15" s="326"/>
-      <c r="DR15" s="326"/>
-      <c r="DS15" s="328" t="s">
+      <c r="DM15" s="284"/>
+      <c r="DN15" s="284"/>
+      <c r="DO15" s="284"/>
+      <c r="DP15" s="284"/>
+      <c r="DQ15" s="284"/>
+      <c r="DR15" s="284"/>
+      <c r="DS15" s="290" t="s">
         <v>129</v>
       </c>
-      <c r="DT15" s="329"/>
-      <c r="DU15" s="329"/>
-      <c r="DV15" s="329"/>
-      <c r="DW15" s="329"/>
-      <c r="DX15" s="329"/>
-      <c r="DY15" s="329"/>
-      <c r="DZ15" s="324" t="s">
+      <c r="DT15" s="291"/>
+      <c r="DU15" s="291"/>
+      <c r="DV15" s="291"/>
+      <c r="DW15" s="291"/>
+      <c r="DX15" s="291"/>
+      <c r="DY15" s="291"/>
+      <c r="DZ15" s="305" t="s">
         <v>131</v>
       </c>
-      <c r="EA15" s="315"/>
-      <c r="EB15" s="315"/>
-      <c r="EC15" s="315"/>
-      <c r="ED15" s="315"/>
-      <c r="EE15" s="315"/>
-      <c r="EF15" s="315"/>
-      <c r="EG15" s="314" t="s">
+      <c r="EA15" s="293"/>
+      <c r="EB15" s="293"/>
+      <c r="EC15" s="293"/>
+      <c r="ED15" s="293"/>
+      <c r="EE15" s="293"/>
+      <c r="EF15" s="293"/>
+      <c r="EG15" s="292" t="s">
         <v>133</v>
       </c>
-      <c r="EH15" s="315"/>
-      <c r="EI15" s="315"/>
-      <c r="EJ15" s="315"/>
-      <c r="EK15" s="315"/>
-      <c r="EL15" s="315"/>
-      <c r="EM15" s="315"/>
-      <c r="EN15" s="314" t="s">
+      <c r="EH15" s="293"/>
+      <c r="EI15" s="293"/>
+      <c r="EJ15" s="293"/>
+      <c r="EK15" s="293"/>
+      <c r="EL15" s="293"/>
+      <c r="EM15" s="293"/>
+      <c r="EN15" s="292" t="s">
         <v>134</v>
       </c>
-      <c r="EO15" s="315"/>
-      <c r="EP15" s="315"/>
-      <c r="EQ15" s="315"/>
-      <c r="ER15" s="315"/>
-      <c r="ES15" s="315"/>
-      <c r="ET15" s="315"/>
-      <c r="EU15" s="314" t="s">
+      <c r="EO15" s="293"/>
+      <c r="EP15" s="293"/>
+      <c r="EQ15" s="293"/>
+      <c r="ER15" s="293"/>
+      <c r="ES15" s="293"/>
+      <c r="ET15" s="293"/>
+      <c r="EU15" s="292" t="s">
         <v>135</v>
       </c>
-      <c r="EV15" s="315"/>
-      <c r="EW15" s="315"/>
-      <c r="EX15" s="315"/>
-      <c r="EY15" s="315"/>
-      <c r="EZ15" s="315"/>
-      <c r="FA15" s="315"/>
-      <c r="FB15" s="321" t="s">
+      <c r="EV15" s="293"/>
+      <c r="EW15" s="293"/>
+      <c r="EX15" s="293"/>
+      <c r="EY15" s="293"/>
+      <c r="EZ15" s="293"/>
+      <c r="FA15" s="293"/>
+      <c r="FB15" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="FC15" s="322"/>
-      <c r="FD15" s="322"/>
-      <c r="FE15" s="322"/>
-      <c r="FF15" s="322"/>
-      <c r="FG15" s="322"/>
-      <c r="FH15" s="323"/>
-      <c r="FI15" s="304" t="s">
+      <c r="FC15" s="303"/>
+      <c r="FD15" s="303"/>
+      <c r="FE15" s="303"/>
+      <c r="FF15" s="303"/>
+      <c r="FG15" s="303"/>
+      <c r="FH15" s="304"/>
+      <c r="FI15" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="FJ15" s="265"/>
-      <c r="FK15" s="265"/>
-      <c r="FL15" s="265"/>
-      <c r="FM15" s="265"/>
-      <c r="FN15" s="265"/>
-      <c r="FO15" s="320"/>
-      <c r="FP15" s="304" t="s">
+      <c r="FJ15" s="274"/>
+      <c r="FK15" s="274"/>
+      <c r="FL15" s="274"/>
+      <c r="FM15" s="274"/>
+      <c r="FN15" s="274"/>
+      <c r="FO15" s="301"/>
+      <c r="FP15" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="FQ15" s="265"/>
-      <c r="FR15" s="265"/>
-      <c r="FS15" s="265"/>
-      <c r="FT15" s="265"/>
-      <c r="FU15" s="265"/>
-      <c r="FV15" s="320"/>
-      <c r="FW15" s="321" t="s">
+      <c r="FQ15" s="274"/>
+      <c r="FR15" s="274"/>
+      <c r="FS15" s="274"/>
+      <c r="FT15" s="274"/>
+      <c r="FU15" s="274"/>
+      <c r="FV15" s="301"/>
+      <c r="FW15" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="FX15" s="322"/>
-      <c r="FY15" s="322"/>
-      <c r="FZ15" s="322"/>
-      <c r="GA15" s="322"/>
-      <c r="GB15" s="322"/>
-      <c r="GC15" s="323"/>
-      <c r="GD15" s="304" t="s">
+      <c r="FX15" s="303"/>
+      <c r="FY15" s="303"/>
+      <c r="FZ15" s="303"/>
+      <c r="GA15" s="303"/>
+      <c r="GB15" s="303"/>
+      <c r="GC15" s="304"/>
+      <c r="GD15" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="GE15" s="265"/>
-      <c r="GF15" s="265"/>
-      <c r="GG15" s="265"/>
-      <c r="GH15" s="266"/>
-      <c r="GI15" s="266"/>
-      <c r="GJ15" s="267"/>
-      <c r="GK15" s="301" t="s">
+      <c r="GE15" s="274"/>
+      <c r="GF15" s="274"/>
+      <c r="GG15" s="274"/>
+      <c r="GH15" s="275"/>
+      <c r="GI15" s="275"/>
+      <c r="GJ15" s="276"/>
+      <c r="GK15" s="307" t="s">
         <v>226</v>
       </c>
-      <c r="GL15" s="302"/>
-      <c r="GM15" s="302"/>
-      <c r="GN15" s="302"/>
-      <c r="GO15" s="302"/>
-      <c r="GP15" s="302"/>
-      <c r="GQ15" s="303"/>
-      <c r="GR15" s="304" t="s">
+      <c r="GL15" s="308"/>
+      <c r="GM15" s="308"/>
+      <c r="GN15" s="308"/>
+      <c r="GO15" s="308"/>
+      <c r="GP15" s="308"/>
+      <c r="GQ15" s="309"/>
+      <c r="GR15" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="GS15" s="265"/>
-      <c r="GT15" s="265"/>
-      <c r="GU15" s="265"/>
-      <c r="GV15" s="266"/>
-      <c r="GW15" s="266"/>
-      <c r="GX15" s="267"/>
-      <c r="GY15" s="304" t="s">
+      <c r="GS15" s="274"/>
+      <c r="GT15" s="274"/>
+      <c r="GU15" s="274"/>
+      <c r="GV15" s="275"/>
+      <c r="GW15" s="275"/>
+      <c r="GX15" s="276"/>
+      <c r="GY15" s="300" t="s">
         <v>129</v>
       </c>
-      <c r="GZ15" s="265"/>
-      <c r="HA15" s="265"/>
-      <c r="HB15" s="265"/>
-      <c r="HC15" s="266"/>
-      <c r="HD15" s="266"/>
-      <c r="HE15" s="267"/>
-      <c r="HF15" s="305" t="s">
+      <c r="GZ15" s="274"/>
+      <c r="HA15" s="274"/>
+      <c r="HB15" s="274"/>
+      <c r="HC15" s="275"/>
+      <c r="HD15" s="275"/>
+      <c r="HE15" s="276"/>
+      <c r="HF15" s="310" t="s">
         <v>239</v>
       </c>
-      <c r="HG15" s="266"/>
-      <c r="HH15" s="266"/>
-      <c r="HI15" s="266"/>
-      <c r="HJ15" s="266"/>
-      <c r="HK15" s="266"/>
-      <c r="HL15" s="267"/>
-      <c r="HM15" s="277" t="s">
+      <c r="HG15" s="275"/>
+      <c r="HH15" s="275"/>
+      <c r="HI15" s="275"/>
+      <c r="HJ15" s="275"/>
+      <c r="HK15" s="275"/>
+      <c r="HL15" s="276"/>
+      <c r="HM15" s="328" t="s">
         <v>228</v>
       </c>
-      <c r="HN15" s="266"/>
-      <c r="HO15" s="266"/>
-      <c r="HP15" s="266"/>
-      <c r="HQ15" s="266"/>
-      <c r="HR15" s="266"/>
-      <c r="HS15" s="267"/>
-      <c r="HT15" s="264" t="s">
+      <c r="HN15" s="275"/>
+      <c r="HO15" s="275"/>
+      <c r="HP15" s="275"/>
+      <c r="HQ15" s="275"/>
+      <c r="HR15" s="275"/>
+      <c r="HS15" s="276"/>
+      <c r="HT15" s="267" t="s">
         <v>256</v>
       </c>
-      <c r="HU15" s="265"/>
-      <c r="HV15" s="265"/>
-      <c r="HW15" s="265"/>
-      <c r="HX15" s="266"/>
-      <c r="HY15" s="266"/>
-      <c r="HZ15" s="267"/>
-      <c r="IA15" s="295" t="s">
+      <c r="HU15" s="274"/>
+      <c r="HV15" s="274"/>
+      <c r="HW15" s="274"/>
+      <c r="HX15" s="275"/>
+      <c r="HY15" s="275"/>
+      <c r="HZ15" s="276"/>
+      <c r="IA15" s="321" t="s">
         <v>257</v>
       </c>
-      <c r="IB15" s="265"/>
-      <c r="IC15" s="265"/>
-      <c r="ID15" s="265"/>
-      <c r="IE15" s="266"/>
-      <c r="IF15" s="266"/>
-      <c r="IG15" s="267"/>
-      <c r="IH15" s="268"/>
-      <c r="II15" s="269"/>
-      <c r="IJ15" s="269"/>
-      <c r="IK15" s="269"/>
-      <c r="IL15" s="270"/>
-      <c r="IM15" s="270"/>
-      <c r="IN15" s="271"/>
-      <c r="IO15" s="268"/>
-      <c r="IP15" s="269"/>
-      <c r="IQ15" s="269"/>
-      <c r="IR15" s="269"/>
-      <c r="IS15" s="270"/>
-      <c r="IT15" s="270"/>
-      <c r="IU15" s="271"/>
-      <c r="IV15" s="268"/>
-      <c r="IW15" s="269"/>
-      <c r="IX15" s="269"/>
-      <c r="IY15" s="269"/>
-      <c r="IZ15" s="270"/>
-      <c r="JA15" s="270"/>
-      <c r="JB15" s="271"/>
-      <c r="JC15" s="268"/>
-      <c r="JD15" s="269"/>
-      <c r="JE15" s="269"/>
-      <c r="JF15" s="269"/>
-      <c r="JG15" s="270"/>
-      <c r="JH15" s="270"/>
-      <c r="JI15" s="271"/>
-      <c r="JJ15" s="268"/>
-      <c r="JK15" s="269"/>
-      <c r="JL15" s="269"/>
-      <c r="JM15" s="269"/>
-      <c r="JN15" s="270"/>
-      <c r="JO15" s="270"/>
-      <c r="JP15" s="271"/>
-      <c r="JQ15" s="268"/>
-      <c r="JR15" s="269"/>
-      <c r="JS15" s="269"/>
-      <c r="JT15" s="269"/>
-      <c r="JU15" s="270"/>
-      <c r="JV15" s="270"/>
-      <c r="JW15" s="271"/>
-      <c r="JX15" s="268"/>
-      <c r="JY15" s="269"/>
-      <c r="JZ15" s="269"/>
-      <c r="KA15" s="269"/>
-      <c r="KB15" s="270"/>
-      <c r="KC15" s="270"/>
-      <c r="KD15" s="271"/>
-      <c r="KE15" s="268"/>
-      <c r="KF15" s="269"/>
-      <c r="KG15" s="269"/>
-      <c r="KH15" s="269"/>
-      <c r="KI15" s="270"/>
-      <c r="KJ15" s="270"/>
-      <c r="KK15" s="271"/>
-      <c r="KL15" s="286" t="s">
+      <c r="IB15" s="274"/>
+      <c r="IC15" s="274"/>
+      <c r="ID15" s="274"/>
+      <c r="IE15" s="275"/>
+      <c r="IF15" s="275"/>
+      <c r="IG15" s="276"/>
+      <c r="IH15" s="263"/>
+      <c r="II15" s="264"/>
+      <c r="IJ15" s="264"/>
+      <c r="IK15" s="264"/>
+      <c r="IL15" s="265"/>
+      <c r="IM15" s="265"/>
+      <c r="IN15" s="266"/>
+      <c r="IO15" s="263"/>
+      <c r="IP15" s="264"/>
+      <c r="IQ15" s="264"/>
+      <c r="IR15" s="264"/>
+      <c r="IS15" s="265"/>
+      <c r="IT15" s="265"/>
+      <c r="IU15" s="266"/>
+      <c r="IV15" s="263"/>
+      <c r="IW15" s="264"/>
+      <c r="IX15" s="264"/>
+      <c r="IY15" s="264"/>
+      <c r="IZ15" s="265"/>
+      <c r="JA15" s="265"/>
+      <c r="JB15" s="266"/>
+      <c r="JC15" s="263"/>
+      <c r="JD15" s="264"/>
+      <c r="JE15" s="264"/>
+      <c r="JF15" s="264"/>
+      <c r="JG15" s="265"/>
+      <c r="JH15" s="265"/>
+      <c r="JI15" s="266"/>
+      <c r="JJ15" s="263"/>
+      <c r="JK15" s="264"/>
+      <c r="JL15" s="264"/>
+      <c r="JM15" s="264"/>
+      <c r="JN15" s="265"/>
+      <c r="JO15" s="265"/>
+      <c r="JP15" s="266"/>
+      <c r="JQ15" s="263"/>
+      <c r="JR15" s="264"/>
+      <c r="JS15" s="264"/>
+      <c r="JT15" s="264"/>
+      <c r="JU15" s="265"/>
+      <c r="JV15" s="265"/>
+      <c r="JW15" s="266"/>
+      <c r="JX15" s="263"/>
+      <c r="JY15" s="264"/>
+      <c r="JZ15" s="264"/>
+      <c r="KA15" s="264"/>
+      <c r="KB15" s="265"/>
+      <c r="KC15" s="265"/>
+      <c r="KD15" s="266"/>
+      <c r="KE15" s="263"/>
+      <c r="KF15" s="264"/>
+      <c r="KG15" s="264"/>
+      <c r="KH15" s="264"/>
+      <c r="KI15" s="265"/>
+      <c r="KJ15" s="265"/>
+      <c r="KK15" s="266"/>
+      <c r="KL15" s="317" t="s">
         <v>305</v>
       </c>
-      <c r="KM15" s="287"/>
-      <c r="KN15" s="287"/>
-      <c r="KO15" s="287"/>
-      <c r="KP15" s="287"/>
-      <c r="KQ15" s="287"/>
-      <c r="KR15" s="288"/>
-      <c r="KS15" s="264" t="s">
+      <c r="KM15" s="318"/>
+      <c r="KN15" s="318"/>
+      <c r="KO15" s="318"/>
+      <c r="KP15" s="318"/>
+      <c r="KQ15" s="318"/>
+      <c r="KR15" s="319"/>
+      <c r="KS15" s="267" t="s">
         <v>324</v>
       </c>
-      <c r="KT15" s="289"/>
-      <c r="KU15" s="289"/>
-      <c r="KV15" s="289"/>
-      <c r="KW15" s="290"/>
-      <c r="KX15" s="290"/>
-      <c r="KY15" s="291"/>
-      <c r="KZ15" s="268"/>
-      <c r="LA15" s="269"/>
-      <c r="LB15" s="269"/>
-      <c r="LC15" s="269"/>
-      <c r="LD15" s="270"/>
-      <c r="LE15" s="270"/>
-      <c r="LF15" s="271"/>
-      <c r="LG15" s="264" t="s">
+      <c r="KT15" s="268"/>
+      <c r="KU15" s="268"/>
+      <c r="KV15" s="268"/>
+      <c r="KW15" s="269"/>
+      <c r="KX15" s="269"/>
+      <c r="KY15" s="270"/>
+      <c r="KZ15" s="263"/>
+      <c r="LA15" s="264"/>
+      <c r="LB15" s="264"/>
+      <c r="LC15" s="264"/>
+      <c r="LD15" s="265"/>
+      <c r="LE15" s="265"/>
+      <c r="LF15" s="266"/>
+      <c r="LG15" s="267" t="s">
         <v>326</v>
       </c>
-      <c r="LH15" s="265"/>
-      <c r="LI15" s="265"/>
-      <c r="LJ15" s="265"/>
-      <c r="LK15" s="266"/>
-      <c r="LL15" s="266"/>
-      <c r="LM15" s="267"/>
-      <c r="LN15" s="264" t="s">
+      <c r="LH15" s="274"/>
+      <c r="LI15" s="274"/>
+      <c r="LJ15" s="274"/>
+      <c r="LK15" s="275"/>
+      <c r="LL15" s="275"/>
+      <c r="LM15" s="276"/>
+      <c r="LN15" s="267" t="s">
         <v>327</v>
       </c>
-      <c r="LO15" s="265"/>
-      <c r="LP15" s="265"/>
-      <c r="LQ15" s="265"/>
-      <c r="LR15" s="266"/>
-      <c r="LS15" s="266"/>
-      <c r="LT15" s="267"/>
-      <c r="LU15" s="264" t="s">
+      <c r="LO15" s="274"/>
+      <c r="LP15" s="274"/>
+      <c r="LQ15" s="274"/>
+      <c r="LR15" s="275"/>
+      <c r="LS15" s="275"/>
+      <c r="LT15" s="276"/>
+      <c r="LU15" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="LV15" s="265"/>
-      <c r="LW15" s="265"/>
-      <c r="LX15" s="265"/>
-      <c r="LY15" s="266"/>
-      <c r="LZ15" s="266"/>
-      <c r="MA15" s="267"/>
-      <c r="MB15" s="272" t="s">
+      <c r="LV15" s="274"/>
+      <c r="LW15" s="274"/>
+      <c r="LX15" s="274"/>
+      <c r="LY15" s="275"/>
+      <c r="LZ15" s="275"/>
+      <c r="MA15" s="276"/>
+      <c r="MB15" s="325" t="s">
         <v>345</v>
       </c>
-      <c r="MC15" s="265"/>
-      <c r="MD15" s="265"/>
-      <c r="ME15" s="265"/>
-      <c r="MF15" s="266"/>
-      <c r="MG15" s="266"/>
-      <c r="MH15" s="267"/>
-      <c r="MI15" s="264" t="s">
+      <c r="MC15" s="274"/>
+      <c r="MD15" s="274"/>
+      <c r="ME15" s="274"/>
+      <c r="MF15" s="275"/>
+      <c r="MG15" s="275"/>
+      <c r="MH15" s="276"/>
+      <c r="MI15" s="267" t="s">
         <v>346</v>
       </c>
-      <c r="MJ15" s="265"/>
-      <c r="MK15" s="265"/>
-      <c r="ML15" s="265"/>
-      <c r="MM15" s="266"/>
-      <c r="MN15" s="266"/>
-      <c r="MO15" s="267"/>
-      <c r="MP15" s="264" t="s">
+      <c r="MJ15" s="274"/>
+      <c r="MK15" s="274"/>
+      <c r="ML15" s="274"/>
+      <c r="MM15" s="275"/>
+      <c r="MN15" s="275"/>
+      <c r="MO15" s="276"/>
+      <c r="MP15" s="267" t="s">
         <v>347</v>
       </c>
-      <c r="MQ15" s="265"/>
-      <c r="MR15" s="265"/>
-      <c r="MS15" s="265"/>
-      <c r="MT15" s="266"/>
-      <c r="MU15" s="266"/>
-      <c r="MV15" s="267"/>
-      <c r="MW15" s="268"/>
-      <c r="MX15" s="269"/>
-      <c r="MY15" s="269"/>
-      <c r="MZ15" s="269"/>
-      <c r="NA15" s="270"/>
-      <c r="NB15" s="270"/>
-      <c r="NC15" s="271"/>
-      <c r="ND15" s="268"/>
-      <c r="NE15" s="269"/>
-      <c r="NF15" s="269"/>
-      <c r="NG15" s="269"/>
-      <c r="NH15" s="270"/>
-      <c r="NI15" s="270"/>
-      <c r="NJ15" s="271"/>
-      <c r="NK15" s="264" t="s">
+      <c r="MQ15" s="274"/>
+      <c r="MR15" s="274"/>
+      <c r="MS15" s="274"/>
+      <c r="MT15" s="275"/>
+      <c r="MU15" s="275"/>
+      <c r="MV15" s="276"/>
+      <c r="MW15" s="263"/>
+      <c r="MX15" s="264"/>
+      <c r="MY15" s="264"/>
+      <c r="MZ15" s="264"/>
+      <c r="NA15" s="265"/>
+      <c r="NB15" s="265"/>
+      <c r="NC15" s="266"/>
+      <c r="ND15" s="263"/>
+      <c r="NE15" s="264"/>
+      <c r="NF15" s="264"/>
+      <c r="NG15" s="264"/>
+      <c r="NH15" s="265"/>
+      <c r="NI15" s="265"/>
+      <c r="NJ15" s="266"/>
+      <c r="NK15" s="267" t="s">
+        <v>372</v>
+      </c>
+      <c r="NL15" s="268"/>
+      <c r="NM15" s="268"/>
+      <c r="NN15" s="268"/>
+      <c r="NO15" s="269"/>
+      <c r="NP15" s="269"/>
+      <c r="NQ15" s="270"/>
+      <c r="NR15" s="267" t="s">
+        <v>373</v>
+      </c>
+      <c r="NS15" s="274"/>
+      <c r="NT15" s="274"/>
+      <c r="NU15" s="274"/>
+      <c r="NV15" s="275"/>
+      <c r="NW15" s="275"/>
+      <c r="NX15" s="276"/>
+      <c r="NY15" s="263"/>
+      <c r="NZ15" s="264"/>
+      <c r="OA15" s="264"/>
+      <c r="OB15" s="264"/>
+      <c r="OC15" s="265"/>
+      <c r="OD15" s="265"/>
+      <c r="OE15" s="266"/>
+      <c r="OF15" s="325" t="s">
         <v>374</v>
       </c>
-      <c r="NL15" s="289"/>
-      <c r="NM15" s="289"/>
-      <c r="NN15" s="289"/>
-      <c r="NO15" s="290"/>
-      <c r="NP15" s="290"/>
-      <c r="NQ15" s="291"/>
-      <c r="NR15" s="264" t="s">
-        <v>375</v>
-      </c>
-      <c r="NS15" s="265"/>
-      <c r="NT15" s="265"/>
-      <c r="NU15" s="265"/>
-      <c r="NV15" s="266"/>
-      <c r="NW15" s="266"/>
-      <c r="NX15" s="267"/>
-      <c r="NY15" s="268"/>
-      <c r="NZ15" s="269"/>
-      <c r="OA15" s="269"/>
-      <c r="OB15" s="269"/>
-      <c r="OC15" s="270"/>
-      <c r="OD15" s="270"/>
-      <c r="OE15" s="271"/>
-      <c r="OF15" s="272" t="s">
-        <v>376</v>
-      </c>
-      <c r="OG15" s="265"/>
-      <c r="OH15" s="265"/>
-      <c r="OI15" s="265"/>
-      <c r="OJ15" s="266"/>
-      <c r="OK15" s="266"/>
-      <c r="OL15" s="267"/>
-      <c r="OM15" s="268"/>
-      <c r="ON15" s="269"/>
-      <c r="OO15" s="269"/>
-      <c r="OP15" s="269"/>
-      <c r="OQ15" s="270"/>
-      <c r="OR15" s="270"/>
-      <c r="OS15" s="271"/>
-      <c r="OT15" s="268"/>
-      <c r="OU15" s="269"/>
-      <c r="OV15" s="269"/>
-      <c r="OW15" s="269"/>
-      <c r="OX15" s="270"/>
-      <c r="OY15" s="270"/>
-      <c r="OZ15" s="271"/>
-      <c r="PA15" s="268"/>
-      <c r="PB15" s="269"/>
-      <c r="PC15" s="269"/>
-      <c r="PD15" s="269"/>
-      <c r="PE15" s="270"/>
-      <c r="PF15" s="270"/>
-      <c r="PG15" s="271"/>
-      <c r="PH15" s="264"/>
-      <c r="PI15" s="265"/>
-      <c r="PJ15" s="265"/>
-      <c r="PK15" s="265"/>
-      <c r="PL15" s="266"/>
-      <c r="PM15" s="266"/>
-      <c r="PN15" s="267"/>
-      <c r="PO15" s="264"/>
-      <c r="PP15" s="265"/>
-      <c r="PQ15" s="265"/>
-      <c r="PR15" s="265"/>
-      <c r="PS15" s="266"/>
-      <c r="PT15" s="266"/>
-      <c r="PU15" s="267"/>
-      <c r="PV15" s="264"/>
-      <c r="PW15" s="265"/>
-      <c r="PX15" s="265"/>
-      <c r="PY15" s="265"/>
-      <c r="PZ15" s="266"/>
-      <c r="QA15" s="266"/>
-      <c r="QB15" s="267"/>
+      <c r="OG15" s="274"/>
+      <c r="OH15" s="274"/>
+      <c r="OI15" s="274"/>
+      <c r="OJ15" s="275"/>
+      <c r="OK15" s="275"/>
+      <c r="OL15" s="276"/>
+      <c r="OM15" s="263"/>
+      <c r="ON15" s="264"/>
+      <c r="OO15" s="264"/>
+      <c r="OP15" s="264"/>
+      <c r="OQ15" s="265"/>
+      <c r="OR15" s="265"/>
+      <c r="OS15" s="266"/>
+      <c r="OT15" s="263"/>
+      <c r="OU15" s="264"/>
+      <c r="OV15" s="264"/>
+      <c r="OW15" s="264"/>
+      <c r="OX15" s="265"/>
+      <c r="OY15" s="265"/>
+      <c r="OZ15" s="266"/>
+      <c r="PA15" s="263"/>
+      <c r="PB15" s="264"/>
+      <c r="PC15" s="264"/>
+      <c r="PD15" s="264"/>
+      <c r="PE15" s="265"/>
+      <c r="PF15" s="265"/>
+      <c r="PG15" s="266"/>
+      <c r="PH15" s="263"/>
+      <c r="PI15" s="264"/>
+      <c r="PJ15" s="264"/>
+      <c r="PK15" s="264"/>
+      <c r="PL15" s="265"/>
+      <c r="PM15" s="265"/>
+      <c r="PN15" s="266"/>
+      <c r="PO15" s="267"/>
+      <c r="PP15" s="274"/>
+      <c r="PQ15" s="274"/>
+      <c r="PR15" s="274"/>
+      <c r="PS15" s="275"/>
+      <c r="PT15" s="275"/>
+      <c r="PU15" s="276"/>
+      <c r="PV15" s="267"/>
+      <c r="PW15" s="274"/>
+      <c r="PX15" s="274"/>
+      <c r="PY15" s="274"/>
+      <c r="PZ15" s="275"/>
+      <c r="QA15" s="275"/>
+      <c r="QB15" s="276"/>
+      <c r="QC15" s="267"/>
+      <c r="QD15" s="274"/>
+      <c r="QE15" s="274"/>
+      <c r="QF15" s="274"/>
+      <c r="QG15" s="275"/>
+      <c r="QH15" s="275"/>
+      <c r="QI15" s="276"/>
+      <c r="QJ15" s="267"/>
+      <c r="QK15" s="274"/>
+      <c r="QL15" s="274"/>
+      <c r="QM15" s="274"/>
+      <c r="QN15" s="275"/>
+      <c r="QO15" s="275"/>
+      <c r="QP15" s="276"/>
+      <c r="QQ15" s="267"/>
+      <c r="QR15" s="274"/>
+      <c r="QS15" s="274"/>
+      <c r="QT15" s="274"/>
+      <c r="QU15" s="275"/>
+      <c r="QV15" s="275"/>
+      <c r="QW15" s="276"/>
+      <c r="QX15" s="267"/>
+      <c r="QY15" s="274"/>
+      <c r="QZ15" s="274"/>
+      <c r="RA15" s="274"/>
+      <c r="RB15" s="275"/>
+      <c r="RC15" s="275"/>
+      <c r="RD15" s="276"/>
+      <c r="RE15" s="271"/>
+      <c r="RF15" s="272"/>
+      <c r="RG15" s="272"/>
+      <c r="RH15" s="272"/>
+      <c r="RI15" s="272"/>
+      <c r="RJ15" s="272"/>
+      <c r="RK15" s="273"/>
+      <c r="RL15" s="271"/>
+      <c r="RM15" s="272"/>
+      <c r="RN15" s="272"/>
+      <c r="RO15" s="272"/>
+      <c r="RP15" s="272"/>
+      <c r="RQ15" s="272"/>
+      <c r="RR15" s="273"/>
     </row>
-    <row r="16" spans="1:455" ht="43.5" customHeight="1">
+    <row r="16" spans="1:497" ht="43.5" customHeight="1">
       <c r="A16" s="148" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="250" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>138</v>
@@ -16445,26 +17023,26 @@
       </c>
       <c r="MY16" s="156"/>
       <c r="MZ16" s="125" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="NA16" s="125" t="s">
         <v>188</v>
       </c>
       <c r="NB16" s="156"/>
       <c r="NC16" s="125" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="ND16" s="125" t="s">
         <v>188</v>
       </c>
       <c r="NE16" s="125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="NF16" s="156"/>
       <c r="NG16" s="156"/>
       <c r="NH16" s="156"/>
       <c r="NI16" s="125" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="NJ16" s="156"/>
       <c r="NK16" s="156"/>
@@ -16540,8 +17118,35 @@
       <c r="QC16" s="226"/>
       <c r="QD16" s="226"/>
       <c r="QE16" s="226"/>
+      <c r="QF16" s="226"/>
+      <c r="QG16" s="226"/>
+      <c r="QH16" s="226"/>
+      <c r="QI16" s="226"/>
+      <c r="QJ16" s="226"/>
+      <c r="QK16" s="226"/>
+      <c r="QL16" s="226"/>
+      <c r="QM16" s="226"/>
+      <c r="QN16" s="226"/>
+      <c r="QO16" s="226"/>
+      <c r="QP16" s="226"/>
+      <c r="QQ16" s="226"/>
+      <c r="QR16" s="226"/>
+      <c r="QS16" s="226"/>
+      <c r="QT16" s="226"/>
+      <c r="QU16" s="226"/>
+      <c r="QV16" s="226"/>
+      <c r="QW16" s="226"/>
+      <c r="QX16" s="226"/>
+      <c r="QY16" s="226"/>
+      <c r="QZ16" s="226"/>
+      <c r="RA16" s="226"/>
+      <c r="RB16" s="226"/>
+      <c r="RC16" s="226"/>
+      <c r="RD16" s="226"/>
+      <c r="RE16" s="226"/>
+      <c r="RF16" s="226"/>
     </row>
-    <row r="17" spans="1:446" ht="43.5" customHeight="1">
+    <row r="17" spans="1:488" ht="43.5" customHeight="1">
       <c r="A17" s="148" t="s">
         <v>152</v>
       </c>
@@ -17270,11 +17875,11 @@
       <c r="PJ17" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PK17" s="125"/>
-      <c r="PL17" s="125"/>
-      <c r="PM17" s="125"/>
-      <c r="PN17" s="125"/>
-      <c r="PO17" s="125"/>
+      <c r="PK17" s="156"/>
+      <c r="PL17" s="156"/>
+      <c r="PM17" s="156"/>
+      <c r="PN17" s="156"/>
+      <c r="PO17" s="156"/>
       <c r="PP17" s="125"/>
       <c r="PQ17" s="125"/>
       <c r="PR17" s="125"/>
@@ -17290,8 +17895,36 @@
       <c r="QB17" s="125"/>
       <c r="QC17" s="125"/>
       <c r="QD17" s="125"/>
+      <c r="QE17" s="226"/>
+      <c r="QF17" s="226"/>
+      <c r="QG17" s="226"/>
+      <c r="QH17" s="226"/>
+      <c r="QI17" s="226"/>
+      <c r="QJ17" s="226"/>
+      <c r="QK17" s="226"/>
+      <c r="QL17" s="226"/>
+      <c r="QM17" s="226"/>
+      <c r="QN17" s="226"/>
+      <c r="QO17" s="226"/>
+      <c r="QP17" s="226"/>
+      <c r="QQ17" s="226"/>
+      <c r="QR17" s="226"/>
+      <c r="QS17" s="226"/>
+      <c r="QT17" s="226"/>
+      <c r="QU17" s="226"/>
+      <c r="QV17" s="226"/>
+      <c r="QW17" s="226"/>
+      <c r="QX17" s="226"/>
+      <c r="QY17" s="226"/>
+      <c r="QZ17" s="226"/>
+      <c r="RA17" s="226"/>
+      <c r="RB17" s="226"/>
+      <c r="RC17" s="226"/>
+      <c r="RD17" s="226"/>
+      <c r="RE17" s="226"/>
+      <c r="RF17" s="226"/>
     </row>
-    <row r="18" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A18" s="128"/>
       <c r="B18" s="66" t="s">
         <v>225</v>
@@ -17645,7 +18278,7 @@
       <c r="KW18" s="182"/>
       <c r="KX18" s="182"/>
     </row>
-    <row r="19" spans="1:446" ht="43.5" customHeight="1">
+    <row r="19" spans="1:488" ht="43.5" customHeight="1">
       <c r="A19" s="227" t="s">
         <v>41</v>
       </c>
@@ -18138,7 +18771,9 @@
       <c r="PL19" s="127"/>
       <c r="PM19" s="127"/>
       <c r="PN19" s="127"/>
-      <c r="PO19" s="139"/>
+      <c r="PO19" s="139" t="s">
+        <v>273</v>
+      </c>
       <c r="PP19" s="126"/>
       <c r="PQ19" s="127"/>
       <c r="PR19" s="127"/>
@@ -18154,8 +18789,50 @@
       <c r="QB19" s="127"/>
       <c r="QC19" s="139"/>
       <c r="QD19" s="126"/>
+      <c r="QE19" s="127"/>
+      <c r="QF19" s="127"/>
+      <c r="QG19" s="127"/>
+      <c r="QH19" s="127"/>
+      <c r="QI19" s="127"/>
+      <c r="QJ19" s="139"/>
+      <c r="QK19" s="126"/>
+      <c r="QL19" s="127"/>
+      <c r="QM19" s="127"/>
+      <c r="QN19" s="127"/>
+      <c r="QO19" s="127"/>
+      <c r="QP19" s="127"/>
+      <c r="QQ19" s="139"/>
+      <c r="QR19" s="126"/>
+      <c r="QS19" s="127"/>
+      <c r="QT19" s="127"/>
+      <c r="QU19" s="127"/>
+      <c r="QV19" s="127"/>
+      <c r="QW19" s="127"/>
+      <c r="QX19" s="139"/>
+      <c r="QY19" s="126"/>
+      <c r="QZ19" s="127"/>
+      <c r="RA19" s="127"/>
+      <c r="RB19" s="127"/>
+      <c r="RC19" s="127"/>
+      <c r="RD19" s="127"/>
+      <c r="RE19" s="139"/>
+      <c r="RF19" s="126"/>
+      <c r="RG19" s="127"/>
+      <c r="RH19" s="127"/>
+      <c r="RI19" s="127"/>
+      <c r="RJ19" s="127"/>
+      <c r="RK19" s="127"/>
+      <c r="RL19" s="139"/>
+      <c r="RM19" s="126"/>
+      <c r="RN19" s="127"/>
+      <c r="RO19" s="127"/>
+      <c r="RP19" s="127"/>
+      <c r="RQ19" s="127"/>
+      <c r="RR19" s="127"/>
+      <c r="RS19" s="139"/>
+      <c r="RT19" s="126"/>
     </row>
-    <row r="20" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A20" s="102" t="s">
         <v>113</v>
       </c>
@@ -18393,7 +19070,7 @@
       <c r="IV20" s="72"/>
       <c r="IW20" s="72"/>
     </row>
-    <row r="21" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A21" s="102"/>
       <c r="B21" s="66" t="s">
         <v>148</v>
@@ -18621,7 +19298,7 @@
       <c r="IV21" s="72"/>
       <c r="IW21" s="72"/>
     </row>
-    <row r="22" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A22" s="102"/>
       <c r="B22" s="66" t="s">
         <v>150</v>
@@ -18849,7 +19526,7 @@
       <c r="IV22" s="72"/>
       <c r="IW22" s="72"/>
     </row>
-    <row r="23" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A23" s="130"/>
       <c r="B23" s="66" t="s">
         <v>149</v>
@@ -19077,7 +19754,7 @@
       <c r="IV23" s="72"/>
       <c r="IW23" s="72"/>
     </row>
-    <row r="24" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="B24" s="66" t="s">
         <v>237</v>
       </c>
@@ -19355,7 +20032,7 @@
       <c r="IV24" s="72"/>
       <c r="IW24" s="72"/>
     </row>
-    <row r="25" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="B25" s="66" t="s">
         <v>279</v>
       </c>
@@ -19679,7 +20356,7 @@
       <c r="MP25" s="126"/>
       <c r="MQ25" s="126"/>
     </row>
-    <row r="26" spans="1:446" s="181" customFormat="1" ht="43.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:488" s="181" customFormat="1" ht="43.5" hidden="1" customHeight="1">
       <c r="A26" s="185"/>
       <c r="B26" s="66" t="s">
         <v>281</v>
@@ -20039,7 +20716,7 @@
       <c r="KQ26" s="156"/>
       <c r="KR26" s="207"/>
     </row>
-    <row r="27" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A27" s="130"/>
       <c r="B27" s="197" t="s">
         <v>282</v>
@@ -20399,7 +21076,7 @@
       </c>
       <c r="KR27" s="207"/>
     </row>
-    <row r="28" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A28" s="130"/>
       <c r="B28" s="66" t="s">
         <v>250</v>
@@ -20656,7 +21333,7 @@
       <c r="IP28" s="126"/>
       <c r="IQ28" s="10"/>
     </row>
-    <row r="29" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A29" s="201" t="s">
         <v>113</v>
       </c>
@@ -21095,7 +21772,7 @@
       <c r="QC29" s="189"/>
       <c r="QD29" s="189"/>
     </row>
-    <row r="30" spans="1:446" ht="43.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A30" s="231" t="s">
         <v>113</v>
       </c>
@@ -21502,12 +22179,12 @@
       <c r="QC30" s="189"/>
       <c r="QD30" s="189"/>
     </row>
-    <row r="31" spans="1:446" ht="43.5" customHeight="1">
+    <row r="31" spans="1:488" ht="43.5" customHeight="1">
       <c r="A31" s="248" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>138</v>
@@ -21900,11 +22577,15 @@
       <c r="PJ31" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PK31" s="189"/>
-      <c r="PL31" s="189"/>
-      <c r="PM31" s="189"/>
-      <c r="PN31" s="189"/>
-      <c r="PO31" s="189"/>
+      <c r="PK31" s="156"/>
+      <c r="PL31" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM31" s="156"/>
+      <c r="PN31" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PO31" s="156"/>
       <c r="PP31" s="189"/>
       <c r="PQ31" s="189"/>
       <c r="PR31" s="189"/>
@@ -21920,13 +22601,55 @@
       <c r="QB31" s="189"/>
       <c r="QC31" s="189"/>
       <c r="QD31" s="189"/>
+      <c r="QE31" s="189"/>
+      <c r="QF31" s="189"/>
+      <c r="QG31" s="189"/>
+      <c r="QH31" s="189"/>
+      <c r="QI31" s="189"/>
+      <c r="QJ31" s="189"/>
+      <c r="QK31" s="189"/>
+      <c r="QL31" s="189"/>
+      <c r="QM31" s="189"/>
+      <c r="QN31" s="189"/>
+      <c r="QO31" s="189"/>
+      <c r="QP31" s="189"/>
+      <c r="QQ31" s="189"/>
+      <c r="QR31" s="189"/>
+      <c r="QS31" s="189"/>
+      <c r="QT31" s="189"/>
+      <c r="QU31" s="189"/>
+      <c r="QV31" s="189"/>
+      <c r="QW31" s="189"/>
+      <c r="QX31" s="189"/>
+      <c r="QY31" s="189"/>
+      <c r="QZ31" s="189"/>
+      <c r="RA31" s="189"/>
+      <c r="RB31" s="189"/>
+      <c r="RC31" s="189"/>
+      <c r="RD31" s="189"/>
+      <c r="RE31" s="189"/>
+      <c r="RF31" s="189"/>
+      <c r="RG31" s="189"/>
+      <c r="RH31" s="189"/>
+      <c r="RI31" s="189"/>
+      <c r="RJ31" s="189"/>
+      <c r="RK31" s="189"/>
+      <c r="RL31" s="189"/>
+      <c r="RM31" s="189"/>
+      <c r="RN31" s="189"/>
+      <c r="RO31" s="189"/>
+      <c r="RP31" s="189"/>
+      <c r="RQ31" s="189"/>
+      <c r="RR31" s="189"/>
+      <c r="RS31" s="189"/>
+      <c r="RT31" s="189"/>
     </row>
-    <row r="32" spans="1:446" ht="43.5" customHeight="1">
+    <row r="32" spans="1:488" ht="43.5" customHeight="1">
       <c r="A32" s="227" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C32" s="65" t="s">
         <v>138</v>
@@ -22319,11 +23042,11 @@
       <c r="PJ32" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PK32" s="189"/>
-      <c r="PL32" s="189"/>
-      <c r="PM32" s="189"/>
-      <c r="PN32" s="189"/>
-      <c r="PO32" s="189"/>
+      <c r="PK32" s="156"/>
+      <c r="PL32" s="156"/>
+      <c r="PM32" s="156"/>
+      <c r="PN32" s="156"/>
+      <c r="PO32" s="156"/>
       <c r="PP32" s="189"/>
       <c r="PQ32" s="189"/>
       <c r="PR32" s="189"/>
@@ -22339,13 +23062,55 @@
       <c r="QB32" s="189"/>
       <c r="QC32" s="189"/>
       <c r="QD32" s="189"/>
+      <c r="QE32" s="189"/>
+      <c r="QF32" s="189"/>
+      <c r="QG32" s="189"/>
+      <c r="QH32" s="189"/>
+      <c r="QI32" s="189"/>
+      <c r="QJ32" s="189"/>
+      <c r="QK32" s="189"/>
+      <c r="QL32" s="189"/>
+      <c r="QM32" s="189"/>
+      <c r="QN32" s="189"/>
+      <c r="QO32" s="189"/>
+      <c r="QP32" s="189"/>
+      <c r="QQ32" s="189"/>
+      <c r="QR32" s="189"/>
+      <c r="QS32" s="189"/>
+      <c r="QT32" s="189"/>
+      <c r="QU32" s="189"/>
+      <c r="QV32" s="189"/>
+      <c r="QW32" s="189"/>
+      <c r="QX32" s="189"/>
+      <c r="QY32" s="189"/>
+      <c r="QZ32" s="189"/>
+      <c r="RA32" s="189"/>
+      <c r="RB32" s="189"/>
+      <c r="RC32" s="189"/>
+      <c r="RD32" s="189"/>
+      <c r="RE32" s="189"/>
+      <c r="RF32" s="189"/>
+      <c r="RG32" s="189"/>
+      <c r="RH32" s="189"/>
+      <c r="RI32" s="189"/>
+      <c r="RJ32" s="189"/>
+      <c r="RK32" s="189"/>
+      <c r="RL32" s="189"/>
+      <c r="RM32" s="189"/>
+      <c r="RN32" s="189"/>
+      <c r="RO32" s="189"/>
+      <c r="RP32" s="189"/>
+      <c r="RQ32" s="189"/>
+      <c r="RR32" s="189"/>
+      <c r="RS32" s="189"/>
+      <c r="RT32" s="189"/>
     </row>
-    <row r="33" spans="1:446" ht="43.5" customHeight="1">
+    <row r="33" spans="1:488" ht="43.5" customHeight="1">
       <c r="A33" s="231" t="s">
         <v>113</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C33" s="65" t="s">
         <v>138</v>
@@ -22744,11 +23509,15 @@
       <c r="PJ33" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PK33" s="189"/>
-      <c r="PL33" s="189"/>
-      <c r="PM33" s="189"/>
-      <c r="PN33" s="189"/>
-      <c r="PO33" s="189"/>
+      <c r="PK33" s="156"/>
+      <c r="PL33" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM33" s="156"/>
+      <c r="PN33" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PO33" s="156"/>
       <c r="PP33" s="189"/>
       <c r="PQ33" s="189"/>
       <c r="PR33" s="189"/>
@@ -22764,8 +23533,50 @@
       <c r="QB33" s="189"/>
       <c r="QC33" s="189"/>
       <c r="QD33" s="189"/>
+      <c r="QE33" s="189"/>
+      <c r="QF33" s="189"/>
+      <c r="QG33" s="189"/>
+      <c r="QH33" s="189"/>
+      <c r="QI33" s="189"/>
+      <c r="QJ33" s="189"/>
+      <c r="QK33" s="189"/>
+      <c r="QL33" s="189"/>
+      <c r="QM33" s="189"/>
+      <c r="QN33" s="189"/>
+      <c r="QO33" s="189"/>
+      <c r="QP33" s="189"/>
+      <c r="QQ33" s="189"/>
+      <c r="QR33" s="189"/>
+      <c r="QS33" s="189"/>
+      <c r="QT33" s="189"/>
+      <c r="QU33" s="189"/>
+      <c r="QV33" s="189"/>
+      <c r="QW33" s="189"/>
+      <c r="QX33" s="189"/>
+      <c r="QY33" s="189"/>
+      <c r="QZ33" s="189"/>
+      <c r="RA33" s="189"/>
+      <c r="RB33" s="189"/>
+      <c r="RC33" s="189"/>
+      <c r="RD33" s="189"/>
+      <c r="RE33" s="189"/>
+      <c r="RF33" s="189"/>
+      <c r="RG33" s="189"/>
+      <c r="RH33" s="189"/>
+      <c r="RI33" s="189"/>
+      <c r="RJ33" s="189"/>
+      <c r="RK33" s="189"/>
+      <c r="RL33" s="189"/>
+      <c r="RM33" s="189"/>
+      <c r="RN33" s="189"/>
+      <c r="RO33" s="189"/>
+      <c r="RP33" s="189"/>
+      <c r="RQ33" s="189"/>
+      <c r="RR33" s="189"/>
+      <c r="RS33" s="189"/>
+      <c r="RT33" s="189"/>
     </row>
-    <row r="34" spans="1:446" ht="43.5" customHeight="1">
+    <row r="34" spans="1:488" ht="43.5" customHeight="1">
       <c r="A34" s="227" t="s">
         <v>113</v>
       </c>
@@ -22773,7 +23584,7 @@
         <v>329</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
@@ -23177,13 +23988,55 @@
       <c r="QB34" s="127"/>
       <c r="QC34" s="139"/>
       <c r="QD34" s="139"/>
+      <c r="QE34" s="127"/>
+      <c r="QF34" s="127"/>
+      <c r="QG34" s="127"/>
+      <c r="QH34" s="127"/>
+      <c r="QI34" s="127"/>
+      <c r="QJ34" s="139"/>
+      <c r="QK34" s="139"/>
+      <c r="QL34" s="127"/>
+      <c r="QM34" s="127"/>
+      <c r="QN34" s="127"/>
+      <c r="QO34" s="127"/>
+      <c r="QP34" s="127"/>
+      <c r="QQ34" s="139"/>
+      <c r="QR34" s="139"/>
+      <c r="QS34" s="127"/>
+      <c r="QT34" s="127"/>
+      <c r="QU34" s="127"/>
+      <c r="QV34" s="127"/>
+      <c r="QW34" s="127"/>
+      <c r="QX34" s="139"/>
+      <c r="QY34" s="139"/>
+      <c r="QZ34" s="127"/>
+      <c r="RA34" s="127"/>
+      <c r="RB34" s="127"/>
+      <c r="RC34" s="127"/>
+      <c r="RD34" s="127"/>
+      <c r="RE34" s="139"/>
+      <c r="RF34" s="139"/>
+      <c r="RG34" s="127"/>
+      <c r="RH34" s="127"/>
+      <c r="RI34" s="127"/>
+      <c r="RJ34" s="127"/>
+      <c r="RK34" s="127"/>
+      <c r="RL34" s="139"/>
+      <c r="RM34" s="139"/>
+      <c r="RN34" s="127"/>
+      <c r="RO34" s="127"/>
+      <c r="RP34" s="127"/>
+      <c r="RQ34" s="127"/>
+      <c r="RR34" s="127"/>
+      <c r="RS34" s="139"/>
+      <c r="RT34" s="139"/>
     </row>
-    <row r="35" spans="1:446" ht="255" customHeight="1"/>
-    <row r="42" spans="1:446">
+    <row r="35" spans="1:488" ht="255" customHeight="1"/>
+    <row r="42" spans="1:488">
       <c r="MW42" s="226"/>
     </row>
-    <row r="44" spans="1:446" ht="206" customHeight="1"/>
-    <row r="45" spans="1:446" ht="43.5" customHeight="1">
+    <row r="44" spans="1:488" ht="206" customHeight="1"/>
+    <row r="45" spans="1:488" ht="43.5" customHeight="1">
       <c r="A45" s="148" t="s">
         <v>152</v>
       </c>
@@ -23732,7 +24585,7 @@
       <c r="MP45" s="139"/>
       <c r="MQ45" s="206"/>
     </row>
-    <row r="46" spans="1:446" ht="43.5" customHeight="1">
+    <row r="46" spans="1:488" ht="43.5" customHeight="1">
       <c r="A46" s="148" t="s">
         <v>244</v>
       </c>
@@ -24217,7 +25070,7 @@
       <c r="MP46" s="188"/>
       <c r="MQ46" s="188"/>
     </row>
-    <row r="47" spans="1:446" ht="43.5" customHeight="1">
+    <row r="47" spans="1:488" ht="43.5" customHeight="1">
       <c r="A47" s="148" t="s">
         <v>152</v>
       </c>
@@ -24594,7 +25447,7 @@
       <c r="MP47" s="188"/>
       <c r="MQ47" s="188"/>
     </row>
-    <row r="48" spans="1:446" ht="43.5" customHeight="1">
+    <row r="48" spans="1:488" ht="43.5" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>41</v>
       </c>
@@ -24749,21 +25602,21 @@
       </c>
       <c r="DK48" s="63"/>
       <c r="DL48" s="51"/>
-      <c r="DM48" s="313" t="s">
+      <c r="DM48" s="289" t="s">
         <v>42</v>
       </c>
-      <c r="DN48" s="313"/>
-      <c r="DO48" s="313"/>
-      <c r="DP48" s="313"/>
-      <c r="DQ48" s="313"/>
-      <c r="DR48" s="313"/>
+      <c r="DN48" s="289"/>
+      <c r="DO48" s="289"/>
+      <c r="DP48" s="289"/>
+      <c r="DQ48" s="289"/>
+      <c r="DR48" s="289"/>
       <c r="DS48" s="51"/>
-      <c r="DT48" s="313" t="s">
+      <c r="DT48" s="289" t="s">
         <v>42</v>
       </c>
-      <c r="DU48" s="313"/>
-      <c r="DV48" s="313"/>
-      <c r="DW48" s="313"/>
+      <c r="DU48" s="289"/>
+      <c r="DV48" s="289"/>
+      <c r="DW48" s="289"/>
       <c r="DX48" s="3"/>
       <c r="DY48" s="3"/>
       <c r="DZ48" s="74"/>
@@ -24844,18 +25697,18 @@
       </c>
       <c r="GF48" s="3"/>
       <c r="GG48" s="3"/>
-      <c r="GH48" s="308"/>
-      <c r="GI48" s="308"/>
-      <c r="GJ48" s="308"/>
+      <c r="GH48" s="311"/>
+      <c r="GI48" s="311"/>
+      <c r="GJ48" s="311"/>
       <c r="GK48" s="110"/>
-      <c r="GL48" s="308" t="s">
+      <c r="GL48" s="311" t="s">
         <v>42</v>
       </c>
-      <c r="GM48" s="308"/>
-      <c r="GN48" s="308"/>
-      <c r="GO48" s="308"/>
-      <c r="GP48" s="308"/>
-      <c r="GQ48" s="308"/>
+      <c r="GM48" s="311"/>
+      <c r="GN48" s="311"/>
+      <c r="GO48" s="311"/>
+      <c r="GP48" s="311"/>
+      <c r="GQ48" s="311"/>
     </row>
     <row r="49" spans="1:189" ht="43.5" customHeight="1">
       <c r="A49" s="20"/>
@@ -24865,202 +25718,202 @@
       <c r="C49" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="327" t="s">
+      <c r="D49" s="278" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="327"/>
-      <c r="F49" s="327"/>
-      <c r="G49" s="327"/>
-      <c r="H49" s="327"/>
-      <c r="I49" s="327"/>
-      <c r="J49" s="327"/>
-      <c r="K49" s="327"/>
-      <c r="L49" s="327"/>
-      <c r="M49" s="327"/>
-      <c r="N49" s="327"/>
-      <c r="O49" s="327"/>
-      <c r="P49" s="327"/>
-      <c r="Q49" s="327"/>
-      <c r="R49" s="327"/>
-      <c r="S49" s="327"/>
-      <c r="T49" s="327"/>
-      <c r="U49" s="327"/>
-      <c r="V49" s="327"/>
-      <c r="W49" s="327"/>
-      <c r="X49" s="327"/>
-      <c r="Y49" s="327"/>
-      <c r="Z49" s="327"/>
-      <c r="AA49" s="327"/>
-      <c r="AB49" s="327"/>
-      <c r="AC49" s="327"/>
-      <c r="AD49" s="327"/>
-      <c r="AE49" s="327"/>
-      <c r="AF49" s="327"/>
-      <c r="AG49" s="327"/>
-      <c r="AH49" s="327"/>
-      <c r="AI49" s="327" t="s">
+      <c r="E49" s="278"/>
+      <c r="F49" s="278"/>
+      <c r="G49" s="278"/>
+      <c r="H49" s="278"/>
+      <c r="I49" s="278"/>
+      <c r="J49" s="278"/>
+      <c r="K49" s="278"/>
+      <c r="L49" s="278"/>
+      <c r="M49" s="278"/>
+      <c r="N49" s="278"/>
+      <c r="O49" s="278"/>
+      <c r="P49" s="278"/>
+      <c r="Q49" s="278"/>
+      <c r="R49" s="278"/>
+      <c r="S49" s="278"/>
+      <c r="T49" s="278"/>
+      <c r="U49" s="278"/>
+      <c r="V49" s="278"/>
+      <c r="W49" s="278"/>
+      <c r="X49" s="278"/>
+      <c r="Y49" s="278"/>
+      <c r="Z49" s="278"/>
+      <c r="AA49" s="278"/>
+      <c r="AB49" s="278"/>
+      <c r="AC49" s="278"/>
+      <c r="AD49" s="278"/>
+      <c r="AE49" s="278"/>
+      <c r="AF49" s="278"/>
+      <c r="AG49" s="278"/>
+      <c r="AH49" s="278"/>
+      <c r="AI49" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="AJ49" s="327"/>
-      <c r="AK49" s="327"/>
-      <c r="AL49" s="327"/>
-      <c r="AM49" s="327"/>
-      <c r="AN49" s="327"/>
-      <c r="AO49" s="327"/>
-      <c r="AP49" s="327"/>
-      <c r="AQ49" s="327"/>
-      <c r="AR49" s="327"/>
-      <c r="AS49" s="327"/>
-      <c r="AT49" s="327"/>
-      <c r="AU49" s="327"/>
-      <c r="AV49" s="327"/>
-      <c r="AW49" s="327"/>
-      <c r="AX49" s="327"/>
-      <c r="AY49" s="327"/>
-      <c r="AZ49" s="327"/>
-      <c r="BA49" s="327"/>
-      <c r="BB49" s="327"/>
-      <c r="BC49" s="327"/>
-      <c r="BD49" s="327"/>
-      <c r="BE49" s="327"/>
-      <c r="BF49" s="327"/>
-      <c r="BG49" s="327"/>
-      <c r="BH49" s="327"/>
-      <c r="BI49" s="327"/>
-      <c r="BJ49" s="327"/>
-      <c r="BK49" s="327"/>
-      <c r="BL49" s="327"/>
-      <c r="BM49" s="327"/>
-      <c r="BN49" s="327" t="s">
+      <c r="AJ49" s="278"/>
+      <c r="AK49" s="278"/>
+      <c r="AL49" s="278"/>
+      <c r="AM49" s="278"/>
+      <c r="AN49" s="278"/>
+      <c r="AO49" s="278"/>
+      <c r="AP49" s="278"/>
+      <c r="AQ49" s="278"/>
+      <c r="AR49" s="278"/>
+      <c r="AS49" s="278"/>
+      <c r="AT49" s="278"/>
+      <c r="AU49" s="278"/>
+      <c r="AV49" s="278"/>
+      <c r="AW49" s="278"/>
+      <c r="AX49" s="278"/>
+      <c r="AY49" s="278"/>
+      <c r="AZ49" s="278"/>
+      <c r="BA49" s="278"/>
+      <c r="BB49" s="278"/>
+      <c r="BC49" s="278"/>
+      <c r="BD49" s="278"/>
+      <c r="BE49" s="278"/>
+      <c r="BF49" s="278"/>
+      <c r="BG49" s="278"/>
+      <c r="BH49" s="278"/>
+      <c r="BI49" s="278"/>
+      <c r="BJ49" s="278"/>
+      <c r="BK49" s="278"/>
+      <c r="BL49" s="278"/>
+      <c r="BM49" s="278"/>
+      <c r="BN49" s="278" t="s">
         <v>108</v>
       </c>
-      <c r="BO49" s="327"/>
-      <c r="BP49" s="327"/>
-      <c r="BQ49" s="327"/>
-      <c r="BR49" s="327"/>
-      <c r="BS49" s="327"/>
-      <c r="BT49" s="327"/>
-      <c r="BU49" s="327"/>
-      <c r="BV49" s="327"/>
-      <c r="BW49" s="327"/>
-      <c r="BX49" s="327"/>
-      <c r="BY49" s="327"/>
-      <c r="BZ49" s="327"/>
-      <c r="CA49" s="327"/>
-      <c r="CB49" s="327"/>
-      <c r="CC49" s="327"/>
-      <c r="CD49" s="327"/>
-      <c r="CE49" s="327"/>
-      <c r="CF49" s="327"/>
-      <c r="CG49" s="327"/>
-      <c r="CH49" s="327"/>
-      <c r="CI49" s="327"/>
-      <c r="CJ49" s="327"/>
-      <c r="CK49" s="327"/>
-      <c r="CL49" s="327"/>
-      <c r="CM49" s="327"/>
-      <c r="CN49" s="327"/>
-      <c r="CO49" s="327"/>
-      <c r="CP49" s="327"/>
-      <c r="CQ49" s="327"/>
-      <c r="CR49" s="327"/>
-      <c r="CS49" s="306" t="s">
+      <c r="BO49" s="278"/>
+      <c r="BP49" s="278"/>
+      <c r="BQ49" s="278"/>
+      <c r="BR49" s="278"/>
+      <c r="BS49" s="278"/>
+      <c r="BT49" s="278"/>
+      <c r="BU49" s="278"/>
+      <c r="BV49" s="278"/>
+      <c r="BW49" s="278"/>
+      <c r="BX49" s="278"/>
+      <c r="BY49" s="278"/>
+      <c r="BZ49" s="278"/>
+      <c r="CA49" s="278"/>
+      <c r="CB49" s="278"/>
+      <c r="CC49" s="278"/>
+      <c r="CD49" s="278"/>
+      <c r="CE49" s="278"/>
+      <c r="CF49" s="278"/>
+      <c r="CG49" s="278"/>
+      <c r="CH49" s="278"/>
+      <c r="CI49" s="278"/>
+      <c r="CJ49" s="278"/>
+      <c r="CK49" s="278"/>
+      <c r="CL49" s="278"/>
+      <c r="CM49" s="278"/>
+      <c r="CN49" s="278"/>
+      <c r="CO49" s="278"/>
+      <c r="CP49" s="278"/>
+      <c r="CQ49" s="278"/>
+      <c r="CR49" s="278"/>
+      <c r="CS49" s="282" t="s">
         <v>65</v>
       </c>
-      <c r="CT49" s="306"/>
-      <c r="CU49" s="306"/>
-      <c r="CV49" s="306"/>
-      <c r="CW49" s="306"/>
-      <c r="CX49" s="306"/>
-      <c r="CY49" s="306"/>
-      <c r="CZ49" s="306"/>
-      <c r="DA49" s="306"/>
-      <c r="DB49" s="306"/>
-      <c r="DC49" s="306"/>
-      <c r="DD49" s="306"/>
-      <c r="DE49" s="306"/>
-      <c r="DF49" s="306"/>
-      <c r="DG49" s="306"/>
-      <c r="DH49" s="306"/>
-      <c r="DI49" s="306"/>
-      <c r="DJ49" s="306"/>
-      <c r="DK49" s="306"/>
-      <c r="DL49" s="306"/>
-      <c r="DM49" s="306"/>
-      <c r="DN49" s="306"/>
-      <c r="DO49" s="306"/>
-      <c r="DP49" s="306"/>
-      <c r="DQ49" s="306"/>
-      <c r="DR49" s="306"/>
-      <c r="DS49" s="306"/>
-      <c r="DT49" s="306"/>
-      <c r="DU49" s="306"/>
-      <c r="DV49" s="306"/>
-      <c r="DW49" s="306"/>
+      <c r="CT49" s="282"/>
+      <c r="CU49" s="282"/>
+      <c r="CV49" s="282"/>
+      <c r="CW49" s="282"/>
+      <c r="CX49" s="282"/>
+      <c r="CY49" s="282"/>
+      <c r="CZ49" s="282"/>
+      <c r="DA49" s="282"/>
+      <c r="DB49" s="282"/>
+      <c r="DC49" s="282"/>
+      <c r="DD49" s="282"/>
+      <c r="DE49" s="282"/>
+      <c r="DF49" s="282"/>
+      <c r="DG49" s="282"/>
+      <c r="DH49" s="282"/>
+      <c r="DI49" s="282"/>
+      <c r="DJ49" s="282"/>
+      <c r="DK49" s="282"/>
+      <c r="DL49" s="282"/>
+      <c r="DM49" s="282"/>
+      <c r="DN49" s="282"/>
+      <c r="DO49" s="282"/>
+      <c r="DP49" s="282"/>
+      <c r="DQ49" s="282"/>
+      <c r="DR49" s="282"/>
+      <c r="DS49" s="282"/>
+      <c r="DT49" s="282"/>
+      <c r="DU49" s="282"/>
+      <c r="DV49" s="282"/>
+      <c r="DW49" s="282"/>
       <c r="DX49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="DY49" s="306"/>
-      <c r="DZ49" s="306"/>
-      <c r="EA49" s="306"/>
-      <c r="EB49" s="306"/>
-      <c r="EC49" s="306"/>
-      <c r="ED49" s="306"/>
-      <c r="EE49" s="306"/>
-      <c r="EF49" s="306"/>
-      <c r="EG49" s="306"/>
-      <c r="EH49" s="306"/>
-      <c r="EI49" s="306"/>
-      <c r="EJ49" s="306"/>
-      <c r="EK49" s="306"/>
-      <c r="EL49" s="306"/>
-      <c r="EM49" s="306"/>
-      <c r="EN49" s="306"/>
-      <c r="EO49" s="306"/>
-      <c r="EP49" s="306"/>
-      <c r="EQ49" s="306"/>
-      <c r="ER49" s="306"/>
-      <c r="ES49" s="306"/>
-      <c r="ET49" s="306"/>
-      <c r="EU49" s="306"/>
-      <c r="EV49" s="306"/>
-      <c r="EW49" s="306"/>
-      <c r="EX49" s="306"/>
-      <c r="EY49" s="306"/>
-      <c r="EZ49" s="306"/>
-      <c r="FA49" s="306"/>
-      <c r="FB49" s="306"/>
+      <c r="DY49" s="282"/>
+      <c r="DZ49" s="282"/>
+      <c r="EA49" s="282"/>
+      <c r="EB49" s="282"/>
+      <c r="EC49" s="282"/>
+      <c r="ED49" s="282"/>
+      <c r="EE49" s="282"/>
+      <c r="EF49" s="282"/>
+      <c r="EG49" s="282"/>
+      <c r="EH49" s="282"/>
+      <c r="EI49" s="282"/>
+      <c r="EJ49" s="282"/>
+      <c r="EK49" s="282"/>
+      <c r="EL49" s="282"/>
+      <c r="EM49" s="282"/>
+      <c r="EN49" s="282"/>
+      <c r="EO49" s="282"/>
+      <c r="EP49" s="282"/>
+      <c r="EQ49" s="282"/>
+      <c r="ER49" s="282"/>
+      <c r="ES49" s="282"/>
+      <c r="ET49" s="282"/>
+      <c r="EU49" s="282"/>
+      <c r="EV49" s="282"/>
+      <c r="EW49" s="282"/>
+      <c r="EX49" s="282"/>
+      <c r="EY49" s="282"/>
+      <c r="EZ49" s="282"/>
+      <c r="FA49" s="282"/>
+      <c r="FB49" s="282"/>
       <c r="FC49" s="3"/>
-      <c r="FD49" s="306"/>
-      <c r="FE49" s="306"/>
-      <c r="FF49" s="306"/>
-      <c r="FG49" s="306"/>
-      <c r="FH49" s="306"/>
-      <c r="FI49" s="306"/>
-      <c r="FJ49" s="306"/>
-      <c r="FK49" s="306"/>
-      <c r="FL49" s="306"/>
-      <c r="FM49" s="306"/>
-      <c r="FN49" s="306"/>
-      <c r="FO49" s="306"/>
-      <c r="FP49" s="306"/>
-      <c r="FQ49" s="306"/>
-      <c r="FR49" s="306"/>
-      <c r="FS49" s="306"/>
-      <c r="FT49" s="306"/>
-      <c r="FU49" s="306"/>
-      <c r="FV49" s="306"/>
-      <c r="FW49" s="306"/>
-      <c r="FX49" s="306"/>
-      <c r="FY49" s="306"/>
-      <c r="FZ49" s="306"/>
-      <c r="GA49" s="306"/>
-      <c r="GB49" s="306"/>
-      <c r="GC49" s="306"/>
-      <c r="GD49" s="306"/>
-      <c r="GE49" s="306"/>
-      <c r="GF49" s="306"/>
-      <c r="GG49" s="306"/>
+      <c r="FD49" s="282"/>
+      <c r="FE49" s="282"/>
+      <c r="FF49" s="282"/>
+      <c r="FG49" s="282"/>
+      <c r="FH49" s="282"/>
+      <c r="FI49" s="282"/>
+      <c r="FJ49" s="282"/>
+      <c r="FK49" s="282"/>
+      <c r="FL49" s="282"/>
+      <c r="FM49" s="282"/>
+      <c r="FN49" s="282"/>
+      <c r="FO49" s="282"/>
+      <c r="FP49" s="282"/>
+      <c r="FQ49" s="282"/>
+      <c r="FR49" s="282"/>
+      <c r="FS49" s="282"/>
+      <c r="FT49" s="282"/>
+      <c r="FU49" s="282"/>
+      <c r="FV49" s="282"/>
+      <c r="FW49" s="282"/>
+      <c r="FX49" s="282"/>
+      <c r="FY49" s="282"/>
+      <c r="FZ49" s="282"/>
+      <c r="GA49" s="282"/>
+      <c r="GB49" s="282"/>
+      <c r="GC49" s="282"/>
+      <c r="GD49" s="282"/>
+      <c r="GE49" s="282"/>
+      <c r="GF49" s="282"/>
+      <c r="GG49" s="282"/>
     </row>
     <row r="50" spans="1:189" ht="43.5" customHeight="1">
       <c r="A50" s="20"/>
@@ -25103,12 +25956,12 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="330"/>
-      <c r="AJ50" s="330"/>
-      <c r="AK50" s="330"/>
-      <c r="AL50" s="330"/>
-      <c r="AM50" s="330"/>
-      <c r="AN50" s="330"/>
+      <c r="AI50" s="277"/>
+      <c r="AJ50" s="277"/>
+      <c r="AK50" s="277"/>
+      <c r="AL50" s="277"/>
+      <c r="AM50" s="277"/>
+      <c r="AN50" s="277"/>
       <c r="AO50" s="3" t="s">
         <v>23</v>
       </c>
@@ -25307,9 +26160,9 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="330"/>
-      <c r="AG51" s="330"/>
-      <c r="AH51" s="330"/>
+      <c r="AF51" s="277"/>
+      <c r="AG51" s="277"/>
+      <c r="AH51" s="277"/>
       <c r="AI51" s="3" t="s">
         <v>23</v>
       </c>
@@ -25340,9 +26193,9 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-      <c r="BK51" s="307"/>
-      <c r="BL51" s="307"/>
-      <c r="BM51" s="307"/>
+      <c r="BK51" s="294"/>
+      <c r="BL51" s="294"/>
+      <c r="BM51" s="294"/>
       <c r="BN51" s="3" t="s">
         <v>23</v>
       </c>
@@ -25373,9 +26226,9 @@
       <c r="CM51" s="3"/>
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
-      <c r="CP51" s="307"/>
-      <c r="CQ51" s="307"/>
-      <c r="CR51" s="307"/>
+      <c r="CP51" s="294"/>
+      <c r="CQ51" s="294"/>
+      <c r="CR51" s="294"/>
       <c r="CS51" s="3" t="s">
         <v>42</v>
       </c>
@@ -25406,9 +26259,9 @@
       <c r="DR51" s="3"/>
       <c r="DS51" s="3"/>
       <c r="DT51" s="3"/>
-      <c r="DU51" s="307"/>
-      <c r="DV51" s="307"/>
-      <c r="DW51" s="307"/>
+      <c r="DU51" s="294"/>
+      <c r="DV51" s="294"/>
+      <c r="DW51" s="294"/>
       <c r="DX51" s="3" t="s">
         <v>42</v>
       </c>
@@ -25439,9 +26292,9 @@
       <c r="EW51" s="3"/>
       <c r="EX51" s="3"/>
       <c r="EY51" s="3"/>
-      <c r="EZ51" s="307"/>
-      <c r="FA51" s="307"/>
-      <c r="FB51" s="307"/>
+      <c r="EZ51" s="294"/>
+      <c r="FA51" s="294"/>
+      <c r="FB51" s="294"/>
       <c r="FC51" s="3" t="s">
         <v>42</v>
       </c>
@@ -25472,9 +26325,9 @@
       <c r="GB51" s="3"/>
       <c r="GC51" s="3"/>
       <c r="GD51" s="3"/>
-      <c r="GE51" s="307"/>
-      <c r="GF51" s="307"/>
-      <c r="GG51" s="307"/>
+      <c r="GE51" s="294"/>
+      <c r="GF51" s="294"/>
+      <c r="GG51" s="294"/>
     </row>
     <row r="52" spans="1:189" ht="43.5" customHeight="1">
       <c r="A52" s="20"/>
@@ -25990,74 +26843,74 @@
       <c r="AX60" s="10"/>
       <c r="AY60" s="51"/>
       <c r="AZ60" s="51"/>
-      <c r="BA60" s="312"/>
-      <c r="BB60" s="312"/>
-      <c r="BC60" s="312"/>
-      <c r="BD60" s="312"/>
-      <c r="BE60" s="312"/>
+      <c r="BA60" s="283"/>
+      <c r="BB60" s="283"/>
+      <c r="BC60" s="283"/>
+      <c r="BD60" s="283"/>
+      <c r="BE60" s="283"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="51"/>
-      <c r="BH60" s="312"/>
-      <c r="BI60" s="312"/>
-      <c r="BJ60" s="312"/>
-      <c r="BK60" s="312"/>
-      <c r="BL60" s="312"/>
+      <c r="BH60" s="283"/>
+      <c r="BI60" s="283"/>
+      <c r="BJ60" s="283"/>
+      <c r="BK60" s="283"/>
+      <c r="BL60" s="283"/>
       <c r="BM60" s="51"/>
       <c r="BN60" s="51"/>
-      <c r="BO60" s="307"/>
-      <c r="BP60" s="307"/>
-      <c r="BQ60" s="307"/>
-      <c r="BR60" s="307"/>
-      <c r="BS60" s="307"/>
+      <c r="BO60" s="294"/>
+      <c r="BP60" s="294"/>
+      <c r="BQ60" s="294"/>
+      <c r="BR60" s="294"/>
+      <c r="BS60" s="294"/>
       <c r="BT60" s="51"/>
       <c r="BU60" s="51"/>
-      <c r="BV60" s="307"/>
-      <c r="BW60" s="307"/>
-      <c r="BX60" s="307"/>
-      <c r="BY60" s="307"/>
-      <c r="BZ60" s="307"/>
+      <c r="BV60" s="294"/>
+      <c r="BW60" s="294"/>
+      <c r="BX60" s="294"/>
+      <c r="BY60" s="294"/>
+      <c r="BZ60" s="294"/>
       <c r="CA60" s="49"/>
-      <c r="CB60" s="307"/>
-      <c r="CC60" s="307"/>
-      <c r="CD60" s="307"/>
-      <c r="CE60" s="307"/>
-      <c r="CF60" s="307"/>
-      <c r="CG60" s="307"/>
+      <c r="CB60" s="294"/>
+      <c r="CC60" s="294"/>
+      <c r="CD60" s="294"/>
+      <c r="CE60" s="294"/>
+      <c r="CF60" s="294"/>
+      <c r="CG60" s="294"/>
       <c r="CH60" s="51"/>
       <c r="CI60" s="51"/>
-      <c r="CJ60" s="307"/>
-      <c r="CK60" s="307"/>
-      <c r="CL60" s="307"/>
-      <c r="CM60" s="307"/>
-      <c r="CN60" s="307"/>
+      <c r="CJ60" s="294"/>
+      <c r="CK60" s="294"/>
+      <c r="CL60" s="294"/>
+      <c r="CM60" s="294"/>
+      <c r="CN60" s="294"/>
       <c r="CO60" s="51"/>
       <c r="CP60" s="51"/>
-      <c r="CQ60" s="307"/>
-      <c r="CR60" s="307"/>
-      <c r="CS60" s="307"/>
-      <c r="CT60" s="307"/>
-      <c r="CU60" s="307"/>
+      <c r="CQ60" s="294"/>
+      <c r="CR60" s="294"/>
+      <c r="CS60" s="294"/>
+      <c r="CT60" s="294"/>
+      <c r="CU60" s="294"/>
       <c r="CV60" s="44"/>
       <c r="CW60" s="44"/>
-      <c r="CX60" s="307"/>
-      <c r="CY60" s="307"/>
-      <c r="CZ60" s="307"/>
-      <c r="DA60" s="307"/>
-      <c r="DB60" s="307"/>
+      <c r="CX60" s="294"/>
+      <c r="CY60" s="294"/>
+      <c r="CZ60" s="294"/>
+      <c r="DA60" s="294"/>
+      <c r="DB60" s="294"/>
       <c r="DC60" s="44"/>
       <c r="DD60" s="44"/>
-      <c r="DE60" s="307"/>
-      <c r="DF60" s="307"/>
-      <c r="DG60" s="307"/>
-      <c r="DH60" s="307"/>
-      <c r="DI60" s="307"/>
+      <c r="DE60" s="294"/>
+      <c r="DF60" s="294"/>
+      <c r="DG60" s="294"/>
+      <c r="DH60" s="294"/>
+      <c r="DI60" s="294"/>
       <c r="DJ60" s="44"/>
       <c r="DK60" s="44"/>
-      <c r="DL60" s="307"/>
-      <c r="DM60" s="307"/>
-      <c r="DN60" s="307"/>
-      <c r="DO60" s="307"/>
-      <c r="DP60" s="307"/>
+      <c r="DL60" s="294"/>
+      <c r="DM60" s="294"/>
+      <c r="DN60" s="294"/>
+      <c r="DO60" s="294"/>
+      <c r="DP60" s="294"/>
       <c r="DQ60" s="44"/>
       <c r="DR60" s="44"/>
       <c r="DS60" s="50" t="s">
@@ -26117,17 +26970,219 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="233">
-    <mergeCell ref="MW15:NC15"/>
-    <mergeCell ref="ND15:NJ15"/>
-    <mergeCell ref="NK15:NQ15"/>
-    <mergeCell ref="PZ5:QF5"/>
-    <mergeCell ref="MI15:MO15"/>
-    <mergeCell ref="LL5:LR5"/>
-    <mergeCell ref="LS5:LY5"/>
-    <mergeCell ref="LZ5:MF5"/>
-    <mergeCell ref="MG5:MM5"/>
-    <mergeCell ref="MN5:MT5"/>
+  <mergeCells count="246">
+    <mergeCell ref="QN5:QT5"/>
+    <mergeCell ref="QU5:RA5"/>
+    <mergeCell ref="RB5:RH5"/>
+    <mergeCell ref="RI5:RO5"/>
+    <mergeCell ref="RP5:RV5"/>
+    <mergeCell ref="RW5:SC5"/>
+    <mergeCell ref="QC15:QI15"/>
+    <mergeCell ref="QJ15:QP15"/>
+    <mergeCell ref="QQ15:QW15"/>
+    <mergeCell ref="QX15:RD15"/>
+    <mergeCell ref="RE15:RK15"/>
+    <mergeCell ref="RL15:RR15"/>
+    <mergeCell ref="QG5:QM5"/>
+    <mergeCell ref="NH2:OK2"/>
+    <mergeCell ref="NP5:NV5"/>
+    <mergeCell ref="NW5:OC5"/>
+    <mergeCell ref="OD5:OJ5"/>
+    <mergeCell ref="OK5:OQ5"/>
+    <mergeCell ref="NR15:NX15"/>
+    <mergeCell ref="NY15:OE15"/>
+    <mergeCell ref="OF15:OL15"/>
+    <mergeCell ref="OM15:OS15"/>
+    <mergeCell ref="NI5:NO5"/>
+    <mergeCell ref="OL2:PP2"/>
+    <mergeCell ref="OR5:OX5"/>
+    <mergeCell ref="OY5:PD5"/>
+    <mergeCell ref="PE5:PK5"/>
+    <mergeCell ref="PL5:PR5"/>
+    <mergeCell ref="PS5:PY5"/>
+    <mergeCell ref="OT15:OZ15"/>
+    <mergeCell ref="PA15:PG15"/>
+    <mergeCell ref="PH15:PN15"/>
+    <mergeCell ref="PO15:PU15"/>
+    <mergeCell ref="PV15:QB15"/>
+    <mergeCell ref="PQ2:QU2"/>
+    <mergeCell ref="HM15:HS15"/>
+    <mergeCell ref="IV15:JB15"/>
+    <mergeCell ref="JC15:JI15"/>
+    <mergeCell ref="JJ15:JP15"/>
+    <mergeCell ref="JQ15:JW15"/>
+    <mergeCell ref="HY5:IE5"/>
+    <mergeCell ref="IF5:IL5"/>
+    <mergeCell ref="IM5:IS5"/>
+    <mergeCell ref="HR5:HX5"/>
+    <mergeCell ref="HI5:HQ5"/>
+    <mergeCell ref="IT5:IZ5"/>
+    <mergeCell ref="IR2:JS2"/>
+    <mergeCell ref="JT2:KX2"/>
+    <mergeCell ref="KL15:KR15"/>
+    <mergeCell ref="KS15:KY15"/>
+    <mergeCell ref="JX15:KD15"/>
+    <mergeCell ref="KE15:KK15"/>
+    <mergeCell ref="HM1:IQ1"/>
+    <mergeCell ref="HM2:IQ2"/>
+    <mergeCell ref="HT15:HZ15"/>
+    <mergeCell ref="IA15:IG15"/>
+    <mergeCell ref="IH15:IN15"/>
+    <mergeCell ref="IO15:IU15"/>
+    <mergeCell ref="KY2:MB2"/>
+    <mergeCell ref="LN15:LT15"/>
+    <mergeCell ref="LU15:MA15"/>
+    <mergeCell ref="MB15:MH15"/>
+    <mergeCell ref="MC2:NG2"/>
+    <mergeCell ref="MU5:NA5"/>
+    <mergeCell ref="NB5:NH5"/>
+    <mergeCell ref="JA5:JG5"/>
+    <mergeCell ref="JH5:JN5"/>
+    <mergeCell ref="JO5:JU5"/>
+    <mergeCell ref="JV5:KB5"/>
+    <mergeCell ref="KC5:KI5"/>
+    <mergeCell ref="FC52:GC52"/>
+    <mergeCell ref="GE52:GG52"/>
+    <mergeCell ref="GH1:HL1"/>
+    <mergeCell ref="GH2:HL2"/>
+    <mergeCell ref="GK15:GQ15"/>
+    <mergeCell ref="GR15:GX15"/>
+    <mergeCell ref="GY15:HE15"/>
+    <mergeCell ref="HF15:HL15"/>
+    <mergeCell ref="GN5:GT5"/>
+    <mergeCell ref="GU5:HA5"/>
+    <mergeCell ref="HB5:HH5"/>
+    <mergeCell ref="FC48:FH48"/>
+    <mergeCell ref="FJ48:FO48"/>
+    <mergeCell ref="FQ48:FV48"/>
+    <mergeCell ref="FX48:GC48"/>
+    <mergeCell ref="FC49:GG49"/>
+    <mergeCell ref="FC50:FH50"/>
+    <mergeCell ref="FI50:GG50"/>
+    <mergeCell ref="FC51:GD51"/>
+    <mergeCell ref="GE51:GG51"/>
+    <mergeCell ref="GE48:GJ48"/>
+    <mergeCell ref="GL48:GQ48"/>
+    <mergeCell ref="FC2:GG2"/>
+    <mergeCell ref="FE5:FK5"/>
+    <mergeCell ref="EH48:EM48"/>
+    <mergeCell ref="EZ51:FB51"/>
+    <mergeCell ref="EV48:FA48"/>
+    <mergeCell ref="CP51:CR51"/>
+    <mergeCell ref="CS50:CX50"/>
+    <mergeCell ref="CY50:DW50"/>
+    <mergeCell ref="D60:AE60"/>
+    <mergeCell ref="CS51:DT51"/>
+    <mergeCell ref="DU51:DW51"/>
+    <mergeCell ref="CS52:DS52"/>
+    <mergeCell ref="BA60:BE60"/>
+    <mergeCell ref="BH60:BL60"/>
+    <mergeCell ref="BO60:BS60"/>
+    <mergeCell ref="BV60:BZ60"/>
+    <mergeCell ref="CJ60:CN60"/>
+    <mergeCell ref="CQ60:CU60"/>
+    <mergeCell ref="DE60:DI60"/>
+    <mergeCell ref="DL60:DP60"/>
+    <mergeCell ref="CB60:CG60"/>
+    <mergeCell ref="CX60:DB60"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="DX52:EX52"/>
+    <mergeCell ref="EO48:ET48"/>
+    <mergeCell ref="DM48:DR48"/>
+    <mergeCell ref="EG15:EM15"/>
+    <mergeCell ref="CT5:CZ5"/>
+    <mergeCell ref="DA5:DG5"/>
+    <mergeCell ref="CV48:DA48"/>
+    <mergeCell ref="BK51:BM51"/>
+    <mergeCell ref="CS1:DW1"/>
+    <mergeCell ref="CS2:DW2"/>
+    <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="EX5:FD5"/>
+    <mergeCell ref="FC1:GG1"/>
+    <mergeCell ref="GG5:GM5"/>
+    <mergeCell ref="FI15:FO15"/>
+    <mergeCell ref="FP15:FV15"/>
+    <mergeCell ref="FW15:GC15"/>
+    <mergeCell ref="GD15:GJ15"/>
+    <mergeCell ref="DX50:EC50"/>
+    <mergeCell ref="ED50:FB50"/>
+    <mergeCell ref="DZ15:EF15"/>
+    <mergeCell ref="DX1:FB1"/>
+    <mergeCell ref="DX2:FB2"/>
+    <mergeCell ref="EN15:ET15"/>
+    <mergeCell ref="EU15:FA15"/>
+    <mergeCell ref="FB15:FH15"/>
+    <mergeCell ref="DV5:EB5"/>
+    <mergeCell ref="CC15:CI15"/>
+    <mergeCell ref="CJ15:CP15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="CS49:DW49"/>
+    <mergeCell ref="CQ15:CW15"/>
+    <mergeCell ref="DH5:DN5"/>
+    <mergeCell ref="DO5:DU5"/>
+    <mergeCell ref="DC48:DH48"/>
+    <mergeCell ref="DT48:DY48"/>
+    <mergeCell ref="AI49:BM49"/>
+    <mergeCell ref="AD48:AI48"/>
+    <mergeCell ref="BO15:BU15"/>
+    <mergeCell ref="BV15:CB15"/>
+    <mergeCell ref="BK5:BQ5"/>
+    <mergeCell ref="AY48:BD48"/>
+    <mergeCell ref="BA15:BG15"/>
+    <mergeCell ref="BH15:BN15"/>
+    <mergeCell ref="CX15:DD15"/>
+    <mergeCell ref="DE15:DK15"/>
+    <mergeCell ref="DL15:DR15"/>
+    <mergeCell ref="DS15:DY15"/>
+    <mergeCell ref="AT15:AZ15"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="BN2:CR2"/>
+    <mergeCell ref="BR5:BX5"/>
+    <mergeCell ref="BY5:CE5"/>
+    <mergeCell ref="W48:AB48"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="J50:AH50"/>
+    <mergeCell ref="AK48:AP48"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AV5"/>
+    <mergeCell ref="AW5:BC5"/>
+    <mergeCell ref="BD5:BJ5"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="BN49:CR49"/>
+    <mergeCell ref="BM48:BR48"/>
+    <mergeCell ref="BT48:BY48"/>
+    <mergeCell ref="CA48:CF48"/>
+    <mergeCell ref="CH48:CM48"/>
+    <mergeCell ref="CO48:CT48"/>
+    <mergeCell ref="AI50:AN50"/>
+    <mergeCell ref="AO50:BM50"/>
+    <mergeCell ref="BN50:BS50"/>
+    <mergeCell ref="CF5:CL5"/>
+    <mergeCell ref="CM5:CS5"/>
+    <mergeCell ref="BK52:BM52"/>
+    <mergeCell ref="AI52:BI52"/>
+    <mergeCell ref="DU52:DW52"/>
+    <mergeCell ref="BT50:CR50"/>
+    <mergeCell ref="DX51:EY51"/>
+    <mergeCell ref="EC5:EI5"/>
+    <mergeCell ref="EA48:EF48"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E2:AH2"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="U5:AA5"/>
+    <mergeCell ref="AB5:AH5"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="AI2:BM2"/>
+    <mergeCell ref="D1:AH1"/>
+    <mergeCell ref="AI1:BM1"/>
     <mergeCell ref="KZ15:LF15"/>
     <mergeCell ref="LG15:LM15"/>
     <mergeCell ref="KJ5:KP5"/>
@@ -26152,205 +27207,16 @@
     <mergeCell ref="BN51:CO51"/>
     <mergeCell ref="CP52:CR52"/>
     <mergeCell ref="AI51:BJ51"/>
-    <mergeCell ref="BK52:BM52"/>
-    <mergeCell ref="AI52:BI52"/>
-    <mergeCell ref="DU52:DW52"/>
-    <mergeCell ref="BT50:CR50"/>
-    <mergeCell ref="DX51:EY51"/>
-    <mergeCell ref="EC5:EI5"/>
-    <mergeCell ref="EA48:EF48"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E2:AH2"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="U5:AA5"/>
-    <mergeCell ref="AB5:AH5"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="AI2:BM2"/>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="AI1:BM1"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="BN2:CR2"/>
-    <mergeCell ref="BR5:BX5"/>
-    <mergeCell ref="BY5:CE5"/>
-    <mergeCell ref="W48:AB48"/>
-    <mergeCell ref="P48:U48"/>
-    <mergeCell ref="J50:AH50"/>
-    <mergeCell ref="AK48:AP48"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AV5"/>
-    <mergeCell ref="AW5:BC5"/>
-    <mergeCell ref="BD5:BJ5"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="BN49:CR49"/>
-    <mergeCell ref="BM48:BR48"/>
-    <mergeCell ref="BT48:BY48"/>
-    <mergeCell ref="CA48:CF48"/>
-    <mergeCell ref="CH48:CM48"/>
-    <mergeCell ref="CO48:CT48"/>
-    <mergeCell ref="AI50:AN50"/>
-    <mergeCell ref="AO50:BM50"/>
-    <mergeCell ref="BN50:BS50"/>
-    <mergeCell ref="CF5:CL5"/>
-    <mergeCell ref="CM5:CS5"/>
-    <mergeCell ref="CC15:CI15"/>
-    <mergeCell ref="CJ15:CP15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="CS49:DW49"/>
-    <mergeCell ref="CQ15:CW15"/>
-    <mergeCell ref="DH5:DN5"/>
-    <mergeCell ref="DO5:DU5"/>
-    <mergeCell ref="DC48:DH48"/>
-    <mergeCell ref="DT48:DY48"/>
-    <mergeCell ref="AI49:BM49"/>
-    <mergeCell ref="AD48:AI48"/>
-    <mergeCell ref="BO15:BU15"/>
-    <mergeCell ref="BV15:CB15"/>
-    <mergeCell ref="BK5:BQ5"/>
-    <mergeCell ref="AY48:BD48"/>
-    <mergeCell ref="BA15:BG15"/>
-    <mergeCell ref="BH15:BN15"/>
-    <mergeCell ref="CX15:DD15"/>
-    <mergeCell ref="DE15:DK15"/>
-    <mergeCell ref="DL15:DR15"/>
-    <mergeCell ref="DS15:DY15"/>
-    <mergeCell ref="AT15:AZ15"/>
-    <mergeCell ref="EG15:EM15"/>
-    <mergeCell ref="CT5:CZ5"/>
-    <mergeCell ref="DA5:DG5"/>
-    <mergeCell ref="CV48:DA48"/>
-    <mergeCell ref="BK51:BM51"/>
-    <mergeCell ref="CS1:DW1"/>
-    <mergeCell ref="CS2:DW2"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="EX5:FD5"/>
-    <mergeCell ref="FC1:GG1"/>
-    <mergeCell ref="GG5:GM5"/>
-    <mergeCell ref="FI15:FO15"/>
-    <mergeCell ref="FP15:FV15"/>
-    <mergeCell ref="FW15:GC15"/>
-    <mergeCell ref="GD15:GJ15"/>
-    <mergeCell ref="DX50:EC50"/>
-    <mergeCell ref="ED50:FB50"/>
-    <mergeCell ref="DZ15:EF15"/>
-    <mergeCell ref="DX1:FB1"/>
-    <mergeCell ref="DX2:FB2"/>
-    <mergeCell ref="EN15:ET15"/>
-    <mergeCell ref="EU15:FA15"/>
-    <mergeCell ref="FB15:FH15"/>
-    <mergeCell ref="DV5:EB5"/>
-    <mergeCell ref="EH48:EM48"/>
-    <mergeCell ref="EZ51:FB51"/>
-    <mergeCell ref="EV48:FA48"/>
-    <mergeCell ref="CP51:CR51"/>
-    <mergeCell ref="CS50:CX50"/>
-    <mergeCell ref="CY50:DW50"/>
-    <mergeCell ref="D60:AE60"/>
-    <mergeCell ref="CS51:DT51"/>
-    <mergeCell ref="DU51:DW51"/>
-    <mergeCell ref="CS52:DS52"/>
-    <mergeCell ref="BA60:BE60"/>
-    <mergeCell ref="BH60:BL60"/>
-    <mergeCell ref="BO60:BS60"/>
-    <mergeCell ref="BV60:BZ60"/>
-    <mergeCell ref="CJ60:CN60"/>
-    <mergeCell ref="CQ60:CU60"/>
-    <mergeCell ref="DE60:DI60"/>
-    <mergeCell ref="DL60:DP60"/>
-    <mergeCell ref="CB60:CG60"/>
-    <mergeCell ref="CX60:DB60"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="DX52:EX52"/>
-    <mergeCell ref="EO48:ET48"/>
-    <mergeCell ref="DM48:DR48"/>
-    <mergeCell ref="FC52:GC52"/>
-    <mergeCell ref="GE52:GG52"/>
-    <mergeCell ref="GH1:HL1"/>
-    <mergeCell ref="GH2:HL2"/>
-    <mergeCell ref="GK15:GQ15"/>
-    <mergeCell ref="GR15:GX15"/>
-    <mergeCell ref="GY15:HE15"/>
-    <mergeCell ref="HF15:HL15"/>
-    <mergeCell ref="GN5:GT5"/>
-    <mergeCell ref="GU5:HA5"/>
-    <mergeCell ref="HB5:HH5"/>
-    <mergeCell ref="FC48:FH48"/>
-    <mergeCell ref="FJ48:FO48"/>
-    <mergeCell ref="FQ48:FV48"/>
-    <mergeCell ref="FX48:GC48"/>
-    <mergeCell ref="FC49:GG49"/>
-    <mergeCell ref="FC50:FH50"/>
-    <mergeCell ref="FI50:GG50"/>
-    <mergeCell ref="FC51:GD51"/>
-    <mergeCell ref="GE51:GG51"/>
-    <mergeCell ref="GE48:GJ48"/>
-    <mergeCell ref="GL48:GQ48"/>
-    <mergeCell ref="FC2:GG2"/>
-    <mergeCell ref="FE5:FK5"/>
-    <mergeCell ref="IR2:JS2"/>
-    <mergeCell ref="JT2:KX2"/>
-    <mergeCell ref="KL15:KR15"/>
-    <mergeCell ref="KS15:KY15"/>
-    <mergeCell ref="JX15:KD15"/>
-    <mergeCell ref="KE15:KK15"/>
-    <mergeCell ref="HM1:IQ1"/>
-    <mergeCell ref="HM2:IQ2"/>
-    <mergeCell ref="HT15:HZ15"/>
-    <mergeCell ref="IA15:IG15"/>
-    <mergeCell ref="IH15:IN15"/>
-    <mergeCell ref="IO15:IU15"/>
-    <mergeCell ref="KY2:MB2"/>
-    <mergeCell ref="LN15:LT15"/>
-    <mergeCell ref="LU15:MA15"/>
-    <mergeCell ref="MB15:MH15"/>
-    <mergeCell ref="MC2:NG2"/>
-    <mergeCell ref="MU5:NA5"/>
-    <mergeCell ref="NB5:NH5"/>
-    <mergeCell ref="JA5:JG5"/>
-    <mergeCell ref="JH5:JN5"/>
-    <mergeCell ref="JO5:JU5"/>
-    <mergeCell ref="JV5:KB5"/>
-    <mergeCell ref="KC5:KI5"/>
-    <mergeCell ref="HM15:HS15"/>
-    <mergeCell ref="IV15:JB15"/>
-    <mergeCell ref="JC15:JI15"/>
-    <mergeCell ref="JJ15:JP15"/>
-    <mergeCell ref="JQ15:JW15"/>
-    <mergeCell ref="HY5:IE5"/>
-    <mergeCell ref="IF5:IL5"/>
-    <mergeCell ref="IM5:IS5"/>
-    <mergeCell ref="HR5:HX5"/>
-    <mergeCell ref="HI5:HQ5"/>
-    <mergeCell ref="IT5:IZ5"/>
-    <mergeCell ref="QG5:QM5"/>
-    <mergeCell ref="NH2:OK2"/>
-    <mergeCell ref="NP5:NV5"/>
-    <mergeCell ref="NW5:OC5"/>
-    <mergeCell ref="OD5:OJ5"/>
-    <mergeCell ref="OK5:OQ5"/>
-    <mergeCell ref="NR15:NX15"/>
-    <mergeCell ref="NY15:OE15"/>
-    <mergeCell ref="OF15:OL15"/>
-    <mergeCell ref="OM15:OS15"/>
-    <mergeCell ref="NI5:NO5"/>
-    <mergeCell ref="OL2:PP2"/>
-    <mergeCell ref="OR5:OX5"/>
-    <mergeCell ref="OY5:PD5"/>
-    <mergeCell ref="PE5:PK5"/>
-    <mergeCell ref="PL5:PR5"/>
-    <mergeCell ref="PS5:PY5"/>
-    <mergeCell ref="OT15:OZ15"/>
-    <mergeCell ref="PA15:PG15"/>
-    <mergeCell ref="PH15:PN15"/>
-    <mergeCell ref="PO15:PU15"/>
-    <mergeCell ref="PV15:QB15"/>
+    <mergeCell ref="MW15:NC15"/>
+    <mergeCell ref="ND15:NJ15"/>
+    <mergeCell ref="NK15:NQ15"/>
+    <mergeCell ref="PZ5:QF5"/>
+    <mergeCell ref="MI15:MO15"/>
+    <mergeCell ref="LL5:LR5"/>
+    <mergeCell ref="LS5:LY5"/>
+    <mergeCell ref="LZ5:MF5"/>
+    <mergeCell ref="MG5:MM5"/>
+    <mergeCell ref="MN5:MT5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -26374,7 +27240,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="A9" sqref="A9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20" customHeight="1" outlineLevelCol="1"/>
@@ -27251,7 +28117,7 @@
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="M22" s="100" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -27458,7 +28324,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="199" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -28175,7 +29041,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>57</v>
@@ -28304,11 +29170,11 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="332" t="s">
+      <c r="A15" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="332"/>
-      <c r="C15" s="332"/>
+      <c r="B15" s="336"/>
+      <c r="C15" s="336"/>
       <c r="D15" s="1"/>
       <c r="E15" s="7">
         <f t="shared" ref="E15:W15" si="7">SUM(E2:E14)-E19</f>
@@ -28789,11 +29655,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="332" t="s">
+      <c r="A21" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
+      <c r="B21" s="336"/>
+      <c r="C21" s="336"/>
       <c r="D21" s="1"/>
       <c r="E21" s="7">
         <f>SUM(E17:E20)</f>
@@ -28873,11 +29739,11 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="332" t="s">
+      <c r="A22" s="336" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="332"/>
-      <c r="C22" s="332"/>
+      <c r="B22" s="336"/>
+      <c r="C22" s="336"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8">
         <f>E15+E21</f>
@@ -29126,7 +29992,7 @@
       <c r="O27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="142" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S27" s="159">
         <v>250000</v>
@@ -29153,7 +30019,7 @@
       <c r="O28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="254" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S28" s="159">
         <v>250000</v>
@@ -29180,7 +30046,7 @@
       <c r="O29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="199" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S29" s="159">
         <v>50000</v>
@@ -29234,7 +30100,7 @@
       <c r="O31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="199" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S31" s="159">
         <v>130000</v>
@@ -29288,7 +30154,7 @@
       <c r="O33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="142" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S33" s="159">
         <v>3000000</v>
@@ -29315,7 +30181,7 @@
       <c r="O34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="142" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="S34" s="159">
         <v>500000</v>
@@ -29396,7 +30262,7 @@
       <c r="O37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="256" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="S37" s="159">
         <v>50000</v>
@@ -29423,7 +30289,7 @@
       <c r="O38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="255" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S38" s="159">
         <f>SUM(S39:S50)</f>
@@ -29451,7 +30317,7 @@
       <c r="O39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="256" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="S39" s="159">
         <v>4800000</v>
@@ -29494,7 +30360,7 @@
       <c r="O41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="142" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S41" s="159">
         <f>(130000*15+80*1300*45)*4/12</f>
@@ -29505,7 +30371,7 @@
       <c r="C42" s="3"/>
       <c r="P42"/>
       <c r="R42" s="142" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="S42" s="159"/>
     </row>
@@ -29930,7 +30796,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="158" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -29968,7 +30834,7 @@
         <v>10</v>
       </c>
       <c r="N14" s="158" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
@@ -30006,7 +30872,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="158" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -30178,7 +31044,7 @@
         <v>302</v>
       </c>
       <c r="P21" s="199" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q21" s="142"/>
     </row>

--- a/계획표(일과,자산).xlsx
+++ b/계획표(일과,자산).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D8C96-330F-3142-8832-499BB05E51B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20474226-F885-A347-AE03-3A064858B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="444">
   <si>
     <t>에어비엔비 호스팅 가이드</t>
   </si>
@@ -2021,23 +2021,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">어제와 똑같이 살면서 다른 미래를 기대하는 것은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정신병 초기증세다.</t>
-    </r>
-  </si>
-  <si>
     <t>인생에서 가장 큰 위험은 아무것도 감수하지 않는 일이다.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -2896,6 +2879,40 @@
   </si>
   <si>
     <t>8월</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>육일약국 갑시다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어제와 똑같이 살면서 다른 미래를 기대하는 것은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정신병 초기증세다.</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>조 
+3.6 
+25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M9
+27</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4743,6 +4760,42 @@
     <xf numFmtId="20" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4755,8 +4808,38 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4767,199 +4850,133 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5215,7 +5232,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s12925"/>
+                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s12979"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5582,8 +5599,8 @@
   </sheetPr>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5594,7 +5611,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25" customHeight="1">
       <c r="A1" s="209" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25" customHeight="1">
@@ -5662,38 +5679,38 @@
     </row>
     <row r="17" spans="1:1" ht="25" customHeight="1">
       <c r="A17" s="209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="25" customHeight="1">
       <c r="A18" s="209" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="25" customHeight="1">
       <c r="A19" s="209" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="10" customHeight="1"/>
     <row r="21" spans="1:1" ht="25" customHeight="1">
       <c r="A21" s="209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="25" customHeight="1">
       <c r="A22" s="217" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="25" customHeight="1">
       <c r="A23" s="209" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25" customHeight="1">
       <c r="A24" s="209" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="25" customHeight="1">
@@ -5716,12 +5733,12 @@
     </row>
     <row r="29" spans="1:1" ht="25" customHeight="1">
       <c r="A29" s="213" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="25" customHeight="1">
       <c r="A30" s="212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="25" customHeight="1">
@@ -5777,8 +5794,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5798,18 +5815,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="209" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="245" t="s">
         <v>352</v>
-      </c>
-      <c r="C1" s="245" t="s">
-        <v>353</v>
       </c>
       <c r="D1" s="246"/>
       <c r="E1" s="245" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F1" s="246"/>
       <c r="G1" s="209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I1" s="209" t="s">
         <v>19</v>
@@ -5817,18 +5834,18 @@
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="B2" s="210" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="246" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" s="247"/>
       <c r="F2" s="252" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="251" t="s">
         <v>361</v>
-      </c>
-      <c r="H2" s="251" t="s">
-        <v>362</v>
       </c>
       <c r="J2" s="210" t="s">
         <v>43</v>
@@ -5836,16 +5853,16 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="B3" s="210" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="247"/>
       <c r="D3" s="246"/>
       <c r="E3" s="247"/>
       <c r="F3" s="253" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="211" t="s">
         <v>385</v>
-      </c>
-      <c r="H3" s="211" t="s">
-        <v>386</v>
       </c>
       <c r="J3" s="210" t="s">
         <v>306</v>
@@ -5853,31 +5870,31 @@
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="B4" s="210" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C4" s="247"/>
       <c r="D4" s="246"/>
       <c r="E4" s="247"/>
       <c r="F4" s="253" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G4" s="211"/>
       <c r="H4" s="211" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="B5" s="210" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="247"/>
       <c r="D5" s="246"/>
       <c r="E5" s="247"/>
       <c r="F5" s="246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H5" s="210" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I5" s="209" t="s">
         <v>11</v>
@@ -5885,16 +5902,16 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="B6" s="210" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="247"/>
       <c r="D6" s="246"/>
       <c r="E6" s="247"/>
       <c r="F6" s="246" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H6" s="210" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J6" s="210" t="s">
         <v>128</v>
@@ -5902,16 +5919,16 @@
     </row>
     <row r="7" spans="1:10" ht="144">
       <c r="B7" s="244" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" s="247"/>
       <c r="D7" s="246"/>
       <c r="E7" s="247"/>
       <c r="F7" s="258" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H7" s="210" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J7" s="210" t="s">
         <v>125</v>
@@ -5919,18 +5936,18 @@
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1">
       <c r="B8" s="244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="247"/>
       <c r="D8" s="246" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="247"/>
       <c r="F8" s="246" t="s">
+        <v>381</v>
+      </c>
+      <c r="H8" s="210" t="s">
         <v>382</v>
-      </c>
-      <c r="H8" s="210" t="s">
-        <v>383</v>
       </c>
       <c r="J8" s="210" t="s">
         <v>2</v>
@@ -5942,10 +5959,10 @@
       <c r="D9" s="246"/>
       <c r="E9" s="247"/>
       <c r="F9" s="246" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" s="210" t="s">
         <v>380</v>
-      </c>
-      <c r="H9" s="210" t="s">
-        <v>381</v>
       </c>
       <c r="J9" s="210" t="s">
         <v>47</v>
@@ -5957,23 +5974,23 @@
       <c r="D10" s="246"/>
       <c r="E10" s="247"/>
       <c r="F10" s="246" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="210" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="C11" s="247"/>
       <c r="D11" s="246" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" s="247"/>
       <c r="F11" s="246" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I11" s="209" t="s">
         <v>122</v>
@@ -5985,7 +6002,7 @@
       <c r="E12" s="247"/>
       <c r="F12" s="246"/>
       <c r="H12" s="210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J12" s="210" t="s">
         <v>59</v>
@@ -5994,14 +6011,14 @@
     <row r="13" spans="1:10" ht="27" customHeight="1">
       <c r="C13" s="247"/>
       <c r="D13" s="246" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" s="247"/>
       <c r="F13" s="246" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="210" t="s">
         <v>391</v>
-      </c>
-      <c r="H13" s="210" t="s">
-        <v>392</v>
       </c>
       <c r="J13" s="210" t="s">
         <v>307</v>
@@ -6013,7 +6030,7 @@
       <c r="E14" s="247"/>
       <c r="F14" s="246"/>
       <c r="H14" s="210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1">
@@ -6023,7 +6040,7 @@
       <c r="E15" s="247"/>
       <c r="F15" s="246"/>
       <c r="H15" s="210" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I15" s="209" t="s">
         <v>62</v>
@@ -6035,7 +6052,7 @@
       <c r="E16" s="247"/>
       <c r="F16" s="246"/>
       <c r="H16" s="210" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J16" s="210" t="s">
         <v>107</v>
@@ -6047,7 +6064,7 @@
       <c r="E17" s="247"/>
       <c r="F17" s="246"/>
       <c r="H17" s="210" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="27" customHeight="1">
@@ -6056,7 +6073,7 @@
       <c r="E18" s="247"/>
       <c r="F18" s="246"/>
       <c r="H18" s="210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="27" customHeight="1">
@@ -6065,13 +6082,13 @@
       <c r="E19" s="247"/>
       <c r="F19" s="246"/>
       <c r="H19" s="210" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="27" customHeight="1">
       <c r="C20" s="247"/>
       <c r="D20" s="246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E20" s="247"/>
       <c r="F20" s="246"/>
@@ -6102,16 +6119,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" customHeight="1">
       <c r="A1" s="239" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="C1" s="239" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="239" t="s">
-        <v>338</v>
-      </c>
       <c r="D1" s="239" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" customHeight="1">
@@ -6122,10 +6139,10 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="241" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" customHeight="1">
@@ -6136,10 +6153,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="243" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D3" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" customHeight="1">
@@ -6150,7 +6167,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C4" s="242" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="237"/>
     </row>
@@ -6162,7 +6179,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D5" s="238"/>
     </row>
@@ -6174,10 +6191,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C6" s="243" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D6" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" customHeight="1">
@@ -6188,10 +6205,10 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C7" s="243" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" customHeight="1">
@@ -6202,10 +6219,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C8" s="243" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" customHeight="1">
@@ -6216,10 +6233,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C9" s="243" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" customHeight="1">
@@ -6230,19 +6247,19 @@
         <v>0.9375</v>
       </c>
       <c r="C10" s="243" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" s="236" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B11" s="262"/>
       <c r="C11" s="243" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D11" s="236"/>
     </row>
@@ -6261,9 +6278,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:SC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="OV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PS12" sqref="PS12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="OI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="PR13" sqref="PR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -6307,781 +6324,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:497" ht="21" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="316" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="316" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="288" t="s">
+      <c r="D1" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
-      <c r="Z1" s="288"/>
-      <c r="AA1" s="288"/>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="288"/>
-      <c r="AD1" s="288"/>
-      <c r="AE1" s="288"/>
-      <c r="AF1" s="288"/>
-      <c r="AG1" s="288"/>
-      <c r="AH1" s="288"/>
-      <c r="AI1" s="288" t="s">
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
+      <c r="R1" s="321"/>
+      <c r="S1" s="321"/>
+      <c r="T1" s="321"/>
+      <c r="U1" s="321"/>
+      <c r="V1" s="321"/>
+      <c r="W1" s="321"/>
+      <c r="X1" s="321"/>
+      <c r="Y1" s="321"/>
+      <c r="Z1" s="321"/>
+      <c r="AA1" s="321"/>
+      <c r="AB1" s="321"/>
+      <c r="AC1" s="321"/>
+      <c r="AD1" s="321"/>
+      <c r="AE1" s="321"/>
+      <c r="AF1" s="321"/>
+      <c r="AG1" s="321"/>
+      <c r="AH1" s="321"/>
+      <c r="AI1" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="288"/>
-      <c r="AK1" s="288"/>
-      <c r="AL1" s="288"/>
-      <c r="AM1" s="288"/>
-      <c r="AN1" s="288"/>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
-      <c r="BC1" s="288"/>
-      <c r="BD1" s="288"/>
-      <c r="BE1" s="288"/>
-      <c r="BF1" s="288"/>
-      <c r="BG1" s="288"/>
-      <c r="BH1" s="288"/>
-      <c r="BI1" s="288"/>
-      <c r="BJ1" s="288"/>
-      <c r="BK1" s="288"/>
-      <c r="BL1" s="288"/>
-      <c r="BM1" s="288"/>
-      <c r="BN1" s="288" t="s">
+      <c r="AJ1" s="321"/>
+      <c r="AK1" s="321"/>
+      <c r="AL1" s="321"/>
+      <c r="AM1" s="321"/>
+      <c r="AN1" s="321"/>
+      <c r="AO1" s="321"/>
+      <c r="AP1" s="321"/>
+      <c r="AQ1" s="321"/>
+      <c r="AR1" s="321"/>
+      <c r="AS1" s="321"/>
+      <c r="AT1" s="321"/>
+      <c r="AU1" s="321"/>
+      <c r="AV1" s="321"/>
+      <c r="AW1" s="321"/>
+      <c r="AX1" s="321"/>
+      <c r="AY1" s="321"/>
+      <c r="AZ1" s="321"/>
+      <c r="BA1" s="321"/>
+      <c r="BB1" s="321"/>
+      <c r="BC1" s="321"/>
+      <c r="BD1" s="321"/>
+      <c r="BE1" s="321"/>
+      <c r="BF1" s="321"/>
+      <c r="BG1" s="321"/>
+      <c r="BH1" s="321"/>
+      <c r="BI1" s="321"/>
+      <c r="BJ1" s="321"/>
+      <c r="BK1" s="321"/>
+      <c r="BL1" s="321"/>
+      <c r="BM1" s="321"/>
+      <c r="BN1" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="288"/>
-      <c r="BP1" s="288"/>
-      <c r="BQ1" s="288"/>
-      <c r="BR1" s="288"/>
-      <c r="BS1" s="288"/>
-      <c r="BT1" s="288"/>
-      <c r="BU1" s="288"/>
-      <c r="BV1" s="288"/>
-      <c r="BW1" s="288"/>
-      <c r="BX1" s="288"/>
-      <c r="BY1" s="288"/>
-      <c r="BZ1" s="288"/>
-      <c r="CA1" s="288"/>
-      <c r="CB1" s="288"/>
-      <c r="CC1" s="288"/>
-      <c r="CD1" s="288"/>
-      <c r="CE1" s="288"/>
-      <c r="CF1" s="288"/>
-      <c r="CG1" s="288"/>
-      <c r="CH1" s="288"/>
-      <c r="CI1" s="288"/>
-      <c r="CJ1" s="288"/>
-      <c r="CK1" s="288"/>
-      <c r="CL1" s="288"/>
-      <c r="CM1" s="288"/>
-      <c r="CN1" s="288"/>
-      <c r="CO1" s="288"/>
-      <c r="CP1" s="288"/>
-      <c r="CQ1" s="288"/>
-      <c r="CR1" s="288"/>
-      <c r="CS1" s="288" t="s">
+      <c r="BO1" s="321"/>
+      <c r="BP1" s="321"/>
+      <c r="BQ1" s="321"/>
+      <c r="BR1" s="321"/>
+      <c r="BS1" s="321"/>
+      <c r="BT1" s="321"/>
+      <c r="BU1" s="321"/>
+      <c r="BV1" s="321"/>
+      <c r="BW1" s="321"/>
+      <c r="BX1" s="321"/>
+      <c r="BY1" s="321"/>
+      <c r="BZ1" s="321"/>
+      <c r="CA1" s="321"/>
+      <c r="CB1" s="321"/>
+      <c r="CC1" s="321"/>
+      <c r="CD1" s="321"/>
+      <c r="CE1" s="321"/>
+      <c r="CF1" s="321"/>
+      <c r="CG1" s="321"/>
+      <c r="CH1" s="321"/>
+      <c r="CI1" s="321"/>
+      <c r="CJ1" s="321"/>
+      <c r="CK1" s="321"/>
+      <c r="CL1" s="321"/>
+      <c r="CM1" s="321"/>
+      <c r="CN1" s="321"/>
+      <c r="CO1" s="321"/>
+      <c r="CP1" s="321"/>
+      <c r="CQ1" s="321"/>
+      <c r="CR1" s="321"/>
+      <c r="CS1" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="288"/>
-      <c r="CU1" s="288"/>
-      <c r="CV1" s="288"/>
-      <c r="CW1" s="288"/>
-      <c r="CX1" s="288"/>
-      <c r="CY1" s="288"/>
-      <c r="CZ1" s="288"/>
-      <c r="DA1" s="288"/>
-      <c r="DB1" s="288"/>
-      <c r="DC1" s="288"/>
-      <c r="DD1" s="288"/>
-      <c r="DE1" s="288"/>
-      <c r="DF1" s="288"/>
-      <c r="DG1" s="288"/>
-      <c r="DH1" s="288"/>
-      <c r="DI1" s="288"/>
-      <c r="DJ1" s="288"/>
-      <c r="DK1" s="288"/>
-      <c r="DL1" s="288"/>
-      <c r="DM1" s="288"/>
-      <c r="DN1" s="288"/>
-      <c r="DO1" s="288"/>
-      <c r="DP1" s="288"/>
-      <c r="DQ1" s="288"/>
-      <c r="DR1" s="288"/>
-      <c r="DS1" s="288"/>
-      <c r="DT1" s="288"/>
-      <c r="DU1" s="288"/>
-      <c r="DV1" s="288"/>
-      <c r="DW1" s="295"/>
-      <c r="DX1" s="297" t="s">
+      <c r="CT1" s="321"/>
+      <c r="CU1" s="321"/>
+      <c r="CV1" s="321"/>
+      <c r="CW1" s="321"/>
+      <c r="CX1" s="321"/>
+      <c r="CY1" s="321"/>
+      <c r="CZ1" s="321"/>
+      <c r="DA1" s="321"/>
+      <c r="DB1" s="321"/>
+      <c r="DC1" s="321"/>
+      <c r="DD1" s="321"/>
+      <c r="DE1" s="321"/>
+      <c r="DF1" s="321"/>
+      <c r="DG1" s="321"/>
+      <c r="DH1" s="321"/>
+      <c r="DI1" s="321"/>
+      <c r="DJ1" s="321"/>
+      <c r="DK1" s="321"/>
+      <c r="DL1" s="321"/>
+      <c r="DM1" s="321"/>
+      <c r="DN1" s="321"/>
+      <c r="DO1" s="321"/>
+      <c r="DP1" s="321"/>
+      <c r="DQ1" s="321"/>
+      <c r="DR1" s="321"/>
+      <c r="DS1" s="321"/>
+      <c r="DT1" s="321"/>
+      <c r="DU1" s="321"/>
+      <c r="DV1" s="321"/>
+      <c r="DW1" s="322"/>
+      <c r="DX1" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="DY1" s="298"/>
-      <c r="DZ1" s="298"/>
-      <c r="EA1" s="298"/>
-      <c r="EB1" s="298"/>
-      <c r="EC1" s="298"/>
-      <c r="ED1" s="298"/>
-      <c r="EE1" s="298"/>
-      <c r="EF1" s="298"/>
-      <c r="EG1" s="298"/>
-      <c r="EH1" s="298"/>
-      <c r="EI1" s="298"/>
-      <c r="EJ1" s="298"/>
-      <c r="EK1" s="298"/>
-      <c r="EL1" s="298"/>
-      <c r="EM1" s="298"/>
-      <c r="EN1" s="298"/>
-      <c r="EO1" s="298"/>
-      <c r="EP1" s="298"/>
-      <c r="EQ1" s="298"/>
-      <c r="ER1" s="298"/>
-      <c r="ES1" s="298"/>
-      <c r="ET1" s="298"/>
-      <c r="EU1" s="298"/>
-      <c r="EV1" s="298"/>
-      <c r="EW1" s="298"/>
-      <c r="EX1" s="298"/>
-      <c r="EY1" s="298"/>
-      <c r="EZ1" s="298"/>
-      <c r="FA1" s="298"/>
-      <c r="FB1" s="299"/>
-      <c r="FC1" s="297" t="s">
+      <c r="DY1" s="296"/>
+      <c r="DZ1" s="296"/>
+      <c r="EA1" s="296"/>
+      <c r="EB1" s="296"/>
+      <c r="EC1" s="296"/>
+      <c r="ED1" s="296"/>
+      <c r="EE1" s="296"/>
+      <c r="EF1" s="296"/>
+      <c r="EG1" s="296"/>
+      <c r="EH1" s="296"/>
+      <c r="EI1" s="296"/>
+      <c r="EJ1" s="296"/>
+      <c r="EK1" s="296"/>
+      <c r="EL1" s="296"/>
+      <c r="EM1" s="296"/>
+      <c r="EN1" s="296"/>
+      <c r="EO1" s="296"/>
+      <c r="EP1" s="296"/>
+      <c r="EQ1" s="296"/>
+      <c r="ER1" s="296"/>
+      <c r="ES1" s="296"/>
+      <c r="ET1" s="296"/>
+      <c r="EU1" s="296"/>
+      <c r="EV1" s="296"/>
+      <c r="EW1" s="296"/>
+      <c r="EX1" s="296"/>
+      <c r="EY1" s="296"/>
+      <c r="EZ1" s="296"/>
+      <c r="FA1" s="296"/>
+      <c r="FB1" s="297"/>
+      <c r="FC1" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="FD1" s="298"/>
-      <c r="FE1" s="298"/>
-      <c r="FF1" s="298"/>
-      <c r="FG1" s="298"/>
-      <c r="FH1" s="298"/>
-      <c r="FI1" s="298"/>
-      <c r="FJ1" s="298"/>
-      <c r="FK1" s="298"/>
-      <c r="FL1" s="298"/>
-      <c r="FM1" s="298"/>
-      <c r="FN1" s="298"/>
-      <c r="FO1" s="298"/>
-      <c r="FP1" s="298"/>
-      <c r="FQ1" s="298"/>
-      <c r="FR1" s="298"/>
-      <c r="FS1" s="298"/>
-      <c r="FT1" s="298"/>
-      <c r="FU1" s="298"/>
-      <c r="FV1" s="298"/>
-      <c r="FW1" s="298"/>
-      <c r="FX1" s="298"/>
-      <c r="FY1" s="298"/>
-      <c r="FZ1" s="298"/>
-      <c r="GA1" s="298"/>
-      <c r="GB1" s="298"/>
-      <c r="GC1" s="298"/>
-      <c r="GD1" s="298"/>
-      <c r="GE1" s="298"/>
-      <c r="GF1" s="298"/>
-      <c r="GG1" s="299"/>
-      <c r="GH1" s="297" t="s">
+      <c r="FD1" s="296"/>
+      <c r="FE1" s="296"/>
+      <c r="FF1" s="296"/>
+      <c r="FG1" s="296"/>
+      <c r="FH1" s="296"/>
+      <c r="FI1" s="296"/>
+      <c r="FJ1" s="296"/>
+      <c r="FK1" s="296"/>
+      <c r="FL1" s="296"/>
+      <c r="FM1" s="296"/>
+      <c r="FN1" s="296"/>
+      <c r="FO1" s="296"/>
+      <c r="FP1" s="296"/>
+      <c r="FQ1" s="296"/>
+      <c r="FR1" s="296"/>
+      <c r="FS1" s="296"/>
+      <c r="FT1" s="296"/>
+      <c r="FU1" s="296"/>
+      <c r="FV1" s="296"/>
+      <c r="FW1" s="296"/>
+      <c r="FX1" s="296"/>
+      <c r="FY1" s="296"/>
+      <c r="FZ1" s="296"/>
+      <c r="GA1" s="296"/>
+      <c r="GB1" s="296"/>
+      <c r="GC1" s="296"/>
+      <c r="GD1" s="296"/>
+      <c r="GE1" s="296"/>
+      <c r="GF1" s="296"/>
+      <c r="GG1" s="297"/>
+      <c r="GH1" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="GI1" s="298"/>
-      <c r="GJ1" s="298"/>
-      <c r="GK1" s="298"/>
-      <c r="GL1" s="298"/>
-      <c r="GM1" s="298"/>
-      <c r="GN1" s="298"/>
-      <c r="GO1" s="298"/>
-      <c r="GP1" s="298"/>
-      <c r="GQ1" s="298"/>
-      <c r="GR1" s="298"/>
-      <c r="GS1" s="298"/>
-      <c r="GT1" s="298"/>
-      <c r="GU1" s="298"/>
-      <c r="GV1" s="298"/>
-      <c r="GW1" s="298"/>
-      <c r="GX1" s="298"/>
-      <c r="GY1" s="298"/>
-      <c r="GZ1" s="298"/>
-      <c r="HA1" s="298"/>
-      <c r="HB1" s="298"/>
-      <c r="HC1" s="298"/>
-      <c r="HD1" s="298"/>
-      <c r="HE1" s="298"/>
-      <c r="HF1" s="298"/>
-      <c r="HG1" s="298"/>
-      <c r="HH1" s="298"/>
-      <c r="HI1" s="298"/>
-      <c r="HJ1" s="298"/>
-      <c r="HK1" s="298"/>
-      <c r="HL1" s="299"/>
-      <c r="HM1" s="320" t="s">
+      <c r="GI1" s="296"/>
+      <c r="GJ1" s="296"/>
+      <c r="GK1" s="296"/>
+      <c r="GL1" s="296"/>
+      <c r="GM1" s="296"/>
+      <c r="GN1" s="296"/>
+      <c r="GO1" s="296"/>
+      <c r="GP1" s="296"/>
+      <c r="GQ1" s="296"/>
+      <c r="GR1" s="296"/>
+      <c r="GS1" s="296"/>
+      <c r="GT1" s="296"/>
+      <c r="GU1" s="296"/>
+      <c r="GV1" s="296"/>
+      <c r="GW1" s="296"/>
+      <c r="GX1" s="296"/>
+      <c r="GY1" s="296"/>
+      <c r="GZ1" s="296"/>
+      <c r="HA1" s="296"/>
+      <c r="HB1" s="296"/>
+      <c r="HC1" s="296"/>
+      <c r="HD1" s="296"/>
+      <c r="HE1" s="296"/>
+      <c r="HF1" s="296"/>
+      <c r="HG1" s="296"/>
+      <c r="HH1" s="296"/>
+      <c r="HI1" s="296"/>
+      <c r="HJ1" s="296"/>
+      <c r="HK1" s="296"/>
+      <c r="HL1" s="297"/>
+      <c r="HM1" s="295" t="s">
         <v>241</v>
       </c>
-      <c r="HN1" s="298"/>
-      <c r="HO1" s="298"/>
-      <c r="HP1" s="298"/>
-      <c r="HQ1" s="298"/>
-      <c r="HR1" s="298"/>
-      <c r="HS1" s="298"/>
-      <c r="HT1" s="298"/>
-      <c r="HU1" s="298"/>
-      <c r="HV1" s="298"/>
-      <c r="HW1" s="298"/>
-      <c r="HX1" s="298"/>
-      <c r="HY1" s="298"/>
-      <c r="HZ1" s="298"/>
-      <c r="IA1" s="298"/>
-      <c r="IB1" s="298"/>
-      <c r="IC1" s="298"/>
-      <c r="ID1" s="298"/>
-      <c r="IE1" s="298"/>
-      <c r="IF1" s="298"/>
-      <c r="IG1" s="298"/>
-      <c r="IH1" s="298"/>
-      <c r="II1" s="298"/>
-      <c r="IJ1" s="298"/>
-      <c r="IK1" s="298"/>
-      <c r="IL1" s="298"/>
-      <c r="IM1" s="298"/>
-      <c r="IN1" s="298"/>
-      <c r="IO1" s="298"/>
-      <c r="IP1" s="298"/>
-      <c r="IQ1" s="299"/>
+      <c r="HN1" s="296"/>
+      <c r="HO1" s="296"/>
+      <c r="HP1" s="296"/>
+      <c r="HQ1" s="296"/>
+      <c r="HR1" s="296"/>
+      <c r="HS1" s="296"/>
+      <c r="HT1" s="296"/>
+      <c r="HU1" s="296"/>
+      <c r="HV1" s="296"/>
+      <c r="HW1" s="296"/>
+      <c r="HX1" s="296"/>
+      <c r="HY1" s="296"/>
+      <c r="HZ1" s="296"/>
+      <c r="IA1" s="296"/>
+      <c r="IB1" s="296"/>
+      <c r="IC1" s="296"/>
+      <c r="ID1" s="296"/>
+      <c r="IE1" s="296"/>
+      <c r="IF1" s="296"/>
+      <c r="IG1" s="296"/>
+      <c r="IH1" s="296"/>
+      <c r="II1" s="296"/>
+      <c r="IJ1" s="296"/>
+      <c r="IK1" s="296"/>
+      <c r="IL1" s="296"/>
+      <c r="IM1" s="296"/>
+      <c r="IN1" s="296"/>
+      <c r="IO1" s="296"/>
+      <c r="IP1" s="296"/>
+      <c r="IQ1" s="297"/>
     </row>
     <row r="2" spans="1:497" ht="21" customHeight="1">
-      <c r="A2" s="283"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
+      <c r="A2" s="316"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
       <c r="D2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="283" t="s">
+      <c r="E2" s="316" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="283"/>
-      <c r="W2" s="283"/>
-      <c r="X2" s="283"/>
-      <c r="Y2" s="283"/>
-      <c r="Z2" s="283"/>
-      <c r="AA2" s="283"/>
-      <c r="AB2" s="283"/>
-      <c r="AC2" s="283"/>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="283"/>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="283" t="s">
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="316"/>
+      <c r="N2" s="316"/>
+      <c r="O2" s="316"/>
+      <c r="P2" s="316"/>
+      <c r="Q2" s="316"/>
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="316"/>
+      <c r="AC2" s="316"/>
+      <c r="AD2" s="316"/>
+      <c r="AE2" s="316"/>
+      <c r="AF2" s="316"/>
+      <c r="AG2" s="316"/>
+      <c r="AH2" s="316"/>
+      <c r="AI2" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="283"/>
-      <c r="AK2" s="283"/>
-      <c r="AL2" s="283"/>
-      <c r="AM2" s="283"/>
-      <c r="AN2" s="283"/>
-      <c r="AO2" s="283"/>
-      <c r="AP2" s="283"/>
-      <c r="AQ2" s="283"/>
-      <c r="AR2" s="283"/>
-      <c r="AS2" s="283"/>
-      <c r="AT2" s="283"/>
-      <c r="AU2" s="283"/>
-      <c r="AV2" s="283"/>
-      <c r="AW2" s="283"/>
-      <c r="AX2" s="283"/>
-      <c r="AY2" s="283"/>
-      <c r="AZ2" s="283"/>
-      <c r="BA2" s="283"/>
-      <c r="BB2" s="283"/>
-      <c r="BC2" s="283"/>
-      <c r="BD2" s="283"/>
-      <c r="BE2" s="283"/>
-      <c r="BF2" s="283"/>
-      <c r="BG2" s="283"/>
-      <c r="BH2" s="283"/>
-      <c r="BI2" s="283"/>
-      <c r="BJ2" s="283"/>
-      <c r="BK2" s="283"/>
-      <c r="BL2" s="283"/>
-      <c r="BM2" s="283"/>
-      <c r="BN2" s="283" t="s">
+      <c r="AJ2" s="316"/>
+      <c r="AK2" s="316"/>
+      <c r="AL2" s="316"/>
+      <c r="AM2" s="316"/>
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="316"/>
+      <c r="AP2" s="316"/>
+      <c r="AQ2" s="316"/>
+      <c r="AR2" s="316"/>
+      <c r="AS2" s="316"/>
+      <c r="AT2" s="316"/>
+      <c r="AU2" s="316"/>
+      <c r="AV2" s="316"/>
+      <c r="AW2" s="316"/>
+      <c r="AX2" s="316"/>
+      <c r="AY2" s="316"/>
+      <c r="AZ2" s="316"/>
+      <c r="BA2" s="316"/>
+      <c r="BB2" s="316"/>
+      <c r="BC2" s="316"/>
+      <c r="BD2" s="316"/>
+      <c r="BE2" s="316"/>
+      <c r="BF2" s="316"/>
+      <c r="BG2" s="316"/>
+      <c r="BH2" s="316"/>
+      <c r="BI2" s="316"/>
+      <c r="BJ2" s="316"/>
+      <c r="BK2" s="316"/>
+      <c r="BL2" s="316"/>
+      <c r="BM2" s="316"/>
+      <c r="BN2" s="316" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" s="283"/>
-      <c r="BP2" s="283"/>
-      <c r="BQ2" s="283"/>
-      <c r="BR2" s="283"/>
-      <c r="BS2" s="283"/>
-      <c r="BT2" s="283"/>
-      <c r="BU2" s="283"/>
-      <c r="BV2" s="283"/>
-      <c r="BW2" s="283"/>
-      <c r="BX2" s="283"/>
-      <c r="BY2" s="283"/>
-      <c r="BZ2" s="283"/>
-      <c r="CA2" s="283"/>
-      <c r="CB2" s="283"/>
-      <c r="CC2" s="283"/>
-      <c r="CD2" s="283"/>
-      <c r="CE2" s="283"/>
-      <c r="CF2" s="283"/>
-      <c r="CG2" s="283"/>
-      <c r="CH2" s="283"/>
-      <c r="CI2" s="283"/>
-      <c r="CJ2" s="283"/>
-      <c r="CK2" s="283"/>
-      <c r="CL2" s="283"/>
-      <c r="CM2" s="283"/>
-      <c r="CN2" s="283"/>
-      <c r="CO2" s="283"/>
-      <c r="CP2" s="283"/>
-      <c r="CQ2" s="283"/>
-      <c r="CR2" s="283"/>
-      <c r="CS2" s="283" t="s">
+      <c r="BO2" s="316"/>
+      <c r="BP2" s="316"/>
+      <c r="BQ2" s="316"/>
+      <c r="BR2" s="316"/>
+      <c r="BS2" s="316"/>
+      <c r="BT2" s="316"/>
+      <c r="BU2" s="316"/>
+      <c r="BV2" s="316"/>
+      <c r="BW2" s="316"/>
+      <c r="BX2" s="316"/>
+      <c r="BY2" s="316"/>
+      <c r="BZ2" s="316"/>
+      <c r="CA2" s="316"/>
+      <c r="CB2" s="316"/>
+      <c r="CC2" s="316"/>
+      <c r="CD2" s="316"/>
+      <c r="CE2" s="316"/>
+      <c r="CF2" s="316"/>
+      <c r="CG2" s="316"/>
+      <c r="CH2" s="316"/>
+      <c r="CI2" s="316"/>
+      <c r="CJ2" s="316"/>
+      <c r="CK2" s="316"/>
+      <c r="CL2" s="316"/>
+      <c r="CM2" s="316"/>
+      <c r="CN2" s="316"/>
+      <c r="CO2" s="316"/>
+      <c r="CP2" s="316"/>
+      <c r="CQ2" s="316"/>
+      <c r="CR2" s="316"/>
+      <c r="CS2" s="316" t="s">
         <v>118</v>
       </c>
-      <c r="CT2" s="283"/>
-      <c r="CU2" s="283"/>
-      <c r="CV2" s="283"/>
-      <c r="CW2" s="283"/>
-      <c r="CX2" s="283"/>
-      <c r="CY2" s="283"/>
-      <c r="CZ2" s="283"/>
-      <c r="DA2" s="283"/>
-      <c r="DB2" s="283"/>
-      <c r="DC2" s="283"/>
-      <c r="DD2" s="283"/>
-      <c r="DE2" s="283"/>
-      <c r="DF2" s="283"/>
-      <c r="DG2" s="283"/>
-      <c r="DH2" s="283"/>
-      <c r="DI2" s="283"/>
-      <c r="DJ2" s="283"/>
-      <c r="DK2" s="283"/>
-      <c r="DL2" s="283"/>
-      <c r="DM2" s="283"/>
-      <c r="DN2" s="283"/>
-      <c r="DO2" s="283"/>
-      <c r="DP2" s="283"/>
-      <c r="DQ2" s="283"/>
-      <c r="DR2" s="283"/>
-      <c r="DS2" s="283"/>
-      <c r="DT2" s="283"/>
-      <c r="DU2" s="283"/>
-      <c r="DV2" s="283"/>
-      <c r="DW2" s="296"/>
-      <c r="DX2" s="297" t="s">
+      <c r="CT2" s="316"/>
+      <c r="CU2" s="316"/>
+      <c r="CV2" s="316"/>
+      <c r="CW2" s="316"/>
+      <c r="CX2" s="316"/>
+      <c r="CY2" s="316"/>
+      <c r="CZ2" s="316"/>
+      <c r="DA2" s="316"/>
+      <c r="DB2" s="316"/>
+      <c r="DC2" s="316"/>
+      <c r="DD2" s="316"/>
+      <c r="DE2" s="316"/>
+      <c r="DF2" s="316"/>
+      <c r="DG2" s="316"/>
+      <c r="DH2" s="316"/>
+      <c r="DI2" s="316"/>
+      <c r="DJ2" s="316"/>
+      <c r="DK2" s="316"/>
+      <c r="DL2" s="316"/>
+      <c r="DM2" s="316"/>
+      <c r="DN2" s="316"/>
+      <c r="DO2" s="316"/>
+      <c r="DP2" s="316"/>
+      <c r="DQ2" s="316"/>
+      <c r="DR2" s="316"/>
+      <c r="DS2" s="316"/>
+      <c r="DT2" s="316"/>
+      <c r="DU2" s="316"/>
+      <c r="DV2" s="316"/>
+      <c r="DW2" s="323"/>
+      <c r="DX2" s="303" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="298"/>
-      <c r="DZ2" s="298"/>
-      <c r="EA2" s="298"/>
-      <c r="EB2" s="298"/>
-      <c r="EC2" s="298"/>
-      <c r="ED2" s="298"/>
-      <c r="EE2" s="298"/>
-      <c r="EF2" s="298"/>
-      <c r="EG2" s="298"/>
-      <c r="EH2" s="298"/>
-      <c r="EI2" s="298"/>
-      <c r="EJ2" s="298"/>
-      <c r="EK2" s="298"/>
-      <c r="EL2" s="298"/>
-      <c r="EM2" s="298"/>
-      <c r="EN2" s="298"/>
-      <c r="EO2" s="298"/>
-      <c r="EP2" s="298"/>
-      <c r="EQ2" s="298"/>
-      <c r="ER2" s="298"/>
-      <c r="ES2" s="298"/>
-      <c r="ET2" s="298"/>
-      <c r="EU2" s="298"/>
-      <c r="EV2" s="298"/>
-      <c r="EW2" s="298"/>
-      <c r="EX2" s="298"/>
-      <c r="EY2" s="298"/>
-      <c r="EZ2" s="298"/>
-      <c r="FA2" s="298"/>
-      <c r="FB2" s="299"/>
-      <c r="FC2" s="306" t="s">
+      <c r="DY2" s="296"/>
+      <c r="DZ2" s="296"/>
+      <c r="EA2" s="296"/>
+      <c r="EB2" s="296"/>
+      <c r="EC2" s="296"/>
+      <c r="ED2" s="296"/>
+      <c r="EE2" s="296"/>
+      <c r="EF2" s="296"/>
+      <c r="EG2" s="296"/>
+      <c r="EH2" s="296"/>
+      <c r="EI2" s="296"/>
+      <c r="EJ2" s="296"/>
+      <c r="EK2" s="296"/>
+      <c r="EL2" s="296"/>
+      <c r="EM2" s="296"/>
+      <c r="EN2" s="296"/>
+      <c r="EO2" s="296"/>
+      <c r="EP2" s="296"/>
+      <c r="EQ2" s="296"/>
+      <c r="ER2" s="296"/>
+      <c r="ES2" s="296"/>
+      <c r="ET2" s="296"/>
+      <c r="EU2" s="296"/>
+      <c r="EV2" s="296"/>
+      <c r="EW2" s="296"/>
+      <c r="EX2" s="296"/>
+      <c r="EY2" s="296"/>
+      <c r="EZ2" s="296"/>
+      <c r="FA2" s="296"/>
+      <c r="FB2" s="297"/>
+      <c r="FC2" s="304" t="s">
         <v>132</v>
       </c>
-      <c r="FD2" s="298"/>
-      <c r="FE2" s="298"/>
-      <c r="FF2" s="298"/>
-      <c r="FG2" s="298"/>
-      <c r="FH2" s="298"/>
-      <c r="FI2" s="298"/>
-      <c r="FJ2" s="298"/>
-      <c r="FK2" s="298"/>
-      <c r="FL2" s="298"/>
-      <c r="FM2" s="298"/>
-      <c r="FN2" s="298"/>
-      <c r="FO2" s="298"/>
-      <c r="FP2" s="298"/>
-      <c r="FQ2" s="298"/>
-      <c r="FR2" s="298"/>
-      <c r="FS2" s="298"/>
-      <c r="FT2" s="298"/>
-      <c r="FU2" s="298"/>
-      <c r="FV2" s="298"/>
-      <c r="FW2" s="298"/>
-      <c r="FX2" s="298"/>
-      <c r="FY2" s="298"/>
-      <c r="FZ2" s="298"/>
-      <c r="GA2" s="298"/>
-      <c r="GB2" s="298"/>
-      <c r="GC2" s="298"/>
-      <c r="GD2" s="298"/>
-      <c r="GE2" s="298"/>
-      <c r="GF2" s="298"/>
-      <c r="GG2" s="299"/>
-      <c r="GH2" s="306" t="s">
+      <c r="FD2" s="296"/>
+      <c r="FE2" s="296"/>
+      <c r="FF2" s="296"/>
+      <c r="FG2" s="296"/>
+      <c r="FH2" s="296"/>
+      <c r="FI2" s="296"/>
+      <c r="FJ2" s="296"/>
+      <c r="FK2" s="296"/>
+      <c r="FL2" s="296"/>
+      <c r="FM2" s="296"/>
+      <c r="FN2" s="296"/>
+      <c r="FO2" s="296"/>
+      <c r="FP2" s="296"/>
+      <c r="FQ2" s="296"/>
+      <c r="FR2" s="296"/>
+      <c r="FS2" s="296"/>
+      <c r="FT2" s="296"/>
+      <c r="FU2" s="296"/>
+      <c r="FV2" s="296"/>
+      <c r="FW2" s="296"/>
+      <c r="FX2" s="296"/>
+      <c r="FY2" s="296"/>
+      <c r="FZ2" s="296"/>
+      <c r="GA2" s="296"/>
+      <c r="GB2" s="296"/>
+      <c r="GC2" s="296"/>
+      <c r="GD2" s="296"/>
+      <c r="GE2" s="296"/>
+      <c r="GF2" s="296"/>
+      <c r="GG2" s="297"/>
+      <c r="GH2" s="304" t="s">
         <v>143</v>
       </c>
-      <c r="GI2" s="298"/>
-      <c r="GJ2" s="298"/>
-      <c r="GK2" s="298"/>
-      <c r="GL2" s="298"/>
-      <c r="GM2" s="298"/>
-      <c r="GN2" s="298"/>
-      <c r="GO2" s="298"/>
-      <c r="GP2" s="298"/>
-      <c r="GQ2" s="298"/>
-      <c r="GR2" s="298"/>
-      <c r="GS2" s="298"/>
-      <c r="GT2" s="298"/>
-      <c r="GU2" s="298"/>
-      <c r="GV2" s="298"/>
-      <c r="GW2" s="298"/>
-      <c r="GX2" s="298"/>
-      <c r="GY2" s="298"/>
-      <c r="GZ2" s="298"/>
-      <c r="HA2" s="298"/>
-      <c r="HB2" s="298"/>
-      <c r="HC2" s="298"/>
-      <c r="HD2" s="298"/>
-      <c r="HE2" s="298"/>
-      <c r="HF2" s="298"/>
-      <c r="HG2" s="298"/>
-      <c r="HH2" s="298"/>
-      <c r="HI2" s="298"/>
-      <c r="HJ2" s="298"/>
-      <c r="HK2" s="298"/>
-      <c r="HL2" s="299"/>
-      <c r="HM2" s="320" t="s">
+      <c r="GI2" s="296"/>
+      <c r="GJ2" s="296"/>
+      <c r="GK2" s="296"/>
+      <c r="GL2" s="296"/>
+      <c r="GM2" s="296"/>
+      <c r="GN2" s="296"/>
+      <c r="GO2" s="296"/>
+      <c r="GP2" s="296"/>
+      <c r="GQ2" s="296"/>
+      <c r="GR2" s="296"/>
+      <c r="GS2" s="296"/>
+      <c r="GT2" s="296"/>
+      <c r="GU2" s="296"/>
+      <c r="GV2" s="296"/>
+      <c r="GW2" s="296"/>
+      <c r="GX2" s="296"/>
+      <c r="GY2" s="296"/>
+      <c r="GZ2" s="296"/>
+      <c r="HA2" s="296"/>
+      <c r="HB2" s="296"/>
+      <c r="HC2" s="296"/>
+      <c r="HD2" s="296"/>
+      <c r="HE2" s="296"/>
+      <c r="HF2" s="296"/>
+      <c r="HG2" s="296"/>
+      <c r="HH2" s="296"/>
+      <c r="HI2" s="296"/>
+      <c r="HJ2" s="296"/>
+      <c r="HK2" s="296"/>
+      <c r="HL2" s="297"/>
+      <c r="HM2" s="295" t="s">
         <v>242</v>
       </c>
-      <c r="HN2" s="298"/>
-      <c r="HO2" s="298"/>
-      <c r="HP2" s="298"/>
-      <c r="HQ2" s="298"/>
-      <c r="HR2" s="298"/>
-      <c r="HS2" s="298"/>
-      <c r="HT2" s="298"/>
-      <c r="HU2" s="298"/>
-      <c r="HV2" s="298"/>
-      <c r="HW2" s="298"/>
-      <c r="HX2" s="298"/>
-      <c r="HY2" s="298"/>
-      <c r="HZ2" s="298"/>
-      <c r="IA2" s="298"/>
-      <c r="IB2" s="298"/>
-      <c r="IC2" s="298"/>
-      <c r="ID2" s="298"/>
-      <c r="IE2" s="298"/>
-      <c r="IF2" s="298"/>
-      <c r="IG2" s="298"/>
-      <c r="IH2" s="298"/>
-      <c r="II2" s="298"/>
-      <c r="IJ2" s="298"/>
-      <c r="IK2" s="298"/>
-      <c r="IL2" s="298"/>
-      <c r="IM2" s="298"/>
-      <c r="IN2" s="298"/>
-      <c r="IO2" s="298"/>
-      <c r="IP2" s="298"/>
-      <c r="IQ2" s="299"/>
-      <c r="IR2" s="312" t="s">
+      <c r="HN2" s="296"/>
+      <c r="HO2" s="296"/>
+      <c r="HP2" s="296"/>
+      <c r="HQ2" s="296"/>
+      <c r="HR2" s="296"/>
+      <c r="HS2" s="296"/>
+      <c r="HT2" s="296"/>
+      <c r="HU2" s="296"/>
+      <c r="HV2" s="296"/>
+      <c r="HW2" s="296"/>
+      <c r="HX2" s="296"/>
+      <c r="HY2" s="296"/>
+      <c r="HZ2" s="296"/>
+      <c r="IA2" s="296"/>
+      <c r="IB2" s="296"/>
+      <c r="IC2" s="296"/>
+      <c r="ID2" s="296"/>
+      <c r="IE2" s="296"/>
+      <c r="IF2" s="296"/>
+      <c r="IG2" s="296"/>
+      <c r="IH2" s="296"/>
+      <c r="II2" s="296"/>
+      <c r="IJ2" s="296"/>
+      <c r="IK2" s="296"/>
+      <c r="IL2" s="296"/>
+      <c r="IM2" s="296"/>
+      <c r="IN2" s="296"/>
+      <c r="IO2" s="296"/>
+      <c r="IP2" s="296"/>
+      <c r="IQ2" s="297"/>
+      <c r="IR2" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="IS2" s="313"/>
-      <c r="IT2" s="313"/>
-      <c r="IU2" s="313"/>
-      <c r="IV2" s="313"/>
-      <c r="IW2" s="313"/>
-      <c r="IX2" s="313"/>
-      <c r="IY2" s="313"/>
-      <c r="IZ2" s="313"/>
-      <c r="JA2" s="313"/>
-      <c r="JB2" s="313"/>
-      <c r="JC2" s="313"/>
-      <c r="JD2" s="313"/>
-      <c r="JE2" s="313"/>
-      <c r="JF2" s="313"/>
-      <c r="JG2" s="313"/>
-      <c r="JH2" s="313"/>
-      <c r="JI2" s="313"/>
-      <c r="JJ2" s="313"/>
-      <c r="JK2" s="313"/>
-      <c r="JL2" s="313"/>
-      <c r="JM2" s="313"/>
-      <c r="JN2" s="313"/>
-      <c r="JO2" s="313"/>
-      <c r="JP2" s="313"/>
-      <c r="JQ2" s="313"/>
-      <c r="JR2" s="313"/>
-      <c r="JS2" s="313"/>
-      <c r="JT2" s="314" t="s">
+      <c r="IS2" s="283"/>
+      <c r="IT2" s="283"/>
+      <c r="IU2" s="283"/>
+      <c r="IV2" s="283"/>
+      <c r="IW2" s="283"/>
+      <c r="IX2" s="283"/>
+      <c r="IY2" s="283"/>
+      <c r="IZ2" s="283"/>
+      <c r="JA2" s="283"/>
+      <c r="JB2" s="283"/>
+      <c r="JC2" s="283"/>
+      <c r="JD2" s="283"/>
+      <c r="JE2" s="283"/>
+      <c r="JF2" s="283"/>
+      <c r="JG2" s="283"/>
+      <c r="JH2" s="283"/>
+      <c r="JI2" s="283"/>
+      <c r="JJ2" s="283"/>
+      <c r="JK2" s="283"/>
+      <c r="JL2" s="283"/>
+      <c r="JM2" s="283"/>
+      <c r="JN2" s="283"/>
+      <c r="JO2" s="283"/>
+      <c r="JP2" s="283"/>
+      <c r="JQ2" s="283"/>
+      <c r="JR2" s="283"/>
+      <c r="JS2" s="283"/>
+      <c r="JT2" s="284" t="s">
         <v>283</v>
       </c>
-      <c r="JU2" s="315"/>
-      <c r="JV2" s="315"/>
-      <c r="JW2" s="315"/>
-      <c r="JX2" s="315"/>
-      <c r="JY2" s="315"/>
-      <c r="JZ2" s="315"/>
-      <c r="KA2" s="315"/>
-      <c r="KB2" s="315"/>
-      <c r="KC2" s="315"/>
-      <c r="KD2" s="315"/>
-      <c r="KE2" s="315"/>
-      <c r="KF2" s="315"/>
-      <c r="KG2" s="315"/>
-      <c r="KH2" s="315"/>
-      <c r="KI2" s="315"/>
-      <c r="KJ2" s="315"/>
-      <c r="KK2" s="315"/>
-      <c r="KL2" s="315"/>
-      <c r="KM2" s="315"/>
-      <c r="KN2" s="315"/>
-      <c r="KO2" s="315"/>
-      <c r="KP2" s="315"/>
-      <c r="KQ2" s="315"/>
-      <c r="KR2" s="315"/>
-      <c r="KS2" s="315"/>
-      <c r="KT2" s="315"/>
-      <c r="KU2" s="315"/>
-      <c r="KV2" s="315"/>
-      <c r="KW2" s="315"/>
-      <c r="KX2" s="316"/>
-      <c r="KY2" s="322" t="s">
-        <v>325</v>
-      </c>
-      <c r="KZ2" s="323"/>
-      <c r="LA2" s="323"/>
-      <c r="LB2" s="323"/>
-      <c r="LC2" s="323"/>
-      <c r="LD2" s="323"/>
-      <c r="LE2" s="323"/>
-      <c r="LF2" s="323"/>
-      <c r="LG2" s="323"/>
-      <c r="LH2" s="323"/>
-      <c r="LI2" s="323"/>
-      <c r="LJ2" s="323"/>
-      <c r="LK2" s="323"/>
-      <c r="LL2" s="323"/>
-      <c r="LM2" s="323"/>
-      <c r="LN2" s="323"/>
-      <c r="LO2" s="323"/>
-      <c r="LP2" s="323"/>
-      <c r="LQ2" s="323"/>
-      <c r="LR2" s="323"/>
-      <c r="LS2" s="323"/>
-      <c r="LT2" s="323"/>
-      <c r="LU2" s="323"/>
-      <c r="LV2" s="323"/>
-      <c r="LW2" s="323"/>
-      <c r="LX2" s="323"/>
-      <c r="LY2" s="323"/>
-      <c r="LZ2" s="323"/>
-      <c r="MA2" s="323"/>
-      <c r="MB2" s="324"/>
-      <c r="MC2" s="322" t="s">
-        <v>332</v>
-      </c>
-      <c r="MD2" s="323"/>
-      <c r="ME2" s="323"/>
-      <c r="MF2" s="323"/>
-      <c r="MG2" s="323"/>
-      <c r="MH2" s="323"/>
-      <c r="MI2" s="323"/>
-      <c r="MJ2" s="323"/>
-      <c r="MK2" s="323"/>
-      <c r="ML2" s="323"/>
-      <c r="MM2" s="323"/>
-      <c r="MN2" s="323"/>
-      <c r="MO2" s="323"/>
-      <c r="MP2" s="323"/>
-      <c r="MQ2" s="323"/>
-      <c r="MR2" s="323"/>
-      <c r="MS2" s="323"/>
-      <c r="MT2" s="323"/>
-      <c r="MU2" s="323"/>
-      <c r="MV2" s="323"/>
-      <c r="MW2" s="323"/>
-      <c r="MX2" s="323"/>
-      <c r="MY2" s="323"/>
-      <c r="MZ2" s="323"/>
-      <c r="NA2" s="323"/>
-      <c r="NB2" s="323"/>
-      <c r="NC2" s="323"/>
-      <c r="ND2" s="323"/>
-      <c r="NE2" s="326"/>
-      <c r="NF2" s="326"/>
-      <c r="NG2" s="327"/>
-      <c r="NH2" s="322" t="s">
-        <v>349</v>
-      </c>
-      <c r="NI2" s="323"/>
-      <c r="NJ2" s="323"/>
-      <c r="NK2" s="323"/>
-      <c r="NL2" s="323"/>
-      <c r="NM2" s="323"/>
-      <c r="NN2" s="323"/>
-      <c r="NO2" s="323"/>
-      <c r="NP2" s="323"/>
-      <c r="NQ2" s="323"/>
-      <c r="NR2" s="323"/>
-      <c r="NS2" s="323"/>
-      <c r="NT2" s="323"/>
-      <c r="NU2" s="323"/>
-      <c r="NV2" s="323"/>
-      <c r="NW2" s="323"/>
-      <c r="NX2" s="323"/>
-      <c r="NY2" s="323"/>
-      <c r="NZ2" s="323"/>
-      <c r="OA2" s="323"/>
-      <c r="OB2" s="323"/>
-      <c r="OC2" s="323"/>
-      <c r="OD2" s="323"/>
-      <c r="OE2" s="323"/>
-      <c r="OF2" s="323"/>
-      <c r="OG2" s="323"/>
-      <c r="OH2" s="323"/>
-      <c r="OI2" s="323"/>
-      <c r="OJ2" s="323"/>
-      <c r="OK2" s="323"/>
-      <c r="OL2" s="332" t="s">
-        <v>376</v>
-      </c>
-      <c r="OM2" s="333"/>
-      <c r="ON2" s="333"/>
-      <c r="OO2" s="333"/>
-      <c r="OP2" s="333"/>
-      <c r="OQ2" s="333"/>
-      <c r="OR2" s="333"/>
-      <c r="OS2" s="333"/>
-      <c r="OT2" s="333"/>
-      <c r="OU2" s="333"/>
-      <c r="OV2" s="333"/>
-      <c r="OW2" s="333"/>
-      <c r="OX2" s="333"/>
-      <c r="OY2" s="333"/>
-      <c r="OZ2" s="333"/>
-      <c r="PA2" s="333"/>
-      <c r="PB2" s="333"/>
-      <c r="PC2" s="333"/>
-      <c r="PD2" s="333"/>
-      <c r="PE2" s="333"/>
-      <c r="PF2" s="333"/>
-      <c r="PG2" s="333"/>
-      <c r="PH2" s="333"/>
-      <c r="PI2" s="333"/>
-      <c r="PJ2" s="333"/>
-      <c r="PK2" s="333"/>
-      <c r="PL2" s="333"/>
-      <c r="PM2" s="333"/>
-      <c r="PN2" s="333"/>
-      <c r="PO2" s="333"/>
-      <c r="PP2" s="333"/>
-      <c r="PQ2" s="332" t="s">
-        <v>440</v>
-      </c>
-      <c r="PR2" s="333"/>
-      <c r="PS2" s="333"/>
-      <c r="PT2" s="333"/>
-      <c r="PU2" s="333"/>
-      <c r="PV2" s="333"/>
-      <c r="PW2" s="333"/>
-      <c r="PX2" s="333"/>
-      <c r="PY2" s="333"/>
-      <c r="PZ2" s="333"/>
-      <c r="QA2" s="333"/>
-      <c r="QB2" s="333"/>
-      <c r="QC2" s="333"/>
-      <c r="QD2" s="333"/>
-      <c r="QE2" s="333"/>
-      <c r="QF2" s="333"/>
-      <c r="QG2" s="333"/>
-      <c r="QH2" s="333"/>
-      <c r="QI2" s="333"/>
-      <c r="QJ2" s="333"/>
-      <c r="QK2" s="333"/>
-      <c r="QL2" s="333"/>
-      <c r="QM2" s="333"/>
-      <c r="QN2" s="333"/>
-      <c r="QO2" s="333"/>
-      <c r="QP2" s="333"/>
-      <c r="QQ2" s="333"/>
-      <c r="QR2" s="333"/>
-      <c r="QS2" s="333"/>
-      <c r="QT2" s="333"/>
-      <c r="QU2" s="333"/>
+      <c r="JU2" s="285"/>
+      <c r="JV2" s="285"/>
+      <c r="JW2" s="285"/>
+      <c r="JX2" s="285"/>
+      <c r="JY2" s="285"/>
+      <c r="JZ2" s="285"/>
+      <c r="KA2" s="285"/>
+      <c r="KB2" s="285"/>
+      <c r="KC2" s="285"/>
+      <c r="KD2" s="285"/>
+      <c r="KE2" s="285"/>
+      <c r="KF2" s="285"/>
+      <c r="KG2" s="285"/>
+      <c r="KH2" s="285"/>
+      <c r="KI2" s="285"/>
+      <c r="KJ2" s="285"/>
+      <c r="KK2" s="285"/>
+      <c r="KL2" s="285"/>
+      <c r="KM2" s="285"/>
+      <c r="KN2" s="285"/>
+      <c r="KO2" s="285"/>
+      <c r="KP2" s="285"/>
+      <c r="KQ2" s="285"/>
+      <c r="KR2" s="285"/>
+      <c r="KS2" s="285"/>
+      <c r="KT2" s="285"/>
+      <c r="KU2" s="285"/>
+      <c r="KV2" s="285"/>
+      <c r="KW2" s="285"/>
+      <c r="KX2" s="286"/>
+      <c r="KY2" s="293" t="s">
+        <v>324</v>
+      </c>
+      <c r="KZ2" s="294"/>
+      <c r="LA2" s="294"/>
+      <c r="LB2" s="294"/>
+      <c r="LC2" s="294"/>
+      <c r="LD2" s="294"/>
+      <c r="LE2" s="294"/>
+      <c r="LF2" s="294"/>
+      <c r="LG2" s="294"/>
+      <c r="LH2" s="294"/>
+      <c r="LI2" s="294"/>
+      <c r="LJ2" s="294"/>
+      <c r="LK2" s="294"/>
+      <c r="LL2" s="294"/>
+      <c r="LM2" s="294"/>
+      <c r="LN2" s="294"/>
+      <c r="LO2" s="294"/>
+      <c r="LP2" s="294"/>
+      <c r="LQ2" s="294"/>
+      <c r="LR2" s="294"/>
+      <c r="LS2" s="294"/>
+      <c r="LT2" s="294"/>
+      <c r="LU2" s="294"/>
+      <c r="LV2" s="294"/>
+      <c r="LW2" s="294"/>
+      <c r="LX2" s="294"/>
+      <c r="LY2" s="294"/>
+      <c r="LZ2" s="294"/>
+      <c r="MA2" s="294"/>
+      <c r="MB2" s="299"/>
+      <c r="MC2" s="293" t="s">
+        <v>331</v>
+      </c>
+      <c r="MD2" s="294"/>
+      <c r="ME2" s="294"/>
+      <c r="MF2" s="294"/>
+      <c r="MG2" s="294"/>
+      <c r="MH2" s="294"/>
+      <c r="MI2" s="294"/>
+      <c r="MJ2" s="294"/>
+      <c r="MK2" s="294"/>
+      <c r="ML2" s="294"/>
+      <c r="MM2" s="294"/>
+      <c r="MN2" s="294"/>
+      <c r="MO2" s="294"/>
+      <c r="MP2" s="294"/>
+      <c r="MQ2" s="294"/>
+      <c r="MR2" s="294"/>
+      <c r="MS2" s="294"/>
+      <c r="MT2" s="294"/>
+      <c r="MU2" s="294"/>
+      <c r="MV2" s="294"/>
+      <c r="MW2" s="294"/>
+      <c r="MX2" s="294"/>
+      <c r="MY2" s="294"/>
+      <c r="MZ2" s="294"/>
+      <c r="NA2" s="294"/>
+      <c r="NB2" s="294"/>
+      <c r="NC2" s="294"/>
+      <c r="ND2" s="294"/>
+      <c r="NE2" s="301"/>
+      <c r="NF2" s="301"/>
+      <c r="NG2" s="302"/>
+      <c r="NH2" s="293" t="s">
+        <v>348</v>
+      </c>
+      <c r="NI2" s="294"/>
+      <c r="NJ2" s="294"/>
+      <c r="NK2" s="294"/>
+      <c r="NL2" s="294"/>
+      <c r="NM2" s="294"/>
+      <c r="NN2" s="294"/>
+      <c r="NO2" s="294"/>
+      <c r="NP2" s="294"/>
+      <c r="NQ2" s="294"/>
+      <c r="NR2" s="294"/>
+      <c r="NS2" s="294"/>
+      <c r="NT2" s="294"/>
+      <c r="NU2" s="294"/>
+      <c r="NV2" s="294"/>
+      <c r="NW2" s="294"/>
+      <c r="NX2" s="294"/>
+      <c r="NY2" s="294"/>
+      <c r="NZ2" s="294"/>
+      <c r="OA2" s="294"/>
+      <c r="OB2" s="294"/>
+      <c r="OC2" s="294"/>
+      <c r="OD2" s="294"/>
+      <c r="OE2" s="294"/>
+      <c r="OF2" s="294"/>
+      <c r="OG2" s="294"/>
+      <c r="OH2" s="294"/>
+      <c r="OI2" s="294"/>
+      <c r="OJ2" s="294"/>
+      <c r="OK2" s="294"/>
+      <c r="OL2" s="270" t="s">
+        <v>375</v>
+      </c>
+      <c r="OM2" s="271"/>
+      <c r="ON2" s="271"/>
+      <c r="OO2" s="271"/>
+      <c r="OP2" s="271"/>
+      <c r="OQ2" s="271"/>
+      <c r="OR2" s="271"/>
+      <c r="OS2" s="271"/>
+      <c r="OT2" s="271"/>
+      <c r="OU2" s="271"/>
+      <c r="OV2" s="271"/>
+      <c r="OW2" s="271"/>
+      <c r="OX2" s="271"/>
+      <c r="OY2" s="271"/>
+      <c r="OZ2" s="271"/>
+      <c r="PA2" s="271"/>
+      <c r="PB2" s="271"/>
+      <c r="PC2" s="271"/>
+      <c r="PD2" s="271"/>
+      <c r="PE2" s="271"/>
+      <c r="PF2" s="271"/>
+      <c r="PG2" s="271"/>
+      <c r="PH2" s="271"/>
+      <c r="PI2" s="271"/>
+      <c r="PJ2" s="271"/>
+      <c r="PK2" s="271"/>
+      <c r="PL2" s="271"/>
+      <c r="PM2" s="271"/>
+      <c r="PN2" s="271"/>
+      <c r="PO2" s="271"/>
+      <c r="PP2" s="271"/>
+      <c r="PQ2" s="270" t="s">
+        <v>439</v>
+      </c>
+      <c r="PR2" s="271"/>
+      <c r="PS2" s="271"/>
+      <c r="PT2" s="271"/>
+      <c r="PU2" s="271"/>
+      <c r="PV2" s="271"/>
+      <c r="PW2" s="271"/>
+      <c r="PX2" s="271"/>
+      <c r="PY2" s="271"/>
+      <c r="PZ2" s="271"/>
+      <c r="QA2" s="271"/>
+      <c r="QB2" s="271"/>
+      <c r="QC2" s="271"/>
+      <c r="QD2" s="271"/>
+      <c r="QE2" s="271"/>
+      <c r="QF2" s="271"/>
+      <c r="QG2" s="271"/>
+      <c r="QH2" s="271"/>
+      <c r="QI2" s="271"/>
+      <c r="QJ2" s="271"/>
+      <c r="QK2" s="271"/>
+      <c r="QL2" s="271"/>
+      <c r="QM2" s="271"/>
+      <c r="QN2" s="271"/>
+      <c r="QO2" s="271"/>
+      <c r="QP2" s="271"/>
+      <c r="QQ2" s="271"/>
+      <c r="QR2" s="271"/>
+      <c r="QS2" s="271"/>
+      <c r="QT2" s="271"/>
+      <c r="QU2" s="271"/>
     </row>
     <row r="3" spans="1:497" ht="21" customHeight="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
+      <c r="A3" s="316"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
       <c r="D3" s="77">
         <v>31</v>
       </c>
@@ -9377,8 +9394,12 @@
       <c r="PP4" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ4" s="125"/>
-      <c r="PR4" s="125"/>
+      <c r="PQ4" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR4" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS4" s="125"/>
       <c r="PT4" s="125"/>
       <c r="PU4" s="125"/>
@@ -9430,575 +9451,577 @@
       <c r="C5" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="286"/>
-      <c r="T5" s="286"/>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="286"/>
-      <c r="AA5" s="286"/>
-      <c r="AB5" s="286"/>
-      <c r="AC5" s="286"/>
-      <c r="AD5" s="286"/>
-      <c r="AE5" s="286"/>
-      <c r="AF5" s="286"/>
-      <c r="AG5" s="286"/>
-      <c r="AH5" s="286"/>
-      <c r="AI5" s="286"/>
-      <c r="AJ5" s="286"/>
-      <c r="AK5" s="286"/>
-      <c r="AL5" s="286"/>
-      <c r="AM5" s="286"/>
-      <c r="AN5" s="286"/>
-      <c r="AO5" s="286"/>
-      <c r="AP5" s="286"/>
-      <c r="AQ5" s="286"/>
-      <c r="AR5" s="286"/>
-      <c r="AS5" s="286"/>
-      <c r="AT5" s="286"/>
-      <c r="AU5" s="286"/>
-      <c r="AV5" s="286"/>
-      <c r="AW5" s="286"/>
-      <c r="AX5" s="286"/>
-      <c r="AY5" s="286"/>
-      <c r="AZ5" s="286"/>
-      <c r="BA5" s="286"/>
-      <c r="BB5" s="286"/>
-      <c r="BC5" s="286"/>
-      <c r="BD5" s="286"/>
-      <c r="BE5" s="286"/>
-      <c r="BF5" s="286"/>
-      <c r="BG5" s="286"/>
-      <c r="BH5" s="286"/>
-      <c r="BI5" s="286"/>
-      <c r="BJ5" s="286"/>
-      <c r="BK5" s="286"/>
-      <c r="BL5" s="286"/>
-      <c r="BM5" s="286"/>
-      <c r="BN5" s="286"/>
-      <c r="BO5" s="286"/>
-      <c r="BP5" s="286"/>
-      <c r="BQ5" s="286"/>
-      <c r="BR5" s="286"/>
-      <c r="BS5" s="286"/>
-      <c r="BT5" s="286"/>
-      <c r="BU5" s="286"/>
-      <c r="BV5" s="286"/>
-      <c r="BW5" s="286"/>
-      <c r="BX5" s="286"/>
-      <c r="BY5" s="286"/>
-      <c r="BZ5" s="286"/>
-      <c r="CA5" s="286"/>
-      <c r="CB5" s="286"/>
-      <c r="CC5" s="286"/>
-      <c r="CD5" s="286"/>
-      <c r="CE5" s="286"/>
-      <c r="CF5" s="286"/>
-      <c r="CG5" s="286"/>
-      <c r="CH5" s="286"/>
-      <c r="CI5" s="286"/>
-      <c r="CJ5" s="286"/>
-      <c r="CK5" s="286"/>
-      <c r="CL5" s="286"/>
-      <c r="CM5" s="286"/>
-      <c r="CN5" s="286"/>
-      <c r="CO5" s="286"/>
-      <c r="CP5" s="286"/>
-      <c r="CQ5" s="286"/>
-      <c r="CR5" s="286"/>
-      <c r="CS5" s="286"/>
-      <c r="CT5" s="286"/>
-      <c r="CU5" s="286"/>
-      <c r="CV5" s="286"/>
-      <c r="CW5" s="286"/>
-      <c r="CX5" s="286"/>
-      <c r="CY5" s="286"/>
-      <c r="CZ5" s="286"/>
-      <c r="DA5" s="286"/>
-      <c r="DB5" s="286"/>
-      <c r="DC5" s="286"/>
-      <c r="DD5" s="286"/>
-      <c r="DE5" s="286"/>
-      <c r="DF5" s="286"/>
-      <c r="DG5" s="286"/>
-      <c r="DH5" s="286"/>
-      <c r="DI5" s="286"/>
-      <c r="DJ5" s="286"/>
-      <c r="DK5" s="286"/>
-      <c r="DL5" s="286"/>
-      <c r="DM5" s="286"/>
-      <c r="DN5" s="286"/>
-      <c r="DO5" s="279"/>
-      <c r="DP5" s="280"/>
-      <c r="DQ5" s="280"/>
-      <c r="DR5" s="280"/>
-      <c r="DS5" s="280"/>
-      <c r="DT5" s="280"/>
-      <c r="DU5" s="281"/>
-      <c r="DV5" s="279"/>
-      <c r="DW5" s="280"/>
-      <c r="DX5" s="280"/>
-      <c r="DY5" s="280"/>
-      <c r="DZ5" s="280"/>
-      <c r="EA5" s="280"/>
-      <c r="EB5" s="281"/>
-      <c r="EC5" s="279"/>
-      <c r="ED5" s="280"/>
-      <c r="EE5" s="280"/>
-      <c r="EF5" s="280"/>
-      <c r="EG5" s="280"/>
-      <c r="EH5" s="280"/>
-      <c r="EI5" s="281"/>
-      <c r="EJ5" s="279"/>
-      <c r="EK5" s="280"/>
-      <c r="EL5" s="280"/>
-      <c r="EM5" s="280"/>
-      <c r="EN5" s="280"/>
-      <c r="EO5" s="280"/>
-      <c r="EP5" s="281"/>
-      <c r="EQ5" s="279"/>
-      <c r="ER5" s="280"/>
-      <c r="ES5" s="280"/>
-      <c r="ET5" s="280"/>
-      <c r="EU5" s="280"/>
-      <c r="EV5" s="280"/>
-      <c r="EW5" s="281"/>
-      <c r="EX5" s="279"/>
-      <c r="EY5" s="280"/>
-      <c r="EZ5" s="280"/>
-      <c r="FA5" s="280"/>
-      <c r="FB5" s="280"/>
-      <c r="FC5" s="280"/>
-      <c r="FD5" s="281"/>
-      <c r="FE5" s="279"/>
-      <c r="FF5" s="280"/>
-      <c r="FG5" s="280"/>
-      <c r="FH5" s="280"/>
-      <c r="FI5" s="280"/>
-      <c r="FJ5" s="280"/>
-      <c r="FK5" s="281"/>
-      <c r="FL5" s="279"/>
-      <c r="FM5" s="280"/>
-      <c r="FN5" s="280"/>
-      <c r="FO5" s="280"/>
-      <c r="FP5" s="280"/>
-      <c r="FQ5" s="280"/>
-      <c r="FR5" s="281"/>
-      <c r="FS5" s="279"/>
-      <c r="FT5" s="280"/>
-      <c r="FU5" s="280"/>
-      <c r="FV5" s="280"/>
-      <c r="FW5" s="280"/>
-      <c r="FX5" s="280"/>
-      <c r="FY5" s="281"/>
-      <c r="FZ5" s="279"/>
-      <c r="GA5" s="280"/>
-      <c r="GB5" s="280"/>
-      <c r="GC5" s="280"/>
-      <c r="GD5" s="280"/>
-      <c r="GE5" s="280"/>
-      <c r="GF5" s="281"/>
-      <c r="GG5" s="271" t="s">
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="320"/>
+      <c r="P5" s="320"/>
+      <c r="Q5" s="320"/>
+      <c r="R5" s="320"/>
+      <c r="S5" s="320"/>
+      <c r="T5" s="320"/>
+      <c r="U5" s="320"/>
+      <c r="V5" s="320"/>
+      <c r="W5" s="320"/>
+      <c r="X5" s="320"/>
+      <c r="Y5" s="320"/>
+      <c r="Z5" s="320"/>
+      <c r="AA5" s="320"/>
+      <c r="AB5" s="320"/>
+      <c r="AC5" s="320"/>
+      <c r="AD5" s="320"/>
+      <c r="AE5" s="320"/>
+      <c r="AF5" s="320"/>
+      <c r="AG5" s="320"/>
+      <c r="AH5" s="320"/>
+      <c r="AI5" s="320"/>
+      <c r="AJ5" s="320"/>
+      <c r="AK5" s="320"/>
+      <c r="AL5" s="320"/>
+      <c r="AM5" s="320"/>
+      <c r="AN5" s="320"/>
+      <c r="AO5" s="320"/>
+      <c r="AP5" s="320"/>
+      <c r="AQ5" s="320"/>
+      <c r="AR5" s="320"/>
+      <c r="AS5" s="320"/>
+      <c r="AT5" s="320"/>
+      <c r="AU5" s="320"/>
+      <c r="AV5" s="320"/>
+      <c r="AW5" s="320"/>
+      <c r="AX5" s="320"/>
+      <c r="AY5" s="320"/>
+      <c r="AZ5" s="320"/>
+      <c r="BA5" s="320"/>
+      <c r="BB5" s="320"/>
+      <c r="BC5" s="320"/>
+      <c r="BD5" s="320"/>
+      <c r="BE5" s="320"/>
+      <c r="BF5" s="320"/>
+      <c r="BG5" s="320"/>
+      <c r="BH5" s="320"/>
+      <c r="BI5" s="320"/>
+      <c r="BJ5" s="320"/>
+      <c r="BK5" s="320"/>
+      <c r="BL5" s="320"/>
+      <c r="BM5" s="320"/>
+      <c r="BN5" s="320"/>
+      <c r="BO5" s="320"/>
+      <c r="BP5" s="320"/>
+      <c r="BQ5" s="320"/>
+      <c r="BR5" s="320"/>
+      <c r="BS5" s="320"/>
+      <c r="BT5" s="320"/>
+      <c r="BU5" s="320"/>
+      <c r="BV5" s="320"/>
+      <c r="BW5" s="320"/>
+      <c r="BX5" s="320"/>
+      <c r="BY5" s="320"/>
+      <c r="BZ5" s="320"/>
+      <c r="CA5" s="320"/>
+      <c r="CB5" s="320"/>
+      <c r="CC5" s="320"/>
+      <c r="CD5" s="320"/>
+      <c r="CE5" s="320"/>
+      <c r="CF5" s="320"/>
+      <c r="CG5" s="320"/>
+      <c r="CH5" s="320"/>
+      <c r="CI5" s="320"/>
+      <c r="CJ5" s="320"/>
+      <c r="CK5" s="320"/>
+      <c r="CL5" s="320"/>
+      <c r="CM5" s="320"/>
+      <c r="CN5" s="320"/>
+      <c r="CO5" s="320"/>
+      <c r="CP5" s="320"/>
+      <c r="CQ5" s="320"/>
+      <c r="CR5" s="320"/>
+      <c r="CS5" s="320"/>
+      <c r="CT5" s="320"/>
+      <c r="CU5" s="320"/>
+      <c r="CV5" s="320"/>
+      <c r="CW5" s="320"/>
+      <c r="CX5" s="320"/>
+      <c r="CY5" s="320"/>
+      <c r="CZ5" s="320"/>
+      <c r="DA5" s="320"/>
+      <c r="DB5" s="320"/>
+      <c r="DC5" s="320"/>
+      <c r="DD5" s="320"/>
+      <c r="DE5" s="320"/>
+      <c r="DF5" s="320"/>
+      <c r="DG5" s="320"/>
+      <c r="DH5" s="320"/>
+      <c r="DI5" s="320"/>
+      <c r="DJ5" s="320"/>
+      <c r="DK5" s="320"/>
+      <c r="DL5" s="320"/>
+      <c r="DM5" s="320"/>
+      <c r="DN5" s="320"/>
+      <c r="DO5" s="313"/>
+      <c r="DP5" s="314"/>
+      <c r="DQ5" s="314"/>
+      <c r="DR5" s="314"/>
+      <c r="DS5" s="314"/>
+      <c r="DT5" s="314"/>
+      <c r="DU5" s="315"/>
+      <c r="DV5" s="313"/>
+      <c r="DW5" s="314"/>
+      <c r="DX5" s="314"/>
+      <c r="DY5" s="314"/>
+      <c r="DZ5" s="314"/>
+      <c r="EA5" s="314"/>
+      <c r="EB5" s="315"/>
+      <c r="EC5" s="313"/>
+      <c r="ED5" s="314"/>
+      <c r="EE5" s="314"/>
+      <c r="EF5" s="314"/>
+      <c r="EG5" s="314"/>
+      <c r="EH5" s="314"/>
+      <c r="EI5" s="315"/>
+      <c r="EJ5" s="313"/>
+      <c r="EK5" s="314"/>
+      <c r="EL5" s="314"/>
+      <c r="EM5" s="314"/>
+      <c r="EN5" s="314"/>
+      <c r="EO5" s="314"/>
+      <c r="EP5" s="315"/>
+      <c r="EQ5" s="313"/>
+      <c r="ER5" s="314"/>
+      <c r="ES5" s="314"/>
+      <c r="ET5" s="314"/>
+      <c r="EU5" s="314"/>
+      <c r="EV5" s="314"/>
+      <c r="EW5" s="315"/>
+      <c r="EX5" s="313"/>
+      <c r="EY5" s="314"/>
+      <c r="EZ5" s="314"/>
+      <c r="FA5" s="314"/>
+      <c r="FB5" s="314"/>
+      <c r="FC5" s="314"/>
+      <c r="FD5" s="315"/>
+      <c r="FE5" s="313"/>
+      <c r="FF5" s="314"/>
+      <c r="FG5" s="314"/>
+      <c r="FH5" s="314"/>
+      <c r="FI5" s="314"/>
+      <c r="FJ5" s="314"/>
+      <c r="FK5" s="315"/>
+      <c r="FL5" s="313"/>
+      <c r="FM5" s="314"/>
+      <c r="FN5" s="314"/>
+      <c r="FO5" s="314"/>
+      <c r="FP5" s="314"/>
+      <c r="FQ5" s="314"/>
+      <c r="FR5" s="315"/>
+      <c r="FS5" s="313"/>
+      <c r="FT5" s="314"/>
+      <c r="FU5" s="314"/>
+      <c r="FV5" s="314"/>
+      <c r="FW5" s="314"/>
+      <c r="FX5" s="314"/>
+      <c r="FY5" s="315"/>
+      <c r="FZ5" s="313"/>
+      <c r="GA5" s="314"/>
+      <c r="GB5" s="314"/>
+      <c r="GC5" s="314"/>
+      <c r="GD5" s="314"/>
+      <c r="GE5" s="314"/>
+      <c r="GF5" s="315"/>
+      <c r="GG5" s="263" t="s">
         <v>189</v>
       </c>
-      <c r="GH5" s="272"/>
-      <c r="GI5" s="272"/>
-      <c r="GJ5" s="272"/>
-      <c r="GK5" s="272"/>
-      <c r="GL5" s="272"/>
-      <c r="GM5" s="273"/>
-      <c r="GN5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="GO5" s="272"/>
-      <c r="GP5" s="272"/>
-      <c r="GQ5" s="272"/>
-      <c r="GR5" s="272"/>
-      <c r="GS5" s="272"/>
-      <c r="GT5" s="273"/>
-      <c r="GU5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="GV5" s="272"/>
-      <c r="GW5" s="272"/>
-      <c r="GX5" s="272"/>
-      <c r="GY5" s="272"/>
-      <c r="GZ5" s="272"/>
-      <c r="HA5" s="273"/>
-      <c r="HB5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="HC5" s="272"/>
-      <c r="HD5" s="272"/>
-      <c r="HE5" s="272"/>
-      <c r="HF5" s="272"/>
-      <c r="HG5" s="272"/>
-      <c r="HH5" s="273"/>
-      <c r="HI5" s="329" t="s">
-        <v>188</v>
-      </c>
-      <c r="HJ5" s="330"/>
-      <c r="HK5" s="330"/>
-      <c r="HL5" s="330"/>
-      <c r="HM5" s="330"/>
-      <c r="HN5" s="330"/>
-      <c r="HO5" s="330"/>
-      <c r="HP5" s="330"/>
-      <c r="HQ5" s="331"/>
-      <c r="HR5" s="271" t="s">
+      <c r="GH5" s="264"/>
+      <c r="GI5" s="264"/>
+      <c r="GJ5" s="264"/>
+      <c r="GK5" s="264"/>
+      <c r="GL5" s="264"/>
+      <c r="GM5" s="265"/>
+      <c r="GN5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="GO5" s="264"/>
+      <c r="GP5" s="264"/>
+      <c r="GQ5" s="264"/>
+      <c r="GR5" s="264"/>
+      <c r="GS5" s="264"/>
+      <c r="GT5" s="265"/>
+      <c r="GU5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="GV5" s="264"/>
+      <c r="GW5" s="264"/>
+      <c r="GX5" s="264"/>
+      <c r="GY5" s="264"/>
+      <c r="GZ5" s="264"/>
+      <c r="HA5" s="265"/>
+      <c r="HB5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="HC5" s="264"/>
+      <c r="HD5" s="264"/>
+      <c r="HE5" s="264"/>
+      <c r="HF5" s="264"/>
+      <c r="HG5" s="264"/>
+      <c r="HH5" s="265"/>
+      <c r="HI5" s="279" t="s">
+        <v>188</v>
+      </c>
+      <c r="HJ5" s="280"/>
+      <c r="HK5" s="280"/>
+      <c r="HL5" s="280"/>
+      <c r="HM5" s="280"/>
+      <c r="HN5" s="280"/>
+      <c r="HO5" s="280"/>
+      <c r="HP5" s="280"/>
+      <c r="HQ5" s="281"/>
+      <c r="HR5" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="HS5" s="272"/>
-      <c r="HT5" s="272"/>
-      <c r="HU5" s="272"/>
-      <c r="HV5" s="272"/>
-      <c r="HW5" s="272"/>
-      <c r="HX5" s="273"/>
-      <c r="HY5" s="271" t="s">
+      <c r="HS5" s="264"/>
+      <c r="HT5" s="264"/>
+      <c r="HU5" s="264"/>
+      <c r="HV5" s="264"/>
+      <c r="HW5" s="264"/>
+      <c r="HX5" s="265"/>
+      <c r="HY5" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="HZ5" s="272"/>
-      <c r="IA5" s="272"/>
-      <c r="IB5" s="272"/>
-      <c r="IC5" s="272"/>
-      <c r="ID5" s="272"/>
-      <c r="IE5" s="273"/>
-      <c r="IF5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="IG5" s="272"/>
-      <c r="IH5" s="272"/>
-      <c r="II5" s="272"/>
-      <c r="IJ5" s="272"/>
-      <c r="IK5" s="272"/>
-      <c r="IL5" s="273"/>
-      <c r="IM5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="IN5" s="272"/>
-      <c r="IO5" s="272"/>
-      <c r="IP5" s="272"/>
-      <c r="IQ5" s="272"/>
-      <c r="IR5" s="272"/>
-      <c r="IS5" s="273"/>
-      <c r="IT5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="IU5" s="272"/>
-      <c r="IV5" s="272"/>
-      <c r="IW5" s="272"/>
-      <c r="IX5" s="272"/>
-      <c r="IY5" s="272"/>
-      <c r="IZ5" s="273"/>
-      <c r="JA5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="JB5" s="272"/>
-      <c r="JC5" s="272"/>
-      <c r="JD5" s="272"/>
-      <c r="JE5" s="272"/>
-      <c r="JF5" s="272"/>
-      <c r="JG5" s="273"/>
-      <c r="JH5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="JI5" s="272"/>
-      <c r="JJ5" s="272"/>
-      <c r="JK5" s="272"/>
-      <c r="JL5" s="272"/>
-      <c r="JM5" s="272"/>
-      <c r="JN5" s="273"/>
-      <c r="JO5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="JP5" s="272"/>
-      <c r="JQ5" s="272"/>
-      <c r="JR5" s="272"/>
-      <c r="JS5" s="272"/>
-      <c r="JT5" s="272"/>
-      <c r="JU5" s="273"/>
-      <c r="JV5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="JW5" s="272"/>
-      <c r="JX5" s="272"/>
-      <c r="JY5" s="272"/>
-      <c r="JZ5" s="272"/>
-      <c r="KA5" s="272"/>
-      <c r="KB5" s="273"/>
-      <c r="KC5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="KD5" s="272"/>
-      <c r="KE5" s="272"/>
-      <c r="KF5" s="272"/>
-      <c r="KG5" s="272"/>
-      <c r="KH5" s="272"/>
-      <c r="KI5" s="273"/>
-      <c r="KJ5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="KK5" s="272"/>
-      <c r="KL5" s="272"/>
-      <c r="KM5" s="272"/>
-      <c r="KN5" s="272"/>
-      <c r="KO5" s="272"/>
-      <c r="KP5" s="273"/>
-      <c r="KQ5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="KR5" s="272"/>
-      <c r="KS5" s="272"/>
-      <c r="KT5" s="272"/>
-      <c r="KU5" s="272"/>
-      <c r="KV5" s="272"/>
-      <c r="KW5" s="273"/>
-      <c r="KX5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="KY5" s="272"/>
-      <c r="KZ5" s="272"/>
-      <c r="LA5" s="272"/>
-      <c r="LB5" s="272"/>
-      <c r="LC5" s="272"/>
-      <c r="LD5" s="273"/>
-      <c r="LE5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="LF5" s="272"/>
-      <c r="LG5" s="272"/>
-      <c r="LH5" s="272"/>
-      <c r="LI5" s="272"/>
-      <c r="LJ5" s="272"/>
-      <c r="LK5" s="273"/>
-      <c r="LL5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="LM5" s="272"/>
-      <c r="LN5" s="272"/>
-      <c r="LO5" s="272"/>
-      <c r="LP5" s="272"/>
-      <c r="LQ5" s="272"/>
-      <c r="LR5" s="273"/>
-      <c r="LS5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="LT5" s="272"/>
-      <c r="LU5" s="272"/>
-      <c r="LV5" s="272"/>
-      <c r="LW5" s="272"/>
-      <c r="LX5" s="272"/>
-      <c r="LY5" s="273"/>
-      <c r="LZ5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="MA5" s="272"/>
-      <c r="MB5" s="272"/>
-      <c r="MC5" s="272"/>
-      <c r="MD5" s="272"/>
-      <c r="ME5" s="272"/>
-      <c r="MF5" s="273"/>
-      <c r="MG5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="MH5" s="272"/>
-      <c r="MI5" s="272"/>
-      <c r="MJ5" s="272"/>
-      <c r="MK5" s="272"/>
-      <c r="ML5" s="272"/>
-      <c r="MM5" s="273"/>
-      <c r="MN5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="MO5" s="272"/>
-      <c r="MP5" s="272"/>
-      <c r="MQ5" s="272"/>
-      <c r="MR5" s="272"/>
-      <c r="MS5" s="272"/>
-      <c r="MT5" s="273"/>
-      <c r="MU5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="MV5" s="272"/>
-      <c r="MW5" s="272"/>
-      <c r="MX5" s="272"/>
-      <c r="MY5" s="272"/>
-      <c r="MZ5" s="272"/>
-      <c r="NA5" s="273"/>
-      <c r="NB5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="NC5" s="272"/>
-      <c r="ND5" s="272"/>
-      <c r="NE5" s="272"/>
-      <c r="NF5" s="272"/>
-      <c r="NG5" s="272"/>
-      <c r="NH5" s="273"/>
-      <c r="NI5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="NJ5" s="272"/>
-      <c r="NK5" s="272"/>
-      <c r="NL5" s="272"/>
-      <c r="NM5" s="272"/>
-      <c r="NN5" s="272"/>
-      <c r="NO5" s="273"/>
-      <c r="NP5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="NQ5" s="272"/>
-      <c r="NR5" s="272"/>
-      <c r="NS5" s="272"/>
-      <c r="NT5" s="272"/>
-      <c r="NU5" s="272"/>
-      <c r="NV5" s="273"/>
-      <c r="NW5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="NX5" s="272"/>
-      <c r="NY5" s="272"/>
-      <c r="NZ5" s="272"/>
-      <c r="OA5" s="272"/>
-      <c r="OB5" s="272"/>
-      <c r="OC5" s="273"/>
-      <c r="OD5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="OE5" s="272"/>
-      <c r="OF5" s="272"/>
-      <c r="OG5" s="272"/>
-      <c r="OH5" s="272"/>
-      <c r="OI5" s="272"/>
-      <c r="OJ5" s="273"/>
-      <c r="OK5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="OL5" s="272"/>
-      <c r="OM5" s="272"/>
-      <c r="ON5" s="272"/>
-      <c r="OO5" s="272"/>
-      <c r="OP5" s="272"/>
-      <c r="OQ5" s="273"/>
-      <c r="OR5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="OS5" s="272"/>
-      <c r="OT5" s="272"/>
-      <c r="OU5" s="272"/>
-      <c r="OV5" s="272"/>
-      <c r="OW5" s="272"/>
-      <c r="OX5" s="273"/>
-      <c r="OY5" s="334" t="s">
-        <v>188</v>
-      </c>
-      <c r="OZ5" s="335"/>
-      <c r="PA5" s="335"/>
-      <c r="PB5" s="335"/>
-      <c r="PC5" s="335"/>
-      <c r="PD5" s="335"/>
-      <c r="PE5" s="271" t="s">
-        <v>188</v>
-      </c>
-      <c r="PF5" s="272"/>
-      <c r="PG5" s="272"/>
-      <c r="PH5" s="272"/>
-      <c r="PI5" s="272"/>
-      <c r="PJ5" s="272"/>
-      <c r="PK5" s="273"/>
-      <c r="PL5" s="271"/>
-      <c r="PM5" s="272"/>
-      <c r="PN5" s="272"/>
-      <c r="PO5" s="272"/>
-      <c r="PP5" s="272"/>
-      <c r="PQ5" s="272"/>
-      <c r="PR5" s="273"/>
-      <c r="PS5" s="271"/>
-      <c r="PT5" s="272"/>
-      <c r="PU5" s="272"/>
-      <c r="PV5" s="272"/>
-      <c r="PW5" s="272"/>
-      <c r="PX5" s="272"/>
-      <c r="PY5" s="273"/>
-      <c r="PZ5" s="271"/>
-      <c r="QA5" s="272"/>
-      <c r="QB5" s="272"/>
-      <c r="QC5" s="272"/>
-      <c r="QD5" s="272"/>
-      <c r="QE5" s="272"/>
-      <c r="QF5" s="273"/>
-      <c r="QG5" s="271"/>
-      <c r="QH5" s="272"/>
-      <c r="QI5" s="272"/>
-      <c r="QJ5" s="272"/>
-      <c r="QK5" s="272"/>
-      <c r="QL5" s="272"/>
-      <c r="QM5" s="273"/>
-      <c r="QN5" s="271"/>
-      <c r="QO5" s="272"/>
-      <c r="QP5" s="272"/>
-      <c r="QQ5" s="272"/>
-      <c r="QR5" s="272"/>
-      <c r="QS5" s="272"/>
-      <c r="QT5" s="273"/>
-      <c r="QU5" s="271"/>
-      <c r="QV5" s="272"/>
-      <c r="QW5" s="272"/>
-      <c r="QX5" s="272"/>
-      <c r="QY5" s="272"/>
-      <c r="QZ5" s="272"/>
-      <c r="RA5" s="273"/>
-      <c r="RB5" s="271"/>
-      <c r="RC5" s="272"/>
-      <c r="RD5" s="272"/>
-      <c r="RE5" s="272"/>
-      <c r="RF5" s="272"/>
-      <c r="RG5" s="272"/>
-      <c r="RH5" s="273"/>
-      <c r="RI5" s="271"/>
-      <c r="RJ5" s="272"/>
-      <c r="RK5" s="272"/>
-      <c r="RL5" s="272"/>
-      <c r="RM5" s="272"/>
-      <c r="RN5" s="272"/>
-      <c r="RO5" s="273"/>
-      <c r="RP5" s="271"/>
-      <c r="RQ5" s="272"/>
-      <c r="RR5" s="272"/>
-      <c r="RS5" s="272"/>
-      <c r="RT5" s="272"/>
-      <c r="RU5" s="272"/>
-      <c r="RV5" s="273"/>
-      <c r="RW5" s="271"/>
-      <c r="RX5" s="272"/>
-      <c r="RY5" s="272"/>
-      <c r="RZ5" s="272"/>
-      <c r="SA5" s="272"/>
-      <c r="SB5" s="272"/>
-      <c r="SC5" s="273"/>
+      <c r="HZ5" s="264"/>
+      <c r="IA5" s="264"/>
+      <c r="IB5" s="264"/>
+      <c r="IC5" s="264"/>
+      <c r="ID5" s="264"/>
+      <c r="IE5" s="265"/>
+      <c r="IF5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="IG5" s="264"/>
+      <c r="IH5" s="264"/>
+      <c r="II5" s="264"/>
+      <c r="IJ5" s="264"/>
+      <c r="IK5" s="264"/>
+      <c r="IL5" s="265"/>
+      <c r="IM5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="IN5" s="264"/>
+      <c r="IO5" s="264"/>
+      <c r="IP5" s="264"/>
+      <c r="IQ5" s="264"/>
+      <c r="IR5" s="264"/>
+      <c r="IS5" s="265"/>
+      <c r="IT5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="IU5" s="264"/>
+      <c r="IV5" s="264"/>
+      <c r="IW5" s="264"/>
+      <c r="IX5" s="264"/>
+      <c r="IY5" s="264"/>
+      <c r="IZ5" s="265"/>
+      <c r="JA5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="JB5" s="264"/>
+      <c r="JC5" s="264"/>
+      <c r="JD5" s="264"/>
+      <c r="JE5" s="264"/>
+      <c r="JF5" s="264"/>
+      <c r="JG5" s="265"/>
+      <c r="JH5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="JI5" s="264"/>
+      <c r="JJ5" s="264"/>
+      <c r="JK5" s="264"/>
+      <c r="JL5" s="264"/>
+      <c r="JM5" s="264"/>
+      <c r="JN5" s="265"/>
+      <c r="JO5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="JP5" s="264"/>
+      <c r="JQ5" s="264"/>
+      <c r="JR5" s="264"/>
+      <c r="JS5" s="264"/>
+      <c r="JT5" s="264"/>
+      <c r="JU5" s="265"/>
+      <c r="JV5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="JW5" s="264"/>
+      <c r="JX5" s="264"/>
+      <c r="JY5" s="264"/>
+      <c r="JZ5" s="264"/>
+      <c r="KA5" s="264"/>
+      <c r="KB5" s="265"/>
+      <c r="KC5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="KD5" s="264"/>
+      <c r="KE5" s="264"/>
+      <c r="KF5" s="264"/>
+      <c r="KG5" s="264"/>
+      <c r="KH5" s="264"/>
+      <c r="KI5" s="265"/>
+      <c r="KJ5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="KK5" s="264"/>
+      <c r="KL5" s="264"/>
+      <c r="KM5" s="264"/>
+      <c r="KN5" s="264"/>
+      <c r="KO5" s="264"/>
+      <c r="KP5" s="265"/>
+      <c r="KQ5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="KR5" s="264"/>
+      <c r="KS5" s="264"/>
+      <c r="KT5" s="264"/>
+      <c r="KU5" s="264"/>
+      <c r="KV5" s="264"/>
+      <c r="KW5" s="265"/>
+      <c r="KX5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="KY5" s="264"/>
+      <c r="KZ5" s="264"/>
+      <c r="LA5" s="264"/>
+      <c r="LB5" s="264"/>
+      <c r="LC5" s="264"/>
+      <c r="LD5" s="265"/>
+      <c r="LE5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="LF5" s="264"/>
+      <c r="LG5" s="264"/>
+      <c r="LH5" s="264"/>
+      <c r="LI5" s="264"/>
+      <c r="LJ5" s="264"/>
+      <c r="LK5" s="265"/>
+      <c r="LL5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="LM5" s="264"/>
+      <c r="LN5" s="264"/>
+      <c r="LO5" s="264"/>
+      <c r="LP5" s="264"/>
+      <c r="LQ5" s="264"/>
+      <c r="LR5" s="265"/>
+      <c r="LS5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="LT5" s="264"/>
+      <c r="LU5" s="264"/>
+      <c r="LV5" s="264"/>
+      <c r="LW5" s="264"/>
+      <c r="LX5" s="264"/>
+      <c r="LY5" s="265"/>
+      <c r="LZ5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="MA5" s="264"/>
+      <c r="MB5" s="264"/>
+      <c r="MC5" s="264"/>
+      <c r="MD5" s="264"/>
+      <c r="ME5" s="264"/>
+      <c r="MF5" s="265"/>
+      <c r="MG5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="MH5" s="264"/>
+      <c r="MI5" s="264"/>
+      <c r="MJ5" s="264"/>
+      <c r="MK5" s="264"/>
+      <c r="ML5" s="264"/>
+      <c r="MM5" s="265"/>
+      <c r="MN5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="MO5" s="264"/>
+      <c r="MP5" s="264"/>
+      <c r="MQ5" s="264"/>
+      <c r="MR5" s="264"/>
+      <c r="MS5" s="264"/>
+      <c r="MT5" s="265"/>
+      <c r="MU5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="MV5" s="264"/>
+      <c r="MW5" s="264"/>
+      <c r="MX5" s="264"/>
+      <c r="MY5" s="264"/>
+      <c r="MZ5" s="264"/>
+      <c r="NA5" s="265"/>
+      <c r="NB5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="NC5" s="264"/>
+      <c r="ND5" s="264"/>
+      <c r="NE5" s="264"/>
+      <c r="NF5" s="264"/>
+      <c r="NG5" s="264"/>
+      <c r="NH5" s="265"/>
+      <c r="NI5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="NJ5" s="264"/>
+      <c r="NK5" s="264"/>
+      <c r="NL5" s="264"/>
+      <c r="NM5" s="264"/>
+      <c r="NN5" s="264"/>
+      <c r="NO5" s="265"/>
+      <c r="NP5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="NQ5" s="264"/>
+      <c r="NR5" s="264"/>
+      <c r="NS5" s="264"/>
+      <c r="NT5" s="264"/>
+      <c r="NU5" s="264"/>
+      <c r="NV5" s="265"/>
+      <c r="NW5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="NX5" s="264"/>
+      <c r="NY5" s="264"/>
+      <c r="NZ5" s="264"/>
+      <c r="OA5" s="264"/>
+      <c r="OB5" s="264"/>
+      <c r="OC5" s="265"/>
+      <c r="OD5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="OE5" s="264"/>
+      <c r="OF5" s="264"/>
+      <c r="OG5" s="264"/>
+      <c r="OH5" s="264"/>
+      <c r="OI5" s="264"/>
+      <c r="OJ5" s="265"/>
+      <c r="OK5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="OL5" s="264"/>
+      <c r="OM5" s="264"/>
+      <c r="ON5" s="264"/>
+      <c r="OO5" s="264"/>
+      <c r="OP5" s="264"/>
+      <c r="OQ5" s="265"/>
+      <c r="OR5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="OS5" s="264"/>
+      <c r="OT5" s="264"/>
+      <c r="OU5" s="264"/>
+      <c r="OV5" s="264"/>
+      <c r="OW5" s="264"/>
+      <c r="OX5" s="265"/>
+      <c r="OY5" s="272" t="s">
+        <v>188</v>
+      </c>
+      <c r="OZ5" s="273"/>
+      <c r="PA5" s="273"/>
+      <c r="PB5" s="273"/>
+      <c r="PC5" s="273"/>
+      <c r="PD5" s="273"/>
+      <c r="PE5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="PF5" s="264"/>
+      <c r="PG5" s="264"/>
+      <c r="PH5" s="264"/>
+      <c r="PI5" s="264"/>
+      <c r="PJ5" s="264"/>
+      <c r="PK5" s="265"/>
+      <c r="PL5" s="263" t="s">
+        <v>188</v>
+      </c>
+      <c r="PM5" s="264"/>
+      <c r="PN5" s="264"/>
+      <c r="PO5" s="264"/>
+      <c r="PP5" s="264"/>
+      <c r="PQ5" s="264"/>
+      <c r="PR5" s="265"/>
+      <c r="PS5" s="263"/>
+      <c r="PT5" s="264"/>
+      <c r="PU5" s="264"/>
+      <c r="PV5" s="264"/>
+      <c r="PW5" s="264"/>
+      <c r="PX5" s="264"/>
+      <c r="PY5" s="265"/>
+      <c r="PZ5" s="263"/>
+      <c r="QA5" s="264"/>
+      <c r="QB5" s="264"/>
+      <c r="QC5" s="264"/>
+      <c r="QD5" s="264"/>
+      <c r="QE5" s="264"/>
+      <c r="QF5" s="265"/>
+      <c r="QG5" s="263"/>
+      <c r="QH5" s="264"/>
+      <c r="QI5" s="264"/>
+      <c r="QJ5" s="264"/>
+      <c r="QK5" s="264"/>
+      <c r="QL5" s="264"/>
+      <c r="QM5" s="265"/>
+      <c r="QN5" s="263"/>
+      <c r="QO5" s="264"/>
+      <c r="QP5" s="264"/>
+      <c r="QQ5" s="264"/>
+      <c r="QR5" s="264"/>
+      <c r="QS5" s="264"/>
+      <c r="QT5" s="265"/>
+      <c r="QU5" s="263"/>
+      <c r="QV5" s="264"/>
+      <c r="QW5" s="264"/>
+      <c r="QX5" s="264"/>
+      <c r="QY5" s="264"/>
+      <c r="QZ5" s="264"/>
+      <c r="RA5" s="265"/>
+      <c r="RB5" s="263"/>
+      <c r="RC5" s="264"/>
+      <c r="RD5" s="264"/>
+      <c r="RE5" s="264"/>
+      <c r="RF5" s="264"/>
+      <c r="RG5" s="264"/>
+      <c r="RH5" s="265"/>
+      <c r="RI5" s="263"/>
+      <c r="RJ5" s="264"/>
+      <c r="RK5" s="264"/>
+      <c r="RL5" s="264"/>
+      <c r="RM5" s="264"/>
+      <c r="RN5" s="264"/>
+      <c r="RO5" s="265"/>
+      <c r="RP5" s="263"/>
+      <c r="RQ5" s="264"/>
+      <c r="RR5" s="264"/>
+      <c r="RS5" s="264"/>
+      <c r="RT5" s="264"/>
+      <c r="RU5" s="264"/>
+      <c r="RV5" s="265"/>
+      <c r="RW5" s="263"/>
+      <c r="RX5" s="264"/>
+      <c r="RY5" s="264"/>
+      <c r="RZ5" s="264"/>
+      <c r="SA5" s="264"/>
+      <c r="SB5" s="264"/>
+      <c r="SC5" s="265"/>
     </row>
     <row r="6" spans="1:497" ht="43.5" customHeight="1">
       <c r="A6" s="148" t="s">
         <v>152</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>138</v>
@@ -10572,8 +10595,12 @@
       <c r="PP6" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ6" s="226"/>
-      <c r="PR6" s="226"/>
+      <c r="PQ6" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR6" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS6" s="226"/>
       <c r="PT6" s="226"/>
       <c r="PU6" s="226"/>
@@ -10620,7 +10647,7 @@
         <v>153</v>
       </c>
       <c r="B7" s="250" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>138</v>
@@ -11224,8 +11251,12 @@
       <c r="PP7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ7" s="226"/>
-      <c r="PR7" s="226"/>
+      <c r="PQ7" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR7" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS7" s="226"/>
       <c r="PT7" s="226"/>
       <c r="PU7" s="226"/>
@@ -12090,8 +12121,12 @@
       <c r="PP8" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ8" s="226"/>
-      <c r="PR8" s="226"/>
+      <c r="PQ8" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR8" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS8" s="226"/>
       <c r="PT8" s="226"/>
       <c r="PU8" s="226"/>
@@ -12878,8 +12913,12 @@
       <c r="PP9" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ9" s="226"/>
-      <c r="PR9" s="226"/>
+      <c r="PQ9" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR9" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS9" s="226"/>
       <c r="PT9" s="226"/>
       <c r="PU9" s="226"/>
@@ -12926,7 +12965,7 @@
         <v>153</v>
       </c>
       <c r="B10" s="230" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>138</v>
@@ -13488,8 +13527,12 @@
       <c r="PP10" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ10" s="226"/>
-      <c r="PR10" s="226"/>
+      <c r="PQ10" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR10" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS10" s="226"/>
       <c r="PT10" s="226"/>
       <c r="PU10" s="226"/>
@@ -13536,7 +13579,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>138</v>
@@ -13961,8 +14004,12 @@
       <c r="PP11" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ11" s="226"/>
-      <c r="PR11" s="226"/>
+      <c r="PQ11" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR11" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS11" s="226"/>
       <c r="PT11" s="226"/>
       <c r="PU11" s="226"/>
@@ -14009,7 +14056,7 @@
         <v>153</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>138</v>
@@ -14395,8 +14442,12 @@
       <c r="PP12" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="PQ12" s="226"/>
-      <c r="PR12" s="226"/>
+      <c r="PQ12" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR12" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS12" s="226"/>
       <c r="PT12" s="226"/>
       <c r="PU12" s="226"/>
@@ -15147,8 +15198,12 @@
       </c>
       <c r="PO13" s="156"/>
       <c r="PP13" s="156"/>
-      <c r="PQ13" s="226"/>
-      <c r="PR13" s="226"/>
+      <c r="PQ13" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PR13" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PS13" s="226"/>
       <c r="PT13" s="226"/>
       <c r="PU13" s="226"/>
@@ -15981,7 +16036,9 @@
         <v>188</v>
       </c>
       <c r="PP14" s="156"/>
-      <c r="PQ14" s="125"/>
+      <c r="PQ14" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PR14" s="125"/>
       <c r="PS14" s="125"/>
       <c r="PT14" s="125"/>
@@ -16032,588 +16089,590 @@
         <v>45</v>
       </c>
       <c r="C15" s="229" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="284" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="284"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284" t="s">
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
+      <c r="J15" s="330"/>
+      <c r="K15" s="330" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="284"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="284"/>
-      <c r="O15" s="284"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="284" t="s">
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="330" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="284"/>
-      <c r="T15" s="284"/>
-      <c r="U15" s="284"/>
-      <c r="V15" s="284"/>
-      <c r="W15" s="284"/>
-      <c r="X15" s="284"/>
-      <c r="Y15" s="285" t="s">
+      <c r="S15" s="330"/>
+      <c r="T15" s="330"/>
+      <c r="U15" s="330"/>
+      <c r="V15" s="330"/>
+      <c r="W15" s="330"/>
+      <c r="X15" s="330"/>
+      <c r="Y15" s="329" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="284"/>
-      <c r="AA15" s="284"/>
-      <c r="AB15" s="284"/>
-      <c r="AC15" s="284"/>
-      <c r="AD15" s="284"/>
-      <c r="AE15" s="284"/>
-      <c r="AF15" s="285" t="s">
+      <c r="Z15" s="330"/>
+      <c r="AA15" s="330"/>
+      <c r="AB15" s="330"/>
+      <c r="AC15" s="330"/>
+      <c r="AD15" s="330"/>
+      <c r="AE15" s="330"/>
+      <c r="AF15" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="AG15" s="284"/>
-      <c r="AH15" s="284"/>
-      <c r="AI15" s="284"/>
-      <c r="AJ15" s="284"/>
-      <c r="AK15" s="284"/>
-      <c r="AL15" s="284"/>
-      <c r="AM15" s="285" t="s">
+      <c r="AG15" s="330"/>
+      <c r="AH15" s="330"/>
+      <c r="AI15" s="330"/>
+      <c r="AJ15" s="330"/>
+      <c r="AK15" s="330"/>
+      <c r="AL15" s="330"/>
+      <c r="AM15" s="329" t="s">
         <v>44</v>
       </c>
-      <c r="AN15" s="284"/>
-      <c r="AO15" s="284"/>
-      <c r="AP15" s="284"/>
-      <c r="AQ15" s="284"/>
-      <c r="AR15" s="284"/>
-      <c r="AS15" s="284"/>
-      <c r="AT15" s="285" t="s">
+      <c r="AN15" s="330"/>
+      <c r="AO15" s="330"/>
+      <c r="AP15" s="330"/>
+      <c r="AQ15" s="330"/>
+      <c r="AR15" s="330"/>
+      <c r="AS15" s="330"/>
+      <c r="AT15" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="AU15" s="284"/>
-      <c r="AV15" s="284"/>
-      <c r="AW15" s="284"/>
-      <c r="AX15" s="284"/>
-      <c r="AY15" s="284"/>
-      <c r="AZ15" s="284"/>
-      <c r="BA15" s="285" t="s">
+      <c r="AU15" s="330"/>
+      <c r="AV15" s="330"/>
+      <c r="AW15" s="330"/>
+      <c r="AX15" s="330"/>
+      <c r="AY15" s="330"/>
+      <c r="AZ15" s="330"/>
+      <c r="BA15" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="BB15" s="284"/>
-      <c r="BC15" s="284"/>
-      <c r="BD15" s="284"/>
-      <c r="BE15" s="284"/>
-      <c r="BF15" s="284"/>
-      <c r="BG15" s="284"/>
-      <c r="BH15" s="285" t="s">
+      <c r="BB15" s="330"/>
+      <c r="BC15" s="330"/>
+      <c r="BD15" s="330"/>
+      <c r="BE15" s="330"/>
+      <c r="BF15" s="330"/>
+      <c r="BG15" s="330"/>
+      <c r="BH15" s="329" t="s">
         <v>93</v>
       </c>
-      <c r="BI15" s="284"/>
-      <c r="BJ15" s="284"/>
-      <c r="BK15" s="284"/>
-      <c r="BL15" s="284"/>
-      <c r="BM15" s="284"/>
-      <c r="BN15" s="284"/>
-      <c r="BO15" s="285" t="s">
+      <c r="BI15" s="330"/>
+      <c r="BJ15" s="330"/>
+      <c r="BK15" s="330"/>
+      <c r="BL15" s="330"/>
+      <c r="BM15" s="330"/>
+      <c r="BN15" s="330"/>
+      <c r="BO15" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="BP15" s="284"/>
-      <c r="BQ15" s="284"/>
-      <c r="BR15" s="284"/>
-      <c r="BS15" s="284"/>
-      <c r="BT15" s="284"/>
-      <c r="BU15" s="284"/>
-      <c r="BV15" s="285" t="s">
+      <c r="BP15" s="330"/>
+      <c r="BQ15" s="330"/>
+      <c r="BR15" s="330"/>
+      <c r="BS15" s="330"/>
+      <c r="BT15" s="330"/>
+      <c r="BU15" s="330"/>
+      <c r="BV15" s="329" t="s">
         <v>0</v>
       </c>
-      <c r="BW15" s="284"/>
-      <c r="BX15" s="284"/>
-      <c r="BY15" s="284"/>
-      <c r="BZ15" s="284"/>
-      <c r="CA15" s="284"/>
-      <c r="CB15" s="284"/>
-      <c r="CC15" s="285" t="s">
+      <c r="BW15" s="330"/>
+      <c r="BX15" s="330"/>
+      <c r="BY15" s="330"/>
+      <c r="BZ15" s="330"/>
+      <c r="CA15" s="330"/>
+      <c r="CB15" s="330"/>
+      <c r="CC15" s="329" t="s">
         <v>74</v>
       </c>
-      <c r="CD15" s="284"/>
-      <c r="CE15" s="284"/>
-      <c r="CF15" s="284"/>
-      <c r="CG15" s="284"/>
-      <c r="CH15" s="284"/>
-      <c r="CI15" s="284"/>
-      <c r="CJ15" s="285" t="s">
+      <c r="CD15" s="330"/>
+      <c r="CE15" s="330"/>
+      <c r="CF15" s="330"/>
+      <c r="CG15" s="330"/>
+      <c r="CH15" s="330"/>
+      <c r="CI15" s="330"/>
+      <c r="CJ15" s="329" t="s">
         <v>17</v>
       </c>
-      <c r="CK15" s="284"/>
-      <c r="CL15" s="284"/>
-      <c r="CM15" s="284"/>
-      <c r="CN15" s="284"/>
-      <c r="CO15" s="284"/>
-      <c r="CP15" s="284"/>
-      <c r="CQ15" s="285" t="s">
+      <c r="CK15" s="330"/>
+      <c r="CL15" s="330"/>
+      <c r="CM15" s="330"/>
+      <c r="CN15" s="330"/>
+      <c r="CO15" s="330"/>
+      <c r="CP15" s="330"/>
+      <c r="CQ15" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="CR15" s="284"/>
-      <c r="CS15" s="284"/>
-      <c r="CT15" s="284"/>
-      <c r="CU15" s="284"/>
-      <c r="CV15" s="284"/>
-      <c r="CW15" s="284"/>
-      <c r="CX15" s="285" t="s">
+      <c r="CR15" s="330"/>
+      <c r="CS15" s="330"/>
+      <c r="CT15" s="330"/>
+      <c r="CU15" s="330"/>
+      <c r="CV15" s="330"/>
+      <c r="CW15" s="330"/>
+      <c r="CX15" s="329" t="s">
         <v>124</v>
       </c>
-      <c r="CY15" s="284"/>
-      <c r="CZ15" s="284"/>
-      <c r="DA15" s="284"/>
-      <c r="DB15" s="284"/>
-      <c r="DC15" s="284"/>
-      <c r="DD15" s="284"/>
-      <c r="DE15" s="285" t="s">
+      <c r="CY15" s="330"/>
+      <c r="CZ15" s="330"/>
+      <c r="DA15" s="330"/>
+      <c r="DB15" s="330"/>
+      <c r="DC15" s="330"/>
+      <c r="DD15" s="330"/>
+      <c r="DE15" s="329" t="s">
         <v>94</v>
       </c>
-      <c r="DF15" s="284"/>
-      <c r="DG15" s="284"/>
-      <c r="DH15" s="284"/>
-      <c r="DI15" s="284"/>
-      <c r="DJ15" s="284"/>
-      <c r="DK15" s="284"/>
-      <c r="DL15" s="285" t="s">
+      <c r="DF15" s="330"/>
+      <c r="DG15" s="330"/>
+      <c r="DH15" s="330"/>
+      <c r="DI15" s="330"/>
+      <c r="DJ15" s="330"/>
+      <c r="DK15" s="330"/>
+      <c r="DL15" s="329" t="s">
         <v>130</v>
       </c>
-      <c r="DM15" s="284"/>
-      <c r="DN15" s="284"/>
-      <c r="DO15" s="284"/>
-      <c r="DP15" s="284"/>
-      <c r="DQ15" s="284"/>
-      <c r="DR15" s="284"/>
-      <c r="DS15" s="290" t="s">
+      <c r="DM15" s="330"/>
+      <c r="DN15" s="330"/>
+      <c r="DO15" s="330"/>
+      <c r="DP15" s="330"/>
+      <c r="DQ15" s="330"/>
+      <c r="DR15" s="330"/>
+      <c r="DS15" s="332" t="s">
         <v>129</v>
       </c>
-      <c r="DT15" s="291"/>
-      <c r="DU15" s="291"/>
-      <c r="DV15" s="291"/>
-      <c r="DW15" s="291"/>
-      <c r="DX15" s="291"/>
-      <c r="DY15" s="291"/>
-      <c r="DZ15" s="305" t="s">
+      <c r="DT15" s="333"/>
+      <c r="DU15" s="333"/>
+      <c r="DV15" s="333"/>
+      <c r="DW15" s="333"/>
+      <c r="DX15" s="333"/>
+      <c r="DY15" s="333"/>
+      <c r="DZ15" s="328" t="s">
         <v>131</v>
       </c>
-      <c r="EA15" s="293"/>
-      <c r="EB15" s="293"/>
-      <c r="EC15" s="293"/>
-      <c r="ED15" s="293"/>
-      <c r="EE15" s="293"/>
-      <c r="EF15" s="293"/>
-      <c r="EG15" s="292" t="s">
+      <c r="EA15" s="319"/>
+      <c r="EB15" s="319"/>
+      <c r="EC15" s="319"/>
+      <c r="ED15" s="319"/>
+      <c r="EE15" s="319"/>
+      <c r="EF15" s="319"/>
+      <c r="EG15" s="318" t="s">
         <v>133</v>
       </c>
-      <c r="EH15" s="293"/>
-      <c r="EI15" s="293"/>
-      <c r="EJ15" s="293"/>
-      <c r="EK15" s="293"/>
-      <c r="EL15" s="293"/>
-      <c r="EM15" s="293"/>
-      <c r="EN15" s="292" t="s">
+      <c r="EH15" s="319"/>
+      <c r="EI15" s="319"/>
+      <c r="EJ15" s="319"/>
+      <c r="EK15" s="319"/>
+      <c r="EL15" s="319"/>
+      <c r="EM15" s="319"/>
+      <c r="EN15" s="318" t="s">
         <v>134</v>
       </c>
-      <c r="EO15" s="293"/>
-      <c r="EP15" s="293"/>
-      <c r="EQ15" s="293"/>
-      <c r="ER15" s="293"/>
-      <c r="ES15" s="293"/>
-      <c r="ET15" s="293"/>
-      <c r="EU15" s="292" t="s">
+      <c r="EO15" s="319"/>
+      <c r="EP15" s="319"/>
+      <c r="EQ15" s="319"/>
+      <c r="ER15" s="319"/>
+      <c r="ES15" s="319"/>
+      <c r="ET15" s="319"/>
+      <c r="EU15" s="318" t="s">
         <v>135</v>
       </c>
-      <c r="EV15" s="293"/>
-      <c r="EW15" s="293"/>
-      <c r="EX15" s="293"/>
-      <c r="EY15" s="293"/>
-      <c r="EZ15" s="293"/>
-      <c r="FA15" s="293"/>
-      <c r="FB15" s="302" t="s">
+      <c r="EV15" s="319"/>
+      <c r="EW15" s="319"/>
+      <c r="EX15" s="319"/>
+      <c r="EY15" s="319"/>
+      <c r="EZ15" s="319"/>
+      <c r="FA15" s="319"/>
+      <c r="FB15" s="325" t="s">
         <v>146</v>
       </c>
-      <c r="FC15" s="303"/>
-      <c r="FD15" s="303"/>
-      <c r="FE15" s="303"/>
-      <c r="FF15" s="303"/>
-      <c r="FG15" s="303"/>
-      <c r="FH15" s="304"/>
-      <c r="FI15" s="300" t="s">
+      <c r="FC15" s="326"/>
+      <c r="FD15" s="326"/>
+      <c r="FE15" s="326"/>
+      <c r="FF15" s="326"/>
+      <c r="FG15" s="326"/>
+      <c r="FH15" s="327"/>
+      <c r="FI15" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="FJ15" s="274"/>
-      <c r="FK15" s="274"/>
-      <c r="FL15" s="274"/>
-      <c r="FM15" s="274"/>
-      <c r="FN15" s="274"/>
-      <c r="FO15" s="301"/>
-      <c r="FP15" s="300" t="s">
+      <c r="FJ15" s="267"/>
+      <c r="FK15" s="267"/>
+      <c r="FL15" s="267"/>
+      <c r="FM15" s="267"/>
+      <c r="FN15" s="267"/>
+      <c r="FO15" s="324"/>
+      <c r="FP15" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="FQ15" s="274"/>
-      <c r="FR15" s="274"/>
-      <c r="FS15" s="274"/>
-      <c r="FT15" s="274"/>
-      <c r="FU15" s="274"/>
-      <c r="FV15" s="301"/>
-      <c r="FW15" s="302" t="s">
+      <c r="FQ15" s="267"/>
+      <c r="FR15" s="267"/>
+      <c r="FS15" s="267"/>
+      <c r="FT15" s="267"/>
+      <c r="FU15" s="267"/>
+      <c r="FV15" s="324"/>
+      <c r="FW15" s="325" t="s">
         <v>145</v>
       </c>
-      <c r="FX15" s="303"/>
-      <c r="FY15" s="303"/>
-      <c r="FZ15" s="303"/>
-      <c r="GA15" s="303"/>
-      <c r="GB15" s="303"/>
-      <c r="GC15" s="304"/>
-      <c r="GD15" s="300" t="s">
+      <c r="FX15" s="326"/>
+      <c r="FY15" s="326"/>
+      <c r="FZ15" s="326"/>
+      <c r="GA15" s="326"/>
+      <c r="GB15" s="326"/>
+      <c r="GC15" s="327"/>
+      <c r="GD15" s="308" t="s">
         <v>144</v>
       </c>
-      <c r="GE15" s="274"/>
-      <c r="GF15" s="274"/>
-      <c r="GG15" s="274"/>
-      <c r="GH15" s="275"/>
-      <c r="GI15" s="275"/>
-      <c r="GJ15" s="276"/>
-      <c r="GK15" s="307" t="s">
+      <c r="GE15" s="267"/>
+      <c r="GF15" s="267"/>
+      <c r="GG15" s="267"/>
+      <c r="GH15" s="268"/>
+      <c r="GI15" s="268"/>
+      <c r="GJ15" s="269"/>
+      <c r="GK15" s="305" t="s">
         <v>226</v>
       </c>
-      <c r="GL15" s="308"/>
-      <c r="GM15" s="308"/>
-      <c r="GN15" s="308"/>
-      <c r="GO15" s="308"/>
-      <c r="GP15" s="308"/>
-      <c r="GQ15" s="309"/>
-      <c r="GR15" s="300" t="s">
+      <c r="GL15" s="306"/>
+      <c r="GM15" s="306"/>
+      <c r="GN15" s="306"/>
+      <c r="GO15" s="306"/>
+      <c r="GP15" s="306"/>
+      <c r="GQ15" s="307"/>
+      <c r="GR15" s="308" t="s">
         <v>129</v>
       </c>
-      <c r="GS15" s="274"/>
-      <c r="GT15" s="274"/>
-      <c r="GU15" s="274"/>
-      <c r="GV15" s="275"/>
-      <c r="GW15" s="275"/>
-      <c r="GX15" s="276"/>
-      <c r="GY15" s="300" t="s">
+      <c r="GS15" s="267"/>
+      <c r="GT15" s="267"/>
+      <c r="GU15" s="267"/>
+      <c r="GV15" s="268"/>
+      <c r="GW15" s="268"/>
+      <c r="GX15" s="269"/>
+      <c r="GY15" s="308" t="s">
         <v>129</v>
       </c>
-      <c r="GZ15" s="274"/>
-      <c r="HA15" s="274"/>
-      <c r="HB15" s="274"/>
-      <c r="HC15" s="275"/>
-      <c r="HD15" s="275"/>
-      <c r="HE15" s="276"/>
-      <c r="HF15" s="310" t="s">
+      <c r="GZ15" s="267"/>
+      <c r="HA15" s="267"/>
+      <c r="HB15" s="267"/>
+      <c r="HC15" s="268"/>
+      <c r="HD15" s="268"/>
+      <c r="HE15" s="269"/>
+      <c r="HF15" s="309" t="s">
         <v>239</v>
       </c>
-      <c r="HG15" s="275"/>
-      <c r="HH15" s="275"/>
-      <c r="HI15" s="275"/>
-      <c r="HJ15" s="275"/>
-      <c r="HK15" s="275"/>
-      <c r="HL15" s="276"/>
-      <c r="HM15" s="328" t="s">
+      <c r="HG15" s="268"/>
+      <c r="HH15" s="268"/>
+      <c r="HI15" s="268"/>
+      <c r="HJ15" s="268"/>
+      <c r="HK15" s="268"/>
+      <c r="HL15" s="269"/>
+      <c r="HM15" s="274" t="s">
         <v>228</v>
       </c>
-      <c r="HN15" s="275"/>
-      <c r="HO15" s="275"/>
-      <c r="HP15" s="275"/>
-      <c r="HQ15" s="275"/>
-      <c r="HR15" s="275"/>
-      <c r="HS15" s="276"/>
-      <c r="HT15" s="267" t="s">
+      <c r="HN15" s="268"/>
+      <c r="HO15" s="268"/>
+      <c r="HP15" s="268"/>
+      <c r="HQ15" s="268"/>
+      <c r="HR15" s="268"/>
+      <c r="HS15" s="269"/>
+      <c r="HT15" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="HU15" s="274"/>
-      <c r="HV15" s="274"/>
-      <c r="HW15" s="274"/>
-      <c r="HX15" s="275"/>
-      <c r="HY15" s="275"/>
-      <c r="HZ15" s="276"/>
-      <c r="IA15" s="321" t="s">
+      <c r="HU15" s="267"/>
+      <c r="HV15" s="267"/>
+      <c r="HW15" s="267"/>
+      <c r="HX15" s="268"/>
+      <c r="HY15" s="268"/>
+      <c r="HZ15" s="269"/>
+      <c r="IA15" s="298" t="s">
         <v>257</v>
       </c>
-      <c r="IB15" s="274"/>
-      <c r="IC15" s="274"/>
-      <c r="ID15" s="274"/>
-      <c r="IE15" s="275"/>
-      <c r="IF15" s="275"/>
-      <c r="IG15" s="276"/>
-      <c r="IH15" s="263"/>
-      <c r="II15" s="264"/>
-      <c r="IJ15" s="264"/>
-      <c r="IK15" s="264"/>
-      <c r="IL15" s="265"/>
-      <c r="IM15" s="265"/>
-      <c r="IN15" s="266"/>
-      <c r="IO15" s="263"/>
-      <c r="IP15" s="264"/>
-      <c r="IQ15" s="264"/>
-      <c r="IR15" s="264"/>
-      <c r="IS15" s="265"/>
-      <c r="IT15" s="265"/>
-      <c r="IU15" s="266"/>
-      <c r="IV15" s="263"/>
-      <c r="IW15" s="264"/>
-      <c r="IX15" s="264"/>
-      <c r="IY15" s="264"/>
-      <c r="IZ15" s="265"/>
-      <c r="JA15" s="265"/>
-      <c r="JB15" s="266"/>
-      <c r="JC15" s="263"/>
-      <c r="JD15" s="264"/>
-      <c r="JE15" s="264"/>
-      <c r="JF15" s="264"/>
-      <c r="JG15" s="265"/>
-      <c r="JH15" s="265"/>
-      <c r="JI15" s="266"/>
-      <c r="JJ15" s="263"/>
-      <c r="JK15" s="264"/>
-      <c r="JL15" s="264"/>
-      <c r="JM15" s="264"/>
-      <c r="JN15" s="265"/>
-      <c r="JO15" s="265"/>
-      <c r="JP15" s="266"/>
-      <c r="JQ15" s="263"/>
-      <c r="JR15" s="264"/>
-      <c r="JS15" s="264"/>
-      <c r="JT15" s="264"/>
-      <c r="JU15" s="265"/>
-      <c r="JV15" s="265"/>
-      <c r="JW15" s="266"/>
-      <c r="JX15" s="263"/>
-      <c r="JY15" s="264"/>
-      <c r="JZ15" s="264"/>
-      <c r="KA15" s="264"/>
-      <c r="KB15" s="265"/>
-      <c r="KC15" s="265"/>
-      <c r="KD15" s="266"/>
-      <c r="KE15" s="263"/>
-      <c r="KF15" s="264"/>
-      <c r="KG15" s="264"/>
-      <c r="KH15" s="264"/>
-      <c r="KI15" s="265"/>
-      <c r="KJ15" s="265"/>
-      <c r="KK15" s="266"/>
-      <c r="KL15" s="317" t="s">
+      <c r="IB15" s="267"/>
+      <c r="IC15" s="267"/>
+      <c r="ID15" s="267"/>
+      <c r="IE15" s="268"/>
+      <c r="IF15" s="268"/>
+      <c r="IG15" s="269"/>
+      <c r="IH15" s="275"/>
+      <c r="II15" s="276"/>
+      <c r="IJ15" s="276"/>
+      <c r="IK15" s="276"/>
+      <c r="IL15" s="277"/>
+      <c r="IM15" s="277"/>
+      <c r="IN15" s="278"/>
+      <c r="IO15" s="275"/>
+      <c r="IP15" s="276"/>
+      <c r="IQ15" s="276"/>
+      <c r="IR15" s="276"/>
+      <c r="IS15" s="277"/>
+      <c r="IT15" s="277"/>
+      <c r="IU15" s="278"/>
+      <c r="IV15" s="275"/>
+      <c r="IW15" s="276"/>
+      <c r="IX15" s="276"/>
+      <c r="IY15" s="276"/>
+      <c r="IZ15" s="277"/>
+      <c r="JA15" s="277"/>
+      <c r="JB15" s="278"/>
+      <c r="JC15" s="275"/>
+      <c r="JD15" s="276"/>
+      <c r="JE15" s="276"/>
+      <c r="JF15" s="276"/>
+      <c r="JG15" s="277"/>
+      <c r="JH15" s="277"/>
+      <c r="JI15" s="278"/>
+      <c r="JJ15" s="275"/>
+      <c r="JK15" s="276"/>
+      <c r="JL15" s="276"/>
+      <c r="JM15" s="276"/>
+      <c r="JN15" s="277"/>
+      <c r="JO15" s="277"/>
+      <c r="JP15" s="278"/>
+      <c r="JQ15" s="275"/>
+      <c r="JR15" s="276"/>
+      <c r="JS15" s="276"/>
+      <c r="JT15" s="276"/>
+      <c r="JU15" s="277"/>
+      <c r="JV15" s="277"/>
+      <c r="JW15" s="278"/>
+      <c r="JX15" s="275"/>
+      <c r="JY15" s="276"/>
+      <c r="JZ15" s="276"/>
+      <c r="KA15" s="276"/>
+      <c r="KB15" s="277"/>
+      <c r="KC15" s="277"/>
+      <c r="KD15" s="278"/>
+      <c r="KE15" s="275"/>
+      <c r="KF15" s="276"/>
+      <c r="KG15" s="276"/>
+      <c r="KH15" s="276"/>
+      <c r="KI15" s="277"/>
+      <c r="KJ15" s="277"/>
+      <c r="KK15" s="278"/>
+      <c r="KL15" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="KM15" s="318"/>
-      <c r="KN15" s="318"/>
-      <c r="KO15" s="318"/>
-      <c r="KP15" s="318"/>
-      <c r="KQ15" s="318"/>
-      <c r="KR15" s="319"/>
-      <c r="KS15" s="267" t="s">
-        <v>324</v>
-      </c>
-      <c r="KT15" s="268"/>
-      <c r="KU15" s="268"/>
-      <c r="KV15" s="268"/>
-      <c r="KW15" s="269"/>
-      <c r="KX15" s="269"/>
-      <c r="KY15" s="270"/>
-      <c r="KZ15" s="263"/>
-      <c r="LA15" s="264"/>
-      <c r="LB15" s="264"/>
-      <c r="LC15" s="264"/>
-      <c r="LD15" s="265"/>
-      <c r="LE15" s="265"/>
-      <c r="LF15" s="266"/>
-      <c r="LG15" s="267" t="s">
+      <c r="KM15" s="288"/>
+      <c r="KN15" s="288"/>
+      <c r="KO15" s="288"/>
+      <c r="KP15" s="288"/>
+      <c r="KQ15" s="288"/>
+      <c r="KR15" s="289"/>
+      <c r="KS15" s="266" t="s">
+        <v>323</v>
+      </c>
+      <c r="KT15" s="290"/>
+      <c r="KU15" s="290"/>
+      <c r="KV15" s="290"/>
+      <c r="KW15" s="291"/>
+      <c r="KX15" s="291"/>
+      <c r="KY15" s="292"/>
+      <c r="KZ15" s="275"/>
+      <c r="LA15" s="276"/>
+      <c r="LB15" s="276"/>
+      <c r="LC15" s="276"/>
+      <c r="LD15" s="277"/>
+      <c r="LE15" s="277"/>
+      <c r="LF15" s="278"/>
+      <c r="LG15" s="266" t="s">
+        <v>325</v>
+      </c>
+      <c r="LH15" s="267"/>
+      <c r="LI15" s="267"/>
+      <c r="LJ15" s="267"/>
+      <c r="LK15" s="268"/>
+      <c r="LL15" s="268"/>
+      <c r="LM15" s="269"/>
+      <c r="LN15" s="266" t="s">
         <v>326</v>
       </c>
-      <c r="LH15" s="274"/>
-      <c r="LI15" s="274"/>
-      <c r="LJ15" s="274"/>
-      <c r="LK15" s="275"/>
-      <c r="LL15" s="275"/>
-      <c r="LM15" s="276"/>
-      <c r="LN15" s="267" t="s">
-        <v>327</v>
-      </c>
-      <c r="LO15" s="274"/>
-      <c r="LP15" s="274"/>
-      <c r="LQ15" s="274"/>
-      <c r="LR15" s="275"/>
-      <c r="LS15" s="275"/>
-      <c r="LT15" s="276"/>
-      <c r="LU15" s="267" t="s">
-        <v>333</v>
-      </c>
-      <c r="LV15" s="274"/>
-      <c r="LW15" s="274"/>
-      <c r="LX15" s="274"/>
-      <c r="LY15" s="275"/>
-      <c r="LZ15" s="275"/>
-      <c r="MA15" s="276"/>
-      <c r="MB15" s="325" t="s">
+      <c r="LO15" s="267"/>
+      <c r="LP15" s="267"/>
+      <c r="LQ15" s="267"/>
+      <c r="LR15" s="268"/>
+      <c r="LS15" s="268"/>
+      <c r="LT15" s="269"/>
+      <c r="LU15" s="266" t="s">
+        <v>332</v>
+      </c>
+      <c r="LV15" s="267"/>
+      <c r="LW15" s="267"/>
+      <c r="LX15" s="267"/>
+      <c r="LY15" s="268"/>
+      <c r="LZ15" s="268"/>
+      <c r="MA15" s="269"/>
+      <c r="MB15" s="300" t="s">
+        <v>344</v>
+      </c>
+      <c r="MC15" s="267"/>
+      <c r="MD15" s="267"/>
+      <c r="ME15" s="267"/>
+      <c r="MF15" s="268"/>
+      <c r="MG15" s="268"/>
+      <c r="MH15" s="269"/>
+      <c r="MI15" s="266" t="s">
         <v>345</v>
       </c>
-      <c r="MC15" s="274"/>
-      <c r="MD15" s="274"/>
-      <c r="ME15" s="274"/>
-      <c r="MF15" s="275"/>
-      <c r="MG15" s="275"/>
-      <c r="MH15" s="276"/>
-      <c r="MI15" s="267" t="s">
+      <c r="MJ15" s="267"/>
+      <c r="MK15" s="267"/>
+      <c r="ML15" s="267"/>
+      <c r="MM15" s="268"/>
+      <c r="MN15" s="268"/>
+      <c r="MO15" s="269"/>
+      <c r="MP15" s="266" t="s">
         <v>346</v>
       </c>
-      <c r="MJ15" s="274"/>
-      <c r="MK15" s="274"/>
-      <c r="ML15" s="274"/>
-      <c r="MM15" s="275"/>
-      <c r="MN15" s="275"/>
-      <c r="MO15" s="276"/>
-      <c r="MP15" s="267" t="s">
-        <v>347</v>
-      </c>
-      <c r="MQ15" s="274"/>
-      <c r="MR15" s="274"/>
-      <c r="MS15" s="274"/>
-      <c r="MT15" s="275"/>
-      <c r="MU15" s="275"/>
-      <c r="MV15" s="276"/>
-      <c r="MW15" s="263"/>
-      <c r="MX15" s="264"/>
-      <c r="MY15" s="264"/>
-      <c r="MZ15" s="264"/>
-      <c r="NA15" s="265"/>
-      <c r="NB15" s="265"/>
-      <c r="NC15" s="266"/>
-      <c r="ND15" s="263"/>
-      <c r="NE15" s="264"/>
-      <c r="NF15" s="264"/>
-      <c r="NG15" s="264"/>
-      <c r="NH15" s="265"/>
-      <c r="NI15" s="265"/>
-      <c r="NJ15" s="266"/>
-      <c r="NK15" s="267" t="s">
+      <c r="MQ15" s="267"/>
+      <c r="MR15" s="267"/>
+      <c r="MS15" s="267"/>
+      <c r="MT15" s="268"/>
+      <c r="MU15" s="268"/>
+      <c r="MV15" s="269"/>
+      <c r="MW15" s="275"/>
+      <c r="MX15" s="276"/>
+      <c r="MY15" s="276"/>
+      <c r="MZ15" s="276"/>
+      <c r="NA15" s="277"/>
+      <c r="NB15" s="277"/>
+      <c r="NC15" s="278"/>
+      <c r="ND15" s="275"/>
+      <c r="NE15" s="276"/>
+      <c r="NF15" s="276"/>
+      <c r="NG15" s="276"/>
+      <c r="NH15" s="277"/>
+      <c r="NI15" s="277"/>
+      <c r="NJ15" s="278"/>
+      <c r="NK15" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="NL15" s="290"/>
+      <c r="NM15" s="290"/>
+      <c r="NN15" s="290"/>
+      <c r="NO15" s="291"/>
+      <c r="NP15" s="291"/>
+      <c r="NQ15" s="292"/>
+      <c r="NR15" s="266" t="s">
         <v>372</v>
       </c>
-      <c r="NL15" s="268"/>
-      <c r="NM15" s="268"/>
-      <c r="NN15" s="268"/>
-      <c r="NO15" s="269"/>
-      <c r="NP15" s="269"/>
-      <c r="NQ15" s="270"/>
-      <c r="NR15" s="267" t="s">
+      <c r="NS15" s="267"/>
+      <c r="NT15" s="267"/>
+      <c r="NU15" s="267"/>
+      <c r="NV15" s="268"/>
+      <c r="NW15" s="268"/>
+      <c r="NX15" s="269"/>
+      <c r="NY15" s="275"/>
+      <c r="NZ15" s="276"/>
+      <c r="OA15" s="276"/>
+      <c r="OB15" s="276"/>
+      <c r="OC15" s="277"/>
+      <c r="OD15" s="277"/>
+      <c r="OE15" s="278"/>
+      <c r="OF15" s="300" t="s">
         <v>373</v>
       </c>
-      <c r="NS15" s="274"/>
-      <c r="NT15" s="274"/>
-      <c r="NU15" s="274"/>
-      <c r="NV15" s="275"/>
-      <c r="NW15" s="275"/>
-      <c r="NX15" s="276"/>
-      <c r="NY15" s="263"/>
-      <c r="NZ15" s="264"/>
-      <c r="OA15" s="264"/>
-      <c r="OB15" s="264"/>
-      <c r="OC15" s="265"/>
-      <c r="OD15" s="265"/>
-      <c r="OE15" s="266"/>
-      <c r="OF15" s="325" t="s">
-        <v>374</v>
-      </c>
-      <c r="OG15" s="274"/>
-      <c r="OH15" s="274"/>
-      <c r="OI15" s="274"/>
-      <c r="OJ15" s="275"/>
-      <c r="OK15" s="275"/>
-      <c r="OL15" s="276"/>
-      <c r="OM15" s="263"/>
-      <c r="ON15" s="264"/>
-      <c r="OO15" s="264"/>
-      <c r="OP15" s="264"/>
-      <c r="OQ15" s="265"/>
-      <c r="OR15" s="265"/>
-      <c r="OS15" s="266"/>
-      <c r="OT15" s="263"/>
-      <c r="OU15" s="264"/>
-      <c r="OV15" s="264"/>
-      <c r="OW15" s="264"/>
-      <c r="OX15" s="265"/>
-      <c r="OY15" s="265"/>
-      <c r="OZ15" s="266"/>
-      <c r="PA15" s="263"/>
-      <c r="PB15" s="264"/>
-      <c r="PC15" s="264"/>
-      <c r="PD15" s="264"/>
-      <c r="PE15" s="265"/>
-      <c r="PF15" s="265"/>
-      <c r="PG15" s="266"/>
-      <c r="PH15" s="263"/>
-      <c r="PI15" s="264"/>
-      <c r="PJ15" s="264"/>
-      <c r="PK15" s="264"/>
-      <c r="PL15" s="265"/>
-      <c r="PM15" s="265"/>
-      <c r="PN15" s="266"/>
-      <c r="PO15" s="267"/>
-      <c r="PP15" s="274"/>
-      <c r="PQ15" s="274"/>
-      <c r="PR15" s="274"/>
-      <c r="PS15" s="275"/>
-      <c r="PT15" s="275"/>
-      <c r="PU15" s="276"/>
-      <c r="PV15" s="267"/>
-      <c r="PW15" s="274"/>
-      <c r="PX15" s="274"/>
-      <c r="PY15" s="274"/>
-      <c r="PZ15" s="275"/>
-      <c r="QA15" s="275"/>
-      <c r="QB15" s="276"/>
-      <c r="QC15" s="267"/>
-      <c r="QD15" s="274"/>
-      <c r="QE15" s="274"/>
-      <c r="QF15" s="274"/>
-      <c r="QG15" s="275"/>
-      <c r="QH15" s="275"/>
-      <c r="QI15" s="276"/>
-      <c r="QJ15" s="267"/>
-      <c r="QK15" s="274"/>
-      <c r="QL15" s="274"/>
-      <c r="QM15" s="274"/>
-      <c r="QN15" s="275"/>
-      <c r="QO15" s="275"/>
-      <c r="QP15" s="276"/>
-      <c r="QQ15" s="267"/>
-      <c r="QR15" s="274"/>
-      <c r="QS15" s="274"/>
-      <c r="QT15" s="274"/>
-      <c r="QU15" s="275"/>
-      <c r="QV15" s="275"/>
-      <c r="QW15" s="276"/>
-      <c r="QX15" s="267"/>
-      <c r="QY15" s="274"/>
-      <c r="QZ15" s="274"/>
-      <c r="RA15" s="274"/>
-      <c r="RB15" s="275"/>
-      <c r="RC15" s="275"/>
-      <c r="RD15" s="276"/>
-      <c r="RE15" s="271"/>
-      <c r="RF15" s="272"/>
-      <c r="RG15" s="272"/>
-      <c r="RH15" s="272"/>
-      <c r="RI15" s="272"/>
-      <c r="RJ15" s="272"/>
-      <c r="RK15" s="273"/>
-      <c r="RL15" s="271"/>
-      <c r="RM15" s="272"/>
-      <c r="RN15" s="272"/>
-      <c r="RO15" s="272"/>
-      <c r="RP15" s="272"/>
-      <c r="RQ15" s="272"/>
-      <c r="RR15" s="273"/>
+      <c r="OG15" s="267"/>
+      <c r="OH15" s="267"/>
+      <c r="OI15" s="267"/>
+      <c r="OJ15" s="268"/>
+      <c r="OK15" s="268"/>
+      <c r="OL15" s="269"/>
+      <c r="OM15" s="275"/>
+      <c r="ON15" s="276"/>
+      <c r="OO15" s="276"/>
+      <c r="OP15" s="276"/>
+      <c r="OQ15" s="277"/>
+      <c r="OR15" s="277"/>
+      <c r="OS15" s="278"/>
+      <c r="OT15" s="275"/>
+      <c r="OU15" s="276"/>
+      <c r="OV15" s="276"/>
+      <c r="OW15" s="276"/>
+      <c r="OX15" s="277"/>
+      <c r="OY15" s="277"/>
+      <c r="OZ15" s="278"/>
+      <c r="PA15" s="275"/>
+      <c r="PB15" s="276"/>
+      <c r="PC15" s="276"/>
+      <c r="PD15" s="276"/>
+      <c r="PE15" s="277"/>
+      <c r="PF15" s="277"/>
+      <c r="PG15" s="278"/>
+      <c r="PH15" s="275"/>
+      <c r="PI15" s="276"/>
+      <c r="PJ15" s="276"/>
+      <c r="PK15" s="276"/>
+      <c r="PL15" s="277"/>
+      <c r="PM15" s="277"/>
+      <c r="PN15" s="278"/>
+      <c r="PO15" s="266" t="s">
+        <v>440</v>
+      </c>
+      <c r="PP15" s="267"/>
+      <c r="PQ15" s="267"/>
+      <c r="PR15" s="267"/>
+      <c r="PS15" s="268"/>
+      <c r="PT15" s="268"/>
+      <c r="PU15" s="269"/>
+      <c r="PV15" s="266"/>
+      <c r="PW15" s="267"/>
+      <c r="PX15" s="267"/>
+      <c r="PY15" s="267"/>
+      <c r="PZ15" s="268"/>
+      <c r="QA15" s="268"/>
+      <c r="QB15" s="269"/>
+      <c r="QC15" s="266"/>
+      <c r="QD15" s="267"/>
+      <c r="QE15" s="267"/>
+      <c r="QF15" s="267"/>
+      <c r="QG15" s="268"/>
+      <c r="QH15" s="268"/>
+      <c r="QI15" s="269"/>
+      <c r="QJ15" s="266"/>
+      <c r="QK15" s="267"/>
+      <c r="QL15" s="267"/>
+      <c r="QM15" s="267"/>
+      <c r="QN15" s="268"/>
+      <c r="QO15" s="268"/>
+      <c r="QP15" s="269"/>
+      <c r="QQ15" s="266"/>
+      <c r="QR15" s="267"/>
+      <c r="QS15" s="267"/>
+      <c r="QT15" s="267"/>
+      <c r="QU15" s="268"/>
+      <c r="QV15" s="268"/>
+      <c r="QW15" s="269"/>
+      <c r="QX15" s="266"/>
+      <c r="QY15" s="267"/>
+      <c r="QZ15" s="267"/>
+      <c r="RA15" s="267"/>
+      <c r="RB15" s="268"/>
+      <c r="RC15" s="268"/>
+      <c r="RD15" s="269"/>
+      <c r="RE15" s="263"/>
+      <c r="RF15" s="264"/>
+      <c r="RG15" s="264"/>
+      <c r="RH15" s="264"/>
+      <c r="RI15" s="264"/>
+      <c r="RJ15" s="264"/>
+      <c r="RK15" s="265"/>
+      <c r="RL15" s="263"/>
+      <c r="RM15" s="264"/>
+      <c r="RN15" s="264"/>
+      <c r="RO15" s="264"/>
+      <c r="RP15" s="264"/>
+      <c r="RQ15" s="264"/>
+      <c r="RR15" s="265"/>
     </row>
     <row r="16" spans="1:497" ht="43.5" customHeight="1">
       <c r="A16" s="148" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="250" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>138</v>
@@ -16975,30 +17034,30 @@
         <v>188</v>
       </c>
       <c r="MF16" s="125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="MG16" s="156"/>
       <c r="MH16" s="156"/>
       <c r="MI16" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="MJ16" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="MK16" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="ML16" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="MM16" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="MJ16" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="MK16" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="ML16" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="MM16" s="125" t="s">
+      <c r="MN16" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="MN16" s="125" t="s">
+      <c r="MO16" s="125" t="s">
         <v>342</v>
-      </c>
-      <c r="MO16" s="125" t="s">
-        <v>343</v>
       </c>
       <c r="MP16" s="125" t="s">
         <v>188</v>
@@ -17009,7 +17068,7 @@
         <v>188</v>
       </c>
       <c r="MT16" s="125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="MU16" s="125" t="s">
         <v>188</v>
@@ -17023,26 +17082,26 @@
       </c>
       <c r="MY16" s="156"/>
       <c r="MZ16" s="125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="NA16" s="125" t="s">
         <v>188</v>
       </c>
       <c r="NB16" s="156"/>
       <c r="NC16" s="125" t="s">
+        <v>367</v>
+      </c>
+      <c r="ND16" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="NE16" s="125" t="s">
         <v>368</v>
-      </c>
-      <c r="ND16" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="NE16" s="125" t="s">
-        <v>369</v>
       </c>
       <c r="NF16" s="156"/>
       <c r="NG16" s="156"/>
       <c r="NH16" s="156"/>
       <c r="NI16" s="125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="NJ16" s="156"/>
       <c r="NK16" s="156"/>
@@ -17101,9 +17160,13 @@
       <c r="PL16" s="226"/>
       <c r="PM16" s="226"/>
       <c r="PN16" s="226"/>
-      <c r="PO16" s="226"/>
-      <c r="PP16" s="226"/>
-      <c r="PQ16" s="226"/>
+      <c r="PO16" s="208"/>
+      <c r="PP16" s="226" t="s">
+        <v>442</v>
+      </c>
+      <c r="PQ16" s="226" t="s">
+        <v>443</v>
+      </c>
       <c r="PR16" s="226"/>
       <c r="PS16" s="226"/>
       <c r="PT16" s="226"/>
@@ -17880,8 +17943,12 @@
       <c r="PM17" s="156"/>
       <c r="PN17" s="156"/>
       <c r="PO17" s="156"/>
-      <c r="PP17" s="125"/>
-      <c r="PQ17" s="125"/>
+      <c r="PP17" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PQ17" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PR17" s="125"/>
       <c r="PS17" s="125"/>
       <c r="PT17" s="125"/>
@@ -21338,7 +21405,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>138</v>
@@ -21777,7 +21844,7 @@
         <v>113</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="65" t="s">
         <v>246</v>
@@ -22184,7 +22251,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>138</v>
@@ -22586,8 +22653,12 @@
         <v>188</v>
       </c>
       <c r="PO31" s="156"/>
-      <c r="PP31" s="189"/>
-      <c r="PQ31" s="189"/>
+      <c r="PP31" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PQ31" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PR31" s="189"/>
       <c r="PS31" s="189"/>
       <c r="PT31" s="189"/>
@@ -22649,7 +22720,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32" s="65" t="s">
         <v>138</v>
@@ -23047,8 +23118,10 @@
       <c r="PM32" s="156"/>
       <c r="PN32" s="156"/>
       <c r="PO32" s="156"/>
-      <c r="PP32" s="189"/>
-      <c r="PQ32" s="189"/>
+      <c r="PP32" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PQ32" s="156"/>
       <c r="PR32" s="189"/>
       <c r="PS32" s="189"/>
       <c r="PT32" s="189"/>
@@ -23110,7 +23183,7 @@
         <v>113</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C33" s="65" t="s">
         <v>138</v>
@@ -23518,8 +23591,12 @@
         <v>188</v>
       </c>
       <c r="PO33" s="156"/>
-      <c r="PP33" s="189"/>
-      <c r="PQ33" s="189"/>
+      <c r="PP33" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="PQ33" s="125" t="s">
+        <v>188</v>
+      </c>
       <c r="PR33" s="189"/>
       <c r="PS33" s="189"/>
       <c r="PT33" s="189"/>
@@ -23581,10 +23658,10 @@
         <v>113</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
@@ -25602,21 +25679,21 @@
       </c>
       <c r="DK48" s="63"/>
       <c r="DL48" s="51"/>
-      <c r="DM48" s="289" t="s">
+      <c r="DM48" s="317" t="s">
         <v>42</v>
       </c>
-      <c r="DN48" s="289"/>
-      <c r="DO48" s="289"/>
-      <c r="DP48" s="289"/>
-      <c r="DQ48" s="289"/>
-      <c r="DR48" s="289"/>
+      <c r="DN48" s="317"/>
+      <c r="DO48" s="317"/>
+      <c r="DP48" s="317"/>
+      <c r="DQ48" s="317"/>
+      <c r="DR48" s="317"/>
       <c r="DS48" s="51"/>
-      <c r="DT48" s="289" t="s">
+      <c r="DT48" s="317" t="s">
         <v>42</v>
       </c>
-      <c r="DU48" s="289"/>
-      <c r="DV48" s="289"/>
-      <c r="DW48" s="289"/>
+      <c r="DU48" s="317"/>
+      <c r="DV48" s="317"/>
+      <c r="DW48" s="317"/>
       <c r="DX48" s="3"/>
       <c r="DY48" s="3"/>
       <c r="DZ48" s="74"/>
@@ -25697,18 +25774,18 @@
       </c>
       <c r="GF48" s="3"/>
       <c r="GG48" s="3"/>
-      <c r="GH48" s="311"/>
-      <c r="GI48" s="311"/>
-      <c r="GJ48" s="311"/>
+      <c r="GH48" s="312"/>
+      <c r="GI48" s="312"/>
+      <c r="GJ48" s="312"/>
       <c r="GK48" s="110"/>
-      <c r="GL48" s="311" t="s">
+      <c r="GL48" s="312" t="s">
         <v>42</v>
       </c>
-      <c r="GM48" s="311"/>
-      <c r="GN48" s="311"/>
-      <c r="GO48" s="311"/>
-      <c r="GP48" s="311"/>
-      <c r="GQ48" s="311"/>
+      <c r="GM48" s="312"/>
+      <c r="GN48" s="312"/>
+      <c r="GO48" s="312"/>
+      <c r="GP48" s="312"/>
+      <c r="GQ48" s="312"/>
     </row>
     <row r="49" spans="1:189" ht="43.5" customHeight="1">
       <c r="A49" s="20"/>
@@ -25718,202 +25795,202 @@
       <c r="C49" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="278" t="s">
+      <c r="D49" s="331" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="278"/>
-      <c r="F49" s="278"/>
-      <c r="G49" s="278"/>
-      <c r="H49" s="278"/>
-      <c r="I49" s="278"/>
-      <c r="J49" s="278"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
-      <c r="M49" s="278"/>
-      <c r="N49" s="278"/>
-      <c r="O49" s="278"/>
-      <c r="P49" s="278"/>
-      <c r="Q49" s="278"/>
-      <c r="R49" s="278"/>
-      <c r="S49" s="278"/>
-      <c r="T49" s="278"/>
-      <c r="U49" s="278"/>
-      <c r="V49" s="278"/>
-      <c r="W49" s="278"/>
-      <c r="X49" s="278"/>
-      <c r="Y49" s="278"/>
-      <c r="Z49" s="278"/>
-      <c r="AA49" s="278"/>
-      <c r="AB49" s="278"/>
-      <c r="AC49" s="278"/>
-      <c r="AD49" s="278"/>
-      <c r="AE49" s="278"/>
-      <c r="AF49" s="278"/>
-      <c r="AG49" s="278"/>
-      <c r="AH49" s="278"/>
-      <c r="AI49" s="278" t="s">
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
+      <c r="H49" s="331"/>
+      <c r="I49" s="331"/>
+      <c r="J49" s="331"/>
+      <c r="K49" s="331"/>
+      <c r="L49" s="331"/>
+      <c r="M49" s="331"/>
+      <c r="N49" s="331"/>
+      <c r="O49" s="331"/>
+      <c r="P49" s="331"/>
+      <c r="Q49" s="331"/>
+      <c r="R49" s="331"/>
+      <c r="S49" s="331"/>
+      <c r="T49" s="331"/>
+      <c r="U49" s="331"/>
+      <c r="V49" s="331"/>
+      <c r="W49" s="331"/>
+      <c r="X49" s="331"/>
+      <c r="Y49" s="331"/>
+      <c r="Z49" s="331"/>
+      <c r="AA49" s="331"/>
+      <c r="AB49" s="331"/>
+      <c r="AC49" s="331"/>
+      <c r="AD49" s="331"/>
+      <c r="AE49" s="331"/>
+      <c r="AF49" s="331"/>
+      <c r="AG49" s="331"/>
+      <c r="AH49" s="331"/>
+      <c r="AI49" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="AJ49" s="278"/>
-      <c r="AK49" s="278"/>
-      <c r="AL49" s="278"/>
-      <c r="AM49" s="278"/>
-      <c r="AN49" s="278"/>
-      <c r="AO49" s="278"/>
-      <c r="AP49" s="278"/>
-      <c r="AQ49" s="278"/>
-      <c r="AR49" s="278"/>
-      <c r="AS49" s="278"/>
-      <c r="AT49" s="278"/>
-      <c r="AU49" s="278"/>
-      <c r="AV49" s="278"/>
-      <c r="AW49" s="278"/>
-      <c r="AX49" s="278"/>
-      <c r="AY49" s="278"/>
-      <c r="AZ49" s="278"/>
-      <c r="BA49" s="278"/>
-      <c r="BB49" s="278"/>
-      <c r="BC49" s="278"/>
-      <c r="BD49" s="278"/>
-      <c r="BE49" s="278"/>
-      <c r="BF49" s="278"/>
-      <c r="BG49" s="278"/>
-      <c r="BH49" s="278"/>
-      <c r="BI49" s="278"/>
-      <c r="BJ49" s="278"/>
-      <c r="BK49" s="278"/>
-      <c r="BL49" s="278"/>
-      <c r="BM49" s="278"/>
-      <c r="BN49" s="278" t="s">
+      <c r="AJ49" s="331"/>
+      <c r="AK49" s="331"/>
+      <c r="AL49" s="331"/>
+      <c r="AM49" s="331"/>
+      <c r="AN49" s="331"/>
+      <c r="AO49" s="331"/>
+      <c r="AP49" s="331"/>
+      <c r="AQ49" s="331"/>
+      <c r="AR49" s="331"/>
+      <c r="AS49" s="331"/>
+      <c r="AT49" s="331"/>
+      <c r="AU49" s="331"/>
+      <c r="AV49" s="331"/>
+      <c r="AW49" s="331"/>
+      <c r="AX49" s="331"/>
+      <c r="AY49" s="331"/>
+      <c r="AZ49" s="331"/>
+      <c r="BA49" s="331"/>
+      <c r="BB49" s="331"/>
+      <c r="BC49" s="331"/>
+      <c r="BD49" s="331"/>
+      <c r="BE49" s="331"/>
+      <c r="BF49" s="331"/>
+      <c r="BG49" s="331"/>
+      <c r="BH49" s="331"/>
+      <c r="BI49" s="331"/>
+      <c r="BJ49" s="331"/>
+      <c r="BK49" s="331"/>
+      <c r="BL49" s="331"/>
+      <c r="BM49" s="331"/>
+      <c r="BN49" s="331" t="s">
         <v>108</v>
       </c>
-      <c r="BO49" s="278"/>
-      <c r="BP49" s="278"/>
-      <c r="BQ49" s="278"/>
-      <c r="BR49" s="278"/>
-      <c r="BS49" s="278"/>
-      <c r="BT49" s="278"/>
-      <c r="BU49" s="278"/>
-      <c r="BV49" s="278"/>
-      <c r="BW49" s="278"/>
-      <c r="BX49" s="278"/>
-      <c r="BY49" s="278"/>
-      <c r="BZ49" s="278"/>
-      <c r="CA49" s="278"/>
-      <c r="CB49" s="278"/>
-      <c r="CC49" s="278"/>
-      <c r="CD49" s="278"/>
-      <c r="CE49" s="278"/>
-      <c r="CF49" s="278"/>
-      <c r="CG49" s="278"/>
-      <c r="CH49" s="278"/>
-      <c r="CI49" s="278"/>
-      <c r="CJ49" s="278"/>
-      <c r="CK49" s="278"/>
-      <c r="CL49" s="278"/>
-      <c r="CM49" s="278"/>
-      <c r="CN49" s="278"/>
-      <c r="CO49" s="278"/>
-      <c r="CP49" s="278"/>
-      <c r="CQ49" s="278"/>
-      <c r="CR49" s="278"/>
-      <c r="CS49" s="282" t="s">
+      <c r="BO49" s="331"/>
+      <c r="BP49" s="331"/>
+      <c r="BQ49" s="331"/>
+      <c r="BR49" s="331"/>
+      <c r="BS49" s="331"/>
+      <c r="BT49" s="331"/>
+      <c r="BU49" s="331"/>
+      <c r="BV49" s="331"/>
+      <c r="BW49" s="331"/>
+      <c r="BX49" s="331"/>
+      <c r="BY49" s="331"/>
+      <c r="BZ49" s="331"/>
+      <c r="CA49" s="331"/>
+      <c r="CB49" s="331"/>
+      <c r="CC49" s="331"/>
+      <c r="CD49" s="331"/>
+      <c r="CE49" s="331"/>
+      <c r="CF49" s="331"/>
+      <c r="CG49" s="331"/>
+      <c r="CH49" s="331"/>
+      <c r="CI49" s="331"/>
+      <c r="CJ49" s="331"/>
+      <c r="CK49" s="331"/>
+      <c r="CL49" s="331"/>
+      <c r="CM49" s="331"/>
+      <c r="CN49" s="331"/>
+      <c r="CO49" s="331"/>
+      <c r="CP49" s="331"/>
+      <c r="CQ49" s="331"/>
+      <c r="CR49" s="331"/>
+      <c r="CS49" s="310" t="s">
         <v>65</v>
       </c>
-      <c r="CT49" s="282"/>
-      <c r="CU49" s="282"/>
-      <c r="CV49" s="282"/>
-      <c r="CW49" s="282"/>
-      <c r="CX49" s="282"/>
-      <c r="CY49" s="282"/>
-      <c r="CZ49" s="282"/>
-      <c r="DA49" s="282"/>
-      <c r="DB49" s="282"/>
-      <c r="DC49" s="282"/>
-      <c r="DD49" s="282"/>
-      <c r="DE49" s="282"/>
-      <c r="DF49" s="282"/>
-      <c r="DG49" s="282"/>
-      <c r="DH49" s="282"/>
-      <c r="DI49" s="282"/>
-      <c r="DJ49" s="282"/>
-      <c r="DK49" s="282"/>
-      <c r="DL49" s="282"/>
-      <c r="DM49" s="282"/>
-      <c r="DN49" s="282"/>
-      <c r="DO49" s="282"/>
-      <c r="DP49" s="282"/>
-      <c r="DQ49" s="282"/>
-      <c r="DR49" s="282"/>
-      <c r="DS49" s="282"/>
-      <c r="DT49" s="282"/>
-      <c r="DU49" s="282"/>
-      <c r="DV49" s="282"/>
-      <c r="DW49" s="282"/>
+      <c r="CT49" s="310"/>
+      <c r="CU49" s="310"/>
+      <c r="CV49" s="310"/>
+      <c r="CW49" s="310"/>
+      <c r="CX49" s="310"/>
+      <c r="CY49" s="310"/>
+      <c r="CZ49" s="310"/>
+      <c r="DA49" s="310"/>
+      <c r="DB49" s="310"/>
+      <c r="DC49" s="310"/>
+      <c r="DD49" s="310"/>
+      <c r="DE49" s="310"/>
+      <c r="DF49" s="310"/>
+      <c r="DG49" s="310"/>
+      <c r="DH49" s="310"/>
+      <c r="DI49" s="310"/>
+      <c r="DJ49" s="310"/>
+      <c r="DK49" s="310"/>
+      <c r="DL49" s="310"/>
+      <c r="DM49" s="310"/>
+      <c r="DN49" s="310"/>
+      <c r="DO49" s="310"/>
+      <c r="DP49" s="310"/>
+      <c r="DQ49" s="310"/>
+      <c r="DR49" s="310"/>
+      <c r="DS49" s="310"/>
+      <c r="DT49" s="310"/>
+      <c r="DU49" s="310"/>
+      <c r="DV49" s="310"/>
+      <c r="DW49" s="310"/>
       <c r="DX49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="DY49" s="282"/>
-      <c r="DZ49" s="282"/>
-      <c r="EA49" s="282"/>
-      <c r="EB49" s="282"/>
-      <c r="EC49" s="282"/>
-      <c r="ED49" s="282"/>
-      <c r="EE49" s="282"/>
-      <c r="EF49" s="282"/>
-      <c r="EG49" s="282"/>
-      <c r="EH49" s="282"/>
-      <c r="EI49" s="282"/>
-      <c r="EJ49" s="282"/>
-      <c r="EK49" s="282"/>
-      <c r="EL49" s="282"/>
-      <c r="EM49" s="282"/>
-      <c r="EN49" s="282"/>
-      <c r="EO49" s="282"/>
-      <c r="EP49" s="282"/>
-      <c r="EQ49" s="282"/>
-      <c r="ER49" s="282"/>
-      <c r="ES49" s="282"/>
-      <c r="ET49" s="282"/>
-      <c r="EU49" s="282"/>
-      <c r="EV49" s="282"/>
-      <c r="EW49" s="282"/>
-      <c r="EX49" s="282"/>
-      <c r="EY49" s="282"/>
-      <c r="EZ49" s="282"/>
-      <c r="FA49" s="282"/>
-      <c r="FB49" s="282"/>
+      <c r="DY49" s="310"/>
+      <c r="DZ49" s="310"/>
+      <c r="EA49" s="310"/>
+      <c r="EB49" s="310"/>
+      <c r="EC49" s="310"/>
+      <c r="ED49" s="310"/>
+      <c r="EE49" s="310"/>
+      <c r="EF49" s="310"/>
+      <c r="EG49" s="310"/>
+      <c r="EH49" s="310"/>
+      <c r="EI49" s="310"/>
+      <c r="EJ49" s="310"/>
+      <c r="EK49" s="310"/>
+      <c r="EL49" s="310"/>
+      <c r="EM49" s="310"/>
+      <c r="EN49" s="310"/>
+      <c r="EO49" s="310"/>
+      <c r="EP49" s="310"/>
+      <c r="EQ49" s="310"/>
+      <c r="ER49" s="310"/>
+      <c r="ES49" s="310"/>
+      <c r="ET49" s="310"/>
+      <c r="EU49" s="310"/>
+      <c r="EV49" s="310"/>
+      <c r="EW49" s="310"/>
+      <c r="EX49" s="310"/>
+      <c r="EY49" s="310"/>
+      <c r="EZ49" s="310"/>
+      <c r="FA49" s="310"/>
+      <c r="FB49" s="310"/>
       <c r="FC49" s="3"/>
-      <c r="FD49" s="282"/>
-      <c r="FE49" s="282"/>
-      <c r="FF49" s="282"/>
-      <c r="FG49" s="282"/>
-      <c r="FH49" s="282"/>
-      <c r="FI49" s="282"/>
-      <c r="FJ49" s="282"/>
-      <c r="FK49" s="282"/>
-      <c r="FL49" s="282"/>
-      <c r="FM49" s="282"/>
-      <c r="FN49" s="282"/>
-      <c r="FO49" s="282"/>
-      <c r="FP49" s="282"/>
-      <c r="FQ49" s="282"/>
-      <c r="FR49" s="282"/>
-      <c r="FS49" s="282"/>
-      <c r="FT49" s="282"/>
-      <c r="FU49" s="282"/>
-      <c r="FV49" s="282"/>
-      <c r="FW49" s="282"/>
-      <c r="FX49" s="282"/>
-      <c r="FY49" s="282"/>
-      <c r="FZ49" s="282"/>
-      <c r="GA49" s="282"/>
-      <c r="GB49" s="282"/>
-      <c r="GC49" s="282"/>
-      <c r="GD49" s="282"/>
-      <c r="GE49" s="282"/>
-      <c r="GF49" s="282"/>
-      <c r="GG49" s="282"/>
+      <c r="FD49" s="310"/>
+      <c r="FE49" s="310"/>
+      <c r="FF49" s="310"/>
+      <c r="FG49" s="310"/>
+      <c r="FH49" s="310"/>
+      <c r="FI49" s="310"/>
+      <c r="FJ49" s="310"/>
+      <c r="FK49" s="310"/>
+      <c r="FL49" s="310"/>
+      <c r="FM49" s="310"/>
+      <c r="FN49" s="310"/>
+      <c r="FO49" s="310"/>
+      <c r="FP49" s="310"/>
+      <c r="FQ49" s="310"/>
+      <c r="FR49" s="310"/>
+      <c r="FS49" s="310"/>
+      <c r="FT49" s="310"/>
+      <c r="FU49" s="310"/>
+      <c r="FV49" s="310"/>
+      <c r="FW49" s="310"/>
+      <c r="FX49" s="310"/>
+      <c r="FY49" s="310"/>
+      <c r="FZ49" s="310"/>
+      <c r="GA49" s="310"/>
+      <c r="GB49" s="310"/>
+      <c r="GC49" s="310"/>
+      <c r="GD49" s="310"/>
+      <c r="GE49" s="310"/>
+      <c r="GF49" s="310"/>
+      <c r="GG49" s="310"/>
     </row>
     <row r="50" spans="1:189" ht="43.5" customHeight="1">
       <c r="A50" s="20"/>
@@ -25956,12 +26033,12 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="277"/>
-      <c r="AJ50" s="277"/>
-      <c r="AK50" s="277"/>
-      <c r="AL50" s="277"/>
-      <c r="AM50" s="277"/>
-      <c r="AN50" s="277"/>
+      <c r="AI50" s="334"/>
+      <c r="AJ50" s="334"/>
+      <c r="AK50" s="334"/>
+      <c r="AL50" s="334"/>
+      <c r="AM50" s="334"/>
+      <c r="AN50" s="334"/>
       <c r="AO50" s="3" t="s">
         <v>23</v>
       </c>
@@ -26160,9 +26237,9 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="277"/>
-      <c r="AG51" s="277"/>
-      <c r="AH51" s="277"/>
+      <c r="AF51" s="334"/>
+      <c r="AG51" s="334"/>
+      <c r="AH51" s="334"/>
       <c r="AI51" s="3" t="s">
         <v>23</v>
       </c>
@@ -26193,9 +26270,9 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-      <c r="BK51" s="294"/>
-      <c r="BL51" s="294"/>
-      <c r="BM51" s="294"/>
+      <c r="BK51" s="311"/>
+      <c r="BL51" s="311"/>
+      <c r="BM51" s="311"/>
       <c r="BN51" s="3" t="s">
         <v>23</v>
       </c>
@@ -26226,9 +26303,9 @@
       <c r="CM51" s="3"/>
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
-      <c r="CP51" s="294"/>
-      <c r="CQ51" s="294"/>
-      <c r="CR51" s="294"/>
+      <c r="CP51" s="311"/>
+      <c r="CQ51" s="311"/>
+      <c r="CR51" s="311"/>
       <c r="CS51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26259,9 +26336,9 @@
       <c r="DR51" s="3"/>
       <c r="DS51" s="3"/>
       <c r="DT51" s="3"/>
-      <c r="DU51" s="294"/>
-      <c r="DV51" s="294"/>
-      <c r="DW51" s="294"/>
+      <c r="DU51" s="311"/>
+      <c r="DV51" s="311"/>
+      <c r="DW51" s="311"/>
       <c r="DX51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26292,9 +26369,9 @@
       <c r="EW51" s="3"/>
       <c r="EX51" s="3"/>
       <c r="EY51" s="3"/>
-      <c r="EZ51" s="294"/>
-      <c r="FA51" s="294"/>
-      <c r="FB51" s="294"/>
+      <c r="EZ51" s="311"/>
+      <c r="FA51" s="311"/>
+      <c r="FB51" s="311"/>
       <c r="FC51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26325,9 +26402,9 @@
       <c r="GB51" s="3"/>
       <c r="GC51" s="3"/>
       <c r="GD51" s="3"/>
-      <c r="GE51" s="294"/>
-      <c r="GF51" s="294"/>
-      <c r="GG51" s="294"/>
+      <c r="GE51" s="311"/>
+      <c r="GF51" s="311"/>
+      <c r="GG51" s="311"/>
     </row>
     <row r="52" spans="1:189" ht="43.5" customHeight="1">
       <c r="A52" s="20"/>
@@ -26843,74 +26920,74 @@
       <c r="AX60" s="10"/>
       <c r="AY60" s="51"/>
       <c r="AZ60" s="51"/>
-      <c r="BA60" s="283"/>
-      <c r="BB60" s="283"/>
-      <c r="BC60" s="283"/>
-      <c r="BD60" s="283"/>
-      <c r="BE60" s="283"/>
+      <c r="BA60" s="316"/>
+      <c r="BB60" s="316"/>
+      <c r="BC60" s="316"/>
+      <c r="BD60" s="316"/>
+      <c r="BE60" s="316"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="51"/>
-      <c r="BH60" s="283"/>
-      <c r="BI60" s="283"/>
-      <c r="BJ60" s="283"/>
-      <c r="BK60" s="283"/>
-      <c r="BL60" s="283"/>
+      <c r="BH60" s="316"/>
+      <c r="BI60" s="316"/>
+      <c r="BJ60" s="316"/>
+      <c r="BK60" s="316"/>
+      <c r="BL60" s="316"/>
       <c r="BM60" s="51"/>
       <c r="BN60" s="51"/>
-      <c r="BO60" s="294"/>
-      <c r="BP60" s="294"/>
-      <c r="BQ60" s="294"/>
-      <c r="BR60" s="294"/>
-      <c r="BS60" s="294"/>
+      <c r="BO60" s="311"/>
+      <c r="BP60" s="311"/>
+      <c r="BQ60" s="311"/>
+      <c r="BR60" s="311"/>
+      <c r="BS60" s="311"/>
       <c r="BT60" s="51"/>
       <c r="BU60" s="51"/>
-      <c r="BV60" s="294"/>
-      <c r="BW60" s="294"/>
-      <c r="BX60" s="294"/>
-      <c r="BY60" s="294"/>
-      <c r="BZ60" s="294"/>
+      <c r="BV60" s="311"/>
+      <c r="BW60" s="311"/>
+      <c r="BX60" s="311"/>
+      <c r="BY60" s="311"/>
+      <c r="BZ60" s="311"/>
       <c r="CA60" s="49"/>
-      <c r="CB60" s="294"/>
-      <c r="CC60" s="294"/>
-      <c r="CD60" s="294"/>
-      <c r="CE60" s="294"/>
-      <c r="CF60" s="294"/>
-      <c r="CG60" s="294"/>
+      <c r="CB60" s="311"/>
+      <c r="CC60" s="311"/>
+      <c r="CD60" s="311"/>
+      <c r="CE60" s="311"/>
+      <c r="CF60" s="311"/>
+      <c r="CG60" s="311"/>
       <c r="CH60" s="51"/>
       <c r="CI60" s="51"/>
-      <c r="CJ60" s="294"/>
-      <c r="CK60" s="294"/>
-      <c r="CL60" s="294"/>
-      <c r="CM60" s="294"/>
-      <c r="CN60" s="294"/>
+      <c r="CJ60" s="311"/>
+      <c r="CK60" s="311"/>
+      <c r="CL60" s="311"/>
+      <c r="CM60" s="311"/>
+      <c r="CN60" s="311"/>
       <c r="CO60" s="51"/>
       <c r="CP60" s="51"/>
-      <c r="CQ60" s="294"/>
-      <c r="CR60" s="294"/>
-      <c r="CS60" s="294"/>
-      <c r="CT60" s="294"/>
-      <c r="CU60" s="294"/>
+      <c r="CQ60" s="311"/>
+      <c r="CR60" s="311"/>
+      <c r="CS60" s="311"/>
+      <c r="CT60" s="311"/>
+      <c r="CU60" s="311"/>
       <c r="CV60" s="44"/>
       <c r="CW60" s="44"/>
-      <c r="CX60" s="294"/>
-      <c r="CY60" s="294"/>
-      <c r="CZ60" s="294"/>
-      <c r="DA60" s="294"/>
-      <c r="DB60" s="294"/>
+      <c r="CX60" s="311"/>
+      <c r="CY60" s="311"/>
+      <c r="CZ60" s="311"/>
+      <c r="DA60" s="311"/>
+      <c r="DB60" s="311"/>
       <c r="DC60" s="44"/>
       <c r="DD60" s="44"/>
-      <c r="DE60" s="294"/>
-      <c r="DF60" s="294"/>
-      <c r="DG60" s="294"/>
-      <c r="DH60" s="294"/>
-      <c r="DI60" s="294"/>
+      <c r="DE60" s="311"/>
+      <c r="DF60" s="311"/>
+      <c r="DG60" s="311"/>
+      <c r="DH60" s="311"/>
+      <c r="DI60" s="311"/>
       <c r="DJ60" s="44"/>
       <c r="DK60" s="44"/>
-      <c r="DL60" s="294"/>
-      <c r="DM60" s="294"/>
-      <c r="DN60" s="294"/>
-      <c r="DO60" s="294"/>
-      <c r="DP60" s="294"/>
+      <c r="DL60" s="311"/>
+      <c r="DM60" s="311"/>
+      <c r="DN60" s="311"/>
+      <c r="DO60" s="311"/>
+      <c r="DP60" s="311"/>
       <c r="DQ60" s="44"/>
       <c r="DR60" s="44"/>
       <c r="DS60" s="50" t="s">
@@ -26971,76 +27048,150 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="QN5:QT5"/>
-    <mergeCell ref="QU5:RA5"/>
-    <mergeCell ref="RB5:RH5"/>
-    <mergeCell ref="RI5:RO5"/>
-    <mergeCell ref="RP5:RV5"/>
-    <mergeCell ref="RW5:SC5"/>
-    <mergeCell ref="QC15:QI15"/>
-    <mergeCell ref="QJ15:QP15"/>
-    <mergeCell ref="QQ15:QW15"/>
-    <mergeCell ref="QX15:RD15"/>
-    <mergeCell ref="RE15:RK15"/>
-    <mergeCell ref="RL15:RR15"/>
-    <mergeCell ref="QG5:QM5"/>
-    <mergeCell ref="NH2:OK2"/>
-    <mergeCell ref="NP5:NV5"/>
-    <mergeCell ref="NW5:OC5"/>
-    <mergeCell ref="OD5:OJ5"/>
-    <mergeCell ref="OK5:OQ5"/>
-    <mergeCell ref="NR15:NX15"/>
-    <mergeCell ref="NY15:OE15"/>
-    <mergeCell ref="OF15:OL15"/>
-    <mergeCell ref="OM15:OS15"/>
-    <mergeCell ref="NI5:NO5"/>
-    <mergeCell ref="OL2:PP2"/>
-    <mergeCell ref="OR5:OX5"/>
-    <mergeCell ref="OY5:PD5"/>
-    <mergeCell ref="PE5:PK5"/>
-    <mergeCell ref="PL5:PR5"/>
-    <mergeCell ref="PS5:PY5"/>
     <mergeCell ref="OT15:OZ15"/>
     <mergeCell ref="PA15:PG15"/>
     <mergeCell ref="PH15:PN15"/>
     <mergeCell ref="PO15:PU15"/>
     <mergeCell ref="PV15:QB15"/>
-    <mergeCell ref="PQ2:QU2"/>
-    <mergeCell ref="HM15:HS15"/>
-    <mergeCell ref="IV15:JB15"/>
-    <mergeCell ref="JC15:JI15"/>
-    <mergeCell ref="JJ15:JP15"/>
-    <mergeCell ref="JQ15:JW15"/>
-    <mergeCell ref="HY5:IE5"/>
-    <mergeCell ref="IF5:IL5"/>
-    <mergeCell ref="IM5:IS5"/>
-    <mergeCell ref="HR5:HX5"/>
-    <mergeCell ref="HI5:HQ5"/>
-    <mergeCell ref="IT5:IZ5"/>
-    <mergeCell ref="IR2:JS2"/>
-    <mergeCell ref="JT2:KX2"/>
-    <mergeCell ref="KL15:KR15"/>
-    <mergeCell ref="KS15:KY15"/>
-    <mergeCell ref="JX15:KD15"/>
-    <mergeCell ref="KE15:KK15"/>
-    <mergeCell ref="HM1:IQ1"/>
-    <mergeCell ref="HM2:IQ2"/>
-    <mergeCell ref="HT15:HZ15"/>
-    <mergeCell ref="IA15:IG15"/>
-    <mergeCell ref="IH15:IN15"/>
-    <mergeCell ref="IO15:IU15"/>
-    <mergeCell ref="KY2:MB2"/>
-    <mergeCell ref="LN15:LT15"/>
-    <mergeCell ref="LU15:MA15"/>
-    <mergeCell ref="MB15:MH15"/>
-    <mergeCell ref="MC2:NG2"/>
-    <mergeCell ref="MU5:NA5"/>
-    <mergeCell ref="NB5:NH5"/>
-    <mergeCell ref="JA5:JG5"/>
-    <mergeCell ref="JH5:JN5"/>
-    <mergeCell ref="JO5:JU5"/>
-    <mergeCell ref="JV5:KB5"/>
-    <mergeCell ref="KC5:KI5"/>
+    <mergeCell ref="NY15:OE15"/>
+    <mergeCell ref="OF15:OL15"/>
+    <mergeCell ref="OM15:OS15"/>
+    <mergeCell ref="NI5:NO5"/>
+    <mergeCell ref="EZ52:FB52"/>
+    <mergeCell ref="D52:AE52"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="AF51:AH51"/>
+    <mergeCell ref="D49:AH49"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="FZ5:GF5"/>
+    <mergeCell ref="DX49:FB49"/>
+    <mergeCell ref="FL5:FR5"/>
+    <mergeCell ref="FS5:FY5"/>
+    <mergeCell ref="EJ5:EP5"/>
+    <mergeCell ref="EQ5:EW5"/>
+    <mergeCell ref="BN52:CN52"/>
+    <mergeCell ref="D51:AE51"/>
+    <mergeCell ref="BN51:CO51"/>
+    <mergeCell ref="CP52:CR52"/>
+    <mergeCell ref="AI51:BJ51"/>
+    <mergeCell ref="BK52:BM52"/>
+    <mergeCell ref="AI52:BI52"/>
+    <mergeCell ref="DU52:DW52"/>
+    <mergeCell ref="BT50:CR50"/>
+    <mergeCell ref="DX51:EY51"/>
+    <mergeCell ref="EC5:EI5"/>
+    <mergeCell ref="EA48:EF48"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E2:AH2"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="R15:X15"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="U5:AA5"/>
+    <mergeCell ref="AB5:AH5"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="AI2:BM2"/>
+    <mergeCell ref="D1:AH1"/>
+    <mergeCell ref="AI1:BM1"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="BN2:CR2"/>
+    <mergeCell ref="BR5:BX5"/>
+    <mergeCell ref="BY5:CE5"/>
+    <mergeCell ref="W48:AB48"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="J50:AH50"/>
+    <mergeCell ref="AK48:AP48"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AV5"/>
+    <mergeCell ref="AW5:BC5"/>
+    <mergeCell ref="BD5:BJ5"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="BN49:CR49"/>
+    <mergeCell ref="BM48:BR48"/>
+    <mergeCell ref="BT48:BY48"/>
+    <mergeCell ref="CA48:CF48"/>
+    <mergeCell ref="CH48:CM48"/>
+    <mergeCell ref="CO48:CT48"/>
+    <mergeCell ref="AI50:AN50"/>
+    <mergeCell ref="AO50:BM50"/>
+    <mergeCell ref="BN50:BS50"/>
+    <mergeCell ref="CF5:CL5"/>
+    <mergeCell ref="CM5:CS5"/>
+    <mergeCell ref="CC15:CI15"/>
+    <mergeCell ref="CJ15:CP15"/>
+    <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="CS49:DW49"/>
+    <mergeCell ref="CQ15:CW15"/>
+    <mergeCell ref="DH5:DN5"/>
+    <mergeCell ref="DO5:DU5"/>
+    <mergeCell ref="DC48:DH48"/>
+    <mergeCell ref="DT48:DY48"/>
+    <mergeCell ref="AI49:BM49"/>
+    <mergeCell ref="AD48:AI48"/>
+    <mergeCell ref="BO15:BU15"/>
+    <mergeCell ref="BV15:CB15"/>
+    <mergeCell ref="BK5:BQ5"/>
+    <mergeCell ref="AY48:BD48"/>
+    <mergeCell ref="BA15:BG15"/>
+    <mergeCell ref="BH15:BN15"/>
+    <mergeCell ref="CX15:DD15"/>
+    <mergeCell ref="DE15:DK15"/>
+    <mergeCell ref="DL15:DR15"/>
+    <mergeCell ref="DS15:DY15"/>
+    <mergeCell ref="AT15:AZ15"/>
+    <mergeCell ref="EG15:EM15"/>
+    <mergeCell ref="CT5:CZ5"/>
+    <mergeCell ref="DA5:DG5"/>
+    <mergeCell ref="CV48:DA48"/>
+    <mergeCell ref="BK51:BM51"/>
+    <mergeCell ref="CS1:DW1"/>
+    <mergeCell ref="CS2:DW2"/>
+    <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="EX5:FD5"/>
+    <mergeCell ref="FC1:GG1"/>
+    <mergeCell ref="GG5:GM5"/>
+    <mergeCell ref="FI15:FO15"/>
+    <mergeCell ref="FP15:FV15"/>
+    <mergeCell ref="FW15:GC15"/>
+    <mergeCell ref="GD15:GJ15"/>
+    <mergeCell ref="DX50:EC50"/>
+    <mergeCell ref="ED50:FB50"/>
+    <mergeCell ref="DZ15:EF15"/>
+    <mergeCell ref="DX1:FB1"/>
+    <mergeCell ref="DX2:FB2"/>
+    <mergeCell ref="EN15:ET15"/>
+    <mergeCell ref="EU15:FA15"/>
+    <mergeCell ref="FB15:FH15"/>
+    <mergeCell ref="DV5:EB5"/>
+    <mergeCell ref="EH48:EM48"/>
+    <mergeCell ref="EZ51:FB51"/>
+    <mergeCell ref="EV48:FA48"/>
+    <mergeCell ref="CP51:CR51"/>
+    <mergeCell ref="CS50:CX50"/>
+    <mergeCell ref="CY50:DW50"/>
+    <mergeCell ref="D60:AE60"/>
+    <mergeCell ref="CS51:DT51"/>
+    <mergeCell ref="DU51:DW51"/>
+    <mergeCell ref="CS52:DS52"/>
+    <mergeCell ref="BA60:BE60"/>
+    <mergeCell ref="BH60:BL60"/>
+    <mergeCell ref="BO60:BS60"/>
+    <mergeCell ref="BV60:BZ60"/>
+    <mergeCell ref="CJ60:CN60"/>
+    <mergeCell ref="CQ60:CU60"/>
+    <mergeCell ref="DE60:DI60"/>
+    <mergeCell ref="DL60:DP60"/>
+    <mergeCell ref="CB60:CG60"/>
+    <mergeCell ref="CX60:DB60"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="DX52:EX52"/>
+    <mergeCell ref="EO48:ET48"/>
+    <mergeCell ref="DM48:DR48"/>
     <mergeCell ref="FC52:GC52"/>
     <mergeCell ref="GE52:GG52"/>
     <mergeCell ref="GH1:HL1"/>
@@ -27065,158 +27216,84 @@
     <mergeCell ref="GL48:GQ48"/>
     <mergeCell ref="FC2:GG2"/>
     <mergeCell ref="FE5:FK5"/>
-    <mergeCell ref="EH48:EM48"/>
-    <mergeCell ref="EZ51:FB51"/>
-    <mergeCell ref="EV48:FA48"/>
-    <mergeCell ref="CP51:CR51"/>
-    <mergeCell ref="CS50:CX50"/>
-    <mergeCell ref="CY50:DW50"/>
-    <mergeCell ref="D60:AE60"/>
-    <mergeCell ref="CS51:DT51"/>
-    <mergeCell ref="DU51:DW51"/>
-    <mergeCell ref="CS52:DS52"/>
-    <mergeCell ref="BA60:BE60"/>
-    <mergeCell ref="BH60:BL60"/>
-    <mergeCell ref="BO60:BS60"/>
-    <mergeCell ref="BV60:BZ60"/>
-    <mergeCell ref="CJ60:CN60"/>
-    <mergeCell ref="CQ60:CU60"/>
-    <mergeCell ref="DE60:DI60"/>
-    <mergeCell ref="DL60:DP60"/>
-    <mergeCell ref="CB60:CG60"/>
-    <mergeCell ref="CX60:DB60"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="DX52:EX52"/>
-    <mergeCell ref="EO48:ET48"/>
-    <mergeCell ref="DM48:DR48"/>
-    <mergeCell ref="EG15:EM15"/>
-    <mergeCell ref="CT5:CZ5"/>
-    <mergeCell ref="DA5:DG5"/>
-    <mergeCell ref="CV48:DA48"/>
-    <mergeCell ref="BK51:BM51"/>
-    <mergeCell ref="CS1:DW1"/>
-    <mergeCell ref="CS2:DW2"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="EX5:FD5"/>
-    <mergeCell ref="FC1:GG1"/>
-    <mergeCell ref="GG5:GM5"/>
-    <mergeCell ref="FI15:FO15"/>
-    <mergeCell ref="FP15:FV15"/>
-    <mergeCell ref="FW15:GC15"/>
-    <mergeCell ref="GD15:GJ15"/>
-    <mergeCell ref="DX50:EC50"/>
-    <mergeCell ref="ED50:FB50"/>
-    <mergeCell ref="DZ15:EF15"/>
-    <mergeCell ref="DX1:FB1"/>
-    <mergeCell ref="DX2:FB2"/>
-    <mergeCell ref="EN15:ET15"/>
-    <mergeCell ref="EU15:FA15"/>
-    <mergeCell ref="FB15:FH15"/>
-    <mergeCell ref="DV5:EB5"/>
-    <mergeCell ref="CC15:CI15"/>
-    <mergeCell ref="CJ15:CP15"/>
-    <mergeCell ref="AM15:AS15"/>
-    <mergeCell ref="CS49:DW49"/>
-    <mergeCell ref="CQ15:CW15"/>
-    <mergeCell ref="DH5:DN5"/>
-    <mergeCell ref="DO5:DU5"/>
-    <mergeCell ref="DC48:DH48"/>
-    <mergeCell ref="DT48:DY48"/>
-    <mergeCell ref="AI49:BM49"/>
-    <mergeCell ref="AD48:AI48"/>
-    <mergeCell ref="BO15:BU15"/>
-    <mergeCell ref="BV15:CB15"/>
-    <mergeCell ref="BK5:BQ5"/>
-    <mergeCell ref="AY48:BD48"/>
-    <mergeCell ref="BA15:BG15"/>
-    <mergeCell ref="BH15:BN15"/>
-    <mergeCell ref="CX15:DD15"/>
-    <mergeCell ref="DE15:DK15"/>
-    <mergeCell ref="DL15:DR15"/>
-    <mergeCell ref="DS15:DY15"/>
-    <mergeCell ref="AT15:AZ15"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="BN2:CR2"/>
-    <mergeCell ref="BR5:BX5"/>
-    <mergeCell ref="BY5:CE5"/>
-    <mergeCell ref="W48:AB48"/>
-    <mergeCell ref="P48:U48"/>
-    <mergeCell ref="J50:AH50"/>
-    <mergeCell ref="AK48:AP48"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AV5"/>
-    <mergeCell ref="AW5:BC5"/>
-    <mergeCell ref="BD5:BJ5"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="BN49:CR49"/>
-    <mergeCell ref="BM48:BR48"/>
-    <mergeCell ref="BT48:BY48"/>
-    <mergeCell ref="CA48:CF48"/>
-    <mergeCell ref="CH48:CM48"/>
-    <mergeCell ref="CO48:CT48"/>
-    <mergeCell ref="AI50:AN50"/>
-    <mergeCell ref="AO50:BM50"/>
-    <mergeCell ref="BN50:BS50"/>
-    <mergeCell ref="CF5:CL5"/>
-    <mergeCell ref="CM5:CS5"/>
-    <mergeCell ref="BK52:BM52"/>
-    <mergeCell ref="AI52:BI52"/>
-    <mergeCell ref="DU52:DW52"/>
-    <mergeCell ref="BT50:CR50"/>
-    <mergeCell ref="DX51:EY51"/>
-    <mergeCell ref="EC5:EI5"/>
-    <mergeCell ref="EA48:EF48"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E2:AH2"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="R15:X15"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="U5:AA5"/>
-    <mergeCell ref="AB5:AH5"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="AI2:BM2"/>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="AI1:BM1"/>
+    <mergeCell ref="HM1:IQ1"/>
+    <mergeCell ref="HM2:IQ2"/>
+    <mergeCell ref="HT15:HZ15"/>
+    <mergeCell ref="IA15:IG15"/>
+    <mergeCell ref="IH15:IN15"/>
+    <mergeCell ref="IO15:IU15"/>
+    <mergeCell ref="KY2:MB2"/>
+    <mergeCell ref="LN15:LT15"/>
+    <mergeCell ref="LU15:MA15"/>
+    <mergeCell ref="MB15:MH15"/>
+    <mergeCell ref="MC2:NG2"/>
+    <mergeCell ref="MU5:NA5"/>
+    <mergeCell ref="NB5:NH5"/>
+    <mergeCell ref="JA5:JG5"/>
+    <mergeCell ref="JH5:JN5"/>
+    <mergeCell ref="JO5:JU5"/>
+    <mergeCell ref="JV5:KB5"/>
+    <mergeCell ref="KC5:KI5"/>
     <mergeCell ref="KZ15:LF15"/>
     <mergeCell ref="LG15:LM15"/>
     <mergeCell ref="KJ5:KP5"/>
     <mergeCell ref="KQ5:KW5"/>
     <mergeCell ref="KX5:LD5"/>
     <mergeCell ref="LE5:LK5"/>
-    <mergeCell ref="MP15:MV15"/>
-    <mergeCell ref="EZ52:FB52"/>
-    <mergeCell ref="D52:AE52"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="AF51:AH51"/>
-    <mergeCell ref="D49:AH49"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="FZ5:GF5"/>
-    <mergeCell ref="DX49:FB49"/>
-    <mergeCell ref="FL5:FR5"/>
-    <mergeCell ref="FS5:FY5"/>
-    <mergeCell ref="EJ5:EP5"/>
-    <mergeCell ref="EQ5:EW5"/>
-    <mergeCell ref="BN52:CN52"/>
-    <mergeCell ref="D51:AE51"/>
-    <mergeCell ref="BN51:CO51"/>
-    <mergeCell ref="CP52:CR52"/>
-    <mergeCell ref="AI51:BJ51"/>
+    <mergeCell ref="IR2:JS2"/>
+    <mergeCell ref="JT2:KX2"/>
+    <mergeCell ref="KL15:KR15"/>
+    <mergeCell ref="KS15:KY15"/>
+    <mergeCell ref="JX15:KD15"/>
+    <mergeCell ref="KE15:KK15"/>
+    <mergeCell ref="NH2:OK2"/>
+    <mergeCell ref="NP5:NV5"/>
+    <mergeCell ref="NW5:OC5"/>
+    <mergeCell ref="OD5:OJ5"/>
+    <mergeCell ref="OK5:OQ5"/>
+    <mergeCell ref="NR15:NX15"/>
     <mergeCell ref="MW15:NC15"/>
     <mergeCell ref="ND15:NJ15"/>
     <mergeCell ref="NK15:NQ15"/>
-    <mergeCell ref="PZ5:QF5"/>
     <mergeCell ref="MI15:MO15"/>
     <mergeCell ref="LL5:LR5"/>
     <mergeCell ref="LS5:LY5"/>
     <mergeCell ref="LZ5:MF5"/>
     <mergeCell ref="MG5:MM5"/>
     <mergeCell ref="MN5:MT5"/>
+    <mergeCell ref="MP15:MV15"/>
+    <mergeCell ref="HM15:HS15"/>
+    <mergeCell ref="IV15:JB15"/>
+    <mergeCell ref="JC15:JI15"/>
+    <mergeCell ref="JJ15:JP15"/>
+    <mergeCell ref="JQ15:JW15"/>
+    <mergeCell ref="HY5:IE5"/>
+    <mergeCell ref="IF5:IL5"/>
+    <mergeCell ref="IM5:IS5"/>
+    <mergeCell ref="HR5:HX5"/>
+    <mergeCell ref="HI5:HQ5"/>
+    <mergeCell ref="IT5:IZ5"/>
+    <mergeCell ref="OL2:PP2"/>
+    <mergeCell ref="OR5:OX5"/>
+    <mergeCell ref="OY5:PD5"/>
+    <mergeCell ref="PE5:PK5"/>
+    <mergeCell ref="PL5:PR5"/>
+    <mergeCell ref="QN5:QT5"/>
+    <mergeCell ref="QU5:RA5"/>
+    <mergeCell ref="RB5:RH5"/>
+    <mergeCell ref="RI5:RO5"/>
+    <mergeCell ref="PQ2:QU2"/>
+    <mergeCell ref="PZ5:QF5"/>
+    <mergeCell ref="PS5:PY5"/>
+    <mergeCell ref="RP5:RV5"/>
+    <mergeCell ref="RW5:SC5"/>
+    <mergeCell ref="QC15:QI15"/>
+    <mergeCell ref="QJ15:QP15"/>
+    <mergeCell ref="QQ15:QW15"/>
+    <mergeCell ref="QX15:RD15"/>
+    <mergeCell ref="RE15:RK15"/>
+    <mergeCell ref="RL15:RR15"/>
+    <mergeCell ref="QG5:QM5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -28117,7 +28194,7 @@
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="M22" s="100" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -28324,7 +28401,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="199" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -29041,7 +29118,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>57</v>
@@ -29992,7 +30069,7 @@
       <c r="O27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="142" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S27" s="159">
         <v>250000</v>
@@ -30019,7 +30096,7 @@
       <c r="O28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="254" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S28" s="159">
         <v>250000</v>
@@ -30046,7 +30123,7 @@
       <c r="O29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="199" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S29" s="159">
         <v>50000</v>
@@ -30100,7 +30177,7 @@
       <c r="O31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="199" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S31" s="159">
         <v>130000</v>
@@ -30154,7 +30231,7 @@
       <c r="O33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="142" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S33" s="159">
         <v>3000000</v>
@@ -30181,7 +30258,7 @@
       <c r="O34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S34" s="159">
         <v>500000</v>
@@ -30262,7 +30339,7 @@
       <c r="O37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="256" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S37" s="159">
         <v>50000</v>
@@ -30289,7 +30366,7 @@
       <c r="O38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="255" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S38" s="159">
         <f>SUM(S39:S50)</f>
@@ -30317,7 +30394,7 @@
       <c r="O39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="256" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S39" s="159">
         <v>4800000</v>
@@ -30360,7 +30437,7 @@
       <c r="O41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="142" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S41" s="159">
         <f>(130000*15+80*1300*45)*4/12</f>
@@ -30371,7 +30448,7 @@
       <c r="C42" s="3"/>
       <c r="P42"/>
       <c r="R42" s="142" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S42" s="159"/>
     </row>
@@ -30796,7 +30873,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -30834,7 +30911,7 @@
         <v>10</v>
       </c>
       <c r="N14" s="158" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
@@ -30872,7 +30949,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="158" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -31044,7 +31121,7 @@
         <v>302</v>
       </c>
       <c r="P21" s="199" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q21" s="142"/>
     </row>

--- a/계획표(일과,자산).xlsx
+++ b/계획표(일과,자산).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22AA21E-355A-E647-A865-5FE872511B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9ACBCD-0E96-3A4D-96A1-72EFD21853D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="450">
   <si>
     <t>에어비엔비 호스팅 가이드</t>
   </si>
@@ -2806,15 +2806,55 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>~8월 7일까지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>상상되고 기대되는 일 : 4시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>봉사</t>
+    <t>순자산 30억</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>육일약국 갑시다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">어제와 똑같이 살면서 다른 미래를 기대하는 것은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정신병 초기증세다.</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>조 
+3.6 
+25</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M9
+27</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M9 
+30</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2851,7 +2891,32 @@
       </rPr>
       <t xml:space="preserve">
 2. 각 실별 용도 이해와 레이아웃 짜기 
-3. 유틸리티 기계 이해 </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">3. 유틸리티 기계 이해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 유틸리티 계통 이해 
+</t>
     </r>
     <r>
       <rPr>
@@ -2862,60 +2927,48 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-4. 유틸리티 계통 이해 
-5. 전기 이해 
+      <t xml:space="preserve">5. 전기 이해 
 6. 생산장비에 따른 건설 스케줄 
 7. 건축자재의 이해 </t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>순자산 30억</t>
+    <t>trend</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>8월</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>육일약국 갑시다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">어제와 똑같이 살면서 다른 미래를 기대하는 것은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정신병 초기증세다.</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>조 
-3.6 
-25</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸 
-M9
+4.1 
 27</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>활성화완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원통형1회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자본주의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>푸 
 M9 
-30</t>
+33</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>~8월 12일까지 (복습 3회 - 8월 15일까지)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M12 
+36</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2930,7 +2983,7 @@
     <numFmt numFmtId="179" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3265,6 +3318,20 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="27">
@@ -3973,7 +4040,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -4760,6 +4827,33 @@
     <xf numFmtId="0" fontId="14" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4844,45 +4938,48 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4890,9 +4987,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5235,7 +5329,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s12997"/>
+                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s13155"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5602,8 +5696,8 @@
   </sheetPr>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5614,7 +5708,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25" customHeight="1">
       <c r="A1" s="209" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25" customHeight="1">
@@ -5797,8 +5891,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -5837,7 +5931,7 @@
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="B2" s="210" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="246" t="s">
@@ -5914,7 +6008,7 @@
         <v>411</v>
       </c>
       <c r="H6" s="210" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="144">
@@ -5925,7 +6019,7 @@
       <c r="D7" s="246"/>
       <c r="E7" s="247"/>
       <c r="F7" s="258" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H7" s="210" t="s">
         <v>413</v>
@@ -5935,9 +6029,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1">
-      <c r="B8" s="244" t="s">
-        <v>435</v>
-      </c>
+      <c r="B8" s="244"/>
       <c r="C8" s="247"/>
       <c r="D8" s="246" t="s">
         <v>377</v>
@@ -6088,7 +6180,7 @@
     <row r="20" spans="3:8" ht="27" customHeight="1">
       <c r="C20" s="247"/>
       <c r="D20" s="246" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E20" s="247"/>
       <c r="F20" s="246"/>
@@ -6257,7 +6349,7 @@
       <c r="A11" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="262"/>
+      <c r="B11" s="271"/>
       <c r="C11" s="243" t="s">
         <v>431</v>
       </c>
@@ -6278,9 +6370,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:SC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="OS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="PT14" sqref="PT14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="OY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="PY14" sqref="PY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -6324,781 +6416,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:497" ht="21" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="292" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="292" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="292" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="288" t="s">
+      <c r="D1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="288"/>
-      <c r="R1" s="288"/>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
-      <c r="U1" s="288"/>
-      <c r="V1" s="288"/>
-      <c r="W1" s="288"/>
-      <c r="X1" s="288"/>
-      <c r="Y1" s="288"/>
-      <c r="Z1" s="288"/>
-      <c r="AA1" s="288"/>
-      <c r="AB1" s="288"/>
-      <c r="AC1" s="288"/>
-      <c r="AD1" s="288"/>
-      <c r="AE1" s="288"/>
-      <c r="AF1" s="288"/>
-      <c r="AG1" s="288"/>
-      <c r="AH1" s="288"/>
-      <c r="AI1" s="288" t="s">
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
+      <c r="N1" s="297"/>
+      <c r="O1" s="297"/>
+      <c r="P1" s="297"/>
+      <c r="Q1" s="297"/>
+      <c r="R1" s="297"/>
+      <c r="S1" s="297"/>
+      <c r="T1" s="297"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="297"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="297"/>
+      <c r="Y1" s="297"/>
+      <c r="Z1" s="297"/>
+      <c r="AA1" s="297"/>
+      <c r="AB1" s="297"/>
+      <c r="AC1" s="297"/>
+      <c r="AD1" s="297"/>
+      <c r="AE1" s="297"/>
+      <c r="AF1" s="297"/>
+      <c r="AG1" s="297"/>
+      <c r="AH1" s="297"/>
+      <c r="AI1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="288"/>
-      <c r="AK1" s="288"/>
-      <c r="AL1" s="288"/>
-      <c r="AM1" s="288"/>
-      <c r="AN1" s="288"/>
-      <c r="AO1" s="288"/>
-      <c r="AP1" s="288"/>
-      <c r="AQ1" s="288"/>
-      <c r="AR1" s="288"/>
-      <c r="AS1" s="288"/>
-      <c r="AT1" s="288"/>
-      <c r="AU1" s="288"/>
-      <c r="AV1" s="288"/>
-      <c r="AW1" s="288"/>
-      <c r="AX1" s="288"/>
-      <c r="AY1" s="288"/>
-      <c r="AZ1" s="288"/>
-      <c r="BA1" s="288"/>
-      <c r="BB1" s="288"/>
-      <c r="BC1" s="288"/>
-      <c r="BD1" s="288"/>
-      <c r="BE1" s="288"/>
-      <c r="BF1" s="288"/>
-      <c r="BG1" s="288"/>
-      <c r="BH1" s="288"/>
-      <c r="BI1" s="288"/>
-      <c r="BJ1" s="288"/>
-      <c r="BK1" s="288"/>
-      <c r="BL1" s="288"/>
-      <c r="BM1" s="288"/>
-      <c r="BN1" s="288" t="s">
+      <c r="AJ1" s="297"/>
+      <c r="AK1" s="297"/>
+      <c r="AL1" s="297"/>
+      <c r="AM1" s="297"/>
+      <c r="AN1" s="297"/>
+      <c r="AO1" s="297"/>
+      <c r="AP1" s="297"/>
+      <c r="AQ1" s="297"/>
+      <c r="AR1" s="297"/>
+      <c r="AS1" s="297"/>
+      <c r="AT1" s="297"/>
+      <c r="AU1" s="297"/>
+      <c r="AV1" s="297"/>
+      <c r="AW1" s="297"/>
+      <c r="AX1" s="297"/>
+      <c r="AY1" s="297"/>
+      <c r="AZ1" s="297"/>
+      <c r="BA1" s="297"/>
+      <c r="BB1" s="297"/>
+      <c r="BC1" s="297"/>
+      <c r="BD1" s="297"/>
+      <c r="BE1" s="297"/>
+      <c r="BF1" s="297"/>
+      <c r="BG1" s="297"/>
+      <c r="BH1" s="297"/>
+      <c r="BI1" s="297"/>
+      <c r="BJ1" s="297"/>
+      <c r="BK1" s="297"/>
+      <c r="BL1" s="297"/>
+      <c r="BM1" s="297"/>
+      <c r="BN1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="288"/>
-      <c r="BP1" s="288"/>
-      <c r="BQ1" s="288"/>
-      <c r="BR1" s="288"/>
-      <c r="BS1" s="288"/>
-      <c r="BT1" s="288"/>
-      <c r="BU1" s="288"/>
-      <c r="BV1" s="288"/>
-      <c r="BW1" s="288"/>
-      <c r="BX1" s="288"/>
-      <c r="BY1" s="288"/>
-      <c r="BZ1" s="288"/>
-      <c r="CA1" s="288"/>
-      <c r="CB1" s="288"/>
-      <c r="CC1" s="288"/>
-      <c r="CD1" s="288"/>
-      <c r="CE1" s="288"/>
-      <c r="CF1" s="288"/>
-      <c r="CG1" s="288"/>
-      <c r="CH1" s="288"/>
-      <c r="CI1" s="288"/>
-      <c r="CJ1" s="288"/>
-      <c r="CK1" s="288"/>
-      <c r="CL1" s="288"/>
-      <c r="CM1" s="288"/>
-      <c r="CN1" s="288"/>
-      <c r="CO1" s="288"/>
-      <c r="CP1" s="288"/>
-      <c r="CQ1" s="288"/>
-      <c r="CR1" s="288"/>
-      <c r="CS1" s="288" t="s">
+      <c r="BO1" s="297"/>
+      <c r="BP1" s="297"/>
+      <c r="BQ1" s="297"/>
+      <c r="BR1" s="297"/>
+      <c r="BS1" s="297"/>
+      <c r="BT1" s="297"/>
+      <c r="BU1" s="297"/>
+      <c r="BV1" s="297"/>
+      <c r="BW1" s="297"/>
+      <c r="BX1" s="297"/>
+      <c r="BY1" s="297"/>
+      <c r="BZ1" s="297"/>
+      <c r="CA1" s="297"/>
+      <c r="CB1" s="297"/>
+      <c r="CC1" s="297"/>
+      <c r="CD1" s="297"/>
+      <c r="CE1" s="297"/>
+      <c r="CF1" s="297"/>
+      <c r="CG1" s="297"/>
+      <c r="CH1" s="297"/>
+      <c r="CI1" s="297"/>
+      <c r="CJ1" s="297"/>
+      <c r="CK1" s="297"/>
+      <c r="CL1" s="297"/>
+      <c r="CM1" s="297"/>
+      <c r="CN1" s="297"/>
+      <c r="CO1" s="297"/>
+      <c r="CP1" s="297"/>
+      <c r="CQ1" s="297"/>
+      <c r="CR1" s="297"/>
+      <c r="CS1" s="297" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="288"/>
-      <c r="CU1" s="288"/>
-      <c r="CV1" s="288"/>
-      <c r="CW1" s="288"/>
-      <c r="CX1" s="288"/>
-      <c r="CY1" s="288"/>
-      <c r="CZ1" s="288"/>
-      <c r="DA1" s="288"/>
-      <c r="DB1" s="288"/>
-      <c r="DC1" s="288"/>
-      <c r="DD1" s="288"/>
-      <c r="DE1" s="288"/>
-      <c r="DF1" s="288"/>
-      <c r="DG1" s="288"/>
-      <c r="DH1" s="288"/>
-      <c r="DI1" s="288"/>
-      <c r="DJ1" s="288"/>
-      <c r="DK1" s="288"/>
-      <c r="DL1" s="288"/>
-      <c r="DM1" s="288"/>
-      <c r="DN1" s="288"/>
-      <c r="DO1" s="288"/>
-      <c r="DP1" s="288"/>
-      <c r="DQ1" s="288"/>
-      <c r="DR1" s="288"/>
-      <c r="DS1" s="288"/>
-      <c r="DT1" s="288"/>
-      <c r="DU1" s="288"/>
-      <c r="DV1" s="288"/>
-      <c r="DW1" s="304"/>
-      <c r="DX1" s="292" t="s">
+      <c r="CT1" s="297"/>
+      <c r="CU1" s="297"/>
+      <c r="CV1" s="297"/>
+      <c r="CW1" s="297"/>
+      <c r="CX1" s="297"/>
+      <c r="CY1" s="297"/>
+      <c r="CZ1" s="297"/>
+      <c r="DA1" s="297"/>
+      <c r="DB1" s="297"/>
+      <c r="DC1" s="297"/>
+      <c r="DD1" s="297"/>
+      <c r="DE1" s="297"/>
+      <c r="DF1" s="297"/>
+      <c r="DG1" s="297"/>
+      <c r="DH1" s="297"/>
+      <c r="DI1" s="297"/>
+      <c r="DJ1" s="297"/>
+      <c r="DK1" s="297"/>
+      <c r="DL1" s="297"/>
+      <c r="DM1" s="297"/>
+      <c r="DN1" s="297"/>
+      <c r="DO1" s="297"/>
+      <c r="DP1" s="297"/>
+      <c r="DQ1" s="297"/>
+      <c r="DR1" s="297"/>
+      <c r="DS1" s="297"/>
+      <c r="DT1" s="297"/>
+      <c r="DU1" s="297"/>
+      <c r="DV1" s="297"/>
+      <c r="DW1" s="314"/>
+      <c r="DX1" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="DY1" s="293"/>
-      <c r="DZ1" s="293"/>
-      <c r="EA1" s="293"/>
-      <c r="EB1" s="293"/>
-      <c r="EC1" s="293"/>
-      <c r="ED1" s="293"/>
-      <c r="EE1" s="293"/>
-      <c r="EF1" s="293"/>
-      <c r="EG1" s="293"/>
-      <c r="EH1" s="293"/>
-      <c r="EI1" s="293"/>
-      <c r="EJ1" s="293"/>
-      <c r="EK1" s="293"/>
-      <c r="EL1" s="293"/>
-      <c r="EM1" s="293"/>
-      <c r="EN1" s="293"/>
-      <c r="EO1" s="293"/>
-      <c r="EP1" s="293"/>
-      <c r="EQ1" s="293"/>
-      <c r="ER1" s="293"/>
-      <c r="ES1" s="293"/>
-      <c r="ET1" s="293"/>
-      <c r="EU1" s="293"/>
-      <c r="EV1" s="293"/>
-      <c r="EW1" s="293"/>
-      <c r="EX1" s="293"/>
-      <c r="EY1" s="293"/>
-      <c r="EZ1" s="293"/>
-      <c r="FA1" s="293"/>
-      <c r="FB1" s="294"/>
-      <c r="FC1" s="292" t="s">
+      <c r="DY1" s="300"/>
+      <c r="DZ1" s="300"/>
+      <c r="EA1" s="300"/>
+      <c r="EB1" s="300"/>
+      <c r="EC1" s="300"/>
+      <c r="ED1" s="300"/>
+      <c r="EE1" s="300"/>
+      <c r="EF1" s="300"/>
+      <c r="EG1" s="300"/>
+      <c r="EH1" s="300"/>
+      <c r="EI1" s="300"/>
+      <c r="EJ1" s="300"/>
+      <c r="EK1" s="300"/>
+      <c r="EL1" s="300"/>
+      <c r="EM1" s="300"/>
+      <c r="EN1" s="300"/>
+      <c r="EO1" s="300"/>
+      <c r="EP1" s="300"/>
+      <c r="EQ1" s="300"/>
+      <c r="ER1" s="300"/>
+      <c r="ES1" s="300"/>
+      <c r="ET1" s="300"/>
+      <c r="EU1" s="300"/>
+      <c r="EV1" s="300"/>
+      <c r="EW1" s="300"/>
+      <c r="EX1" s="300"/>
+      <c r="EY1" s="300"/>
+      <c r="EZ1" s="300"/>
+      <c r="FA1" s="300"/>
+      <c r="FB1" s="301"/>
+      <c r="FC1" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="FD1" s="293"/>
-      <c r="FE1" s="293"/>
-      <c r="FF1" s="293"/>
-      <c r="FG1" s="293"/>
-      <c r="FH1" s="293"/>
-      <c r="FI1" s="293"/>
-      <c r="FJ1" s="293"/>
-      <c r="FK1" s="293"/>
-      <c r="FL1" s="293"/>
-      <c r="FM1" s="293"/>
-      <c r="FN1" s="293"/>
-      <c r="FO1" s="293"/>
-      <c r="FP1" s="293"/>
-      <c r="FQ1" s="293"/>
-      <c r="FR1" s="293"/>
-      <c r="FS1" s="293"/>
-      <c r="FT1" s="293"/>
-      <c r="FU1" s="293"/>
-      <c r="FV1" s="293"/>
-      <c r="FW1" s="293"/>
-      <c r="FX1" s="293"/>
-      <c r="FY1" s="293"/>
-      <c r="FZ1" s="293"/>
-      <c r="GA1" s="293"/>
-      <c r="GB1" s="293"/>
-      <c r="GC1" s="293"/>
-      <c r="GD1" s="293"/>
-      <c r="GE1" s="293"/>
-      <c r="GF1" s="293"/>
-      <c r="GG1" s="294"/>
-      <c r="GH1" s="292" t="s">
+      <c r="FD1" s="300"/>
+      <c r="FE1" s="300"/>
+      <c r="FF1" s="300"/>
+      <c r="FG1" s="300"/>
+      <c r="FH1" s="300"/>
+      <c r="FI1" s="300"/>
+      <c r="FJ1" s="300"/>
+      <c r="FK1" s="300"/>
+      <c r="FL1" s="300"/>
+      <c r="FM1" s="300"/>
+      <c r="FN1" s="300"/>
+      <c r="FO1" s="300"/>
+      <c r="FP1" s="300"/>
+      <c r="FQ1" s="300"/>
+      <c r="FR1" s="300"/>
+      <c r="FS1" s="300"/>
+      <c r="FT1" s="300"/>
+      <c r="FU1" s="300"/>
+      <c r="FV1" s="300"/>
+      <c r="FW1" s="300"/>
+      <c r="FX1" s="300"/>
+      <c r="FY1" s="300"/>
+      <c r="FZ1" s="300"/>
+      <c r="GA1" s="300"/>
+      <c r="GB1" s="300"/>
+      <c r="GC1" s="300"/>
+      <c r="GD1" s="300"/>
+      <c r="GE1" s="300"/>
+      <c r="GF1" s="300"/>
+      <c r="GG1" s="301"/>
+      <c r="GH1" s="299" t="s">
         <v>67</v>
       </c>
-      <c r="GI1" s="293"/>
-      <c r="GJ1" s="293"/>
-      <c r="GK1" s="293"/>
-      <c r="GL1" s="293"/>
-      <c r="GM1" s="293"/>
-      <c r="GN1" s="293"/>
-      <c r="GO1" s="293"/>
-      <c r="GP1" s="293"/>
-      <c r="GQ1" s="293"/>
-      <c r="GR1" s="293"/>
-      <c r="GS1" s="293"/>
-      <c r="GT1" s="293"/>
-      <c r="GU1" s="293"/>
-      <c r="GV1" s="293"/>
-      <c r="GW1" s="293"/>
-      <c r="GX1" s="293"/>
-      <c r="GY1" s="293"/>
-      <c r="GZ1" s="293"/>
-      <c r="HA1" s="293"/>
-      <c r="HB1" s="293"/>
-      <c r="HC1" s="293"/>
-      <c r="HD1" s="293"/>
-      <c r="HE1" s="293"/>
-      <c r="HF1" s="293"/>
-      <c r="HG1" s="293"/>
-      <c r="HH1" s="293"/>
-      <c r="HI1" s="293"/>
-      <c r="HJ1" s="293"/>
-      <c r="HK1" s="293"/>
-      <c r="HL1" s="294"/>
-      <c r="HM1" s="314" t="s">
+      <c r="GI1" s="300"/>
+      <c r="GJ1" s="300"/>
+      <c r="GK1" s="300"/>
+      <c r="GL1" s="300"/>
+      <c r="GM1" s="300"/>
+      <c r="GN1" s="300"/>
+      <c r="GO1" s="300"/>
+      <c r="GP1" s="300"/>
+      <c r="GQ1" s="300"/>
+      <c r="GR1" s="300"/>
+      <c r="GS1" s="300"/>
+      <c r="GT1" s="300"/>
+      <c r="GU1" s="300"/>
+      <c r="GV1" s="300"/>
+      <c r="GW1" s="300"/>
+      <c r="GX1" s="300"/>
+      <c r="GY1" s="300"/>
+      <c r="GZ1" s="300"/>
+      <c r="HA1" s="300"/>
+      <c r="HB1" s="300"/>
+      <c r="HC1" s="300"/>
+      <c r="HD1" s="300"/>
+      <c r="HE1" s="300"/>
+      <c r="HF1" s="300"/>
+      <c r="HG1" s="300"/>
+      <c r="HH1" s="300"/>
+      <c r="HI1" s="300"/>
+      <c r="HJ1" s="300"/>
+      <c r="HK1" s="300"/>
+      <c r="HL1" s="301"/>
+      <c r="HM1" s="323" t="s">
         <v>240</v>
       </c>
-      <c r="HN1" s="293"/>
-      <c r="HO1" s="293"/>
-      <c r="HP1" s="293"/>
-      <c r="HQ1" s="293"/>
-      <c r="HR1" s="293"/>
-      <c r="HS1" s="293"/>
-      <c r="HT1" s="293"/>
-      <c r="HU1" s="293"/>
-      <c r="HV1" s="293"/>
-      <c r="HW1" s="293"/>
-      <c r="HX1" s="293"/>
-      <c r="HY1" s="293"/>
-      <c r="HZ1" s="293"/>
-      <c r="IA1" s="293"/>
-      <c r="IB1" s="293"/>
-      <c r="IC1" s="293"/>
-      <c r="ID1" s="293"/>
-      <c r="IE1" s="293"/>
-      <c r="IF1" s="293"/>
-      <c r="IG1" s="293"/>
-      <c r="IH1" s="293"/>
-      <c r="II1" s="293"/>
-      <c r="IJ1" s="293"/>
-      <c r="IK1" s="293"/>
-      <c r="IL1" s="293"/>
-      <c r="IM1" s="293"/>
-      <c r="IN1" s="293"/>
-      <c r="IO1" s="293"/>
-      <c r="IP1" s="293"/>
-      <c r="IQ1" s="294"/>
+      <c r="HN1" s="300"/>
+      <c r="HO1" s="300"/>
+      <c r="HP1" s="300"/>
+      <c r="HQ1" s="300"/>
+      <c r="HR1" s="300"/>
+      <c r="HS1" s="300"/>
+      <c r="HT1" s="300"/>
+      <c r="HU1" s="300"/>
+      <c r="HV1" s="300"/>
+      <c r="HW1" s="300"/>
+      <c r="HX1" s="300"/>
+      <c r="HY1" s="300"/>
+      <c r="HZ1" s="300"/>
+      <c r="IA1" s="300"/>
+      <c r="IB1" s="300"/>
+      <c r="IC1" s="300"/>
+      <c r="ID1" s="300"/>
+      <c r="IE1" s="300"/>
+      <c r="IF1" s="300"/>
+      <c r="IG1" s="300"/>
+      <c r="IH1" s="300"/>
+      <c r="II1" s="300"/>
+      <c r="IJ1" s="300"/>
+      <c r="IK1" s="300"/>
+      <c r="IL1" s="300"/>
+      <c r="IM1" s="300"/>
+      <c r="IN1" s="300"/>
+      <c r="IO1" s="300"/>
+      <c r="IP1" s="300"/>
+      <c r="IQ1" s="301"/>
     </row>
     <row r="2" spans="1:497" ht="21" customHeight="1">
-      <c r="A2" s="283"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
+      <c r="A2" s="292"/>
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
       <c r="D2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="283" t="s">
+      <c r="E2" s="292" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="283"/>
-      <c r="W2" s="283"/>
-      <c r="X2" s="283"/>
-      <c r="Y2" s="283"/>
-      <c r="Z2" s="283"/>
-      <c r="AA2" s="283"/>
-      <c r="AB2" s="283"/>
-      <c r="AC2" s="283"/>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
-      <c r="AF2" s="283"/>
-      <c r="AG2" s="283"/>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="283" t="s">
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="292"/>
+      <c r="P2" s="292"/>
+      <c r="Q2" s="292"/>
+      <c r="R2" s="292"/>
+      <c r="S2" s="292"/>
+      <c r="T2" s="292"/>
+      <c r="U2" s="292"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="292"/>
+      <c r="Y2" s="292"/>
+      <c r="Z2" s="292"/>
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="292"/>
+      <c r="AC2" s="292"/>
+      <c r="AD2" s="292"/>
+      <c r="AE2" s="292"/>
+      <c r="AF2" s="292"/>
+      <c r="AG2" s="292"/>
+      <c r="AH2" s="292"/>
+      <c r="AI2" s="292" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="283"/>
-      <c r="AK2" s="283"/>
-      <c r="AL2" s="283"/>
-      <c r="AM2" s="283"/>
-      <c r="AN2" s="283"/>
-      <c r="AO2" s="283"/>
-      <c r="AP2" s="283"/>
-      <c r="AQ2" s="283"/>
-      <c r="AR2" s="283"/>
-      <c r="AS2" s="283"/>
-      <c r="AT2" s="283"/>
-      <c r="AU2" s="283"/>
-      <c r="AV2" s="283"/>
-      <c r="AW2" s="283"/>
-      <c r="AX2" s="283"/>
-      <c r="AY2" s="283"/>
-      <c r="AZ2" s="283"/>
-      <c r="BA2" s="283"/>
-      <c r="BB2" s="283"/>
-      <c r="BC2" s="283"/>
-      <c r="BD2" s="283"/>
-      <c r="BE2" s="283"/>
-      <c r="BF2" s="283"/>
-      <c r="BG2" s="283"/>
-      <c r="BH2" s="283"/>
-      <c r="BI2" s="283"/>
-      <c r="BJ2" s="283"/>
-      <c r="BK2" s="283"/>
-      <c r="BL2" s="283"/>
-      <c r="BM2" s="283"/>
-      <c r="BN2" s="283" t="s">
+      <c r="AJ2" s="292"/>
+      <c r="AK2" s="292"/>
+      <c r="AL2" s="292"/>
+      <c r="AM2" s="292"/>
+      <c r="AN2" s="292"/>
+      <c r="AO2" s="292"/>
+      <c r="AP2" s="292"/>
+      <c r="AQ2" s="292"/>
+      <c r="AR2" s="292"/>
+      <c r="AS2" s="292"/>
+      <c r="AT2" s="292"/>
+      <c r="AU2" s="292"/>
+      <c r="AV2" s="292"/>
+      <c r="AW2" s="292"/>
+      <c r="AX2" s="292"/>
+      <c r="AY2" s="292"/>
+      <c r="AZ2" s="292"/>
+      <c r="BA2" s="292"/>
+      <c r="BB2" s="292"/>
+      <c r="BC2" s="292"/>
+      <c r="BD2" s="292"/>
+      <c r="BE2" s="292"/>
+      <c r="BF2" s="292"/>
+      <c r="BG2" s="292"/>
+      <c r="BH2" s="292"/>
+      <c r="BI2" s="292"/>
+      <c r="BJ2" s="292"/>
+      <c r="BK2" s="292"/>
+      <c r="BL2" s="292"/>
+      <c r="BM2" s="292"/>
+      <c r="BN2" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" s="283"/>
-      <c r="BP2" s="283"/>
-      <c r="BQ2" s="283"/>
-      <c r="BR2" s="283"/>
-      <c r="BS2" s="283"/>
-      <c r="BT2" s="283"/>
-      <c r="BU2" s="283"/>
-      <c r="BV2" s="283"/>
-      <c r="BW2" s="283"/>
-      <c r="BX2" s="283"/>
-      <c r="BY2" s="283"/>
-      <c r="BZ2" s="283"/>
-      <c r="CA2" s="283"/>
-      <c r="CB2" s="283"/>
-      <c r="CC2" s="283"/>
-      <c r="CD2" s="283"/>
-      <c r="CE2" s="283"/>
-      <c r="CF2" s="283"/>
-      <c r="CG2" s="283"/>
-      <c r="CH2" s="283"/>
-      <c r="CI2" s="283"/>
-      <c r="CJ2" s="283"/>
-      <c r="CK2" s="283"/>
-      <c r="CL2" s="283"/>
-      <c r="CM2" s="283"/>
-      <c r="CN2" s="283"/>
-      <c r="CO2" s="283"/>
-      <c r="CP2" s="283"/>
-      <c r="CQ2" s="283"/>
-      <c r="CR2" s="283"/>
-      <c r="CS2" s="283" t="s">
+      <c r="BO2" s="292"/>
+      <c r="BP2" s="292"/>
+      <c r="BQ2" s="292"/>
+      <c r="BR2" s="292"/>
+      <c r="BS2" s="292"/>
+      <c r="BT2" s="292"/>
+      <c r="BU2" s="292"/>
+      <c r="BV2" s="292"/>
+      <c r="BW2" s="292"/>
+      <c r="BX2" s="292"/>
+      <c r="BY2" s="292"/>
+      <c r="BZ2" s="292"/>
+      <c r="CA2" s="292"/>
+      <c r="CB2" s="292"/>
+      <c r="CC2" s="292"/>
+      <c r="CD2" s="292"/>
+      <c r="CE2" s="292"/>
+      <c r="CF2" s="292"/>
+      <c r="CG2" s="292"/>
+      <c r="CH2" s="292"/>
+      <c r="CI2" s="292"/>
+      <c r="CJ2" s="292"/>
+      <c r="CK2" s="292"/>
+      <c r="CL2" s="292"/>
+      <c r="CM2" s="292"/>
+      <c r="CN2" s="292"/>
+      <c r="CO2" s="292"/>
+      <c r="CP2" s="292"/>
+      <c r="CQ2" s="292"/>
+      <c r="CR2" s="292"/>
+      <c r="CS2" s="292" t="s">
         <v>118</v>
       </c>
-      <c r="CT2" s="283"/>
-      <c r="CU2" s="283"/>
-      <c r="CV2" s="283"/>
-      <c r="CW2" s="283"/>
-      <c r="CX2" s="283"/>
-      <c r="CY2" s="283"/>
-      <c r="CZ2" s="283"/>
-      <c r="DA2" s="283"/>
-      <c r="DB2" s="283"/>
-      <c r="DC2" s="283"/>
-      <c r="DD2" s="283"/>
-      <c r="DE2" s="283"/>
-      <c r="DF2" s="283"/>
-      <c r="DG2" s="283"/>
-      <c r="DH2" s="283"/>
-      <c r="DI2" s="283"/>
-      <c r="DJ2" s="283"/>
-      <c r="DK2" s="283"/>
-      <c r="DL2" s="283"/>
-      <c r="DM2" s="283"/>
-      <c r="DN2" s="283"/>
-      <c r="DO2" s="283"/>
-      <c r="DP2" s="283"/>
-      <c r="DQ2" s="283"/>
-      <c r="DR2" s="283"/>
-      <c r="DS2" s="283"/>
-      <c r="DT2" s="283"/>
-      <c r="DU2" s="283"/>
-      <c r="DV2" s="283"/>
-      <c r="DW2" s="305"/>
-      <c r="DX2" s="292" t="s">
+      <c r="CT2" s="292"/>
+      <c r="CU2" s="292"/>
+      <c r="CV2" s="292"/>
+      <c r="CW2" s="292"/>
+      <c r="CX2" s="292"/>
+      <c r="CY2" s="292"/>
+      <c r="CZ2" s="292"/>
+      <c r="DA2" s="292"/>
+      <c r="DB2" s="292"/>
+      <c r="DC2" s="292"/>
+      <c r="DD2" s="292"/>
+      <c r="DE2" s="292"/>
+      <c r="DF2" s="292"/>
+      <c r="DG2" s="292"/>
+      <c r="DH2" s="292"/>
+      <c r="DI2" s="292"/>
+      <c r="DJ2" s="292"/>
+      <c r="DK2" s="292"/>
+      <c r="DL2" s="292"/>
+      <c r="DM2" s="292"/>
+      <c r="DN2" s="292"/>
+      <c r="DO2" s="292"/>
+      <c r="DP2" s="292"/>
+      <c r="DQ2" s="292"/>
+      <c r="DR2" s="292"/>
+      <c r="DS2" s="292"/>
+      <c r="DT2" s="292"/>
+      <c r="DU2" s="292"/>
+      <c r="DV2" s="292"/>
+      <c r="DW2" s="315"/>
+      <c r="DX2" s="299" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="293"/>
-      <c r="DZ2" s="293"/>
-      <c r="EA2" s="293"/>
-      <c r="EB2" s="293"/>
-      <c r="EC2" s="293"/>
-      <c r="ED2" s="293"/>
-      <c r="EE2" s="293"/>
-      <c r="EF2" s="293"/>
-      <c r="EG2" s="293"/>
-      <c r="EH2" s="293"/>
-      <c r="EI2" s="293"/>
-      <c r="EJ2" s="293"/>
-      <c r="EK2" s="293"/>
-      <c r="EL2" s="293"/>
-      <c r="EM2" s="293"/>
-      <c r="EN2" s="293"/>
-      <c r="EO2" s="293"/>
-      <c r="EP2" s="293"/>
-      <c r="EQ2" s="293"/>
-      <c r="ER2" s="293"/>
-      <c r="ES2" s="293"/>
-      <c r="ET2" s="293"/>
-      <c r="EU2" s="293"/>
-      <c r="EV2" s="293"/>
-      <c r="EW2" s="293"/>
-      <c r="EX2" s="293"/>
-      <c r="EY2" s="293"/>
-      <c r="EZ2" s="293"/>
-      <c r="FA2" s="293"/>
-      <c r="FB2" s="294"/>
-      <c r="FC2" s="306" t="s">
+      <c r="DY2" s="300"/>
+      <c r="DZ2" s="300"/>
+      <c r="EA2" s="300"/>
+      <c r="EB2" s="300"/>
+      <c r="EC2" s="300"/>
+      <c r="ED2" s="300"/>
+      <c r="EE2" s="300"/>
+      <c r="EF2" s="300"/>
+      <c r="EG2" s="300"/>
+      <c r="EH2" s="300"/>
+      <c r="EI2" s="300"/>
+      <c r="EJ2" s="300"/>
+      <c r="EK2" s="300"/>
+      <c r="EL2" s="300"/>
+      <c r="EM2" s="300"/>
+      <c r="EN2" s="300"/>
+      <c r="EO2" s="300"/>
+      <c r="EP2" s="300"/>
+      <c r="EQ2" s="300"/>
+      <c r="ER2" s="300"/>
+      <c r="ES2" s="300"/>
+      <c r="ET2" s="300"/>
+      <c r="EU2" s="300"/>
+      <c r="EV2" s="300"/>
+      <c r="EW2" s="300"/>
+      <c r="EX2" s="300"/>
+      <c r="EY2" s="300"/>
+      <c r="EZ2" s="300"/>
+      <c r="FA2" s="300"/>
+      <c r="FB2" s="301"/>
+      <c r="FC2" s="310" t="s">
         <v>131</v>
       </c>
-      <c r="FD2" s="293"/>
-      <c r="FE2" s="293"/>
-      <c r="FF2" s="293"/>
-      <c r="FG2" s="293"/>
-      <c r="FH2" s="293"/>
-      <c r="FI2" s="293"/>
-      <c r="FJ2" s="293"/>
-      <c r="FK2" s="293"/>
-      <c r="FL2" s="293"/>
-      <c r="FM2" s="293"/>
-      <c r="FN2" s="293"/>
-      <c r="FO2" s="293"/>
-      <c r="FP2" s="293"/>
-      <c r="FQ2" s="293"/>
-      <c r="FR2" s="293"/>
-      <c r="FS2" s="293"/>
-      <c r="FT2" s="293"/>
-      <c r="FU2" s="293"/>
-      <c r="FV2" s="293"/>
-      <c r="FW2" s="293"/>
-      <c r="FX2" s="293"/>
-      <c r="FY2" s="293"/>
-      <c r="FZ2" s="293"/>
-      <c r="GA2" s="293"/>
-      <c r="GB2" s="293"/>
-      <c r="GC2" s="293"/>
-      <c r="GD2" s="293"/>
-      <c r="GE2" s="293"/>
-      <c r="GF2" s="293"/>
-      <c r="GG2" s="294"/>
-      <c r="GH2" s="306" t="s">
+      <c r="FD2" s="300"/>
+      <c r="FE2" s="300"/>
+      <c r="FF2" s="300"/>
+      <c r="FG2" s="300"/>
+      <c r="FH2" s="300"/>
+      <c r="FI2" s="300"/>
+      <c r="FJ2" s="300"/>
+      <c r="FK2" s="300"/>
+      <c r="FL2" s="300"/>
+      <c r="FM2" s="300"/>
+      <c r="FN2" s="300"/>
+      <c r="FO2" s="300"/>
+      <c r="FP2" s="300"/>
+      <c r="FQ2" s="300"/>
+      <c r="FR2" s="300"/>
+      <c r="FS2" s="300"/>
+      <c r="FT2" s="300"/>
+      <c r="FU2" s="300"/>
+      <c r="FV2" s="300"/>
+      <c r="FW2" s="300"/>
+      <c r="FX2" s="300"/>
+      <c r="FY2" s="300"/>
+      <c r="FZ2" s="300"/>
+      <c r="GA2" s="300"/>
+      <c r="GB2" s="300"/>
+      <c r="GC2" s="300"/>
+      <c r="GD2" s="300"/>
+      <c r="GE2" s="300"/>
+      <c r="GF2" s="300"/>
+      <c r="GG2" s="301"/>
+      <c r="GH2" s="310" t="s">
         <v>142</v>
       </c>
-      <c r="GI2" s="293"/>
-      <c r="GJ2" s="293"/>
-      <c r="GK2" s="293"/>
-      <c r="GL2" s="293"/>
-      <c r="GM2" s="293"/>
-      <c r="GN2" s="293"/>
-      <c r="GO2" s="293"/>
-      <c r="GP2" s="293"/>
-      <c r="GQ2" s="293"/>
-      <c r="GR2" s="293"/>
-      <c r="GS2" s="293"/>
-      <c r="GT2" s="293"/>
-      <c r="GU2" s="293"/>
-      <c r="GV2" s="293"/>
-      <c r="GW2" s="293"/>
-      <c r="GX2" s="293"/>
-      <c r="GY2" s="293"/>
-      <c r="GZ2" s="293"/>
-      <c r="HA2" s="293"/>
-      <c r="HB2" s="293"/>
-      <c r="HC2" s="293"/>
-      <c r="HD2" s="293"/>
-      <c r="HE2" s="293"/>
-      <c r="HF2" s="293"/>
-      <c r="HG2" s="293"/>
-      <c r="HH2" s="293"/>
-      <c r="HI2" s="293"/>
-      <c r="HJ2" s="293"/>
-      <c r="HK2" s="293"/>
-      <c r="HL2" s="294"/>
-      <c r="HM2" s="314" t="s">
+      <c r="GI2" s="300"/>
+      <c r="GJ2" s="300"/>
+      <c r="GK2" s="300"/>
+      <c r="GL2" s="300"/>
+      <c r="GM2" s="300"/>
+      <c r="GN2" s="300"/>
+      <c r="GO2" s="300"/>
+      <c r="GP2" s="300"/>
+      <c r="GQ2" s="300"/>
+      <c r="GR2" s="300"/>
+      <c r="GS2" s="300"/>
+      <c r="GT2" s="300"/>
+      <c r="GU2" s="300"/>
+      <c r="GV2" s="300"/>
+      <c r="GW2" s="300"/>
+      <c r="GX2" s="300"/>
+      <c r="GY2" s="300"/>
+      <c r="GZ2" s="300"/>
+      <c r="HA2" s="300"/>
+      <c r="HB2" s="300"/>
+      <c r="HC2" s="300"/>
+      <c r="HD2" s="300"/>
+      <c r="HE2" s="300"/>
+      <c r="HF2" s="300"/>
+      <c r="HG2" s="300"/>
+      <c r="HH2" s="300"/>
+      <c r="HI2" s="300"/>
+      <c r="HJ2" s="300"/>
+      <c r="HK2" s="300"/>
+      <c r="HL2" s="301"/>
+      <c r="HM2" s="323" t="s">
         <v>241</v>
       </c>
-      <c r="HN2" s="293"/>
-      <c r="HO2" s="293"/>
-      <c r="HP2" s="293"/>
-      <c r="HQ2" s="293"/>
-      <c r="HR2" s="293"/>
-      <c r="HS2" s="293"/>
-      <c r="HT2" s="293"/>
-      <c r="HU2" s="293"/>
-      <c r="HV2" s="293"/>
-      <c r="HW2" s="293"/>
-      <c r="HX2" s="293"/>
-      <c r="HY2" s="293"/>
-      <c r="HZ2" s="293"/>
-      <c r="IA2" s="293"/>
-      <c r="IB2" s="293"/>
-      <c r="IC2" s="293"/>
-      <c r="ID2" s="293"/>
-      <c r="IE2" s="293"/>
-      <c r="IF2" s="293"/>
-      <c r="IG2" s="293"/>
-      <c r="IH2" s="293"/>
-      <c r="II2" s="293"/>
-      <c r="IJ2" s="293"/>
-      <c r="IK2" s="293"/>
-      <c r="IL2" s="293"/>
-      <c r="IM2" s="293"/>
-      <c r="IN2" s="293"/>
-      <c r="IO2" s="293"/>
-      <c r="IP2" s="293"/>
-      <c r="IQ2" s="294"/>
-      <c r="IR2" s="328" t="s">
+      <c r="HN2" s="300"/>
+      <c r="HO2" s="300"/>
+      <c r="HP2" s="300"/>
+      <c r="HQ2" s="300"/>
+      <c r="HR2" s="300"/>
+      <c r="HS2" s="300"/>
+      <c r="HT2" s="300"/>
+      <c r="HU2" s="300"/>
+      <c r="HV2" s="300"/>
+      <c r="HW2" s="300"/>
+      <c r="HX2" s="300"/>
+      <c r="HY2" s="300"/>
+      <c r="HZ2" s="300"/>
+      <c r="IA2" s="300"/>
+      <c r="IB2" s="300"/>
+      <c r="IC2" s="300"/>
+      <c r="ID2" s="300"/>
+      <c r="IE2" s="300"/>
+      <c r="IF2" s="300"/>
+      <c r="IG2" s="300"/>
+      <c r="IH2" s="300"/>
+      <c r="II2" s="300"/>
+      <c r="IJ2" s="300"/>
+      <c r="IK2" s="300"/>
+      <c r="IL2" s="300"/>
+      <c r="IM2" s="300"/>
+      <c r="IN2" s="300"/>
+      <c r="IO2" s="300"/>
+      <c r="IP2" s="300"/>
+      <c r="IQ2" s="301"/>
+      <c r="IR2" s="337" t="s">
         <v>274</v>
       </c>
-      <c r="IS2" s="329"/>
-      <c r="IT2" s="329"/>
-      <c r="IU2" s="329"/>
-      <c r="IV2" s="329"/>
-      <c r="IW2" s="329"/>
-      <c r="IX2" s="329"/>
-      <c r="IY2" s="329"/>
-      <c r="IZ2" s="329"/>
-      <c r="JA2" s="329"/>
-      <c r="JB2" s="329"/>
-      <c r="JC2" s="329"/>
-      <c r="JD2" s="329"/>
-      <c r="JE2" s="329"/>
-      <c r="JF2" s="329"/>
-      <c r="JG2" s="329"/>
-      <c r="JH2" s="329"/>
-      <c r="JI2" s="329"/>
-      <c r="JJ2" s="329"/>
-      <c r="JK2" s="329"/>
-      <c r="JL2" s="329"/>
-      <c r="JM2" s="329"/>
-      <c r="JN2" s="329"/>
-      <c r="JO2" s="329"/>
-      <c r="JP2" s="329"/>
-      <c r="JQ2" s="329"/>
-      <c r="JR2" s="329"/>
-      <c r="JS2" s="329"/>
-      <c r="JT2" s="330" t="s">
+      <c r="IS2" s="338"/>
+      <c r="IT2" s="338"/>
+      <c r="IU2" s="338"/>
+      <c r="IV2" s="338"/>
+      <c r="IW2" s="338"/>
+      <c r="IX2" s="338"/>
+      <c r="IY2" s="338"/>
+      <c r="IZ2" s="338"/>
+      <c r="JA2" s="338"/>
+      <c r="JB2" s="338"/>
+      <c r="JC2" s="338"/>
+      <c r="JD2" s="338"/>
+      <c r="JE2" s="338"/>
+      <c r="JF2" s="338"/>
+      <c r="JG2" s="338"/>
+      <c r="JH2" s="338"/>
+      <c r="JI2" s="338"/>
+      <c r="JJ2" s="338"/>
+      <c r="JK2" s="338"/>
+      <c r="JL2" s="338"/>
+      <c r="JM2" s="338"/>
+      <c r="JN2" s="338"/>
+      <c r="JO2" s="338"/>
+      <c r="JP2" s="338"/>
+      <c r="JQ2" s="338"/>
+      <c r="JR2" s="338"/>
+      <c r="JS2" s="338"/>
+      <c r="JT2" s="339" t="s">
         <v>282</v>
       </c>
-      <c r="JU2" s="331"/>
-      <c r="JV2" s="331"/>
-      <c r="JW2" s="331"/>
-      <c r="JX2" s="331"/>
-      <c r="JY2" s="331"/>
-      <c r="JZ2" s="331"/>
-      <c r="KA2" s="331"/>
-      <c r="KB2" s="331"/>
-      <c r="KC2" s="331"/>
-      <c r="KD2" s="331"/>
-      <c r="KE2" s="331"/>
-      <c r="KF2" s="331"/>
-      <c r="KG2" s="331"/>
-      <c r="KH2" s="331"/>
-      <c r="KI2" s="331"/>
-      <c r="KJ2" s="331"/>
-      <c r="KK2" s="331"/>
-      <c r="KL2" s="331"/>
-      <c r="KM2" s="331"/>
-      <c r="KN2" s="331"/>
-      <c r="KO2" s="331"/>
-      <c r="KP2" s="331"/>
-      <c r="KQ2" s="331"/>
-      <c r="KR2" s="331"/>
-      <c r="KS2" s="331"/>
-      <c r="KT2" s="331"/>
-      <c r="KU2" s="331"/>
-      <c r="KV2" s="331"/>
-      <c r="KW2" s="331"/>
-      <c r="KX2" s="332"/>
-      <c r="KY2" s="316" t="s">
+      <c r="JU2" s="340"/>
+      <c r="JV2" s="340"/>
+      <c r="JW2" s="340"/>
+      <c r="JX2" s="340"/>
+      <c r="JY2" s="340"/>
+      <c r="JZ2" s="340"/>
+      <c r="KA2" s="340"/>
+      <c r="KB2" s="340"/>
+      <c r="KC2" s="340"/>
+      <c r="KD2" s="340"/>
+      <c r="KE2" s="340"/>
+      <c r="KF2" s="340"/>
+      <c r="KG2" s="340"/>
+      <c r="KH2" s="340"/>
+      <c r="KI2" s="340"/>
+      <c r="KJ2" s="340"/>
+      <c r="KK2" s="340"/>
+      <c r="KL2" s="340"/>
+      <c r="KM2" s="340"/>
+      <c r="KN2" s="340"/>
+      <c r="KO2" s="340"/>
+      <c r="KP2" s="340"/>
+      <c r="KQ2" s="340"/>
+      <c r="KR2" s="340"/>
+      <c r="KS2" s="340"/>
+      <c r="KT2" s="340"/>
+      <c r="KU2" s="340"/>
+      <c r="KV2" s="340"/>
+      <c r="KW2" s="340"/>
+      <c r="KX2" s="341"/>
+      <c r="KY2" s="325" t="s">
         <v>323</v>
       </c>
-      <c r="KZ2" s="317"/>
-      <c r="LA2" s="317"/>
-      <c r="LB2" s="317"/>
-      <c r="LC2" s="317"/>
-      <c r="LD2" s="317"/>
-      <c r="LE2" s="317"/>
-      <c r="LF2" s="317"/>
-      <c r="LG2" s="317"/>
-      <c r="LH2" s="317"/>
-      <c r="LI2" s="317"/>
-      <c r="LJ2" s="317"/>
-      <c r="LK2" s="317"/>
-      <c r="LL2" s="317"/>
-      <c r="LM2" s="317"/>
-      <c r="LN2" s="317"/>
-      <c r="LO2" s="317"/>
-      <c r="LP2" s="317"/>
-      <c r="LQ2" s="317"/>
-      <c r="LR2" s="317"/>
-      <c r="LS2" s="317"/>
-      <c r="LT2" s="317"/>
-      <c r="LU2" s="317"/>
-      <c r="LV2" s="317"/>
-      <c r="LW2" s="317"/>
-      <c r="LX2" s="317"/>
-      <c r="LY2" s="317"/>
-      <c r="LZ2" s="317"/>
-      <c r="MA2" s="317"/>
-      <c r="MB2" s="318"/>
-      <c r="MC2" s="316" t="s">
+      <c r="KZ2" s="326"/>
+      <c r="LA2" s="326"/>
+      <c r="LB2" s="326"/>
+      <c r="LC2" s="326"/>
+      <c r="LD2" s="326"/>
+      <c r="LE2" s="326"/>
+      <c r="LF2" s="326"/>
+      <c r="LG2" s="326"/>
+      <c r="LH2" s="326"/>
+      <c r="LI2" s="326"/>
+      <c r="LJ2" s="326"/>
+      <c r="LK2" s="326"/>
+      <c r="LL2" s="326"/>
+      <c r="LM2" s="326"/>
+      <c r="LN2" s="326"/>
+      <c r="LO2" s="326"/>
+      <c r="LP2" s="326"/>
+      <c r="LQ2" s="326"/>
+      <c r="LR2" s="326"/>
+      <c r="LS2" s="326"/>
+      <c r="LT2" s="326"/>
+      <c r="LU2" s="326"/>
+      <c r="LV2" s="326"/>
+      <c r="LW2" s="326"/>
+      <c r="LX2" s="326"/>
+      <c r="LY2" s="326"/>
+      <c r="LZ2" s="326"/>
+      <c r="MA2" s="326"/>
+      <c r="MB2" s="327"/>
+      <c r="MC2" s="325" t="s">
         <v>330</v>
       </c>
-      <c r="MD2" s="317"/>
-      <c r="ME2" s="317"/>
-      <c r="MF2" s="317"/>
-      <c r="MG2" s="317"/>
-      <c r="MH2" s="317"/>
-      <c r="MI2" s="317"/>
-      <c r="MJ2" s="317"/>
-      <c r="MK2" s="317"/>
-      <c r="ML2" s="317"/>
-      <c r="MM2" s="317"/>
-      <c r="MN2" s="317"/>
-      <c r="MO2" s="317"/>
-      <c r="MP2" s="317"/>
-      <c r="MQ2" s="317"/>
-      <c r="MR2" s="317"/>
-      <c r="MS2" s="317"/>
-      <c r="MT2" s="317"/>
-      <c r="MU2" s="317"/>
-      <c r="MV2" s="317"/>
-      <c r="MW2" s="317"/>
-      <c r="MX2" s="317"/>
-      <c r="MY2" s="317"/>
-      <c r="MZ2" s="317"/>
-      <c r="NA2" s="317"/>
-      <c r="NB2" s="317"/>
-      <c r="NC2" s="317"/>
-      <c r="ND2" s="317"/>
-      <c r="NE2" s="319"/>
-      <c r="NF2" s="319"/>
-      <c r="NG2" s="320"/>
-      <c r="NH2" s="316" t="s">
+      <c r="MD2" s="326"/>
+      <c r="ME2" s="326"/>
+      <c r="MF2" s="326"/>
+      <c r="MG2" s="326"/>
+      <c r="MH2" s="326"/>
+      <c r="MI2" s="326"/>
+      <c r="MJ2" s="326"/>
+      <c r="MK2" s="326"/>
+      <c r="ML2" s="326"/>
+      <c r="MM2" s="326"/>
+      <c r="MN2" s="326"/>
+      <c r="MO2" s="326"/>
+      <c r="MP2" s="326"/>
+      <c r="MQ2" s="326"/>
+      <c r="MR2" s="326"/>
+      <c r="MS2" s="326"/>
+      <c r="MT2" s="326"/>
+      <c r="MU2" s="326"/>
+      <c r="MV2" s="326"/>
+      <c r="MW2" s="326"/>
+      <c r="MX2" s="326"/>
+      <c r="MY2" s="326"/>
+      <c r="MZ2" s="326"/>
+      <c r="NA2" s="326"/>
+      <c r="NB2" s="326"/>
+      <c r="NC2" s="326"/>
+      <c r="ND2" s="326"/>
+      <c r="NE2" s="328"/>
+      <c r="NF2" s="328"/>
+      <c r="NG2" s="329"/>
+      <c r="NH2" s="325" t="s">
         <v>347</v>
       </c>
-      <c r="NI2" s="317"/>
-      <c r="NJ2" s="317"/>
-      <c r="NK2" s="317"/>
-      <c r="NL2" s="317"/>
-      <c r="NM2" s="317"/>
-      <c r="NN2" s="317"/>
-      <c r="NO2" s="317"/>
-      <c r="NP2" s="317"/>
-      <c r="NQ2" s="317"/>
-      <c r="NR2" s="317"/>
-      <c r="NS2" s="317"/>
-      <c r="NT2" s="317"/>
-      <c r="NU2" s="317"/>
-      <c r="NV2" s="317"/>
-      <c r="NW2" s="317"/>
-      <c r="NX2" s="317"/>
-      <c r="NY2" s="317"/>
-      <c r="NZ2" s="317"/>
-      <c r="OA2" s="317"/>
-      <c r="OB2" s="317"/>
-      <c r="OC2" s="317"/>
-      <c r="OD2" s="317"/>
-      <c r="OE2" s="317"/>
-      <c r="OF2" s="317"/>
-      <c r="OG2" s="317"/>
-      <c r="OH2" s="317"/>
-      <c r="OI2" s="317"/>
-      <c r="OJ2" s="317"/>
-      <c r="OK2" s="317"/>
-      <c r="OL2" s="312" t="s">
+      <c r="NI2" s="326"/>
+      <c r="NJ2" s="326"/>
+      <c r="NK2" s="326"/>
+      <c r="NL2" s="326"/>
+      <c r="NM2" s="326"/>
+      <c r="NN2" s="326"/>
+      <c r="NO2" s="326"/>
+      <c r="NP2" s="326"/>
+      <c r="NQ2" s="326"/>
+      <c r="NR2" s="326"/>
+      <c r="NS2" s="326"/>
+      <c r="NT2" s="326"/>
+      <c r="NU2" s="326"/>
+      <c r="NV2" s="326"/>
+      <c r="NW2" s="326"/>
+      <c r="NX2" s="326"/>
+      <c r="NY2" s="326"/>
+      <c r="NZ2" s="326"/>
+      <c r="OA2" s="326"/>
+      <c r="OB2" s="326"/>
+      <c r="OC2" s="326"/>
+      <c r="OD2" s="326"/>
+      <c r="OE2" s="326"/>
+      <c r="OF2" s="326"/>
+      <c r="OG2" s="326"/>
+      <c r="OH2" s="326"/>
+      <c r="OI2" s="326"/>
+      <c r="OJ2" s="326"/>
+      <c r="OK2" s="326"/>
+      <c r="OL2" s="321" t="s">
         <v>374</v>
       </c>
-      <c r="OM2" s="313"/>
-      <c r="ON2" s="313"/>
-      <c r="OO2" s="313"/>
-      <c r="OP2" s="313"/>
-      <c r="OQ2" s="313"/>
-      <c r="OR2" s="313"/>
-      <c r="OS2" s="313"/>
-      <c r="OT2" s="313"/>
-      <c r="OU2" s="313"/>
-      <c r="OV2" s="313"/>
-      <c r="OW2" s="313"/>
-      <c r="OX2" s="313"/>
-      <c r="OY2" s="313"/>
-      <c r="OZ2" s="313"/>
-      <c r="PA2" s="313"/>
-      <c r="PB2" s="313"/>
-      <c r="PC2" s="313"/>
-      <c r="PD2" s="313"/>
-      <c r="PE2" s="313"/>
-      <c r="PF2" s="313"/>
-      <c r="PG2" s="313"/>
-      <c r="PH2" s="313"/>
-      <c r="PI2" s="313"/>
-      <c r="PJ2" s="313"/>
-      <c r="PK2" s="313"/>
-      <c r="PL2" s="313"/>
-      <c r="PM2" s="313"/>
-      <c r="PN2" s="313"/>
-      <c r="PO2" s="313"/>
-      <c r="PP2" s="313"/>
-      <c r="PQ2" s="312" t="s">
-        <v>438</v>
-      </c>
-      <c r="PR2" s="313"/>
-      <c r="PS2" s="313"/>
-      <c r="PT2" s="313"/>
-      <c r="PU2" s="313"/>
-      <c r="PV2" s="313"/>
-      <c r="PW2" s="313"/>
-      <c r="PX2" s="313"/>
-      <c r="PY2" s="313"/>
-      <c r="PZ2" s="313"/>
-      <c r="QA2" s="313"/>
-      <c r="QB2" s="313"/>
-      <c r="QC2" s="313"/>
-      <c r="QD2" s="313"/>
-      <c r="QE2" s="313"/>
-      <c r="QF2" s="313"/>
-      <c r="QG2" s="313"/>
-      <c r="QH2" s="313"/>
-      <c r="QI2" s="313"/>
-      <c r="QJ2" s="313"/>
-      <c r="QK2" s="313"/>
-      <c r="QL2" s="313"/>
-      <c r="QM2" s="313"/>
-      <c r="QN2" s="313"/>
-      <c r="QO2" s="313"/>
-      <c r="QP2" s="313"/>
-      <c r="QQ2" s="313"/>
-      <c r="QR2" s="313"/>
-      <c r="QS2" s="313"/>
-      <c r="QT2" s="313"/>
-      <c r="QU2" s="313"/>
+      <c r="OM2" s="322"/>
+      <c r="ON2" s="322"/>
+      <c r="OO2" s="322"/>
+      <c r="OP2" s="322"/>
+      <c r="OQ2" s="322"/>
+      <c r="OR2" s="322"/>
+      <c r="OS2" s="322"/>
+      <c r="OT2" s="322"/>
+      <c r="OU2" s="322"/>
+      <c r="OV2" s="322"/>
+      <c r="OW2" s="322"/>
+      <c r="OX2" s="322"/>
+      <c r="OY2" s="322"/>
+      <c r="OZ2" s="322"/>
+      <c r="PA2" s="322"/>
+      <c r="PB2" s="322"/>
+      <c r="PC2" s="322"/>
+      <c r="PD2" s="322"/>
+      <c r="PE2" s="322"/>
+      <c r="PF2" s="322"/>
+      <c r="PG2" s="322"/>
+      <c r="PH2" s="322"/>
+      <c r="PI2" s="322"/>
+      <c r="PJ2" s="322"/>
+      <c r="PK2" s="322"/>
+      <c r="PL2" s="322"/>
+      <c r="PM2" s="322"/>
+      <c r="PN2" s="322"/>
+      <c r="PO2" s="322"/>
+      <c r="PP2" s="322"/>
+      <c r="PQ2" s="321" t="s">
+        <v>435</v>
+      </c>
+      <c r="PR2" s="322"/>
+      <c r="PS2" s="322"/>
+      <c r="PT2" s="322"/>
+      <c r="PU2" s="322"/>
+      <c r="PV2" s="322"/>
+      <c r="PW2" s="322"/>
+      <c r="PX2" s="322"/>
+      <c r="PY2" s="322"/>
+      <c r="PZ2" s="322"/>
+      <c r="QA2" s="322"/>
+      <c r="QB2" s="322"/>
+      <c r="QC2" s="322"/>
+      <c r="QD2" s="322"/>
+      <c r="QE2" s="322"/>
+      <c r="QF2" s="322"/>
+      <c r="QG2" s="322"/>
+      <c r="QH2" s="322"/>
+      <c r="QI2" s="322"/>
+      <c r="QJ2" s="322"/>
+      <c r="QK2" s="322"/>
+      <c r="QL2" s="322"/>
+      <c r="QM2" s="322"/>
+      <c r="QN2" s="322"/>
+      <c r="QO2" s="322"/>
+      <c r="QP2" s="322"/>
+      <c r="QQ2" s="322"/>
+      <c r="QR2" s="322"/>
+      <c r="QS2" s="322"/>
+      <c r="QT2" s="322"/>
+      <c r="QU2" s="322"/>
     </row>
     <row r="3" spans="1:497" ht="21" customHeight="1">
-      <c r="A3" s="283"/>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
+      <c r="A3" s="292"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
       <c r="D3" s="77">
         <v>31</v>
       </c>
@@ -9406,11 +9498,21 @@
       <c r="PT4" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU4" s="125"/>
-      <c r="PV4" s="125"/>
-      <c r="PW4" s="125"/>
-      <c r="PX4" s="125"/>
-      <c r="PY4" s="125"/>
+      <c r="PU4" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV4" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PW4" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX4" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY4" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ4" s="125"/>
       <c r="QA4" s="125"/>
       <c r="QB4" s="125"/>
@@ -9455,570 +9557,570 @@
       <c r="C5" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="286"/>
-      <c r="O5" s="286"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="286"/>
-      <c r="R5" s="286"/>
-      <c r="S5" s="286"/>
-      <c r="T5" s="286"/>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="286"/>
-      <c r="AA5" s="286"/>
-      <c r="AB5" s="286"/>
-      <c r="AC5" s="286"/>
-      <c r="AD5" s="286"/>
-      <c r="AE5" s="286"/>
-      <c r="AF5" s="286"/>
-      <c r="AG5" s="286"/>
-      <c r="AH5" s="286"/>
-      <c r="AI5" s="286"/>
-      <c r="AJ5" s="286"/>
-      <c r="AK5" s="286"/>
-      <c r="AL5" s="286"/>
-      <c r="AM5" s="286"/>
-      <c r="AN5" s="286"/>
-      <c r="AO5" s="286"/>
-      <c r="AP5" s="286"/>
-      <c r="AQ5" s="286"/>
-      <c r="AR5" s="286"/>
-      <c r="AS5" s="286"/>
-      <c r="AT5" s="286"/>
-      <c r="AU5" s="286"/>
-      <c r="AV5" s="286"/>
-      <c r="AW5" s="286"/>
-      <c r="AX5" s="286"/>
-      <c r="AY5" s="286"/>
-      <c r="AZ5" s="286"/>
-      <c r="BA5" s="286"/>
-      <c r="BB5" s="286"/>
-      <c r="BC5" s="286"/>
-      <c r="BD5" s="286"/>
-      <c r="BE5" s="286"/>
-      <c r="BF5" s="286"/>
-      <c r="BG5" s="286"/>
-      <c r="BH5" s="286"/>
-      <c r="BI5" s="286"/>
-      <c r="BJ5" s="286"/>
-      <c r="BK5" s="286"/>
-      <c r="BL5" s="286"/>
-      <c r="BM5" s="286"/>
-      <c r="BN5" s="286"/>
-      <c r="BO5" s="286"/>
-      <c r="BP5" s="286"/>
-      <c r="BQ5" s="286"/>
-      <c r="BR5" s="286"/>
-      <c r="BS5" s="286"/>
-      <c r="BT5" s="286"/>
-      <c r="BU5" s="286"/>
-      <c r="BV5" s="286"/>
-      <c r="BW5" s="286"/>
-      <c r="BX5" s="286"/>
-      <c r="BY5" s="286"/>
-      <c r="BZ5" s="286"/>
-      <c r="CA5" s="286"/>
-      <c r="CB5" s="286"/>
-      <c r="CC5" s="286"/>
-      <c r="CD5" s="286"/>
-      <c r="CE5" s="286"/>
-      <c r="CF5" s="286"/>
-      <c r="CG5" s="286"/>
-      <c r="CH5" s="286"/>
-      <c r="CI5" s="286"/>
-      <c r="CJ5" s="286"/>
-      <c r="CK5" s="286"/>
-      <c r="CL5" s="286"/>
-      <c r="CM5" s="286"/>
-      <c r="CN5" s="286"/>
-      <c r="CO5" s="286"/>
-      <c r="CP5" s="286"/>
-      <c r="CQ5" s="286"/>
-      <c r="CR5" s="286"/>
-      <c r="CS5" s="286"/>
-      <c r="CT5" s="286"/>
-      <c r="CU5" s="286"/>
-      <c r="CV5" s="286"/>
-      <c r="CW5" s="286"/>
-      <c r="CX5" s="286"/>
-      <c r="CY5" s="286"/>
-      <c r="CZ5" s="286"/>
-      <c r="DA5" s="286"/>
-      <c r="DB5" s="286"/>
-      <c r="DC5" s="286"/>
-      <c r="DD5" s="286"/>
-      <c r="DE5" s="286"/>
-      <c r="DF5" s="286"/>
-      <c r="DG5" s="286"/>
-      <c r="DH5" s="286"/>
-      <c r="DI5" s="286"/>
-      <c r="DJ5" s="286"/>
-      <c r="DK5" s="286"/>
-      <c r="DL5" s="286"/>
-      <c r="DM5" s="286"/>
-      <c r="DN5" s="286"/>
-      <c r="DO5" s="279"/>
-      <c r="DP5" s="280"/>
-      <c r="DQ5" s="280"/>
-      <c r="DR5" s="280"/>
-      <c r="DS5" s="280"/>
-      <c r="DT5" s="280"/>
-      <c r="DU5" s="281"/>
-      <c r="DV5" s="279"/>
-      <c r="DW5" s="280"/>
-      <c r="DX5" s="280"/>
-      <c r="DY5" s="280"/>
-      <c r="DZ5" s="280"/>
-      <c r="EA5" s="280"/>
-      <c r="EB5" s="281"/>
-      <c r="EC5" s="279"/>
-      <c r="ED5" s="280"/>
-      <c r="EE5" s="280"/>
-      <c r="EF5" s="280"/>
-      <c r="EG5" s="280"/>
-      <c r="EH5" s="280"/>
-      <c r="EI5" s="281"/>
-      <c r="EJ5" s="279"/>
-      <c r="EK5" s="280"/>
-      <c r="EL5" s="280"/>
-      <c r="EM5" s="280"/>
-      <c r="EN5" s="280"/>
-      <c r="EO5" s="280"/>
-      <c r="EP5" s="281"/>
-      <c r="EQ5" s="279"/>
-      <c r="ER5" s="280"/>
-      <c r="ES5" s="280"/>
-      <c r="ET5" s="280"/>
-      <c r="EU5" s="280"/>
-      <c r="EV5" s="280"/>
-      <c r="EW5" s="281"/>
-      <c r="EX5" s="279"/>
-      <c r="EY5" s="280"/>
-      <c r="EZ5" s="280"/>
-      <c r="FA5" s="280"/>
-      <c r="FB5" s="280"/>
-      <c r="FC5" s="280"/>
-      <c r="FD5" s="281"/>
-      <c r="FE5" s="279"/>
-      <c r="FF5" s="280"/>
-      <c r="FG5" s="280"/>
-      <c r="FH5" s="280"/>
-      <c r="FI5" s="280"/>
-      <c r="FJ5" s="280"/>
-      <c r="FK5" s="281"/>
-      <c r="FL5" s="279"/>
-      <c r="FM5" s="280"/>
-      <c r="FN5" s="280"/>
-      <c r="FO5" s="280"/>
-      <c r="FP5" s="280"/>
-      <c r="FQ5" s="280"/>
-      <c r="FR5" s="281"/>
-      <c r="FS5" s="279"/>
-      <c r="FT5" s="280"/>
-      <c r="FU5" s="280"/>
-      <c r="FV5" s="280"/>
-      <c r="FW5" s="280"/>
-      <c r="FX5" s="280"/>
-      <c r="FY5" s="281"/>
-      <c r="FZ5" s="279"/>
-      <c r="GA5" s="280"/>
-      <c r="GB5" s="280"/>
-      <c r="GC5" s="280"/>
-      <c r="GD5" s="280"/>
-      <c r="GE5" s="280"/>
-      <c r="GF5" s="281"/>
-      <c r="GG5" s="272" t="s">
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="295"/>
+      <c r="P5" s="295"/>
+      <c r="Q5" s="295"/>
+      <c r="R5" s="295"/>
+      <c r="S5" s="295"/>
+      <c r="T5" s="295"/>
+      <c r="U5" s="295"/>
+      <c r="V5" s="295"/>
+      <c r="W5" s="295"/>
+      <c r="X5" s="295"/>
+      <c r="Y5" s="295"/>
+      <c r="Z5" s="295"/>
+      <c r="AA5" s="295"/>
+      <c r="AB5" s="295"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="295"/>
+      <c r="AE5" s="295"/>
+      <c r="AF5" s="295"/>
+      <c r="AG5" s="295"/>
+      <c r="AH5" s="295"/>
+      <c r="AI5" s="295"/>
+      <c r="AJ5" s="295"/>
+      <c r="AK5" s="295"/>
+      <c r="AL5" s="295"/>
+      <c r="AM5" s="295"/>
+      <c r="AN5" s="295"/>
+      <c r="AO5" s="295"/>
+      <c r="AP5" s="295"/>
+      <c r="AQ5" s="295"/>
+      <c r="AR5" s="295"/>
+      <c r="AS5" s="295"/>
+      <c r="AT5" s="295"/>
+      <c r="AU5" s="295"/>
+      <c r="AV5" s="295"/>
+      <c r="AW5" s="295"/>
+      <c r="AX5" s="295"/>
+      <c r="AY5" s="295"/>
+      <c r="AZ5" s="295"/>
+      <c r="BA5" s="295"/>
+      <c r="BB5" s="295"/>
+      <c r="BC5" s="295"/>
+      <c r="BD5" s="295"/>
+      <c r="BE5" s="295"/>
+      <c r="BF5" s="295"/>
+      <c r="BG5" s="295"/>
+      <c r="BH5" s="295"/>
+      <c r="BI5" s="295"/>
+      <c r="BJ5" s="295"/>
+      <c r="BK5" s="295"/>
+      <c r="BL5" s="295"/>
+      <c r="BM5" s="295"/>
+      <c r="BN5" s="295"/>
+      <c r="BO5" s="295"/>
+      <c r="BP5" s="295"/>
+      <c r="BQ5" s="295"/>
+      <c r="BR5" s="295"/>
+      <c r="BS5" s="295"/>
+      <c r="BT5" s="295"/>
+      <c r="BU5" s="295"/>
+      <c r="BV5" s="295"/>
+      <c r="BW5" s="295"/>
+      <c r="BX5" s="295"/>
+      <c r="BY5" s="295"/>
+      <c r="BZ5" s="295"/>
+      <c r="CA5" s="295"/>
+      <c r="CB5" s="295"/>
+      <c r="CC5" s="295"/>
+      <c r="CD5" s="295"/>
+      <c r="CE5" s="295"/>
+      <c r="CF5" s="295"/>
+      <c r="CG5" s="295"/>
+      <c r="CH5" s="295"/>
+      <c r="CI5" s="295"/>
+      <c r="CJ5" s="295"/>
+      <c r="CK5" s="295"/>
+      <c r="CL5" s="295"/>
+      <c r="CM5" s="295"/>
+      <c r="CN5" s="295"/>
+      <c r="CO5" s="295"/>
+      <c r="CP5" s="295"/>
+      <c r="CQ5" s="295"/>
+      <c r="CR5" s="295"/>
+      <c r="CS5" s="295"/>
+      <c r="CT5" s="295"/>
+      <c r="CU5" s="295"/>
+      <c r="CV5" s="295"/>
+      <c r="CW5" s="295"/>
+      <c r="CX5" s="295"/>
+      <c r="CY5" s="295"/>
+      <c r="CZ5" s="295"/>
+      <c r="DA5" s="295"/>
+      <c r="DB5" s="295"/>
+      <c r="DC5" s="295"/>
+      <c r="DD5" s="295"/>
+      <c r="DE5" s="295"/>
+      <c r="DF5" s="295"/>
+      <c r="DG5" s="295"/>
+      <c r="DH5" s="295"/>
+      <c r="DI5" s="295"/>
+      <c r="DJ5" s="295"/>
+      <c r="DK5" s="295"/>
+      <c r="DL5" s="295"/>
+      <c r="DM5" s="295"/>
+      <c r="DN5" s="295"/>
+      <c r="DO5" s="288"/>
+      <c r="DP5" s="289"/>
+      <c r="DQ5" s="289"/>
+      <c r="DR5" s="289"/>
+      <c r="DS5" s="289"/>
+      <c r="DT5" s="289"/>
+      <c r="DU5" s="290"/>
+      <c r="DV5" s="288"/>
+      <c r="DW5" s="289"/>
+      <c r="DX5" s="289"/>
+      <c r="DY5" s="289"/>
+      <c r="DZ5" s="289"/>
+      <c r="EA5" s="289"/>
+      <c r="EB5" s="290"/>
+      <c r="EC5" s="288"/>
+      <c r="ED5" s="289"/>
+      <c r="EE5" s="289"/>
+      <c r="EF5" s="289"/>
+      <c r="EG5" s="289"/>
+      <c r="EH5" s="289"/>
+      <c r="EI5" s="290"/>
+      <c r="EJ5" s="288"/>
+      <c r="EK5" s="289"/>
+      <c r="EL5" s="289"/>
+      <c r="EM5" s="289"/>
+      <c r="EN5" s="289"/>
+      <c r="EO5" s="289"/>
+      <c r="EP5" s="290"/>
+      <c r="EQ5" s="288"/>
+      <c r="ER5" s="289"/>
+      <c r="ES5" s="289"/>
+      <c r="ET5" s="289"/>
+      <c r="EU5" s="289"/>
+      <c r="EV5" s="289"/>
+      <c r="EW5" s="290"/>
+      <c r="EX5" s="288"/>
+      <c r="EY5" s="289"/>
+      <c r="EZ5" s="289"/>
+      <c r="FA5" s="289"/>
+      <c r="FB5" s="289"/>
+      <c r="FC5" s="289"/>
+      <c r="FD5" s="290"/>
+      <c r="FE5" s="288"/>
+      <c r="FF5" s="289"/>
+      <c r="FG5" s="289"/>
+      <c r="FH5" s="289"/>
+      <c r="FI5" s="289"/>
+      <c r="FJ5" s="289"/>
+      <c r="FK5" s="290"/>
+      <c r="FL5" s="288"/>
+      <c r="FM5" s="289"/>
+      <c r="FN5" s="289"/>
+      <c r="FO5" s="289"/>
+      <c r="FP5" s="289"/>
+      <c r="FQ5" s="289"/>
+      <c r="FR5" s="290"/>
+      <c r="FS5" s="288"/>
+      <c r="FT5" s="289"/>
+      <c r="FU5" s="289"/>
+      <c r="FV5" s="289"/>
+      <c r="FW5" s="289"/>
+      <c r="FX5" s="289"/>
+      <c r="FY5" s="290"/>
+      <c r="FZ5" s="288"/>
+      <c r="GA5" s="289"/>
+      <c r="GB5" s="289"/>
+      <c r="GC5" s="289"/>
+      <c r="GD5" s="289"/>
+      <c r="GE5" s="289"/>
+      <c r="GF5" s="290"/>
+      <c r="GG5" s="281" t="s">
         <v>188</v>
       </c>
-      <c r="GH5" s="273"/>
-      <c r="GI5" s="273"/>
-      <c r="GJ5" s="273"/>
-      <c r="GK5" s="273"/>
-      <c r="GL5" s="273"/>
-      <c r="GM5" s="274"/>
-      <c r="GN5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="GO5" s="273"/>
-      <c r="GP5" s="273"/>
-      <c r="GQ5" s="273"/>
-      <c r="GR5" s="273"/>
-      <c r="GS5" s="273"/>
-      <c r="GT5" s="274"/>
-      <c r="GU5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="GV5" s="273"/>
-      <c r="GW5" s="273"/>
-      <c r="GX5" s="273"/>
-      <c r="GY5" s="273"/>
-      <c r="GZ5" s="273"/>
-      <c r="HA5" s="274"/>
-      <c r="HB5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="HC5" s="273"/>
-      <c r="HD5" s="273"/>
-      <c r="HE5" s="273"/>
-      <c r="HF5" s="273"/>
-      <c r="HG5" s="273"/>
-      <c r="HH5" s="274"/>
-      <c r="HI5" s="325" t="s">
-        <v>187</v>
-      </c>
-      <c r="HJ5" s="326"/>
-      <c r="HK5" s="326"/>
-      <c r="HL5" s="326"/>
-      <c r="HM5" s="326"/>
-      <c r="HN5" s="326"/>
-      <c r="HO5" s="326"/>
-      <c r="HP5" s="326"/>
-      <c r="HQ5" s="327"/>
-      <c r="HR5" s="272" t="s">
+      <c r="GH5" s="282"/>
+      <c r="GI5" s="282"/>
+      <c r="GJ5" s="282"/>
+      <c r="GK5" s="282"/>
+      <c r="GL5" s="282"/>
+      <c r="GM5" s="283"/>
+      <c r="GN5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="GO5" s="282"/>
+      <c r="GP5" s="282"/>
+      <c r="GQ5" s="282"/>
+      <c r="GR5" s="282"/>
+      <c r="GS5" s="282"/>
+      <c r="GT5" s="283"/>
+      <c r="GU5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="GV5" s="282"/>
+      <c r="GW5" s="282"/>
+      <c r="GX5" s="282"/>
+      <c r="GY5" s="282"/>
+      <c r="GZ5" s="282"/>
+      <c r="HA5" s="283"/>
+      <c r="HB5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="HC5" s="282"/>
+      <c r="HD5" s="282"/>
+      <c r="HE5" s="282"/>
+      <c r="HF5" s="282"/>
+      <c r="HG5" s="282"/>
+      <c r="HH5" s="283"/>
+      <c r="HI5" s="334" t="s">
+        <v>187</v>
+      </c>
+      <c r="HJ5" s="335"/>
+      <c r="HK5" s="335"/>
+      <c r="HL5" s="335"/>
+      <c r="HM5" s="335"/>
+      <c r="HN5" s="335"/>
+      <c r="HO5" s="335"/>
+      <c r="HP5" s="335"/>
+      <c r="HQ5" s="336"/>
+      <c r="HR5" s="281" t="s">
         <v>272</v>
       </c>
-      <c r="HS5" s="273"/>
-      <c r="HT5" s="273"/>
-      <c r="HU5" s="273"/>
-      <c r="HV5" s="273"/>
-      <c r="HW5" s="273"/>
-      <c r="HX5" s="274"/>
-      <c r="HY5" s="272" t="s">
+      <c r="HS5" s="282"/>
+      <c r="HT5" s="282"/>
+      <c r="HU5" s="282"/>
+      <c r="HV5" s="282"/>
+      <c r="HW5" s="282"/>
+      <c r="HX5" s="283"/>
+      <c r="HY5" s="281" t="s">
         <v>272</v>
       </c>
-      <c r="HZ5" s="273"/>
-      <c r="IA5" s="273"/>
-      <c r="IB5" s="273"/>
-      <c r="IC5" s="273"/>
-      <c r="ID5" s="273"/>
-      <c r="IE5" s="274"/>
-      <c r="IF5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="IG5" s="273"/>
-      <c r="IH5" s="273"/>
-      <c r="II5" s="273"/>
-      <c r="IJ5" s="273"/>
-      <c r="IK5" s="273"/>
-      <c r="IL5" s="274"/>
-      <c r="IM5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="IN5" s="273"/>
-      <c r="IO5" s="273"/>
-      <c r="IP5" s="273"/>
-      <c r="IQ5" s="273"/>
-      <c r="IR5" s="273"/>
-      <c r="IS5" s="274"/>
-      <c r="IT5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="IU5" s="273"/>
-      <c r="IV5" s="273"/>
-      <c r="IW5" s="273"/>
-      <c r="IX5" s="273"/>
-      <c r="IY5" s="273"/>
-      <c r="IZ5" s="274"/>
-      <c r="JA5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="JB5" s="273"/>
-      <c r="JC5" s="273"/>
-      <c r="JD5" s="273"/>
-      <c r="JE5" s="273"/>
-      <c r="JF5" s="273"/>
-      <c r="JG5" s="274"/>
-      <c r="JH5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="JI5" s="273"/>
-      <c r="JJ5" s="273"/>
-      <c r="JK5" s="273"/>
-      <c r="JL5" s="273"/>
-      <c r="JM5" s="273"/>
-      <c r="JN5" s="274"/>
-      <c r="JO5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="JP5" s="273"/>
-      <c r="JQ5" s="273"/>
-      <c r="JR5" s="273"/>
-      <c r="JS5" s="273"/>
-      <c r="JT5" s="273"/>
-      <c r="JU5" s="274"/>
-      <c r="JV5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="JW5" s="273"/>
-      <c r="JX5" s="273"/>
-      <c r="JY5" s="273"/>
-      <c r="JZ5" s="273"/>
-      <c r="KA5" s="273"/>
-      <c r="KB5" s="274"/>
-      <c r="KC5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="KD5" s="273"/>
-      <c r="KE5" s="273"/>
-      <c r="KF5" s="273"/>
-      <c r="KG5" s="273"/>
-      <c r="KH5" s="273"/>
-      <c r="KI5" s="274"/>
-      <c r="KJ5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="KK5" s="273"/>
-      <c r="KL5" s="273"/>
-      <c r="KM5" s="273"/>
-      <c r="KN5" s="273"/>
-      <c r="KO5" s="273"/>
-      <c r="KP5" s="274"/>
-      <c r="KQ5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="KR5" s="273"/>
-      <c r="KS5" s="273"/>
-      <c r="KT5" s="273"/>
-      <c r="KU5" s="273"/>
-      <c r="KV5" s="273"/>
-      <c r="KW5" s="274"/>
-      <c r="KX5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="KY5" s="273"/>
-      <c r="KZ5" s="273"/>
-      <c r="LA5" s="273"/>
-      <c r="LB5" s="273"/>
-      <c r="LC5" s="273"/>
-      <c r="LD5" s="274"/>
-      <c r="LE5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="LF5" s="273"/>
-      <c r="LG5" s="273"/>
-      <c r="LH5" s="273"/>
-      <c r="LI5" s="273"/>
-      <c r="LJ5" s="273"/>
-      <c r="LK5" s="274"/>
-      <c r="LL5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="LM5" s="273"/>
-      <c r="LN5" s="273"/>
-      <c r="LO5" s="273"/>
-      <c r="LP5" s="273"/>
-      <c r="LQ5" s="273"/>
-      <c r="LR5" s="274"/>
-      <c r="LS5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="LT5" s="273"/>
-      <c r="LU5" s="273"/>
-      <c r="LV5" s="273"/>
-      <c r="LW5" s="273"/>
-      <c r="LX5" s="273"/>
-      <c r="LY5" s="274"/>
-      <c r="LZ5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="MA5" s="273"/>
-      <c r="MB5" s="273"/>
-      <c r="MC5" s="273"/>
-      <c r="MD5" s="273"/>
-      <c r="ME5" s="273"/>
-      <c r="MF5" s="274"/>
-      <c r="MG5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="MH5" s="273"/>
-      <c r="MI5" s="273"/>
-      <c r="MJ5" s="273"/>
-      <c r="MK5" s="273"/>
-      <c r="ML5" s="273"/>
-      <c r="MM5" s="274"/>
-      <c r="MN5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="MO5" s="273"/>
-      <c r="MP5" s="273"/>
-      <c r="MQ5" s="273"/>
-      <c r="MR5" s="273"/>
-      <c r="MS5" s="273"/>
-      <c r="MT5" s="274"/>
-      <c r="MU5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="MV5" s="273"/>
-      <c r="MW5" s="273"/>
-      <c r="MX5" s="273"/>
-      <c r="MY5" s="273"/>
-      <c r="MZ5" s="273"/>
-      <c r="NA5" s="274"/>
-      <c r="NB5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="NC5" s="273"/>
-      <c r="ND5" s="273"/>
-      <c r="NE5" s="273"/>
-      <c r="NF5" s="273"/>
-      <c r="NG5" s="273"/>
-      <c r="NH5" s="274"/>
-      <c r="NI5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="NJ5" s="273"/>
-      <c r="NK5" s="273"/>
-      <c r="NL5" s="273"/>
-      <c r="NM5" s="273"/>
-      <c r="NN5" s="273"/>
-      <c r="NO5" s="274"/>
-      <c r="NP5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="NQ5" s="273"/>
-      <c r="NR5" s="273"/>
-      <c r="NS5" s="273"/>
-      <c r="NT5" s="273"/>
-      <c r="NU5" s="273"/>
-      <c r="NV5" s="274"/>
-      <c r="NW5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="NX5" s="273"/>
-      <c r="NY5" s="273"/>
-      <c r="NZ5" s="273"/>
-      <c r="OA5" s="273"/>
-      <c r="OB5" s="273"/>
-      <c r="OC5" s="274"/>
-      <c r="OD5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="OE5" s="273"/>
-      <c r="OF5" s="273"/>
-      <c r="OG5" s="273"/>
-      <c r="OH5" s="273"/>
-      <c r="OI5" s="273"/>
-      <c r="OJ5" s="274"/>
-      <c r="OK5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="OL5" s="273"/>
-      <c r="OM5" s="273"/>
-      <c r="ON5" s="273"/>
-      <c r="OO5" s="273"/>
-      <c r="OP5" s="273"/>
-      <c r="OQ5" s="274"/>
-      <c r="OR5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="OS5" s="273"/>
-      <c r="OT5" s="273"/>
-      <c r="OU5" s="273"/>
-      <c r="OV5" s="273"/>
-      <c r="OW5" s="273"/>
-      <c r="OX5" s="274"/>
-      <c r="OY5" s="275" t="s">
-        <v>187</v>
-      </c>
-      <c r="OZ5" s="276"/>
-      <c r="PA5" s="276"/>
-      <c r="PB5" s="276"/>
-      <c r="PC5" s="276"/>
-      <c r="PD5" s="276"/>
-      <c r="PE5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="PF5" s="273"/>
-      <c r="PG5" s="273"/>
-      <c r="PH5" s="273"/>
-      <c r="PI5" s="273"/>
-      <c r="PJ5" s="273"/>
-      <c r="PK5" s="274"/>
-      <c r="PL5" s="272" t="s">
-        <v>187</v>
-      </c>
-      <c r="PM5" s="273"/>
-      <c r="PN5" s="273"/>
-      <c r="PO5" s="273"/>
-      <c r="PP5" s="273"/>
-      <c r="PQ5" s="273"/>
-      <c r="PR5" s="274"/>
-      <c r="PS5" s="272"/>
-      <c r="PT5" s="273"/>
-      <c r="PU5" s="273"/>
-      <c r="PV5" s="273"/>
-      <c r="PW5" s="273"/>
-      <c r="PX5" s="273"/>
-      <c r="PY5" s="274"/>
-      <c r="PZ5" s="272"/>
-      <c r="QA5" s="273"/>
-      <c r="QB5" s="273"/>
-      <c r="QC5" s="273"/>
-      <c r="QD5" s="273"/>
-      <c r="QE5" s="273"/>
-      <c r="QF5" s="274"/>
-      <c r="QG5" s="272"/>
-      <c r="QH5" s="273"/>
-      <c r="QI5" s="273"/>
-      <c r="QJ5" s="273"/>
-      <c r="QK5" s="273"/>
-      <c r="QL5" s="273"/>
-      <c r="QM5" s="274"/>
-      <c r="QN5" s="272"/>
-      <c r="QO5" s="273"/>
-      <c r="QP5" s="273"/>
-      <c r="QQ5" s="273"/>
-      <c r="QR5" s="273"/>
-      <c r="QS5" s="273"/>
-      <c r="QT5" s="274"/>
-      <c r="QU5" s="272"/>
-      <c r="QV5" s="273"/>
-      <c r="QW5" s="273"/>
-      <c r="QX5" s="273"/>
-      <c r="QY5" s="273"/>
-      <c r="QZ5" s="273"/>
-      <c r="RA5" s="274"/>
-      <c r="RB5" s="272"/>
-      <c r="RC5" s="273"/>
-      <c r="RD5" s="273"/>
-      <c r="RE5" s="273"/>
-      <c r="RF5" s="273"/>
-      <c r="RG5" s="273"/>
-      <c r="RH5" s="274"/>
-      <c r="RI5" s="272"/>
-      <c r="RJ5" s="273"/>
-      <c r="RK5" s="273"/>
-      <c r="RL5" s="273"/>
-      <c r="RM5" s="273"/>
-      <c r="RN5" s="273"/>
-      <c r="RO5" s="274"/>
-      <c r="RP5" s="272"/>
-      <c r="RQ5" s="273"/>
-      <c r="RR5" s="273"/>
-      <c r="RS5" s="273"/>
-      <c r="RT5" s="273"/>
-      <c r="RU5" s="273"/>
-      <c r="RV5" s="274"/>
-      <c r="RW5" s="272"/>
-      <c r="RX5" s="273"/>
-      <c r="RY5" s="273"/>
-      <c r="RZ5" s="273"/>
-      <c r="SA5" s="273"/>
-      <c r="SB5" s="273"/>
-      <c r="SC5" s="274"/>
+      <c r="HZ5" s="282"/>
+      <c r="IA5" s="282"/>
+      <c r="IB5" s="282"/>
+      <c r="IC5" s="282"/>
+      <c r="ID5" s="282"/>
+      <c r="IE5" s="283"/>
+      <c r="IF5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IG5" s="282"/>
+      <c r="IH5" s="282"/>
+      <c r="II5" s="282"/>
+      <c r="IJ5" s="282"/>
+      <c r="IK5" s="282"/>
+      <c r="IL5" s="283"/>
+      <c r="IM5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IN5" s="282"/>
+      <c r="IO5" s="282"/>
+      <c r="IP5" s="282"/>
+      <c r="IQ5" s="282"/>
+      <c r="IR5" s="282"/>
+      <c r="IS5" s="283"/>
+      <c r="IT5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IU5" s="282"/>
+      <c r="IV5" s="282"/>
+      <c r="IW5" s="282"/>
+      <c r="IX5" s="282"/>
+      <c r="IY5" s="282"/>
+      <c r="IZ5" s="283"/>
+      <c r="JA5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JB5" s="282"/>
+      <c r="JC5" s="282"/>
+      <c r="JD5" s="282"/>
+      <c r="JE5" s="282"/>
+      <c r="JF5" s="282"/>
+      <c r="JG5" s="283"/>
+      <c r="JH5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JI5" s="282"/>
+      <c r="JJ5" s="282"/>
+      <c r="JK5" s="282"/>
+      <c r="JL5" s="282"/>
+      <c r="JM5" s="282"/>
+      <c r="JN5" s="283"/>
+      <c r="JO5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JP5" s="282"/>
+      <c r="JQ5" s="282"/>
+      <c r="JR5" s="282"/>
+      <c r="JS5" s="282"/>
+      <c r="JT5" s="282"/>
+      <c r="JU5" s="283"/>
+      <c r="JV5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JW5" s="282"/>
+      <c r="JX5" s="282"/>
+      <c r="JY5" s="282"/>
+      <c r="JZ5" s="282"/>
+      <c r="KA5" s="282"/>
+      <c r="KB5" s="283"/>
+      <c r="KC5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KD5" s="282"/>
+      <c r="KE5" s="282"/>
+      <c r="KF5" s="282"/>
+      <c r="KG5" s="282"/>
+      <c r="KH5" s="282"/>
+      <c r="KI5" s="283"/>
+      <c r="KJ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KK5" s="282"/>
+      <c r="KL5" s="282"/>
+      <c r="KM5" s="282"/>
+      <c r="KN5" s="282"/>
+      <c r="KO5" s="282"/>
+      <c r="KP5" s="283"/>
+      <c r="KQ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KR5" s="282"/>
+      <c r="KS5" s="282"/>
+      <c r="KT5" s="282"/>
+      <c r="KU5" s="282"/>
+      <c r="KV5" s="282"/>
+      <c r="KW5" s="283"/>
+      <c r="KX5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KY5" s="282"/>
+      <c r="KZ5" s="282"/>
+      <c r="LA5" s="282"/>
+      <c r="LB5" s="282"/>
+      <c r="LC5" s="282"/>
+      <c r="LD5" s="283"/>
+      <c r="LE5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LF5" s="282"/>
+      <c r="LG5" s="282"/>
+      <c r="LH5" s="282"/>
+      <c r="LI5" s="282"/>
+      <c r="LJ5" s="282"/>
+      <c r="LK5" s="283"/>
+      <c r="LL5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LM5" s="282"/>
+      <c r="LN5" s="282"/>
+      <c r="LO5" s="282"/>
+      <c r="LP5" s="282"/>
+      <c r="LQ5" s="282"/>
+      <c r="LR5" s="283"/>
+      <c r="LS5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LT5" s="282"/>
+      <c r="LU5" s="282"/>
+      <c r="LV5" s="282"/>
+      <c r="LW5" s="282"/>
+      <c r="LX5" s="282"/>
+      <c r="LY5" s="283"/>
+      <c r="LZ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MA5" s="282"/>
+      <c r="MB5" s="282"/>
+      <c r="MC5" s="282"/>
+      <c r="MD5" s="282"/>
+      <c r="ME5" s="282"/>
+      <c r="MF5" s="283"/>
+      <c r="MG5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MH5" s="282"/>
+      <c r="MI5" s="282"/>
+      <c r="MJ5" s="282"/>
+      <c r="MK5" s="282"/>
+      <c r="ML5" s="282"/>
+      <c r="MM5" s="283"/>
+      <c r="MN5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MO5" s="282"/>
+      <c r="MP5" s="282"/>
+      <c r="MQ5" s="282"/>
+      <c r="MR5" s="282"/>
+      <c r="MS5" s="282"/>
+      <c r="MT5" s="283"/>
+      <c r="MU5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MV5" s="282"/>
+      <c r="MW5" s="282"/>
+      <c r="MX5" s="282"/>
+      <c r="MY5" s="282"/>
+      <c r="MZ5" s="282"/>
+      <c r="NA5" s="283"/>
+      <c r="NB5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NC5" s="282"/>
+      <c r="ND5" s="282"/>
+      <c r="NE5" s="282"/>
+      <c r="NF5" s="282"/>
+      <c r="NG5" s="282"/>
+      <c r="NH5" s="283"/>
+      <c r="NI5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NJ5" s="282"/>
+      <c r="NK5" s="282"/>
+      <c r="NL5" s="282"/>
+      <c r="NM5" s="282"/>
+      <c r="NN5" s="282"/>
+      <c r="NO5" s="283"/>
+      <c r="NP5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NQ5" s="282"/>
+      <c r="NR5" s="282"/>
+      <c r="NS5" s="282"/>
+      <c r="NT5" s="282"/>
+      <c r="NU5" s="282"/>
+      <c r="NV5" s="283"/>
+      <c r="NW5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NX5" s="282"/>
+      <c r="NY5" s="282"/>
+      <c r="NZ5" s="282"/>
+      <c r="OA5" s="282"/>
+      <c r="OB5" s="282"/>
+      <c r="OC5" s="283"/>
+      <c r="OD5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OE5" s="282"/>
+      <c r="OF5" s="282"/>
+      <c r="OG5" s="282"/>
+      <c r="OH5" s="282"/>
+      <c r="OI5" s="282"/>
+      <c r="OJ5" s="283"/>
+      <c r="OK5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OL5" s="282"/>
+      <c r="OM5" s="282"/>
+      <c r="ON5" s="282"/>
+      <c r="OO5" s="282"/>
+      <c r="OP5" s="282"/>
+      <c r="OQ5" s="283"/>
+      <c r="OR5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OS5" s="282"/>
+      <c r="OT5" s="282"/>
+      <c r="OU5" s="282"/>
+      <c r="OV5" s="282"/>
+      <c r="OW5" s="282"/>
+      <c r="OX5" s="283"/>
+      <c r="OY5" s="284" t="s">
+        <v>187</v>
+      </c>
+      <c r="OZ5" s="285"/>
+      <c r="PA5" s="285"/>
+      <c r="PB5" s="285"/>
+      <c r="PC5" s="285"/>
+      <c r="PD5" s="285"/>
+      <c r="PE5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="PF5" s="282"/>
+      <c r="PG5" s="282"/>
+      <c r="PH5" s="282"/>
+      <c r="PI5" s="282"/>
+      <c r="PJ5" s="282"/>
+      <c r="PK5" s="283"/>
+      <c r="PL5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="PM5" s="282"/>
+      <c r="PN5" s="282"/>
+      <c r="PO5" s="282"/>
+      <c r="PP5" s="282"/>
+      <c r="PQ5" s="282"/>
+      <c r="PR5" s="283"/>
+      <c r="PS5" s="281"/>
+      <c r="PT5" s="282"/>
+      <c r="PU5" s="282"/>
+      <c r="PV5" s="282"/>
+      <c r="PW5" s="282"/>
+      <c r="PX5" s="282"/>
+      <c r="PY5" s="283"/>
+      <c r="PZ5" s="281"/>
+      <c r="QA5" s="282"/>
+      <c r="QB5" s="282"/>
+      <c r="QC5" s="282"/>
+      <c r="QD5" s="282"/>
+      <c r="QE5" s="282"/>
+      <c r="QF5" s="283"/>
+      <c r="QG5" s="281"/>
+      <c r="QH5" s="282"/>
+      <c r="QI5" s="282"/>
+      <c r="QJ5" s="282"/>
+      <c r="QK5" s="282"/>
+      <c r="QL5" s="282"/>
+      <c r="QM5" s="283"/>
+      <c r="QN5" s="281"/>
+      <c r="QO5" s="282"/>
+      <c r="QP5" s="282"/>
+      <c r="QQ5" s="282"/>
+      <c r="QR5" s="282"/>
+      <c r="QS5" s="282"/>
+      <c r="QT5" s="283"/>
+      <c r="QU5" s="281"/>
+      <c r="QV5" s="282"/>
+      <c r="QW5" s="282"/>
+      <c r="QX5" s="282"/>
+      <c r="QY5" s="282"/>
+      <c r="QZ5" s="282"/>
+      <c r="RA5" s="283"/>
+      <c r="RB5" s="281"/>
+      <c r="RC5" s="282"/>
+      <c r="RD5" s="282"/>
+      <c r="RE5" s="282"/>
+      <c r="RF5" s="282"/>
+      <c r="RG5" s="282"/>
+      <c r="RH5" s="283"/>
+      <c r="RI5" s="281"/>
+      <c r="RJ5" s="282"/>
+      <c r="RK5" s="282"/>
+      <c r="RL5" s="282"/>
+      <c r="RM5" s="282"/>
+      <c r="RN5" s="282"/>
+      <c r="RO5" s="283"/>
+      <c r="RP5" s="281"/>
+      <c r="RQ5" s="282"/>
+      <c r="RR5" s="282"/>
+      <c r="RS5" s="282"/>
+      <c r="RT5" s="282"/>
+      <c r="RU5" s="282"/>
+      <c r="RV5" s="283"/>
+      <c r="RW5" s="281"/>
+      <c r="RX5" s="282"/>
+      <c r="RY5" s="282"/>
+      <c r="RZ5" s="282"/>
+      <c r="SA5" s="282"/>
+      <c r="SB5" s="282"/>
+      <c r="SC5" s="283"/>
     </row>
     <row r="6" spans="1:497" ht="43.5" customHeight="1">
       <c r="A6" s="148" t="s">
@@ -10611,11 +10713,21 @@
       <c r="PT6" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU6" s="226"/>
-      <c r="PV6" s="226"/>
-      <c r="PW6" s="226"/>
-      <c r="PX6" s="226"/>
-      <c r="PY6" s="226"/>
+      <c r="PU6" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV6" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW6" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PX6" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY6" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ6" s="226"/>
       <c r="QA6" s="226"/>
       <c r="QB6" s="226"/>
@@ -11271,11 +11383,21 @@
       <c r="PT7" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU7" s="226"/>
-      <c r="PV7" s="226"/>
-      <c r="PW7" s="226"/>
-      <c r="PX7" s="226"/>
-      <c r="PY7" s="226"/>
+      <c r="PU7" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV7" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW7" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PX7" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY7" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ7" s="226"/>
       <c r="QA7" s="226"/>
       <c r="QB7" s="226"/>
@@ -12145,11 +12267,21 @@
       <c r="PT8" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU8" s="226"/>
-      <c r="PV8" s="226"/>
-      <c r="PW8" s="226"/>
-      <c r="PX8" s="226"/>
-      <c r="PY8" s="226"/>
+      <c r="PU8" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV8" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW8" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PX8" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY8" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ8" s="226"/>
       <c r="QA8" s="226"/>
       <c r="QB8" s="226"/>
@@ -12941,11 +13073,21 @@
       <c r="PT9" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU9" s="226"/>
-      <c r="PV9" s="226"/>
-      <c r="PW9" s="226"/>
-      <c r="PX9" s="226"/>
-      <c r="PY9" s="226"/>
+      <c r="PU9" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV9" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW9" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX9" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY9" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ9" s="226"/>
       <c r="QA9" s="226"/>
       <c r="QB9" s="226"/>
@@ -13559,11 +13701,21 @@
       <c r="PT10" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU10" s="226"/>
-      <c r="PV10" s="226"/>
-      <c r="PW10" s="226"/>
-      <c r="PX10" s="226"/>
-      <c r="PY10" s="226"/>
+      <c r="PU10" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV10" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW10" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX10" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY10" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ10" s="226"/>
       <c r="QA10" s="226"/>
       <c r="QB10" s="226"/>
@@ -14040,11 +14192,21 @@
       <c r="PT11" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU11" s="226"/>
-      <c r="PV11" s="226"/>
-      <c r="PW11" s="226"/>
-      <c r="PX11" s="226"/>
-      <c r="PY11" s="226"/>
+      <c r="PU11" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV11" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW11" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PX11" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY11" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ11" s="226"/>
       <c r="QA11" s="226"/>
       <c r="QB11" s="226"/>
@@ -14482,11 +14644,21 @@
       <c r="PT12" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU12" s="226"/>
-      <c r="PV12" s="226"/>
-      <c r="PW12" s="226"/>
-      <c r="PX12" s="226"/>
-      <c r="PY12" s="226"/>
+      <c r="PU12" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV12" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PW12" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PX12" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY12" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ12" s="226"/>
       <c r="QA12" s="226"/>
       <c r="QB12" s="226"/>
@@ -15242,11 +15414,17 @@
       <c r="PT13" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU13" s="226"/>
-      <c r="PV13" s="226"/>
-      <c r="PW13" s="226"/>
-      <c r="PX13" s="226"/>
-      <c r="PY13" s="226"/>
+      <c r="PU13" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV13" s="156"/>
+      <c r="PW13" s="156"/>
+      <c r="PX13" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY13" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ13" s="226"/>
       <c r="QA13" s="226"/>
       <c r="QB13" s="226"/>
@@ -16084,11 +16262,17 @@
       <c r="PT14" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PU14" s="125"/>
-      <c r="PV14" s="125"/>
-      <c r="PW14" s="125"/>
-      <c r="PX14" s="125"/>
-      <c r="PY14" s="125"/>
+      <c r="PU14" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV14" s="156"/>
+      <c r="PW14" s="156"/>
+      <c r="PX14" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PY14" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PZ14" s="125"/>
       <c r="QA14" s="125"/>
       <c r="QB14" s="125"/>
@@ -16133,581 +16317,583 @@
       <c r="C15" s="229" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="284" t="s">
+      <c r="D15" s="293" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="284"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="284" t="s">
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="284"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="284"/>
-      <c r="O15" s="284"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="284"/>
-      <c r="R15" s="284" t="s">
+      <c r="L15" s="293"/>
+      <c r="M15" s="293"/>
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="293"/>
+      <c r="Q15" s="293"/>
+      <c r="R15" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="284"/>
-      <c r="T15" s="284"/>
-      <c r="U15" s="284"/>
-      <c r="V15" s="284"/>
-      <c r="W15" s="284"/>
-      <c r="X15" s="284"/>
-      <c r="Y15" s="285" t="s">
+      <c r="S15" s="293"/>
+      <c r="T15" s="293"/>
+      <c r="U15" s="293"/>
+      <c r="V15" s="293"/>
+      <c r="W15" s="293"/>
+      <c r="X15" s="293"/>
+      <c r="Y15" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="284"/>
-      <c r="AA15" s="284"/>
-      <c r="AB15" s="284"/>
-      <c r="AC15" s="284"/>
-      <c r="AD15" s="284"/>
-      <c r="AE15" s="284"/>
-      <c r="AF15" s="285" t="s">
+      <c r="Z15" s="293"/>
+      <c r="AA15" s="293"/>
+      <c r="AB15" s="293"/>
+      <c r="AC15" s="293"/>
+      <c r="AD15" s="293"/>
+      <c r="AE15" s="293"/>
+      <c r="AF15" s="294" t="s">
         <v>32</v>
       </c>
-      <c r="AG15" s="284"/>
-      <c r="AH15" s="284"/>
-      <c r="AI15" s="284"/>
-      <c r="AJ15" s="284"/>
-      <c r="AK15" s="284"/>
-      <c r="AL15" s="284"/>
-      <c r="AM15" s="285" t="s">
+      <c r="AG15" s="293"/>
+      <c r="AH15" s="293"/>
+      <c r="AI15" s="293"/>
+      <c r="AJ15" s="293"/>
+      <c r="AK15" s="293"/>
+      <c r="AL15" s="293"/>
+      <c r="AM15" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="AN15" s="284"/>
-      <c r="AO15" s="284"/>
-      <c r="AP15" s="284"/>
-      <c r="AQ15" s="284"/>
-      <c r="AR15" s="284"/>
-      <c r="AS15" s="284"/>
-      <c r="AT15" s="285" t="s">
+      <c r="AN15" s="293"/>
+      <c r="AO15" s="293"/>
+      <c r="AP15" s="293"/>
+      <c r="AQ15" s="293"/>
+      <c r="AR15" s="293"/>
+      <c r="AS15" s="293"/>
+      <c r="AT15" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="AU15" s="284"/>
-      <c r="AV15" s="284"/>
-      <c r="AW15" s="284"/>
-      <c r="AX15" s="284"/>
-      <c r="AY15" s="284"/>
-      <c r="AZ15" s="284"/>
-      <c r="BA15" s="285" t="s">
+      <c r="AU15" s="293"/>
+      <c r="AV15" s="293"/>
+      <c r="AW15" s="293"/>
+      <c r="AX15" s="293"/>
+      <c r="AY15" s="293"/>
+      <c r="AZ15" s="293"/>
+      <c r="BA15" s="294" t="s">
         <v>58</v>
       </c>
-      <c r="BB15" s="284"/>
-      <c r="BC15" s="284"/>
-      <c r="BD15" s="284"/>
-      <c r="BE15" s="284"/>
-      <c r="BF15" s="284"/>
-      <c r="BG15" s="284"/>
-      <c r="BH15" s="285" t="s">
+      <c r="BB15" s="293"/>
+      <c r="BC15" s="293"/>
+      <c r="BD15" s="293"/>
+      <c r="BE15" s="293"/>
+      <c r="BF15" s="293"/>
+      <c r="BG15" s="293"/>
+      <c r="BH15" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="BI15" s="284"/>
-      <c r="BJ15" s="284"/>
-      <c r="BK15" s="284"/>
-      <c r="BL15" s="284"/>
-      <c r="BM15" s="284"/>
-      <c r="BN15" s="284"/>
-      <c r="BO15" s="285" t="s">
+      <c r="BI15" s="293"/>
+      <c r="BJ15" s="293"/>
+      <c r="BK15" s="293"/>
+      <c r="BL15" s="293"/>
+      <c r="BM15" s="293"/>
+      <c r="BN15" s="293"/>
+      <c r="BO15" s="294" t="s">
         <v>73</v>
       </c>
-      <c r="BP15" s="284"/>
-      <c r="BQ15" s="284"/>
-      <c r="BR15" s="284"/>
-      <c r="BS15" s="284"/>
-      <c r="BT15" s="284"/>
-      <c r="BU15" s="284"/>
-      <c r="BV15" s="285" t="s">
+      <c r="BP15" s="293"/>
+      <c r="BQ15" s="293"/>
+      <c r="BR15" s="293"/>
+      <c r="BS15" s="293"/>
+      <c r="BT15" s="293"/>
+      <c r="BU15" s="293"/>
+      <c r="BV15" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="BW15" s="284"/>
-      <c r="BX15" s="284"/>
-      <c r="BY15" s="284"/>
-      <c r="BZ15" s="284"/>
-      <c r="CA15" s="284"/>
-      <c r="CB15" s="284"/>
-      <c r="CC15" s="285" t="s">
+      <c r="BW15" s="293"/>
+      <c r="BX15" s="293"/>
+      <c r="BY15" s="293"/>
+      <c r="BZ15" s="293"/>
+      <c r="CA15" s="293"/>
+      <c r="CB15" s="293"/>
+      <c r="CC15" s="294" t="s">
         <v>74</v>
       </c>
-      <c r="CD15" s="284"/>
-      <c r="CE15" s="284"/>
-      <c r="CF15" s="284"/>
-      <c r="CG15" s="284"/>
-      <c r="CH15" s="284"/>
-      <c r="CI15" s="284"/>
-      <c r="CJ15" s="285" t="s">
+      <c r="CD15" s="293"/>
+      <c r="CE15" s="293"/>
+      <c r="CF15" s="293"/>
+      <c r="CG15" s="293"/>
+      <c r="CH15" s="293"/>
+      <c r="CI15" s="293"/>
+      <c r="CJ15" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="CK15" s="284"/>
-      <c r="CL15" s="284"/>
-      <c r="CM15" s="284"/>
-      <c r="CN15" s="284"/>
-      <c r="CO15" s="284"/>
-      <c r="CP15" s="284"/>
-      <c r="CQ15" s="285" t="s">
+      <c r="CK15" s="293"/>
+      <c r="CL15" s="293"/>
+      <c r="CM15" s="293"/>
+      <c r="CN15" s="293"/>
+      <c r="CO15" s="293"/>
+      <c r="CP15" s="293"/>
+      <c r="CQ15" s="294" t="s">
         <v>80</v>
       </c>
-      <c r="CR15" s="284"/>
-      <c r="CS15" s="284"/>
-      <c r="CT15" s="284"/>
-      <c r="CU15" s="284"/>
-      <c r="CV15" s="284"/>
-      <c r="CW15" s="284"/>
-      <c r="CX15" s="285" t="s">
+      <c r="CR15" s="293"/>
+      <c r="CS15" s="293"/>
+      <c r="CT15" s="293"/>
+      <c r="CU15" s="293"/>
+      <c r="CV15" s="293"/>
+      <c r="CW15" s="293"/>
+      <c r="CX15" s="294" t="s">
         <v>124</v>
       </c>
-      <c r="CY15" s="284"/>
-      <c r="CZ15" s="284"/>
-      <c r="DA15" s="284"/>
-      <c r="DB15" s="284"/>
-      <c r="DC15" s="284"/>
-      <c r="DD15" s="284"/>
-      <c r="DE15" s="285" t="s">
+      <c r="CY15" s="293"/>
+      <c r="CZ15" s="293"/>
+      <c r="DA15" s="293"/>
+      <c r="DB15" s="293"/>
+      <c r="DC15" s="293"/>
+      <c r="DD15" s="293"/>
+      <c r="DE15" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="DF15" s="284"/>
-      <c r="DG15" s="284"/>
-      <c r="DH15" s="284"/>
-      <c r="DI15" s="284"/>
-      <c r="DJ15" s="284"/>
-      <c r="DK15" s="284"/>
-      <c r="DL15" s="285" t="s">
+      <c r="DF15" s="293"/>
+      <c r="DG15" s="293"/>
+      <c r="DH15" s="293"/>
+      <c r="DI15" s="293"/>
+      <c r="DJ15" s="293"/>
+      <c r="DK15" s="293"/>
+      <c r="DL15" s="294" t="s">
         <v>129</v>
       </c>
-      <c r="DM15" s="284"/>
-      <c r="DN15" s="284"/>
-      <c r="DO15" s="284"/>
-      <c r="DP15" s="284"/>
-      <c r="DQ15" s="284"/>
-      <c r="DR15" s="284"/>
-      <c r="DS15" s="290" t="s">
+      <c r="DM15" s="293"/>
+      <c r="DN15" s="293"/>
+      <c r="DO15" s="293"/>
+      <c r="DP15" s="293"/>
+      <c r="DQ15" s="293"/>
+      <c r="DR15" s="293"/>
+      <c r="DS15" s="311" t="s">
         <v>128</v>
       </c>
-      <c r="DT15" s="291"/>
-      <c r="DU15" s="291"/>
-      <c r="DV15" s="291"/>
-      <c r="DW15" s="291"/>
-      <c r="DX15" s="291"/>
-      <c r="DY15" s="291"/>
-      <c r="DZ15" s="300" t="s">
+      <c r="DT15" s="312"/>
+      <c r="DU15" s="312"/>
+      <c r="DV15" s="312"/>
+      <c r="DW15" s="312"/>
+      <c r="DX15" s="312"/>
+      <c r="DY15" s="312"/>
+      <c r="DZ15" s="307" t="s">
         <v>130</v>
       </c>
-      <c r="EA15" s="301"/>
-      <c r="EB15" s="301"/>
-      <c r="EC15" s="301"/>
-      <c r="ED15" s="301"/>
-      <c r="EE15" s="301"/>
-      <c r="EF15" s="301"/>
-      <c r="EG15" s="302" t="s">
+      <c r="EA15" s="308"/>
+      <c r="EB15" s="308"/>
+      <c r="EC15" s="308"/>
+      <c r="ED15" s="308"/>
+      <c r="EE15" s="308"/>
+      <c r="EF15" s="308"/>
+      <c r="EG15" s="309" t="s">
         <v>132</v>
       </c>
-      <c r="EH15" s="301"/>
-      <c r="EI15" s="301"/>
-      <c r="EJ15" s="301"/>
-      <c r="EK15" s="301"/>
-      <c r="EL15" s="301"/>
-      <c r="EM15" s="301"/>
-      <c r="EN15" s="302" t="s">
+      <c r="EH15" s="308"/>
+      <c r="EI15" s="308"/>
+      <c r="EJ15" s="308"/>
+      <c r="EK15" s="308"/>
+      <c r="EL15" s="308"/>
+      <c r="EM15" s="308"/>
+      <c r="EN15" s="309" t="s">
         <v>133</v>
       </c>
-      <c r="EO15" s="301"/>
-      <c r="EP15" s="301"/>
-      <c r="EQ15" s="301"/>
-      <c r="ER15" s="301"/>
-      <c r="ES15" s="301"/>
-      <c r="ET15" s="301"/>
-      <c r="EU15" s="302" t="s">
+      <c r="EO15" s="308"/>
+      <c r="EP15" s="308"/>
+      <c r="EQ15" s="308"/>
+      <c r="ER15" s="308"/>
+      <c r="ES15" s="308"/>
+      <c r="ET15" s="308"/>
+      <c r="EU15" s="309" t="s">
         <v>134</v>
       </c>
-      <c r="EV15" s="301"/>
-      <c r="EW15" s="301"/>
-      <c r="EX15" s="301"/>
-      <c r="EY15" s="301"/>
-      <c r="EZ15" s="301"/>
-      <c r="FA15" s="301"/>
-      <c r="FB15" s="297" t="s">
+      <c r="EV15" s="308"/>
+      <c r="EW15" s="308"/>
+      <c r="EX15" s="308"/>
+      <c r="EY15" s="308"/>
+      <c r="EZ15" s="308"/>
+      <c r="FA15" s="308"/>
+      <c r="FB15" s="304" t="s">
         <v>145</v>
       </c>
-      <c r="FC15" s="298"/>
-      <c r="FD15" s="298"/>
-      <c r="FE15" s="298"/>
-      <c r="FF15" s="298"/>
-      <c r="FG15" s="298"/>
-      <c r="FH15" s="299"/>
-      <c r="FI15" s="295" t="s">
+      <c r="FC15" s="305"/>
+      <c r="FD15" s="305"/>
+      <c r="FE15" s="305"/>
+      <c r="FF15" s="305"/>
+      <c r="FG15" s="305"/>
+      <c r="FH15" s="306"/>
+      <c r="FI15" s="302" t="s">
         <v>143</v>
       </c>
-      <c r="FJ15" s="268"/>
-      <c r="FK15" s="268"/>
-      <c r="FL15" s="268"/>
-      <c r="FM15" s="268"/>
-      <c r="FN15" s="268"/>
-      <c r="FO15" s="296"/>
-      <c r="FP15" s="295" t="s">
+      <c r="FJ15" s="277"/>
+      <c r="FK15" s="277"/>
+      <c r="FL15" s="277"/>
+      <c r="FM15" s="277"/>
+      <c r="FN15" s="277"/>
+      <c r="FO15" s="303"/>
+      <c r="FP15" s="302" t="s">
         <v>143</v>
       </c>
-      <c r="FQ15" s="268"/>
-      <c r="FR15" s="268"/>
-      <c r="FS15" s="268"/>
-      <c r="FT15" s="268"/>
-      <c r="FU15" s="268"/>
-      <c r="FV15" s="296"/>
-      <c r="FW15" s="297" t="s">
+      <c r="FQ15" s="277"/>
+      <c r="FR15" s="277"/>
+      <c r="FS15" s="277"/>
+      <c r="FT15" s="277"/>
+      <c r="FU15" s="277"/>
+      <c r="FV15" s="303"/>
+      <c r="FW15" s="304" t="s">
         <v>144</v>
       </c>
-      <c r="FX15" s="298"/>
-      <c r="FY15" s="298"/>
-      <c r="FZ15" s="298"/>
-      <c r="GA15" s="298"/>
-      <c r="GB15" s="298"/>
-      <c r="GC15" s="299"/>
-      <c r="GD15" s="295" t="s">
+      <c r="FX15" s="305"/>
+      <c r="FY15" s="305"/>
+      <c r="FZ15" s="305"/>
+      <c r="GA15" s="305"/>
+      <c r="GB15" s="305"/>
+      <c r="GC15" s="306"/>
+      <c r="GD15" s="302" t="s">
         <v>143</v>
       </c>
-      <c r="GE15" s="268"/>
-      <c r="GF15" s="268"/>
-      <c r="GG15" s="268"/>
-      <c r="GH15" s="269"/>
-      <c r="GI15" s="269"/>
-      <c r="GJ15" s="270"/>
-      <c r="GK15" s="307" t="s">
+      <c r="GE15" s="277"/>
+      <c r="GF15" s="277"/>
+      <c r="GG15" s="277"/>
+      <c r="GH15" s="278"/>
+      <c r="GI15" s="278"/>
+      <c r="GJ15" s="279"/>
+      <c r="GK15" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="GL15" s="308"/>
-      <c r="GM15" s="308"/>
-      <c r="GN15" s="308"/>
-      <c r="GO15" s="308"/>
-      <c r="GP15" s="308"/>
-      <c r="GQ15" s="309"/>
-      <c r="GR15" s="295" t="s">
+      <c r="GL15" s="317"/>
+      <c r="GM15" s="317"/>
+      <c r="GN15" s="317"/>
+      <c r="GO15" s="317"/>
+      <c r="GP15" s="317"/>
+      <c r="GQ15" s="318"/>
+      <c r="GR15" s="302" t="s">
         <v>128</v>
       </c>
-      <c r="GS15" s="268"/>
-      <c r="GT15" s="268"/>
-      <c r="GU15" s="268"/>
-      <c r="GV15" s="269"/>
-      <c r="GW15" s="269"/>
-      <c r="GX15" s="270"/>
-      <c r="GY15" s="295" t="s">
+      <c r="GS15" s="277"/>
+      <c r="GT15" s="277"/>
+      <c r="GU15" s="277"/>
+      <c r="GV15" s="278"/>
+      <c r="GW15" s="278"/>
+      <c r="GX15" s="279"/>
+      <c r="GY15" s="302" t="s">
         <v>128</v>
       </c>
-      <c r="GZ15" s="268"/>
-      <c r="HA15" s="268"/>
-      <c r="HB15" s="268"/>
-      <c r="HC15" s="269"/>
-      <c r="HD15" s="269"/>
-      <c r="HE15" s="270"/>
-      <c r="HF15" s="310" t="s">
+      <c r="GZ15" s="277"/>
+      <c r="HA15" s="277"/>
+      <c r="HB15" s="277"/>
+      <c r="HC15" s="278"/>
+      <c r="HD15" s="278"/>
+      <c r="HE15" s="279"/>
+      <c r="HF15" s="319" t="s">
         <v>238</v>
       </c>
-      <c r="HG15" s="269"/>
-      <c r="HH15" s="269"/>
-      <c r="HI15" s="269"/>
-      <c r="HJ15" s="269"/>
-      <c r="HK15" s="269"/>
-      <c r="HL15" s="270"/>
-      <c r="HM15" s="324" t="s">
+      <c r="HG15" s="278"/>
+      <c r="HH15" s="278"/>
+      <c r="HI15" s="278"/>
+      <c r="HJ15" s="278"/>
+      <c r="HK15" s="278"/>
+      <c r="HL15" s="279"/>
+      <c r="HM15" s="333" t="s">
         <v>227</v>
       </c>
-      <c r="HN15" s="269"/>
-      <c r="HO15" s="269"/>
-      <c r="HP15" s="269"/>
-      <c r="HQ15" s="269"/>
-      <c r="HR15" s="269"/>
-      <c r="HS15" s="270"/>
-      <c r="HT15" s="267" t="s">
+      <c r="HN15" s="278"/>
+      <c r="HO15" s="278"/>
+      <c r="HP15" s="278"/>
+      <c r="HQ15" s="278"/>
+      <c r="HR15" s="278"/>
+      <c r="HS15" s="279"/>
+      <c r="HT15" s="276" t="s">
         <v>255</v>
       </c>
-      <c r="HU15" s="268"/>
-      <c r="HV15" s="268"/>
-      <c r="HW15" s="268"/>
-      <c r="HX15" s="269"/>
-      <c r="HY15" s="269"/>
-      <c r="HZ15" s="270"/>
-      <c r="IA15" s="315" t="s">
+      <c r="HU15" s="277"/>
+      <c r="HV15" s="277"/>
+      <c r="HW15" s="277"/>
+      <c r="HX15" s="278"/>
+      <c r="HY15" s="278"/>
+      <c r="HZ15" s="279"/>
+      <c r="IA15" s="324" t="s">
         <v>256</v>
       </c>
-      <c r="IB15" s="268"/>
-      <c r="IC15" s="268"/>
-      <c r="ID15" s="268"/>
-      <c r="IE15" s="269"/>
-      <c r="IF15" s="269"/>
-      <c r="IG15" s="270"/>
-      <c r="IH15" s="263"/>
-      <c r="II15" s="264"/>
-      <c r="IJ15" s="264"/>
-      <c r="IK15" s="264"/>
-      <c r="IL15" s="265"/>
-      <c r="IM15" s="265"/>
-      <c r="IN15" s="266"/>
-      <c r="IO15" s="263"/>
-      <c r="IP15" s="264"/>
-      <c r="IQ15" s="264"/>
-      <c r="IR15" s="264"/>
-      <c r="IS15" s="265"/>
-      <c r="IT15" s="265"/>
-      <c r="IU15" s="266"/>
-      <c r="IV15" s="263"/>
-      <c r="IW15" s="264"/>
-      <c r="IX15" s="264"/>
-      <c r="IY15" s="264"/>
-      <c r="IZ15" s="265"/>
-      <c r="JA15" s="265"/>
-      <c r="JB15" s="266"/>
-      <c r="JC15" s="263"/>
-      <c r="JD15" s="264"/>
-      <c r="JE15" s="264"/>
-      <c r="JF15" s="264"/>
-      <c r="JG15" s="265"/>
-      <c r="JH15" s="265"/>
-      <c r="JI15" s="266"/>
-      <c r="JJ15" s="263"/>
-      <c r="JK15" s="264"/>
-      <c r="JL15" s="264"/>
-      <c r="JM15" s="264"/>
-      <c r="JN15" s="265"/>
-      <c r="JO15" s="265"/>
-      <c r="JP15" s="266"/>
-      <c r="JQ15" s="263"/>
-      <c r="JR15" s="264"/>
-      <c r="JS15" s="264"/>
-      <c r="JT15" s="264"/>
-      <c r="JU15" s="265"/>
-      <c r="JV15" s="265"/>
-      <c r="JW15" s="266"/>
-      <c r="JX15" s="263"/>
-      <c r="JY15" s="264"/>
-      <c r="JZ15" s="264"/>
-      <c r="KA15" s="264"/>
-      <c r="KB15" s="265"/>
-      <c r="KC15" s="265"/>
-      <c r="KD15" s="266"/>
-      <c r="KE15" s="263"/>
-      <c r="KF15" s="264"/>
-      <c r="KG15" s="264"/>
-      <c r="KH15" s="264"/>
-      <c r="KI15" s="265"/>
-      <c r="KJ15" s="265"/>
-      <c r="KK15" s="266"/>
-      <c r="KL15" s="333" t="s">
+      <c r="IB15" s="277"/>
+      <c r="IC15" s="277"/>
+      <c r="ID15" s="277"/>
+      <c r="IE15" s="278"/>
+      <c r="IF15" s="278"/>
+      <c r="IG15" s="279"/>
+      <c r="IH15" s="272"/>
+      <c r="II15" s="273"/>
+      <c r="IJ15" s="273"/>
+      <c r="IK15" s="273"/>
+      <c r="IL15" s="274"/>
+      <c r="IM15" s="274"/>
+      <c r="IN15" s="275"/>
+      <c r="IO15" s="272"/>
+      <c r="IP15" s="273"/>
+      <c r="IQ15" s="273"/>
+      <c r="IR15" s="273"/>
+      <c r="IS15" s="274"/>
+      <c r="IT15" s="274"/>
+      <c r="IU15" s="275"/>
+      <c r="IV15" s="272"/>
+      <c r="IW15" s="273"/>
+      <c r="IX15" s="273"/>
+      <c r="IY15" s="273"/>
+      <c r="IZ15" s="274"/>
+      <c r="JA15" s="274"/>
+      <c r="JB15" s="275"/>
+      <c r="JC15" s="272"/>
+      <c r="JD15" s="273"/>
+      <c r="JE15" s="273"/>
+      <c r="JF15" s="273"/>
+      <c r="JG15" s="274"/>
+      <c r="JH15" s="274"/>
+      <c r="JI15" s="275"/>
+      <c r="JJ15" s="272"/>
+      <c r="JK15" s="273"/>
+      <c r="JL15" s="273"/>
+      <c r="JM15" s="273"/>
+      <c r="JN15" s="274"/>
+      <c r="JO15" s="274"/>
+      <c r="JP15" s="275"/>
+      <c r="JQ15" s="272"/>
+      <c r="JR15" s="273"/>
+      <c r="JS15" s="273"/>
+      <c r="JT15" s="273"/>
+      <c r="JU15" s="274"/>
+      <c r="JV15" s="274"/>
+      <c r="JW15" s="275"/>
+      <c r="JX15" s="272"/>
+      <c r="JY15" s="273"/>
+      <c r="JZ15" s="273"/>
+      <c r="KA15" s="273"/>
+      <c r="KB15" s="274"/>
+      <c r="KC15" s="274"/>
+      <c r="KD15" s="275"/>
+      <c r="KE15" s="272"/>
+      <c r="KF15" s="273"/>
+      <c r="KG15" s="273"/>
+      <c r="KH15" s="273"/>
+      <c r="KI15" s="274"/>
+      <c r="KJ15" s="274"/>
+      <c r="KK15" s="275"/>
+      <c r="KL15" s="342" t="s">
         <v>304</v>
       </c>
-      <c r="KM15" s="334"/>
-      <c r="KN15" s="334"/>
-      <c r="KO15" s="334"/>
-      <c r="KP15" s="334"/>
-      <c r="KQ15" s="334"/>
-      <c r="KR15" s="335"/>
-      <c r="KS15" s="267" t="s">
+      <c r="KM15" s="343"/>
+      <c r="KN15" s="343"/>
+      <c r="KO15" s="343"/>
+      <c r="KP15" s="343"/>
+      <c r="KQ15" s="343"/>
+      <c r="KR15" s="344"/>
+      <c r="KS15" s="276" t="s">
         <v>322</v>
       </c>
-      <c r="KT15" s="321"/>
-      <c r="KU15" s="321"/>
-      <c r="KV15" s="321"/>
-      <c r="KW15" s="322"/>
-      <c r="KX15" s="322"/>
-      <c r="KY15" s="323"/>
-      <c r="KZ15" s="263"/>
-      <c r="LA15" s="264"/>
-      <c r="LB15" s="264"/>
-      <c r="LC15" s="264"/>
-      <c r="LD15" s="265"/>
-      <c r="LE15" s="265"/>
-      <c r="LF15" s="266"/>
-      <c r="LG15" s="267" t="s">
+      <c r="KT15" s="330"/>
+      <c r="KU15" s="330"/>
+      <c r="KV15" s="330"/>
+      <c r="KW15" s="331"/>
+      <c r="KX15" s="331"/>
+      <c r="KY15" s="332"/>
+      <c r="KZ15" s="272"/>
+      <c r="LA15" s="273"/>
+      <c r="LB15" s="273"/>
+      <c r="LC15" s="273"/>
+      <c r="LD15" s="274"/>
+      <c r="LE15" s="274"/>
+      <c r="LF15" s="275"/>
+      <c r="LG15" s="276" t="s">
         <v>324</v>
       </c>
-      <c r="LH15" s="268"/>
-      <c r="LI15" s="268"/>
-      <c r="LJ15" s="268"/>
-      <c r="LK15" s="269"/>
-      <c r="LL15" s="269"/>
-      <c r="LM15" s="270"/>
-      <c r="LN15" s="267" t="s">
+      <c r="LH15" s="277"/>
+      <c r="LI15" s="277"/>
+      <c r="LJ15" s="277"/>
+      <c r="LK15" s="278"/>
+      <c r="LL15" s="278"/>
+      <c r="LM15" s="279"/>
+      <c r="LN15" s="276" t="s">
         <v>325</v>
       </c>
-      <c r="LO15" s="268"/>
-      <c r="LP15" s="268"/>
-      <c r="LQ15" s="268"/>
-      <c r="LR15" s="269"/>
-      <c r="LS15" s="269"/>
-      <c r="LT15" s="270"/>
-      <c r="LU15" s="267" t="s">
+      <c r="LO15" s="277"/>
+      <c r="LP15" s="277"/>
+      <c r="LQ15" s="277"/>
+      <c r="LR15" s="278"/>
+      <c r="LS15" s="278"/>
+      <c r="LT15" s="279"/>
+      <c r="LU15" s="276" t="s">
         <v>331</v>
       </c>
-      <c r="LV15" s="268"/>
-      <c r="LW15" s="268"/>
-      <c r="LX15" s="268"/>
-      <c r="LY15" s="269"/>
-      <c r="LZ15" s="269"/>
-      <c r="MA15" s="270"/>
-      <c r="MB15" s="271" t="s">
+      <c r="LV15" s="277"/>
+      <c r="LW15" s="277"/>
+      <c r="LX15" s="277"/>
+      <c r="LY15" s="278"/>
+      <c r="LZ15" s="278"/>
+      <c r="MA15" s="279"/>
+      <c r="MB15" s="280" t="s">
         <v>343</v>
       </c>
-      <c r="MC15" s="268"/>
-      <c r="MD15" s="268"/>
-      <c r="ME15" s="268"/>
-      <c r="MF15" s="269"/>
-      <c r="MG15" s="269"/>
-      <c r="MH15" s="270"/>
-      <c r="MI15" s="267" t="s">
+      <c r="MC15" s="277"/>
+      <c r="MD15" s="277"/>
+      <c r="ME15" s="277"/>
+      <c r="MF15" s="278"/>
+      <c r="MG15" s="278"/>
+      <c r="MH15" s="279"/>
+      <c r="MI15" s="276" t="s">
         <v>344</v>
       </c>
-      <c r="MJ15" s="268"/>
-      <c r="MK15" s="268"/>
-      <c r="ML15" s="268"/>
-      <c r="MM15" s="269"/>
-      <c r="MN15" s="269"/>
-      <c r="MO15" s="270"/>
-      <c r="MP15" s="267" t="s">
+      <c r="MJ15" s="277"/>
+      <c r="MK15" s="277"/>
+      <c r="ML15" s="277"/>
+      <c r="MM15" s="278"/>
+      <c r="MN15" s="278"/>
+      <c r="MO15" s="279"/>
+      <c r="MP15" s="276" t="s">
         <v>345</v>
       </c>
-      <c r="MQ15" s="268"/>
-      <c r="MR15" s="268"/>
-      <c r="MS15" s="268"/>
-      <c r="MT15" s="269"/>
-      <c r="MU15" s="269"/>
-      <c r="MV15" s="270"/>
-      <c r="MW15" s="263"/>
-      <c r="MX15" s="264"/>
-      <c r="MY15" s="264"/>
-      <c r="MZ15" s="264"/>
-      <c r="NA15" s="265"/>
-      <c r="NB15" s="265"/>
-      <c r="NC15" s="266"/>
-      <c r="ND15" s="263"/>
-      <c r="NE15" s="264"/>
-      <c r="NF15" s="264"/>
-      <c r="NG15" s="264"/>
-      <c r="NH15" s="265"/>
-      <c r="NI15" s="265"/>
-      <c r="NJ15" s="266"/>
-      <c r="NK15" s="267" t="s">
+      <c r="MQ15" s="277"/>
+      <c r="MR15" s="277"/>
+      <c r="MS15" s="277"/>
+      <c r="MT15" s="278"/>
+      <c r="MU15" s="278"/>
+      <c r="MV15" s="279"/>
+      <c r="MW15" s="272"/>
+      <c r="MX15" s="273"/>
+      <c r="MY15" s="273"/>
+      <c r="MZ15" s="273"/>
+      <c r="NA15" s="274"/>
+      <c r="NB15" s="274"/>
+      <c r="NC15" s="275"/>
+      <c r="ND15" s="272"/>
+      <c r="NE15" s="273"/>
+      <c r="NF15" s="273"/>
+      <c r="NG15" s="273"/>
+      <c r="NH15" s="274"/>
+      <c r="NI15" s="274"/>
+      <c r="NJ15" s="275"/>
+      <c r="NK15" s="276" t="s">
         <v>370</v>
       </c>
-      <c r="NL15" s="321"/>
-      <c r="NM15" s="321"/>
-      <c r="NN15" s="321"/>
-      <c r="NO15" s="322"/>
-      <c r="NP15" s="322"/>
-      <c r="NQ15" s="323"/>
-      <c r="NR15" s="267" t="s">
+      <c r="NL15" s="330"/>
+      <c r="NM15" s="330"/>
+      <c r="NN15" s="330"/>
+      <c r="NO15" s="331"/>
+      <c r="NP15" s="331"/>
+      <c r="NQ15" s="332"/>
+      <c r="NR15" s="276" t="s">
         <v>371</v>
       </c>
-      <c r="NS15" s="268"/>
-      <c r="NT15" s="268"/>
-      <c r="NU15" s="268"/>
-      <c r="NV15" s="269"/>
-      <c r="NW15" s="269"/>
-      <c r="NX15" s="270"/>
-      <c r="NY15" s="263"/>
-      <c r="NZ15" s="264"/>
-      <c r="OA15" s="264"/>
-      <c r="OB15" s="264"/>
-      <c r="OC15" s="265"/>
-      <c r="OD15" s="265"/>
-      <c r="OE15" s="266"/>
-      <c r="OF15" s="271" t="s">
+      <c r="NS15" s="277"/>
+      <c r="NT15" s="277"/>
+      <c r="NU15" s="277"/>
+      <c r="NV15" s="278"/>
+      <c r="NW15" s="278"/>
+      <c r="NX15" s="279"/>
+      <c r="NY15" s="272"/>
+      <c r="NZ15" s="273"/>
+      <c r="OA15" s="273"/>
+      <c r="OB15" s="273"/>
+      <c r="OC15" s="274"/>
+      <c r="OD15" s="274"/>
+      <c r="OE15" s="275"/>
+      <c r="OF15" s="280" t="s">
         <v>372</v>
       </c>
-      <c r="OG15" s="268"/>
-      <c r="OH15" s="268"/>
-      <c r="OI15" s="268"/>
-      <c r="OJ15" s="269"/>
-      <c r="OK15" s="269"/>
-      <c r="OL15" s="270"/>
-      <c r="OM15" s="263"/>
-      <c r="ON15" s="264"/>
-      <c r="OO15" s="264"/>
-      <c r="OP15" s="264"/>
-      <c r="OQ15" s="265"/>
-      <c r="OR15" s="265"/>
-      <c r="OS15" s="266"/>
-      <c r="OT15" s="263"/>
-      <c r="OU15" s="264"/>
-      <c r="OV15" s="264"/>
-      <c r="OW15" s="264"/>
-      <c r="OX15" s="265"/>
-      <c r="OY15" s="265"/>
-      <c r="OZ15" s="266"/>
-      <c r="PA15" s="263"/>
-      <c r="PB15" s="264"/>
-      <c r="PC15" s="264"/>
-      <c r="PD15" s="264"/>
-      <c r="PE15" s="265"/>
-      <c r="PF15" s="265"/>
-      <c r="PG15" s="266"/>
-      <c r="PH15" s="263"/>
-      <c r="PI15" s="264"/>
-      <c r="PJ15" s="264"/>
-      <c r="PK15" s="264"/>
-      <c r="PL15" s="265"/>
-      <c r="PM15" s="265"/>
-      <c r="PN15" s="266"/>
-      <c r="PO15" s="267" t="s">
-        <v>439</v>
-      </c>
-      <c r="PP15" s="268"/>
-      <c r="PQ15" s="268"/>
-      <c r="PR15" s="268"/>
-      <c r="PS15" s="269"/>
-      <c r="PT15" s="269"/>
-      <c r="PU15" s="270"/>
-      <c r="PV15" s="267"/>
-      <c r="PW15" s="268"/>
-      <c r="PX15" s="268"/>
-      <c r="PY15" s="268"/>
-      <c r="PZ15" s="269"/>
-      <c r="QA15" s="269"/>
-      <c r="QB15" s="270"/>
-      <c r="QC15" s="267"/>
-      <c r="QD15" s="268"/>
-      <c r="QE15" s="268"/>
-      <c r="QF15" s="268"/>
-      <c r="QG15" s="269"/>
-      <c r="QH15" s="269"/>
-      <c r="QI15" s="270"/>
-      <c r="QJ15" s="267"/>
-      <c r="QK15" s="268"/>
-      <c r="QL15" s="268"/>
-      <c r="QM15" s="268"/>
-      <c r="QN15" s="269"/>
-      <c r="QO15" s="269"/>
-      <c r="QP15" s="270"/>
-      <c r="QQ15" s="267"/>
-      <c r="QR15" s="268"/>
-      <c r="QS15" s="268"/>
-      <c r="QT15" s="268"/>
-      <c r="QU15" s="269"/>
-      <c r="QV15" s="269"/>
-      <c r="QW15" s="270"/>
-      <c r="QX15" s="267"/>
-      <c r="QY15" s="268"/>
-      <c r="QZ15" s="268"/>
-      <c r="RA15" s="268"/>
-      <c r="RB15" s="269"/>
-      <c r="RC15" s="269"/>
-      <c r="RD15" s="270"/>
-      <c r="RE15" s="272"/>
-      <c r="RF15" s="273"/>
-      <c r="RG15" s="273"/>
-      <c r="RH15" s="273"/>
-      <c r="RI15" s="273"/>
-      <c r="RJ15" s="273"/>
-      <c r="RK15" s="274"/>
-      <c r="RL15" s="272"/>
-      <c r="RM15" s="273"/>
-      <c r="RN15" s="273"/>
-      <c r="RO15" s="273"/>
-      <c r="RP15" s="273"/>
-      <c r="RQ15" s="273"/>
-      <c r="RR15" s="274"/>
+      <c r="OG15" s="277"/>
+      <c r="OH15" s="277"/>
+      <c r="OI15" s="277"/>
+      <c r="OJ15" s="278"/>
+      <c r="OK15" s="278"/>
+      <c r="OL15" s="279"/>
+      <c r="OM15" s="272"/>
+      <c r="ON15" s="273"/>
+      <c r="OO15" s="273"/>
+      <c r="OP15" s="273"/>
+      <c r="OQ15" s="274"/>
+      <c r="OR15" s="274"/>
+      <c r="OS15" s="275"/>
+      <c r="OT15" s="272"/>
+      <c r="OU15" s="273"/>
+      <c r="OV15" s="273"/>
+      <c r="OW15" s="273"/>
+      <c r="OX15" s="274"/>
+      <c r="OY15" s="274"/>
+      <c r="OZ15" s="275"/>
+      <c r="PA15" s="272"/>
+      <c r="PB15" s="273"/>
+      <c r="PC15" s="273"/>
+      <c r="PD15" s="273"/>
+      <c r="PE15" s="274"/>
+      <c r="PF15" s="274"/>
+      <c r="PG15" s="275"/>
+      <c r="PH15" s="272"/>
+      <c r="PI15" s="273"/>
+      <c r="PJ15" s="273"/>
+      <c r="PK15" s="273"/>
+      <c r="PL15" s="274"/>
+      <c r="PM15" s="274"/>
+      <c r="PN15" s="275"/>
+      <c r="PO15" s="276" t="s">
+        <v>436</v>
+      </c>
+      <c r="PP15" s="277"/>
+      <c r="PQ15" s="277"/>
+      <c r="PR15" s="277"/>
+      <c r="PS15" s="278"/>
+      <c r="PT15" s="278"/>
+      <c r="PU15" s="279"/>
+      <c r="PV15" s="276" t="s">
+        <v>446</v>
+      </c>
+      <c r="PW15" s="277"/>
+      <c r="PX15" s="277"/>
+      <c r="PY15" s="277"/>
+      <c r="PZ15" s="278"/>
+      <c r="QA15" s="278"/>
+      <c r="QB15" s="279"/>
+      <c r="QC15" s="276"/>
+      <c r="QD15" s="277"/>
+      <c r="QE15" s="277"/>
+      <c r="QF15" s="277"/>
+      <c r="QG15" s="278"/>
+      <c r="QH15" s="278"/>
+      <c r="QI15" s="279"/>
+      <c r="QJ15" s="276"/>
+      <c r="QK15" s="277"/>
+      <c r="QL15" s="277"/>
+      <c r="QM15" s="277"/>
+      <c r="QN15" s="278"/>
+      <c r="QO15" s="278"/>
+      <c r="QP15" s="279"/>
+      <c r="QQ15" s="276"/>
+      <c r="QR15" s="277"/>
+      <c r="QS15" s="277"/>
+      <c r="QT15" s="277"/>
+      <c r="QU15" s="278"/>
+      <c r="QV15" s="278"/>
+      <c r="QW15" s="279"/>
+      <c r="QX15" s="276"/>
+      <c r="QY15" s="277"/>
+      <c r="QZ15" s="277"/>
+      <c r="RA15" s="277"/>
+      <c r="RB15" s="278"/>
+      <c r="RC15" s="278"/>
+      <c r="RD15" s="279"/>
+      <c r="RE15" s="281"/>
+      <c r="RF15" s="282"/>
+      <c r="RG15" s="282"/>
+      <c r="RH15" s="282"/>
+      <c r="RI15" s="282"/>
+      <c r="RJ15" s="282"/>
+      <c r="RK15" s="283"/>
+      <c r="RL15" s="281"/>
+      <c r="RM15" s="282"/>
+      <c r="RN15" s="282"/>
+      <c r="RO15" s="282"/>
+      <c r="RP15" s="282"/>
+      <c r="RQ15" s="282"/>
+      <c r="RR15" s="283"/>
     </row>
     <row r="16" spans="1:497" ht="43.5" customHeight="1">
       <c r="A16" s="148" t="s">
@@ -17204,20 +17390,26 @@
       <c r="PN16" s="226"/>
       <c r="PO16" s="208"/>
       <c r="PP16" s="226" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="PQ16" s="226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="PR16" s="156"/>
       <c r="PS16" s="226" t="s">
+        <v>440</v>
+      </c>
+      <c r="PT16" s="156"/>
+      <c r="PU16" s="226" t="s">
         <v>443</v>
       </c>
-      <c r="PT16" s="226"/>
-      <c r="PU16" s="226"/>
-      <c r="PV16" s="226"/>
-      <c r="PW16" s="226"/>
-      <c r="PX16" s="226"/>
+      <c r="PV16" s="156"/>
+      <c r="PW16" s="226" t="s">
+        <v>447</v>
+      </c>
+      <c r="PX16" s="226" t="s">
+        <v>449</v>
+      </c>
       <c r="PY16" s="226"/>
       <c r="PZ16" s="226"/>
       <c r="QA16" s="226"/>
@@ -17997,11 +18189,15 @@
       <c r="PS17" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PT17" s="125"/>
-      <c r="PU17" s="125"/>
-      <c r="PV17" s="125"/>
-      <c r="PW17" s="125"/>
-      <c r="PX17" s="125"/>
+      <c r="PT17" s="156"/>
+      <c r="PU17" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="PV17" s="156"/>
+      <c r="PW17" s="156"/>
+      <c r="PX17" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PY17" s="125"/>
       <c r="PZ17" s="125"/>
       <c r="QA17" s="125"/>
@@ -18893,7 +19089,9 @@
       <c r="PS19" s="127"/>
       <c r="PT19" s="127"/>
       <c r="PU19" s="127"/>
-      <c r="PV19" s="139"/>
+      <c r="PV19" s="139" t="s">
+        <v>272</v>
+      </c>
       <c r="PW19" s="126"/>
       <c r="PX19" s="127"/>
       <c r="PY19" s="127"/>
@@ -22709,11 +22907,19 @@
       <c r="PS31" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PT31" s="189"/>
-      <c r="PU31" s="189"/>
-      <c r="PV31" s="189"/>
-      <c r="PW31" s="189"/>
-      <c r="PX31" s="189"/>
+      <c r="PT31" s="156"/>
+      <c r="PU31" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PV31" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PW31" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX31" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PY31" s="189"/>
       <c r="PZ31" s="189"/>
       <c r="QA31" s="189"/>
@@ -23174,11 +23380,19 @@
       <c r="PS32" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PT32" s="189"/>
-      <c r="PU32" s="189"/>
-      <c r="PV32" s="189"/>
-      <c r="PW32" s="189"/>
-      <c r="PX32" s="189"/>
+      <c r="PT32" s="156"/>
+      <c r="PU32" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PV32" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PW32" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX32" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PY32" s="189"/>
       <c r="PZ32" s="189"/>
       <c r="QA32" s="189"/>
@@ -23651,11 +23865,19 @@
       <c r="PS33" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="PT33" s="189"/>
-      <c r="PU33" s="189"/>
-      <c r="PV33" s="189"/>
-      <c r="PW33" s="189"/>
-      <c r="PX33" s="189"/>
+      <c r="PT33" s="156"/>
+      <c r="PU33" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PV33" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PW33" s="190" t="s">
+        <v>272</v>
+      </c>
+      <c r="PX33" s="190" t="s">
+        <v>272</v>
+      </c>
       <c r="PY33" s="189"/>
       <c r="PZ33" s="189"/>
       <c r="QA33" s="189"/>
@@ -24160,11 +24382,109 @@
       <c r="RS34" s="139"/>
       <c r="RT34" s="139"/>
     </row>
-    <row r="35" spans="1:488" ht="255" customHeight="1"/>
+    <row r="35" spans="1:488" s="263" customFormat="1" ht="16">
+      <c r="A35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="CV35" s="264"/>
+      <c r="CW35" s="264"/>
+      <c r="DC35" s="264"/>
+      <c r="DD35" s="264"/>
+      <c r="DJ35" s="264"/>
+      <c r="DK35" s="264"/>
+      <c r="DL35" s="264"/>
+      <c r="DM35" s="264"/>
+      <c r="DN35" s="264"/>
+      <c r="DQ35" s="264"/>
+      <c r="DR35" s="264"/>
+      <c r="DY35" s="265"/>
+      <c r="DZ35" s="265"/>
+      <c r="EA35" s="266"/>
+      <c r="EF35" s="266"/>
+      <c r="EG35" s="266"/>
+      <c r="EH35" s="266"/>
+      <c r="EM35" s="266"/>
+      <c r="EN35" s="266"/>
+      <c r="ET35" s="266"/>
+      <c r="EU35" s="266"/>
+      <c r="FA35" s="267"/>
+      <c r="FB35" s="267"/>
+      <c r="FC35" s="268"/>
+      <c r="FD35" s="268"/>
+      <c r="FE35" s="268"/>
+      <c r="FF35" s="268"/>
+      <c r="FG35" s="268"/>
+      <c r="FH35" s="267"/>
+      <c r="FI35" s="267"/>
+      <c r="FJ35" s="268"/>
+      <c r="FK35" s="268"/>
+      <c r="FL35" s="268"/>
+      <c r="FM35" s="268"/>
+      <c r="FN35" s="268"/>
+      <c r="FO35" s="267"/>
+      <c r="FP35" s="267"/>
+      <c r="FQ35" s="268"/>
+      <c r="FR35" s="268"/>
+      <c r="FS35" s="268"/>
+      <c r="FT35" s="268"/>
+      <c r="FU35" s="268"/>
+      <c r="FV35" s="267"/>
+      <c r="FW35" s="267"/>
+      <c r="FX35" s="268"/>
+      <c r="FY35" s="268"/>
+      <c r="FZ35" s="268"/>
+      <c r="GA35" s="268"/>
+      <c r="GB35" s="268"/>
+      <c r="GC35" s="267"/>
+      <c r="GD35" s="267"/>
+      <c r="GE35" s="268"/>
+      <c r="GF35" s="268"/>
+      <c r="GG35" s="268"/>
+      <c r="GK35" s="267"/>
+      <c r="GL35" s="267"/>
+      <c r="GR35" s="267"/>
+      <c r="GS35" s="267"/>
+      <c r="GY35" s="267"/>
+      <c r="GZ35" s="267"/>
+      <c r="HF35" s="267"/>
+      <c r="HG35" s="267"/>
+      <c r="PS35" s="263" t="s">
+        <v>442</v>
+      </c>
+      <c r="PU35" s="263">
+        <v>1</v>
+      </c>
+      <c r="PV35" s="263">
+        <v>1.5</v>
+      </c>
+      <c r="PW35" s="263">
+        <v>1</v>
+      </c>
+      <c r="PX35" s="263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:488">
+      <c r="PW36" s="158"/>
+    </row>
+    <row r="37" spans="1:488">
+      <c r="PW37" s="158"/>
+    </row>
+    <row r="38" spans="1:488">
+      <c r="PW38" s="158" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:488">
+      <c r="PW39" s="269" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:488">
+      <c r="PW40" s="270"/>
+    </row>
     <row r="42" spans="1:488">
       <c r="MW42" s="226"/>
     </row>
-    <row r="44" spans="1:488" ht="206" customHeight="1"/>
     <row r="45" spans="1:488" ht="43.5" customHeight="1">
       <c r="A45" s="148" t="s">
         <v>151</v>
@@ -25731,21 +26051,21 @@
       </c>
       <c r="DK48" s="63"/>
       <c r="DL48" s="51"/>
-      <c r="DM48" s="289" t="s">
+      <c r="DM48" s="298" t="s">
         <v>42</v>
       </c>
-      <c r="DN48" s="289"/>
-      <c r="DO48" s="289"/>
-      <c r="DP48" s="289"/>
-      <c r="DQ48" s="289"/>
-      <c r="DR48" s="289"/>
+      <c r="DN48" s="298"/>
+      <c r="DO48" s="298"/>
+      <c r="DP48" s="298"/>
+      <c r="DQ48" s="298"/>
+      <c r="DR48" s="298"/>
       <c r="DS48" s="51"/>
-      <c r="DT48" s="289" t="s">
+      <c r="DT48" s="298" t="s">
         <v>42</v>
       </c>
-      <c r="DU48" s="289"/>
-      <c r="DV48" s="289"/>
-      <c r="DW48" s="289"/>
+      <c r="DU48" s="298"/>
+      <c r="DV48" s="298"/>
+      <c r="DW48" s="298"/>
       <c r="DX48" s="3"/>
       <c r="DY48" s="3"/>
       <c r="DZ48" s="74"/>
@@ -25826,18 +26146,18 @@
       </c>
       <c r="GF48" s="3"/>
       <c r="GG48" s="3"/>
-      <c r="GH48" s="311"/>
-      <c r="GI48" s="311"/>
-      <c r="GJ48" s="311"/>
+      <c r="GH48" s="320"/>
+      <c r="GI48" s="320"/>
+      <c r="GJ48" s="320"/>
       <c r="GK48" s="110"/>
-      <c r="GL48" s="311" t="s">
+      <c r="GL48" s="320" t="s">
         <v>42</v>
       </c>
-      <c r="GM48" s="311"/>
-      <c r="GN48" s="311"/>
-      <c r="GO48" s="311"/>
-      <c r="GP48" s="311"/>
-      <c r="GQ48" s="311"/>
+      <c r="GM48" s="320"/>
+      <c r="GN48" s="320"/>
+      <c r="GO48" s="320"/>
+      <c r="GP48" s="320"/>
+      <c r="GQ48" s="320"/>
     </row>
     <row r="49" spans="1:189" ht="43.5" customHeight="1">
       <c r="A49" s="20"/>
@@ -25847,202 +26167,202 @@
       <c r="C49" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="278" t="s">
+      <c r="D49" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="278"/>
-      <c r="F49" s="278"/>
-      <c r="G49" s="278"/>
-      <c r="H49" s="278"/>
-      <c r="I49" s="278"/>
-      <c r="J49" s="278"/>
-      <c r="K49" s="278"/>
-      <c r="L49" s="278"/>
-      <c r="M49" s="278"/>
-      <c r="N49" s="278"/>
-      <c r="O49" s="278"/>
-      <c r="P49" s="278"/>
-      <c r="Q49" s="278"/>
-      <c r="R49" s="278"/>
-      <c r="S49" s="278"/>
-      <c r="T49" s="278"/>
-      <c r="U49" s="278"/>
-      <c r="V49" s="278"/>
-      <c r="W49" s="278"/>
-      <c r="X49" s="278"/>
-      <c r="Y49" s="278"/>
-      <c r="Z49" s="278"/>
-      <c r="AA49" s="278"/>
-      <c r="AB49" s="278"/>
-      <c r="AC49" s="278"/>
-      <c r="AD49" s="278"/>
-      <c r="AE49" s="278"/>
-      <c r="AF49" s="278"/>
-      <c r="AG49" s="278"/>
-      <c r="AH49" s="278"/>
-      <c r="AI49" s="278" t="s">
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="287"/>
+      <c r="K49" s="287"/>
+      <c r="L49" s="287"/>
+      <c r="M49" s="287"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="287"/>
+      <c r="P49" s="287"/>
+      <c r="Q49" s="287"/>
+      <c r="R49" s="287"/>
+      <c r="S49" s="287"/>
+      <c r="T49" s="287"/>
+      <c r="U49" s="287"/>
+      <c r="V49" s="287"/>
+      <c r="W49" s="287"/>
+      <c r="X49" s="287"/>
+      <c r="Y49" s="287"/>
+      <c r="Z49" s="287"/>
+      <c r="AA49" s="287"/>
+      <c r="AB49" s="287"/>
+      <c r="AC49" s="287"/>
+      <c r="AD49" s="287"/>
+      <c r="AE49" s="287"/>
+      <c r="AF49" s="287"/>
+      <c r="AG49" s="287"/>
+      <c r="AH49" s="287"/>
+      <c r="AI49" s="287" t="s">
         <v>4</v>
       </c>
-      <c r="AJ49" s="278"/>
-      <c r="AK49" s="278"/>
-      <c r="AL49" s="278"/>
-      <c r="AM49" s="278"/>
-      <c r="AN49" s="278"/>
-      <c r="AO49" s="278"/>
-      <c r="AP49" s="278"/>
-      <c r="AQ49" s="278"/>
-      <c r="AR49" s="278"/>
-      <c r="AS49" s="278"/>
-      <c r="AT49" s="278"/>
-      <c r="AU49" s="278"/>
-      <c r="AV49" s="278"/>
-      <c r="AW49" s="278"/>
-      <c r="AX49" s="278"/>
-      <c r="AY49" s="278"/>
-      <c r="AZ49" s="278"/>
-      <c r="BA49" s="278"/>
-      <c r="BB49" s="278"/>
-      <c r="BC49" s="278"/>
-      <c r="BD49" s="278"/>
-      <c r="BE49" s="278"/>
-      <c r="BF49" s="278"/>
-      <c r="BG49" s="278"/>
-      <c r="BH49" s="278"/>
-      <c r="BI49" s="278"/>
-      <c r="BJ49" s="278"/>
-      <c r="BK49" s="278"/>
-      <c r="BL49" s="278"/>
-      <c r="BM49" s="278"/>
-      <c r="BN49" s="278" t="s">
+      <c r="AJ49" s="287"/>
+      <c r="AK49" s="287"/>
+      <c r="AL49" s="287"/>
+      <c r="AM49" s="287"/>
+      <c r="AN49" s="287"/>
+      <c r="AO49" s="287"/>
+      <c r="AP49" s="287"/>
+      <c r="AQ49" s="287"/>
+      <c r="AR49" s="287"/>
+      <c r="AS49" s="287"/>
+      <c r="AT49" s="287"/>
+      <c r="AU49" s="287"/>
+      <c r="AV49" s="287"/>
+      <c r="AW49" s="287"/>
+      <c r="AX49" s="287"/>
+      <c r="AY49" s="287"/>
+      <c r="AZ49" s="287"/>
+      <c r="BA49" s="287"/>
+      <c r="BB49" s="287"/>
+      <c r="BC49" s="287"/>
+      <c r="BD49" s="287"/>
+      <c r="BE49" s="287"/>
+      <c r="BF49" s="287"/>
+      <c r="BG49" s="287"/>
+      <c r="BH49" s="287"/>
+      <c r="BI49" s="287"/>
+      <c r="BJ49" s="287"/>
+      <c r="BK49" s="287"/>
+      <c r="BL49" s="287"/>
+      <c r="BM49" s="287"/>
+      <c r="BN49" s="287" t="s">
         <v>108</v>
       </c>
-      <c r="BO49" s="278"/>
-      <c r="BP49" s="278"/>
-      <c r="BQ49" s="278"/>
-      <c r="BR49" s="278"/>
-      <c r="BS49" s="278"/>
-      <c r="BT49" s="278"/>
-      <c r="BU49" s="278"/>
-      <c r="BV49" s="278"/>
-      <c r="BW49" s="278"/>
-      <c r="BX49" s="278"/>
-      <c r="BY49" s="278"/>
-      <c r="BZ49" s="278"/>
-      <c r="CA49" s="278"/>
-      <c r="CB49" s="278"/>
-      <c r="CC49" s="278"/>
-      <c r="CD49" s="278"/>
-      <c r="CE49" s="278"/>
-      <c r="CF49" s="278"/>
-      <c r="CG49" s="278"/>
-      <c r="CH49" s="278"/>
-      <c r="CI49" s="278"/>
-      <c r="CJ49" s="278"/>
-      <c r="CK49" s="278"/>
-      <c r="CL49" s="278"/>
-      <c r="CM49" s="278"/>
-      <c r="CN49" s="278"/>
-      <c r="CO49" s="278"/>
-      <c r="CP49" s="278"/>
-      <c r="CQ49" s="278"/>
-      <c r="CR49" s="278"/>
-      <c r="CS49" s="282" t="s">
+      <c r="BO49" s="287"/>
+      <c r="BP49" s="287"/>
+      <c r="BQ49" s="287"/>
+      <c r="BR49" s="287"/>
+      <c r="BS49" s="287"/>
+      <c r="BT49" s="287"/>
+      <c r="BU49" s="287"/>
+      <c r="BV49" s="287"/>
+      <c r="BW49" s="287"/>
+      <c r="BX49" s="287"/>
+      <c r="BY49" s="287"/>
+      <c r="BZ49" s="287"/>
+      <c r="CA49" s="287"/>
+      <c r="CB49" s="287"/>
+      <c r="CC49" s="287"/>
+      <c r="CD49" s="287"/>
+      <c r="CE49" s="287"/>
+      <c r="CF49" s="287"/>
+      <c r="CG49" s="287"/>
+      <c r="CH49" s="287"/>
+      <c r="CI49" s="287"/>
+      <c r="CJ49" s="287"/>
+      <c r="CK49" s="287"/>
+      <c r="CL49" s="287"/>
+      <c r="CM49" s="287"/>
+      <c r="CN49" s="287"/>
+      <c r="CO49" s="287"/>
+      <c r="CP49" s="287"/>
+      <c r="CQ49" s="287"/>
+      <c r="CR49" s="287"/>
+      <c r="CS49" s="291" t="s">
         <v>65</v>
       </c>
-      <c r="CT49" s="282"/>
-      <c r="CU49" s="282"/>
-      <c r="CV49" s="282"/>
-      <c r="CW49" s="282"/>
-      <c r="CX49" s="282"/>
-      <c r="CY49" s="282"/>
-      <c r="CZ49" s="282"/>
-      <c r="DA49" s="282"/>
-      <c r="DB49" s="282"/>
-      <c r="DC49" s="282"/>
-      <c r="DD49" s="282"/>
-      <c r="DE49" s="282"/>
-      <c r="DF49" s="282"/>
-      <c r="DG49" s="282"/>
-      <c r="DH49" s="282"/>
-      <c r="DI49" s="282"/>
-      <c r="DJ49" s="282"/>
-      <c r="DK49" s="282"/>
-      <c r="DL49" s="282"/>
-      <c r="DM49" s="282"/>
-      <c r="DN49" s="282"/>
-      <c r="DO49" s="282"/>
-      <c r="DP49" s="282"/>
-      <c r="DQ49" s="282"/>
-      <c r="DR49" s="282"/>
-      <c r="DS49" s="282"/>
-      <c r="DT49" s="282"/>
-      <c r="DU49" s="282"/>
-      <c r="DV49" s="282"/>
-      <c r="DW49" s="282"/>
+      <c r="CT49" s="291"/>
+      <c r="CU49" s="291"/>
+      <c r="CV49" s="291"/>
+      <c r="CW49" s="291"/>
+      <c r="CX49" s="291"/>
+      <c r="CY49" s="291"/>
+      <c r="CZ49" s="291"/>
+      <c r="DA49" s="291"/>
+      <c r="DB49" s="291"/>
+      <c r="DC49" s="291"/>
+      <c r="DD49" s="291"/>
+      <c r="DE49" s="291"/>
+      <c r="DF49" s="291"/>
+      <c r="DG49" s="291"/>
+      <c r="DH49" s="291"/>
+      <c r="DI49" s="291"/>
+      <c r="DJ49" s="291"/>
+      <c r="DK49" s="291"/>
+      <c r="DL49" s="291"/>
+      <c r="DM49" s="291"/>
+      <c r="DN49" s="291"/>
+      <c r="DO49" s="291"/>
+      <c r="DP49" s="291"/>
+      <c r="DQ49" s="291"/>
+      <c r="DR49" s="291"/>
+      <c r="DS49" s="291"/>
+      <c r="DT49" s="291"/>
+      <c r="DU49" s="291"/>
+      <c r="DV49" s="291"/>
+      <c r="DW49" s="291"/>
       <c r="DX49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="DY49" s="282"/>
-      <c r="DZ49" s="282"/>
-      <c r="EA49" s="282"/>
-      <c r="EB49" s="282"/>
-      <c r="EC49" s="282"/>
-      <c r="ED49" s="282"/>
-      <c r="EE49" s="282"/>
-      <c r="EF49" s="282"/>
-      <c r="EG49" s="282"/>
-      <c r="EH49" s="282"/>
-      <c r="EI49" s="282"/>
-      <c r="EJ49" s="282"/>
-      <c r="EK49" s="282"/>
-      <c r="EL49" s="282"/>
-      <c r="EM49" s="282"/>
-      <c r="EN49" s="282"/>
-      <c r="EO49" s="282"/>
-      <c r="EP49" s="282"/>
-      <c r="EQ49" s="282"/>
-      <c r="ER49" s="282"/>
-      <c r="ES49" s="282"/>
-      <c r="ET49" s="282"/>
-      <c r="EU49" s="282"/>
-      <c r="EV49" s="282"/>
-      <c r="EW49" s="282"/>
-      <c r="EX49" s="282"/>
-      <c r="EY49" s="282"/>
-      <c r="EZ49" s="282"/>
-      <c r="FA49" s="282"/>
-      <c r="FB49" s="282"/>
+      <c r="DY49" s="291"/>
+      <c r="DZ49" s="291"/>
+      <c r="EA49" s="291"/>
+      <c r="EB49" s="291"/>
+      <c r="EC49" s="291"/>
+      <c r="ED49" s="291"/>
+      <c r="EE49" s="291"/>
+      <c r="EF49" s="291"/>
+      <c r="EG49" s="291"/>
+      <c r="EH49" s="291"/>
+      <c r="EI49" s="291"/>
+      <c r="EJ49" s="291"/>
+      <c r="EK49" s="291"/>
+      <c r="EL49" s="291"/>
+      <c r="EM49" s="291"/>
+      <c r="EN49" s="291"/>
+      <c r="EO49" s="291"/>
+      <c r="EP49" s="291"/>
+      <c r="EQ49" s="291"/>
+      <c r="ER49" s="291"/>
+      <c r="ES49" s="291"/>
+      <c r="ET49" s="291"/>
+      <c r="EU49" s="291"/>
+      <c r="EV49" s="291"/>
+      <c r="EW49" s="291"/>
+      <c r="EX49" s="291"/>
+      <c r="EY49" s="291"/>
+      <c r="EZ49" s="291"/>
+      <c r="FA49" s="291"/>
+      <c r="FB49" s="291"/>
       <c r="FC49" s="3"/>
-      <c r="FD49" s="282"/>
-      <c r="FE49" s="282"/>
-      <c r="FF49" s="282"/>
-      <c r="FG49" s="282"/>
-      <c r="FH49" s="282"/>
-      <c r="FI49" s="282"/>
-      <c r="FJ49" s="282"/>
-      <c r="FK49" s="282"/>
-      <c r="FL49" s="282"/>
-      <c r="FM49" s="282"/>
-      <c r="FN49" s="282"/>
-      <c r="FO49" s="282"/>
-      <c r="FP49" s="282"/>
-      <c r="FQ49" s="282"/>
-      <c r="FR49" s="282"/>
-      <c r="FS49" s="282"/>
-      <c r="FT49" s="282"/>
-      <c r="FU49" s="282"/>
-      <c r="FV49" s="282"/>
-      <c r="FW49" s="282"/>
-      <c r="FX49" s="282"/>
-      <c r="FY49" s="282"/>
-      <c r="FZ49" s="282"/>
-      <c r="GA49" s="282"/>
-      <c r="GB49" s="282"/>
-      <c r="GC49" s="282"/>
-      <c r="GD49" s="282"/>
-      <c r="GE49" s="282"/>
-      <c r="GF49" s="282"/>
-      <c r="GG49" s="282"/>
+      <c r="FD49" s="291"/>
+      <c r="FE49" s="291"/>
+      <c r="FF49" s="291"/>
+      <c r="FG49" s="291"/>
+      <c r="FH49" s="291"/>
+      <c r="FI49" s="291"/>
+      <c r="FJ49" s="291"/>
+      <c r="FK49" s="291"/>
+      <c r="FL49" s="291"/>
+      <c r="FM49" s="291"/>
+      <c r="FN49" s="291"/>
+      <c r="FO49" s="291"/>
+      <c r="FP49" s="291"/>
+      <c r="FQ49" s="291"/>
+      <c r="FR49" s="291"/>
+      <c r="FS49" s="291"/>
+      <c r="FT49" s="291"/>
+      <c r="FU49" s="291"/>
+      <c r="FV49" s="291"/>
+      <c r="FW49" s="291"/>
+      <c r="FX49" s="291"/>
+      <c r="FY49" s="291"/>
+      <c r="FZ49" s="291"/>
+      <c r="GA49" s="291"/>
+      <c r="GB49" s="291"/>
+      <c r="GC49" s="291"/>
+      <c r="GD49" s="291"/>
+      <c r="GE49" s="291"/>
+      <c r="GF49" s="291"/>
+      <c r="GG49" s="291"/>
     </row>
     <row r="50" spans="1:189" ht="43.5" customHeight="1">
       <c r="A50" s="20"/>
@@ -26085,12 +26405,12 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="277"/>
-      <c r="AJ50" s="277"/>
-      <c r="AK50" s="277"/>
-      <c r="AL50" s="277"/>
-      <c r="AM50" s="277"/>
-      <c r="AN50" s="277"/>
+      <c r="AI50" s="286"/>
+      <c r="AJ50" s="286"/>
+      <c r="AK50" s="286"/>
+      <c r="AL50" s="286"/>
+      <c r="AM50" s="286"/>
+      <c r="AN50" s="286"/>
       <c r="AO50" s="3" t="s">
         <v>23</v>
       </c>
@@ -26289,9 +26609,9 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="277"/>
-      <c r="AG51" s="277"/>
-      <c r="AH51" s="277"/>
+      <c r="AF51" s="286"/>
+      <c r="AG51" s="286"/>
+      <c r="AH51" s="286"/>
       <c r="AI51" s="3" t="s">
         <v>23</v>
       </c>
@@ -26322,9 +26642,9 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-      <c r="BK51" s="303"/>
-      <c r="BL51" s="303"/>
-      <c r="BM51" s="303"/>
+      <c r="BK51" s="313"/>
+      <c r="BL51" s="313"/>
+      <c r="BM51" s="313"/>
       <c r="BN51" s="3" t="s">
         <v>23</v>
       </c>
@@ -26355,9 +26675,9 @@
       <c r="CM51" s="3"/>
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
-      <c r="CP51" s="303"/>
-      <c r="CQ51" s="303"/>
-      <c r="CR51" s="303"/>
+      <c r="CP51" s="313"/>
+      <c r="CQ51" s="313"/>
+      <c r="CR51" s="313"/>
       <c r="CS51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26388,9 +26708,9 @@
       <c r="DR51" s="3"/>
       <c r="DS51" s="3"/>
       <c r="DT51" s="3"/>
-      <c r="DU51" s="303"/>
-      <c r="DV51" s="303"/>
-      <c r="DW51" s="303"/>
+      <c r="DU51" s="313"/>
+      <c r="DV51" s="313"/>
+      <c r="DW51" s="313"/>
       <c r="DX51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26421,9 +26741,9 @@
       <c r="EW51" s="3"/>
       <c r="EX51" s="3"/>
       <c r="EY51" s="3"/>
-      <c r="EZ51" s="303"/>
-      <c r="FA51" s="303"/>
-      <c r="FB51" s="303"/>
+      <c r="EZ51" s="313"/>
+      <c r="FA51" s="313"/>
+      <c r="FB51" s="313"/>
       <c r="FC51" s="3" t="s">
         <v>42</v>
       </c>
@@ -26454,9 +26774,9 @@
       <c r="GB51" s="3"/>
       <c r="GC51" s="3"/>
       <c r="GD51" s="3"/>
-      <c r="GE51" s="303"/>
-      <c r="GF51" s="303"/>
-      <c r="GG51" s="303"/>
+      <c r="GE51" s="313"/>
+      <c r="GF51" s="313"/>
+      <c r="GG51" s="313"/>
     </row>
     <row r="52" spans="1:189" ht="43.5" customHeight="1">
       <c r="A52" s="20"/>
@@ -26972,74 +27292,74 @@
       <c r="AX60" s="10"/>
       <c r="AY60" s="51"/>
       <c r="AZ60" s="51"/>
-      <c r="BA60" s="283"/>
-      <c r="BB60" s="283"/>
-      <c r="BC60" s="283"/>
-      <c r="BD60" s="283"/>
-      <c r="BE60" s="283"/>
+      <c r="BA60" s="292"/>
+      <c r="BB60" s="292"/>
+      <c r="BC60" s="292"/>
+      <c r="BD60" s="292"/>
+      <c r="BE60" s="292"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="51"/>
-      <c r="BH60" s="283"/>
-      <c r="BI60" s="283"/>
-      <c r="BJ60" s="283"/>
-      <c r="BK60" s="283"/>
-      <c r="BL60" s="283"/>
+      <c r="BH60" s="292"/>
+      <c r="BI60" s="292"/>
+      <c r="BJ60" s="292"/>
+      <c r="BK60" s="292"/>
+      <c r="BL60" s="292"/>
       <c r="BM60" s="51"/>
       <c r="BN60" s="51"/>
-      <c r="BO60" s="303"/>
-      <c r="BP60" s="303"/>
-      <c r="BQ60" s="303"/>
-      <c r="BR60" s="303"/>
-      <c r="BS60" s="303"/>
+      <c r="BO60" s="313"/>
+      <c r="BP60" s="313"/>
+      <c r="BQ60" s="313"/>
+      <c r="BR60" s="313"/>
+      <c r="BS60" s="313"/>
       <c r="BT60" s="51"/>
       <c r="BU60" s="51"/>
-      <c r="BV60" s="303"/>
-      <c r="BW60" s="303"/>
-      <c r="BX60" s="303"/>
-      <c r="BY60" s="303"/>
-      <c r="BZ60" s="303"/>
+      <c r="BV60" s="313"/>
+      <c r="BW60" s="313"/>
+      <c r="BX60" s="313"/>
+      <c r="BY60" s="313"/>
+      <c r="BZ60" s="313"/>
       <c r="CA60" s="49"/>
-      <c r="CB60" s="303"/>
-      <c r="CC60" s="303"/>
-      <c r="CD60" s="303"/>
-      <c r="CE60" s="303"/>
-      <c r="CF60" s="303"/>
-      <c r="CG60" s="303"/>
+      <c r="CB60" s="313"/>
+      <c r="CC60" s="313"/>
+      <c r="CD60" s="313"/>
+      <c r="CE60" s="313"/>
+      <c r="CF60" s="313"/>
+      <c r="CG60" s="313"/>
       <c r="CH60" s="51"/>
       <c r="CI60" s="51"/>
-      <c r="CJ60" s="303"/>
-      <c r="CK60" s="303"/>
-      <c r="CL60" s="303"/>
-      <c r="CM60" s="303"/>
-      <c r="CN60" s="303"/>
+      <c r="CJ60" s="313"/>
+      <c r="CK60" s="313"/>
+      <c r="CL60" s="313"/>
+      <c r="CM60" s="313"/>
+      <c r="CN60" s="313"/>
       <c r="CO60" s="51"/>
       <c r="CP60" s="51"/>
-      <c r="CQ60" s="303"/>
-      <c r="CR60" s="303"/>
-      <c r="CS60" s="303"/>
-      <c r="CT60" s="303"/>
-      <c r="CU60" s="303"/>
+      <c r="CQ60" s="313"/>
+      <c r="CR60" s="313"/>
+      <c r="CS60" s="313"/>
+      <c r="CT60" s="313"/>
+      <c r="CU60" s="313"/>
       <c r="CV60" s="44"/>
       <c r="CW60" s="44"/>
-      <c r="CX60" s="303"/>
-      <c r="CY60" s="303"/>
-      <c r="CZ60" s="303"/>
-      <c r="DA60" s="303"/>
-      <c r="DB60" s="303"/>
+      <c r="CX60" s="313"/>
+      <c r="CY60" s="313"/>
+      <c r="CZ60" s="313"/>
+      <c r="DA60" s="313"/>
+      <c r="DB60" s="313"/>
       <c r="DC60" s="44"/>
       <c r="DD60" s="44"/>
-      <c r="DE60" s="303"/>
-      <c r="DF60" s="303"/>
-      <c r="DG60" s="303"/>
-      <c r="DH60" s="303"/>
-      <c r="DI60" s="303"/>
+      <c r="DE60" s="313"/>
+      <c r="DF60" s="313"/>
+      <c r="DG60" s="313"/>
+      <c r="DH60" s="313"/>
+      <c r="DI60" s="313"/>
       <c r="DJ60" s="44"/>
       <c r="DK60" s="44"/>
-      <c r="DL60" s="303"/>
-      <c r="DM60" s="303"/>
-      <c r="DN60" s="303"/>
-      <c r="DO60" s="303"/>
-      <c r="DP60" s="303"/>
+      <c r="DL60" s="313"/>
+      <c r="DM60" s="313"/>
+      <c r="DN60" s="313"/>
+      <c r="DO60" s="313"/>
+      <c r="DP60" s="313"/>
       <c r="DQ60" s="44"/>
       <c r="DR60" s="44"/>
       <c r="DS60" s="50" t="s">
@@ -27214,9 +27534,10 @@
     <mergeCell ref="CX60:DB60"/>
     <mergeCell ref="I48:N48"/>
     <mergeCell ref="DX52:EX52"/>
-    <mergeCell ref="CT5:CZ5"/>
-    <mergeCell ref="DA5:DG5"/>
-    <mergeCell ref="CV48:DA48"/>
+    <mergeCell ref="BN49:CR49"/>
+    <mergeCell ref="W48:AB48"/>
+    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="DS15:DY15"/>
     <mergeCell ref="BK51:BM51"/>
     <mergeCell ref="CS1:DW1"/>
     <mergeCell ref="CS2:DW2"/>
@@ -27232,6 +27553,14 @@
     <mergeCell ref="BN50:BS50"/>
     <mergeCell ref="CF5:CL5"/>
     <mergeCell ref="CM5:CS5"/>
+    <mergeCell ref="DO5:DU5"/>
+    <mergeCell ref="DC48:DH48"/>
+    <mergeCell ref="DT48:DY48"/>
+    <mergeCell ref="AI49:BM49"/>
+    <mergeCell ref="AD48:AI48"/>
+    <mergeCell ref="BO15:BU15"/>
+    <mergeCell ref="BV15:CB15"/>
+    <mergeCell ref="BK5:BQ5"/>
     <mergeCell ref="EX5:FD5"/>
     <mergeCell ref="FC1:GG1"/>
     <mergeCell ref="GG5:GM5"/>
@@ -27256,29 +27585,11 @@
     <mergeCell ref="CS49:DW49"/>
     <mergeCell ref="CQ15:CW15"/>
     <mergeCell ref="DH5:DN5"/>
-    <mergeCell ref="DO5:DU5"/>
-    <mergeCell ref="DC48:DH48"/>
-    <mergeCell ref="DT48:DY48"/>
-    <mergeCell ref="AI49:BM49"/>
-    <mergeCell ref="AD48:AI48"/>
-    <mergeCell ref="BO15:BU15"/>
-    <mergeCell ref="BV15:CB15"/>
-    <mergeCell ref="BK5:BQ5"/>
-    <mergeCell ref="AY48:BD48"/>
-    <mergeCell ref="BA15:BG15"/>
-    <mergeCell ref="BH15:BN15"/>
-    <mergeCell ref="CX15:DD15"/>
-    <mergeCell ref="DE15:DK15"/>
-    <mergeCell ref="DL15:DR15"/>
-    <mergeCell ref="DS15:DY15"/>
-    <mergeCell ref="AT15:AZ15"/>
-    <mergeCell ref="BR5:BX5"/>
-    <mergeCell ref="BY5:CE5"/>
-    <mergeCell ref="BN49:CR49"/>
     <mergeCell ref="BM48:BR48"/>
     <mergeCell ref="DM48:DR48"/>
-    <mergeCell ref="W48:AB48"/>
-    <mergeCell ref="P48:U48"/>
+    <mergeCell ref="CT5:CZ5"/>
+    <mergeCell ref="DA5:DG5"/>
+    <mergeCell ref="CV48:DA48"/>
     <mergeCell ref="J50:AH50"/>
     <mergeCell ref="AK48:AP48"/>
     <mergeCell ref="AI5:AO5"/>
@@ -27289,6 +27600,15 @@
     <mergeCell ref="AI50:AN50"/>
     <mergeCell ref="AO50:BM50"/>
     <mergeCell ref="AM15:AS15"/>
+    <mergeCell ref="BA15:BG15"/>
+    <mergeCell ref="BH15:BN15"/>
+    <mergeCell ref="CX15:DD15"/>
+    <mergeCell ref="DE15:DK15"/>
+    <mergeCell ref="DL15:DR15"/>
+    <mergeCell ref="AT15:AZ15"/>
+    <mergeCell ref="BR5:BX5"/>
+    <mergeCell ref="BY5:CE5"/>
+    <mergeCell ref="AY48:BD48"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -29299,11 +29619,11 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="336" t="s">
+      <c r="A15" s="345" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="336"/>
-      <c r="C15" s="336"/>
+      <c r="B15" s="345"/>
+      <c r="C15" s="345"/>
       <c r="D15" s="1"/>
       <c r="E15" s="7">
         <f t="shared" ref="E15:W15" si="7">SUM(E2:E14)-E19</f>
@@ -29784,11 +30104,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="336" t="s">
+      <c r="A21" s="345" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="336"/>
-      <c r="C21" s="336"/>
+      <c r="B21" s="345"/>
+      <c r="C21" s="345"/>
       <c r="D21" s="1"/>
       <c r="E21" s="7">
         <f>SUM(E17:E20)</f>
@@ -29868,11 +30188,11 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="336" t="s">
+      <c r="A22" s="345" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="336"/>
-      <c r="C22" s="336"/>
+      <c r="B22" s="345"/>
+      <c r="C22" s="345"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8">
         <f>E15+E21</f>

--- a/계획표(일과,자산).xlsx
+++ b/계획표(일과,자산).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7515F230-0355-3447-9188-BD3B69281BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFF6AB2-F14B-0C44-A8AA-A31D4F04513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음가짐" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="480">
   <si>
     <t>에어비엔비 호스팅 가이드</t>
   </si>
@@ -1508,76 +1508,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다짐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마음가짐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, BDHW) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>읽기</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>주5회</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2212,14 +2142,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>여행의 자유</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>가족과의 충분한 시간</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>꿈이 있는 지인들과의 교류</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3100,6 +3022,83 @@
     <t>주4회</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
+  <si>
+    <t>푸 
+M12 
+39</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족과의 충분한 시간(여행포함)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 시간과 공간</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M12 
+42</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다짐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마음가짐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, DVTP) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>읽기</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M15 
+45</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3112,7 +3111,7 @@
     <numFmt numFmtId="179" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3461,6 +3460,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="27">
@@ -4150,8 +4156,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="350">
@@ -4983,6 +4989,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5009,9 +5018,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6407,7 +6413,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s13311"/>
+                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s19496"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6774,8 +6780,8 @@
   </sheetPr>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -6786,7 +6792,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25" customHeight="1">
       <c r="A1" s="209" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="25" customHeight="1">
@@ -6854,38 +6860,38 @@
     </row>
     <row r="17" spans="1:1" ht="25" customHeight="1">
       <c r="A17" s="209" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="25" customHeight="1">
       <c r="A18" s="209" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="25" customHeight="1">
       <c r="A19" s="209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="10" customHeight="1"/>
     <row r="21" spans="1:1" ht="25" customHeight="1">
       <c r="A21" s="209" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="25" customHeight="1">
       <c r="A22" s="217" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="25" customHeight="1">
       <c r="A23" s="209" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="25" customHeight="1">
       <c r="A24" s="209" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="25" customHeight="1">
@@ -6898,27 +6904,27 @@
     </row>
     <row r="27" spans="1:1" ht="25" customHeight="1">
       <c r="A27" s="212" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="25" customHeight="1">
       <c r="A28" s="212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="25" customHeight="1">
       <c r="A29" s="213" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="25" customHeight="1">
       <c r="A30" s="212" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="25" customHeight="1">
       <c r="A31" s="214" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="25" customHeight="1">
@@ -6926,32 +6932,32 @@
     </row>
     <row r="33" spans="1:1" ht="25" customHeight="1">
       <c r="A33" s="209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="25" customHeight="1">
       <c r="A34" s="209" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="25" customHeight="1">
       <c r="A35" s="209" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="25" customHeight="1">
       <c r="A36" s="209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="25" customHeight="1">
       <c r="A37" s="209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="25" customHeight="1">
       <c r="A38" s="215" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6969,8 +6975,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -6990,18 +6996,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="209" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="245" t="s">
         <v>350</v>
-      </c>
-      <c r="C1" s="245" t="s">
-        <v>351</v>
       </c>
       <c r="D1" s="246"/>
       <c r="E1" s="245" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F1" s="246"/>
       <c r="G1" s="209" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I1" s="209" t="s">
         <v>19</v>
@@ -7009,18 +7015,18 @@
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="B2" s="210" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="246" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E2" s="247"/>
       <c r="F2" s="252" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H2" s="251" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J2" s="210" t="s">
         <v>43</v>
@@ -7028,48 +7034,48 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="B3" s="210" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="C3" s="247"/>
       <c r="D3" s="246"/>
       <c r="E3" s="247"/>
       <c r="F3" s="253" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H3" s="211" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J3" s="210" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="B4" s="210" t="s">
-        <v>353</v>
+        <v>475</v>
       </c>
       <c r="C4" s="247"/>
       <c r="D4" s="246"/>
       <c r="E4" s="247"/>
       <c r="F4" s="253" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G4" s="211"/>
       <c r="H4" s="211" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="B5" s="210" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C5" s="247"/>
       <c r="D5" s="246"/>
       <c r="E5" s="247"/>
       <c r="F5" s="246" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H5" s="210" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I5" s="209" t="s">
         <v>11</v>
@@ -7077,30 +7083,30 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="B6" s="210" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C6" s="247"/>
       <c r="D6" s="246"/>
       <c r="E6" s="247"/>
       <c r="F6" s="246" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H6" s="210" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="144">
       <c r="B7" s="244" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C7" s="247"/>
       <c r="D7" s="246"/>
       <c r="E7" s="247"/>
       <c r="F7" s="258" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H7" s="210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J7" s="210" t="s">
         <v>125</v>
@@ -7110,14 +7116,14 @@
       <c r="B8" s="244"/>
       <c r="C8" s="247"/>
       <c r="D8" s="246" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E8" s="247"/>
       <c r="F8" s="246" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H8" s="210" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J8" s="210" t="s">
         <v>2</v>
@@ -7129,10 +7135,10 @@
       <c r="D9" s="246"/>
       <c r="E9" s="247"/>
       <c r="F9" s="246" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H9" s="210" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J9" s="210" t="s">
         <v>47</v>
@@ -7144,23 +7150,23 @@
       <c r="D10" s="246"/>
       <c r="E10" s="247"/>
       <c r="F10" s="246" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H10" s="210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="C11" s="247"/>
       <c r="D11" s="246" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E11" s="247"/>
       <c r="F11" s="246" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H11" s="210" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I11" s="209" t="s">
         <v>122</v>
@@ -7172,7 +7178,7 @@
       <c r="E12" s="247"/>
       <c r="F12" s="246"/>
       <c r="H12" s="210" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J12" s="210" t="s">
         <v>59</v>
@@ -7181,17 +7187,17 @@
     <row r="13" spans="1:10" ht="27" customHeight="1">
       <c r="C13" s="247"/>
       <c r="D13" s="246" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E13" s="247"/>
       <c r="F13" s="246" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H13" s="210" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J13" s="210" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27" customHeight="1">
@@ -7200,7 +7206,7 @@
       <c r="E14" s="247"/>
       <c r="F14" s="246"/>
       <c r="H14" s="210" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1">
@@ -7210,7 +7216,7 @@
       <c r="E15" s="247"/>
       <c r="F15" s="246"/>
       <c r="H15" s="210" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I15" s="209" t="s">
         <v>62</v>
@@ -7222,7 +7228,7 @@
       <c r="E16" s="247"/>
       <c r="F16" s="246"/>
       <c r="H16" s="210" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J16" s="210" t="s">
         <v>107</v>
@@ -7234,7 +7240,7 @@
       <c r="E17" s="247"/>
       <c r="F17" s="246"/>
       <c r="H17" s="210" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="27" customHeight="1">
@@ -7243,7 +7249,7 @@
       <c r="E18" s="247"/>
       <c r="F18" s="246"/>
       <c r="H18" s="210" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="27" customHeight="1">
@@ -7252,13 +7258,13 @@
       <c r="E19" s="247"/>
       <c r="F19" s="246"/>
       <c r="H19" s="210" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="27" customHeight="1">
       <c r="C20" s="247"/>
       <c r="D20" s="246" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E20" s="247"/>
       <c r="F20" s="246"/>
@@ -7277,7 +7283,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7288,40 +7294,40 @@
   <sheetData>
     <row r="1" spans="1:14" s="21" customFormat="1" ht="17">
       <c r="B1" s="142" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="199" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="142" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="G1" s="142" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="142" t="s">
-        <v>461</v>
-      </c>
-      <c r="E1" s="199" t="s">
+      <c r="H1" s="142" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="I1" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="J1" s="142" t="s">
         <v>454</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="K1" s="142" t="s">
         <v>455</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="L1" s="142" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="M1" s="142" t="s">
         <v>457</v>
-      </c>
-      <c r="K1" s="142" t="s">
-        <v>458</v>
-      </c>
-      <c r="L1" s="142" t="s">
-        <v>459</v>
-      </c>
-      <c r="M1" s="142" t="s">
-        <v>460</v>
       </c>
       <c r="N1" s="199"/>
     </row>
@@ -7459,175 +7465,175 @@
     <row r="21" spans="1:13" ht="17">
       <c r="A21" s="272"/>
       <c r="B21" s="203" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D21" s="202"/>
       <c r="E21" s="273" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" s="274" t="s">
         <v>469</v>
       </c>
-      <c r="F21" s="274" t="s">
-        <v>472</v>
-      </c>
       <c r="G21" s="273" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H21" s="202"/>
       <c r="I21" s="202"/>
       <c r="J21" s="202"/>
       <c r="K21" s="203" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L21" s="202"/>
       <c r="M21" s="203" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="272"/>
       <c r="B22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D22" s="202"/>
       <c r="E22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H22" s="202"/>
       <c r="I22" s="202"/>
       <c r="J22" s="202"/>
       <c r="K22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L22" s="202"/>
       <c r="M22" s="275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="272"/>
       <c r="B23" s="273" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C23" s="273" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D23" s="202"/>
       <c r="E23" s="203" t="s">
+        <v>467</v>
+      </c>
+      <c r="F23" s="203" t="s">
         <v>470</v>
       </c>
-      <c r="F23" s="203" t="s">
-        <v>473</v>
-      </c>
       <c r="G23" s="273" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H23" s="202"/>
       <c r="I23" s="202"/>
       <c r="J23" s="202"/>
       <c r="K23" s="203" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L23" s="202"/>
       <c r="M23" s="203" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="272"/>
       <c r="B24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D24" s="202"/>
       <c r="E24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H24" s="202"/>
       <c r="I24" s="202"/>
       <c r="J24" s="202"/>
       <c r="K24" s="275" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L24" s="202"/>
       <c r="M24" s="203" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17">
       <c r="A25" s="272"/>
       <c r="B25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D25" s="202"/>
       <c r="E25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H25" s="202"/>
       <c r="I25" s="202"/>
       <c r="J25" s="202"/>
       <c r="K25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L25" s="202"/>
       <c r="M25" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="272"/>
       <c r="B26" s="275" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C26" s="275" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D26" s="202"/>
       <c r="E26" s="275" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F26" s="203" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G26" s="203" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
       <c r="J26" s="202"/>
       <c r="K26" s="203" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L26" s="202"/>
       <c r="M26" s="203" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7765,9 +7771,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:SC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="PH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="QA16" sqref="QA16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="PE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="QD9" sqref="QD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -8356,7 +8362,7 @@
       <c r="IP2" s="306"/>
       <c r="IQ2" s="307"/>
       <c r="IR2" s="292" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="IS2" s="293"/>
       <c r="IT2" s="293"/>
@@ -8386,7 +8392,7 @@
       <c r="JR2" s="293"/>
       <c r="JS2" s="293"/>
       <c r="JT2" s="294" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="JU2" s="295"/>
       <c r="JV2" s="295"/>
@@ -8419,7 +8425,7 @@
       <c r="KW2" s="295"/>
       <c r="KX2" s="296"/>
       <c r="KY2" s="303" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="KZ2" s="304"/>
       <c r="LA2" s="304"/>
@@ -8451,7 +8457,7 @@
       <c r="MA2" s="304"/>
       <c r="MB2" s="309"/>
       <c r="MC2" s="303" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="MD2" s="304"/>
       <c r="ME2" s="304"/>
@@ -8484,7 +8490,7 @@
       <c r="NF2" s="311"/>
       <c r="NG2" s="312"/>
       <c r="NH2" s="303" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="NI2" s="304"/>
       <c r="NJ2" s="304"/>
@@ -8515,72 +8521,72 @@
       <c r="OI2" s="304"/>
       <c r="OJ2" s="304"/>
       <c r="OK2" s="304"/>
-      <c r="OL2" s="282" t="s">
-        <v>374</v>
-      </c>
-      <c r="OM2" s="283"/>
-      <c r="ON2" s="283"/>
-      <c r="OO2" s="283"/>
-      <c r="OP2" s="283"/>
-      <c r="OQ2" s="283"/>
-      <c r="OR2" s="283"/>
-      <c r="OS2" s="283"/>
-      <c r="OT2" s="283"/>
-      <c r="OU2" s="283"/>
-      <c r="OV2" s="283"/>
-      <c r="OW2" s="283"/>
-      <c r="OX2" s="283"/>
-      <c r="OY2" s="283"/>
-      <c r="OZ2" s="283"/>
-      <c r="PA2" s="283"/>
-      <c r="PB2" s="283"/>
-      <c r="PC2" s="283"/>
-      <c r="PD2" s="283"/>
-      <c r="PE2" s="283"/>
-      <c r="PF2" s="283"/>
-      <c r="PG2" s="283"/>
-      <c r="PH2" s="283"/>
-      <c r="PI2" s="283"/>
-      <c r="PJ2" s="283"/>
-      <c r="PK2" s="283"/>
-      <c r="PL2" s="283"/>
-      <c r="PM2" s="283"/>
-      <c r="PN2" s="283"/>
-      <c r="PO2" s="283"/>
-      <c r="PP2" s="283"/>
-      <c r="PQ2" s="282" t="s">
-        <v>435</v>
-      </c>
-      <c r="PR2" s="283"/>
-      <c r="PS2" s="283"/>
-      <c r="PT2" s="283"/>
-      <c r="PU2" s="283"/>
-      <c r="PV2" s="283"/>
-      <c r="PW2" s="283"/>
-      <c r="PX2" s="283"/>
-      <c r="PY2" s="283"/>
-      <c r="PZ2" s="283"/>
-      <c r="QA2" s="283"/>
-      <c r="QB2" s="283"/>
-      <c r="QC2" s="283"/>
-      <c r="QD2" s="283"/>
-      <c r="QE2" s="283"/>
-      <c r="QF2" s="283"/>
-      <c r="QG2" s="283"/>
-      <c r="QH2" s="283"/>
-      <c r="QI2" s="283"/>
-      <c r="QJ2" s="283"/>
-      <c r="QK2" s="283"/>
-      <c r="QL2" s="283"/>
-      <c r="QM2" s="283"/>
-      <c r="QN2" s="283"/>
-      <c r="QO2" s="283"/>
-      <c r="QP2" s="283"/>
-      <c r="QQ2" s="283"/>
-      <c r="QR2" s="283"/>
-      <c r="QS2" s="283"/>
-      <c r="QT2" s="283"/>
-      <c r="QU2" s="283"/>
+      <c r="OL2" s="283" t="s">
+        <v>371</v>
+      </c>
+      <c r="OM2" s="284"/>
+      <c r="ON2" s="284"/>
+      <c r="OO2" s="284"/>
+      <c r="OP2" s="284"/>
+      <c r="OQ2" s="284"/>
+      <c r="OR2" s="284"/>
+      <c r="OS2" s="284"/>
+      <c r="OT2" s="284"/>
+      <c r="OU2" s="284"/>
+      <c r="OV2" s="284"/>
+      <c r="OW2" s="284"/>
+      <c r="OX2" s="284"/>
+      <c r="OY2" s="284"/>
+      <c r="OZ2" s="284"/>
+      <c r="PA2" s="284"/>
+      <c r="PB2" s="284"/>
+      <c r="PC2" s="284"/>
+      <c r="PD2" s="284"/>
+      <c r="PE2" s="284"/>
+      <c r="PF2" s="284"/>
+      <c r="PG2" s="284"/>
+      <c r="PH2" s="284"/>
+      <c r="PI2" s="284"/>
+      <c r="PJ2" s="284"/>
+      <c r="PK2" s="284"/>
+      <c r="PL2" s="284"/>
+      <c r="PM2" s="284"/>
+      <c r="PN2" s="284"/>
+      <c r="PO2" s="284"/>
+      <c r="PP2" s="284"/>
+      <c r="PQ2" s="283" t="s">
+        <v>432</v>
+      </c>
+      <c r="PR2" s="284"/>
+      <c r="PS2" s="284"/>
+      <c r="PT2" s="284"/>
+      <c r="PU2" s="284"/>
+      <c r="PV2" s="284"/>
+      <c r="PW2" s="284"/>
+      <c r="PX2" s="284"/>
+      <c r="PY2" s="284"/>
+      <c r="PZ2" s="284"/>
+      <c r="QA2" s="284"/>
+      <c r="QB2" s="284"/>
+      <c r="QC2" s="284"/>
+      <c r="QD2" s="284"/>
+      <c r="QE2" s="284"/>
+      <c r="QF2" s="284"/>
+      <c r="QG2" s="284"/>
+      <c r="QH2" s="284"/>
+      <c r="QI2" s="284"/>
+      <c r="QJ2" s="284"/>
+      <c r="QK2" s="284"/>
+      <c r="QL2" s="284"/>
+      <c r="QM2" s="284"/>
+      <c r="QN2" s="284"/>
+      <c r="QO2" s="284"/>
+      <c r="QP2" s="284"/>
+      <c r="QQ2" s="284"/>
+      <c r="QR2" s="284"/>
+      <c r="QS2" s="284"/>
+      <c r="QT2" s="284"/>
+      <c r="QU2" s="284"/>
     </row>
     <row r="3" spans="1:497" ht="21" customHeight="1">
       <c r="A3" s="323"/>
@@ -10388,28 +10394,28 @@
         <v>187</v>
       </c>
       <c r="HM4" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN4" s="126"/>
       <c r="HO4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT4" s="155"/>
       <c r="HU4" s="126"/>
       <c r="HV4" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HW4" s="125" t="s">
         <v>187</v>
@@ -10487,7 +10493,7 @@
       </c>
       <c r="JI4" s="156"/>
       <c r="JJ4" s="187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JK4" s="126"/>
       <c r="JL4" s="156"/>
@@ -10897,26 +10903,32 @@
         <v>187</v>
       </c>
       <c r="PV4" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PW4" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX4" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY4" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ4" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA4" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB4" s="125"/>
-      <c r="QC4" s="125"/>
-      <c r="QD4" s="125"/>
+        <v>271</v>
+      </c>
+      <c r="QB4" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC4" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD4" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE4" s="125"/>
       <c r="QF4" s="125"/>
       <c r="QG4" s="125"/>
@@ -11141,42 +11153,42 @@
       <c r="GD5" s="334"/>
       <c r="GE5" s="334"/>
       <c r="GF5" s="335"/>
-      <c r="GG5" s="279" t="s">
+      <c r="GG5" s="280" t="s">
         <v>188</v>
       </c>
-      <c r="GH5" s="280"/>
-      <c r="GI5" s="280"/>
-      <c r="GJ5" s="280"/>
-      <c r="GK5" s="280"/>
-      <c r="GL5" s="280"/>
-      <c r="GM5" s="281"/>
-      <c r="GN5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="GO5" s="280"/>
-      <c r="GP5" s="280"/>
-      <c r="GQ5" s="280"/>
-      <c r="GR5" s="280"/>
-      <c r="GS5" s="280"/>
-      <c r="GT5" s="281"/>
-      <c r="GU5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="GV5" s="280"/>
-      <c r="GW5" s="280"/>
-      <c r="GX5" s="280"/>
-      <c r="GY5" s="280"/>
-      <c r="GZ5" s="280"/>
-      <c r="HA5" s="281"/>
-      <c r="HB5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="HC5" s="280"/>
-      <c r="HD5" s="280"/>
-      <c r="HE5" s="280"/>
-      <c r="HF5" s="280"/>
-      <c r="HG5" s="280"/>
-      <c r="HH5" s="281"/>
+      <c r="GH5" s="281"/>
+      <c r="GI5" s="281"/>
+      <c r="GJ5" s="281"/>
+      <c r="GK5" s="281"/>
+      <c r="GL5" s="281"/>
+      <c r="GM5" s="282"/>
+      <c r="GN5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="GO5" s="281"/>
+      <c r="GP5" s="281"/>
+      <c r="GQ5" s="281"/>
+      <c r="GR5" s="281"/>
+      <c r="GS5" s="281"/>
+      <c r="GT5" s="282"/>
+      <c r="GU5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="GV5" s="281"/>
+      <c r="GW5" s="281"/>
+      <c r="GX5" s="281"/>
+      <c r="GY5" s="281"/>
+      <c r="GZ5" s="281"/>
+      <c r="HA5" s="282"/>
+      <c r="HB5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="HC5" s="281"/>
+      <c r="HD5" s="281"/>
+      <c r="HE5" s="281"/>
+      <c r="HF5" s="281"/>
+      <c r="HG5" s="281"/>
+      <c r="HH5" s="282"/>
       <c r="HI5" s="289" t="s">
         <v>187</v>
       </c>
@@ -11188,249 +11200,249 @@
       <c r="HO5" s="290"/>
       <c r="HP5" s="290"/>
       <c r="HQ5" s="291"/>
-      <c r="HR5" s="279" t="s">
-        <v>272</v>
-      </c>
-      <c r="HS5" s="280"/>
-      <c r="HT5" s="280"/>
-      <c r="HU5" s="280"/>
-      <c r="HV5" s="280"/>
-      <c r="HW5" s="280"/>
-      <c r="HX5" s="281"/>
-      <c r="HY5" s="279" t="s">
-        <v>272</v>
-      </c>
-      <c r="HZ5" s="280"/>
-      <c r="IA5" s="280"/>
-      <c r="IB5" s="280"/>
-      <c r="IC5" s="280"/>
-      <c r="ID5" s="280"/>
-      <c r="IE5" s="281"/>
-      <c r="IF5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="IG5" s="280"/>
-      <c r="IH5" s="280"/>
-      <c r="II5" s="280"/>
-      <c r="IJ5" s="280"/>
-      <c r="IK5" s="280"/>
-      <c r="IL5" s="281"/>
-      <c r="IM5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="IN5" s="280"/>
-      <c r="IO5" s="280"/>
-      <c r="IP5" s="280"/>
-      <c r="IQ5" s="280"/>
-      <c r="IR5" s="280"/>
-      <c r="IS5" s="281"/>
-      <c r="IT5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="IU5" s="280"/>
-      <c r="IV5" s="280"/>
-      <c r="IW5" s="280"/>
-      <c r="IX5" s="280"/>
-      <c r="IY5" s="280"/>
-      <c r="IZ5" s="281"/>
-      <c r="JA5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="JB5" s="280"/>
-      <c r="JC5" s="280"/>
-      <c r="JD5" s="280"/>
-      <c r="JE5" s="280"/>
-      <c r="JF5" s="280"/>
-      <c r="JG5" s="281"/>
-      <c r="JH5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="JI5" s="280"/>
-      <c r="JJ5" s="280"/>
-      <c r="JK5" s="280"/>
-      <c r="JL5" s="280"/>
-      <c r="JM5" s="280"/>
-      <c r="JN5" s="281"/>
-      <c r="JO5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="JP5" s="280"/>
-      <c r="JQ5" s="280"/>
-      <c r="JR5" s="280"/>
-      <c r="JS5" s="280"/>
-      <c r="JT5" s="280"/>
-      <c r="JU5" s="281"/>
-      <c r="JV5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="JW5" s="280"/>
-      <c r="JX5" s="280"/>
-      <c r="JY5" s="280"/>
-      <c r="JZ5" s="280"/>
-      <c r="KA5" s="280"/>
-      <c r="KB5" s="281"/>
-      <c r="KC5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="KD5" s="280"/>
-      <c r="KE5" s="280"/>
-      <c r="KF5" s="280"/>
-      <c r="KG5" s="280"/>
-      <c r="KH5" s="280"/>
-      <c r="KI5" s="281"/>
-      <c r="KJ5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="KK5" s="280"/>
-      <c r="KL5" s="280"/>
-      <c r="KM5" s="280"/>
-      <c r="KN5" s="280"/>
-      <c r="KO5" s="280"/>
-      <c r="KP5" s="281"/>
-      <c r="KQ5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="KR5" s="280"/>
-      <c r="KS5" s="280"/>
-      <c r="KT5" s="280"/>
-      <c r="KU5" s="280"/>
-      <c r="KV5" s="280"/>
-      <c r="KW5" s="281"/>
-      <c r="KX5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="KY5" s="280"/>
-      <c r="KZ5" s="280"/>
-      <c r="LA5" s="280"/>
-      <c r="LB5" s="280"/>
-      <c r="LC5" s="280"/>
-      <c r="LD5" s="281"/>
-      <c r="LE5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="LF5" s="280"/>
-      <c r="LG5" s="280"/>
-      <c r="LH5" s="280"/>
-      <c r="LI5" s="280"/>
-      <c r="LJ5" s="280"/>
-      <c r="LK5" s="281"/>
-      <c r="LL5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="LM5" s="280"/>
-      <c r="LN5" s="280"/>
-      <c r="LO5" s="280"/>
-      <c r="LP5" s="280"/>
-      <c r="LQ5" s="280"/>
-      <c r="LR5" s="281"/>
-      <c r="LS5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="LT5" s="280"/>
-      <c r="LU5" s="280"/>
-      <c r="LV5" s="280"/>
-      <c r="LW5" s="280"/>
-      <c r="LX5" s="280"/>
-      <c r="LY5" s="281"/>
-      <c r="LZ5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="MA5" s="280"/>
-      <c r="MB5" s="280"/>
-      <c r="MC5" s="280"/>
-      <c r="MD5" s="280"/>
-      <c r="ME5" s="280"/>
-      <c r="MF5" s="281"/>
-      <c r="MG5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="MH5" s="280"/>
-      <c r="MI5" s="280"/>
-      <c r="MJ5" s="280"/>
-      <c r="MK5" s="280"/>
-      <c r="ML5" s="280"/>
-      <c r="MM5" s="281"/>
-      <c r="MN5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="MO5" s="280"/>
-      <c r="MP5" s="280"/>
-      <c r="MQ5" s="280"/>
-      <c r="MR5" s="280"/>
-      <c r="MS5" s="280"/>
-      <c r="MT5" s="281"/>
-      <c r="MU5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="MV5" s="280"/>
-      <c r="MW5" s="280"/>
-      <c r="MX5" s="280"/>
-      <c r="MY5" s="280"/>
-      <c r="MZ5" s="280"/>
-      <c r="NA5" s="281"/>
-      <c r="NB5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="NC5" s="280"/>
-      <c r="ND5" s="280"/>
-      <c r="NE5" s="280"/>
-      <c r="NF5" s="280"/>
-      <c r="NG5" s="280"/>
-      <c r="NH5" s="281"/>
-      <c r="NI5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="NJ5" s="280"/>
-      <c r="NK5" s="280"/>
-      <c r="NL5" s="280"/>
-      <c r="NM5" s="280"/>
-      <c r="NN5" s="280"/>
-      <c r="NO5" s="281"/>
-      <c r="NP5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="NQ5" s="280"/>
-      <c r="NR5" s="280"/>
-      <c r="NS5" s="280"/>
-      <c r="NT5" s="280"/>
-      <c r="NU5" s="280"/>
-      <c r="NV5" s="281"/>
-      <c r="NW5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="NX5" s="280"/>
-      <c r="NY5" s="280"/>
-      <c r="NZ5" s="280"/>
-      <c r="OA5" s="280"/>
-      <c r="OB5" s="280"/>
-      <c r="OC5" s="281"/>
-      <c r="OD5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="OE5" s="280"/>
-      <c r="OF5" s="280"/>
-      <c r="OG5" s="280"/>
-      <c r="OH5" s="280"/>
-      <c r="OI5" s="280"/>
-      <c r="OJ5" s="281"/>
-      <c r="OK5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="OL5" s="280"/>
-      <c r="OM5" s="280"/>
-      <c r="ON5" s="280"/>
-      <c r="OO5" s="280"/>
-      <c r="OP5" s="280"/>
-      <c r="OQ5" s="281"/>
-      <c r="OR5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="OS5" s="280"/>
-      <c r="OT5" s="280"/>
-      <c r="OU5" s="280"/>
-      <c r="OV5" s="280"/>
-      <c r="OW5" s="280"/>
-      <c r="OX5" s="281"/>
+      <c r="HR5" s="280" t="s">
+        <v>271</v>
+      </c>
+      <c r="HS5" s="281"/>
+      <c r="HT5" s="281"/>
+      <c r="HU5" s="281"/>
+      <c r="HV5" s="281"/>
+      <c r="HW5" s="281"/>
+      <c r="HX5" s="282"/>
+      <c r="HY5" s="280" t="s">
+        <v>271</v>
+      </c>
+      <c r="HZ5" s="281"/>
+      <c r="IA5" s="281"/>
+      <c r="IB5" s="281"/>
+      <c r="IC5" s="281"/>
+      <c r="ID5" s="281"/>
+      <c r="IE5" s="282"/>
+      <c r="IF5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="IG5" s="281"/>
+      <c r="IH5" s="281"/>
+      <c r="II5" s="281"/>
+      <c r="IJ5" s="281"/>
+      <c r="IK5" s="281"/>
+      <c r="IL5" s="282"/>
+      <c r="IM5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="IN5" s="281"/>
+      <c r="IO5" s="281"/>
+      <c r="IP5" s="281"/>
+      <c r="IQ5" s="281"/>
+      <c r="IR5" s="281"/>
+      <c r="IS5" s="282"/>
+      <c r="IT5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="IU5" s="281"/>
+      <c r="IV5" s="281"/>
+      <c r="IW5" s="281"/>
+      <c r="IX5" s="281"/>
+      <c r="IY5" s="281"/>
+      <c r="IZ5" s="282"/>
+      <c r="JA5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="JB5" s="281"/>
+      <c r="JC5" s="281"/>
+      <c r="JD5" s="281"/>
+      <c r="JE5" s="281"/>
+      <c r="JF5" s="281"/>
+      <c r="JG5" s="282"/>
+      <c r="JH5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="JI5" s="281"/>
+      <c r="JJ5" s="281"/>
+      <c r="JK5" s="281"/>
+      <c r="JL5" s="281"/>
+      <c r="JM5" s="281"/>
+      <c r="JN5" s="282"/>
+      <c r="JO5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="JP5" s="281"/>
+      <c r="JQ5" s="281"/>
+      <c r="JR5" s="281"/>
+      <c r="JS5" s="281"/>
+      <c r="JT5" s="281"/>
+      <c r="JU5" s="282"/>
+      <c r="JV5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="JW5" s="281"/>
+      <c r="JX5" s="281"/>
+      <c r="JY5" s="281"/>
+      <c r="JZ5" s="281"/>
+      <c r="KA5" s="281"/>
+      <c r="KB5" s="282"/>
+      <c r="KC5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="KD5" s="281"/>
+      <c r="KE5" s="281"/>
+      <c r="KF5" s="281"/>
+      <c r="KG5" s="281"/>
+      <c r="KH5" s="281"/>
+      <c r="KI5" s="282"/>
+      <c r="KJ5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="KK5" s="281"/>
+      <c r="KL5" s="281"/>
+      <c r="KM5" s="281"/>
+      <c r="KN5" s="281"/>
+      <c r="KO5" s="281"/>
+      <c r="KP5" s="282"/>
+      <c r="KQ5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="KR5" s="281"/>
+      <c r="KS5" s="281"/>
+      <c r="KT5" s="281"/>
+      <c r="KU5" s="281"/>
+      <c r="KV5" s="281"/>
+      <c r="KW5" s="282"/>
+      <c r="KX5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="KY5" s="281"/>
+      <c r="KZ5" s="281"/>
+      <c r="LA5" s="281"/>
+      <c r="LB5" s="281"/>
+      <c r="LC5" s="281"/>
+      <c r="LD5" s="282"/>
+      <c r="LE5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="LF5" s="281"/>
+      <c r="LG5" s="281"/>
+      <c r="LH5" s="281"/>
+      <c r="LI5" s="281"/>
+      <c r="LJ5" s="281"/>
+      <c r="LK5" s="282"/>
+      <c r="LL5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="LM5" s="281"/>
+      <c r="LN5" s="281"/>
+      <c r="LO5" s="281"/>
+      <c r="LP5" s="281"/>
+      <c r="LQ5" s="281"/>
+      <c r="LR5" s="282"/>
+      <c r="LS5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="LT5" s="281"/>
+      <c r="LU5" s="281"/>
+      <c r="LV5" s="281"/>
+      <c r="LW5" s="281"/>
+      <c r="LX5" s="281"/>
+      <c r="LY5" s="282"/>
+      <c r="LZ5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="MA5" s="281"/>
+      <c r="MB5" s="281"/>
+      <c r="MC5" s="281"/>
+      <c r="MD5" s="281"/>
+      <c r="ME5" s="281"/>
+      <c r="MF5" s="282"/>
+      <c r="MG5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="MH5" s="281"/>
+      <c r="MI5" s="281"/>
+      <c r="MJ5" s="281"/>
+      <c r="MK5" s="281"/>
+      <c r="ML5" s="281"/>
+      <c r="MM5" s="282"/>
+      <c r="MN5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="MO5" s="281"/>
+      <c r="MP5" s="281"/>
+      <c r="MQ5" s="281"/>
+      <c r="MR5" s="281"/>
+      <c r="MS5" s="281"/>
+      <c r="MT5" s="282"/>
+      <c r="MU5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="MV5" s="281"/>
+      <c r="MW5" s="281"/>
+      <c r="MX5" s="281"/>
+      <c r="MY5" s="281"/>
+      <c r="MZ5" s="281"/>
+      <c r="NA5" s="282"/>
+      <c r="NB5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="NC5" s="281"/>
+      <c r="ND5" s="281"/>
+      <c r="NE5" s="281"/>
+      <c r="NF5" s="281"/>
+      <c r="NG5" s="281"/>
+      <c r="NH5" s="282"/>
+      <c r="NI5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="NJ5" s="281"/>
+      <c r="NK5" s="281"/>
+      <c r="NL5" s="281"/>
+      <c r="NM5" s="281"/>
+      <c r="NN5" s="281"/>
+      <c r="NO5" s="282"/>
+      <c r="NP5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="NQ5" s="281"/>
+      <c r="NR5" s="281"/>
+      <c r="NS5" s="281"/>
+      <c r="NT5" s="281"/>
+      <c r="NU5" s="281"/>
+      <c r="NV5" s="282"/>
+      <c r="NW5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="NX5" s="281"/>
+      <c r="NY5" s="281"/>
+      <c r="NZ5" s="281"/>
+      <c r="OA5" s="281"/>
+      <c r="OB5" s="281"/>
+      <c r="OC5" s="282"/>
+      <c r="OD5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="OE5" s="281"/>
+      <c r="OF5" s="281"/>
+      <c r="OG5" s="281"/>
+      <c r="OH5" s="281"/>
+      <c r="OI5" s="281"/>
+      <c r="OJ5" s="282"/>
+      <c r="OK5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="OL5" s="281"/>
+      <c r="OM5" s="281"/>
+      <c r="ON5" s="281"/>
+      <c r="OO5" s="281"/>
+      <c r="OP5" s="281"/>
+      <c r="OQ5" s="282"/>
+      <c r="OR5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="OS5" s="281"/>
+      <c r="OT5" s="281"/>
+      <c r="OU5" s="281"/>
+      <c r="OV5" s="281"/>
+      <c r="OW5" s="281"/>
+      <c r="OX5" s="282"/>
       <c r="OY5" s="346" t="s">
         <v>187</v>
       </c>
@@ -11439,96 +11451,96 @@
       <c r="PB5" s="347"/>
       <c r="PC5" s="347"/>
       <c r="PD5" s="347"/>
-      <c r="PE5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="PF5" s="280"/>
-      <c r="PG5" s="280"/>
-      <c r="PH5" s="280"/>
-      <c r="PI5" s="280"/>
-      <c r="PJ5" s="280"/>
-      <c r="PK5" s="281"/>
-      <c r="PL5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="PM5" s="280"/>
-      <c r="PN5" s="280"/>
-      <c r="PO5" s="280"/>
-      <c r="PP5" s="280"/>
-      <c r="PQ5" s="280"/>
-      <c r="PR5" s="281"/>
-      <c r="PS5" s="279" t="s">
-        <v>187</v>
-      </c>
-      <c r="PT5" s="280"/>
-      <c r="PU5" s="280"/>
-      <c r="PV5" s="280"/>
-      <c r="PW5" s="280"/>
-      <c r="PX5" s="280"/>
-      <c r="PY5" s="281"/>
-      <c r="PZ5" s="279"/>
-      <c r="QA5" s="280"/>
-      <c r="QB5" s="280"/>
-      <c r="QC5" s="280"/>
-      <c r="QD5" s="280"/>
-      <c r="QE5" s="280"/>
-      <c r="QF5" s="281"/>
-      <c r="QG5" s="279"/>
-      <c r="QH5" s="280"/>
-      <c r="QI5" s="280"/>
-      <c r="QJ5" s="280"/>
-      <c r="QK5" s="280"/>
-      <c r="QL5" s="280"/>
-      <c r="QM5" s="281"/>
-      <c r="QN5" s="279"/>
-      <c r="QO5" s="280"/>
-      <c r="QP5" s="280"/>
-      <c r="QQ5" s="280"/>
-      <c r="QR5" s="280"/>
-      <c r="QS5" s="280"/>
-      <c r="QT5" s="281"/>
-      <c r="QU5" s="279"/>
-      <c r="QV5" s="280"/>
-      <c r="QW5" s="280"/>
-      <c r="QX5" s="280"/>
-      <c r="QY5" s="280"/>
-      <c r="QZ5" s="280"/>
-      <c r="RA5" s="281"/>
-      <c r="RB5" s="279"/>
-      <c r="RC5" s="280"/>
-      <c r="RD5" s="280"/>
-      <c r="RE5" s="280"/>
-      <c r="RF5" s="280"/>
-      <c r="RG5" s="280"/>
-      <c r="RH5" s="281"/>
-      <c r="RI5" s="279"/>
-      <c r="RJ5" s="280"/>
-      <c r="RK5" s="280"/>
-      <c r="RL5" s="280"/>
-      <c r="RM5" s="280"/>
-      <c r="RN5" s="280"/>
-      <c r="RO5" s="281"/>
-      <c r="RP5" s="279"/>
-      <c r="RQ5" s="280"/>
-      <c r="RR5" s="280"/>
-      <c r="RS5" s="280"/>
-      <c r="RT5" s="280"/>
-      <c r="RU5" s="280"/>
-      <c r="RV5" s="281"/>
-      <c r="RW5" s="279"/>
-      <c r="RX5" s="280"/>
-      <c r="RY5" s="280"/>
-      <c r="RZ5" s="280"/>
-      <c r="SA5" s="280"/>
-      <c r="SB5" s="280"/>
-      <c r="SC5" s="281"/>
+      <c r="PE5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="PF5" s="281"/>
+      <c r="PG5" s="281"/>
+      <c r="PH5" s="281"/>
+      <c r="PI5" s="281"/>
+      <c r="PJ5" s="281"/>
+      <c r="PK5" s="282"/>
+      <c r="PL5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="PM5" s="281"/>
+      <c r="PN5" s="281"/>
+      <c r="PO5" s="281"/>
+      <c r="PP5" s="281"/>
+      <c r="PQ5" s="281"/>
+      <c r="PR5" s="282"/>
+      <c r="PS5" s="280" t="s">
+        <v>187</v>
+      </c>
+      <c r="PT5" s="281"/>
+      <c r="PU5" s="281"/>
+      <c r="PV5" s="281"/>
+      <c r="PW5" s="281"/>
+      <c r="PX5" s="281"/>
+      <c r="PY5" s="282"/>
+      <c r="PZ5" s="280"/>
+      <c r="QA5" s="281"/>
+      <c r="QB5" s="281"/>
+      <c r="QC5" s="281"/>
+      <c r="QD5" s="281"/>
+      <c r="QE5" s="281"/>
+      <c r="QF5" s="282"/>
+      <c r="QG5" s="280"/>
+      <c r="QH5" s="281"/>
+      <c r="QI5" s="281"/>
+      <c r="QJ5" s="281"/>
+      <c r="QK5" s="281"/>
+      <c r="QL5" s="281"/>
+      <c r="QM5" s="282"/>
+      <c r="QN5" s="280"/>
+      <c r="QO5" s="281"/>
+      <c r="QP5" s="281"/>
+      <c r="QQ5" s="281"/>
+      <c r="QR5" s="281"/>
+      <c r="QS5" s="281"/>
+      <c r="QT5" s="282"/>
+      <c r="QU5" s="280"/>
+      <c r="QV5" s="281"/>
+      <c r="QW5" s="281"/>
+      <c r="QX5" s="281"/>
+      <c r="QY5" s="281"/>
+      <c r="QZ5" s="281"/>
+      <c r="RA5" s="282"/>
+      <c r="RB5" s="280"/>
+      <c r="RC5" s="281"/>
+      <c r="RD5" s="281"/>
+      <c r="RE5" s="281"/>
+      <c r="RF5" s="281"/>
+      <c r="RG5" s="281"/>
+      <c r="RH5" s="282"/>
+      <c r="RI5" s="280"/>
+      <c r="RJ5" s="281"/>
+      <c r="RK5" s="281"/>
+      <c r="RL5" s="281"/>
+      <c r="RM5" s="281"/>
+      <c r="RN5" s="281"/>
+      <c r="RO5" s="282"/>
+      <c r="RP5" s="280"/>
+      <c r="RQ5" s="281"/>
+      <c r="RR5" s="281"/>
+      <c r="RS5" s="281"/>
+      <c r="RT5" s="281"/>
+      <c r="RU5" s="281"/>
+      <c r="RV5" s="282"/>
+      <c r="RW5" s="280"/>
+      <c r="RX5" s="281"/>
+      <c r="RY5" s="281"/>
+      <c r="RZ5" s="281"/>
+      <c r="SA5" s="281"/>
+      <c r="SB5" s="281"/>
+      <c r="SC5" s="282"/>
     </row>
     <row r="6" spans="1:497" ht="43.5" customHeight="1">
       <c r="A6" s="148" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="230" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C6" s="65" t="s">
         <v>137</v>
@@ -12124,20 +12136,26 @@
         <v>187</v>
       </c>
       <c r="PX6" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY6" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ6" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA6" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB6" s="226"/>
-      <c r="QC6" s="226"/>
-      <c r="QD6" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB6" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC6" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD6" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE6" s="125"/>
       <c r="QF6" s="125"/>
       <c r="QG6" s="125"/>
@@ -12172,7 +12190,7 @@
         <v>152</v>
       </c>
       <c r="B7" s="250" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>137</v>
@@ -12798,20 +12816,26 @@
         <v>187</v>
       </c>
       <c r="PX7" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY7" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ7" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA7" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB7" s="226"/>
-      <c r="QC7" s="226"/>
-      <c r="QD7" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB7" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC7" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD7" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE7" s="125"/>
       <c r="QF7" s="125"/>
       <c r="QG7" s="125"/>
@@ -12845,8 +12869,8 @@
       <c r="A8" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="149" t="s">
-        <v>244</v>
+      <c r="B8" s="276" t="s">
+        <v>478</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>137</v>
@@ -13233,28 +13257,28 @@
         <v>187</v>
       </c>
       <c r="HM8" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN8" s="126"/>
       <c r="HO8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT8" s="155"/>
       <c r="HU8" s="126"/>
       <c r="HV8" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HW8" s="125" t="s">
         <v>187</v>
@@ -13686,20 +13710,26 @@
         <v>187</v>
       </c>
       <c r="PX8" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY8" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ8" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA8" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB8" s="226"/>
-      <c r="QC8" s="226"/>
-      <c r="QD8" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD8" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE8" s="125"/>
       <c r="QF8" s="125"/>
       <c r="QG8" s="125"/>
@@ -13734,7 +13764,7 @@
         <v>152</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>137</v>
@@ -13961,18 +13991,18 @@
       <c r="HO9" s="125"/>
       <c r="HP9" s="125"/>
       <c r="HQ9" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR9" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS9" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT9" s="155"/>
       <c r="HU9" s="126"/>
       <c r="HV9" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HW9" s="125" t="s">
         <v>187</v>
@@ -14043,32 +14073,32 @@
         <v>187</v>
       </c>
       <c r="IY9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IZ9" s="156"/>
       <c r="JA9" s="156"/>
       <c r="JB9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JC9" s="155"/>
       <c r="JD9" s="126"/>
       <c r="JE9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JF9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ9" s="187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JK9" s="126"/>
       <c r="JL9" s="156"/>
@@ -14094,7 +14124,7 @@
         <v>187</v>
       </c>
       <c r="JX9" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JY9" s="126"/>
       <c r="JZ9" s="125" t="s">
@@ -14113,7 +14143,7 @@
         <v>187</v>
       </c>
       <c r="KE9" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KF9" s="126"/>
       <c r="KG9" s="125" t="s">
@@ -14132,7 +14162,7 @@
         <v>187</v>
       </c>
       <c r="KL9" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KM9" s="126"/>
       <c r="KN9" s="125" t="s">
@@ -14493,23 +14523,29 @@
         <v>187</v>
       </c>
       <c r="PW9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ9" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA9" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB9" s="226"/>
-      <c r="QC9" s="226"/>
-      <c r="QD9" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB9" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC9" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD9" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE9" s="125"/>
       <c r="QF9" s="125"/>
       <c r="QG9" s="125"/>
@@ -14544,7 +14580,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="230" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>137</v>
@@ -15125,23 +15161,29 @@
         <v>187</v>
       </c>
       <c r="PW10" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX10" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY10" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ10" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA10" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB10" s="226"/>
-      <c r="QC10" s="226"/>
-      <c r="QD10" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB10" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC10" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD10" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE10" s="125"/>
       <c r="QF10" s="125"/>
       <c r="QG10" s="125"/>
@@ -15176,7 +15218,7 @@
         <v>113</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>137</v>
@@ -15623,20 +15665,26 @@
         <v>187</v>
       </c>
       <c r="PX11" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY11" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ11" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA11" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB11" s="226"/>
-      <c r="QC11" s="226"/>
-      <c r="QD11" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB11" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC11" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD11" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE11" s="125"/>
       <c r="QF11" s="125"/>
       <c r="QG11" s="125"/>
@@ -15671,7 +15719,7 @@
         <v>152</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>137</v>
@@ -16079,20 +16127,26 @@
         <v>187</v>
       </c>
       <c r="PX12" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY12" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ12" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA12" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB12" s="226"/>
-      <c r="QC12" s="226"/>
-      <c r="QD12" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB12" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC12" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QD12" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QE12" s="125"/>
       <c r="QF12" s="125"/>
       <c r="QG12" s="125"/>
@@ -16127,10 +16181,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="144"/>
@@ -16352,19 +16406,19 @@
       <c r="HM13" s="126"/>
       <c r="HN13" s="126"/>
       <c r="HO13" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP13" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ13" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR13" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS13" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT13" s="126"/>
       <c r="HU13" s="126"/>
@@ -16429,36 +16483,36 @@
       <c r="IV13" s="126"/>
       <c r="IW13" s="126"/>
       <c r="IX13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IY13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IZ13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JA13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JB13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JC13" s="126"/>
       <c r="JD13" s="126"/>
       <c r="JE13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JF13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ13" s="126"/>
       <c r="JK13" s="126"/>
@@ -16849,20 +16903,22 @@
       <c r="PV13" s="156"/>
       <c r="PW13" s="156"/>
       <c r="PX13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ13" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA13" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB13" s="226"/>
-      <c r="QC13" s="226"/>
-      <c r="QD13" s="226"/>
+        <v>271</v>
+      </c>
+      <c r="QB13" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC13" s="156"/>
+      <c r="QD13" s="156"/>
       <c r="QE13" s="125"/>
       <c r="QF13" s="125"/>
       <c r="QG13" s="125"/>
@@ -16900,7 +16956,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="83"/>
@@ -17208,21 +17264,21 @@
         <v>187</v>
       </c>
       <c r="HM14" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN14" s="126"/>
       <c r="HO14" s="127"/>
       <c r="HP14" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ14" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR14" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS14" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT14" s="155"/>
       <c r="HU14" s="126"/>
@@ -17305,16 +17361,16 @@
       <c r="JD14" s="126"/>
       <c r="JE14" s="127"/>
       <c r="JF14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ14" s="139" t="s">
         <v>187</v>
@@ -17701,20 +17757,22 @@
       <c r="PV14" s="156"/>
       <c r="PW14" s="156"/>
       <c r="PX14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ14" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="QA14" s="190" t="s">
-        <v>272</v>
-      </c>
-      <c r="QB14" s="125"/>
-      <c r="QC14" s="125"/>
-      <c r="QD14" s="125"/>
+        <v>271</v>
+      </c>
+      <c r="QB14" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC14" s="156"/>
+      <c r="QD14" s="156"/>
       <c r="QE14" s="125"/>
       <c r="QF14" s="125"/>
       <c r="QG14" s="125"/>
@@ -17752,7 +17810,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="229" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D15" s="331" t="s">
         <v>16</v>
@@ -17964,20 +18022,20 @@
       <c r="FI15" s="318" t="s">
         <v>143</v>
       </c>
-      <c r="FJ15" s="276"/>
-      <c r="FK15" s="276"/>
-      <c r="FL15" s="276"/>
-      <c r="FM15" s="276"/>
-      <c r="FN15" s="276"/>
+      <c r="FJ15" s="277"/>
+      <c r="FK15" s="277"/>
+      <c r="FL15" s="277"/>
+      <c r="FM15" s="277"/>
+      <c r="FN15" s="277"/>
       <c r="FO15" s="337"/>
       <c r="FP15" s="318" t="s">
         <v>143</v>
       </c>
-      <c r="FQ15" s="276"/>
-      <c r="FR15" s="276"/>
-      <c r="FS15" s="276"/>
-      <c r="FT15" s="276"/>
-      <c r="FU15" s="276"/>
+      <c r="FQ15" s="277"/>
+      <c r="FR15" s="277"/>
+      <c r="FS15" s="277"/>
+      <c r="FT15" s="277"/>
+      <c r="FU15" s="277"/>
       <c r="FV15" s="337"/>
       <c r="FW15" s="338" t="s">
         <v>144</v>
@@ -17991,12 +18049,12 @@
       <c r="GD15" s="318" t="s">
         <v>143</v>
       </c>
-      <c r="GE15" s="276"/>
-      <c r="GF15" s="276"/>
-      <c r="GG15" s="276"/>
-      <c r="GH15" s="277"/>
-      <c r="GI15" s="277"/>
-      <c r="GJ15" s="278"/>
+      <c r="GE15" s="277"/>
+      <c r="GF15" s="277"/>
+      <c r="GG15" s="277"/>
+      <c r="GH15" s="278"/>
+      <c r="GI15" s="278"/>
+      <c r="GJ15" s="279"/>
       <c r="GK15" s="315" t="s">
         <v>225</v>
       </c>
@@ -18009,107 +18067,107 @@
       <c r="GR15" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="GS15" s="276"/>
-      <c r="GT15" s="276"/>
-      <c r="GU15" s="276"/>
-      <c r="GV15" s="277"/>
-      <c r="GW15" s="277"/>
-      <c r="GX15" s="278"/>
+      <c r="GS15" s="277"/>
+      <c r="GT15" s="277"/>
+      <c r="GU15" s="277"/>
+      <c r="GV15" s="278"/>
+      <c r="GW15" s="278"/>
+      <c r="GX15" s="279"/>
       <c r="GY15" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="GZ15" s="276"/>
-      <c r="HA15" s="276"/>
-      <c r="HB15" s="276"/>
-      <c r="HC15" s="277"/>
-      <c r="HD15" s="277"/>
-      <c r="HE15" s="278"/>
+      <c r="GZ15" s="277"/>
+      <c r="HA15" s="277"/>
+      <c r="HB15" s="277"/>
+      <c r="HC15" s="278"/>
+      <c r="HD15" s="278"/>
+      <c r="HE15" s="279"/>
       <c r="HF15" s="319" t="s">
         <v>238</v>
       </c>
-      <c r="HG15" s="277"/>
-      <c r="HH15" s="277"/>
-      <c r="HI15" s="277"/>
-      <c r="HJ15" s="277"/>
-      <c r="HK15" s="277"/>
-      <c r="HL15" s="278"/>
-      <c r="HM15" s="284" t="s">
+      <c r="HG15" s="278"/>
+      <c r="HH15" s="278"/>
+      <c r="HI15" s="278"/>
+      <c r="HJ15" s="278"/>
+      <c r="HK15" s="278"/>
+      <c r="HL15" s="279"/>
+      <c r="HM15" s="285" t="s">
         <v>227</v>
       </c>
-      <c r="HN15" s="277"/>
-      <c r="HO15" s="277"/>
-      <c r="HP15" s="277"/>
-      <c r="HQ15" s="277"/>
-      <c r="HR15" s="277"/>
-      <c r="HS15" s="278"/>
+      <c r="HN15" s="278"/>
+      <c r="HO15" s="278"/>
+      <c r="HP15" s="278"/>
+      <c r="HQ15" s="278"/>
+      <c r="HR15" s="278"/>
+      <c r="HS15" s="279"/>
       <c r="HT15" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="HU15" s="277"/>
+      <c r="HV15" s="277"/>
+      <c r="HW15" s="277"/>
+      <c r="HX15" s="278"/>
+      <c r="HY15" s="278"/>
+      <c r="HZ15" s="279"/>
+      <c r="IA15" s="308" t="s">
         <v>255</v>
       </c>
-      <c r="HU15" s="276"/>
-      <c r="HV15" s="276"/>
-      <c r="HW15" s="276"/>
-      <c r="HX15" s="277"/>
-      <c r="HY15" s="277"/>
-      <c r="HZ15" s="278"/>
-      <c r="IA15" s="308" t="s">
-        <v>256</v>
-      </c>
-      <c r="IB15" s="276"/>
-      <c r="IC15" s="276"/>
-      <c r="ID15" s="276"/>
-      <c r="IE15" s="277"/>
-      <c r="IF15" s="277"/>
-      <c r="IG15" s="278"/>
-      <c r="IH15" s="285"/>
+      <c r="IB15" s="277"/>
+      <c r="IC15" s="277"/>
+      <c r="ID15" s="277"/>
+      <c r="IE15" s="278"/>
+      <c r="IF15" s="278"/>
+      <c r="IG15" s="279"/>
+      <c r="IH15" s="3"/>
       <c r="II15" s="286"/>
       <c r="IJ15" s="286"/>
       <c r="IK15" s="286"/>
       <c r="IL15" s="287"/>
       <c r="IM15" s="287"/>
       <c r="IN15" s="288"/>
-      <c r="IO15" s="285"/>
+      <c r="IO15" s="3"/>
       <c r="IP15" s="286"/>
       <c r="IQ15" s="286"/>
       <c r="IR15" s="286"/>
       <c r="IS15" s="287"/>
       <c r="IT15" s="287"/>
       <c r="IU15" s="288"/>
-      <c r="IV15" s="285"/>
+      <c r="IV15" s="3"/>
       <c r="IW15" s="286"/>
       <c r="IX15" s="286"/>
       <c r="IY15" s="286"/>
       <c r="IZ15" s="287"/>
       <c r="JA15" s="287"/>
       <c r="JB15" s="288"/>
-      <c r="JC15" s="285"/>
+      <c r="JC15" s="3"/>
       <c r="JD15" s="286"/>
       <c r="JE15" s="286"/>
       <c r="JF15" s="286"/>
       <c r="JG15" s="287"/>
       <c r="JH15" s="287"/>
       <c r="JI15" s="288"/>
-      <c r="JJ15" s="285"/>
+      <c r="JJ15" s="3"/>
       <c r="JK15" s="286"/>
       <c r="JL15" s="286"/>
       <c r="JM15" s="286"/>
       <c r="JN15" s="287"/>
       <c r="JO15" s="287"/>
       <c r="JP15" s="288"/>
-      <c r="JQ15" s="285"/>
+      <c r="JQ15" s="3"/>
       <c r="JR15" s="286"/>
       <c r="JS15" s="286"/>
       <c r="JT15" s="286"/>
       <c r="JU15" s="287"/>
       <c r="JV15" s="287"/>
       <c r="JW15" s="288"/>
-      <c r="JX15" s="285"/>
+      <c r="JX15" s="3"/>
       <c r="JY15" s="286"/>
       <c r="JZ15" s="286"/>
       <c r="KA15" s="286"/>
       <c r="KB15" s="287"/>
       <c r="KC15" s="287"/>
       <c r="KD15" s="288"/>
-      <c r="KE15" s="285"/>
+      <c r="KE15" s="3"/>
       <c r="KF15" s="286"/>
       <c r="KG15" s="286"/>
       <c r="KH15" s="286"/>
@@ -18117,7 +18175,7 @@
       <c r="KJ15" s="287"/>
       <c r="KK15" s="288"/>
       <c r="KL15" s="297" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="KM15" s="298"/>
       <c r="KN15" s="298"/>
@@ -18126,7 +18184,7 @@
       <c r="KQ15" s="298"/>
       <c r="KR15" s="299"/>
       <c r="KS15" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="KT15" s="300"/>
       <c r="KU15" s="300"/>
@@ -18134,7 +18192,7 @@
       <c r="KW15" s="301"/>
       <c r="KX15" s="301"/>
       <c r="KY15" s="302"/>
-      <c r="KZ15" s="285"/>
+      <c r="KZ15" s="3"/>
       <c r="LA15" s="286"/>
       <c r="LB15" s="286"/>
       <c r="LC15" s="286"/>
@@ -18142,67 +18200,67 @@
       <c r="LE15" s="287"/>
       <c r="LF15" s="288"/>
       <c r="LG15" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="LH15" s="277"/>
+      <c r="LI15" s="277"/>
+      <c r="LJ15" s="277"/>
+      <c r="LK15" s="278"/>
+      <c r="LL15" s="278"/>
+      <c r="LM15" s="279"/>
+      <c r="LN15" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="LH15" s="276"/>
-      <c r="LI15" s="276"/>
-      <c r="LJ15" s="276"/>
-      <c r="LK15" s="277"/>
-      <c r="LL15" s="277"/>
-      <c r="LM15" s="278"/>
-      <c r="LN15" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="LO15" s="276"/>
-      <c r="LP15" s="276"/>
-      <c r="LQ15" s="276"/>
-      <c r="LR15" s="277"/>
-      <c r="LS15" s="277"/>
-      <c r="LT15" s="278"/>
+      <c r="LO15" s="277"/>
+      <c r="LP15" s="277"/>
+      <c r="LQ15" s="277"/>
+      <c r="LR15" s="278"/>
+      <c r="LS15" s="278"/>
+      <c r="LT15" s="279"/>
       <c r="LU15" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="LV15" s="276"/>
-      <c r="LW15" s="276"/>
-      <c r="LX15" s="276"/>
-      <c r="LY15" s="277"/>
-      <c r="LZ15" s="277"/>
-      <c r="MA15" s="278"/>
+        <v>330</v>
+      </c>
+      <c r="LV15" s="277"/>
+      <c r="LW15" s="277"/>
+      <c r="LX15" s="277"/>
+      <c r="LY15" s="278"/>
+      <c r="LZ15" s="278"/>
+      <c r="MA15" s="279"/>
       <c r="MB15" s="310" t="s">
+        <v>342</v>
+      </c>
+      <c r="MC15" s="277"/>
+      <c r="MD15" s="277"/>
+      <c r="ME15" s="277"/>
+      <c r="MF15" s="278"/>
+      <c r="MG15" s="278"/>
+      <c r="MH15" s="279"/>
+      <c r="MI15" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="MC15" s="276"/>
-      <c r="MD15" s="276"/>
-      <c r="ME15" s="276"/>
-      <c r="MF15" s="277"/>
-      <c r="MG15" s="277"/>
-      <c r="MH15" s="278"/>
-      <c r="MI15" s="3" t="s">
+      <c r="MJ15" s="277"/>
+      <c r="MK15" s="277"/>
+      <c r="ML15" s="277"/>
+      <c r="MM15" s="278"/>
+      <c r="MN15" s="278"/>
+      <c r="MO15" s="279"/>
+      <c r="MP15" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="MJ15" s="276"/>
-      <c r="MK15" s="276"/>
-      <c r="ML15" s="276"/>
-      <c r="MM15" s="277"/>
-      <c r="MN15" s="277"/>
-      <c r="MO15" s="278"/>
-      <c r="MP15" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="MQ15" s="276"/>
-      <c r="MR15" s="276"/>
-      <c r="MS15" s="276"/>
-      <c r="MT15" s="277"/>
-      <c r="MU15" s="277"/>
-      <c r="MV15" s="278"/>
-      <c r="MW15" s="285"/>
+      <c r="MQ15" s="277"/>
+      <c r="MR15" s="277"/>
+      <c r="MS15" s="277"/>
+      <c r="MT15" s="278"/>
+      <c r="MU15" s="278"/>
+      <c r="MV15" s="279"/>
+      <c r="MW15" s="3"/>
       <c r="MX15" s="286"/>
       <c r="MY15" s="286"/>
       <c r="MZ15" s="286"/>
       <c r="NA15" s="287"/>
       <c r="NB15" s="287"/>
       <c r="NC15" s="288"/>
-      <c r="ND15" s="285"/>
+      <c r="ND15" s="3"/>
       <c r="NE15" s="286"/>
       <c r="NF15" s="286"/>
       <c r="NG15" s="286"/>
@@ -18210,7 +18268,7 @@
       <c r="NI15" s="287"/>
       <c r="NJ15" s="288"/>
       <c r="NK15" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="NL15" s="300"/>
       <c r="NM15" s="300"/>
@@ -18219,15 +18277,15 @@
       <c r="NP15" s="301"/>
       <c r="NQ15" s="302"/>
       <c r="NR15" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="NS15" s="276"/>
-      <c r="NT15" s="276"/>
-      <c r="NU15" s="276"/>
-      <c r="NV15" s="277"/>
-      <c r="NW15" s="277"/>
-      <c r="NX15" s="278"/>
-      <c r="NY15" s="285"/>
+        <v>368</v>
+      </c>
+      <c r="NS15" s="277"/>
+      <c r="NT15" s="277"/>
+      <c r="NU15" s="277"/>
+      <c r="NV15" s="278"/>
+      <c r="NW15" s="278"/>
+      <c r="NX15" s="279"/>
+      <c r="NY15" s="3"/>
       <c r="NZ15" s="286"/>
       <c r="OA15" s="286"/>
       <c r="OB15" s="286"/>
@@ -18235,36 +18293,36 @@
       <c r="OD15" s="287"/>
       <c r="OE15" s="288"/>
       <c r="OF15" s="310" t="s">
-        <v>372</v>
-      </c>
-      <c r="OG15" s="276"/>
-      <c r="OH15" s="276"/>
-      <c r="OI15" s="276"/>
-      <c r="OJ15" s="277"/>
-      <c r="OK15" s="277"/>
-      <c r="OL15" s="278"/>
-      <c r="OM15" s="285"/>
+        <v>369</v>
+      </c>
+      <c r="OG15" s="277"/>
+      <c r="OH15" s="277"/>
+      <c r="OI15" s="277"/>
+      <c r="OJ15" s="278"/>
+      <c r="OK15" s="278"/>
+      <c r="OL15" s="279"/>
+      <c r="OM15" s="3"/>
       <c r="ON15" s="286"/>
       <c r="OO15" s="286"/>
       <c r="OP15" s="286"/>
       <c r="OQ15" s="287"/>
       <c r="OR15" s="287"/>
       <c r="OS15" s="288"/>
-      <c r="OT15" s="285"/>
+      <c r="OT15" s="3"/>
       <c r="OU15" s="286"/>
       <c r="OV15" s="286"/>
       <c r="OW15" s="286"/>
       <c r="OX15" s="287"/>
       <c r="OY15" s="287"/>
       <c r="OZ15" s="288"/>
-      <c r="PA15" s="285"/>
+      <c r="PA15" s="3"/>
       <c r="PB15" s="286"/>
       <c r="PC15" s="286"/>
       <c r="PD15" s="286"/>
       <c r="PE15" s="287"/>
       <c r="PF15" s="287"/>
       <c r="PG15" s="288"/>
-      <c r="PH15" s="285"/>
+      <c r="PH15" s="3"/>
       <c r="PI15" s="286"/>
       <c r="PJ15" s="286"/>
       <c r="PK15" s="286"/>
@@ -18272,72 +18330,72 @@
       <c r="PM15" s="287"/>
       <c r="PN15" s="288"/>
       <c r="PO15" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="PP15" s="276"/>
-      <c r="PQ15" s="276"/>
-      <c r="PR15" s="276"/>
-      <c r="PS15" s="277"/>
-      <c r="PT15" s="277"/>
-      <c r="PU15" s="278"/>
+        <v>433</v>
+      </c>
+      <c r="PP15" s="277"/>
+      <c r="PQ15" s="277"/>
+      <c r="PR15" s="277"/>
+      <c r="PS15" s="278"/>
+      <c r="PT15" s="278"/>
+      <c r="PU15" s="279"/>
       <c r="PV15" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="PW15" s="276"/>
-      <c r="PX15" s="276"/>
-      <c r="PY15" s="276"/>
-      <c r="PZ15" s="277"/>
-      <c r="QA15" s="277"/>
-      <c r="QB15" s="278"/>
+        <v>442</v>
+      </c>
+      <c r="PW15" s="277"/>
+      <c r="PX15" s="277"/>
+      <c r="PY15" s="277"/>
+      <c r="PZ15" s="278"/>
+      <c r="QA15" s="278"/>
+      <c r="QB15" s="279"/>
       <c r="QC15" s="3"/>
-      <c r="QD15" s="276"/>
-      <c r="QE15" s="276"/>
-      <c r="QF15" s="276"/>
-      <c r="QG15" s="277"/>
-      <c r="QH15" s="277"/>
-      <c r="QI15" s="278"/>
+      <c r="QD15" s="277"/>
+      <c r="QE15" s="277"/>
+      <c r="QF15" s="277"/>
+      <c r="QG15" s="278"/>
+      <c r="QH15" s="278"/>
+      <c r="QI15" s="279"/>
       <c r="QJ15" s="3"/>
-      <c r="QK15" s="276"/>
-      <c r="QL15" s="276"/>
-      <c r="QM15" s="276"/>
-      <c r="QN15" s="277"/>
-      <c r="QO15" s="277"/>
-      <c r="QP15" s="278"/>
+      <c r="QK15" s="277"/>
+      <c r="QL15" s="277"/>
+      <c r="QM15" s="277"/>
+      <c r="QN15" s="278"/>
+      <c r="QO15" s="278"/>
+      <c r="QP15" s="279"/>
       <c r="QQ15" s="3"/>
-      <c r="QR15" s="276"/>
-      <c r="QS15" s="276"/>
-      <c r="QT15" s="276"/>
-      <c r="QU15" s="277"/>
-      <c r="QV15" s="277"/>
-      <c r="QW15" s="278"/>
+      <c r="QR15" s="277"/>
+      <c r="QS15" s="277"/>
+      <c r="QT15" s="277"/>
+      <c r="QU15" s="278"/>
+      <c r="QV15" s="278"/>
+      <c r="QW15" s="279"/>
       <c r="QX15" s="3"/>
-      <c r="QY15" s="276"/>
-      <c r="QZ15" s="276"/>
-      <c r="RA15" s="276"/>
-      <c r="RB15" s="277"/>
-      <c r="RC15" s="277"/>
-      <c r="RD15" s="278"/>
-      <c r="RE15" s="279"/>
-      <c r="RF15" s="280"/>
-      <c r="RG15" s="280"/>
-      <c r="RH15" s="280"/>
-      <c r="RI15" s="280"/>
-      <c r="RJ15" s="280"/>
-      <c r="RK15" s="281"/>
-      <c r="RL15" s="279"/>
-      <c r="RM15" s="280"/>
-      <c r="RN15" s="280"/>
-      <c r="RO15" s="280"/>
-      <c r="RP15" s="280"/>
-      <c r="RQ15" s="280"/>
-      <c r="RR15" s="281"/>
+      <c r="QY15" s="277"/>
+      <c r="QZ15" s="277"/>
+      <c r="RA15" s="277"/>
+      <c r="RB15" s="278"/>
+      <c r="RC15" s="278"/>
+      <c r="RD15" s="279"/>
+      <c r="RE15" s="280"/>
+      <c r="RF15" s="281"/>
+      <c r="RG15" s="281"/>
+      <c r="RH15" s="281"/>
+      <c r="RI15" s="281"/>
+      <c r="RJ15" s="281"/>
+      <c r="RK15" s="282"/>
+      <c r="RL15" s="280"/>
+      <c r="RM15" s="281"/>
+      <c r="RN15" s="281"/>
+      <c r="RO15" s="281"/>
+      <c r="RP15" s="281"/>
+      <c r="RQ15" s="281"/>
+      <c r="RR15" s="282"/>
     </row>
     <row r="16" spans="1:497" ht="43.5" customHeight="1">
       <c r="A16" s="148" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="250" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>137</v>
@@ -18699,30 +18757,30 @@
         <v>187</v>
       </c>
       <c r="MF16" s="125" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="MG16" s="156"/>
       <c r="MH16" s="156"/>
       <c r="MI16" s="125" t="s">
+        <v>337</v>
+      </c>
+      <c r="MJ16" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="MK16" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="ML16" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="MM16" s="125" t="s">
         <v>338</v>
       </c>
-      <c r="MJ16" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="MK16" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="ML16" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="MM16" s="125" t="s">
+      <c r="MN16" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="MN16" s="125" t="s">
+      <c r="MO16" s="125" t="s">
         <v>340</v>
-      </c>
-      <c r="MO16" s="125" t="s">
-        <v>341</v>
       </c>
       <c r="MP16" s="125" t="s">
         <v>187</v>
@@ -18733,7 +18791,7 @@
         <v>187</v>
       </c>
       <c r="MT16" s="125" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="MU16" s="125" t="s">
         <v>187</v>
@@ -18747,26 +18805,26 @@
       </c>
       <c r="MY16" s="156"/>
       <c r="MZ16" s="125" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="NA16" s="125" t="s">
         <v>187</v>
       </c>
       <c r="NB16" s="156"/>
       <c r="NC16" s="125" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="ND16" s="125" t="s">
         <v>187</v>
       </c>
       <c r="NE16" s="125" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="NF16" s="156"/>
       <c r="NG16" s="156"/>
       <c r="NH16" s="156"/>
       <c r="NI16" s="125" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="NJ16" s="156"/>
       <c r="NK16" s="156"/>
@@ -18827,33 +18885,39 @@
       <c r="PN16" s="226"/>
       <c r="PO16" s="208"/>
       <c r="PP16" s="226" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="PQ16" s="226" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="PR16" s="156"/>
       <c r="PS16" s="226" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="PT16" s="156"/>
       <c r="PU16" s="226" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="PV16" s="156"/>
       <c r="PW16" s="226" t="s">
+        <v>443</v>
+      </c>
+      <c r="PX16" s="226" t="s">
+        <v>445</v>
+      </c>
+      <c r="PY16" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="PX16" s="226" t="s">
-        <v>448</v>
-      </c>
-      <c r="PY16" s="226" t="s">
-        <v>449</v>
-      </c>
       <c r="PZ16" s="156"/>
-      <c r="QA16" s="226"/>
-      <c r="QB16" s="226"/>
-      <c r="QC16" s="226"/>
+      <c r="QA16" s="226" t="s">
+        <v>474</v>
+      </c>
+      <c r="QB16" s="226" t="s">
+        <v>477</v>
+      </c>
+      <c r="QC16" s="226" t="s">
+        <v>479</v>
+      </c>
       <c r="QD16" s="226"/>
       <c r="QE16" s="226"/>
       <c r="QF16" s="226"/>
@@ -19186,16 +19250,16 @@
         <v>187</v>
       </c>
       <c r="HO17" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP17" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ17" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR17" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS17" s="156"/>
       <c r="HT17" s="126"/>
@@ -19263,23 +19327,23 @@
       <c r="IV17" s="126"/>
       <c r="IW17" s="155"/>
       <c r="IX17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IY17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IZ17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JA17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JB17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JC17" s="126"/>
       <c r="JD17" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JE17" s="190" t="s">
         <v>187</v>
@@ -19320,7 +19384,7 @@
       <c r="JW17" s="156"/>
       <c r="JX17" s="126"/>
       <c r="JY17" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JZ17" s="125" t="s">
         <v>187</v>
@@ -19335,7 +19399,7 @@
       </c>
       <c r="KE17" s="126"/>
       <c r="KF17" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KG17" s="125" t="s">
         <v>187</v>
@@ -19352,7 +19416,7 @@
       </c>
       <c r="KL17" s="126"/>
       <c r="KM17" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KN17" s="125" t="s">
         <v>187</v>
@@ -19635,15 +19699,17 @@
       <c r="PV17" s="156"/>
       <c r="PW17" s="156"/>
       <c r="PX17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY17" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ17" s="156"/>
-      <c r="QA17" s="125"/>
-      <c r="QB17" s="125"/>
-      <c r="QC17" s="125"/>
+      <c r="QA17" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QB17" s="156"/>
+      <c r="QC17" s="156"/>
       <c r="QD17" s="125"/>
       <c r="QE17" s="226"/>
       <c r="QF17" s="226"/>
@@ -20033,10 +20099,10 @@
         <v>41</v>
       </c>
       <c r="B19" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="65" t="s">
         <v>246</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>247</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="144"/>
@@ -20333,7 +20399,7 @@
       <c r="JV19" s="127"/>
       <c r="JW19" s="127"/>
       <c r="JX19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JY19" s="126"/>
       <c r="JZ19" s="127"/>
@@ -20342,7 +20408,7 @@
       <c r="KC19" s="127"/>
       <c r="KD19" s="127"/>
       <c r="KE19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KF19" s="126"/>
       <c r="KG19" s="127"/>
@@ -20351,7 +20417,7 @@
       <c r="KJ19" s="127"/>
       <c r="KK19" s="127"/>
       <c r="KL19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KM19" s="126"/>
       <c r="KN19" s="127"/>
@@ -20360,7 +20426,7 @@
       <c r="KQ19" s="127"/>
       <c r="KR19" s="127"/>
       <c r="KS19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KT19" s="126"/>
       <c r="KU19" s="127"/>
@@ -20369,7 +20435,7 @@
       <c r="KX19" s="127"/>
       <c r="KY19" s="127"/>
       <c r="KZ19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="LA19" s="126"/>
       <c r="LB19" s="127"/>
@@ -20378,7 +20444,7 @@
       <c r="LE19" s="127"/>
       <c r="LF19" s="127"/>
       <c r="LG19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="LH19" s="126"/>
       <c r="LI19" s="127"/>
@@ -20387,7 +20453,7 @@
       <c r="LL19" s="127"/>
       <c r="LM19" s="127"/>
       <c r="LN19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="LO19" s="126"/>
       <c r="LP19" s="127"/>
@@ -20396,7 +20462,7 @@
       <c r="LS19" s="127"/>
       <c r="LT19" s="127"/>
       <c r="LU19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="LV19" s="126"/>
       <c r="LW19" s="127"/>
@@ -20405,7 +20471,7 @@
       <c r="LZ19" s="127"/>
       <c r="MA19" s="127"/>
       <c r="MB19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="MC19" s="126"/>
       <c r="MD19" s="127"/>
@@ -20414,7 +20480,7 @@
       <c r="MG19" s="127"/>
       <c r="MH19" s="127"/>
       <c r="MI19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="MJ19" s="126"/>
       <c r="MK19" s="127"/>
@@ -20423,7 +20489,7 @@
       <c r="MN19" s="127"/>
       <c r="MO19" s="127"/>
       <c r="MP19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="MQ19" s="126"/>
       <c r="MR19" s="127"/>
@@ -20432,7 +20498,7 @@
       <c r="MU19" s="127"/>
       <c r="MV19" s="127"/>
       <c r="MW19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="MX19" s="126"/>
       <c r="MY19" s="127"/>
@@ -20441,7 +20507,7 @@
       <c r="NB19" s="127"/>
       <c r="NC19" s="127"/>
       <c r="ND19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="NE19" s="126"/>
       <c r="NF19" s="127"/>
@@ -20450,7 +20516,7 @@
       <c r="NI19" s="127"/>
       <c r="NJ19" s="127"/>
       <c r="NK19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="NL19" s="126"/>
       <c r="NM19" s="127"/>
@@ -20459,7 +20525,7 @@
       <c r="NP19" s="127"/>
       <c r="NQ19" s="127"/>
       <c r="NR19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="NS19" s="126"/>
       <c r="NT19" s="127"/>
@@ -20468,7 +20534,7 @@
       <c r="NW19" s="127"/>
       <c r="NX19" s="127"/>
       <c r="NY19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="NZ19" s="126"/>
       <c r="OA19" s="127"/>
@@ -20477,7 +20543,7 @@
       <c r="OD19" s="127"/>
       <c r="OE19" s="127"/>
       <c r="OF19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="OG19" s="126"/>
       <c r="OH19" s="127"/>
@@ -20486,7 +20552,7 @@
       <c r="OK19" s="127"/>
       <c r="OL19" s="127"/>
       <c r="OM19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="ON19" s="126"/>
       <c r="OO19" s="127"/>
@@ -20495,7 +20561,7 @@
       <c r="OR19" s="127"/>
       <c r="OS19" s="127"/>
       <c r="OT19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="OU19" s="126"/>
       <c r="OV19" s="127"/>
@@ -20504,7 +20570,7 @@
       <c r="OY19" s="127"/>
       <c r="OZ19" s="127"/>
       <c r="PA19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PB19" s="126"/>
       <c r="PC19" s="127"/>
@@ -20513,7 +20579,7 @@
       <c r="PF19" s="127"/>
       <c r="PG19" s="127"/>
       <c r="PH19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PI19" s="126"/>
       <c r="PJ19" s="127"/>
@@ -20522,7 +20588,7 @@
       <c r="PM19" s="127"/>
       <c r="PN19" s="127"/>
       <c r="PO19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PP19" s="126"/>
       <c r="PQ19" s="127"/>
@@ -20531,7 +20597,7 @@
       <c r="PT19" s="127"/>
       <c r="PU19" s="127"/>
       <c r="PV19" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PW19" s="126"/>
       <c r="PX19" s="127"/>
@@ -21737,23 +21803,23 @@
       </c>
       <c r="HL24" s="10"/>
       <c r="HM24" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN24" s="126"/>
       <c r="HO24" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP24" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ24" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR24" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS24" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT24" s="139" t="s">
         <v>187</v>
@@ -21786,10 +21852,10 @@
     </row>
     <row r="25" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="B25" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -22111,10 +22177,10 @@
     <row r="26" spans="1:488" s="181" customFormat="1" ht="43.5" hidden="1" customHeight="1">
       <c r="A26" s="185"/>
       <c r="B26" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C26" s="195" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="161"/>
       <c r="E26" s="161"/>
@@ -22341,7 +22407,7 @@
       <c r="HN26" s="176"/>
       <c r="HO26" s="179"/>
       <c r="HP26" s="177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ26" s="179"/>
       <c r="HR26" s="180"/>
@@ -22384,22 +22450,22 @@
       <c r="JC26" s="126"/>
       <c r="JD26" s="126"/>
       <c r="JE26" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JF26" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG26" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH26" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI26" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ26" s="187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JK26" s="126"/>
       <c r="JL26" s="156"/>
@@ -22423,7 +22489,7 @@
         <v>187</v>
       </c>
       <c r="JX26" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JY26" s="126"/>
       <c r="JZ26" s="125" t="s">
@@ -22440,7 +22506,7 @@
         <v>187</v>
       </c>
       <c r="KE26" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KF26" s="126"/>
       <c r="KG26" s="125" t="s">
@@ -22459,7 +22525,7 @@
         <v>187</v>
       </c>
       <c r="KL26" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KM26" s="126"/>
       <c r="KN26" s="156"/>
@@ -22471,10 +22537,10 @@
     <row r="27" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A27" s="130"/>
       <c r="B27" s="197" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="195" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
@@ -22738,22 +22804,22 @@
       <c r="JC27" s="126"/>
       <c r="JD27" s="126"/>
       <c r="JE27" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JF27" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG27" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH27" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI27" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ27" s="187" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JK27" s="126"/>
       <c r="JL27" s="156"/>
@@ -22777,7 +22843,7 @@
         <v>187</v>
       </c>
       <c r="JX27" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JY27" s="126"/>
       <c r="JZ27" s="125" t="s">
@@ -22794,7 +22860,7 @@
         <v>187</v>
       </c>
       <c r="KE27" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KF27" s="126"/>
       <c r="KG27" s="156"/>
@@ -22811,7 +22877,7 @@
         <v>187</v>
       </c>
       <c r="KL27" s="139" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="KM27" s="126"/>
       <c r="KN27" s="125" t="s">
@@ -22831,10 +22897,10 @@
     <row r="28" spans="1:488" ht="43.5" hidden="1" customHeight="1">
       <c r="A28" s="130"/>
       <c r="B28" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>249</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>250</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
@@ -23090,7 +23156,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>137</v>
@@ -23529,10 +23595,10 @@
         <v>113</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
@@ -23936,7 +24002,7 @@
         <v>113</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>137</v>
@@ -24350,24 +24416,30 @@
       </c>
       <c r="PT31" s="156"/>
       <c r="PU31" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PV31" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PW31" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX31" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY31" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ31" s="156"/>
-      <c r="QA31" s="189"/>
-      <c r="QB31" s="189"/>
-      <c r="QC31" s="189"/>
+      <c r="QA31" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QB31" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC31" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QD31" s="189"/>
       <c r="QE31" s="189"/>
       <c r="QF31" s="189"/>
@@ -24417,7 +24489,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C32" s="65" t="s">
         <v>137</v>
@@ -24825,24 +24897,28 @@
       </c>
       <c r="PT32" s="156"/>
       <c r="PU32" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PV32" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PW32" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX32" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY32" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ32" s="156"/>
-      <c r="QA32" s="189"/>
-      <c r="QB32" s="189"/>
-      <c r="QC32" s="189"/>
+      <c r="QA32" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QB32" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC32" s="156"/>
       <c r="QD32" s="189"/>
       <c r="QE32" s="189"/>
       <c r="QF32" s="189"/>
@@ -24892,7 +24968,7 @@
         <v>113</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C33" s="65" t="s">
         <v>137</v>
@@ -25312,24 +25388,30 @@
       </c>
       <c r="PT33" s="156"/>
       <c r="PU33" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PV33" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PW33" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PX33" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PY33" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="PZ33" s="156"/>
-      <c r="QA33" s="189"/>
-      <c r="QB33" s="189"/>
-      <c r="QC33" s="189"/>
+      <c r="QA33" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QB33" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QC33" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QD33" s="189"/>
       <c r="QE33" s="189"/>
       <c r="QF33" s="189"/>
@@ -25379,10 +25461,10 @@
         <v>113</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
@@ -25895,14 +25977,14 @@
       <c r="HF35" s="267"/>
       <c r="HG35" s="267"/>
       <c r="QC35" s="158" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="QD35"/>
     </row>
     <row r="36" spans="1:488">
       <c r="PW36" s="158"/>
       <c r="QC36" s="269" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:488">
@@ -25919,7 +26001,7 @@
         <v>151</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="65" t="s">
         <v>222</v>
@@ -26232,25 +26314,25 @@
       </c>
       <c r="HL45" s="137"/>
       <c r="HM45" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN45" s="146">
         <v>15</v>
       </c>
       <c r="HO45" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP45" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ45" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR45" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS45" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT45" s="155"/>
       <c r="HU45" s="146">
@@ -26329,17 +26411,17 @@
         <v>20</v>
       </c>
       <c r="IX45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IY45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IZ45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JA45" s="156"/>
       <c r="JB45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JC45" s="155"/>
       <c r="JD45" s="146">
@@ -26349,13 +26431,13 @@
         <v>187</v>
       </c>
       <c r="JF45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH45" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI45" s="156"/>
       <c r="JJ45" s="155"/>
@@ -26471,7 +26553,7 @@
         <v>215</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D46" s="129"/>
       <c r="E46" s="86"/>
@@ -26773,28 +26855,28 @@
         <v>187</v>
       </c>
       <c r="HM46" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="HN46" s="126"/>
       <c r="HO46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HP46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HQ46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HR46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HS46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HT46" s="155"/>
       <c r="HU46" s="126"/>
       <c r="HV46" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="HW46" s="125" t="s">
         <v>187</v>
@@ -26833,25 +26915,25 @@
       <c r="IW46" s="126"/>
       <c r="IX46" s="156"/>
       <c r="IY46" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="IZ46" s="156"/>
       <c r="JA46" s="156"/>
       <c r="JB46" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JC46" s="126"/>
       <c r="JD46" s="126"/>
       <c r="JE46" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JF46" s="127"/>
       <c r="JG46" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JH46" s="127"/>
       <c r="JI46" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JJ46" s="126"/>
       <c r="JK46" s="126"/>
@@ -26953,10 +27035,10 @@
         <v>151</v>
       </c>
       <c r="B47" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47" s="65" t="s">
         <v>276</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>277</v>
       </c>
       <c r="D47" s="186"/>
       <c r="E47" s="86"/>
@@ -27221,11 +27303,11 @@
       <c r="JD47" s="126"/>
       <c r="JE47" s="127"/>
       <c r="JF47" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JG47" s="127"/>
       <c r="JH47" s="190" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="JI47" s="127"/>
       <c r="JJ47" s="155"/>
@@ -27340,140 +27422,140 @@
       <c r="F48" s="48"/>
       <c r="G48" s="48"/>
       <c r="H48" s="48"/>
-      <c r="I48" s="285" t="s">
+      <c r="I48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="285"/>
-      <c r="K48" s="285"/>
-      <c r="L48" s="285"/>
-      <c r="M48" s="285"/>
-      <c r="N48" s="285"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
       <c r="O48" s="48"/>
-      <c r="P48" s="285" t="s">
+      <c r="P48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q48" s="285"/>
-      <c r="R48" s="285"/>
-      <c r="S48" s="285"/>
-      <c r="T48" s="285"/>
-      <c r="U48" s="285"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
       <c r="V48" s="48"/>
-      <c r="W48" s="285" t="s">
+      <c r="W48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X48" s="285"/>
-      <c r="Y48" s="285"/>
-      <c r="Z48" s="285"/>
-      <c r="AA48" s="285"/>
-      <c r="AB48" s="285"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
       <c r="AC48" s="48"/>
-      <c r="AD48" s="285" t="s">
+      <c r="AD48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AE48" s="285"/>
-      <c r="AF48" s="285"/>
-      <c r="AG48" s="285"/>
-      <c r="AH48" s="285"/>
-      <c r="AI48" s="285"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
       <c r="AJ48" s="48"/>
-      <c r="AK48" s="285" t="s">
+      <c r="AK48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AL48" s="285"/>
-      <c r="AM48" s="285"/>
-      <c r="AN48" s="285"/>
-      <c r="AO48" s="285"/>
-      <c r="AP48" s="285"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
       <c r="AQ48" s="48"/>
-      <c r="AR48" s="285" t="s">
+      <c r="AR48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AS48" s="285"/>
-      <c r="AT48" s="285"/>
-      <c r="AU48" s="285"/>
-      <c r="AV48" s="285"/>
-      <c r="AW48" s="285"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
       <c r="AX48" s="48"/>
-      <c r="AY48" s="285" t="s">
+      <c r="AY48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AZ48" s="285"/>
-      <c r="BA48" s="285"/>
-      <c r="BB48" s="285"/>
-      <c r="BC48" s="285"/>
-      <c r="BD48" s="285"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
       <c r="BE48" s="48"/>
-      <c r="BF48" s="285" t="s">
+      <c r="BF48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BG48" s="285"/>
-      <c r="BH48" s="285"/>
-      <c r="BI48" s="285"/>
-      <c r="BJ48" s="285"/>
-      <c r="BK48" s="285"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
       <c r="BL48" s="50"/>
-      <c r="BM48" s="285" t="s">
+      <c r="BM48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BN48" s="285"/>
-      <c r="BO48" s="285"/>
-      <c r="BP48" s="285"/>
-      <c r="BQ48" s="285"/>
-      <c r="BR48" s="285"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="3"/>
+      <c r="BR48" s="3"/>
       <c r="BS48" s="50"/>
-      <c r="BT48" s="285" t="s">
+      <c r="BT48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BU48" s="285"/>
-      <c r="BV48" s="285"/>
-      <c r="BW48" s="285"/>
-      <c r="BX48" s="285"/>
-      <c r="BY48" s="285"/>
+      <c r="BU48" s="3"/>
+      <c r="BV48" s="3"/>
+      <c r="BW48" s="3"/>
+      <c r="BX48" s="3"/>
+      <c r="BY48" s="3"/>
       <c r="BZ48" s="50"/>
-      <c r="CA48" s="285" t="s">
+      <c r="CA48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CB48" s="285"/>
-      <c r="CC48" s="285"/>
-      <c r="CD48" s="285"/>
-      <c r="CE48" s="285"/>
-      <c r="CF48" s="285"/>
+      <c r="CB48" s="3"/>
+      <c r="CC48" s="3"/>
+      <c r="CD48" s="3"/>
+      <c r="CE48" s="3"/>
+      <c r="CF48" s="3"/>
       <c r="CG48" s="50"/>
-      <c r="CH48" s="285" t="s">
+      <c r="CH48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CI48" s="285"/>
-      <c r="CJ48" s="285"/>
-      <c r="CK48" s="285"/>
-      <c r="CL48" s="285"/>
-      <c r="CM48" s="285"/>
+      <c r="CI48" s="3"/>
+      <c r="CJ48" s="3"/>
+      <c r="CK48" s="3"/>
+      <c r="CL48" s="3"/>
+      <c r="CM48" s="3"/>
       <c r="CN48" s="51"/>
-      <c r="CO48" s="285" t="s">
+      <c r="CO48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CP48" s="285"/>
-      <c r="CQ48" s="285"/>
-      <c r="CR48" s="285"/>
-      <c r="CS48" s="285"/>
-      <c r="CT48" s="285"/>
+      <c r="CP48" s="3"/>
+      <c r="CQ48" s="3"/>
+      <c r="CR48" s="3"/>
+      <c r="CS48" s="3"/>
+      <c r="CT48" s="3"/>
       <c r="CU48" s="51"/>
-      <c r="CV48" s="285" t="s">
+      <c r="CV48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CW48" s="285"/>
-      <c r="CX48" s="285"/>
-      <c r="CY48" s="285"/>
-      <c r="CZ48" s="285"/>
-      <c r="DA48" s="285"/>
+      <c r="CW48" s="3"/>
+      <c r="CX48" s="3"/>
+      <c r="CY48" s="3"/>
+      <c r="CZ48" s="3"/>
+      <c r="DA48" s="3"/>
       <c r="DB48" s="51"/>
-      <c r="DC48" s="285" t="s">
+      <c r="DC48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="DD48" s="285"/>
-      <c r="DE48" s="285"/>
-      <c r="DF48" s="285"/>
-      <c r="DG48" s="285"/>
-      <c r="DH48" s="285"/>
+      <c r="DD48" s="3"/>
+      <c r="DE48" s="3"/>
+      <c r="DF48" s="3"/>
+      <c r="DG48" s="3"/>
+      <c r="DH48" s="3"/>
       <c r="DI48" s="51"/>
       <c r="DJ48" s="52" t="s">
         <v>42</v>
@@ -27495,86 +27577,86 @@
       <c r="DU48" s="336"/>
       <c r="DV48" s="336"/>
       <c r="DW48" s="336"/>
-      <c r="DX48" s="285"/>
-      <c r="DY48" s="285"/>
+      <c r="DX48" s="3"/>
+      <c r="DY48" s="3"/>
       <c r="DZ48" s="74"/>
-      <c r="EA48" s="285" t="s">
+      <c r="EA48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="EB48" s="285"/>
-      <c r="EC48" s="285"/>
-      <c r="ED48" s="285"/>
-      <c r="EE48" s="285"/>
-      <c r="EF48" s="285"/>
+      <c r="EB48" s="3"/>
+      <c r="EC48" s="3"/>
+      <c r="ED48" s="3"/>
+      <c r="EE48" s="3"/>
+      <c r="EF48" s="3"/>
       <c r="EG48" s="74"/>
-      <c r="EH48" s="285" t="s">
+      <c r="EH48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="EI48" s="285"/>
-      <c r="EJ48" s="285"/>
-      <c r="EK48" s="285"/>
-      <c r="EL48" s="285"/>
-      <c r="EM48" s="285"/>
+      <c r="EI48" s="3"/>
+      <c r="EJ48" s="3"/>
+      <c r="EK48" s="3"/>
+      <c r="EL48" s="3"/>
+      <c r="EM48" s="3"/>
       <c r="EN48" s="74"/>
-      <c r="EO48" s="285" t="s">
+      <c r="EO48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="EP48" s="285"/>
-      <c r="EQ48" s="285"/>
-      <c r="ER48" s="285"/>
-      <c r="ES48" s="285"/>
-      <c r="ET48" s="285"/>
+      <c r="EP48" s="3"/>
+      <c r="EQ48" s="3"/>
+      <c r="ER48" s="3"/>
+      <c r="ES48" s="3"/>
+      <c r="ET48" s="3"/>
       <c r="EU48" s="74"/>
-      <c r="EV48" s="285" t="s">
+      <c r="EV48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="EW48" s="285"/>
-      <c r="EX48" s="285"/>
-      <c r="EY48" s="285"/>
-      <c r="EZ48" s="285"/>
-      <c r="FA48" s="285"/>
+      <c r="EW48" s="3"/>
+      <c r="EX48" s="3"/>
+      <c r="EY48" s="3"/>
+      <c r="EZ48" s="3"/>
+      <c r="FA48" s="3"/>
       <c r="FB48" s="74"/>
-      <c r="FC48" s="285" t="s">
+      <c r="FC48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FD48" s="285"/>
-      <c r="FE48" s="285"/>
-      <c r="FF48" s="285"/>
-      <c r="FG48" s="285"/>
-      <c r="FH48" s="285"/>
+      <c r="FD48" s="3"/>
+      <c r="FE48" s="3"/>
+      <c r="FF48" s="3"/>
+      <c r="FG48" s="3"/>
+      <c r="FH48" s="3"/>
       <c r="FI48" s="74"/>
-      <c r="FJ48" s="285" t="s">
+      <c r="FJ48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FK48" s="285"/>
-      <c r="FL48" s="285"/>
-      <c r="FM48" s="285"/>
-      <c r="FN48" s="285"/>
-      <c r="FO48" s="285"/>
+      <c r="FK48" s="3"/>
+      <c r="FL48" s="3"/>
+      <c r="FM48" s="3"/>
+      <c r="FN48" s="3"/>
+      <c r="FO48" s="3"/>
       <c r="FP48" s="74"/>
-      <c r="FQ48" s="285" t="s">
+      <c r="FQ48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FR48" s="285"/>
-      <c r="FS48" s="285"/>
-      <c r="FT48" s="285"/>
-      <c r="FU48" s="285"/>
-      <c r="FV48" s="285"/>
+      <c r="FR48" s="3"/>
+      <c r="FS48" s="3"/>
+      <c r="FT48" s="3"/>
+      <c r="FU48" s="3"/>
+      <c r="FV48" s="3"/>
       <c r="FW48" s="74"/>
-      <c r="FX48" s="285" t="s">
+      <c r="FX48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FY48" s="285"/>
-      <c r="FZ48" s="285"/>
-      <c r="GA48" s="285"/>
-      <c r="GB48" s="285"/>
-      <c r="GC48" s="285"/>
+      <c r="FY48" s="3"/>
+      <c r="FZ48" s="3"/>
+      <c r="GA48" s="3"/>
+      <c r="GB48" s="3"/>
+      <c r="GC48" s="3"/>
       <c r="GD48" s="74"/>
-      <c r="GE48" s="285" t="s">
+      <c r="GE48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="GF48" s="285"/>
-      <c r="GG48" s="285"/>
+      <c r="GF48" s="3"/>
+      <c r="GG48" s="3"/>
       <c r="GH48" s="322"/>
       <c r="GI48" s="322"/>
       <c r="GJ48" s="322"/>
@@ -27728,7 +27810,7 @@
       <c r="DU49" s="320"/>
       <c r="DV49" s="320"/>
       <c r="DW49" s="320"/>
-      <c r="DX49" s="285" t="s">
+      <c r="DX49" s="3" t="s">
         <v>136</v>
       </c>
       <c r="DY49" s="320"/>
@@ -27761,7 +27843,7 @@
       <c r="EZ49" s="320"/>
       <c r="FA49" s="320"/>
       <c r="FB49" s="320"/>
-      <c r="FC49" s="285"/>
+      <c r="FC49" s="3"/>
       <c r="FD49" s="320"/>
       <c r="FE49" s="320"/>
       <c r="FF49" s="320"/>
@@ -27801,204 +27883,204 @@
       <c r="C50" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="285"/>
-      <c r="E50" s="285"/>
-      <c r="F50" s="285"/>
-      <c r="G50" s="285"/>
-      <c r="H50" s="285"/>
-      <c r="I50" s="285"/>
-      <c r="J50" s="285" t="s">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="285"/>
-      <c r="L50" s="285"/>
-      <c r="M50" s="285"/>
-      <c r="N50" s="285"/>
-      <c r="O50" s="285"/>
-      <c r="P50" s="285"/>
-      <c r="Q50" s="285"/>
-      <c r="R50" s="285"/>
-      <c r="S50" s="285"/>
-      <c r="T50" s="285"/>
-      <c r="U50" s="285"/>
-      <c r="V50" s="285"/>
-      <c r="W50" s="285"/>
-      <c r="X50" s="285"/>
-      <c r="Y50" s="285"/>
-      <c r="Z50" s="285"/>
-      <c r="AA50" s="285"/>
-      <c r="AB50" s="285"/>
-      <c r="AC50" s="285"/>
-      <c r="AD50" s="285"/>
-      <c r="AE50" s="285"/>
-      <c r="AF50" s="285"/>
-      <c r="AG50" s="285"/>
-      <c r="AH50" s="285"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
       <c r="AI50" s="344"/>
       <c r="AJ50" s="344"/>
       <c r="AK50" s="344"/>
       <c r="AL50" s="344"/>
       <c r="AM50" s="344"/>
       <c r="AN50" s="344"/>
-      <c r="AO50" s="285" t="s">
+      <c r="AO50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AP50" s="285"/>
-      <c r="AQ50" s="285"/>
-      <c r="AR50" s="285"/>
-      <c r="AS50" s="285"/>
-      <c r="AT50" s="285"/>
-      <c r="AU50" s="285"/>
-      <c r="AV50" s="285"/>
-      <c r="AW50" s="285"/>
-      <c r="AX50" s="285"/>
-      <c r="AY50" s="285"/>
-      <c r="AZ50" s="285"/>
-      <c r="BA50" s="285"/>
-      <c r="BB50" s="285"/>
-      <c r="BC50" s="285"/>
-      <c r="BD50" s="285"/>
-      <c r="BE50" s="285"/>
-      <c r="BF50" s="285"/>
-      <c r="BG50" s="285"/>
-      <c r="BH50" s="285"/>
-      <c r="BI50" s="285"/>
-      <c r="BJ50" s="285"/>
-      <c r="BK50" s="285"/>
-      <c r="BL50" s="285"/>
-      <c r="BM50" s="285"/>
-      <c r="BN50" s="285"/>
-      <c r="BO50" s="285"/>
-      <c r="BP50" s="285"/>
-      <c r="BQ50" s="285"/>
-      <c r="BR50" s="285"/>
-      <c r="BS50" s="285"/>
-      <c r="BT50" s="285" t="s">
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="3"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3"/>
+      <c r="BQ50" s="3"/>
+      <c r="BR50" s="3"/>
+      <c r="BS50" s="3"/>
+      <c r="BT50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BU50" s="285"/>
-      <c r="BV50" s="285"/>
-      <c r="BW50" s="285"/>
-      <c r="BX50" s="285"/>
-      <c r="BY50" s="285"/>
-      <c r="BZ50" s="285"/>
-      <c r="CA50" s="285"/>
-      <c r="CB50" s="285"/>
-      <c r="CC50" s="285"/>
-      <c r="CD50" s="285"/>
-      <c r="CE50" s="285"/>
-      <c r="CF50" s="285"/>
-      <c r="CG50" s="285"/>
-      <c r="CH50" s="285"/>
-      <c r="CI50" s="285"/>
-      <c r="CJ50" s="285"/>
-      <c r="CK50" s="285"/>
-      <c r="CL50" s="285"/>
-      <c r="CM50" s="285"/>
-      <c r="CN50" s="285"/>
-      <c r="CO50" s="285"/>
-      <c r="CP50" s="285"/>
-      <c r="CQ50" s="285"/>
-      <c r="CR50" s="285"/>
-      <c r="CS50" s="285"/>
-      <c r="CT50" s="285"/>
-      <c r="CU50" s="285"/>
-      <c r="CV50" s="285"/>
-      <c r="CW50" s="285"/>
-      <c r="CX50" s="285"/>
-      <c r="CY50" s="285" t="s">
+      <c r="BU50" s="3"/>
+      <c r="BV50" s="3"/>
+      <c r="BW50" s="3"/>
+      <c r="BX50" s="3"/>
+      <c r="BY50" s="3"/>
+      <c r="BZ50" s="3"/>
+      <c r="CA50" s="3"/>
+      <c r="CB50" s="3"/>
+      <c r="CC50" s="3"/>
+      <c r="CD50" s="3"/>
+      <c r="CE50" s="3"/>
+      <c r="CF50" s="3"/>
+      <c r="CG50" s="3"/>
+      <c r="CH50" s="3"/>
+      <c r="CI50" s="3"/>
+      <c r="CJ50" s="3"/>
+      <c r="CK50" s="3"/>
+      <c r="CL50" s="3"/>
+      <c r="CM50" s="3"/>
+      <c r="CN50" s="3"/>
+      <c r="CO50" s="3"/>
+      <c r="CP50" s="3"/>
+      <c r="CQ50" s="3"/>
+      <c r="CR50" s="3"/>
+      <c r="CS50" s="3"/>
+      <c r="CT50" s="3"/>
+      <c r="CU50" s="3"/>
+      <c r="CV50" s="3"/>
+      <c r="CW50" s="3"/>
+      <c r="CX50" s="3"/>
+      <c r="CY50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CZ50" s="285"/>
-      <c r="DA50" s="285"/>
-      <c r="DB50" s="285"/>
-      <c r="DC50" s="285"/>
-      <c r="DD50" s="285"/>
-      <c r="DE50" s="285"/>
-      <c r="DF50" s="285"/>
-      <c r="DG50" s="285"/>
-      <c r="DH50" s="285"/>
-      <c r="DI50" s="285"/>
-      <c r="DJ50" s="285"/>
-      <c r="DK50" s="285"/>
-      <c r="DL50" s="285"/>
-      <c r="DM50" s="285"/>
-      <c r="DN50" s="285"/>
-      <c r="DO50" s="285"/>
-      <c r="DP50" s="285"/>
-      <c r="DQ50" s="285"/>
-      <c r="DR50" s="285"/>
-      <c r="DS50" s="285"/>
-      <c r="DT50" s="285"/>
-      <c r="DU50" s="285"/>
-      <c r="DV50" s="285"/>
-      <c r="DW50" s="285"/>
-      <c r="DX50" s="285"/>
-      <c r="DY50" s="285"/>
-      <c r="DZ50" s="285"/>
-      <c r="EA50" s="285"/>
-      <c r="EB50" s="285"/>
-      <c r="EC50" s="285"/>
-      <c r="ED50" s="285" t="s">
+      <c r="CZ50" s="3"/>
+      <c r="DA50" s="3"/>
+      <c r="DB50" s="3"/>
+      <c r="DC50" s="3"/>
+      <c r="DD50" s="3"/>
+      <c r="DE50" s="3"/>
+      <c r="DF50" s="3"/>
+      <c r="DG50" s="3"/>
+      <c r="DH50" s="3"/>
+      <c r="DI50" s="3"/>
+      <c r="DJ50" s="3"/>
+      <c r="DK50" s="3"/>
+      <c r="DL50" s="3"/>
+      <c r="DM50" s="3"/>
+      <c r="DN50" s="3"/>
+      <c r="DO50" s="3"/>
+      <c r="DP50" s="3"/>
+      <c r="DQ50" s="3"/>
+      <c r="DR50" s="3"/>
+      <c r="DS50" s="3"/>
+      <c r="DT50" s="3"/>
+      <c r="DU50" s="3"/>
+      <c r="DV50" s="3"/>
+      <c r="DW50" s="3"/>
+      <c r="DX50" s="3"/>
+      <c r="DY50" s="3"/>
+      <c r="DZ50" s="3"/>
+      <c r="EA50" s="3"/>
+      <c r="EB50" s="3"/>
+      <c r="EC50" s="3"/>
+      <c r="ED50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="EE50" s="285"/>
-      <c r="EF50" s="285"/>
-      <c r="EG50" s="285"/>
-      <c r="EH50" s="285"/>
-      <c r="EI50" s="285"/>
-      <c r="EJ50" s="285"/>
-      <c r="EK50" s="285"/>
-      <c r="EL50" s="285"/>
-      <c r="EM50" s="285"/>
-      <c r="EN50" s="285"/>
-      <c r="EO50" s="285"/>
-      <c r="EP50" s="285"/>
-      <c r="EQ50" s="285"/>
-      <c r="ER50" s="285"/>
-      <c r="ES50" s="285"/>
-      <c r="ET50" s="285"/>
-      <c r="EU50" s="285"/>
-      <c r="EV50" s="285"/>
-      <c r="EW50" s="285"/>
-      <c r="EX50" s="285"/>
-      <c r="EY50" s="285"/>
-      <c r="EZ50" s="285"/>
-      <c r="FA50" s="285"/>
-      <c r="FB50" s="285"/>
-      <c r="FC50" s="285"/>
-      <c r="FD50" s="285"/>
-      <c r="FE50" s="285"/>
-      <c r="FF50" s="285"/>
-      <c r="FG50" s="285"/>
-      <c r="FH50" s="285"/>
-      <c r="FI50" s="285" t="s">
+      <c r="EE50" s="3"/>
+      <c r="EF50" s="3"/>
+      <c r="EG50" s="3"/>
+      <c r="EH50" s="3"/>
+      <c r="EI50" s="3"/>
+      <c r="EJ50" s="3"/>
+      <c r="EK50" s="3"/>
+      <c r="EL50" s="3"/>
+      <c r="EM50" s="3"/>
+      <c r="EN50" s="3"/>
+      <c r="EO50" s="3"/>
+      <c r="EP50" s="3"/>
+      <c r="EQ50" s="3"/>
+      <c r="ER50" s="3"/>
+      <c r="ES50" s="3"/>
+      <c r="ET50" s="3"/>
+      <c r="EU50" s="3"/>
+      <c r="EV50" s="3"/>
+      <c r="EW50" s="3"/>
+      <c r="EX50" s="3"/>
+      <c r="EY50" s="3"/>
+      <c r="EZ50" s="3"/>
+      <c r="FA50" s="3"/>
+      <c r="FB50" s="3"/>
+      <c r="FC50" s="3"/>
+      <c r="FD50" s="3"/>
+      <c r="FE50" s="3"/>
+      <c r="FF50" s="3"/>
+      <c r="FG50" s="3"/>
+      <c r="FH50" s="3"/>
+      <c r="FI50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FJ50" s="285"/>
-      <c r="FK50" s="285"/>
-      <c r="FL50" s="285"/>
-      <c r="FM50" s="285"/>
-      <c r="FN50" s="285"/>
-      <c r="FO50" s="285"/>
-      <c r="FP50" s="285"/>
-      <c r="FQ50" s="285"/>
-      <c r="FR50" s="285"/>
-      <c r="FS50" s="285"/>
-      <c r="FT50" s="285"/>
-      <c r="FU50" s="285"/>
-      <c r="FV50" s="285"/>
-      <c r="FW50" s="285"/>
-      <c r="FX50" s="285"/>
-      <c r="FY50" s="285"/>
-      <c r="FZ50" s="285"/>
-      <c r="GA50" s="285"/>
-      <c r="GB50" s="285"/>
-      <c r="GC50" s="285"/>
-      <c r="GD50" s="285"/>
-      <c r="GE50" s="285"/>
-      <c r="GF50" s="285"/>
-      <c r="GG50" s="285"/>
+      <c r="FJ50" s="3"/>
+      <c r="FK50" s="3"/>
+      <c r="FL50" s="3"/>
+      <c r="FM50" s="3"/>
+      <c r="FN50" s="3"/>
+      <c r="FO50" s="3"/>
+      <c r="FP50" s="3"/>
+      <c r="FQ50" s="3"/>
+      <c r="FR50" s="3"/>
+      <c r="FS50" s="3"/>
+      <c r="FT50" s="3"/>
+      <c r="FU50" s="3"/>
+      <c r="FV50" s="3"/>
+      <c r="FW50" s="3"/>
+      <c r="FX50" s="3"/>
+      <c r="FY50" s="3"/>
+      <c r="FZ50" s="3"/>
+      <c r="GA50" s="3"/>
+      <c r="GB50" s="3"/>
+      <c r="GC50" s="3"/>
+      <c r="GD50" s="3"/>
+      <c r="GE50" s="3"/>
+      <c r="GF50" s="3"/>
+      <c r="GG50" s="3"/>
     </row>
     <row r="51" spans="1:189" ht="43.5" customHeight="1">
       <c r="A51" s="24"/>
@@ -28008,201 +28090,201 @@
       <c r="C51" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="285" t="s">
+      <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="285"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="285"/>
-      <c r="H51" s="285"/>
-      <c r="I51" s="285"/>
-      <c r="J51" s="285"/>
-      <c r="K51" s="285"/>
-      <c r="L51" s="285"/>
-      <c r="M51" s="285"/>
-      <c r="N51" s="285"/>
-      <c r="O51" s="285"/>
-      <c r="P51" s="285"/>
-      <c r="Q51" s="285"/>
-      <c r="R51" s="285"/>
-      <c r="S51" s="285"/>
-      <c r="T51" s="285"/>
-      <c r="U51" s="285"/>
-      <c r="V51" s="285"/>
-      <c r="W51" s="285"/>
-      <c r="X51" s="285"/>
-      <c r="Y51" s="285"/>
-      <c r="Z51" s="285"/>
-      <c r="AA51" s="285"/>
-      <c r="AB51" s="285"/>
-      <c r="AC51" s="285"/>
-      <c r="AD51" s="285"/>
-      <c r="AE51" s="285"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
       <c r="AF51" s="344"/>
       <c r="AG51" s="344"/>
       <c r="AH51" s="344"/>
-      <c r="AI51" s="285" t="s">
+      <c r="AI51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ51" s="285"/>
-      <c r="AK51" s="285"/>
-      <c r="AL51" s="285"/>
-      <c r="AM51" s="285"/>
-      <c r="AN51" s="285"/>
-      <c r="AO51" s="285"/>
-      <c r="AP51" s="285"/>
-      <c r="AQ51" s="285"/>
-      <c r="AR51" s="285"/>
-      <c r="AS51" s="285"/>
-      <c r="AT51" s="285"/>
-      <c r="AU51" s="285"/>
-      <c r="AV51" s="285"/>
-      <c r="AW51" s="285"/>
-      <c r="AX51" s="285"/>
-      <c r="AY51" s="285"/>
-      <c r="AZ51" s="285"/>
-      <c r="BA51" s="285"/>
-      <c r="BB51" s="285"/>
-      <c r="BC51" s="285"/>
-      <c r="BD51" s="285"/>
-      <c r="BE51" s="285"/>
-      <c r="BF51" s="285"/>
-      <c r="BG51" s="285"/>
-      <c r="BH51" s="285"/>
-      <c r="BI51" s="285"/>
-      <c r="BJ51" s="285"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="3"/>
+      <c r="BA51" s="3"/>
+      <c r="BB51" s="3"/>
+      <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
+      <c r="BE51" s="3"/>
+      <c r="BF51" s="3"/>
+      <c r="BG51" s="3"/>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="3"/>
       <c r="BK51" s="321"/>
       <c r="BL51" s="321"/>
       <c r="BM51" s="321"/>
-      <c r="BN51" s="285" t="s">
+      <c r="BN51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BO51" s="285"/>
-      <c r="BP51" s="285"/>
-      <c r="BQ51" s="285"/>
-      <c r="BR51" s="285"/>
-      <c r="BS51" s="285"/>
-      <c r="BT51" s="285"/>
-      <c r="BU51" s="285"/>
-      <c r="BV51" s="285"/>
-      <c r="BW51" s="285"/>
-      <c r="BX51" s="285"/>
-      <c r="BY51" s="285"/>
-      <c r="BZ51" s="285"/>
-      <c r="CA51" s="285"/>
-      <c r="CB51" s="285"/>
-      <c r="CC51" s="285"/>
-      <c r="CD51" s="285"/>
-      <c r="CE51" s="285"/>
-      <c r="CF51" s="285"/>
-      <c r="CG51" s="285"/>
-      <c r="CH51" s="285"/>
-      <c r="CI51" s="285"/>
-      <c r="CJ51" s="285"/>
-      <c r="CK51" s="285"/>
-      <c r="CL51" s="285"/>
-      <c r="CM51" s="285"/>
-      <c r="CN51" s="285"/>
-      <c r="CO51" s="285"/>
+      <c r="BO51" s="3"/>
+      <c r="BP51" s="3"/>
+      <c r="BQ51" s="3"/>
+      <c r="BR51" s="3"/>
+      <c r="BS51" s="3"/>
+      <c r="BT51" s="3"/>
+      <c r="BU51" s="3"/>
+      <c r="BV51" s="3"/>
+      <c r="BW51" s="3"/>
+      <c r="BX51" s="3"/>
+      <c r="BY51" s="3"/>
+      <c r="BZ51" s="3"/>
+      <c r="CA51" s="3"/>
+      <c r="CB51" s="3"/>
+      <c r="CC51" s="3"/>
+      <c r="CD51" s="3"/>
+      <c r="CE51" s="3"/>
+      <c r="CF51" s="3"/>
+      <c r="CG51" s="3"/>
+      <c r="CH51" s="3"/>
+      <c r="CI51" s="3"/>
+      <c r="CJ51" s="3"/>
+      <c r="CK51" s="3"/>
+      <c r="CL51" s="3"/>
+      <c r="CM51" s="3"/>
+      <c r="CN51" s="3"/>
+      <c r="CO51" s="3"/>
       <c r="CP51" s="321"/>
       <c r="CQ51" s="321"/>
       <c r="CR51" s="321"/>
-      <c r="CS51" s="285" t="s">
+      <c r="CS51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CT51" s="285"/>
-      <c r="CU51" s="285"/>
-      <c r="CV51" s="285"/>
-      <c r="CW51" s="285"/>
-      <c r="CX51" s="285"/>
-      <c r="CY51" s="285"/>
-      <c r="CZ51" s="285"/>
-      <c r="DA51" s="285"/>
-      <c r="DB51" s="285"/>
-      <c r="DC51" s="285"/>
-      <c r="DD51" s="285"/>
-      <c r="DE51" s="285"/>
-      <c r="DF51" s="285"/>
-      <c r="DG51" s="285"/>
-      <c r="DH51" s="285"/>
-      <c r="DI51" s="285"/>
-      <c r="DJ51" s="285"/>
-      <c r="DK51" s="285"/>
-      <c r="DL51" s="285"/>
-      <c r="DM51" s="285"/>
-      <c r="DN51" s="285"/>
-      <c r="DO51" s="285"/>
-      <c r="DP51" s="285"/>
-      <c r="DQ51" s="285"/>
-      <c r="DR51" s="285"/>
-      <c r="DS51" s="285"/>
-      <c r="DT51" s="285"/>
+      <c r="CT51" s="3"/>
+      <c r="CU51" s="3"/>
+      <c r="CV51" s="3"/>
+      <c r="CW51" s="3"/>
+      <c r="CX51" s="3"/>
+      <c r="CY51" s="3"/>
+      <c r="CZ51" s="3"/>
+      <c r="DA51" s="3"/>
+      <c r="DB51" s="3"/>
+      <c r="DC51" s="3"/>
+      <c r="DD51" s="3"/>
+      <c r="DE51" s="3"/>
+      <c r="DF51" s="3"/>
+      <c r="DG51" s="3"/>
+      <c r="DH51" s="3"/>
+      <c r="DI51" s="3"/>
+      <c r="DJ51" s="3"/>
+      <c r="DK51" s="3"/>
+      <c r="DL51" s="3"/>
+      <c r="DM51" s="3"/>
+      <c r="DN51" s="3"/>
+      <c r="DO51" s="3"/>
+      <c r="DP51" s="3"/>
+      <c r="DQ51" s="3"/>
+      <c r="DR51" s="3"/>
+      <c r="DS51" s="3"/>
+      <c r="DT51" s="3"/>
       <c r="DU51" s="321"/>
       <c r="DV51" s="321"/>
       <c r="DW51" s="321"/>
-      <c r="DX51" s="285" t="s">
+      <c r="DX51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="DY51" s="285"/>
-      <c r="DZ51" s="285"/>
-      <c r="EA51" s="285"/>
-      <c r="EB51" s="285"/>
-      <c r="EC51" s="285"/>
-      <c r="ED51" s="285"/>
-      <c r="EE51" s="285"/>
-      <c r="EF51" s="285"/>
-      <c r="EG51" s="285"/>
-      <c r="EH51" s="285"/>
-      <c r="EI51" s="285"/>
-      <c r="EJ51" s="285"/>
-      <c r="EK51" s="285"/>
-      <c r="EL51" s="285"/>
-      <c r="EM51" s="285"/>
-      <c r="EN51" s="285"/>
-      <c r="EO51" s="285"/>
-      <c r="EP51" s="285"/>
-      <c r="EQ51" s="285"/>
-      <c r="ER51" s="285"/>
-      <c r="ES51" s="285"/>
-      <c r="ET51" s="285"/>
-      <c r="EU51" s="285"/>
-      <c r="EV51" s="285"/>
-      <c r="EW51" s="285"/>
-      <c r="EX51" s="285"/>
-      <c r="EY51" s="285"/>
+      <c r="DY51" s="3"/>
+      <c r="DZ51" s="3"/>
+      <c r="EA51" s="3"/>
+      <c r="EB51" s="3"/>
+      <c r="EC51" s="3"/>
+      <c r="ED51" s="3"/>
+      <c r="EE51" s="3"/>
+      <c r="EF51" s="3"/>
+      <c r="EG51" s="3"/>
+      <c r="EH51" s="3"/>
+      <c r="EI51" s="3"/>
+      <c r="EJ51" s="3"/>
+      <c r="EK51" s="3"/>
+      <c r="EL51" s="3"/>
+      <c r="EM51" s="3"/>
+      <c r="EN51" s="3"/>
+      <c r="EO51" s="3"/>
+      <c r="EP51" s="3"/>
+      <c r="EQ51" s="3"/>
+      <c r="ER51" s="3"/>
+      <c r="ES51" s="3"/>
+      <c r="ET51" s="3"/>
+      <c r="EU51" s="3"/>
+      <c r="EV51" s="3"/>
+      <c r="EW51" s="3"/>
+      <c r="EX51" s="3"/>
+      <c r="EY51" s="3"/>
       <c r="EZ51" s="321"/>
       <c r="FA51" s="321"/>
       <c r="FB51" s="321"/>
-      <c r="FC51" s="285" t="s">
+      <c r="FC51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FD51" s="285"/>
-      <c r="FE51" s="285"/>
-      <c r="FF51" s="285"/>
-      <c r="FG51" s="285"/>
-      <c r="FH51" s="285"/>
-      <c r="FI51" s="285"/>
-      <c r="FJ51" s="285"/>
-      <c r="FK51" s="285"/>
-      <c r="FL51" s="285"/>
-      <c r="FM51" s="285"/>
-      <c r="FN51" s="285"/>
-      <c r="FO51" s="285"/>
-      <c r="FP51" s="285"/>
-      <c r="FQ51" s="285"/>
-      <c r="FR51" s="285"/>
-      <c r="FS51" s="285"/>
-      <c r="FT51" s="285"/>
-      <c r="FU51" s="285"/>
-      <c r="FV51" s="285"/>
-      <c r="FW51" s="285"/>
-      <c r="FX51" s="285"/>
-      <c r="FY51" s="285"/>
-      <c r="FZ51" s="285"/>
-      <c r="GA51" s="285"/>
-      <c r="GB51" s="285"/>
-      <c r="GC51" s="285"/>
-      <c r="GD51" s="285"/>
+      <c r="FD51" s="3"/>
+      <c r="FE51" s="3"/>
+      <c r="FF51" s="3"/>
+      <c r="FG51" s="3"/>
+      <c r="FH51" s="3"/>
+      <c r="FI51" s="3"/>
+      <c r="FJ51" s="3"/>
+      <c r="FK51" s="3"/>
+      <c r="FL51" s="3"/>
+      <c r="FM51" s="3"/>
+      <c r="FN51" s="3"/>
+      <c r="FO51" s="3"/>
+      <c r="FP51" s="3"/>
+      <c r="FQ51" s="3"/>
+      <c r="FR51" s="3"/>
+      <c r="FS51" s="3"/>
+      <c r="FT51" s="3"/>
+      <c r="FU51" s="3"/>
+      <c r="FV51" s="3"/>
+      <c r="FW51" s="3"/>
+      <c r="FX51" s="3"/>
+      <c r="FY51" s="3"/>
+      <c r="FZ51" s="3"/>
+      <c r="GA51" s="3"/>
+      <c r="GB51" s="3"/>
+      <c r="GC51" s="3"/>
+      <c r="GD51" s="3"/>
       <c r="GE51" s="321"/>
       <c r="GF51" s="321"/>
       <c r="GG51" s="321"/>
@@ -28215,216 +28297,216 @@
       <c r="C52" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="285" t="s">
+      <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="285"/>
-      <c r="F52" s="285"/>
-      <c r="G52" s="285"/>
-      <c r="H52" s="285"/>
-      <c r="I52" s="285"/>
-      <c r="J52" s="285"/>
-      <c r="K52" s="285"/>
-      <c r="L52" s="285"/>
-      <c r="M52" s="285"/>
-      <c r="N52" s="285"/>
-      <c r="O52" s="285"/>
-      <c r="P52" s="285"/>
-      <c r="Q52" s="285"/>
-      <c r="R52" s="285"/>
-      <c r="S52" s="285"/>
-      <c r="T52" s="285"/>
-      <c r="U52" s="285"/>
-      <c r="V52" s="285"/>
-      <c r="W52" s="285"/>
-      <c r="X52" s="285"/>
-      <c r="Y52" s="285"/>
-      <c r="Z52" s="285"/>
-      <c r="AA52" s="285"/>
-      <c r="AB52" s="285"/>
-      <c r="AC52" s="285"/>
-      <c r="AD52" s="285"/>
-      <c r="AE52" s="285"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
       <c r="AF52" s="51"/>
-      <c r="AG52" s="285" t="s">
+      <c r="AG52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AH52" s="285"/>
-      <c r="AI52" s="285" t="s">
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AJ52" s="285"/>
-      <c r="AK52" s="285"/>
-      <c r="AL52" s="285"/>
-      <c r="AM52" s="285"/>
-      <c r="AN52" s="285"/>
-      <c r="AO52" s="285"/>
-      <c r="AP52" s="285"/>
-      <c r="AQ52" s="285"/>
-      <c r="AR52" s="285"/>
-      <c r="AS52" s="285"/>
-      <c r="AT52" s="285"/>
-      <c r="AU52" s="285"/>
-      <c r="AV52" s="285"/>
-      <c r="AW52" s="285"/>
-      <c r="AX52" s="285"/>
-      <c r="AY52" s="285"/>
-      <c r="AZ52" s="285"/>
-      <c r="BA52" s="285"/>
-      <c r="BB52" s="285"/>
-      <c r="BC52" s="285"/>
-      <c r="BD52" s="285"/>
-      <c r="BE52" s="285"/>
-      <c r="BF52" s="285"/>
-      <c r="BG52" s="285"/>
-      <c r="BH52" s="285"/>
-      <c r="BI52" s="285"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
       <c r="BJ52" s="51"/>
-      <c r="BK52" s="285" t="s">
+      <c r="BK52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BL52" s="285"/>
-      <c r="BM52" s="285"/>
-      <c r="BN52" s="285" t="s">
+      <c r="BL52" s="3"/>
+      <c r="BM52" s="3"/>
+      <c r="BN52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BO52" s="285"/>
-      <c r="BP52" s="285"/>
-      <c r="BQ52" s="285"/>
-      <c r="BR52" s="285"/>
-      <c r="BS52" s="285"/>
-      <c r="BT52" s="285"/>
-      <c r="BU52" s="285"/>
-      <c r="BV52" s="285"/>
-      <c r="BW52" s="285"/>
-      <c r="BX52" s="285"/>
-      <c r="BY52" s="285"/>
-      <c r="BZ52" s="285"/>
-      <c r="CA52" s="285"/>
-      <c r="CB52" s="285"/>
-      <c r="CC52" s="285"/>
-      <c r="CD52" s="285"/>
-      <c r="CE52" s="285"/>
-      <c r="CF52" s="285"/>
-      <c r="CG52" s="285"/>
-      <c r="CH52" s="285"/>
-      <c r="CI52" s="285"/>
-      <c r="CJ52" s="285"/>
-      <c r="CK52" s="285"/>
-      <c r="CL52" s="285"/>
-      <c r="CM52" s="285"/>
-      <c r="CN52" s="285"/>
+      <c r="BO52" s="3"/>
+      <c r="BP52" s="3"/>
+      <c r="BQ52" s="3"/>
+      <c r="BR52" s="3"/>
+      <c r="BS52" s="3"/>
+      <c r="BT52" s="3"/>
+      <c r="BU52" s="3"/>
+      <c r="BV52" s="3"/>
+      <c r="BW52" s="3"/>
+      <c r="BX52" s="3"/>
+      <c r="BY52" s="3"/>
+      <c r="BZ52" s="3"/>
+      <c r="CA52" s="3"/>
+      <c r="CB52" s="3"/>
+      <c r="CC52" s="3"/>
+      <c r="CD52" s="3"/>
+      <c r="CE52" s="3"/>
+      <c r="CF52" s="3"/>
+      <c r="CG52" s="3"/>
+      <c r="CH52" s="3"/>
+      <c r="CI52" s="3"/>
+      <c r="CJ52" s="3"/>
+      <c r="CK52" s="3"/>
+      <c r="CL52" s="3"/>
+      <c r="CM52" s="3"/>
+      <c r="CN52" s="3"/>
       <c r="CO52" s="50"/>
-      <c r="CP52" s="285" t="s">
+      <c r="CP52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CQ52" s="285"/>
-      <c r="CR52" s="285"/>
-      <c r="CS52" s="285" t="s">
+      <c r="CQ52" s="3"/>
+      <c r="CR52" s="3"/>
+      <c r="CS52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CT52" s="285"/>
-      <c r="CU52" s="285"/>
-      <c r="CV52" s="285"/>
-      <c r="CW52" s="285"/>
-      <c r="CX52" s="285"/>
-      <c r="CY52" s="285"/>
-      <c r="CZ52" s="285"/>
-      <c r="DA52" s="285"/>
-      <c r="DB52" s="285"/>
-      <c r="DC52" s="285"/>
-      <c r="DD52" s="285"/>
-      <c r="DE52" s="285"/>
-      <c r="DF52" s="285"/>
-      <c r="DG52" s="285"/>
-      <c r="DH52" s="285"/>
-      <c r="DI52" s="285"/>
-      <c r="DJ52" s="285"/>
-      <c r="DK52" s="285"/>
-      <c r="DL52" s="285"/>
-      <c r="DM52" s="285"/>
-      <c r="DN52" s="285"/>
-      <c r="DO52" s="285"/>
-      <c r="DP52" s="285"/>
-      <c r="DQ52" s="285"/>
-      <c r="DR52" s="285"/>
-      <c r="DS52" s="285"/>
+      <c r="CT52" s="3"/>
+      <c r="CU52" s="3"/>
+      <c r="CV52" s="3"/>
+      <c r="CW52" s="3"/>
+      <c r="CX52" s="3"/>
+      <c r="CY52" s="3"/>
+      <c r="CZ52" s="3"/>
+      <c r="DA52" s="3"/>
+      <c r="DB52" s="3"/>
+      <c r="DC52" s="3"/>
+      <c r="DD52" s="3"/>
+      <c r="DE52" s="3"/>
+      <c r="DF52" s="3"/>
+      <c r="DG52" s="3"/>
+      <c r="DH52" s="3"/>
+      <c r="DI52" s="3"/>
+      <c r="DJ52" s="3"/>
+      <c r="DK52" s="3"/>
+      <c r="DL52" s="3"/>
+      <c r="DM52" s="3"/>
+      <c r="DN52" s="3"/>
+      <c r="DO52" s="3"/>
+      <c r="DP52" s="3"/>
+      <c r="DQ52" s="3"/>
+      <c r="DR52" s="3"/>
+      <c r="DS52" s="3"/>
       <c r="DT52" s="50"/>
-      <c r="DU52" s="285" t="s">
+      <c r="DU52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="DV52" s="285"/>
-      <c r="DW52" s="285"/>
-      <c r="DX52" s="285" t="s">
+      <c r="DV52" s="3"/>
+      <c r="DW52" s="3"/>
+      <c r="DX52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="DY52" s="285"/>
-      <c r="DZ52" s="285"/>
-      <c r="EA52" s="285"/>
-      <c r="EB52" s="285"/>
-      <c r="EC52" s="285"/>
-      <c r="ED52" s="285"/>
-      <c r="EE52" s="285"/>
-      <c r="EF52" s="285"/>
-      <c r="EG52" s="285"/>
-      <c r="EH52" s="285"/>
-      <c r="EI52" s="285"/>
-      <c r="EJ52" s="285"/>
-      <c r="EK52" s="285"/>
-      <c r="EL52" s="285"/>
-      <c r="EM52" s="285"/>
-      <c r="EN52" s="285"/>
-      <c r="EO52" s="285"/>
-      <c r="EP52" s="285"/>
-      <c r="EQ52" s="285"/>
-      <c r="ER52" s="285"/>
-      <c r="ES52" s="285"/>
-      <c r="ET52" s="285"/>
-      <c r="EU52" s="285"/>
-      <c r="EV52" s="285"/>
-      <c r="EW52" s="285"/>
-      <c r="EX52" s="285"/>
+      <c r="DY52" s="3"/>
+      <c r="DZ52" s="3"/>
+      <c r="EA52" s="3"/>
+      <c r="EB52" s="3"/>
+      <c r="EC52" s="3"/>
+      <c r="ED52" s="3"/>
+      <c r="EE52" s="3"/>
+      <c r="EF52" s="3"/>
+      <c r="EG52" s="3"/>
+      <c r="EH52" s="3"/>
+      <c r="EI52" s="3"/>
+      <c r="EJ52" s="3"/>
+      <c r="EK52" s="3"/>
+      <c r="EL52" s="3"/>
+      <c r="EM52" s="3"/>
+      <c r="EN52" s="3"/>
+      <c r="EO52" s="3"/>
+      <c r="EP52" s="3"/>
+      <c r="EQ52" s="3"/>
+      <c r="ER52" s="3"/>
+      <c r="ES52" s="3"/>
+      <c r="ET52" s="3"/>
+      <c r="EU52" s="3"/>
+      <c r="EV52" s="3"/>
+      <c r="EW52" s="3"/>
+      <c r="EX52" s="3"/>
       <c r="EY52" s="50"/>
-      <c r="EZ52" s="285" t="s">
+      <c r="EZ52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FA52" s="285"/>
-      <c r="FB52" s="285"/>
-      <c r="FC52" s="285" t="s">
+      <c r="FA52" s="3"/>
+      <c r="FB52" s="3"/>
+      <c r="FC52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="FD52" s="285"/>
-      <c r="FE52" s="285"/>
-      <c r="FF52" s="285"/>
-      <c r="FG52" s="285"/>
-      <c r="FH52" s="285"/>
-      <c r="FI52" s="285"/>
-      <c r="FJ52" s="285"/>
-      <c r="FK52" s="285"/>
-      <c r="FL52" s="285"/>
-      <c r="FM52" s="285"/>
-      <c r="FN52" s="285"/>
-      <c r="FO52" s="285"/>
-      <c r="FP52" s="285"/>
-      <c r="FQ52" s="285"/>
-      <c r="FR52" s="285"/>
-      <c r="FS52" s="285"/>
-      <c r="FT52" s="285"/>
-      <c r="FU52" s="285"/>
-      <c r="FV52" s="285"/>
-      <c r="FW52" s="285"/>
-      <c r="FX52" s="285"/>
-      <c r="FY52" s="285"/>
-      <c r="FZ52" s="285"/>
-      <c r="GA52" s="285"/>
-      <c r="GB52" s="285"/>
-      <c r="GC52" s="285"/>
+      <c r="FD52" s="3"/>
+      <c r="FE52" s="3"/>
+      <c r="FF52" s="3"/>
+      <c r="FG52" s="3"/>
+      <c r="FH52" s="3"/>
+      <c r="FI52" s="3"/>
+      <c r="FJ52" s="3"/>
+      <c r="FK52" s="3"/>
+      <c r="FL52" s="3"/>
+      <c r="FM52" s="3"/>
+      <c r="FN52" s="3"/>
+      <c r="FO52" s="3"/>
+      <c r="FP52" s="3"/>
+      <c r="FQ52" s="3"/>
+      <c r="FR52" s="3"/>
+      <c r="FS52" s="3"/>
+      <c r="FT52" s="3"/>
+      <c r="FU52" s="3"/>
+      <c r="FV52" s="3"/>
+      <c r="FW52" s="3"/>
+      <c r="FX52" s="3"/>
+      <c r="FY52" s="3"/>
+      <c r="FZ52" s="3"/>
+      <c r="GA52" s="3"/>
+      <c r="GB52" s="3"/>
+      <c r="GC52" s="3"/>
       <c r="GD52" s="53"/>
-      <c r="GE52" s="285" t="s">
+      <c r="GE52" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="GF52" s="285"/>
-      <c r="GG52" s="285"/>
+      <c r="GF52" s="3"/>
+      <c r="GG52" s="3"/>
     </row>
     <row r="53" spans="1:189" ht="43.5" customHeight="1">
       <c r="A53" s="20" t="s">
@@ -28561,7 +28643,7 @@
     </row>
     <row r="56" spans="1:189" ht="17">
       <c r="A56" s="194" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>34</v>
@@ -28672,34 +28754,34 @@
       <c r="C60" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="285"/>
-      <c r="E60" s="285"/>
-      <c r="F60" s="285"/>
-      <c r="G60" s="285"/>
-      <c r="H60" s="285"/>
-      <c r="I60" s="285"/>
-      <c r="J60" s="285"/>
-      <c r="K60" s="285"/>
-      <c r="L60" s="285"/>
-      <c r="M60" s="285"/>
-      <c r="N60" s="285"/>
-      <c r="O60" s="285"/>
-      <c r="P60" s="285"/>
-      <c r="Q60" s="285"/>
-      <c r="R60" s="285"/>
-      <c r="S60" s="285"/>
-      <c r="T60" s="285"/>
-      <c r="U60" s="285"/>
-      <c r="V60" s="285"/>
-      <c r="W60" s="285"/>
-      <c r="X60" s="285"/>
-      <c r="Y60" s="285"/>
-      <c r="Z60" s="285"/>
-      <c r="AA60" s="285"/>
-      <c r="AB60" s="285"/>
-      <c r="AC60" s="285"/>
-      <c r="AD60" s="285"/>
-      <c r="AE60" s="285"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
       <c r="AF60" s="48"/>
       <c r="AG60" s="48"/>
       <c r="AH60" s="48"/>
@@ -29239,7 +29321,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B4" s="113" t="s">
@@ -29286,14 +29368,14 @@
         <v>80</v>
       </c>
       <c r="P4" s="198" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R4" s="100" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
-      <c r="A5" s="285"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="113" t="s">
         <v>190</v>
       </c>
@@ -29340,7 +29422,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
-      <c r="A6" s="285"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="113" t="s">
         <v>191</v>
       </c>
@@ -29381,7 +29463,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
-      <c r="A7" s="285"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="113" t="s">
         <v>190</v>
       </c>
@@ -29424,7 +29506,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
-      <c r="A8" s="285"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="113" t="s">
         <v>191</v>
       </c>
@@ -29468,7 +29550,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
-      <c r="A9" s="285" t="s">
+      <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="113" t="s">
@@ -29520,7 +29602,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
-      <c r="A10" s="285"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="113" t="s">
         <v>192</v>
       </c>
@@ -29558,7 +29640,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="113" t="s">
@@ -29610,7 +29692,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1">
-      <c r="A12" s="285"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="113" t="s">
         <v>193</v>
       </c>
@@ -29659,7 +29741,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1">
-      <c r="A13" s="285"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="113" t="s">
         <v>194</v>
       </c>
@@ -29708,7 +29790,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
-      <c r="A14" s="285"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="113" t="s">
         <v>195</v>
       </c>
@@ -29716,7 +29798,7 @@
       <c r="D14" s="113"/>
       <c r="E14" s="113"/>
       <c r="F14" s="113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G14" s="123" t="s">
         <v>174</v>
@@ -29752,7 +29834,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
-      <c r="A15" s="285"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="113" t="s">
         <v>195</v>
       </c>
@@ -29788,7 +29870,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
-      <c r="A16" s="285"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="113" t="s">
         <v>196</v>
       </c>
@@ -29822,7 +29904,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="20" customHeight="1">
-      <c r="A17" s="285" t="s">
+      <c r="A17" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B17" s="113"/>
@@ -29861,7 +29943,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="20" customHeight="1">
-      <c r="A18" s="285"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="113" t="s">
         <v>199</v>
       </c>
@@ -29903,7 +29985,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="20" customHeight="1">
-      <c r="A19" s="285"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="113" t="s">
         <v>197</v>
       </c>
@@ -29941,7 +30023,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="20" customHeight="1">
-      <c r="A20" s="285"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="113" t="s">
         <v>198</v>
       </c>
@@ -29995,7 +30077,7 @@
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1">
       <c r="M22" s="100" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -30202,7 +30284,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="199" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -30919,7 +31001,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>57</v>
@@ -31870,7 +31952,7 @@
       <c r="O27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="142" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="S27" s="159">
         <v>250000</v>
@@ -31897,7 +31979,7 @@
       <c r="O28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="254" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="S28" s="159">
         <v>250000</v>
@@ -31924,7 +32006,7 @@
       <c r="O29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="199" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="S29" s="159">
         <v>50000</v>
@@ -31978,7 +32060,7 @@
       <c r="O31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="199" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S31" s="159">
         <v>130000</v>
@@ -32032,7 +32114,7 @@
       <c r="O33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="142" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="S33" s="159">
         <v>3000000</v>
@@ -32059,7 +32141,7 @@
       <c r="O34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="142" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="S34" s="159">
         <v>500000</v>
@@ -32140,7 +32222,7 @@
       <c r="O37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="256" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="S37" s="159">
         <v>50000</v>
@@ -32167,7 +32249,7 @@
       <c r="O38" s="21"/>
       <c r="Q38" s="21"/>
       <c r="R38" s="255" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="S38" s="159">
         <f>SUM(S39:S50)</f>
@@ -32195,7 +32277,7 @@
       <c r="O39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="256" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="S39" s="159">
         <v>4800000</v>
@@ -32238,7 +32320,7 @@
       <c r="O41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="142" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S41" s="159">
         <f>(130000*15+80*1300*45)*4/12</f>
@@ -32249,7 +32331,7 @@
       <c r="C42" s="3"/>
       <c r="P42"/>
       <c r="R42" s="142" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S42" s="159"/>
     </row>
@@ -32325,7 +32407,7 @@
         <v>0.02</v>
       </c>
       <c r="M1" s="158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -32349,7 +32431,7 @@
         <v>70</v>
       </c>
       <c r="M2" s="158" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -32382,7 +32464,7 @@
         <v>650</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -32408,7 +32490,7 @@
         <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -32418,7 +32500,7 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -32442,7 +32524,7 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -32472,7 +32554,7 @@
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -32512,7 +32594,7 @@
         <v>159</v>
       </c>
       <c r="N9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -32554,7 +32636,7 @@
         <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -32595,7 +32677,7 @@
         <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -32636,7 +32718,7 @@
         <v>250</v>
       </c>
       <c r="N12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17">
@@ -32674,7 +32756,7 @@
         <v>30</v>
       </c>
       <c r="N13" s="158" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -32712,7 +32794,7 @@
         <v>10</v>
       </c>
       <c r="N14" s="158" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
@@ -32750,7 +32832,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="158" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -32821,7 +32903,7 @@
         <v>195000</v>
       </c>
       <c r="N17" s="158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -32907,22 +32989,22 @@
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="142" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L21" s="142" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M21" s="199" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="142" t="s">
+        <v>298</v>
+      </c>
+      <c r="O21" s="142" t="s">
         <v>300</v>
       </c>
-      <c r="N21" s="142" t="s">
-        <v>299</v>
-      </c>
-      <c r="O21" s="142" t="s">
-        <v>301</v>
-      </c>
       <c r="P21" s="199" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="142"/>
     </row>
@@ -33149,7 +33231,7 @@
         <v>-2.2664496383866806E-2</v>
       </c>
       <c r="I29" s="203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J29" s="159">
         <f t="shared" si="6"/>
@@ -33215,7 +33297,7 @@
         <v>-1.9605947417659086E-2</v>
       </c>
       <c r="I31" s="203" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J31" s="159">
         <f t="shared" si="6"/>
@@ -33248,7 +33330,7 @@
         <v>-2.0164677927955732E-2</v>
       </c>
       <c r="I32" s="203" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J32" s="159">
         <f t="shared" si="6"/>
@@ -33282,7 +33364,7 @@
         <v>0.12467129592494386</v>
       </c>
       <c r="I33" s="203" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J33" s="159">
         <f t="shared" si="6"/>
@@ -33314,7 +33396,7 @@
         <v>-1.7527103181126824E-2</v>
       </c>
       <c r="I34" s="203" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J34" s="159">
         <f t="shared" si="6"/>
@@ -33346,7 +33428,7 @@
         <v>-1.798844775415831E-2</v>
       </c>
       <c r="I35" s="203" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J35" s="159">
         <f t="shared" si="6"/>
@@ -33380,7 +33462,7 @@
         <v>0.11554910295353471</v>
       </c>
       <c r="I36" s="203" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J36" s="159">
         <f t="shared" si="6"/>
@@ -33413,7 +33495,7 @@
         <v>-1.5694244058001572E-2</v>
       </c>
       <c r="I37" s="203" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J37" s="159">
         <f t="shared" si="6"/>
@@ -33445,7 +33527,7 @@
         <v>-1.6077351300264331E-2</v>
       </c>
       <c r="I38" s="203" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J38" s="159">
         <f t="shared" si="6"/>
@@ -33479,7 +33561,7 @@
         <v>0.10757155969536103</v>
       </c>
       <c r="I39" s="203" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J39" s="159">
         <f t="shared" si="6"/>
@@ -33512,7 +33594,7 @@
         <v>-1.4066624821362228E-2</v>
       </c>
       <c r="I40" s="203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J40" s="159">
         <f t="shared" si="6"/>
@@ -33545,7 +33627,7 @@
         <v>-1.4386212143699506E-2</v>
       </c>
       <c r="I41" s="203" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J41" s="159">
         <f t="shared" si="6"/>
@@ -33580,7 +33662,7 @@
         <v>0.10053799100740091</v>
       </c>
       <c r="I42" s="203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J42" s="159">
         <f t="shared" si="6"/>
@@ -33613,7 +33695,7 @@
         <v>-1.2612026669565402E-2</v>
       </c>
       <c r="I43" s="203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J43" s="159">
         <f t="shared" si="6"/>
@@ -33943,7 +34025,7 @@
         <v>-9.210381140692725E-3</v>
       </c>
       <c r="I53" s="203" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J53" s="159">
         <f t="shared" si="7"/>
@@ -34062,16 +34144,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" customHeight="1">
       <c r="A1" s="239" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="239" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="239" t="s">
+      <c r="C1" s="239" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="239" t="s">
-        <v>336</v>
-      </c>
       <c r="D1" s="239" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" customHeight="1">
@@ -34082,10 +34164,10 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="241" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D2" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" customHeight="1">
@@ -34096,10 +34178,10 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" s="243" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D3" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" customHeight="1">
@@ -34110,7 +34192,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C4" s="242" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D4" s="237"/>
     </row>
@@ -34122,7 +34204,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C5" s="242" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D5" s="238"/>
     </row>
@@ -34134,10 +34216,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C6" s="243" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D6" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" customHeight="1">
@@ -34148,10 +34230,10 @@
         <v>0.80555555555555547</v>
       </c>
       <c r="C7" s="243" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D7" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" customHeight="1">
@@ -34162,10 +34244,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C8" s="243" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D8" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" customHeight="1">
@@ -34176,10 +34258,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C9" s="243" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D9" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" customHeight="1">
@@ -34190,19 +34272,19 @@
         <v>0.9375</v>
       </c>
       <c r="C10" s="243" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D10" s="236" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" customHeight="1">
-      <c r="A11" s="285" t="s">
-        <v>349</v>
+      <c r="A11" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="B11" s="349"/>
       <c r="C11" s="243" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D11" s="236"/>
     </row>

--- a/계획표(일과,자산).xlsx
+++ b/계획표(일과,자산).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scorpiusj/Desktop/Continue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFF6AB2-F14B-0C44-A8AA-A31D4F04513A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395784D1-9819-714F-A500-C0938D463DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="마음가짐" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="479">
   <si>
     <t>에어비엔비 호스팅 가이드</t>
   </si>
@@ -2863,14 +2863,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>활성화완료</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>원통형1회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>자본주의</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2966,10 +2958,6 @@
   </si>
   <si>
     <t>주1회</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>주5회</t>
     <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
@@ -3099,17 +3087,56 @@
 45</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸 
+M15 
+48</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -4160,7 +4187,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -4990,6 +5017,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5438,10 +5468,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5479,25 +5509,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5509,31 +5520,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:noFill/>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
@@ -5542,17 +5533,6 @@
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
-            <a:scene3d>
-              <a:camera prst="orthographicFront">
-                <a:rot lat="0" lon="0" rev="0"/>
-              </a:camera>
-              <a:lightRig rig="threePt" dir="t">
-                <a:rot lat="0" lon="0" rev="1200000"/>
-              </a:lightRig>
-            </a:scene3d>
-            <a:sp3d>
-              <a:bevelT w="63500" h="25400"/>
-            </a:sp3d>
           </c:spPr>
           <c:cat>
             <c:strRef>
@@ -5602,7 +5582,7 @@
             <c:numRef>
               <c:f>'2. 인물정보'!$B$2:$M$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -5646,6 +5626,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AEB4-554A-A3DD-B8EF77533272}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2. 인물정보'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>체력-달리기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>체력-근육</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>체력-뱃살</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>경제</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>독서</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>영어</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>부동산</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>경매</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>업무-건축</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>업무-CAD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>업무-절차</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>업무-공정</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2. 인물정보'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-065C-694F-B4A1-D8B63AE7DE58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5746,7 +5839,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5845,503 +5938,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
-  <a:schemeClr val="accent3"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="321">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6413,7 +6009,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s19496"/>
+                  <a14:cameraTool cellRange="$A$3:$P$22" spid="_x0000_s19521"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6780,8 +6376,8 @@
   </sheetPr>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A38"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -6975,8 +6571,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17"/>
@@ -7034,7 +6630,7 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="B3" s="210" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C3" s="247"/>
       <c r="D3" s="246"/>
@@ -7051,7 +6647,7 @@
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="B4" s="210" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C4" s="247"/>
       <c r="D4" s="246"/>
@@ -7088,11 +6684,12 @@
       <c r="C6" s="247"/>
       <c r="D6" s="246"/>
       <c r="E6" s="247"/>
-      <c r="F6" s="246" t="s">
+      <c r="F6" s="253" t="s">
         <v>408</v>
       </c>
-      <c r="H6" s="210" t="s">
-        <v>444</v>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="144">
@@ -7283,7 +6880,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7294,40 +6891,40 @@
   <sheetData>
     <row r="1" spans="1:14" s="21" customFormat="1" ht="17">
       <c r="B1" s="142" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="199" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="F1" s="142" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="142" t="s">
-        <v>458</v>
-      </c>
-      <c r="E1" s="199" t="s">
+      <c r="G1" s="142" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="H1" s="142" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="I1" s="142" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="J1" s="142" t="s">
         <v>452</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="K1" s="142" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="142" t="s">
+      <c r="L1" s="142" t="s">
         <v>454</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="M1" s="142" t="s">
         <v>455</v>
-      </c>
-      <c r="L1" s="142" t="s">
-        <v>456</v>
-      </c>
-      <c r="M1" s="142" t="s">
-        <v>457</v>
       </c>
       <c r="N1" s="199"/>
     </row>
@@ -7335,72 +6932,327 @@
       <c r="A2" s="271">
         <v>44780</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="277">
         <v>40</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="277">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="277">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="277">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="277">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="277">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="277">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="277">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="277">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="277">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="277">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="277">
         <v>10</v>
       </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="271">
+        <v>44787</v>
+      </c>
+      <c r="B3" s="277">
+        <v>40.5</v>
+      </c>
+      <c r="C3" s="277">
+        <v>21</v>
+      </c>
+      <c r="D3" s="277">
+        <v>10</v>
+      </c>
+      <c r="E3" s="277">
+        <v>31</v>
+      </c>
+      <c r="F3" s="277">
+        <v>20</v>
+      </c>
+      <c r="G3" s="277">
+        <v>21</v>
+      </c>
+      <c r="H3" s="277">
+        <v>10</v>
+      </c>
+      <c r="I3" s="277">
+        <v>1</v>
+      </c>
+      <c r="J3" s="277">
+        <v>0</v>
+      </c>
+      <c r="K3" s="277">
+        <v>5.5</v>
+      </c>
+      <c r="L3" s="277">
+        <v>10</v>
+      </c>
+      <c r="M3" s="277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="277"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277">
+        <v>10</v>
+      </c>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277">
+        <v>20</v>
+      </c>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277">
+        <v>10</v>
+      </c>
+      <c r="I4" s="277">
+        <v>1</v>
+      </c>
+      <c r="J4" s="277">
+        <v>0</v>
+      </c>
+      <c r="K4" s="277"/>
+      <c r="L4" s="277">
+        <v>10</v>
+      </c>
+      <c r="M4" s="277"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="277"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277">
+        <v>10</v>
+      </c>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277">
+        <v>20</v>
+      </c>
+      <c r="G5" s="277"/>
+      <c r="H5" s="277">
+        <v>10</v>
+      </c>
+      <c r="I5" s="277">
+        <v>1</v>
+      </c>
+      <c r="J5" s="277">
+        <v>0</v>
+      </c>
+      <c r="K5" s="277"/>
+      <c r="L5" s="277">
+        <v>10</v>
+      </c>
+      <c r="M5" s="277"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="277"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277">
+        <v>10</v>
+      </c>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277">
+        <v>20</v>
+      </c>
+      <c r="G6" s="277"/>
+      <c r="H6" s="277">
+        <v>10</v>
+      </c>
+      <c r="I6" s="277">
+        <v>1</v>
+      </c>
+      <c r="J6" s="277">
+        <v>0</v>
+      </c>
+      <c r="K6" s="277"/>
+      <c r="L6" s="277">
+        <v>10</v>
+      </c>
+      <c r="M6" s="277"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="277"/>
+      <c r="C7" s="277"/>
+      <c r="D7" s="277">
+        <v>10</v>
+      </c>
+      <c r="E7" s="277"/>
+      <c r="F7" s="277">
+        <v>20</v>
+      </c>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277">
+        <v>10</v>
+      </c>
+      <c r="I7" s="277">
+        <v>1</v>
+      </c>
+      <c r="J7" s="277">
+        <v>0</v>
+      </c>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277">
+        <v>10</v>
+      </c>
+      <c r="M7" s="277"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="277"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277">
+        <v>10</v>
+      </c>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277">
+        <v>20</v>
+      </c>
+      <c r="G8" s="277"/>
+      <c r="H8" s="277">
+        <v>10</v>
+      </c>
+      <c r="I8" s="277">
+        <v>1</v>
+      </c>
+      <c r="J8" s="277">
+        <v>0</v>
+      </c>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277">
+        <v>10</v>
+      </c>
+      <c r="M8" s="277"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="277"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="277"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
+      <c r="F11" s="277"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="277"/>
+      <c r="I11" s="277"/>
+      <c r="J11" s="277"/>
+      <c r="K11" s="277"/>
+      <c r="L11" s="277"/>
+      <c r="M11" s="277"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
+      <c r="F12" s="277"/>
+      <c r="G12" s="277"/>
+      <c r="H12" s="277"/>
+      <c r="I12" s="277"/>
+      <c r="J12" s="277"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="277"/>
+      <c r="M12" s="277"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="277"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
+      <c r="G13" s="277"/>
+      <c r="H13" s="277"/>
+      <c r="I13" s="277"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="277"/>
+      <c r="L13" s="277"/>
+      <c r="M13" s="277"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="277"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="277"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="277"/>
+      <c r="L14" s="277"/>
+      <c r="M14" s="277"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="272"/>
-      <c r="B15" s="272"/>
-      <c r="C15" s="272"/>
-      <c r="D15" s="272"/>
-      <c r="E15" s="272"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="272"/>
-      <c r="I15" s="272"/>
-      <c r="J15" s="272"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="272"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="277"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="277"/>
+      <c r="K15" s="277"/>
+      <c r="L15" s="277"/>
+      <c r="M15" s="277"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="272"/>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="272"/>
-      <c r="I16" s="272"/>
-      <c r="J16" s="272"/>
-      <c r="K16" s="272"/>
-      <c r="L16" s="272"/>
-      <c r="M16" s="272"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="272"/>
@@ -7465,175 +7317,175 @@
     <row r="21" spans="1:13" ht="17">
       <c r="A21" s="272"/>
       <c r="B21" s="203" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D21" s="202"/>
       <c r="E21" s="273" t="s">
+        <v>463</v>
+      </c>
+      <c r="F21" s="274" t="s">
         <v>466</v>
       </c>
-      <c r="F21" s="274" t="s">
-        <v>469</v>
-      </c>
       <c r="G21" s="273" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H21" s="202"/>
       <c r="I21" s="202"/>
       <c r="J21" s="202"/>
-      <c r="K21" s="203" t="s">
-        <v>465</v>
+      <c r="K21" s="274" t="s">
+        <v>477</v>
       </c>
       <c r="L21" s="202"/>
       <c r="M21" s="203" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="272"/>
       <c r="B22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D22" s="202"/>
       <c r="E22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H22" s="202"/>
       <c r="I22" s="202"/>
       <c r="J22" s="202"/>
       <c r="K22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L22" s="202"/>
       <c r="M22" s="275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="272"/>
       <c r="B23" s="273" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C23" s="273" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D23" s="202"/>
       <c r="E23" s="203" t="s">
+        <v>464</v>
+      </c>
+      <c r="F23" s="203" t="s">
         <v>467</v>
       </c>
-      <c r="F23" s="203" t="s">
-        <v>470</v>
-      </c>
       <c r="G23" s="273" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H23" s="202"/>
       <c r="I23" s="202"/>
       <c r="J23" s="202"/>
       <c r="K23" s="203" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L23" s="202"/>
       <c r="M23" s="203" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="272"/>
       <c r="B24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D24" s="202"/>
       <c r="E24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H24" s="202"/>
       <c r="I24" s="202"/>
       <c r="J24" s="202"/>
       <c r="K24" s="275" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L24" s="202"/>
       <c r="M24" s="203" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17">
       <c r="A25" s="272"/>
       <c r="B25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D25" s="202"/>
       <c r="E25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H25" s="202"/>
       <c r="I25" s="202"/>
       <c r="J25" s="202"/>
       <c r="K25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L25" s="202"/>
       <c r="M25" s="273" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="272"/>
       <c r="B26" s="275" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C26" s="275" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D26" s="202"/>
       <c r="E26" s="275" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F26" s="203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G26" s="203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H26" s="202"/>
       <c r="I26" s="202"/>
       <c r="J26" s="202"/>
       <c r="K26" s="203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L26" s="202"/>
       <c r="M26" s="203" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7772,8 +7624,8 @@
   <dimension ref="A1:SC61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="65" zoomScaleNormal="70" zoomScaleSheetLayoutView="58" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="PE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="QD9" sqref="QD9"/>
+      <pane xSplit="3" topLeftCell="PF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="QF12" sqref="QF12:QF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="15"/>
@@ -7817,781 +7669,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:497" ht="21" customHeight="1">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="324" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="324" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="327" t="s">
+      <c r="D1" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="327"/>
-      <c r="S1" s="327"/>
-      <c r="T1" s="327"/>
-      <c r="U1" s="327"/>
-      <c r="V1" s="327"/>
-      <c r="W1" s="327"/>
-      <c r="X1" s="327"/>
-      <c r="Y1" s="327"/>
-      <c r="Z1" s="327"/>
-      <c r="AA1" s="327"/>
-      <c r="AB1" s="327"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="327"/>
-      <c r="AH1" s="327"/>
-      <c r="AI1" s="327" t="s">
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="328"/>
+      <c r="L1" s="328"/>
+      <c r="M1" s="328"/>
+      <c r="N1" s="328"/>
+      <c r="O1" s="328"/>
+      <c r="P1" s="328"/>
+      <c r="Q1" s="328"/>
+      <c r="R1" s="328"/>
+      <c r="S1" s="328"/>
+      <c r="T1" s="328"/>
+      <c r="U1" s="328"/>
+      <c r="V1" s="328"/>
+      <c r="W1" s="328"/>
+      <c r="X1" s="328"/>
+      <c r="Y1" s="328"/>
+      <c r="Z1" s="328"/>
+      <c r="AA1" s="328"/>
+      <c r="AB1" s="328"/>
+      <c r="AC1" s="328"/>
+      <c r="AD1" s="328"/>
+      <c r="AE1" s="328"/>
+      <c r="AF1" s="328"/>
+      <c r="AG1" s="328"/>
+      <c r="AH1" s="328"/>
+      <c r="AI1" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="327"/>
-      <c r="AK1" s="327"/>
-      <c r="AL1" s="327"/>
-      <c r="AM1" s="327"/>
-      <c r="AN1" s="327"/>
-      <c r="AO1" s="327"/>
-      <c r="AP1" s="327"/>
-      <c r="AQ1" s="327"/>
-      <c r="AR1" s="327"/>
-      <c r="AS1" s="327"/>
-      <c r="AT1" s="327"/>
-      <c r="AU1" s="327"/>
-      <c r="AV1" s="327"/>
-      <c r="AW1" s="327"/>
-      <c r="AX1" s="327"/>
-      <c r="AY1" s="327"/>
-      <c r="AZ1" s="327"/>
-      <c r="BA1" s="327"/>
-      <c r="BB1" s="327"/>
-      <c r="BC1" s="327"/>
-      <c r="BD1" s="327"/>
-      <c r="BE1" s="327"/>
-      <c r="BF1" s="327"/>
-      <c r="BG1" s="327"/>
-      <c r="BH1" s="327"/>
-      <c r="BI1" s="327"/>
-      <c r="BJ1" s="327"/>
-      <c r="BK1" s="327"/>
-      <c r="BL1" s="327"/>
-      <c r="BM1" s="327"/>
-      <c r="BN1" s="327" t="s">
+      <c r="AJ1" s="328"/>
+      <c r="AK1" s="328"/>
+      <c r="AL1" s="328"/>
+      <c r="AM1" s="328"/>
+      <c r="AN1" s="328"/>
+      <c r="AO1" s="328"/>
+      <c r="AP1" s="328"/>
+      <c r="AQ1" s="328"/>
+      <c r="AR1" s="328"/>
+      <c r="AS1" s="328"/>
+      <c r="AT1" s="328"/>
+      <c r="AU1" s="328"/>
+      <c r="AV1" s="328"/>
+      <c r="AW1" s="328"/>
+      <c r="AX1" s="328"/>
+      <c r="AY1" s="328"/>
+      <c r="AZ1" s="328"/>
+      <c r="BA1" s="328"/>
+      <c r="BB1" s="328"/>
+      <c r="BC1" s="328"/>
+      <c r="BD1" s="328"/>
+      <c r="BE1" s="328"/>
+      <c r="BF1" s="328"/>
+      <c r="BG1" s="328"/>
+      <c r="BH1" s="328"/>
+      <c r="BI1" s="328"/>
+      <c r="BJ1" s="328"/>
+      <c r="BK1" s="328"/>
+      <c r="BL1" s="328"/>
+      <c r="BM1" s="328"/>
+      <c r="BN1" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="327"/>
-      <c r="BP1" s="327"/>
-      <c r="BQ1" s="327"/>
-      <c r="BR1" s="327"/>
-      <c r="BS1" s="327"/>
-      <c r="BT1" s="327"/>
-      <c r="BU1" s="327"/>
-      <c r="BV1" s="327"/>
-      <c r="BW1" s="327"/>
-      <c r="BX1" s="327"/>
-      <c r="BY1" s="327"/>
-      <c r="BZ1" s="327"/>
-      <c r="CA1" s="327"/>
-      <c r="CB1" s="327"/>
-      <c r="CC1" s="327"/>
-      <c r="CD1" s="327"/>
-      <c r="CE1" s="327"/>
-      <c r="CF1" s="327"/>
-      <c r="CG1" s="327"/>
-      <c r="CH1" s="327"/>
-      <c r="CI1" s="327"/>
-      <c r="CJ1" s="327"/>
-      <c r="CK1" s="327"/>
-      <c r="CL1" s="327"/>
-      <c r="CM1" s="327"/>
-      <c r="CN1" s="327"/>
-      <c r="CO1" s="327"/>
-      <c r="CP1" s="327"/>
-      <c r="CQ1" s="327"/>
-      <c r="CR1" s="327"/>
-      <c r="CS1" s="327" t="s">
+      <c r="BO1" s="328"/>
+      <c r="BP1" s="328"/>
+      <c r="BQ1" s="328"/>
+      <c r="BR1" s="328"/>
+      <c r="BS1" s="328"/>
+      <c r="BT1" s="328"/>
+      <c r="BU1" s="328"/>
+      <c r="BV1" s="328"/>
+      <c r="BW1" s="328"/>
+      <c r="BX1" s="328"/>
+      <c r="BY1" s="328"/>
+      <c r="BZ1" s="328"/>
+      <c r="CA1" s="328"/>
+      <c r="CB1" s="328"/>
+      <c r="CC1" s="328"/>
+      <c r="CD1" s="328"/>
+      <c r="CE1" s="328"/>
+      <c r="CF1" s="328"/>
+      <c r="CG1" s="328"/>
+      <c r="CH1" s="328"/>
+      <c r="CI1" s="328"/>
+      <c r="CJ1" s="328"/>
+      <c r="CK1" s="328"/>
+      <c r="CL1" s="328"/>
+      <c r="CM1" s="328"/>
+      <c r="CN1" s="328"/>
+      <c r="CO1" s="328"/>
+      <c r="CP1" s="328"/>
+      <c r="CQ1" s="328"/>
+      <c r="CR1" s="328"/>
+      <c r="CS1" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="327"/>
-      <c r="CU1" s="327"/>
-      <c r="CV1" s="327"/>
-      <c r="CW1" s="327"/>
-      <c r="CX1" s="327"/>
-      <c r="CY1" s="327"/>
-      <c r="CZ1" s="327"/>
-      <c r="DA1" s="327"/>
-      <c r="DB1" s="327"/>
-      <c r="DC1" s="327"/>
-      <c r="DD1" s="327"/>
-      <c r="DE1" s="327"/>
-      <c r="DF1" s="327"/>
-      <c r="DG1" s="327"/>
-      <c r="DH1" s="327"/>
-      <c r="DI1" s="327"/>
-      <c r="DJ1" s="327"/>
-      <c r="DK1" s="327"/>
-      <c r="DL1" s="327"/>
-      <c r="DM1" s="327"/>
-      <c r="DN1" s="327"/>
-      <c r="DO1" s="327"/>
-      <c r="DP1" s="327"/>
-      <c r="DQ1" s="327"/>
-      <c r="DR1" s="327"/>
-      <c r="DS1" s="327"/>
-      <c r="DT1" s="327"/>
-      <c r="DU1" s="327"/>
-      <c r="DV1" s="327"/>
-      <c r="DW1" s="328"/>
-      <c r="DX1" s="313" t="s">
+      <c r="CT1" s="328"/>
+      <c r="CU1" s="328"/>
+      <c r="CV1" s="328"/>
+      <c r="CW1" s="328"/>
+      <c r="CX1" s="328"/>
+      <c r="CY1" s="328"/>
+      <c r="CZ1" s="328"/>
+      <c r="DA1" s="328"/>
+      <c r="DB1" s="328"/>
+      <c r="DC1" s="328"/>
+      <c r="DD1" s="328"/>
+      <c r="DE1" s="328"/>
+      <c r="DF1" s="328"/>
+      <c r="DG1" s="328"/>
+      <c r="DH1" s="328"/>
+      <c r="DI1" s="328"/>
+      <c r="DJ1" s="328"/>
+      <c r="DK1" s="328"/>
+      <c r="DL1" s="328"/>
+      <c r="DM1" s="328"/>
+      <c r="DN1" s="328"/>
+      <c r="DO1" s="328"/>
+      <c r="DP1" s="328"/>
+      <c r="DQ1" s="328"/>
+      <c r="DR1" s="328"/>
+      <c r="DS1" s="328"/>
+      <c r="DT1" s="328"/>
+      <c r="DU1" s="328"/>
+      <c r="DV1" s="328"/>
+      <c r="DW1" s="329"/>
+      <c r="DX1" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="DY1" s="306"/>
-      <c r="DZ1" s="306"/>
-      <c r="EA1" s="306"/>
-      <c r="EB1" s="306"/>
-      <c r="EC1" s="306"/>
-      <c r="ED1" s="306"/>
-      <c r="EE1" s="306"/>
-      <c r="EF1" s="306"/>
-      <c r="EG1" s="306"/>
-      <c r="EH1" s="306"/>
-      <c r="EI1" s="306"/>
-      <c r="EJ1" s="306"/>
-      <c r="EK1" s="306"/>
-      <c r="EL1" s="306"/>
-      <c r="EM1" s="306"/>
-      <c r="EN1" s="306"/>
-      <c r="EO1" s="306"/>
-      <c r="EP1" s="306"/>
-      <c r="EQ1" s="306"/>
-      <c r="ER1" s="306"/>
-      <c r="ES1" s="306"/>
-      <c r="ET1" s="306"/>
-      <c r="EU1" s="306"/>
-      <c r="EV1" s="306"/>
-      <c r="EW1" s="306"/>
-      <c r="EX1" s="306"/>
-      <c r="EY1" s="306"/>
-      <c r="EZ1" s="306"/>
-      <c r="FA1" s="306"/>
-      <c r="FB1" s="307"/>
-      <c r="FC1" s="313" t="s">
+      <c r="DY1" s="307"/>
+      <c r="DZ1" s="307"/>
+      <c r="EA1" s="307"/>
+      <c r="EB1" s="307"/>
+      <c r="EC1" s="307"/>
+      <c r="ED1" s="307"/>
+      <c r="EE1" s="307"/>
+      <c r="EF1" s="307"/>
+      <c r="EG1" s="307"/>
+      <c r="EH1" s="307"/>
+      <c r="EI1" s="307"/>
+      <c r="EJ1" s="307"/>
+      <c r="EK1" s="307"/>
+      <c r="EL1" s="307"/>
+      <c r="EM1" s="307"/>
+      <c r="EN1" s="307"/>
+      <c r="EO1" s="307"/>
+      <c r="EP1" s="307"/>
+      <c r="EQ1" s="307"/>
+      <c r="ER1" s="307"/>
+      <c r="ES1" s="307"/>
+      <c r="ET1" s="307"/>
+      <c r="EU1" s="307"/>
+      <c r="EV1" s="307"/>
+      <c r="EW1" s="307"/>
+      <c r="EX1" s="307"/>
+      <c r="EY1" s="307"/>
+      <c r="EZ1" s="307"/>
+      <c r="FA1" s="307"/>
+      <c r="FB1" s="308"/>
+      <c r="FC1" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="FD1" s="306"/>
-      <c r="FE1" s="306"/>
-      <c r="FF1" s="306"/>
-      <c r="FG1" s="306"/>
-      <c r="FH1" s="306"/>
-      <c r="FI1" s="306"/>
-      <c r="FJ1" s="306"/>
-      <c r="FK1" s="306"/>
-      <c r="FL1" s="306"/>
-      <c r="FM1" s="306"/>
-      <c r="FN1" s="306"/>
-      <c r="FO1" s="306"/>
-      <c r="FP1" s="306"/>
-      <c r="FQ1" s="306"/>
-      <c r="FR1" s="306"/>
-      <c r="FS1" s="306"/>
-      <c r="FT1" s="306"/>
-      <c r="FU1" s="306"/>
-      <c r="FV1" s="306"/>
-      <c r="FW1" s="306"/>
-      <c r="FX1" s="306"/>
-      <c r="FY1" s="306"/>
-      <c r="FZ1" s="306"/>
-      <c r="GA1" s="306"/>
-      <c r="GB1" s="306"/>
-      <c r="GC1" s="306"/>
-      <c r="GD1" s="306"/>
-      <c r="GE1" s="306"/>
-      <c r="GF1" s="306"/>
-      <c r="GG1" s="307"/>
-      <c r="GH1" s="313" t="s">
+      <c r="FD1" s="307"/>
+      <c r="FE1" s="307"/>
+      <c r="FF1" s="307"/>
+      <c r="FG1" s="307"/>
+      <c r="FH1" s="307"/>
+      <c r="FI1" s="307"/>
+      <c r="FJ1" s="307"/>
+      <c r="FK1" s="307"/>
+      <c r="FL1" s="307"/>
+      <c r="FM1" s="307"/>
+      <c r="FN1" s="307"/>
+      <c r="FO1" s="307"/>
+      <c r="FP1" s="307"/>
+      <c r="FQ1" s="307"/>
+      <c r="FR1" s="307"/>
+      <c r="FS1" s="307"/>
+      <c r="FT1" s="307"/>
+      <c r="FU1" s="307"/>
+      <c r="FV1" s="307"/>
+      <c r="FW1" s="307"/>
+      <c r="FX1" s="307"/>
+      <c r="FY1" s="307"/>
+      <c r="FZ1" s="307"/>
+      <c r="GA1" s="307"/>
+      <c r="GB1" s="307"/>
+      <c r="GC1" s="307"/>
+      <c r="GD1" s="307"/>
+      <c r="GE1" s="307"/>
+      <c r="GF1" s="307"/>
+      <c r="GG1" s="308"/>
+      <c r="GH1" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="GI1" s="306"/>
-      <c r="GJ1" s="306"/>
-      <c r="GK1" s="306"/>
-      <c r="GL1" s="306"/>
-      <c r="GM1" s="306"/>
-      <c r="GN1" s="306"/>
-      <c r="GO1" s="306"/>
-      <c r="GP1" s="306"/>
-      <c r="GQ1" s="306"/>
-      <c r="GR1" s="306"/>
-      <c r="GS1" s="306"/>
-      <c r="GT1" s="306"/>
-      <c r="GU1" s="306"/>
-      <c r="GV1" s="306"/>
-      <c r="GW1" s="306"/>
-      <c r="GX1" s="306"/>
-      <c r="GY1" s="306"/>
-      <c r="GZ1" s="306"/>
-      <c r="HA1" s="306"/>
-      <c r="HB1" s="306"/>
-      <c r="HC1" s="306"/>
-      <c r="HD1" s="306"/>
-      <c r="HE1" s="306"/>
-      <c r="HF1" s="306"/>
-      <c r="HG1" s="306"/>
-      <c r="HH1" s="306"/>
-      <c r="HI1" s="306"/>
-      <c r="HJ1" s="306"/>
-      <c r="HK1" s="306"/>
-      <c r="HL1" s="307"/>
-      <c r="HM1" s="305" t="s">
+      <c r="GI1" s="307"/>
+      <c r="GJ1" s="307"/>
+      <c r="GK1" s="307"/>
+      <c r="GL1" s="307"/>
+      <c r="GM1" s="307"/>
+      <c r="GN1" s="307"/>
+      <c r="GO1" s="307"/>
+      <c r="GP1" s="307"/>
+      <c r="GQ1" s="307"/>
+      <c r="GR1" s="307"/>
+      <c r="GS1" s="307"/>
+      <c r="GT1" s="307"/>
+      <c r="GU1" s="307"/>
+      <c r="GV1" s="307"/>
+      <c r="GW1" s="307"/>
+      <c r="GX1" s="307"/>
+      <c r="GY1" s="307"/>
+      <c r="GZ1" s="307"/>
+      <c r="HA1" s="307"/>
+      <c r="HB1" s="307"/>
+      <c r="HC1" s="307"/>
+      <c r="HD1" s="307"/>
+      <c r="HE1" s="307"/>
+      <c r="HF1" s="307"/>
+      <c r="HG1" s="307"/>
+      <c r="HH1" s="307"/>
+      <c r="HI1" s="307"/>
+      <c r="HJ1" s="307"/>
+      <c r="HK1" s="307"/>
+      <c r="HL1" s="308"/>
+      <c r="HM1" s="306" t="s">
         <v>240</v>
       </c>
-      <c r="HN1" s="306"/>
-      <c r="HO1" s="306"/>
-      <c r="HP1" s="306"/>
-      <c r="HQ1" s="306"/>
-      <c r="HR1" s="306"/>
-      <c r="HS1" s="306"/>
-      <c r="HT1" s="306"/>
-      <c r="HU1" s="306"/>
-      <c r="HV1" s="306"/>
-      <c r="HW1" s="306"/>
-      <c r="HX1" s="306"/>
-      <c r="HY1" s="306"/>
-      <c r="HZ1" s="306"/>
-      <c r="IA1" s="306"/>
-      <c r="IB1" s="306"/>
-      <c r="IC1" s="306"/>
-      <c r="ID1" s="306"/>
-      <c r="IE1" s="306"/>
-      <c r="IF1" s="306"/>
-      <c r="IG1" s="306"/>
-      <c r="IH1" s="306"/>
-      <c r="II1" s="306"/>
-      <c r="IJ1" s="306"/>
-      <c r="IK1" s="306"/>
-      <c r="IL1" s="306"/>
-      <c r="IM1" s="306"/>
-      <c r="IN1" s="306"/>
-      <c r="IO1" s="306"/>
-      <c r="IP1" s="306"/>
-      <c r="IQ1" s="307"/>
+      <c r="HN1" s="307"/>
+      <c r="HO1" s="307"/>
+      <c r="HP1" s="307"/>
+      <c r="HQ1" s="307"/>
+      <c r="HR1" s="307"/>
+      <c r="HS1" s="307"/>
+      <c r="HT1" s="307"/>
+      <c r="HU1" s="307"/>
+      <c r="HV1" s="307"/>
+      <c r="HW1" s="307"/>
+      <c r="HX1" s="307"/>
+      <c r="HY1" s="307"/>
+      <c r="HZ1" s="307"/>
+      <c r="IA1" s="307"/>
+      <c r="IB1" s="307"/>
+      <c r="IC1" s="307"/>
+      <c r="ID1" s="307"/>
+      <c r="IE1" s="307"/>
+      <c r="IF1" s="307"/>
+      <c r="IG1" s="307"/>
+      <c r="IH1" s="307"/>
+      <c r="II1" s="307"/>
+      <c r="IJ1" s="307"/>
+      <c r="IK1" s="307"/>
+      <c r="IL1" s="307"/>
+      <c r="IM1" s="307"/>
+      <c r="IN1" s="307"/>
+      <c r="IO1" s="307"/>
+      <c r="IP1" s="307"/>
+      <c r="IQ1" s="308"/>
     </row>
     <row r="2" spans="1:497" ht="21" customHeight="1">
-      <c r="A2" s="323"/>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
+      <c r="A2" s="324"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
       <c r="D2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="323" t="s">
+      <c r="E2" s="324" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
-      <c r="N2" s="323"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="323"/>
-      <c r="R2" s="323"/>
-      <c r="S2" s="323"/>
-      <c r="T2" s="323"/>
-      <c r="U2" s="323"/>
-      <c r="V2" s="323"/>
-      <c r="W2" s="323"/>
-      <c r="X2" s="323"/>
-      <c r="Y2" s="323"/>
-      <c r="Z2" s="323"/>
-      <c r="AA2" s="323"/>
-      <c r="AB2" s="323"/>
-      <c r="AC2" s="323"/>
-      <c r="AD2" s="323"/>
-      <c r="AE2" s="323"/>
-      <c r="AF2" s="323"/>
-      <c r="AG2" s="323"/>
-      <c r="AH2" s="323"/>
-      <c r="AI2" s="323" t="s">
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
+      <c r="S2" s="324"/>
+      <c r="T2" s="324"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="324"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="324"/>
+      <c r="Z2" s="324"/>
+      <c r="AA2" s="324"/>
+      <c r="AB2" s="324"/>
+      <c r="AC2" s="324"/>
+      <c r="AD2" s="324"/>
+      <c r="AE2" s="324"/>
+      <c r="AF2" s="324"/>
+      <c r="AG2" s="324"/>
+      <c r="AH2" s="324"/>
+      <c r="AI2" s="324" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" s="323"/>
-      <c r="AK2" s="323"/>
-      <c r="AL2" s="323"/>
-      <c r="AM2" s="323"/>
-      <c r="AN2" s="323"/>
-      <c r="AO2" s="323"/>
-      <c r="AP2" s="323"/>
-      <c r="AQ2" s="323"/>
-      <c r="AR2" s="323"/>
-      <c r="AS2" s="323"/>
-      <c r="AT2" s="323"/>
-      <c r="AU2" s="323"/>
-      <c r="AV2" s="323"/>
-      <c r="AW2" s="323"/>
-      <c r="AX2" s="323"/>
-      <c r="AY2" s="323"/>
-      <c r="AZ2" s="323"/>
-      <c r="BA2" s="323"/>
-      <c r="BB2" s="323"/>
-      <c r="BC2" s="323"/>
-      <c r="BD2" s="323"/>
-      <c r="BE2" s="323"/>
-      <c r="BF2" s="323"/>
-      <c r="BG2" s="323"/>
-      <c r="BH2" s="323"/>
-      <c r="BI2" s="323"/>
-      <c r="BJ2" s="323"/>
-      <c r="BK2" s="323"/>
-      <c r="BL2" s="323"/>
-      <c r="BM2" s="323"/>
-      <c r="BN2" s="323" t="s">
+      <c r="AJ2" s="324"/>
+      <c r="AK2" s="324"/>
+      <c r="AL2" s="324"/>
+      <c r="AM2" s="324"/>
+      <c r="AN2" s="324"/>
+      <c r="AO2" s="324"/>
+      <c r="AP2" s="324"/>
+      <c r="AQ2" s="324"/>
+      <c r="AR2" s="324"/>
+      <c r="AS2" s="324"/>
+      <c r="AT2" s="324"/>
+      <c r="AU2" s="324"/>
+      <c r="AV2" s="324"/>
+      <c r="AW2" s="324"/>
+      <c r="AX2" s="324"/>
+      <c r="AY2" s="324"/>
+      <c r="AZ2" s="324"/>
+      <c r="BA2" s="324"/>
+      <c r="BB2" s="324"/>
+      <c r="BC2" s="324"/>
+      <c r="BD2" s="324"/>
+      <c r="BE2" s="324"/>
+      <c r="BF2" s="324"/>
+      <c r="BG2" s="324"/>
+      <c r="BH2" s="324"/>
+      <c r="BI2" s="324"/>
+      <c r="BJ2" s="324"/>
+      <c r="BK2" s="324"/>
+      <c r="BL2" s="324"/>
+      <c r="BM2" s="324"/>
+      <c r="BN2" s="324" t="s">
         <v>102</v>
       </c>
-      <c r="BO2" s="323"/>
-      <c r="BP2" s="323"/>
-      <c r="BQ2" s="323"/>
-      <c r="BR2" s="323"/>
-      <c r="BS2" s="323"/>
-      <c r="BT2" s="323"/>
-      <c r="BU2" s="323"/>
-      <c r="BV2" s="323"/>
-      <c r="BW2" s="323"/>
-      <c r="BX2" s="323"/>
-      <c r="BY2" s="323"/>
-      <c r="BZ2" s="323"/>
-      <c r="CA2" s="323"/>
-      <c r="CB2" s="323"/>
-      <c r="CC2" s="323"/>
-      <c r="CD2" s="323"/>
-      <c r="CE2" s="323"/>
-      <c r="CF2" s="323"/>
-      <c r="CG2" s="323"/>
-      <c r="CH2" s="323"/>
-      <c r="CI2" s="323"/>
-      <c r="CJ2" s="323"/>
-      <c r="CK2" s="323"/>
-      <c r="CL2" s="323"/>
-      <c r="CM2" s="323"/>
-      <c r="CN2" s="323"/>
-      <c r="CO2" s="323"/>
-      <c r="CP2" s="323"/>
-      <c r="CQ2" s="323"/>
-      <c r="CR2" s="323"/>
-      <c r="CS2" s="323" t="s">
+      <c r="BO2" s="324"/>
+      <c r="BP2" s="324"/>
+      <c r="BQ2" s="324"/>
+      <c r="BR2" s="324"/>
+      <c r="BS2" s="324"/>
+      <c r="BT2" s="324"/>
+      <c r="BU2" s="324"/>
+      <c r="BV2" s="324"/>
+      <c r="BW2" s="324"/>
+      <c r="BX2" s="324"/>
+      <c r="BY2" s="324"/>
+      <c r="BZ2" s="324"/>
+      <c r="CA2" s="324"/>
+      <c r="CB2" s="324"/>
+      <c r="CC2" s="324"/>
+      <c r="CD2" s="324"/>
+      <c r="CE2" s="324"/>
+      <c r="CF2" s="324"/>
+      <c r="CG2" s="324"/>
+      <c r="CH2" s="324"/>
+      <c r="CI2" s="324"/>
+      <c r="CJ2" s="324"/>
+      <c r="CK2" s="324"/>
+      <c r="CL2" s="324"/>
+      <c r="CM2" s="324"/>
+      <c r="CN2" s="324"/>
+      <c r="CO2" s="324"/>
+      <c r="CP2" s="324"/>
+      <c r="CQ2" s="324"/>
+      <c r="CR2" s="324"/>
+      <c r="CS2" s="324" t="s">
         <v>118</v>
       </c>
-      <c r="CT2" s="323"/>
-      <c r="CU2" s="323"/>
-      <c r="CV2" s="323"/>
-      <c r="CW2" s="323"/>
-      <c r="CX2" s="323"/>
-      <c r="CY2" s="323"/>
-      <c r="CZ2" s="323"/>
-      <c r="DA2" s="323"/>
-      <c r="DB2" s="323"/>
-      <c r="DC2" s="323"/>
-      <c r="DD2" s="323"/>
-      <c r="DE2" s="323"/>
-      <c r="DF2" s="323"/>
-      <c r="DG2" s="323"/>
-      <c r="DH2" s="323"/>
-      <c r="DI2" s="323"/>
-      <c r="DJ2" s="323"/>
-      <c r="DK2" s="323"/>
-      <c r="DL2" s="323"/>
-      <c r="DM2" s="323"/>
-      <c r="DN2" s="323"/>
-      <c r="DO2" s="323"/>
-      <c r="DP2" s="323"/>
-      <c r="DQ2" s="323"/>
-      <c r="DR2" s="323"/>
-      <c r="DS2" s="323"/>
-      <c r="DT2" s="323"/>
-      <c r="DU2" s="323"/>
-      <c r="DV2" s="323"/>
-      <c r="DW2" s="329"/>
-      <c r="DX2" s="313" t="s">
+      <c r="CT2" s="324"/>
+      <c r="CU2" s="324"/>
+      <c r="CV2" s="324"/>
+      <c r="CW2" s="324"/>
+      <c r="CX2" s="324"/>
+      <c r="CY2" s="324"/>
+      <c r="CZ2" s="324"/>
+      <c r="DA2" s="324"/>
+      <c r="DB2" s="324"/>
+      <c r="DC2" s="324"/>
+      <c r="DD2" s="324"/>
+      <c r="DE2" s="324"/>
+      <c r="DF2" s="324"/>
+      <c r="DG2" s="324"/>
+      <c r="DH2" s="324"/>
+      <c r="DI2" s="324"/>
+      <c r="DJ2" s="324"/>
+      <c r="DK2" s="324"/>
+      <c r="DL2" s="324"/>
+      <c r="DM2" s="324"/>
+      <c r="DN2" s="324"/>
+      <c r="DO2" s="324"/>
+      <c r="DP2" s="324"/>
+      <c r="DQ2" s="324"/>
+      <c r="DR2" s="324"/>
+      <c r="DS2" s="324"/>
+      <c r="DT2" s="324"/>
+      <c r="DU2" s="324"/>
+      <c r="DV2" s="324"/>
+      <c r="DW2" s="330"/>
+      <c r="DX2" s="314" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="306"/>
-      <c r="DZ2" s="306"/>
-      <c r="EA2" s="306"/>
-      <c r="EB2" s="306"/>
-      <c r="EC2" s="306"/>
-      <c r="ED2" s="306"/>
-      <c r="EE2" s="306"/>
-      <c r="EF2" s="306"/>
-      <c r="EG2" s="306"/>
-      <c r="EH2" s="306"/>
-      <c r="EI2" s="306"/>
-      <c r="EJ2" s="306"/>
-      <c r="EK2" s="306"/>
-      <c r="EL2" s="306"/>
-      <c r="EM2" s="306"/>
-      <c r="EN2" s="306"/>
-      <c r="EO2" s="306"/>
-      <c r="EP2" s="306"/>
-      <c r="EQ2" s="306"/>
-      <c r="ER2" s="306"/>
-      <c r="ES2" s="306"/>
-      <c r="ET2" s="306"/>
-      <c r="EU2" s="306"/>
-      <c r="EV2" s="306"/>
-      <c r="EW2" s="306"/>
-      <c r="EX2" s="306"/>
-      <c r="EY2" s="306"/>
-      <c r="EZ2" s="306"/>
-      <c r="FA2" s="306"/>
-      <c r="FB2" s="307"/>
-      <c r="FC2" s="314" t="s">
+      <c r="DY2" s="307"/>
+      <c r="DZ2" s="307"/>
+      <c r="EA2" s="307"/>
+      <c r="EB2" s="307"/>
+      <c r="EC2" s="307"/>
+      <c r="ED2" s="307"/>
+      <c r="EE2" s="307"/>
+      <c r="EF2" s="307"/>
+      <c r="EG2" s="307"/>
+      <c r="EH2" s="307"/>
+      <c r="EI2" s="307"/>
+      <c r="EJ2" s="307"/>
+      <c r="EK2" s="307"/>
+      <c r="EL2" s="307"/>
+      <c r="EM2" s="307"/>
+      <c r="EN2" s="307"/>
+      <c r="EO2" s="307"/>
+      <c r="EP2" s="307"/>
+      <c r="EQ2" s="307"/>
+      <c r="ER2" s="307"/>
+      <c r="ES2" s="307"/>
+      <c r="ET2" s="307"/>
+      <c r="EU2" s="307"/>
+      <c r="EV2" s="307"/>
+      <c r="EW2" s="307"/>
+      <c r="EX2" s="307"/>
+      <c r="EY2" s="307"/>
+      <c r="EZ2" s="307"/>
+      <c r="FA2" s="307"/>
+      <c r="FB2" s="308"/>
+      <c r="FC2" s="315" t="s">
         <v>131</v>
       </c>
-      <c r="FD2" s="306"/>
-      <c r="FE2" s="306"/>
-      <c r="FF2" s="306"/>
-      <c r="FG2" s="306"/>
-      <c r="FH2" s="306"/>
-      <c r="FI2" s="306"/>
-      <c r="FJ2" s="306"/>
-      <c r="FK2" s="306"/>
-      <c r="FL2" s="306"/>
-      <c r="FM2" s="306"/>
-      <c r="FN2" s="306"/>
-      <c r="FO2" s="306"/>
-      <c r="FP2" s="306"/>
-      <c r="FQ2" s="306"/>
-      <c r="FR2" s="306"/>
-      <c r="FS2" s="306"/>
-      <c r="FT2" s="306"/>
-      <c r="FU2" s="306"/>
-      <c r="FV2" s="306"/>
-      <c r="FW2" s="306"/>
-      <c r="FX2" s="306"/>
-      <c r="FY2" s="306"/>
-      <c r="FZ2" s="306"/>
-      <c r="GA2" s="306"/>
-      <c r="GB2" s="306"/>
-      <c r="GC2" s="306"/>
-      <c r="GD2" s="306"/>
-      <c r="GE2" s="306"/>
-      <c r="GF2" s="306"/>
-      <c r="GG2" s="307"/>
-      <c r="GH2" s="314" t="s">
+      <c r="FD2" s="307"/>
+      <c r="FE2" s="307"/>
+      <c r="FF2" s="307"/>
+      <c r="FG2" s="307"/>
+      <c r="FH2" s="307"/>
+      <c r="FI2" s="307"/>
+      <c r="FJ2" s="307"/>
+      <c r="FK2" s="307"/>
+      <c r="FL2" s="307"/>
+      <c r="FM2" s="307"/>
+      <c r="FN2" s="307"/>
+      <c r="FO2" s="307"/>
+      <c r="FP2" s="307"/>
+      <c r="FQ2" s="307"/>
+      <c r="FR2" s="307"/>
+      <c r="FS2" s="307"/>
+      <c r="FT2" s="307"/>
+      <c r="FU2" s="307"/>
+      <c r="FV2" s="307"/>
+      <c r="FW2" s="307"/>
+      <c r="FX2" s="307"/>
+      <c r="FY2" s="307"/>
+      <c r="FZ2" s="307"/>
+      <c r="GA2" s="307"/>
+      <c r="GB2" s="307"/>
+      <c r="GC2" s="307"/>
+      <c r="GD2" s="307"/>
+      <c r="GE2" s="307"/>
+      <c r="GF2" s="307"/>
+      <c r="GG2" s="308"/>
+      <c r="GH2" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="GI2" s="306"/>
-      <c r="GJ2" s="306"/>
-      <c r="GK2" s="306"/>
-      <c r="GL2" s="306"/>
-      <c r="GM2" s="306"/>
-      <c r="GN2" s="306"/>
-      <c r="GO2" s="306"/>
-      <c r="GP2" s="306"/>
-      <c r="GQ2" s="306"/>
-      <c r="GR2" s="306"/>
-      <c r="GS2" s="306"/>
-      <c r="GT2" s="306"/>
-      <c r="GU2" s="306"/>
-      <c r="GV2" s="306"/>
-      <c r="GW2" s="306"/>
-      <c r="GX2" s="306"/>
-      <c r="GY2" s="306"/>
-      <c r="GZ2" s="306"/>
-      <c r="HA2" s="306"/>
-      <c r="HB2" s="306"/>
-      <c r="HC2" s="306"/>
-      <c r="HD2" s="306"/>
-      <c r="HE2" s="306"/>
-      <c r="HF2" s="306"/>
-      <c r="HG2" s="306"/>
-      <c r="HH2" s="306"/>
-      <c r="HI2" s="306"/>
-      <c r="HJ2" s="306"/>
-      <c r="HK2" s="306"/>
-      <c r="HL2" s="307"/>
-      <c r="HM2" s="305" t="s">
+      <c r="GI2" s="307"/>
+      <c r="GJ2" s="307"/>
+      <c r="GK2" s="307"/>
+      <c r="GL2" s="307"/>
+      <c r="GM2" s="307"/>
+      <c r="GN2" s="307"/>
+      <c r="GO2" s="307"/>
+      <c r="GP2" s="307"/>
+      <c r="GQ2" s="307"/>
+      <c r="GR2" s="307"/>
+      <c r="GS2" s="307"/>
+      <c r="GT2" s="307"/>
+      <c r="GU2" s="307"/>
+      <c r="GV2" s="307"/>
+      <c r="GW2" s="307"/>
+      <c r="GX2" s="307"/>
+      <c r="GY2" s="307"/>
+      <c r="GZ2" s="307"/>
+      <c r="HA2" s="307"/>
+      <c r="HB2" s="307"/>
+      <c r="HC2" s="307"/>
+      <c r="HD2" s="307"/>
+      <c r="HE2" s="307"/>
+      <c r="HF2" s="307"/>
+      <c r="HG2" s="307"/>
+      <c r="HH2" s="307"/>
+      <c r="HI2" s="307"/>
+      <c r="HJ2" s="307"/>
+      <c r="HK2" s="307"/>
+      <c r="HL2" s="308"/>
+      <c r="HM2" s="306" t="s">
         <v>241</v>
       </c>
-      <c r="HN2" s="306"/>
-      <c r="HO2" s="306"/>
-      <c r="HP2" s="306"/>
-      <c r="HQ2" s="306"/>
-      <c r="HR2" s="306"/>
-      <c r="HS2" s="306"/>
-      <c r="HT2" s="306"/>
-      <c r="HU2" s="306"/>
-      <c r="HV2" s="306"/>
-      <c r="HW2" s="306"/>
-      <c r="HX2" s="306"/>
-      <c r="HY2" s="306"/>
-      <c r="HZ2" s="306"/>
-      <c r="IA2" s="306"/>
-      <c r="IB2" s="306"/>
-      <c r="IC2" s="306"/>
-      <c r="ID2" s="306"/>
-      <c r="IE2" s="306"/>
-      <c r="IF2" s="306"/>
-      <c r="IG2" s="306"/>
-      <c r="IH2" s="306"/>
-      <c r="II2" s="306"/>
-      <c r="IJ2" s="306"/>
-      <c r="IK2" s="306"/>
-      <c r="IL2" s="306"/>
-      <c r="IM2" s="306"/>
-      <c r="IN2" s="306"/>
-      <c r="IO2" s="306"/>
-      <c r="IP2" s="306"/>
-      <c r="IQ2" s="307"/>
-      <c r="IR2" s="292" t="s">
+      <c r="HN2" s="307"/>
+      <c r="HO2" s="307"/>
+      <c r="HP2" s="307"/>
+      <c r="HQ2" s="307"/>
+      <c r="HR2" s="307"/>
+      <c r="HS2" s="307"/>
+      <c r="HT2" s="307"/>
+      <c r="HU2" s="307"/>
+      <c r="HV2" s="307"/>
+      <c r="HW2" s="307"/>
+      <c r="HX2" s="307"/>
+      <c r="HY2" s="307"/>
+      <c r="HZ2" s="307"/>
+      <c r="IA2" s="307"/>
+      <c r="IB2" s="307"/>
+      <c r="IC2" s="307"/>
+      <c r="ID2" s="307"/>
+      <c r="IE2" s="307"/>
+      <c r="IF2" s="307"/>
+      <c r="IG2" s="307"/>
+      <c r="IH2" s="307"/>
+      <c r="II2" s="307"/>
+      <c r="IJ2" s="307"/>
+      <c r="IK2" s="307"/>
+      <c r="IL2" s="307"/>
+      <c r="IM2" s="307"/>
+      <c r="IN2" s="307"/>
+      <c r="IO2" s="307"/>
+      <c r="IP2" s="307"/>
+      <c r="IQ2" s="308"/>
+      <c r="IR2" s="293" t="s">
         <v>273</v>
       </c>
-      <c r="IS2" s="293"/>
-      <c r="IT2" s="293"/>
-      <c r="IU2" s="293"/>
-      <c r="IV2" s="293"/>
-      <c r="IW2" s="293"/>
-      <c r="IX2" s="293"/>
-      <c r="IY2" s="293"/>
-      <c r="IZ2" s="293"/>
-      <c r="JA2" s="293"/>
-      <c r="JB2" s="293"/>
-      <c r="JC2" s="293"/>
-      <c r="JD2" s="293"/>
-      <c r="JE2" s="293"/>
-      <c r="JF2" s="293"/>
-      <c r="JG2" s="293"/>
-      <c r="JH2" s="293"/>
-      <c r="JI2" s="293"/>
-      <c r="JJ2" s="293"/>
-      <c r="JK2" s="293"/>
-      <c r="JL2" s="293"/>
-      <c r="JM2" s="293"/>
-      <c r="JN2" s="293"/>
-      <c r="JO2" s="293"/>
-      <c r="JP2" s="293"/>
-      <c r="JQ2" s="293"/>
-      <c r="JR2" s="293"/>
-      <c r="JS2" s="293"/>
-      <c r="JT2" s="294" t="s">
+      <c r="IS2" s="294"/>
+      <c r="IT2" s="294"/>
+      <c r="IU2" s="294"/>
+      <c r="IV2" s="294"/>
+      <c r="IW2" s="294"/>
+      <c r="IX2" s="294"/>
+      <c r="IY2" s="294"/>
+      <c r="IZ2" s="294"/>
+      <c r="JA2" s="294"/>
+      <c r="JB2" s="294"/>
+      <c r="JC2" s="294"/>
+      <c r="JD2" s="294"/>
+      <c r="JE2" s="294"/>
+      <c r="JF2" s="294"/>
+      <c r="JG2" s="294"/>
+      <c r="JH2" s="294"/>
+      <c r="JI2" s="294"/>
+      <c r="JJ2" s="294"/>
+      <c r="JK2" s="294"/>
+      <c r="JL2" s="294"/>
+      <c r="JM2" s="294"/>
+      <c r="JN2" s="294"/>
+      <c r="JO2" s="294"/>
+      <c r="JP2" s="294"/>
+      <c r="JQ2" s="294"/>
+      <c r="JR2" s="294"/>
+      <c r="JS2" s="294"/>
+      <c r="JT2" s="295" t="s">
         <v>281</v>
       </c>
-      <c r="JU2" s="295"/>
-      <c r="JV2" s="295"/>
-      <c r="JW2" s="295"/>
-      <c r="JX2" s="295"/>
-      <c r="JY2" s="295"/>
-      <c r="JZ2" s="295"/>
-      <c r="KA2" s="295"/>
-      <c r="KB2" s="295"/>
-      <c r="KC2" s="295"/>
-      <c r="KD2" s="295"/>
-      <c r="KE2" s="295"/>
-      <c r="KF2" s="295"/>
-      <c r="KG2" s="295"/>
-      <c r="KH2" s="295"/>
-      <c r="KI2" s="295"/>
-      <c r="KJ2" s="295"/>
-      <c r="KK2" s="295"/>
-      <c r="KL2" s="295"/>
-      <c r="KM2" s="295"/>
-      <c r="KN2" s="295"/>
-      <c r="KO2" s="295"/>
-      <c r="KP2" s="295"/>
-      <c r="KQ2" s="295"/>
-      <c r="KR2" s="295"/>
-      <c r="KS2" s="295"/>
-      <c r="KT2" s="295"/>
-      <c r="KU2" s="295"/>
-      <c r="KV2" s="295"/>
-      <c r="KW2" s="295"/>
-      <c r="KX2" s="296"/>
-      <c r="KY2" s="303" t="s">
+      <c r="JU2" s="296"/>
+      <c r="JV2" s="296"/>
+      <c r="JW2" s="296"/>
+      <c r="JX2" s="296"/>
+      <c r="JY2" s="296"/>
+      <c r="JZ2" s="296"/>
+      <c r="KA2" s="296"/>
+      <c r="KB2" s="296"/>
+      <c r="KC2" s="296"/>
+      <c r="KD2" s="296"/>
+      <c r="KE2" s="296"/>
+      <c r="KF2" s="296"/>
+      <c r="KG2" s="296"/>
+      <c r="KH2" s="296"/>
+      <c r="KI2" s="296"/>
+      <c r="KJ2" s="296"/>
+      <c r="KK2" s="296"/>
+      <c r="KL2" s="296"/>
+      <c r="KM2" s="296"/>
+      <c r="KN2" s="296"/>
+      <c r="KO2" s="296"/>
+      <c r="KP2" s="296"/>
+      <c r="KQ2" s="296"/>
+      <c r="KR2" s="296"/>
+      <c r="KS2" s="296"/>
+      <c r="KT2" s="296"/>
+      <c r="KU2" s="296"/>
+      <c r="KV2" s="296"/>
+      <c r="KW2" s="296"/>
+      <c r="KX2" s="297"/>
+      <c r="KY2" s="304" t="s">
         <v>322</v>
       </c>
-      <c r="KZ2" s="304"/>
-      <c r="LA2" s="304"/>
-      <c r="LB2" s="304"/>
-      <c r="LC2" s="304"/>
-      <c r="LD2" s="304"/>
-      <c r="LE2" s="304"/>
-      <c r="LF2" s="304"/>
-      <c r="LG2" s="304"/>
-      <c r="LH2" s="304"/>
-      <c r="LI2" s="304"/>
-      <c r="LJ2" s="304"/>
-      <c r="LK2" s="304"/>
-      <c r="LL2" s="304"/>
-      <c r="LM2" s="304"/>
-      <c r="LN2" s="304"/>
-      <c r="LO2" s="304"/>
-      <c r="LP2" s="304"/>
-      <c r="LQ2" s="304"/>
-      <c r="LR2" s="304"/>
-      <c r="LS2" s="304"/>
-      <c r="LT2" s="304"/>
-      <c r="LU2" s="304"/>
-      <c r="LV2" s="304"/>
-      <c r="LW2" s="304"/>
-      <c r="LX2" s="304"/>
-      <c r="LY2" s="304"/>
-      <c r="LZ2" s="304"/>
-      <c r="MA2" s="304"/>
-      <c r="MB2" s="309"/>
-      <c r="MC2" s="303" t="s">
+      <c r="KZ2" s="305"/>
+      <c r="LA2" s="305"/>
+      <c r="LB2" s="305"/>
+      <c r="LC2" s="305"/>
+      <c r="LD2" s="305"/>
+      <c r="LE2" s="305"/>
+      <c r="LF2" s="305"/>
+      <c r="LG2" s="305"/>
+      <c r="LH2" s="305"/>
+      <c r="LI2" s="305"/>
+      <c r="LJ2" s="305"/>
+      <c r="LK2" s="305"/>
+      <c r="LL2" s="305"/>
+      <c r="LM2" s="305"/>
+      <c r="LN2" s="305"/>
+      <c r="LO2" s="305"/>
+      <c r="LP2" s="305"/>
+      <c r="LQ2" s="305"/>
+      <c r="LR2" s="305"/>
+      <c r="LS2" s="305"/>
+      <c r="LT2" s="305"/>
+      <c r="LU2" s="305"/>
+      <c r="LV2" s="305"/>
+      <c r="LW2" s="305"/>
+      <c r="LX2" s="305"/>
+      <c r="LY2" s="305"/>
+      <c r="LZ2" s="305"/>
+      <c r="MA2" s="305"/>
+      <c r="MB2" s="310"/>
+      <c r="MC2" s="304" t="s">
         <v>329</v>
       </c>
-      <c r="MD2" s="304"/>
-      <c r="ME2" s="304"/>
-      <c r="MF2" s="304"/>
-      <c r="MG2" s="304"/>
-      <c r="MH2" s="304"/>
-      <c r="MI2" s="304"/>
-      <c r="MJ2" s="304"/>
-      <c r="MK2" s="304"/>
-      <c r="ML2" s="304"/>
-      <c r="MM2" s="304"/>
-      <c r="MN2" s="304"/>
-      <c r="MO2" s="304"/>
-      <c r="MP2" s="304"/>
-      <c r="MQ2" s="304"/>
-      <c r="MR2" s="304"/>
-      <c r="MS2" s="304"/>
-      <c r="MT2" s="304"/>
-      <c r="MU2" s="304"/>
-      <c r="MV2" s="304"/>
-      <c r="MW2" s="304"/>
-      <c r="MX2" s="304"/>
-      <c r="MY2" s="304"/>
-      <c r="MZ2" s="304"/>
-      <c r="NA2" s="304"/>
-      <c r="NB2" s="304"/>
-      <c r="NC2" s="304"/>
-      <c r="ND2" s="304"/>
-      <c r="NE2" s="311"/>
-      <c r="NF2" s="311"/>
-      <c r="NG2" s="312"/>
-      <c r="NH2" s="303" t="s">
+      <c r="MD2" s="305"/>
+      <c r="ME2" s="305"/>
+      <c r="MF2" s="305"/>
+      <c r="MG2" s="305"/>
+      <c r="MH2" s="305"/>
+      <c r="MI2" s="305"/>
+      <c r="MJ2" s="305"/>
+      <c r="MK2" s="305"/>
+      <c r="ML2" s="305"/>
+      <c r="MM2" s="305"/>
+      <c r="MN2" s="305"/>
+      <c r="MO2" s="305"/>
+      <c r="MP2" s="305"/>
+      <c r="MQ2" s="305"/>
+      <c r="MR2" s="305"/>
+      <c r="MS2" s="305"/>
+      <c r="MT2" s="305"/>
+      <c r="MU2" s="305"/>
+      <c r="MV2" s="305"/>
+      <c r="MW2" s="305"/>
+      <c r="MX2" s="305"/>
+      <c r="MY2" s="305"/>
+      <c r="MZ2" s="305"/>
+      <c r="NA2" s="305"/>
+      <c r="NB2" s="305"/>
+      <c r="NC2" s="305"/>
+      <c r="ND2" s="305"/>
+      <c r="NE2" s="312"/>
+      <c r="NF2" s="312"/>
+      <c r="NG2" s="313"/>
+      <c r="NH2" s="304" t="s">
         <v>346</v>
       </c>
-      <c r="NI2" s="304"/>
-      <c r="NJ2" s="304"/>
-      <c r="NK2" s="304"/>
-      <c r="NL2" s="304"/>
-      <c r="NM2" s="304"/>
-      <c r="NN2" s="304"/>
-      <c r="NO2" s="304"/>
-      <c r="NP2" s="304"/>
-      <c r="NQ2" s="304"/>
-      <c r="NR2" s="304"/>
-      <c r="NS2" s="304"/>
-      <c r="NT2" s="304"/>
-      <c r="NU2" s="304"/>
-      <c r="NV2" s="304"/>
-      <c r="NW2" s="304"/>
-      <c r="NX2" s="304"/>
-      <c r="NY2" s="304"/>
-      <c r="NZ2" s="304"/>
-      <c r="OA2" s="304"/>
-      <c r="OB2" s="304"/>
-      <c r="OC2" s="304"/>
-      <c r="OD2" s="304"/>
-      <c r="OE2" s="304"/>
-      <c r="OF2" s="304"/>
-      <c r="OG2" s="304"/>
-      <c r="OH2" s="304"/>
-      <c r="OI2" s="304"/>
-      <c r="OJ2" s="304"/>
-      <c r="OK2" s="304"/>
-      <c r="OL2" s="283" t="s">
+      <c r="NI2" s="305"/>
+      <c r="NJ2" s="305"/>
+      <c r="NK2" s="305"/>
+      <c r="NL2" s="305"/>
+      <c r="NM2" s="305"/>
+      <c r="NN2" s="305"/>
+      <c r="NO2" s="305"/>
+      <c r="NP2" s="305"/>
+      <c r="NQ2" s="305"/>
+      <c r="NR2" s="305"/>
+      <c r="NS2" s="305"/>
+      <c r="NT2" s="305"/>
+      <c r="NU2" s="305"/>
+      <c r="NV2" s="305"/>
+      <c r="NW2" s="305"/>
+      <c r="NX2" s="305"/>
+      <c r="NY2" s="305"/>
+      <c r="NZ2" s="305"/>
+      <c r="OA2" s="305"/>
+      <c r="OB2" s="305"/>
+      <c r="OC2" s="305"/>
+      <c r="OD2" s="305"/>
+      <c r="OE2" s="305"/>
+      <c r="OF2" s="305"/>
+      <c r="OG2" s="305"/>
+      <c r="OH2" s="305"/>
+      <c r="OI2" s="305"/>
+      <c r="OJ2" s="305"/>
+      <c r="OK2" s="305"/>
+      <c r="OL2" s="284" t="s">
         <v>371</v>
       </c>
-      <c r="OM2" s="284"/>
-      <c r="ON2" s="284"/>
-      <c r="OO2" s="284"/>
-      <c r="OP2" s="284"/>
-      <c r="OQ2" s="284"/>
-      <c r="OR2" s="284"/>
-      <c r="OS2" s="284"/>
-      <c r="OT2" s="284"/>
-      <c r="OU2" s="284"/>
-      <c r="OV2" s="284"/>
-      <c r="OW2" s="284"/>
-      <c r="OX2" s="284"/>
-      <c r="OY2" s="284"/>
-      <c r="OZ2" s="284"/>
-      <c r="PA2" s="284"/>
-      <c r="PB2" s="284"/>
-      <c r="PC2" s="284"/>
-      <c r="PD2" s="284"/>
-      <c r="PE2" s="284"/>
-      <c r="PF2" s="284"/>
-      <c r="PG2" s="284"/>
-      <c r="PH2" s="284"/>
-      <c r="PI2" s="284"/>
-      <c r="PJ2" s="284"/>
-      <c r="PK2" s="284"/>
-      <c r="PL2" s="284"/>
-      <c r="PM2" s="284"/>
-      <c r="PN2" s="284"/>
-      <c r="PO2" s="284"/>
-      <c r="PP2" s="284"/>
-      <c r="PQ2" s="283" t="s">
+      <c r="OM2" s="285"/>
+      <c r="ON2" s="285"/>
+      <c r="OO2" s="285"/>
+      <c r="OP2" s="285"/>
+      <c r="OQ2" s="285"/>
+      <c r="OR2" s="285"/>
+      <c r="OS2" s="285"/>
+      <c r="OT2" s="285"/>
+      <c r="OU2" s="285"/>
+      <c r="OV2" s="285"/>
+      <c r="OW2" s="285"/>
+      <c r="OX2" s="285"/>
+      <c r="OY2" s="285"/>
+      <c r="OZ2" s="285"/>
+      <c r="PA2" s="285"/>
+      <c r="PB2" s="285"/>
+      <c r="PC2" s="285"/>
+      <c r="PD2" s="285"/>
+      <c r="PE2" s="285"/>
+      <c r="PF2" s="285"/>
+      <c r="PG2" s="285"/>
+      <c r="PH2" s="285"/>
+      <c r="PI2" s="285"/>
+      <c r="PJ2" s="285"/>
+      <c r="PK2" s="285"/>
+      <c r="PL2" s="285"/>
+      <c r="PM2" s="285"/>
+      <c r="PN2" s="285"/>
+      <c r="PO2" s="285"/>
+      <c r="PP2" s="285"/>
+      <c r="PQ2" s="284" t="s">
         <v>432</v>
       </c>
-      <c r="PR2" s="284"/>
-      <c r="PS2" s="284"/>
-      <c r="PT2" s="284"/>
-      <c r="PU2" s="284"/>
-      <c r="PV2" s="284"/>
-      <c r="PW2" s="284"/>
-      <c r="PX2" s="284"/>
-      <c r="PY2" s="284"/>
-      <c r="PZ2" s="284"/>
-      <c r="QA2" s="284"/>
-      <c r="QB2" s="284"/>
-      <c r="QC2" s="284"/>
-      <c r="QD2" s="284"/>
-      <c r="QE2" s="284"/>
-      <c r="QF2" s="284"/>
-      <c r="QG2" s="284"/>
-      <c r="QH2" s="284"/>
-      <c r="QI2" s="284"/>
-      <c r="QJ2" s="284"/>
-      <c r="QK2" s="284"/>
-      <c r="QL2" s="284"/>
-      <c r="QM2" s="284"/>
-      <c r="QN2" s="284"/>
-      <c r="QO2" s="284"/>
-      <c r="QP2" s="284"/>
-      <c r="QQ2" s="284"/>
-      <c r="QR2" s="284"/>
-      <c r="QS2" s="284"/>
-      <c r="QT2" s="284"/>
-      <c r="QU2" s="284"/>
+      <c r="PR2" s="285"/>
+      <c r="PS2" s="285"/>
+      <c r="PT2" s="285"/>
+      <c r="PU2" s="285"/>
+      <c r="PV2" s="285"/>
+      <c r="PW2" s="285"/>
+      <c r="PX2" s="285"/>
+      <c r="PY2" s="285"/>
+      <c r="PZ2" s="285"/>
+      <c r="QA2" s="285"/>
+      <c r="QB2" s="285"/>
+      <c r="QC2" s="285"/>
+      <c r="QD2" s="285"/>
+      <c r="QE2" s="285"/>
+      <c r="QF2" s="285"/>
+      <c r="QG2" s="285"/>
+      <c r="QH2" s="285"/>
+      <c r="QI2" s="285"/>
+      <c r="QJ2" s="285"/>
+      <c r="QK2" s="285"/>
+      <c r="QL2" s="285"/>
+      <c r="QM2" s="285"/>
+      <c r="QN2" s="285"/>
+      <c r="QO2" s="285"/>
+      <c r="QP2" s="285"/>
+      <c r="QQ2" s="285"/>
+      <c r="QR2" s="285"/>
+      <c r="QS2" s="285"/>
+      <c r="QT2" s="285"/>
+      <c r="QU2" s="285"/>
     </row>
     <row r="3" spans="1:497" ht="21" customHeight="1">
-      <c r="A3" s="323"/>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
+      <c r="A3" s="324"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
       <c r="D3" s="77">
         <v>31</v>
       </c>
@@ -10929,8 +10781,12 @@
       <c r="QD4" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE4" s="125"/>
-      <c r="QF4" s="125"/>
+      <c r="QE4" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF4" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG4" s="125"/>
       <c r="QH4" s="125"/>
       <c r="QI4" s="125"/>
@@ -10968,572 +10824,574 @@
       <c r="C5" s="194" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
-      <c r="J5" s="332"/>
-      <c r="K5" s="332"/>
-      <c r="L5" s="332"/>
-      <c r="M5" s="332"/>
-      <c r="N5" s="332"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="332"/>
-      <c r="Q5" s="332"/>
-      <c r="R5" s="332"/>
-      <c r="S5" s="332"/>
-      <c r="T5" s="332"/>
-      <c r="U5" s="332"/>
-      <c r="V5" s="332"/>
-      <c r="W5" s="332"/>
-      <c r="X5" s="332"/>
-      <c r="Y5" s="332"/>
-      <c r="Z5" s="332"/>
-      <c r="AA5" s="332"/>
-      <c r="AB5" s="332"/>
-      <c r="AC5" s="332"/>
-      <c r="AD5" s="332"/>
-      <c r="AE5" s="332"/>
-      <c r="AF5" s="332"/>
-      <c r="AG5" s="332"/>
-      <c r="AH5" s="332"/>
-      <c r="AI5" s="332"/>
-      <c r="AJ5" s="332"/>
-      <c r="AK5" s="332"/>
-      <c r="AL5" s="332"/>
-      <c r="AM5" s="332"/>
-      <c r="AN5" s="332"/>
-      <c r="AO5" s="332"/>
-      <c r="AP5" s="332"/>
-      <c r="AQ5" s="332"/>
-      <c r="AR5" s="332"/>
-      <c r="AS5" s="332"/>
-      <c r="AT5" s="332"/>
-      <c r="AU5" s="332"/>
-      <c r="AV5" s="332"/>
-      <c r="AW5" s="332"/>
-      <c r="AX5" s="332"/>
-      <c r="AY5" s="332"/>
-      <c r="AZ5" s="332"/>
-      <c r="BA5" s="332"/>
-      <c r="BB5" s="332"/>
-      <c r="BC5" s="332"/>
-      <c r="BD5" s="332"/>
-      <c r="BE5" s="332"/>
-      <c r="BF5" s="332"/>
-      <c r="BG5" s="332"/>
-      <c r="BH5" s="332"/>
-      <c r="BI5" s="332"/>
-      <c r="BJ5" s="332"/>
-      <c r="BK5" s="332"/>
-      <c r="BL5" s="332"/>
-      <c r="BM5" s="332"/>
-      <c r="BN5" s="332"/>
-      <c r="BO5" s="332"/>
-      <c r="BP5" s="332"/>
-      <c r="BQ5" s="332"/>
-      <c r="BR5" s="332"/>
-      <c r="BS5" s="332"/>
-      <c r="BT5" s="332"/>
-      <c r="BU5" s="332"/>
-      <c r="BV5" s="332"/>
-      <c r="BW5" s="332"/>
-      <c r="BX5" s="332"/>
-      <c r="BY5" s="332"/>
-      <c r="BZ5" s="332"/>
-      <c r="CA5" s="332"/>
-      <c r="CB5" s="332"/>
-      <c r="CC5" s="332"/>
-      <c r="CD5" s="332"/>
-      <c r="CE5" s="332"/>
-      <c r="CF5" s="332"/>
-      <c r="CG5" s="332"/>
-      <c r="CH5" s="332"/>
-      <c r="CI5" s="332"/>
-      <c r="CJ5" s="332"/>
-      <c r="CK5" s="332"/>
-      <c r="CL5" s="332"/>
-      <c r="CM5" s="332"/>
-      <c r="CN5" s="332"/>
-      <c r="CO5" s="332"/>
-      <c r="CP5" s="332"/>
-      <c r="CQ5" s="332"/>
-      <c r="CR5" s="332"/>
-      <c r="CS5" s="332"/>
-      <c r="CT5" s="332"/>
-      <c r="CU5" s="332"/>
-      <c r="CV5" s="332"/>
-      <c r="CW5" s="332"/>
-      <c r="CX5" s="332"/>
-      <c r="CY5" s="332"/>
-      <c r="CZ5" s="332"/>
-      <c r="DA5" s="332"/>
-      <c r="DB5" s="332"/>
-      <c r="DC5" s="332"/>
-      <c r="DD5" s="332"/>
-      <c r="DE5" s="332"/>
-      <c r="DF5" s="332"/>
-      <c r="DG5" s="332"/>
-      <c r="DH5" s="332"/>
-      <c r="DI5" s="332"/>
-      <c r="DJ5" s="332"/>
-      <c r="DK5" s="332"/>
-      <c r="DL5" s="332"/>
-      <c r="DM5" s="332"/>
-      <c r="DN5" s="332"/>
-      <c r="DO5" s="333"/>
-      <c r="DP5" s="334"/>
-      <c r="DQ5" s="334"/>
-      <c r="DR5" s="334"/>
-      <c r="DS5" s="334"/>
-      <c r="DT5" s="334"/>
-      <c r="DU5" s="335"/>
-      <c r="DV5" s="333"/>
-      <c r="DW5" s="334"/>
-      <c r="DX5" s="334"/>
-      <c r="DY5" s="334"/>
-      <c r="DZ5" s="334"/>
-      <c r="EA5" s="334"/>
-      <c r="EB5" s="335"/>
-      <c r="EC5" s="333"/>
-      <c r="ED5" s="334"/>
-      <c r="EE5" s="334"/>
-      <c r="EF5" s="334"/>
-      <c r="EG5" s="334"/>
-      <c r="EH5" s="334"/>
-      <c r="EI5" s="335"/>
-      <c r="EJ5" s="333"/>
-      <c r="EK5" s="334"/>
-      <c r="EL5" s="334"/>
-      <c r="EM5" s="334"/>
-      <c r="EN5" s="334"/>
-      <c r="EO5" s="334"/>
-      <c r="EP5" s="335"/>
-      <c r="EQ5" s="333"/>
-      <c r="ER5" s="334"/>
-      <c r="ES5" s="334"/>
-      <c r="ET5" s="334"/>
-      <c r="EU5" s="334"/>
-      <c r="EV5" s="334"/>
-      <c r="EW5" s="335"/>
-      <c r="EX5" s="333"/>
-      <c r="EY5" s="334"/>
-      <c r="EZ5" s="334"/>
-      <c r="FA5" s="334"/>
-      <c r="FB5" s="334"/>
-      <c r="FC5" s="334"/>
-      <c r="FD5" s="335"/>
-      <c r="FE5" s="333"/>
-      <c r="FF5" s="334"/>
-      <c r="FG5" s="334"/>
-      <c r="FH5" s="334"/>
-      <c r="FI5" s="334"/>
-      <c r="FJ5" s="334"/>
-      <c r="FK5" s="335"/>
-      <c r="FL5" s="333"/>
-      <c r="FM5" s="334"/>
-      <c r="FN5" s="334"/>
-      <c r="FO5" s="334"/>
-      <c r="FP5" s="334"/>
-      <c r="FQ5" s="334"/>
-      <c r="FR5" s="335"/>
-      <c r="FS5" s="333"/>
-      <c r="FT5" s="334"/>
-      <c r="FU5" s="334"/>
-      <c r="FV5" s="334"/>
-      <c r="FW5" s="334"/>
-      <c r="FX5" s="334"/>
-      <c r="FY5" s="335"/>
-      <c r="FZ5" s="333"/>
-      <c r="GA5" s="334"/>
-      <c r="GB5" s="334"/>
-      <c r="GC5" s="334"/>
-      <c r="GD5" s="334"/>
-      <c r="GE5" s="334"/>
-      <c r="GF5" s="335"/>
-      <c r="GG5" s="280" t="s">
+      <c r="D5" s="346"/>
+      <c r="E5" s="346"/>
+      <c r="F5" s="346"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="333"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="333"/>
+      <c r="R5" s="333"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="333"/>
+      <c r="W5" s="333"/>
+      <c r="X5" s="333"/>
+      <c r="Y5" s="333"/>
+      <c r="Z5" s="333"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="333"/>
+      <c r="AC5" s="333"/>
+      <c r="AD5" s="333"/>
+      <c r="AE5" s="333"/>
+      <c r="AF5" s="333"/>
+      <c r="AG5" s="333"/>
+      <c r="AH5" s="333"/>
+      <c r="AI5" s="333"/>
+      <c r="AJ5" s="333"/>
+      <c r="AK5" s="333"/>
+      <c r="AL5" s="333"/>
+      <c r="AM5" s="333"/>
+      <c r="AN5" s="333"/>
+      <c r="AO5" s="333"/>
+      <c r="AP5" s="333"/>
+      <c r="AQ5" s="333"/>
+      <c r="AR5" s="333"/>
+      <c r="AS5" s="333"/>
+      <c r="AT5" s="333"/>
+      <c r="AU5" s="333"/>
+      <c r="AV5" s="333"/>
+      <c r="AW5" s="333"/>
+      <c r="AX5" s="333"/>
+      <c r="AY5" s="333"/>
+      <c r="AZ5" s="333"/>
+      <c r="BA5" s="333"/>
+      <c r="BB5" s="333"/>
+      <c r="BC5" s="333"/>
+      <c r="BD5" s="333"/>
+      <c r="BE5" s="333"/>
+      <c r="BF5" s="333"/>
+      <c r="BG5" s="333"/>
+      <c r="BH5" s="333"/>
+      <c r="BI5" s="333"/>
+      <c r="BJ5" s="333"/>
+      <c r="BK5" s="333"/>
+      <c r="BL5" s="333"/>
+      <c r="BM5" s="333"/>
+      <c r="BN5" s="333"/>
+      <c r="BO5" s="333"/>
+      <c r="BP5" s="333"/>
+      <c r="BQ5" s="333"/>
+      <c r="BR5" s="333"/>
+      <c r="BS5" s="333"/>
+      <c r="BT5" s="333"/>
+      <c r="BU5" s="333"/>
+      <c r="BV5" s="333"/>
+      <c r="BW5" s="333"/>
+      <c r="BX5" s="333"/>
+      <c r="BY5" s="333"/>
+      <c r="BZ5" s="333"/>
+      <c r="CA5" s="333"/>
+      <c r="CB5" s="333"/>
+      <c r="CC5" s="333"/>
+      <c r="CD5" s="333"/>
+      <c r="CE5" s="333"/>
+      <c r="CF5" s="333"/>
+      <c r="CG5" s="333"/>
+      <c r="CH5" s="333"/>
+      <c r="CI5" s="333"/>
+      <c r="CJ5" s="333"/>
+      <c r="CK5" s="333"/>
+      <c r="CL5" s="333"/>
+      <c r="CM5" s="333"/>
+      <c r="CN5" s="333"/>
+      <c r="CO5" s="333"/>
+      <c r="CP5" s="333"/>
+      <c r="CQ5" s="333"/>
+      <c r="CR5" s="333"/>
+      <c r="CS5" s="333"/>
+      <c r="CT5" s="333"/>
+      <c r="CU5" s="333"/>
+      <c r="CV5" s="333"/>
+      <c r="CW5" s="333"/>
+      <c r="CX5" s="333"/>
+      <c r="CY5" s="333"/>
+      <c r="CZ5" s="333"/>
+      <c r="DA5" s="333"/>
+      <c r="DB5" s="333"/>
+      <c r="DC5" s="333"/>
+      <c r="DD5" s="333"/>
+      <c r="DE5" s="333"/>
+      <c r="DF5" s="333"/>
+      <c r="DG5" s="333"/>
+      <c r="DH5" s="333"/>
+      <c r="DI5" s="333"/>
+      <c r="DJ5" s="333"/>
+      <c r="DK5" s="333"/>
+      <c r="DL5" s="333"/>
+      <c r="DM5" s="333"/>
+      <c r="DN5" s="333"/>
+      <c r="DO5" s="334"/>
+      <c r="DP5" s="335"/>
+      <c r="DQ5" s="335"/>
+      <c r="DR5" s="335"/>
+      <c r="DS5" s="335"/>
+      <c r="DT5" s="335"/>
+      <c r="DU5" s="336"/>
+      <c r="DV5" s="334"/>
+      <c r="DW5" s="335"/>
+      <c r="DX5" s="335"/>
+      <c r="DY5" s="335"/>
+      <c r="DZ5" s="335"/>
+      <c r="EA5" s="335"/>
+      <c r="EB5" s="336"/>
+      <c r="EC5" s="334"/>
+      <c r="ED5" s="335"/>
+      <c r="EE5" s="335"/>
+      <c r="EF5" s="335"/>
+      <c r="EG5" s="335"/>
+      <c r="EH5" s="335"/>
+      <c r="EI5" s="336"/>
+      <c r="EJ5" s="334"/>
+      <c r="EK5" s="335"/>
+      <c r="EL5" s="335"/>
+      <c r="EM5" s="335"/>
+      <c r="EN5" s="335"/>
+      <c r="EO5" s="335"/>
+      <c r="EP5" s="336"/>
+      <c r="EQ5" s="334"/>
+      <c r="ER5" s="335"/>
+      <c r="ES5" s="335"/>
+      <c r="ET5" s="335"/>
+      <c r="EU5" s="335"/>
+      <c r="EV5" s="335"/>
+      <c r="EW5" s="336"/>
+      <c r="EX5" s="334"/>
+      <c r="EY5" s="335"/>
+      <c r="EZ5" s="335"/>
+      <c r="FA5" s="335"/>
+      <c r="FB5" s="335"/>
+      <c r="FC5" s="335"/>
+      <c r="FD5" s="336"/>
+      <c r="FE5" s="334"/>
+      <c r="FF5" s="335"/>
+      <c r="FG5" s="335"/>
+      <c r="FH5" s="335"/>
+      <c r="FI5" s="335"/>
+      <c r="FJ5" s="335"/>
+      <c r="FK5" s="336"/>
+      <c r="FL5" s="334"/>
+      <c r="FM5" s="335"/>
+      <c r="FN5" s="335"/>
+      <c r="FO5" s="335"/>
+      <c r="FP5" s="335"/>
+      <c r="FQ5" s="335"/>
+      <c r="FR5" s="336"/>
+      <c r="FS5" s="334"/>
+      <c r="FT5" s="335"/>
+      <c r="FU5" s="335"/>
+      <c r="FV5" s="335"/>
+      <c r="FW5" s="335"/>
+      <c r="FX5" s="335"/>
+      <c r="FY5" s="336"/>
+      <c r="FZ5" s="334"/>
+      <c r="GA5" s="335"/>
+      <c r="GB5" s="335"/>
+      <c r="GC5" s="335"/>
+      <c r="GD5" s="335"/>
+      <c r="GE5" s="335"/>
+      <c r="GF5" s="336"/>
+      <c r="GG5" s="281" t="s">
         <v>188</v>
       </c>
-      <c r="GH5" s="281"/>
-      <c r="GI5" s="281"/>
-      <c r="GJ5" s="281"/>
-      <c r="GK5" s="281"/>
-      <c r="GL5" s="281"/>
-      <c r="GM5" s="282"/>
-      <c r="GN5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="GO5" s="281"/>
-      <c r="GP5" s="281"/>
-      <c r="GQ5" s="281"/>
-      <c r="GR5" s="281"/>
-      <c r="GS5" s="281"/>
-      <c r="GT5" s="282"/>
-      <c r="GU5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="GV5" s="281"/>
-      <c r="GW5" s="281"/>
-      <c r="GX5" s="281"/>
-      <c r="GY5" s="281"/>
-      <c r="GZ5" s="281"/>
-      <c r="HA5" s="282"/>
-      <c r="HB5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="HC5" s="281"/>
-      <c r="HD5" s="281"/>
-      <c r="HE5" s="281"/>
-      <c r="HF5" s="281"/>
-      <c r="HG5" s="281"/>
-      <c r="HH5" s="282"/>
-      <c r="HI5" s="289" t="s">
-        <v>187</v>
-      </c>
-      <c r="HJ5" s="290"/>
-      <c r="HK5" s="290"/>
-      <c r="HL5" s="290"/>
-      <c r="HM5" s="290"/>
-      <c r="HN5" s="290"/>
-      <c r="HO5" s="290"/>
-      <c r="HP5" s="290"/>
-      <c r="HQ5" s="291"/>
-      <c r="HR5" s="280" t="s">
+      <c r="GH5" s="282"/>
+      <c r="GI5" s="282"/>
+      <c r="GJ5" s="282"/>
+      <c r="GK5" s="282"/>
+      <c r="GL5" s="282"/>
+      <c r="GM5" s="283"/>
+      <c r="GN5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="GO5" s="282"/>
+      <c r="GP5" s="282"/>
+      <c r="GQ5" s="282"/>
+      <c r="GR5" s="282"/>
+      <c r="GS5" s="282"/>
+      <c r="GT5" s="283"/>
+      <c r="GU5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="GV5" s="282"/>
+      <c r="GW5" s="282"/>
+      <c r="GX5" s="282"/>
+      <c r="GY5" s="282"/>
+      <c r="GZ5" s="282"/>
+      <c r="HA5" s="283"/>
+      <c r="HB5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="HC5" s="282"/>
+      <c r="HD5" s="282"/>
+      <c r="HE5" s="282"/>
+      <c r="HF5" s="282"/>
+      <c r="HG5" s="282"/>
+      <c r="HH5" s="283"/>
+      <c r="HI5" s="290" t="s">
+        <v>187</v>
+      </c>
+      <c r="HJ5" s="291"/>
+      <c r="HK5" s="291"/>
+      <c r="HL5" s="291"/>
+      <c r="HM5" s="291"/>
+      <c r="HN5" s="291"/>
+      <c r="HO5" s="291"/>
+      <c r="HP5" s="291"/>
+      <c r="HQ5" s="292"/>
+      <c r="HR5" s="281" t="s">
         <v>271</v>
       </c>
-      <c r="HS5" s="281"/>
-      <c r="HT5" s="281"/>
-      <c r="HU5" s="281"/>
-      <c r="HV5" s="281"/>
-      <c r="HW5" s="281"/>
-      <c r="HX5" s="282"/>
-      <c r="HY5" s="280" t="s">
+      <c r="HS5" s="282"/>
+      <c r="HT5" s="282"/>
+      <c r="HU5" s="282"/>
+      <c r="HV5" s="282"/>
+      <c r="HW5" s="282"/>
+      <c r="HX5" s="283"/>
+      <c r="HY5" s="281" t="s">
         <v>271</v>
       </c>
-      <c r="HZ5" s="281"/>
-      <c r="IA5" s="281"/>
-      <c r="IB5" s="281"/>
-      <c r="IC5" s="281"/>
-      <c r="ID5" s="281"/>
-      <c r="IE5" s="282"/>
-      <c r="IF5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="IG5" s="281"/>
-      <c r="IH5" s="281"/>
-      <c r="II5" s="281"/>
-      <c r="IJ5" s="281"/>
-      <c r="IK5" s="281"/>
-      <c r="IL5" s="282"/>
-      <c r="IM5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="IN5" s="281"/>
-      <c r="IO5" s="281"/>
-      <c r="IP5" s="281"/>
-      <c r="IQ5" s="281"/>
-      <c r="IR5" s="281"/>
-      <c r="IS5" s="282"/>
-      <c r="IT5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="IU5" s="281"/>
-      <c r="IV5" s="281"/>
-      <c r="IW5" s="281"/>
-      <c r="IX5" s="281"/>
-      <c r="IY5" s="281"/>
-      <c r="IZ5" s="282"/>
-      <c r="JA5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="JB5" s="281"/>
-      <c r="JC5" s="281"/>
-      <c r="JD5" s="281"/>
-      <c r="JE5" s="281"/>
-      <c r="JF5" s="281"/>
-      <c r="JG5" s="282"/>
-      <c r="JH5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="JI5" s="281"/>
-      <c r="JJ5" s="281"/>
-      <c r="JK5" s="281"/>
-      <c r="JL5" s="281"/>
-      <c r="JM5" s="281"/>
-      <c r="JN5" s="282"/>
-      <c r="JO5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="JP5" s="281"/>
-      <c r="JQ5" s="281"/>
-      <c r="JR5" s="281"/>
-      <c r="JS5" s="281"/>
-      <c r="JT5" s="281"/>
-      <c r="JU5" s="282"/>
-      <c r="JV5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="JW5" s="281"/>
-      <c r="JX5" s="281"/>
-      <c r="JY5" s="281"/>
-      <c r="JZ5" s="281"/>
-      <c r="KA5" s="281"/>
-      <c r="KB5" s="282"/>
-      <c r="KC5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="KD5" s="281"/>
-      <c r="KE5" s="281"/>
-      <c r="KF5" s="281"/>
-      <c r="KG5" s="281"/>
-      <c r="KH5" s="281"/>
-      <c r="KI5" s="282"/>
-      <c r="KJ5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="KK5" s="281"/>
-      <c r="KL5" s="281"/>
-      <c r="KM5" s="281"/>
-      <c r="KN5" s="281"/>
-      <c r="KO5" s="281"/>
-      <c r="KP5" s="282"/>
-      <c r="KQ5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="KR5" s="281"/>
-      <c r="KS5" s="281"/>
-      <c r="KT5" s="281"/>
-      <c r="KU5" s="281"/>
-      <c r="KV5" s="281"/>
-      <c r="KW5" s="282"/>
-      <c r="KX5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="KY5" s="281"/>
-      <c r="KZ5" s="281"/>
-      <c r="LA5" s="281"/>
-      <c r="LB5" s="281"/>
-      <c r="LC5" s="281"/>
-      <c r="LD5" s="282"/>
-      <c r="LE5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="LF5" s="281"/>
-      <c r="LG5" s="281"/>
-      <c r="LH5" s="281"/>
-      <c r="LI5" s="281"/>
-      <c r="LJ5" s="281"/>
-      <c r="LK5" s="282"/>
-      <c r="LL5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="LM5" s="281"/>
-      <c r="LN5" s="281"/>
-      <c r="LO5" s="281"/>
-      <c r="LP5" s="281"/>
-      <c r="LQ5" s="281"/>
-      <c r="LR5" s="282"/>
-      <c r="LS5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="LT5" s="281"/>
-      <c r="LU5" s="281"/>
-      <c r="LV5" s="281"/>
-      <c r="LW5" s="281"/>
-      <c r="LX5" s="281"/>
-      <c r="LY5" s="282"/>
-      <c r="LZ5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="MA5" s="281"/>
-      <c r="MB5" s="281"/>
-      <c r="MC5" s="281"/>
-      <c r="MD5" s="281"/>
-      <c r="ME5" s="281"/>
-      <c r="MF5" s="282"/>
-      <c r="MG5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="MH5" s="281"/>
-      <c r="MI5" s="281"/>
-      <c r="MJ5" s="281"/>
-      <c r="MK5" s="281"/>
-      <c r="ML5" s="281"/>
-      <c r="MM5" s="282"/>
-      <c r="MN5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="MO5" s="281"/>
-      <c r="MP5" s="281"/>
-      <c r="MQ5" s="281"/>
-      <c r="MR5" s="281"/>
-      <c r="MS5" s="281"/>
-      <c r="MT5" s="282"/>
-      <c r="MU5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="MV5" s="281"/>
-      <c r="MW5" s="281"/>
-      <c r="MX5" s="281"/>
-      <c r="MY5" s="281"/>
-      <c r="MZ5" s="281"/>
-      <c r="NA5" s="282"/>
-      <c r="NB5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="NC5" s="281"/>
-      <c r="ND5" s="281"/>
-      <c r="NE5" s="281"/>
-      <c r="NF5" s="281"/>
-      <c r="NG5" s="281"/>
-      <c r="NH5" s="282"/>
-      <c r="NI5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="NJ5" s="281"/>
-      <c r="NK5" s="281"/>
-      <c r="NL5" s="281"/>
-      <c r="NM5" s="281"/>
-      <c r="NN5" s="281"/>
-      <c r="NO5" s="282"/>
-      <c r="NP5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="NQ5" s="281"/>
-      <c r="NR5" s="281"/>
-      <c r="NS5" s="281"/>
-      <c r="NT5" s="281"/>
-      <c r="NU5" s="281"/>
-      <c r="NV5" s="282"/>
-      <c r="NW5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="NX5" s="281"/>
-      <c r="NY5" s="281"/>
-      <c r="NZ5" s="281"/>
-      <c r="OA5" s="281"/>
-      <c r="OB5" s="281"/>
-      <c r="OC5" s="282"/>
-      <c r="OD5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="OE5" s="281"/>
-      <c r="OF5" s="281"/>
-      <c r="OG5" s="281"/>
-      <c r="OH5" s="281"/>
-      <c r="OI5" s="281"/>
-      <c r="OJ5" s="282"/>
-      <c r="OK5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="OL5" s="281"/>
-      <c r="OM5" s="281"/>
-      <c r="ON5" s="281"/>
-      <c r="OO5" s="281"/>
-      <c r="OP5" s="281"/>
-      <c r="OQ5" s="282"/>
-      <c r="OR5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="OS5" s="281"/>
-      <c r="OT5" s="281"/>
-      <c r="OU5" s="281"/>
-      <c r="OV5" s="281"/>
-      <c r="OW5" s="281"/>
-      <c r="OX5" s="282"/>
-      <c r="OY5" s="346" t="s">
-        <v>187</v>
-      </c>
-      <c r="OZ5" s="347"/>
-      <c r="PA5" s="347"/>
-      <c r="PB5" s="347"/>
-      <c r="PC5" s="347"/>
-      <c r="PD5" s="347"/>
-      <c r="PE5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="PF5" s="281"/>
-      <c r="PG5" s="281"/>
-      <c r="PH5" s="281"/>
-      <c r="PI5" s="281"/>
-      <c r="PJ5" s="281"/>
-      <c r="PK5" s="282"/>
-      <c r="PL5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="PM5" s="281"/>
-      <c r="PN5" s="281"/>
-      <c r="PO5" s="281"/>
-      <c r="PP5" s="281"/>
-      <c r="PQ5" s="281"/>
-      <c r="PR5" s="282"/>
-      <c r="PS5" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="PT5" s="281"/>
-      <c r="PU5" s="281"/>
-      <c r="PV5" s="281"/>
-      <c r="PW5" s="281"/>
-      <c r="PX5" s="281"/>
-      <c r="PY5" s="282"/>
-      <c r="PZ5" s="280"/>
-      <c r="QA5" s="281"/>
-      <c r="QB5" s="281"/>
-      <c r="QC5" s="281"/>
-      <c r="QD5" s="281"/>
-      <c r="QE5" s="281"/>
-      <c r="QF5" s="282"/>
-      <c r="QG5" s="280"/>
-      <c r="QH5" s="281"/>
-      <c r="QI5" s="281"/>
-      <c r="QJ5" s="281"/>
-      <c r="QK5" s="281"/>
-      <c r="QL5" s="281"/>
-      <c r="QM5" s="282"/>
-      <c r="QN5" s="280"/>
-      <c r="QO5" s="281"/>
-      <c r="QP5" s="281"/>
-      <c r="QQ5" s="281"/>
-      <c r="QR5" s="281"/>
-      <c r="QS5" s="281"/>
-      <c r="QT5" s="282"/>
-      <c r="QU5" s="280"/>
-      <c r="QV5" s="281"/>
-      <c r="QW5" s="281"/>
-      <c r="QX5" s="281"/>
-      <c r="QY5" s="281"/>
-      <c r="QZ5" s="281"/>
-      <c r="RA5" s="282"/>
-      <c r="RB5" s="280"/>
-      <c r="RC5" s="281"/>
-      <c r="RD5" s="281"/>
-      <c r="RE5" s="281"/>
-      <c r="RF5" s="281"/>
-      <c r="RG5" s="281"/>
-      <c r="RH5" s="282"/>
-      <c r="RI5" s="280"/>
-      <c r="RJ5" s="281"/>
-      <c r="RK5" s="281"/>
-      <c r="RL5" s="281"/>
-      <c r="RM5" s="281"/>
-      <c r="RN5" s="281"/>
-      <c r="RO5" s="282"/>
-      <c r="RP5" s="280"/>
-      <c r="RQ5" s="281"/>
-      <c r="RR5" s="281"/>
-      <c r="RS5" s="281"/>
-      <c r="RT5" s="281"/>
-      <c r="RU5" s="281"/>
-      <c r="RV5" s="282"/>
-      <c r="RW5" s="280"/>
-      <c r="RX5" s="281"/>
-      <c r="RY5" s="281"/>
-      <c r="RZ5" s="281"/>
-      <c r="SA5" s="281"/>
-      <c r="SB5" s="281"/>
-      <c r="SC5" s="282"/>
+      <c r="HZ5" s="282"/>
+      <c r="IA5" s="282"/>
+      <c r="IB5" s="282"/>
+      <c r="IC5" s="282"/>
+      <c r="ID5" s="282"/>
+      <c r="IE5" s="283"/>
+      <c r="IF5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IG5" s="282"/>
+      <c r="IH5" s="282"/>
+      <c r="II5" s="282"/>
+      <c r="IJ5" s="282"/>
+      <c r="IK5" s="282"/>
+      <c r="IL5" s="283"/>
+      <c r="IM5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IN5" s="282"/>
+      <c r="IO5" s="282"/>
+      <c r="IP5" s="282"/>
+      <c r="IQ5" s="282"/>
+      <c r="IR5" s="282"/>
+      <c r="IS5" s="283"/>
+      <c r="IT5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="IU5" s="282"/>
+      <c r="IV5" s="282"/>
+      <c r="IW5" s="282"/>
+      <c r="IX5" s="282"/>
+      <c r="IY5" s="282"/>
+      <c r="IZ5" s="283"/>
+      <c r="JA5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JB5" s="282"/>
+      <c r="JC5" s="282"/>
+      <c r="JD5" s="282"/>
+      <c r="JE5" s="282"/>
+      <c r="JF5" s="282"/>
+      <c r="JG5" s="283"/>
+      <c r="JH5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JI5" s="282"/>
+      <c r="JJ5" s="282"/>
+      <c r="JK5" s="282"/>
+      <c r="JL5" s="282"/>
+      <c r="JM5" s="282"/>
+      <c r="JN5" s="283"/>
+      <c r="JO5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JP5" s="282"/>
+      <c r="JQ5" s="282"/>
+      <c r="JR5" s="282"/>
+      <c r="JS5" s="282"/>
+      <c r="JT5" s="282"/>
+      <c r="JU5" s="283"/>
+      <c r="JV5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="JW5" s="282"/>
+      <c r="JX5" s="282"/>
+      <c r="JY5" s="282"/>
+      <c r="JZ5" s="282"/>
+      <c r="KA5" s="282"/>
+      <c r="KB5" s="283"/>
+      <c r="KC5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KD5" s="282"/>
+      <c r="KE5" s="282"/>
+      <c r="KF5" s="282"/>
+      <c r="KG5" s="282"/>
+      <c r="KH5" s="282"/>
+      <c r="KI5" s="283"/>
+      <c r="KJ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KK5" s="282"/>
+      <c r="KL5" s="282"/>
+      <c r="KM5" s="282"/>
+      <c r="KN5" s="282"/>
+      <c r="KO5" s="282"/>
+      <c r="KP5" s="283"/>
+      <c r="KQ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KR5" s="282"/>
+      <c r="KS5" s="282"/>
+      <c r="KT5" s="282"/>
+      <c r="KU5" s="282"/>
+      <c r="KV5" s="282"/>
+      <c r="KW5" s="283"/>
+      <c r="KX5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="KY5" s="282"/>
+      <c r="KZ5" s="282"/>
+      <c r="LA5" s="282"/>
+      <c r="LB5" s="282"/>
+      <c r="LC5" s="282"/>
+      <c r="LD5" s="283"/>
+      <c r="LE5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LF5" s="282"/>
+      <c r="LG5" s="282"/>
+      <c r="LH5" s="282"/>
+      <c r="LI5" s="282"/>
+      <c r="LJ5" s="282"/>
+      <c r="LK5" s="283"/>
+      <c r="LL5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LM5" s="282"/>
+      <c r="LN5" s="282"/>
+      <c r="LO5" s="282"/>
+      <c r="LP5" s="282"/>
+      <c r="LQ5" s="282"/>
+      <c r="LR5" s="283"/>
+      <c r="LS5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="LT5" s="282"/>
+      <c r="LU5" s="282"/>
+      <c r="LV5" s="282"/>
+      <c r="LW5" s="282"/>
+      <c r="LX5" s="282"/>
+      <c r="LY5" s="283"/>
+      <c r="LZ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MA5" s="282"/>
+      <c r="MB5" s="282"/>
+      <c r="MC5" s="282"/>
+      <c r="MD5" s="282"/>
+      <c r="ME5" s="282"/>
+      <c r="MF5" s="283"/>
+      <c r="MG5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MH5" s="282"/>
+      <c r="MI5" s="282"/>
+      <c r="MJ5" s="282"/>
+      <c r="MK5" s="282"/>
+      <c r="ML5" s="282"/>
+      <c r="MM5" s="283"/>
+      <c r="MN5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MO5" s="282"/>
+      <c r="MP5" s="282"/>
+      <c r="MQ5" s="282"/>
+      <c r="MR5" s="282"/>
+      <c r="MS5" s="282"/>
+      <c r="MT5" s="283"/>
+      <c r="MU5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="MV5" s="282"/>
+      <c r="MW5" s="282"/>
+      <c r="MX5" s="282"/>
+      <c r="MY5" s="282"/>
+      <c r="MZ5" s="282"/>
+      <c r="NA5" s="283"/>
+      <c r="NB5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NC5" s="282"/>
+      <c r="ND5" s="282"/>
+      <c r="NE5" s="282"/>
+      <c r="NF5" s="282"/>
+      <c r="NG5" s="282"/>
+      <c r="NH5" s="283"/>
+      <c r="NI5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NJ5" s="282"/>
+      <c r="NK5" s="282"/>
+      <c r="NL5" s="282"/>
+      <c r="NM5" s="282"/>
+      <c r="NN5" s="282"/>
+      <c r="NO5" s="283"/>
+      <c r="NP5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NQ5" s="282"/>
+      <c r="NR5" s="282"/>
+      <c r="NS5" s="282"/>
+      <c r="NT5" s="282"/>
+      <c r="NU5" s="282"/>
+      <c r="NV5" s="283"/>
+      <c r="NW5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="NX5" s="282"/>
+      <c r="NY5" s="282"/>
+      <c r="NZ5" s="282"/>
+      <c r="OA5" s="282"/>
+      <c r="OB5" s="282"/>
+      <c r="OC5" s="283"/>
+      <c r="OD5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OE5" s="282"/>
+      <c r="OF5" s="282"/>
+      <c r="OG5" s="282"/>
+      <c r="OH5" s="282"/>
+      <c r="OI5" s="282"/>
+      <c r="OJ5" s="283"/>
+      <c r="OK5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OL5" s="282"/>
+      <c r="OM5" s="282"/>
+      <c r="ON5" s="282"/>
+      <c r="OO5" s="282"/>
+      <c r="OP5" s="282"/>
+      <c r="OQ5" s="283"/>
+      <c r="OR5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="OS5" s="282"/>
+      <c r="OT5" s="282"/>
+      <c r="OU5" s="282"/>
+      <c r="OV5" s="282"/>
+      <c r="OW5" s="282"/>
+      <c r="OX5" s="283"/>
+      <c r="OY5" s="347" t="s">
+        <v>187</v>
+      </c>
+      <c r="OZ5" s="348"/>
+      <c r="PA5" s="348"/>
+      <c r="PB5" s="348"/>
+      <c r="PC5" s="348"/>
+      <c r="PD5" s="348"/>
+      <c r="PE5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="PF5" s="282"/>
+      <c r="PG5" s="282"/>
+      <c r="PH5" s="282"/>
+      <c r="PI5" s="282"/>
+      <c r="PJ5" s="282"/>
+      <c r="PK5" s="283"/>
+      <c r="PL5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="PM5" s="282"/>
+      <c r="PN5" s="282"/>
+      <c r="PO5" s="282"/>
+      <c r="PP5" s="282"/>
+      <c r="PQ5" s="282"/>
+      <c r="PR5" s="283"/>
+      <c r="PS5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="PT5" s="282"/>
+      <c r="PU5" s="282"/>
+      <c r="PV5" s="282"/>
+      <c r="PW5" s="282"/>
+      <c r="PX5" s="282"/>
+      <c r="PY5" s="283"/>
+      <c r="PZ5" s="281" t="s">
+        <v>187</v>
+      </c>
+      <c r="QA5" s="282"/>
+      <c r="QB5" s="282"/>
+      <c r="QC5" s="282"/>
+      <c r="QD5" s="282"/>
+      <c r="QE5" s="282"/>
+      <c r="QF5" s="283"/>
+      <c r="QG5" s="281"/>
+      <c r="QH5" s="282"/>
+      <c r="QI5" s="282"/>
+      <c r="QJ5" s="282"/>
+      <c r="QK5" s="282"/>
+      <c r="QL5" s="282"/>
+      <c r="QM5" s="283"/>
+      <c r="QN5" s="281"/>
+      <c r="QO5" s="282"/>
+      <c r="QP5" s="282"/>
+      <c r="QQ5" s="282"/>
+      <c r="QR5" s="282"/>
+      <c r="QS5" s="282"/>
+      <c r="QT5" s="283"/>
+      <c r="QU5" s="281"/>
+      <c r="QV5" s="282"/>
+      <c r="QW5" s="282"/>
+      <c r="QX5" s="282"/>
+      <c r="QY5" s="282"/>
+      <c r="QZ5" s="282"/>
+      <c r="RA5" s="283"/>
+      <c r="RB5" s="281"/>
+      <c r="RC5" s="282"/>
+      <c r="RD5" s="282"/>
+      <c r="RE5" s="282"/>
+      <c r="RF5" s="282"/>
+      <c r="RG5" s="282"/>
+      <c r="RH5" s="283"/>
+      <c r="RI5" s="281"/>
+      <c r="RJ5" s="282"/>
+      <c r="RK5" s="282"/>
+      <c r="RL5" s="282"/>
+      <c r="RM5" s="282"/>
+      <c r="RN5" s="282"/>
+      <c r="RO5" s="283"/>
+      <c r="RP5" s="281"/>
+      <c r="RQ5" s="282"/>
+      <c r="RR5" s="282"/>
+      <c r="RS5" s="282"/>
+      <c r="RT5" s="282"/>
+      <c r="RU5" s="282"/>
+      <c r="RV5" s="283"/>
+      <c r="RW5" s="281"/>
+      <c r="RX5" s="282"/>
+      <c r="RY5" s="282"/>
+      <c r="RZ5" s="282"/>
+      <c r="SA5" s="282"/>
+      <c r="SB5" s="282"/>
+      <c r="SC5" s="283"/>
     </row>
     <row r="6" spans="1:497" ht="43.5" customHeight="1">
       <c r="A6" s="148" t="s">
@@ -12156,8 +12014,12 @@
       <c r="QD6" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE6" s="125"/>
-      <c r="QF6" s="125"/>
+      <c r="QE6" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF6" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG6" s="125"/>
       <c r="QH6" s="125"/>
       <c r="QI6" s="125"/>
@@ -12836,8 +12698,12 @@
       <c r="QD7" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE7" s="125"/>
-      <c r="QF7" s="125"/>
+      <c r="QE7" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF7" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG7" s="125"/>
       <c r="QH7" s="125"/>
       <c r="QI7" s="125"/>
@@ -12870,7 +12736,7 @@
         <v>152</v>
       </c>
       <c r="B8" s="276" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>137</v>
@@ -13730,8 +13596,12 @@
       <c r="QD8" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE8" s="125"/>
-      <c r="QF8" s="125"/>
+      <c r="QE8" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF8" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG8" s="125"/>
       <c r="QH8" s="125"/>
       <c r="QI8" s="125"/>
@@ -14546,8 +14416,12 @@
       <c r="QD9" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE9" s="125"/>
-      <c r="QF9" s="125"/>
+      <c r="QE9" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF9" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG9" s="125"/>
       <c r="QH9" s="125"/>
       <c r="QI9" s="125"/>
@@ -15184,8 +15058,12 @@
       <c r="QD10" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE10" s="125"/>
-      <c r="QF10" s="125"/>
+      <c r="QE10" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF10" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG10" s="125"/>
       <c r="QH10" s="125"/>
       <c r="QI10" s="125"/>
@@ -15685,8 +15563,12 @@
       <c r="QD11" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE11" s="125"/>
-      <c r="QF11" s="125"/>
+      <c r="QE11" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF11" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG11" s="125"/>
       <c r="QH11" s="125"/>
       <c r="QI11" s="125"/>
@@ -16147,8 +16029,12 @@
       <c r="QD12" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QE12" s="125"/>
-      <c r="QF12" s="125"/>
+      <c r="QE12" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF12" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG12" s="125"/>
       <c r="QH12" s="125"/>
       <c r="QI12" s="125"/>
@@ -16919,8 +16805,12 @@
       </c>
       <c r="QC13" s="156"/>
       <c r="QD13" s="156"/>
-      <c r="QE13" s="125"/>
-      <c r="QF13" s="125"/>
+      <c r="QE13" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF13" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG13" s="125"/>
       <c r="QH13" s="125"/>
       <c r="QI13" s="125"/>
@@ -17773,8 +17663,12 @@
       </c>
       <c r="QC14" s="156"/>
       <c r="QD14" s="156"/>
-      <c r="QE14" s="125"/>
-      <c r="QF14" s="125"/>
+      <c r="QE14" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QF14" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QG14" s="125"/>
       <c r="QH14" s="125"/>
       <c r="QI14" s="125"/>
@@ -17812,583 +17706,583 @@
       <c r="C15" s="229" t="s">
         <v>328</v>
       </c>
-      <c r="D15" s="331" t="s">
+      <c r="D15" s="332" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="331"/>
-      <c r="F15" s="331"/>
-      <c r="G15" s="331"/>
-      <c r="H15" s="331"/>
-      <c r="I15" s="331"/>
-      <c r="J15" s="331"/>
-      <c r="K15" s="331" t="s">
+      <c r="E15" s="332"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="332"/>
+      <c r="J15" s="332"/>
+      <c r="K15" s="332" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="331" t="s">
+      <c r="L15" s="332"/>
+      <c r="M15" s="332"/>
+      <c r="N15" s="332"/>
+      <c r="O15" s="332"/>
+      <c r="P15" s="332"/>
+      <c r="Q15" s="332"/>
+      <c r="R15" s="332" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="331"/>
-      <c r="T15" s="331"/>
-      <c r="U15" s="331"/>
-      <c r="V15" s="331"/>
-      <c r="W15" s="331"/>
-      <c r="X15" s="331"/>
-      <c r="Y15" s="330" t="s">
+      <c r="S15" s="332"/>
+      <c r="T15" s="332"/>
+      <c r="U15" s="332"/>
+      <c r="V15" s="332"/>
+      <c r="W15" s="332"/>
+      <c r="X15" s="332"/>
+      <c r="Y15" s="331" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="331"/>
-      <c r="AA15" s="331"/>
-      <c r="AB15" s="331"/>
-      <c r="AC15" s="331"/>
-      <c r="AD15" s="331"/>
-      <c r="AE15" s="331"/>
-      <c r="AF15" s="330" t="s">
+      <c r="Z15" s="332"/>
+      <c r="AA15" s="332"/>
+      <c r="AB15" s="332"/>
+      <c r="AC15" s="332"/>
+      <c r="AD15" s="332"/>
+      <c r="AE15" s="332"/>
+      <c r="AF15" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="AG15" s="331"/>
-      <c r="AH15" s="331"/>
-      <c r="AI15" s="331"/>
-      <c r="AJ15" s="331"/>
-      <c r="AK15" s="331"/>
-      <c r="AL15" s="331"/>
-      <c r="AM15" s="330" t="s">
+      <c r="AG15" s="332"/>
+      <c r="AH15" s="332"/>
+      <c r="AI15" s="332"/>
+      <c r="AJ15" s="332"/>
+      <c r="AK15" s="332"/>
+      <c r="AL15" s="332"/>
+      <c r="AM15" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="AN15" s="331"/>
-      <c r="AO15" s="331"/>
-      <c r="AP15" s="331"/>
-      <c r="AQ15" s="331"/>
-      <c r="AR15" s="331"/>
-      <c r="AS15" s="331"/>
-      <c r="AT15" s="330" t="s">
+      <c r="AN15" s="332"/>
+      <c r="AO15" s="332"/>
+      <c r="AP15" s="332"/>
+      <c r="AQ15" s="332"/>
+      <c r="AR15" s="332"/>
+      <c r="AS15" s="332"/>
+      <c r="AT15" s="331" t="s">
         <v>52</v>
       </c>
-      <c r="AU15" s="331"/>
-      <c r="AV15" s="331"/>
-      <c r="AW15" s="331"/>
-      <c r="AX15" s="331"/>
-      <c r="AY15" s="331"/>
-      <c r="AZ15" s="331"/>
-      <c r="BA15" s="330" t="s">
+      <c r="AU15" s="332"/>
+      <c r="AV15" s="332"/>
+      <c r="AW15" s="332"/>
+      <c r="AX15" s="332"/>
+      <c r="AY15" s="332"/>
+      <c r="AZ15" s="332"/>
+      <c r="BA15" s="331" t="s">
         <v>58</v>
       </c>
-      <c r="BB15" s="331"/>
-      <c r="BC15" s="331"/>
-      <c r="BD15" s="331"/>
-      <c r="BE15" s="331"/>
-      <c r="BF15" s="331"/>
-      <c r="BG15" s="331"/>
-      <c r="BH15" s="330" t="s">
+      <c r="BB15" s="332"/>
+      <c r="BC15" s="332"/>
+      <c r="BD15" s="332"/>
+      <c r="BE15" s="332"/>
+      <c r="BF15" s="332"/>
+      <c r="BG15" s="332"/>
+      <c r="BH15" s="331" t="s">
         <v>93</v>
       </c>
-      <c r="BI15" s="331"/>
-      <c r="BJ15" s="331"/>
-      <c r="BK15" s="331"/>
-      <c r="BL15" s="331"/>
-      <c r="BM15" s="331"/>
-      <c r="BN15" s="331"/>
-      <c r="BO15" s="330" t="s">
+      <c r="BI15" s="332"/>
+      <c r="BJ15" s="332"/>
+      <c r="BK15" s="332"/>
+      <c r="BL15" s="332"/>
+      <c r="BM15" s="332"/>
+      <c r="BN15" s="332"/>
+      <c r="BO15" s="331" t="s">
         <v>73</v>
       </c>
-      <c r="BP15" s="331"/>
-      <c r="BQ15" s="331"/>
-      <c r="BR15" s="331"/>
-      <c r="BS15" s="331"/>
-      <c r="BT15" s="331"/>
-      <c r="BU15" s="331"/>
-      <c r="BV15" s="330" t="s">
+      <c r="BP15" s="332"/>
+      <c r="BQ15" s="332"/>
+      <c r="BR15" s="332"/>
+      <c r="BS15" s="332"/>
+      <c r="BT15" s="332"/>
+      <c r="BU15" s="332"/>
+      <c r="BV15" s="331" t="s">
         <v>0</v>
       </c>
-      <c r="BW15" s="331"/>
-      <c r="BX15" s="331"/>
-      <c r="BY15" s="331"/>
-      <c r="BZ15" s="331"/>
-      <c r="CA15" s="331"/>
-      <c r="CB15" s="331"/>
-      <c r="CC15" s="330" t="s">
+      <c r="BW15" s="332"/>
+      <c r="BX15" s="332"/>
+      <c r="BY15" s="332"/>
+      <c r="BZ15" s="332"/>
+      <c r="CA15" s="332"/>
+      <c r="CB15" s="332"/>
+      <c r="CC15" s="331" t="s">
         <v>74</v>
       </c>
-      <c r="CD15" s="331"/>
-      <c r="CE15" s="331"/>
-      <c r="CF15" s="331"/>
-      <c r="CG15" s="331"/>
-      <c r="CH15" s="331"/>
-      <c r="CI15" s="331"/>
-      <c r="CJ15" s="330" t="s">
+      <c r="CD15" s="332"/>
+      <c r="CE15" s="332"/>
+      <c r="CF15" s="332"/>
+      <c r="CG15" s="332"/>
+      <c r="CH15" s="332"/>
+      <c r="CI15" s="332"/>
+      <c r="CJ15" s="331" t="s">
         <v>17</v>
       </c>
-      <c r="CK15" s="331"/>
-      <c r="CL15" s="331"/>
-      <c r="CM15" s="331"/>
-      <c r="CN15" s="331"/>
-      <c r="CO15" s="331"/>
-      <c r="CP15" s="331"/>
-      <c r="CQ15" s="330" t="s">
+      <c r="CK15" s="332"/>
+      <c r="CL15" s="332"/>
+      <c r="CM15" s="332"/>
+      <c r="CN15" s="332"/>
+      <c r="CO15" s="332"/>
+      <c r="CP15" s="332"/>
+      <c r="CQ15" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="CR15" s="331"/>
-      <c r="CS15" s="331"/>
-      <c r="CT15" s="331"/>
-      <c r="CU15" s="331"/>
-      <c r="CV15" s="331"/>
-      <c r="CW15" s="331"/>
-      <c r="CX15" s="330" t="s">
+      <c r="CR15" s="332"/>
+      <c r="CS15" s="332"/>
+      <c r="CT15" s="332"/>
+      <c r="CU15" s="332"/>
+      <c r="CV15" s="332"/>
+      <c r="CW15" s="332"/>
+      <c r="CX15" s="331" t="s">
         <v>124</v>
       </c>
-      <c r="CY15" s="331"/>
-      <c r="CZ15" s="331"/>
-      <c r="DA15" s="331"/>
-      <c r="DB15" s="331"/>
-      <c r="DC15" s="331"/>
-      <c r="DD15" s="331"/>
-      <c r="DE15" s="330" t="s">
+      <c r="CY15" s="332"/>
+      <c r="CZ15" s="332"/>
+      <c r="DA15" s="332"/>
+      <c r="DB15" s="332"/>
+      <c r="DC15" s="332"/>
+      <c r="DD15" s="332"/>
+      <c r="DE15" s="331" t="s">
         <v>94</v>
       </c>
-      <c r="DF15" s="331"/>
-      <c r="DG15" s="331"/>
-      <c r="DH15" s="331"/>
-      <c r="DI15" s="331"/>
-      <c r="DJ15" s="331"/>
-      <c r="DK15" s="331"/>
-      <c r="DL15" s="330" t="s">
+      <c r="DF15" s="332"/>
+      <c r="DG15" s="332"/>
+      <c r="DH15" s="332"/>
+      <c r="DI15" s="332"/>
+      <c r="DJ15" s="332"/>
+      <c r="DK15" s="332"/>
+      <c r="DL15" s="331" t="s">
         <v>129</v>
       </c>
-      <c r="DM15" s="331"/>
-      <c r="DN15" s="331"/>
-      <c r="DO15" s="331"/>
-      <c r="DP15" s="331"/>
-      <c r="DQ15" s="331"/>
-      <c r="DR15" s="331"/>
-      <c r="DS15" s="325" t="s">
+      <c r="DM15" s="332"/>
+      <c r="DN15" s="332"/>
+      <c r="DO15" s="332"/>
+      <c r="DP15" s="332"/>
+      <c r="DQ15" s="332"/>
+      <c r="DR15" s="332"/>
+      <c r="DS15" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="DT15" s="326"/>
-      <c r="DU15" s="326"/>
-      <c r="DV15" s="326"/>
-      <c r="DW15" s="326"/>
-      <c r="DX15" s="326"/>
-      <c r="DY15" s="326"/>
-      <c r="DZ15" s="341" t="s">
+      <c r="DT15" s="327"/>
+      <c r="DU15" s="327"/>
+      <c r="DV15" s="327"/>
+      <c r="DW15" s="327"/>
+      <c r="DX15" s="327"/>
+      <c r="DY15" s="327"/>
+      <c r="DZ15" s="342" t="s">
         <v>130</v>
       </c>
-      <c r="EA15" s="342"/>
-      <c r="EB15" s="342"/>
-      <c r="EC15" s="342"/>
-      <c r="ED15" s="342"/>
-      <c r="EE15" s="342"/>
-      <c r="EF15" s="342"/>
-      <c r="EG15" s="343" t="s">
+      <c r="EA15" s="343"/>
+      <c r="EB15" s="343"/>
+      <c r="EC15" s="343"/>
+      <c r="ED15" s="343"/>
+      <c r="EE15" s="343"/>
+      <c r="EF15" s="343"/>
+      <c r="EG15" s="344" t="s">
         <v>132</v>
       </c>
-      <c r="EH15" s="342"/>
-      <c r="EI15" s="342"/>
-      <c r="EJ15" s="342"/>
-      <c r="EK15" s="342"/>
-      <c r="EL15" s="342"/>
-      <c r="EM15" s="342"/>
-      <c r="EN15" s="343" t="s">
+      <c r="EH15" s="343"/>
+      <c r="EI15" s="343"/>
+      <c r="EJ15" s="343"/>
+      <c r="EK15" s="343"/>
+      <c r="EL15" s="343"/>
+      <c r="EM15" s="343"/>
+      <c r="EN15" s="344" t="s">
         <v>133</v>
       </c>
-      <c r="EO15" s="342"/>
-      <c r="EP15" s="342"/>
-      <c r="EQ15" s="342"/>
-      <c r="ER15" s="342"/>
-      <c r="ES15" s="342"/>
-      <c r="ET15" s="342"/>
-      <c r="EU15" s="343" t="s">
+      <c r="EO15" s="343"/>
+      <c r="EP15" s="343"/>
+      <c r="EQ15" s="343"/>
+      <c r="ER15" s="343"/>
+      <c r="ES15" s="343"/>
+      <c r="ET15" s="343"/>
+      <c r="EU15" s="344" t="s">
         <v>134</v>
       </c>
-      <c r="EV15" s="342"/>
-      <c r="EW15" s="342"/>
-      <c r="EX15" s="342"/>
-      <c r="EY15" s="342"/>
-      <c r="EZ15" s="342"/>
-      <c r="FA15" s="342"/>
-      <c r="FB15" s="338" t="s">
+      <c r="EV15" s="343"/>
+      <c r="EW15" s="343"/>
+      <c r="EX15" s="343"/>
+      <c r="EY15" s="343"/>
+      <c r="EZ15" s="343"/>
+      <c r="FA15" s="343"/>
+      <c r="FB15" s="339" t="s">
         <v>145</v>
       </c>
-      <c r="FC15" s="339"/>
-      <c r="FD15" s="339"/>
-      <c r="FE15" s="339"/>
-      <c r="FF15" s="339"/>
-      <c r="FG15" s="339"/>
-      <c r="FH15" s="340"/>
-      <c r="FI15" s="318" t="s">
+      <c r="FC15" s="340"/>
+      <c r="FD15" s="340"/>
+      <c r="FE15" s="340"/>
+      <c r="FF15" s="340"/>
+      <c r="FG15" s="340"/>
+      <c r="FH15" s="341"/>
+      <c r="FI15" s="319" t="s">
         <v>143</v>
       </c>
-      <c r="FJ15" s="277"/>
-      <c r="FK15" s="277"/>
-      <c r="FL15" s="277"/>
-      <c r="FM15" s="277"/>
-      <c r="FN15" s="277"/>
-      <c r="FO15" s="337"/>
-      <c r="FP15" s="318" t="s">
+      <c r="FJ15" s="278"/>
+      <c r="FK15" s="278"/>
+      <c r="FL15" s="278"/>
+      <c r="FM15" s="278"/>
+      <c r="FN15" s="278"/>
+      <c r="FO15" s="338"/>
+      <c r="FP15" s="319" t="s">
         <v>143</v>
       </c>
-      <c r="FQ15" s="277"/>
-      <c r="FR15" s="277"/>
-      <c r="FS15" s="277"/>
-      <c r="FT15" s="277"/>
-      <c r="FU15" s="277"/>
-      <c r="FV15" s="337"/>
-      <c r="FW15" s="338" t="s">
+      <c r="FQ15" s="278"/>
+      <c r="FR15" s="278"/>
+      <c r="FS15" s="278"/>
+      <c r="FT15" s="278"/>
+      <c r="FU15" s="278"/>
+      <c r="FV15" s="338"/>
+      <c r="FW15" s="339" t="s">
         <v>144</v>
       </c>
-      <c r="FX15" s="339"/>
-      <c r="FY15" s="339"/>
-      <c r="FZ15" s="339"/>
-      <c r="GA15" s="339"/>
-      <c r="GB15" s="339"/>
-      <c r="GC15" s="340"/>
-      <c r="GD15" s="318" t="s">
+      <c r="FX15" s="340"/>
+      <c r="FY15" s="340"/>
+      <c r="FZ15" s="340"/>
+      <c r="GA15" s="340"/>
+      <c r="GB15" s="340"/>
+      <c r="GC15" s="341"/>
+      <c r="GD15" s="319" t="s">
         <v>143</v>
       </c>
-      <c r="GE15" s="277"/>
-      <c r="GF15" s="277"/>
-      <c r="GG15" s="277"/>
-      <c r="GH15" s="278"/>
-      <c r="GI15" s="278"/>
-      <c r="GJ15" s="279"/>
-      <c r="GK15" s="315" t="s">
+      <c r="GE15" s="278"/>
+      <c r="GF15" s="278"/>
+      <c r="GG15" s="278"/>
+      <c r="GH15" s="279"/>
+      <c r="GI15" s="279"/>
+      <c r="GJ15" s="280"/>
+      <c r="GK15" s="316" t="s">
         <v>225</v>
       </c>
-      <c r="GL15" s="316"/>
-      <c r="GM15" s="316"/>
-      <c r="GN15" s="316"/>
-      <c r="GO15" s="316"/>
-      <c r="GP15" s="316"/>
-      <c r="GQ15" s="317"/>
-      <c r="GR15" s="318" t="s">
+      <c r="GL15" s="317"/>
+      <c r="GM15" s="317"/>
+      <c r="GN15" s="317"/>
+      <c r="GO15" s="317"/>
+      <c r="GP15" s="317"/>
+      <c r="GQ15" s="318"/>
+      <c r="GR15" s="319" t="s">
         <v>128</v>
       </c>
-      <c r="GS15" s="277"/>
-      <c r="GT15" s="277"/>
-      <c r="GU15" s="277"/>
-      <c r="GV15" s="278"/>
-      <c r="GW15" s="278"/>
-      <c r="GX15" s="279"/>
-      <c r="GY15" s="318" t="s">
+      <c r="GS15" s="278"/>
+      <c r="GT15" s="278"/>
+      <c r="GU15" s="278"/>
+      <c r="GV15" s="279"/>
+      <c r="GW15" s="279"/>
+      <c r="GX15" s="280"/>
+      <c r="GY15" s="319" t="s">
         <v>128</v>
       </c>
-      <c r="GZ15" s="277"/>
-      <c r="HA15" s="277"/>
-      <c r="HB15" s="277"/>
-      <c r="HC15" s="278"/>
-      <c r="HD15" s="278"/>
-      <c r="HE15" s="279"/>
-      <c r="HF15" s="319" t="s">
+      <c r="GZ15" s="278"/>
+      <c r="HA15" s="278"/>
+      <c r="HB15" s="278"/>
+      <c r="HC15" s="279"/>
+      <c r="HD15" s="279"/>
+      <c r="HE15" s="280"/>
+      <c r="HF15" s="320" t="s">
         <v>238</v>
       </c>
-      <c r="HG15" s="278"/>
-      <c r="HH15" s="278"/>
-      <c r="HI15" s="278"/>
-      <c r="HJ15" s="278"/>
-      <c r="HK15" s="278"/>
-      <c r="HL15" s="279"/>
-      <c r="HM15" s="285" t="s">
+      <c r="HG15" s="279"/>
+      <c r="HH15" s="279"/>
+      <c r="HI15" s="279"/>
+      <c r="HJ15" s="279"/>
+      <c r="HK15" s="279"/>
+      <c r="HL15" s="280"/>
+      <c r="HM15" s="286" t="s">
         <v>227</v>
       </c>
-      <c r="HN15" s="278"/>
-      <c r="HO15" s="278"/>
-      <c r="HP15" s="278"/>
-      <c r="HQ15" s="278"/>
-      <c r="HR15" s="278"/>
-      <c r="HS15" s="279"/>
+      <c r="HN15" s="279"/>
+      <c r="HO15" s="279"/>
+      <c r="HP15" s="279"/>
+      <c r="HQ15" s="279"/>
+      <c r="HR15" s="279"/>
+      <c r="HS15" s="280"/>
       <c r="HT15" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="HU15" s="277"/>
-      <c r="HV15" s="277"/>
-      <c r="HW15" s="277"/>
-      <c r="HX15" s="278"/>
-      <c r="HY15" s="278"/>
-      <c r="HZ15" s="279"/>
-      <c r="IA15" s="308" t="s">
+      <c r="HU15" s="278"/>
+      <c r="HV15" s="278"/>
+      <c r="HW15" s="278"/>
+      <c r="HX15" s="279"/>
+      <c r="HY15" s="279"/>
+      <c r="HZ15" s="280"/>
+      <c r="IA15" s="309" t="s">
         <v>255</v>
       </c>
-      <c r="IB15" s="277"/>
-      <c r="IC15" s="277"/>
-      <c r="ID15" s="277"/>
-      <c r="IE15" s="278"/>
-      <c r="IF15" s="278"/>
-      <c r="IG15" s="279"/>
+      <c r="IB15" s="278"/>
+      <c r="IC15" s="278"/>
+      <c r="ID15" s="278"/>
+      <c r="IE15" s="279"/>
+      <c r="IF15" s="279"/>
+      <c r="IG15" s="280"/>
       <c r="IH15" s="3"/>
-      <c r="II15" s="286"/>
-      <c r="IJ15" s="286"/>
-      <c r="IK15" s="286"/>
-      <c r="IL15" s="287"/>
-      <c r="IM15" s="287"/>
-      <c r="IN15" s="288"/>
+      <c r="II15" s="287"/>
+      <c r="IJ15" s="287"/>
+      <c r="IK15" s="287"/>
+      <c r="IL15" s="288"/>
+      <c r="IM15" s="288"/>
+      <c r="IN15" s="289"/>
       <c r="IO15" s="3"/>
-      <c r="IP15" s="286"/>
-      <c r="IQ15" s="286"/>
-      <c r="IR15" s="286"/>
-      <c r="IS15" s="287"/>
-      <c r="IT15" s="287"/>
-      <c r="IU15" s="288"/>
+      <c r="IP15" s="287"/>
+      <c r="IQ15" s="287"/>
+      <c r="IR15" s="287"/>
+      <c r="IS15" s="288"/>
+      <c r="IT15" s="288"/>
+      <c r="IU15" s="289"/>
       <c r="IV15" s="3"/>
-      <c r="IW15" s="286"/>
-      <c r="IX15" s="286"/>
-      <c r="IY15" s="286"/>
-      <c r="IZ15" s="287"/>
-      <c r="JA15" s="287"/>
-      <c r="JB15" s="288"/>
+      <c r="IW15" s="287"/>
+      <c r="IX15" s="287"/>
+      <c r="IY15" s="287"/>
+      <c r="IZ15" s="288"/>
+      <c r="JA15" s="288"/>
+      <c r="JB15" s="289"/>
       <c r="JC15" s="3"/>
-      <c r="JD15" s="286"/>
-      <c r="JE15" s="286"/>
-      <c r="JF15" s="286"/>
-      <c r="JG15" s="287"/>
-      <c r="JH15" s="287"/>
-      <c r="JI15" s="288"/>
+      <c r="JD15" s="287"/>
+      <c r="JE15" s="287"/>
+      <c r="JF15" s="287"/>
+      <c r="JG15" s="288"/>
+      <c r="JH15" s="288"/>
+      <c r="JI15" s="289"/>
       <c r="JJ15" s="3"/>
-      <c r="JK15" s="286"/>
-      <c r="JL15" s="286"/>
-      <c r="JM15" s="286"/>
-      <c r="JN15" s="287"/>
-      <c r="JO15" s="287"/>
-      <c r="JP15" s="288"/>
+      <c r="JK15" s="287"/>
+      <c r="JL15" s="287"/>
+      <c r="JM15" s="287"/>
+      <c r="JN15" s="288"/>
+      <c r="JO15" s="288"/>
+      <c r="JP15" s="289"/>
       <c r="JQ15" s="3"/>
-      <c r="JR15" s="286"/>
-      <c r="JS15" s="286"/>
-      <c r="JT15" s="286"/>
-      <c r="JU15" s="287"/>
-      <c r="JV15" s="287"/>
-      <c r="JW15" s="288"/>
+      <c r="JR15" s="287"/>
+      <c r="JS15" s="287"/>
+      <c r="JT15" s="287"/>
+      <c r="JU15" s="288"/>
+      <c r="JV15" s="288"/>
+      <c r="JW15" s="289"/>
       <c r="JX15" s="3"/>
-      <c r="JY15" s="286"/>
-      <c r="JZ15" s="286"/>
-      <c r="KA15" s="286"/>
-      <c r="KB15" s="287"/>
-      <c r="KC15" s="287"/>
-      <c r="KD15" s="288"/>
+      <c r="JY15" s="287"/>
+      <c r="JZ15" s="287"/>
+      <c r="KA15" s="287"/>
+      <c r="KB15" s="288"/>
+      <c r="KC15" s="288"/>
+      <c r="KD15" s="289"/>
       <c r="KE15" s="3"/>
-      <c r="KF15" s="286"/>
-      <c r="KG15" s="286"/>
-      <c r="KH15" s="286"/>
-      <c r="KI15" s="287"/>
-      <c r="KJ15" s="287"/>
-      <c r="KK15" s="288"/>
-      <c r="KL15" s="297" t="s">
+      <c r="KF15" s="287"/>
+      <c r="KG15" s="287"/>
+      <c r="KH15" s="287"/>
+      <c r="KI15" s="288"/>
+      <c r="KJ15" s="288"/>
+      <c r="KK15" s="289"/>
+      <c r="KL15" s="298" t="s">
         <v>303</v>
       </c>
-      <c r="KM15" s="298"/>
-      <c r="KN15" s="298"/>
-      <c r="KO15" s="298"/>
-      <c r="KP15" s="298"/>
-      <c r="KQ15" s="298"/>
-      <c r="KR15" s="299"/>
+      <c r="KM15" s="299"/>
+      <c r="KN15" s="299"/>
+      <c r="KO15" s="299"/>
+      <c r="KP15" s="299"/>
+      <c r="KQ15" s="299"/>
+      <c r="KR15" s="300"/>
       <c r="KS15" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="KT15" s="300"/>
-      <c r="KU15" s="300"/>
-      <c r="KV15" s="300"/>
-      <c r="KW15" s="301"/>
-      <c r="KX15" s="301"/>
-      <c r="KY15" s="302"/>
+      <c r="KT15" s="301"/>
+      <c r="KU15" s="301"/>
+      <c r="KV15" s="301"/>
+      <c r="KW15" s="302"/>
+      <c r="KX15" s="302"/>
+      <c r="KY15" s="303"/>
       <c r="KZ15" s="3"/>
-      <c r="LA15" s="286"/>
-      <c r="LB15" s="286"/>
-      <c r="LC15" s="286"/>
-      <c r="LD15" s="287"/>
-      <c r="LE15" s="287"/>
-      <c r="LF15" s="288"/>
+      <c r="LA15" s="287"/>
+      <c r="LB15" s="287"/>
+      <c r="LC15" s="287"/>
+      <c r="LD15" s="288"/>
+      <c r="LE15" s="288"/>
+      <c r="LF15" s="289"/>
       <c r="LG15" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="LH15" s="277"/>
-      <c r="LI15" s="277"/>
-      <c r="LJ15" s="277"/>
-      <c r="LK15" s="278"/>
-      <c r="LL15" s="278"/>
-      <c r="LM15" s="279"/>
+      <c r="LH15" s="278"/>
+      <c r="LI15" s="278"/>
+      <c r="LJ15" s="278"/>
+      <c r="LK15" s="279"/>
+      <c r="LL15" s="279"/>
+      <c r="LM15" s="280"/>
       <c r="LN15" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="LO15" s="277"/>
-      <c r="LP15" s="277"/>
-      <c r="LQ15" s="277"/>
-      <c r="LR15" s="278"/>
-      <c r="LS15" s="278"/>
-      <c r="LT15" s="279"/>
+      <c r="LO15" s="278"/>
+      <c r="LP15" s="278"/>
+      <c r="LQ15" s="278"/>
+      <c r="LR15" s="279"/>
+      <c r="LS15" s="279"/>
+      <c r="LT15" s="280"/>
       <c r="LU15" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="LV15" s="277"/>
-      <c r="LW15" s="277"/>
-      <c r="LX15" s="277"/>
-      <c r="LY15" s="278"/>
-      <c r="LZ15" s="278"/>
-      <c r="MA15" s="279"/>
-      <c r="MB15" s="310" t="s">
+      <c r="LV15" s="278"/>
+      <c r="LW15" s="278"/>
+      <c r="LX15" s="278"/>
+      <c r="LY15" s="279"/>
+      <c r="LZ15" s="279"/>
+      <c r="MA15" s="280"/>
+      <c r="MB15" s="311" t="s">
         <v>342</v>
       </c>
-      <c r="MC15" s="277"/>
-      <c r="MD15" s="277"/>
-      <c r="ME15" s="277"/>
-      <c r="MF15" s="278"/>
-      <c r="MG15" s="278"/>
-      <c r="MH15" s="279"/>
+      <c r="MC15" s="278"/>
+      <c r="MD15" s="278"/>
+      <c r="ME15" s="278"/>
+      <c r="MF15" s="279"/>
+      <c r="MG15" s="279"/>
+      <c r="MH15" s="280"/>
       <c r="MI15" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="MJ15" s="277"/>
-      <c r="MK15" s="277"/>
-      <c r="ML15" s="277"/>
-      <c r="MM15" s="278"/>
-      <c r="MN15" s="278"/>
-      <c r="MO15" s="279"/>
+      <c r="MJ15" s="278"/>
+      <c r="MK15" s="278"/>
+      <c r="ML15" s="278"/>
+      <c r="MM15" s="279"/>
+      <c r="MN15" s="279"/>
+      <c r="MO15" s="280"/>
       <c r="MP15" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="MQ15" s="277"/>
-      <c r="MR15" s="277"/>
-      <c r="MS15" s="277"/>
-      <c r="MT15" s="278"/>
-      <c r="MU15" s="278"/>
-      <c r="MV15" s="279"/>
+      <c r="MQ15" s="278"/>
+      <c r="MR15" s="278"/>
+      <c r="MS15" s="278"/>
+      <c r="MT15" s="279"/>
+      <c r="MU15" s="279"/>
+      <c r="MV15" s="280"/>
       <c r="MW15" s="3"/>
-      <c r="MX15" s="286"/>
-      <c r="MY15" s="286"/>
-      <c r="MZ15" s="286"/>
-      <c r="NA15" s="287"/>
-      <c r="NB15" s="287"/>
-      <c r="NC15" s="288"/>
+      <c r="MX15" s="287"/>
+      <c r="MY15" s="287"/>
+      <c r="MZ15" s="287"/>
+      <c r="NA15" s="288"/>
+      <c r="NB15" s="288"/>
+      <c r="NC15" s="289"/>
       <c r="ND15" s="3"/>
-      <c r="NE15" s="286"/>
-      <c r="NF15" s="286"/>
-      <c r="NG15" s="286"/>
-      <c r="NH15" s="287"/>
-      <c r="NI15" s="287"/>
-      <c r="NJ15" s="288"/>
+      <c r="NE15" s="287"/>
+      <c r="NF15" s="287"/>
+      <c r="NG15" s="287"/>
+      <c r="NH15" s="288"/>
+      <c r="NI15" s="288"/>
+      <c r="NJ15" s="289"/>
       <c r="NK15" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="NL15" s="300"/>
-      <c r="NM15" s="300"/>
-      <c r="NN15" s="300"/>
-      <c r="NO15" s="301"/>
-      <c r="NP15" s="301"/>
-      <c r="NQ15" s="302"/>
+      <c r="NL15" s="301"/>
+      <c r="NM15" s="301"/>
+      <c r="NN15" s="301"/>
+      <c r="NO15" s="302"/>
+      <c r="NP15" s="302"/>
+      <c r="NQ15" s="303"/>
       <c r="NR15" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="NS15" s="277"/>
-      <c r="NT15" s="277"/>
-      <c r="NU15" s="277"/>
-      <c r="NV15" s="278"/>
-      <c r="NW15" s="278"/>
-      <c r="NX15" s="279"/>
+      <c r="NS15" s="278"/>
+      <c r="NT15" s="278"/>
+      <c r="NU15" s="278"/>
+      <c r="NV15" s="279"/>
+      <c r="NW15" s="279"/>
+      <c r="NX15" s="280"/>
       <c r="NY15" s="3"/>
-      <c r="NZ15" s="286"/>
-      <c r="OA15" s="286"/>
-      <c r="OB15" s="286"/>
-      <c r="OC15" s="287"/>
-      <c r="OD15" s="287"/>
-      <c r="OE15" s="288"/>
-      <c r="OF15" s="310" t="s">
+      <c r="NZ15" s="287"/>
+      <c r="OA15" s="287"/>
+      <c r="OB15" s="287"/>
+      <c r="OC15" s="288"/>
+      <c r="OD15" s="288"/>
+      <c r="OE15" s="289"/>
+      <c r="OF15" s="311" t="s">
         <v>369</v>
       </c>
-      <c r="OG15" s="277"/>
-      <c r="OH15" s="277"/>
-      <c r="OI15" s="277"/>
-      <c r="OJ15" s="278"/>
-      <c r="OK15" s="278"/>
-      <c r="OL15" s="279"/>
+      <c r="OG15" s="278"/>
+      <c r="OH15" s="278"/>
+      <c r="OI15" s="278"/>
+      <c r="OJ15" s="279"/>
+      <c r="OK15" s="279"/>
+      <c r="OL15" s="280"/>
       <c r="OM15" s="3"/>
-      <c r="ON15" s="286"/>
-      <c r="OO15" s="286"/>
-      <c r="OP15" s="286"/>
-      <c r="OQ15" s="287"/>
-      <c r="OR15" s="287"/>
-      <c r="OS15" s="288"/>
+      <c r="ON15" s="287"/>
+      <c r="OO15" s="287"/>
+      <c r="OP15" s="287"/>
+      <c r="OQ15" s="288"/>
+      <c r="OR15" s="288"/>
+      <c r="OS15" s="289"/>
       <c r="OT15" s="3"/>
-      <c r="OU15" s="286"/>
-      <c r="OV15" s="286"/>
-      <c r="OW15" s="286"/>
-      <c r="OX15" s="287"/>
-      <c r="OY15" s="287"/>
-      <c r="OZ15" s="288"/>
+      <c r="OU15" s="287"/>
+      <c r="OV15" s="287"/>
+      <c r="OW15" s="287"/>
+      <c r="OX15" s="288"/>
+      <c r="OY15" s="288"/>
+      <c r="OZ15" s="289"/>
       <c r="PA15" s="3"/>
-      <c r="PB15" s="286"/>
-      <c r="PC15" s="286"/>
-      <c r="PD15" s="286"/>
-      <c r="PE15" s="287"/>
-      <c r="PF15" s="287"/>
-      <c r="PG15" s="288"/>
+      <c r="PB15" s="287"/>
+      <c r="PC15" s="287"/>
+      <c r="PD15" s="287"/>
+      <c r="PE15" s="288"/>
+      <c r="PF15" s="288"/>
+      <c r="PG15" s="289"/>
       <c r="PH15" s="3"/>
-      <c r="PI15" s="286"/>
-      <c r="PJ15" s="286"/>
-      <c r="PK15" s="286"/>
-      <c r="PL15" s="287"/>
-      <c r="PM15" s="287"/>
-      <c r="PN15" s="288"/>
+      <c r="PI15" s="287"/>
+      <c r="PJ15" s="287"/>
+      <c r="PK15" s="287"/>
+      <c r="PL15" s="288"/>
+      <c r="PM15" s="288"/>
+      <c r="PN15" s="289"/>
       <c r="PO15" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="PP15" s="277"/>
-      <c r="PQ15" s="277"/>
-      <c r="PR15" s="277"/>
-      <c r="PS15" s="278"/>
-      <c r="PT15" s="278"/>
-      <c r="PU15" s="279"/>
+      <c r="PP15" s="278"/>
+      <c r="PQ15" s="278"/>
+      <c r="PR15" s="278"/>
+      <c r="PS15" s="279"/>
+      <c r="PT15" s="279"/>
+      <c r="PU15" s="280"/>
       <c r="PV15" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="PW15" s="277"/>
-      <c r="PX15" s="277"/>
-      <c r="PY15" s="277"/>
-      <c r="PZ15" s="278"/>
-      <c r="QA15" s="278"/>
-      <c r="QB15" s="279"/>
+        <v>440</v>
+      </c>
+      <c r="PW15" s="278"/>
+      <c r="PX15" s="278"/>
+      <c r="PY15" s="278"/>
+      <c r="PZ15" s="279"/>
+      <c r="QA15" s="279"/>
+      <c r="QB15" s="280"/>
       <c r="QC15" s="3"/>
-      <c r="QD15" s="277"/>
-      <c r="QE15" s="277"/>
-      <c r="QF15" s="277"/>
-      <c r="QG15" s="278"/>
-      <c r="QH15" s="278"/>
-      <c r="QI15" s="279"/>
+      <c r="QD15" s="278"/>
+      <c r="QE15" s="278"/>
+      <c r="QF15" s="278"/>
+      <c r="QG15" s="279"/>
+      <c r="QH15" s="279"/>
+      <c r="QI15" s="280"/>
       <c r="QJ15" s="3"/>
-      <c r="QK15" s="277"/>
-      <c r="QL15" s="277"/>
-      <c r="QM15" s="277"/>
-      <c r="QN15" s="278"/>
-      <c r="QO15" s="278"/>
-      <c r="QP15" s="279"/>
+      <c r="QK15" s="278"/>
+      <c r="QL15" s="278"/>
+      <c r="QM15" s="278"/>
+      <c r="QN15" s="279"/>
+      <c r="QO15" s="279"/>
+      <c r="QP15" s="280"/>
       <c r="QQ15" s="3"/>
-      <c r="QR15" s="277"/>
-      <c r="QS15" s="277"/>
-      <c r="QT15" s="277"/>
-      <c r="QU15" s="278"/>
-      <c r="QV15" s="278"/>
-      <c r="QW15" s="279"/>
+      <c r="QR15" s="278"/>
+      <c r="QS15" s="278"/>
+      <c r="QT15" s="278"/>
+      <c r="QU15" s="279"/>
+      <c r="QV15" s="279"/>
+      <c r="QW15" s="280"/>
       <c r="QX15" s="3"/>
-      <c r="QY15" s="277"/>
-      <c r="QZ15" s="277"/>
-      <c r="RA15" s="277"/>
-      <c r="RB15" s="278"/>
-      <c r="RC15" s="278"/>
-      <c r="RD15" s="279"/>
-      <c r="RE15" s="280"/>
-      <c r="RF15" s="281"/>
-      <c r="RG15" s="281"/>
-      <c r="RH15" s="281"/>
-      <c r="RI15" s="281"/>
-      <c r="RJ15" s="281"/>
-      <c r="RK15" s="282"/>
-      <c r="RL15" s="280"/>
-      <c r="RM15" s="281"/>
-      <c r="RN15" s="281"/>
-      <c r="RO15" s="281"/>
-      <c r="RP15" s="281"/>
-      <c r="RQ15" s="281"/>
-      <c r="RR15" s="282"/>
+      <c r="QY15" s="278"/>
+      <c r="QZ15" s="278"/>
+      <c r="RA15" s="278"/>
+      <c r="RB15" s="279"/>
+      <c r="RC15" s="279"/>
+      <c r="RD15" s="280"/>
+      <c r="RE15" s="281"/>
+      <c r="RF15" s="282"/>
+      <c r="RG15" s="282"/>
+      <c r="RH15" s="282"/>
+      <c r="RI15" s="282"/>
+      <c r="RJ15" s="282"/>
+      <c r="RK15" s="283"/>
+      <c r="RL15" s="281"/>
+      <c r="RM15" s="282"/>
+      <c r="RN15" s="282"/>
+      <c r="RO15" s="282"/>
+      <c r="RP15" s="282"/>
+      <c r="RQ15" s="282"/>
+      <c r="RR15" s="283"/>
     </row>
     <row r="16" spans="1:497" ht="43.5" customHeight="1">
       <c r="A16" s="148" t="s">
@@ -18900,26 +18794,30 @@
       </c>
       <c r="PV16" s="156"/>
       <c r="PW16" s="226" t="s">
+        <v>441</v>
+      </c>
+      <c r="PX16" s="226" t="s">
         <v>443</v>
       </c>
-      <c r="PX16" s="226" t="s">
-        <v>445</v>
-      </c>
       <c r="PY16" s="226" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="PZ16" s="156"/>
       <c r="QA16" s="226" t="s">
+        <v>471</v>
+      </c>
+      <c r="QB16" s="226" t="s">
         <v>474</v>
       </c>
-      <c r="QB16" s="226" t="s">
-        <v>477</v>
-      </c>
       <c r="QC16" s="226" t="s">
-        <v>479</v>
-      </c>
-      <c r="QD16" s="226"/>
-      <c r="QE16" s="226"/>
+        <v>476</v>
+      </c>
+      <c r="QD16" s="226" t="s">
+        <v>439</v>
+      </c>
+      <c r="QE16" s="226" t="s">
+        <v>478</v>
+      </c>
       <c r="QF16" s="226"/>
       <c r="QG16" s="226"/>
       <c r="QH16" s="226"/>
@@ -19710,8 +19608,8 @@
       </c>
       <c r="QB17" s="156"/>
       <c r="QC17" s="156"/>
-      <c r="QD17" s="125"/>
-      <c r="QE17" s="226"/>
+      <c r="QD17" s="156"/>
+      <c r="QE17" s="156"/>
       <c r="QF17" s="226"/>
       <c r="QG17" s="226"/>
       <c r="QH17" s="226"/>
@@ -20605,7 +20503,9 @@
       <c r="PZ19" s="127"/>
       <c r="QA19" s="127"/>
       <c r="QB19" s="127"/>
-      <c r="QC19" s="139"/>
+      <c r="QC19" s="139" t="s">
+        <v>271</v>
+      </c>
       <c r="QD19" s="126"/>
       <c r="QE19" s="127"/>
       <c r="QF19" s="127"/>
@@ -24440,8 +24340,12 @@
       <c r="QC31" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QD31" s="189"/>
-      <c r="QE31" s="189"/>
+      <c r="QD31" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QE31" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QF31" s="189"/>
       <c r="QG31" s="189"/>
       <c r="QH31" s="189"/>
@@ -24919,8 +24823,10 @@
         <v>271</v>
       </c>
       <c r="QC32" s="156"/>
-      <c r="QD32" s="189"/>
-      <c r="QE32" s="189"/>
+      <c r="QD32" s="156"/>
+      <c r="QE32" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QF32" s="189"/>
       <c r="QG32" s="189"/>
       <c r="QH32" s="189"/>
@@ -25412,8 +25318,12 @@
       <c r="QC33" s="190" t="s">
         <v>271</v>
       </c>
-      <c r="QD33" s="189"/>
-      <c r="QE33" s="189"/>
+      <c r="QD33" s="190" t="s">
+        <v>271</v>
+      </c>
+      <c r="QE33" s="190" t="s">
+        <v>271</v>
+      </c>
       <c r="QF33" s="189"/>
       <c r="QG33" s="189"/>
       <c r="QH33" s="189"/>
@@ -25976,16 +25886,12 @@
       <c r="GZ35" s="267"/>
       <c r="HF35" s="267"/>
       <c r="HG35" s="267"/>
-      <c r="QC35" s="158" t="s">
-        <v>440</v>
-      </c>
+      <c r="QC35" s="158"/>
       <c r="QD35"/>
     </row>
     <row r="36" spans="1:488">
       <c r="PW36" s="158"/>
-      <c r="QC36" s="269" t="s">
-        <v>441</v>
-      </c>
+      <c r="QC36" s="269"/>
     </row>
     <row r="37" spans="1:488">
       <c r="PW37" s="158"/>
@@ -27562,21 +27468,21 @@
       </c>
       <c r="DK48" s="63"/>
       <c r="DL48" s="51"/>
-      <c r="DM48" s="336" t="s">
+      <c r="DM48" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="DN48" s="336"/>
-      <c r="DO48" s="336"/>
-      <c r="DP48" s="336"/>
-      <c r="DQ48" s="336"/>
-      <c r="DR48" s="336"/>
+      <c r="DN48" s="337"/>
+      <c r="DO48" s="337"/>
+      <c r="DP48" s="337"/>
+      <c r="DQ48" s="337"/>
+      <c r="DR48" s="337"/>
       <c r="DS48" s="51"/>
-      <c r="DT48" s="336" t="s">
+      <c r="DT48" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="DU48" s="336"/>
-      <c r="DV48" s="336"/>
-      <c r="DW48" s="336"/>
+      <c r="DU48" s="337"/>
+      <c r="DV48" s="337"/>
+      <c r="DW48" s="337"/>
       <c r="DX48" s="3"/>
       <c r="DY48" s="3"/>
       <c r="DZ48" s="74"/>
@@ -27657,18 +27563,18 @@
       </c>
       <c r="GF48" s="3"/>
       <c r="GG48" s="3"/>
-      <c r="GH48" s="322"/>
-      <c r="GI48" s="322"/>
-      <c r="GJ48" s="322"/>
+      <c r="GH48" s="323"/>
+      <c r="GI48" s="323"/>
+      <c r="GJ48" s="323"/>
       <c r="GK48" s="110"/>
-      <c r="GL48" s="322" t="s">
+      <c r="GL48" s="323" t="s">
         <v>42</v>
       </c>
-      <c r="GM48" s="322"/>
-      <c r="GN48" s="322"/>
-      <c r="GO48" s="322"/>
-      <c r="GP48" s="322"/>
-      <c r="GQ48" s="322"/>
+      <c r="GM48" s="323"/>
+      <c r="GN48" s="323"/>
+      <c r="GO48" s="323"/>
+      <c r="GP48" s="323"/>
+      <c r="GQ48" s="323"/>
     </row>
     <row r="49" spans="1:189" ht="43.5" customHeight="1">
       <c r="A49" s="20"/>
@@ -27678,202 +27584,202 @@
       <c r="C49" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="324" t="s">
+      <c r="D49" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="324"/>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
-      <c r="H49" s="324"/>
-      <c r="I49" s="324"/>
-      <c r="J49" s="324"/>
-      <c r="K49" s="324"/>
-      <c r="L49" s="324"/>
-      <c r="M49" s="324"/>
-      <c r="N49" s="324"/>
-      <c r="O49" s="324"/>
-      <c r="P49" s="324"/>
-      <c r="Q49" s="324"/>
-      <c r="R49" s="324"/>
-      <c r="S49" s="324"/>
-      <c r="T49" s="324"/>
-      <c r="U49" s="324"/>
-      <c r="V49" s="324"/>
-      <c r="W49" s="324"/>
-      <c r="X49" s="324"/>
-      <c r="Y49" s="324"/>
-      <c r="Z49" s="324"/>
-      <c r="AA49" s="324"/>
-      <c r="AB49" s="324"/>
-      <c r="AC49" s="324"/>
-      <c r="AD49" s="324"/>
-      <c r="AE49" s="324"/>
-      <c r="AF49" s="324"/>
-      <c r="AG49" s="324"/>
-      <c r="AH49" s="324"/>
-      <c r="AI49" s="324" t="s">
+      <c r="E49" s="325"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="325"/>
+      <c r="H49" s="325"/>
+      <c r="I49" s="325"/>
+      <c r="J49" s="325"/>
+      <c r="K49" s="325"/>
+      <c r="L49" s="325"/>
+      <c r="M49" s="325"/>
+      <c r="N49" s="325"/>
+      <c r="O49" s="325"/>
+      <c r="P49" s="325"/>
+      <c r="Q49" s="325"/>
+      <c r="R49" s="325"/>
+      <c r="S49" s="325"/>
+      <c r="T49" s="325"/>
+      <c r="U49" s="325"/>
+      <c r="V49" s="325"/>
+      <c r="W49" s="325"/>
+      <c r="X49" s="325"/>
+      <c r="Y49" s="325"/>
+      <c r="Z49" s="325"/>
+      <c r="AA49" s="325"/>
+      <c r="AB49" s="325"/>
+      <c r="AC49" s="325"/>
+      <c r="AD49" s="325"/>
+      <c r="AE49" s="325"/>
+      <c r="AF49" s="325"/>
+      <c r="AG49" s="325"/>
+      <c r="AH49" s="325"/>
+      <c r="AI49" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="AJ49" s="324"/>
-      <c r="AK49" s="324"/>
-      <c r="AL49" s="324"/>
-      <c r="AM49" s="324"/>
-      <c r="AN49" s="324"/>
-      <c r="AO49" s="324"/>
-      <c r="AP49" s="324"/>
-      <c r="AQ49" s="324"/>
-      <c r="AR49" s="324"/>
-      <c r="AS49" s="324"/>
-      <c r="AT49" s="324"/>
-      <c r="AU49" s="324"/>
-      <c r="AV49" s="324"/>
-      <c r="AW49" s="324"/>
-      <c r="AX49" s="324"/>
-      <c r="AY49" s="324"/>
-      <c r="AZ49" s="324"/>
-      <c r="BA49" s="324"/>
-      <c r="BB49" s="324"/>
-      <c r="BC49" s="324"/>
-      <c r="BD49" s="324"/>
-      <c r="BE49" s="324"/>
-      <c r="BF49" s="324"/>
-      <c r="BG49" s="324"/>
-      <c r="BH49" s="324"/>
-      <c r="BI49" s="324"/>
-      <c r="BJ49" s="324"/>
-      <c r="BK49" s="324"/>
-      <c r="BL49" s="324"/>
-      <c r="BM49" s="324"/>
-      <c r="BN49" s="324" t="s">
+      <c r="AJ49" s="325"/>
+      <c r="AK49" s="325"/>
+      <c r="AL49" s="325"/>
+      <c r="AM49" s="325"/>
+      <c r="AN49" s="325"/>
+      <c r="AO49" s="325"/>
+      <c r="AP49" s="325"/>
+      <c r="AQ49" s="325"/>
+      <c r="AR49" s="325"/>
+      <c r="AS49" s="325"/>
+      <c r="AT49" s="325"/>
+      <c r="AU49" s="325"/>
+      <c r="AV49" s="325"/>
+      <c r="AW49" s="325"/>
+      <c r="AX49" s="325"/>
+      <c r="AY49" s="325"/>
+      <c r="AZ49" s="325"/>
+      <c r="BA49" s="325"/>
+      <c r="BB49" s="325"/>
+      <c r="BC49" s="325"/>
+      <c r="BD49" s="325"/>
+      <c r="BE49" s="325"/>
+      <c r="BF49" s="325"/>
+      <c r="BG49" s="325"/>
+      <c r="BH49" s="325"/>
+      <c r="BI49" s="325"/>
+      <c r="BJ49" s="325"/>
+      <c r="BK49" s="325"/>
+      <c r="BL49" s="325"/>
+      <c r="BM49" s="325"/>
+      <c r="BN49" s="325" t="s">
         <v>108</v>
       </c>
-      <c r="BO49" s="324"/>
-      <c r="BP49" s="324"/>
-      <c r="BQ49" s="324"/>
-      <c r="BR49" s="324"/>
-      <c r="BS49" s="324"/>
-      <c r="BT49" s="324"/>
-      <c r="BU49" s="324"/>
-      <c r="BV49" s="324"/>
-      <c r="BW49" s="324"/>
-      <c r="BX49" s="324"/>
-      <c r="BY49" s="324"/>
-      <c r="BZ49" s="324"/>
-      <c r="CA49" s="324"/>
-      <c r="CB49" s="324"/>
-      <c r="CC49" s="324"/>
-      <c r="CD49" s="324"/>
-      <c r="CE49" s="324"/>
-      <c r="CF49" s="324"/>
-      <c r="CG49" s="324"/>
-      <c r="CH49" s="324"/>
-      <c r="CI49" s="324"/>
-      <c r="CJ49" s="324"/>
-      <c r="CK49" s="324"/>
-      <c r="CL49" s="324"/>
-      <c r="CM49" s="324"/>
-      <c r="CN49" s="324"/>
-      <c r="CO49" s="324"/>
-      <c r="CP49" s="324"/>
-      <c r="CQ49" s="324"/>
-      <c r="CR49" s="324"/>
-      <c r="CS49" s="320" t="s">
+      <c r="BO49" s="325"/>
+      <c r="BP49" s="325"/>
+      <c r="BQ49" s="325"/>
+      <c r="BR49" s="325"/>
+      <c r="BS49" s="325"/>
+      <c r="BT49" s="325"/>
+      <c r="BU49" s="325"/>
+      <c r="BV49" s="325"/>
+      <c r="BW49" s="325"/>
+      <c r="BX49" s="325"/>
+      <c r="BY49" s="325"/>
+      <c r="BZ49" s="325"/>
+      <c r="CA49" s="325"/>
+      <c r="CB49" s="325"/>
+      <c r="CC49" s="325"/>
+      <c r="CD49" s="325"/>
+      <c r="CE49" s="325"/>
+      <c r="CF49" s="325"/>
+      <c r="CG49" s="325"/>
+      <c r="CH49" s="325"/>
+      <c r="CI49" s="325"/>
+      <c r="CJ49" s="325"/>
+      <c r="CK49" s="325"/>
+      <c r="CL49" s="325"/>
+      <c r="CM49" s="325"/>
+      <c r="CN49" s="325"/>
+      <c r="CO49" s="325"/>
+      <c r="CP49" s="325"/>
+      <c r="CQ49" s="325"/>
+      <c r="CR49" s="325"/>
+      <c r="CS49" s="321" t="s">
         <v>65</v>
       </c>
-      <c r="CT49" s="320"/>
-      <c r="CU49" s="320"/>
-      <c r="CV49" s="320"/>
-      <c r="CW49" s="320"/>
-      <c r="CX49" s="320"/>
-      <c r="CY49" s="320"/>
-      <c r="CZ49" s="320"/>
-      <c r="DA49" s="320"/>
-      <c r="DB49" s="320"/>
-      <c r="DC49" s="320"/>
-      <c r="DD49" s="320"/>
-      <c r="DE49" s="320"/>
-      <c r="DF49" s="320"/>
-      <c r="DG49" s="320"/>
-      <c r="DH49" s="320"/>
-      <c r="DI49" s="320"/>
-      <c r="DJ49" s="320"/>
-      <c r="DK49" s="320"/>
-      <c r="DL49" s="320"/>
-      <c r="DM49" s="320"/>
-      <c r="DN49" s="320"/>
-      <c r="DO49" s="320"/>
-      <c r="DP49" s="320"/>
-      <c r="DQ49" s="320"/>
-      <c r="DR49" s="320"/>
-      <c r="DS49" s="320"/>
-      <c r="DT49" s="320"/>
-      <c r="DU49" s="320"/>
-      <c r="DV49" s="320"/>
-      <c r="DW49" s="320"/>
+      <c r="CT49" s="321"/>
+      <c r="CU49" s="321"/>
+      <c r="CV49" s="321"/>
+      <c r="CW49" s="321"/>
+      <c r="CX49" s="321"/>
+      <c r="CY49" s="321"/>
+      <c r="CZ49" s="321"/>
+      <c r="DA49" s="321"/>
+      <c r="DB49" s="321"/>
+      <c r="DC49" s="321"/>
+      <c r="DD49" s="321"/>
+      <c r="DE49" s="321"/>
+      <c r="DF49" s="321"/>
+      <c r="DG49" s="321"/>
+      <c r="DH49" s="321"/>
+      <c r="DI49" s="321"/>
+      <c r="DJ49" s="321"/>
+      <c r="DK49" s="321"/>
+      <c r="DL49" s="321"/>
+      <c r="DM49" s="321"/>
+      <c r="DN49" s="321"/>
+      <c r="DO49" s="321"/>
+      <c r="DP49" s="321"/>
+      <c r="DQ49" s="321"/>
+      <c r="DR49" s="321"/>
+      <c r="DS49" s="321"/>
+      <c r="DT49" s="321"/>
+      <c r="DU49" s="321"/>
+      <c r="DV49" s="321"/>
+      <c r="DW49" s="321"/>
       <c r="DX49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="DY49" s="320"/>
-      <c r="DZ49" s="320"/>
-      <c r="EA49" s="320"/>
-      <c r="EB49" s="320"/>
-      <c r="EC49" s="320"/>
-      <c r="ED49" s="320"/>
-      <c r="EE49" s="320"/>
-      <c r="EF49" s="320"/>
-      <c r="EG49" s="320"/>
-      <c r="EH49" s="320"/>
-      <c r="EI49" s="320"/>
-      <c r="EJ49" s="320"/>
-      <c r="EK49" s="320"/>
-      <c r="EL49" s="320"/>
-      <c r="EM49" s="320"/>
-      <c r="EN49" s="320"/>
-      <c r="EO49" s="320"/>
-      <c r="EP49" s="320"/>
-      <c r="EQ49" s="320"/>
-      <c r="ER49" s="320"/>
-      <c r="ES49" s="320"/>
-      <c r="ET49" s="320"/>
-      <c r="EU49" s="320"/>
-      <c r="EV49" s="320"/>
-      <c r="EW49" s="320"/>
-      <c r="EX49" s="320"/>
-      <c r="EY49" s="320"/>
-      <c r="EZ49" s="320"/>
-      <c r="FA49" s="320"/>
-      <c r="FB49" s="320"/>
+      <c r="DY49" s="321"/>
+      <c r="DZ49" s="321"/>
+      <c r="EA49" s="321"/>
+      <c r="EB49" s="321"/>
+      <c r="EC49" s="321"/>
+      <c r="ED49" s="321"/>
+      <c r="EE49" s="321"/>
+      <c r="EF49" s="321"/>
+      <c r="EG49" s="321"/>
+      <c r="EH49" s="321"/>
+      <c r="EI49" s="321"/>
+      <c r="EJ49" s="321"/>
+      <c r="EK49" s="321"/>
+      <c r="EL49" s="321"/>
+      <c r="EM49" s="321"/>
+      <c r="EN49" s="321"/>
+      <c r="EO49" s="321"/>
+      <c r="EP49" s="321"/>
+      <c r="EQ49" s="321"/>
+      <c r="ER49" s="321"/>
+      <c r="ES49" s="321"/>
+      <c r="ET49" s="321"/>
+      <c r="EU49" s="321"/>
+      <c r="EV49" s="321"/>
+      <c r="EW49" s="321"/>
+      <c r="EX49" s="321"/>
+      <c r="EY49" s="321"/>
+      <c r="EZ49" s="321"/>
+      <c r="FA49" s="321"/>
+      <c r="FB49" s="321"/>
       <c r="FC49" s="3"/>
-      <c r="FD49" s="320"/>
-      <c r="FE49" s="320"/>
-      <c r="FF49" s="320"/>
-      <c r="FG49" s="320"/>
-      <c r="FH49" s="320"/>
-      <c r="FI49" s="320"/>
-      <c r="FJ49" s="320"/>
-      <c r="FK49" s="320"/>
-      <c r="FL49" s="320"/>
-      <c r="FM49" s="320"/>
-      <c r="FN49" s="320"/>
-      <c r="FO49" s="320"/>
-      <c r="FP49" s="320"/>
-      <c r="FQ49" s="320"/>
-      <c r="FR49" s="320"/>
-      <c r="FS49" s="320"/>
-      <c r="FT49" s="320"/>
-      <c r="FU49" s="320"/>
-      <c r="FV49" s="320"/>
-      <c r="FW49" s="320"/>
-      <c r="FX49" s="320"/>
-      <c r="FY49" s="320"/>
-      <c r="FZ49" s="320"/>
-      <c r="GA49" s="320"/>
-      <c r="GB49" s="320"/>
-      <c r="GC49" s="320"/>
-      <c r="GD49" s="320"/>
-      <c r="GE49" s="320"/>
-      <c r="GF49" s="320"/>
-      <c r="GG49" s="320"/>
+      <c r="FD49" s="321"/>
+      <c r="FE49" s="321"/>
+      <c r="FF49" s="321"/>
+      <c r="FG49" s="321"/>
+      <c r="FH49" s="321"/>
+      <c r="FI49" s="321"/>
+      <c r="FJ49" s="321"/>
+      <c r="FK49" s="321"/>
+      <c r="FL49" s="321"/>
+      <c r="FM49" s="321"/>
+      <c r="FN49" s="321"/>
+      <c r="FO49" s="321"/>
+      <c r="FP49" s="321"/>
+      <c r="FQ49" s="321"/>
+      <c r="FR49" s="321"/>
+      <c r="FS49" s="321"/>
+      <c r="FT49" s="321"/>
+      <c r="FU49" s="321"/>
+      <c r="FV49" s="321"/>
+      <c r="FW49" s="321"/>
+      <c r="FX49" s="321"/>
+      <c r="FY49" s="321"/>
+      <c r="FZ49" s="321"/>
+      <c r="GA49" s="321"/>
+      <c r="GB49" s="321"/>
+      <c r="GC49" s="321"/>
+      <c r="GD49" s="321"/>
+      <c r="GE49" s="321"/>
+      <c r="GF49" s="321"/>
+      <c r="GG49" s="321"/>
     </row>
     <row r="50" spans="1:189" ht="43.5" customHeight="1">
       <c r="A50" s="20"/>
@@ -27916,12 +27822,12 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3"/>
-      <c r="AI50" s="344"/>
-      <c r="AJ50" s="344"/>
-      <c r="AK50" s="344"/>
-      <c r="AL50" s="344"/>
-      <c r="AM50" s="344"/>
-      <c r="AN50" s="344"/>
+      <c r="AI50" s="345"/>
+      <c r="AJ50" s="345"/>
+      <c r="AK50" s="345"/>
+      <c r="AL50" s="345"/>
+      <c r="AM50" s="345"/>
+      <c r="AN50" s="345"/>
       <c r="AO50" s="3" t="s">
         <v>23</v>
       </c>
@@ -28120,9 +28026,9 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="344"/>
-      <c r="AG51" s="344"/>
-      <c r="AH51" s="344"/>
+      <c r="AF51" s="345"/>
+      <c r="AG51" s="345"/>
+      <c r="AH51" s="345"/>
       <c r="AI51" s="3" t="s">
         <v>23</v>
       </c>
@@ -28153,9 +28059,9 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3"/>
-      <c r="BK51" s="321"/>
-      <c r="BL51" s="321"/>
-      <c r="BM51" s="321"/>
+      <c r="BK51" s="322"/>
+      <c r="BL51" s="322"/>
+      <c r="BM51" s="322"/>
       <c r="BN51" s="3" t="s">
         <v>23</v>
       </c>
@@ -28186,9 +28092,9 @@
       <c r="CM51" s="3"/>
       <c r="CN51" s="3"/>
       <c r="CO51" s="3"/>
-      <c r="CP51" s="321"/>
-      <c r="CQ51" s="321"/>
-      <c r="CR51" s="321"/>
+      <c r="CP51" s="322"/>
+      <c r="CQ51" s="322"/>
+      <c r="CR51" s="322"/>
       <c r="CS51" s="3" t="s">
         <v>42</v>
       </c>
@@ -28219,9 +28125,9 @@
       <c r="DR51" s="3"/>
       <c r="DS51" s="3"/>
       <c r="DT51" s="3"/>
-      <c r="DU51" s="321"/>
-      <c r="DV51" s="321"/>
-      <c r="DW51" s="321"/>
+      <c r="DU51" s="322"/>
+      <c r="DV51" s="322"/>
+      <c r="DW51" s="322"/>
       <c r="DX51" s="3" t="s">
         <v>42</v>
       </c>
@@ -28252,9 +28158,9 @@
       <c r="EW51" s="3"/>
       <c r="EX51" s="3"/>
       <c r="EY51" s="3"/>
-      <c r="EZ51" s="321"/>
-      <c r="FA51" s="321"/>
-      <c r="FB51" s="321"/>
+      <c r="EZ51" s="322"/>
+      <c r="FA51" s="322"/>
+      <c r="FB51" s="322"/>
       <c r="FC51" s="3" t="s">
         <v>42</v>
       </c>
@@ -28285,9 +28191,9 @@
       <c r="GB51" s="3"/>
       <c r="GC51" s="3"/>
       <c r="GD51" s="3"/>
-      <c r="GE51" s="321"/>
-      <c r="GF51" s="321"/>
-      <c r="GG51" s="321"/>
+      <c r="GE51" s="322"/>
+      <c r="GF51" s="322"/>
+      <c r="GG51" s="322"/>
     </row>
     <row r="52" spans="1:189" ht="43.5" customHeight="1">
       <c r="A52" s="20"/>
@@ -28803,74 +28709,74 @@
       <c r="AX60" s="10"/>
       <c r="AY60" s="51"/>
       <c r="AZ60" s="51"/>
-      <c r="BA60" s="323"/>
-      <c r="BB60" s="323"/>
-      <c r="BC60" s="323"/>
-      <c r="BD60" s="323"/>
-      <c r="BE60" s="323"/>
+      <c r="BA60" s="324"/>
+      <c r="BB60" s="324"/>
+      <c r="BC60" s="324"/>
+      <c r="BD60" s="324"/>
+      <c r="BE60" s="324"/>
       <c r="BF60" s="51"/>
       <c r="BG60" s="51"/>
-      <c r="BH60" s="323"/>
-      <c r="BI60" s="323"/>
-      <c r="BJ60" s="323"/>
-      <c r="BK60" s="323"/>
-      <c r="BL60" s="323"/>
+      <c r="BH60" s="324"/>
+      <c r="BI60" s="324"/>
+      <c r="BJ60" s="324"/>
+      <c r="BK60" s="324"/>
+      <c r="BL60" s="324"/>
       <c r="BM60" s="51"/>
       <c r="BN60" s="51"/>
-      <c r="BO60" s="321"/>
-      <c r="BP60" s="321"/>
-      <c r="BQ60" s="321"/>
-      <c r="BR60" s="321"/>
-      <c r="BS60" s="321"/>
+      <c r="BO60" s="322"/>
+      <c r="BP60" s="322"/>
+      <c r="BQ60" s="322"/>
+      <c r="BR60" s="322"/>
+      <c r="BS60" s="322"/>
       <c r="BT60" s="51"/>
       <c r="BU60" s="51"/>
-      <c r="BV60" s="321"/>
-      <c r="BW60" s="321"/>
-      <c r="BX60" s="321"/>
-      <c r="BY60" s="321"/>
-      <c r="BZ60" s="321"/>
+      <c r="BV60" s="322"/>
+      <c r="BW60" s="322"/>
+      <c r="BX60" s="322"/>
+      <c r="BY60" s="322"/>
+      <c r="BZ60" s="322"/>
       <c r="CA60" s="49"/>
-      <c r="CB60" s="321"/>
-      <c r="CC60" s="321"/>
-      <c r="CD60" s="321"/>
-      <c r="CE60" s="321"/>
-      <c r="CF60" s="321"/>
-      <c r="CG60" s="321"/>
+      <c r="CB60" s="322"/>
+      <c r="CC60" s="322"/>
+      <c r="CD60" s="322"/>
+      <c r="CE60" s="322"/>
+      <c r="CF60" s="322"/>
+      <c r="CG60" s="322"/>
       <c r="CH60" s="51"/>
       <c r="CI60" s="51"/>
-      <c r="CJ60" s="321"/>
-      <c r="CK60" s="321"/>
-      <c r="CL60" s="321"/>
-      <c r="CM60" s="321"/>
-      <c r="CN60" s="321"/>
+      <c r="CJ60" s="322"/>
+      <c r="CK60" s="322"/>
+      <c r="CL60" s="322"/>
+      <c r="CM60" s="322"/>
+      <c r="CN60" s="322"/>
       <c r="CO60" s="51"/>
       <c r="CP60" s="51"/>
-      <c r="CQ60" s="321"/>
-      <c r="CR60" s="321"/>
-      <c r="CS60" s="321"/>
-      <c r="CT60" s="321"/>
-      <c r="CU60" s="321"/>
+      <c r="CQ60" s="322"/>
+      <c r="CR60" s="322"/>
+      <c r="CS60" s="322"/>
+      <c r="CT60" s="322"/>
+      <c r="CU60" s="322"/>
       <c r="CV60" s="44"/>
       <c r="CW60" s="44"/>
-      <c r="CX60" s="321"/>
-      <c r="CY60" s="321"/>
-      <c r="CZ60" s="321"/>
-      <c r="DA60" s="321"/>
-      <c r="DB60" s="321"/>
+      <c r="CX60" s="322"/>
+      <c r="CY60" s="322"/>
+      <c r="CZ60" s="322"/>
+      <c r="DA60" s="322"/>
+      <c r="DB60" s="322"/>
       <c r="DC60" s="44"/>
       <c r="DD60" s="44"/>
-      <c r="DE60" s="321"/>
-      <c r="DF60" s="321"/>
-      <c r="DG60" s="321"/>
-      <c r="DH60" s="321"/>
-      <c r="DI60" s="321"/>
+      <c r="DE60" s="322"/>
+      <c r="DF60" s="322"/>
+      <c r="DG60" s="322"/>
+      <c r="DH60" s="322"/>
+      <c r="DI60" s="322"/>
       <c r="DJ60" s="44"/>
       <c r="DK60" s="44"/>
-      <c r="DL60" s="321"/>
-      <c r="DM60" s="321"/>
-      <c r="DN60" s="321"/>
-      <c r="DO60" s="321"/>
-      <c r="DP60" s="321"/>
+      <c r="DL60" s="322"/>
+      <c r="DM60" s="322"/>
+      <c r="DN60" s="322"/>
+      <c r="DO60" s="322"/>
+      <c r="DP60" s="322"/>
       <c r="DQ60" s="44"/>
       <c r="DR60" s="44"/>
       <c r="DS60" s="50" t="s">
@@ -31130,11 +31036,11 @@
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="348" t="s">
+      <c r="A15" s="349" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
+      <c r="B15" s="349"/>
+      <c r="C15" s="349"/>
       <c r="D15" s="1"/>
       <c r="E15" s="7">
         <f t="shared" ref="E15:W15" si="7">SUM(E2:E14)-E19</f>
@@ -31615,11 +31521,11 @@
       </c>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="348" t="s">
+      <c r="A21" s="349" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="348"/>
-      <c r="C21" s="348"/>
+      <c r="B21" s="349"/>
+      <c r="C21" s="349"/>
       <c r="D21" s="1"/>
       <c r="E21" s="7">
         <f>SUM(E17:E20)</f>
@@ -31699,11 +31605,11 @@
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="348" t="s">
+      <c r="A22" s="349" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="348"/>
-      <c r="C22" s="348"/>
+      <c r="B22" s="349"/>
+      <c r="C22" s="349"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8">
         <f>E15+E21</f>
@@ -34282,7 +34188,7 @@
       <c r="A11" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="349"/>
+      <c r="B11" s="350"/>
       <c r="C11" s="243" t="s">
         <v>428</v>
       </c>
